--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="16.10" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="17.10" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Planilha10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Planilha11" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -29,7 +30,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -137,6 +138,22 @@
       <color rgb="FF333333"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -216,6 +233,12 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -230,7 +253,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -400,6 +423,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -553,6 +588,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -809,770 +863,770 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="I15:L27 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.57" customWidth="1" style="57" min="1" max="1"/>
-    <col width="36.14" customWidth="1" style="57" min="2" max="2"/>
-    <col width="13.14" customWidth="1" style="57" min="3" max="3"/>
-    <col width="11.43" customWidth="1" style="57" min="5" max="5"/>
-    <col width="12.57" customWidth="1" style="57" min="6" max="6"/>
-    <col width="45" customWidth="1" style="57" min="8" max="8"/>
-    <col width="14.43" customWidth="1" style="57" min="9" max="9"/>
-    <col width="11.86" customWidth="1" style="57" min="10" max="10"/>
-    <col width="13.43" customWidth="1" style="57" min="11" max="11"/>
+    <col width="6.57" customWidth="1" style="61" min="1" max="1"/>
+    <col width="36.14" customWidth="1" style="61" min="2" max="2"/>
+    <col width="13.14" customWidth="1" style="61" min="3" max="3"/>
+    <col width="11.43" customWidth="1" style="61" min="5" max="5"/>
+    <col width="12.57" customWidth="1" style="61" min="6" max="6"/>
+    <col width="45" customWidth="1" style="61" min="8" max="8"/>
+    <col width="14.43" customWidth="1" style="61" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="61" min="10" max="10"/>
+    <col width="13.43" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="62" t="n">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="inlineStr">
+      <c r="B3" s="66" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="63" t="n">
         <v>513777451</v>
       </c>
-      <c r="D3" s="59" t="n"/>
-      <c r="E3" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="57" t="inlineStr">
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G3" s="62" t="n">
+      <c r="G3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="64" t="inlineStr">
+      <c r="H3" s="68" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="I3" s="59" t="n">
+      <c r="I3" s="63" t="n">
         <v>513777451</v>
       </c>
-      <c r="J3" s="65" t="n"/>
-      <c r="K3" s="65" t="n">
+      <c r="J3" s="69" t="n"/>
+      <c r="K3" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="57" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="62" t="n">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="inlineStr">
+      <c r="B4" s="66" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="63" t="n">
         <v>513700004</v>
       </c>
-      <c r="D4" s="59" t="n"/>
-      <c r="E4" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="57" t="inlineStr">
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="62" t="n">
+      <c r="G4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="64" t="inlineStr">
+      <c r="H4" s="68" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I4" s="59" t="n">
+      <c r="I4" s="63" t="n">
         <v>513700004</v>
       </c>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n">
+      <c r="J4" s="69" t="n"/>
+      <c r="K4" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="57" t="inlineStr">
+      <c r="L4" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="62" t="n">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="inlineStr">
+      <c r="B5" s="70" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="63" t="n">
         <v>513776719</v>
       </c>
-      <c r="D5" s="59" t="n"/>
-      <c r="E5" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="57" t="inlineStr">
+      <c r="D5" s="63" t="n"/>
+      <c r="E5" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n">
+      <c r="G5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="64" t="inlineStr">
+      <c r="H5" s="68" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I5" s="59" t="n">
+      <c r="I5" s="63" t="n">
         <v>513758449</v>
       </c>
-      <c r="J5" s="65" t="n"/>
-      <c r="K5" s="65" t="n">
+      <c r="J5" s="69" t="n"/>
+      <c r="K5" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="57" t="inlineStr">
+      <c r="L5" s="61" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="A6" s="62" t="n">
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="A6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="inlineStr">
+      <c r="B6" s="66" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="63" t="n">
         <v>513758449</v>
       </c>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="57" t="inlineStr">
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G6" s="62" t="n">
+      <c r="G6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="64" t="inlineStr">
+      <c r="H6" s="68" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I6" s="59" t="n">
+      <c r="I6" s="63" t="n">
         <v>513749220</v>
       </c>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n">
+      <c r="J6" s="69" t="n"/>
+      <c r="K6" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="57" t="inlineStr">
+      <c r="L6" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="A7" s="62" t="n">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="A7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="inlineStr">
+      <c r="B7" s="66" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="63" t="n">
         <v>513749220</v>
       </c>
-      <c r="D7" s="59" t="n"/>
-      <c r="E7" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="57" t="inlineStr">
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="62" t="n">
+      <c r="G7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="64" t="inlineStr">
+      <c r="H7" s="68" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="59" t="n">
+      <c r="I7" s="63" t="n">
         <v>513754823</v>
       </c>
-      <c r="J7" s="65" t="n"/>
-      <c r="K7" s="65" t="n">
+      <c r="J7" s="69" t="n"/>
+      <c r="K7" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="57" t="inlineStr">
+      <c r="L7" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="A8" s="62" t="n">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="A8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="inlineStr">
+      <c r="B8" s="66" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="63" t="n">
         <v>513756797</v>
       </c>
-      <c r="D8" s="59" t="n"/>
-      <c r="E8" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="57" t="inlineStr">
+      <c r="D8" s="63" t="n"/>
+      <c r="E8" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="62" t="n">
+      <c r="G8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="62" t="inlineStr">
+      <c r="H8" s="66" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I8" s="59" t="n">
+      <c r="I8" s="63" t="n">
         <v>513781493</v>
       </c>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n">
+      <c r="J8" s="69" t="n"/>
+      <c r="K8" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="57" t="inlineStr">
+      <c r="L8" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="A9" s="62" t="n">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="A9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="inlineStr">
+      <c r="B9" s="66" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="63" t="n">
         <v>513761848</v>
       </c>
-      <c r="D9" s="59" t="n"/>
-      <c r="E9" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="57" t="inlineStr">
+      <c r="D9" s="63" t="n"/>
+      <c r="E9" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="62" t="n">
+      <c r="G9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="62" t="inlineStr">
+      <c r="H9" s="66" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I9" s="59" t="n">
+      <c r="I9" s="63" t="n">
         <v>513701260</v>
       </c>
-      <c r="J9" s="65" t="n"/>
-      <c r="K9" s="65" t="n">
+      <c r="J9" s="69" t="n"/>
+      <c r="K9" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="57" t="inlineStr">
+      <c r="L9" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="A10" s="62" t="n">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="A10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="inlineStr">
+      <c r="B10" s="66" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="63" t="n">
         <v>513778649</v>
       </c>
-      <c r="D10" s="65" t="n"/>
-      <c r="E10" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="57" t="inlineStr">
+      <c r="D10" s="69" t="n"/>
+      <c r="E10" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G10" s="62" t="n">
+      <c r="G10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="62" t="inlineStr">
+      <c r="H10" s="66" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I10" s="59" t="n">
+      <c r="I10" s="63" t="n">
         <v>513772028</v>
       </c>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n">
+      <c r="J10" s="69" t="n"/>
+      <c r="K10" s="69" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="57" t="inlineStr">
+      <c r="L10" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="A11" s="62" t="n">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="A11" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="66" t="inlineStr">
+      <c r="B11" s="70" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="63" t="n">
         <v>513720426</v>
       </c>
-      <c r="D11" s="65" t="n"/>
-      <c r="E11" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="57" t="inlineStr">
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I11" s="68" t="n"/>
-      <c r="J11" s="69" t="inlineStr">
+      <c r="I11" s="72" t="n"/>
+      <c r="J11" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="74">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="A12" s="62" t="n">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="A12" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="62" t="inlineStr">
+      <c r="B12" s="66" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="63" t="n">
         <v>513754823</v>
       </c>
-      <c r="D12" s="59" t="n"/>
-      <c r="E12" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="57" t="inlineStr">
+      <c r="D12" s="63" t="n"/>
+      <c r="E12" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="71" t="n"/>
-      <c r="H12" s="68" t="n"/>
-      <c r="I12" s="68" t="n"/>
-      <c r="J12" s="72" t="n"/>
+      <c r="G12" s="75" t="n"/>
+      <c r="H12" s="72" t="n"/>
+      <c r="I12" s="72" t="n"/>
+      <c r="J12" s="76" t="n"/>
       <c r="K12" s="14" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="A13" s="62" t="n">
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="A13" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="62" t="inlineStr">
+      <c r="B13" s="66" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="63" t="n">
         <v>513781493</v>
       </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="57" t="inlineStr">
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H13" s="73" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="A14" s="62" t="n">
+      <c r="H13" s="77" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="A14" s="66" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="62" t="inlineStr">
+      <c r="B14" s="66" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="63" t="n">
         <v>513766860</v>
       </c>
-      <c r="D14" s="65" t="n"/>
-      <c r="E14" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="57" t="inlineStr">
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I14" s="74" t="inlineStr">
+      <c r="I14" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="75" t="n">
+      <c r="J14" s="65" t="n"/>
+      <c r="K14" s="79" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="A15" s="62" t="n">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="A15" s="66" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="62" t="inlineStr">
+      <c r="B15" s="66" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C15" s="59" t="n">
+      <c r="C15" s="63" t="n">
         <v>513701260</v>
       </c>
-      <c r="D15" s="65" t="n"/>
-      <c r="E15" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="57" t="inlineStr">
+      <c r="D15" s="69" t="n"/>
+      <c r="E15" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I15" s="74" t="inlineStr">
+      <c r="I15" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J15" s="61" t="n"/>
+      <c r="J15" s="65" t="n"/>
       <c r="K15" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="A16" s="62" t="n">
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="A16" s="66" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="62" t="inlineStr">
+      <c r="B16" s="66" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C16" s="59" t="inlineStr">
+      <c r="C16" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D16" s="65" t="n"/>
-      <c r="E16" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="57" t="inlineStr">
+      <c r="D16" s="69" t="n"/>
+      <c r="E16" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="76" t="inlineStr">
+      <c r="I16" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="77" t="n">
+      <c r="J16" s="65" t="n"/>
+      <c r="K16" s="81" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="A17" s="62" t="n">
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="A17" s="66" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="62" t="inlineStr">
+      <c r="B17" s="66" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C17" s="59" t="n">
+      <c r="C17" s="63" t="n">
         <v>513772028</v>
       </c>
-      <c r="D17" s="65" t="n"/>
-      <c r="E17" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="57" t="inlineStr">
+      <c r="D17" s="69" t="n"/>
+      <c r="E17" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I17" s="74" t="inlineStr">
+      <c r="I17" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J17" s="61" t="n"/>
+      <c r="J17" s="65" t="n"/>
       <c r="K17" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="A18" s="62" t="n">
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="A18" s="66" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="62" t="inlineStr">
+      <c r="B18" s="66" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C18" s="59" t="n">
+      <c r="C18" s="63" t="n">
         <v>513753257</v>
       </c>
-      <c r="D18" s="65" t="n"/>
-      <c r="E18" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="57" t="inlineStr">
+      <c r="D18" s="69" t="n"/>
+      <c r="E18" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I18" s="74" t="inlineStr">
+      <c r="I18" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="78" t="n">
+      <c r="J18" s="65" t="n"/>
+      <c r="K18" s="82" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="A19" s="62" t="n">
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="A19" s="66" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="62" t="inlineStr">
+      <c r="B19" s="66" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C19" s="59" t="n">
+      <c r="C19" s="63" t="n">
         <v>513697796</v>
       </c>
-      <c r="D19" s="65" t="n"/>
-      <c r="E19" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="57" t="inlineStr">
+      <c r="D19" s="69" t="n"/>
+      <c r="E19" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="74" t="inlineStr">
+      <c r="I19" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J19" s="61" t="n"/>
-      <c r="K19" s="79">
+      <c r="J19" s="65" t="n"/>
+      <c r="K19" s="83">
         <f>K16-K18-K17</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="58">
-      <c r="A20" s="71" t="n"/>
-      <c r="B20" s="72" t="n"/>
-      <c r="D20" s="80" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="62">
+      <c r="A20" s="75" t="n"/>
+      <c r="B20" s="76" t="n"/>
+      <c r="D20" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="71">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="I20" s="81" t="inlineStr">
+      <c r="I20" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="82">
+      <c r="J20" s="65" t="n"/>
+      <c r="K20" s="86">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="58">
-      <c r="A21" s="71" t="n"/>
-      <c r="D21" s="83" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="62">
+      <c r="A21" s="75" t="n"/>
+      <c r="D21" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="88">
         <f>49*17</f>
         <v/>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="I21" s="81" t="inlineStr">
+      <c r="I21" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="82">
+      <c r="J21" s="65" t="n"/>
+      <c r="K21" s="86">
         <f>300+E14</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="58">
-      <c r="A22" s="71" t="n"/>
-      <c r="D22" s="83" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="62">
+      <c r="A22" s="75" t="n"/>
+      <c r="D22" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E22" s="84" t="n">
+      <c r="E22" s="88" t="n">
         <v>1444.1</v>
       </c>
-      <c r="I22" s="85" t="inlineStr">
+      <c r="I22" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J22" s="61" t="n"/>
-      <c r="K22" s="86">
+      <c r="J22" s="65" t="n"/>
+      <c r="K22" s="90">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="58">
-      <c r="K23" s="72" t="n"/>
+    <row r="23" ht="15" customHeight="1" s="62">
+      <c r="K23" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1602,719 +1656,719 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15:L27"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48.04" customWidth="1" style="57" min="2" max="2"/>
-    <col width="12.13" customWidth="1" style="57" min="3" max="3"/>
-    <col width="41.17" customWidth="1" style="57" min="8" max="8"/>
-    <col width="10.54" customWidth="1" style="57" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="57" min="11" max="11"/>
+    <col width="48.04" customWidth="1" style="61" min="2" max="2"/>
+    <col width="12.13" customWidth="1" style="61" min="3" max="3"/>
+    <col width="41.17" customWidth="1" style="61" min="8" max="8"/>
+    <col width="10.54" customWidth="1" style="61" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="F1" s="57" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="F1" s="61" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="13.8" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="57" t="n"/>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="58">
-      <c r="A3" s="62" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="62">
+      <c r="A3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="inlineStr">
+      <c r="B3" s="109" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="59" t="inlineStr">
+      <c r="C3" s="63" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="59" t="n"/>
-      <c r="E3" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="62" t="n"/>
-      <c r="H3" s="106" t="inlineStr">
+      <c r="G3" s="66" t="n"/>
+      <c r="H3" s="110" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="59" t="inlineStr">
+      <c r="I3" s="63" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="59" t="n"/>
-      <c r="K3" s="59" t="n">
+      <c r="J3" s="63" t="n"/>
+      <c r="K3" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="72" t="inlineStr">
+      <c r="L3" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="58">
-      <c r="A4" s="62" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="62">
+      <c r="A4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="106" t="inlineStr">
+      <c r="B4" s="110" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="63" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="59" t="n"/>
-      <c r="E4" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="62" t="n"/>
-      <c r="H4" s="107" t="inlineStr">
+      <c r="G4" s="66" t="n"/>
+      <c r="H4" s="111" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="59" t="n">
+      <c r="I4" s="63" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="59" t="n"/>
-      <c r="K4" s="59" t="n">
+      <c r="J4" s="63" t="n"/>
+      <c r="K4" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="72" t="inlineStr">
+      <c r="L4" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="58">
-      <c r="A5" s="62" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="62">
+      <c r="A5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="inlineStr">
+      <c r="B5" s="111" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="63" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="59" t="n"/>
-      <c r="E5" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="D5" s="63" t="n"/>
+      <c r="E5" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n"/>
-      <c r="H5" s="107" t="inlineStr">
+      <c r="G5" s="66" t="n"/>
+      <c r="H5" s="111" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="59" t="n">
+      <c r="I5" s="63" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="59" t="n"/>
-      <c r="K5" s="59" t="n">
+      <c r="J5" s="63" t="n"/>
+      <c r="K5" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="72" t="inlineStr">
+      <c r="L5" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="58">
-      <c r="A6" s="62" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="62">
+      <c r="A6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="108" t="inlineStr">
+      <c r="B6" s="112" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="63" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="62" t="n"/>
-      <c r="H6" s="107" t="inlineStr">
+      <c r="G6" s="66" t="n"/>
+      <c r="H6" s="111" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="59" t="n">
+      <c r="I6" s="63" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="59" t="n"/>
-      <c r="K6" s="59" t="n">
+      <c r="J6" s="63" t="n"/>
+      <c r="K6" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="72" t="inlineStr">
+      <c r="L6" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="58">
-      <c r="A7" s="62" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="62">
+      <c r="A7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="107" t="inlineStr">
+      <c r="B7" s="111" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="63" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="59" t="n"/>
-      <c r="E7" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="62" t="n"/>
-      <c r="H7" s="107" t="inlineStr">
+      <c r="G7" s="66" t="n"/>
+      <c r="H7" s="111" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="59" t="n">
+      <c r="I7" s="63" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="59" t="n"/>
-      <c r="K7" s="59" t="n">
+      <c r="J7" s="63" t="n"/>
+      <c r="K7" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="72" t="inlineStr">
+      <c r="L7" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="58">
-      <c r="A8" s="62" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="62">
+      <c r="A8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="108" t="inlineStr">
+      <c r="B8" s="112" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="63" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="59" t="n"/>
-      <c r="E8" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="D8" s="63" t="n"/>
+      <c r="E8" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="62" t="n"/>
-      <c r="H8" s="107" t="inlineStr">
+      <c r="G8" s="66" t="n"/>
+      <c r="H8" s="111" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="59" t="n">
+      <c r="I8" s="63" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="59" t="n"/>
-      <c r="K8" s="59" t="n">
+      <c r="J8" s="63" t="n"/>
+      <c r="K8" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="72" t="inlineStr">
+      <c r="L8" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="58">
-      <c r="A9" s="62" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="62">
+      <c r="A9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="107" t="inlineStr">
+      <c r="B9" s="111" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="63" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="59" t="n"/>
-      <c r="E9" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="72" t="inlineStr">
+      <c r="D9" s="63" t="n"/>
+      <c r="E9" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="62" t="n"/>
-      <c r="H9" s="107" t="inlineStr">
+      <c r="G9" s="66" t="n"/>
+      <c r="H9" s="111" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="59" t="n">
+      <c r="I9" s="63" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="59" t="n"/>
-      <c r="K9" s="59" t="n">
+      <c r="J9" s="63" t="n"/>
+      <c r="K9" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="72" t="inlineStr">
+      <c r="L9" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="58">
-      <c r="A10" s="62" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="62">
+      <c r="A10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="107" t="inlineStr">
+      <c r="B10" s="111" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="63" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="59" t="n"/>
-      <c r="E10" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="72" t="inlineStr">
+      <c r="D10" s="63" t="n"/>
+      <c r="E10" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="62" t="n"/>
-      <c r="H10" s="64" t="inlineStr">
+      <c r="G10" s="66" t="n"/>
+      <c r="H10" s="68" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="59" t="inlineStr">
+      <c r="I10" s="63" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="59" t="n"/>
-      <c r="K10" s="59" t="n">
+      <c r="J10" s="63" t="n"/>
+      <c r="K10" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="72" t="inlineStr">
+      <c r="L10" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="58">
-      <c r="A11" s="62" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="62">
+      <c r="A11" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="107" t="inlineStr">
+      <c r="B11" s="111" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="63" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="59" t="n"/>
-      <c r="E11" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="72" t="inlineStr">
+      <c r="D11" s="63" t="n"/>
+      <c r="E11" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="62" t="n"/>
-      <c r="H11" s="64" t="inlineStr">
+      <c r="G11" s="66" t="n"/>
+      <c r="H11" s="68" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="59" t="inlineStr">
+      <c r="I11" s="63" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="59" t="n"/>
-      <c r="K11" s="59" t="n">
+      <c r="J11" s="63" t="n"/>
+      <c r="K11" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="72" t="inlineStr">
+      <c r="L11" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="58">
-      <c r="A12" s="62" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="62">
+      <c r="A12" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="107" t="inlineStr">
+      <c r="B12" s="111" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="63" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="59" t="n"/>
-      <c r="E12" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="72" t="inlineStr">
+      <c r="D12" s="63" t="n"/>
+      <c r="E12" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="62" t="n"/>
-      <c r="H12" s="64" t="n"/>
-      <c r="I12" s="59" t="n"/>
-      <c r="J12" s="59" t="n"/>
-      <c r="K12" s="59" t="n">
+      <c r="G12" s="66" t="n"/>
+      <c r="H12" s="68" t="n"/>
+      <c r="I12" s="63" t="n"/>
+      <c r="J12" s="63" t="n"/>
+      <c r="K12" s="63" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="72" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="58">
-      <c r="A13" s="62" t="n">
+      <c r="L12" s="76" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="62">
+      <c r="A13" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="107" t="inlineStr">
+      <c r="B13" s="111" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="63" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="59" t="n"/>
-      <c r="E13" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="72" t="inlineStr">
+      <c r="D13" s="63" t="n"/>
+      <c r="E13" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="72" t="n"/>
-      <c r="H13" s="72" t="n"/>
-      <c r="I13" s="68" t="n"/>
-      <c r="J13" s="69" t="inlineStr">
+      <c r="G13" s="76" t="n"/>
+      <c r="H13" s="76" t="n"/>
+      <c r="I13" s="72" t="n"/>
+      <c r="J13" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="74">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="58">
-      <c r="A14" s="62" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="62">
+      <c r="A14" s="66" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="107" t="inlineStr">
+      <c r="B14" s="111" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="63" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="59" t="n"/>
-      <c r="E14" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="72" t="inlineStr">
+      <c r="D14" s="63" t="n"/>
+      <c r="E14" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="71" t="n"/>
-      <c r="H14" s="68" t="n"/>
-      <c r="I14" s="68" t="n"/>
-      <c r="J14" s="72" t="n"/>
+      <c r="G14" s="75" t="n"/>
+      <c r="H14" s="72" t="n"/>
+      <c r="I14" s="72" t="n"/>
+      <c r="J14" s="76" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="58">
-      <c r="A15" s="62" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="62">
+      <c r="A15" s="66" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="107" t="inlineStr">
+      <c r="B15" s="111" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="59" t="n">
+      <c r="C15" s="63" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="59" t="n"/>
-      <c r="E15" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="72" t="inlineStr">
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="73" t="n"/>
-    </row>
-    <row r="16" ht="13.8" customHeight="1" s="58">
-      <c r="A16" s="62" t="n">
+      <c r="H15" s="77" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="62">
+      <c r="A16" s="66" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="64" t="n"/>
-      <c r="C16" s="59" t="n"/>
-      <c r="D16" s="59" t="n"/>
-      <c r="E16" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="72" t="n"/>
-      <c r="I16" s="74" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="75" t="n"/>
-    </row>
-    <row r="17" ht="13.8" customHeight="1" s="58">
-      <c r="A17" s="62" t="n">
+      <c r="B16" s="68" t="n"/>
+      <c r="C16" s="63" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="76" t="n"/>
+      <c r="I16" s="78" t="n"/>
+      <c r="J16" s="65" t="n"/>
+      <c r="K16" s="79" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="62">
+      <c r="A17" s="66" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="64" t="n"/>
-      <c r="C17" s="59" t="n"/>
-      <c r="D17" s="59" t="n"/>
-      <c r="E17" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="72" t="n"/>
-      <c r="I17" s="74" t="n"/>
-      <c r="J17" s="61" t="n"/>
-      <c r="K17" s="75" t="n"/>
-    </row>
-    <row r="18" ht="13.8" customHeight="1" s="58">
-      <c r="A18" s="62" t="n">
+      <c r="B17" s="68" t="n"/>
+      <c r="C17" s="63" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="76" t="n"/>
+      <c r="I17" s="78" t="n"/>
+      <c r="J17" s="65" t="n"/>
+      <c r="K17" s="79" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="62">
+      <c r="A18" s="66" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="64" t="n"/>
-      <c r="C18" s="59" t="n"/>
-      <c r="D18" s="59" t="n"/>
-      <c r="E18" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="72" t="n"/>
-      <c r="I18" s="76" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="77" t="n"/>
-    </row>
-    <row r="19" ht="13.8" customHeight="1" s="58">
-      <c r="A19" s="62" t="n">
+      <c r="B18" s="68" t="n"/>
+      <c r="C18" s="63" t="n"/>
+      <c r="D18" s="63" t="n"/>
+      <c r="E18" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="76" t="n"/>
+      <c r="I18" s="80" t="n"/>
+      <c r="J18" s="65" t="n"/>
+      <c r="K18" s="81" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="62">
+      <c r="A19" s="66" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="64" t="n"/>
-      <c r="C19" s="59" t="n"/>
-      <c r="D19" s="59" t="n"/>
-      <c r="E19" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="72" t="n"/>
-      <c r="I19" s="74" t="n"/>
-      <c r="J19" s="61" t="n"/>
+      <c r="B19" s="68" t="n"/>
+      <c r="C19" s="63" t="n"/>
+      <c r="D19" s="63" t="n"/>
+      <c r="E19" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="76" t="n"/>
+      <c r="I19" s="78" t="n"/>
+      <c r="J19" s="65" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="58">
-      <c r="A20" s="62" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="62">
+      <c r="A20" s="66" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="64" t="n"/>
-      <c r="C20" s="59" t="n"/>
-      <c r="D20" s="59" t="n"/>
-      <c r="E20" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="72" t="n"/>
-      <c r="I20" s="74" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="78" t="n"/>
-    </row>
-    <row r="21" ht="13.8" customHeight="1" s="58">
-      <c r="A21" s="62" t="n">
+      <c r="B20" s="68" t="n"/>
+      <c r="C20" s="63" t="n"/>
+      <c r="D20" s="63" t="n"/>
+      <c r="E20" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="76" t="n"/>
+      <c r="I20" s="78" t="n"/>
+      <c r="J20" s="65" t="n"/>
+      <c r="K20" s="82" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="62">
+      <c r="A21" s="66" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="64" t="n"/>
-      <c r="C21" s="59" t="n"/>
-      <c r="D21" s="59" t="n"/>
-      <c r="E21" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="72" t="n"/>
-      <c r="I21" s="74" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="79" t="n"/>
-    </row>
-    <row r="22" ht="13.8" customHeight="1" s="58">
-      <c r="A22" s="62" t="n">
+      <c r="B21" s="68" t="n"/>
+      <c r="C21" s="63" t="n"/>
+      <c r="D21" s="63" t="n"/>
+      <c r="E21" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="76" t="n"/>
+      <c r="I21" s="78" t="n"/>
+      <c r="J21" s="65" t="n"/>
+      <c r="K21" s="83" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="62">
+      <c r="A22" s="66" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="64" t="n"/>
-      <c r="C22" s="59" t="n"/>
-      <c r="D22" s="59" t="n"/>
-      <c r="E22" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="72" t="n"/>
-      <c r="I22" s="81" t="n"/>
-      <c r="J22" s="61" t="n"/>
-      <c r="K22" s="82" t="n"/>
-    </row>
-    <row r="23" ht="13.8" customHeight="1" s="58">
-      <c r="A23" s="62" t="n">
+      <c r="B22" s="68" t="n"/>
+      <c r="C22" s="63" t="n"/>
+      <c r="D22" s="63" t="n"/>
+      <c r="E22" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="76" t="n"/>
+      <c r="I22" s="85" t="n"/>
+      <c r="J22" s="65" t="n"/>
+      <c r="K22" s="86" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="62">
+      <c r="A23" s="66" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="64" t="n"/>
-      <c r="C23" s="109" t="n"/>
-      <c r="D23" s="59" t="n"/>
-      <c r="E23" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="72" t="n"/>
+      <c r="B23" s="68" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="63" t="n"/>
+      <c r="E23" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="76" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="81" t="n"/>
-      <c r="J23" s="61" t="n"/>
-      <c r="K23" s="82" t="n"/>
-    </row>
-    <row r="24" ht="14.9" customHeight="1" s="58">
-      <c r="A24" s="71" t="n"/>
-      <c r="B24" s="72" t="n"/>
-      <c r="D24" s="80" t="n"/>
-      <c r="E24" s="67" t="n"/>
-      <c r="F24" s="57" t="n"/>
-      <c r="I24" s="85" t="n"/>
-      <c r="J24" s="61" t="n"/>
-      <c r="K24" s="86" t="n"/>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" s="58">
-      <c r="A25" s="71" t="n"/>
-      <c r="D25" s="83" t="n"/>
-      <c r="E25" s="84" t="n"/>
-      <c r="F25" s="57" t="n"/>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" s="58">
-      <c r="A26" s="71" t="n"/>
-      <c r="D26" s="83" t="n"/>
-      <c r="E26" s="84" t="n"/>
-      <c r="F26" s="57" t="n"/>
-    </row>
-    <row r="27" ht="13.8" customHeight="1" s="58"/>
+      <c r="I23" s="85" t="n"/>
+      <c r="J23" s="65" t="n"/>
+      <c r="K23" s="86" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="62">
+      <c r="A24" s="75" t="n"/>
+      <c r="B24" s="76" t="n"/>
+      <c r="D24" s="84" t="n"/>
+      <c r="E24" s="71" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="I24" s="89" t="n"/>
+      <c r="J24" s="65" t="n"/>
+      <c r="K24" s="90" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="62">
+      <c r="A25" s="75" t="n"/>
+      <c r="D25" s="87" t="n"/>
+      <c r="E25" s="88" t="n"/>
+      <c r="F25" s="61" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="62">
+      <c r="A26" s="75" t="n"/>
+      <c r="D26" s="87" t="n"/>
+      <c r="E26" s="88" t="n"/>
+      <c r="F26" s="61" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="62"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2343,6 +2397,570 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:CD34"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="55" customWidth="1" style="61" min="2" max="2"/>
+    <col width="12.37" customWidth="1" style="61" min="7" max="7"/>
+    <col width="55" customWidth="1" style="61" min="8" max="8"/>
+    <col width="12.13" customWidth="1" style="61" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" s="62">
+      <c r="A1" s="114" t="inlineStr">
+        <is>
+          <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
+        </is>
+      </c>
+      <c r="G1" s="114" t="inlineStr">
+        <is>
+          <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="62">
+      <c r="A2" s="114" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="B2" s="114" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C2" s="114" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="D2" s="115" t="n"/>
+      <c r="E2" s="114" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="114" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="H2" s="114" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="I2" s="114" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="114" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="62">
+      <c r="A3" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="117" t="inlineStr">
+        <is>
+          <t>lucas</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="n"/>
+      <c r="D3" s="61" t="n"/>
+      <c r="E3" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="61" t="n"/>
+      <c r="G3" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="117" t="inlineStr">
+        <is>
+          <t>lucas</t>
+        </is>
+      </c>
+      <c r="J3" s="61" t="n"/>
+      <c r="K3" s="117" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="62">
+      <c r="A4" s="116" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="117" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="117" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="J4" s="61" t="n"/>
+      <c r="K4" s="117" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="62">
+      <c r="A5" s="117" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="118" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C5" s="119" t="n"/>
+      <c r="D5" s="119" t="n"/>
+      <c r="E5" s="118" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="61" t="n"/>
+      <c r="G5" s="116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="118" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="J5" s="61" t="n"/>
+      <c r="K5" s="117" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L5" s="61" t="n"/>
+      <c r="M5" s="61" t="n"/>
+      <c r="CD5" s="120" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="62">
+      <c r="A6" s="117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="117" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="117" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="J6" s="61" t="n"/>
+      <c r="K6" s="117" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L6" s="61" t="n"/>
+      <c r="M6" s="61" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="62">
+      <c r="A7" s="118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="117" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="116" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="117" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="117" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="62">
+      <c r="A8" s="117" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="117" t="inlineStr">
+        <is>
+          <t>gustavo</t>
+        </is>
+      </c>
+      <c r="C8" s="61" t="n"/>
+      <c r="D8" s="61" t="n"/>
+      <c r="E8" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="61" t="n"/>
+      <c r="J8" s="61" t="n"/>
+      <c r="K8" s="61" t="n"/>
+      <c r="L8" s="61" t="n"/>
+      <c r="M8" s="61" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="62">
+      <c r="A9" s="117" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="117" t="inlineStr">
+        <is>
+          <t>brother</t>
+        </is>
+      </c>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="62">
+      <c r="A10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="J10" s="61" t="n"/>
+      <c r="K10" s="61" t="n"/>
+      <c r="L10" s="61" t="n"/>
+      <c r="M10" s="61" t="n"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="62">
+      <c r="A11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="61" t="n"/>
+      <c r="M11" s="61" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="62">
+      <c r="A12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="61" t="n"/>
+      <c r="M12" s="61" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="62">
+      <c r="A13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="62">
+      <c r="A14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="62">
+      <c r="A15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="J15" s="61" t="n"/>
+      <c r="K15" s="61" t="n"/>
+      <c r="L15" s="61" t="n"/>
+      <c r="M15" s="61" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="62">
+      <c r="A16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="62">
+      <c r="A17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="J17" s="61" t="n"/>
+      <c r="K17" s="61" t="n"/>
+      <c r="L17" s="61" t="n"/>
+      <c r="M17" s="61" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="62">
+      <c r="A18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="62">
+      <c r="A19" s="61" t="n"/>
+      <c r="C19" s="61" t="n"/>
+      <c r="D19" s="61" t="n"/>
+      <c r="E19" s="61" t="n"/>
+      <c r="F19" s="61" t="n"/>
+      <c r="J19" s="61" t="n"/>
+      <c r="K19" s="61" t="n"/>
+      <c r="L19" s="61" t="n"/>
+      <c r="M19" s="61" t="n"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" s="62">
+      <c r="A20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="62">
+      <c r="A21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="62">
+      <c r="A22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="J22" s="61" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="61" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="62">
+      <c r="A23" s="61" t="n"/>
+      <c r="C23" s="61" t="n"/>
+      <c r="D23" s="61" t="n"/>
+      <c r="E23" s="61" t="n"/>
+      <c r="F23" s="61" t="n"/>
+      <c r="J23" s="61" t="n"/>
+      <c r="K23" s="61" t="n"/>
+      <c r="L23" s="61" t="n"/>
+      <c r="M23" s="61" t="n"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" s="62">
+      <c r="A24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="J24" s="61" t="n"/>
+      <c r="K24" s="61" t="n"/>
+      <c r="L24" s="61" t="n"/>
+      <c r="M24" s="61" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="62">
+      <c r="A25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="J25" s="61" t="n"/>
+      <c r="K25" s="61" t="n"/>
+      <c r="L25" s="61" t="n"/>
+      <c r="M25" s="61" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="62">
+      <c r="A26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="J26" s="61" t="n"/>
+      <c r="K26" s="61" t="n"/>
+      <c r="L26" s="61" t="n"/>
+      <c r="M26" s="61" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="62">
+      <c r="A27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="61" t="n"/>
+      <c r="L27" s="61" t="n"/>
+      <c r="M27" s="61" t="n"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" s="62">
+      <c r="A28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" s="62">
+      <c r="A29" s="61" t="n"/>
+      <c r="C29" s="61" t="n"/>
+      <c r="D29" s="61" t="n"/>
+      <c r="E29" s="61" t="n"/>
+      <c r="F29" s="61" t="n"/>
+      <c r="J29" s="61" t="n"/>
+      <c r="K29" s="61" t="n"/>
+      <c r="L29" s="61" t="n"/>
+      <c r="M29" s="61" t="n"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" s="62">
+      <c r="A30" s="61" t="n"/>
+      <c r="C30" s="61" t="n"/>
+      <c r="D30" s="61" t="n"/>
+      <c r="E30" s="61" t="n"/>
+      <c r="F30" s="61" t="n"/>
+      <c r="J30" s="61" t="n"/>
+      <c r="K30" s="61" t="n"/>
+      <c r="L30" s="61" t="n"/>
+      <c r="M30" s="61" t="n"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" s="62">
+      <c r="A31" s="61" t="n"/>
+      <c r="C31" s="61" t="n"/>
+      <c r="D31" s="61" t="n"/>
+      <c r="E31" s="61" t="n"/>
+      <c r="F31" s="61" t="n"/>
+      <c r="J31" s="61" t="n"/>
+      <c r="K31" s="61" t="n"/>
+      <c r="L31" s="61" t="n"/>
+      <c r="M31" s="61" t="n"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" s="62">
+      <c r="A32" s="61" t="n"/>
+      <c r="C32" s="61" t="n"/>
+      <c r="D32" s="61" t="n"/>
+      <c r="E32" s="61" t="n"/>
+      <c r="F32" s="61" t="n"/>
+      <c r="J32" s="61" t="n"/>
+      <c r="K32" s="61" t="n"/>
+      <c r="L32" s="61" t="n"/>
+      <c r="M32" s="61" t="n"/>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" s="62">
+      <c r="A33" s="61" t="n"/>
+      <c r="C33" s="61" t="n"/>
+      <c r="D33" s="61" t="n"/>
+      <c r="E33" s="61" t="n"/>
+      <c r="F33" s="61" t="n"/>
+      <c r="J33" s="61" t="n"/>
+      <c r="K33" s="61" t="n"/>
+      <c r="L33" s="61" t="n"/>
+      <c r="M33" s="61" t="n"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" s="62">
+      <c r="A34" s="61" t="n"/>
+      <c r="C34" s="61" t="n"/>
+      <c r="D34" s="61" t="n"/>
+      <c r="E34" s="61" t="n"/>
+      <c r="F34" s="61" t="n"/>
+      <c r="J34" s="61" t="n"/>
+      <c r="K34" s="61" t="n"/>
+      <c r="L34" s="61" t="n"/>
+      <c r="M34" s="61" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
@@ -2352,282 +2970,282 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="I15:L27 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.72" customWidth="1" style="57" min="2" max="2"/>
-    <col width="16.72" customWidth="1" style="57" min="3" max="3"/>
-    <col width="19.28" customWidth="1" style="57" min="5" max="5"/>
-    <col width="15.86" customWidth="1" style="57" min="10" max="10"/>
-    <col width="16.57" customWidth="1" style="57" min="11" max="11"/>
+    <col width="32.72" customWidth="1" style="61" min="2" max="2"/>
+    <col width="16.72" customWidth="1" style="61" min="3" max="3"/>
+    <col width="19.28" customWidth="1" style="61" min="5" max="5"/>
+    <col width="15.86" customWidth="1" style="61" min="10" max="10"/>
+    <col width="16.57" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="71" t="n"/>
-      <c r="B3" s="72" t="n"/>
-      <c r="D3" s="80" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="75" t="n"/>
+      <c r="B3" s="76" t="n"/>
+      <c r="D3" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="71">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="68" t="n"/>
-      <c r="J3" s="69" t="inlineStr">
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="74">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="71" t="n"/>
-      <c r="D4" s="83" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="75" t="n"/>
+      <c r="D4" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="88">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="71" t="n"/>
-      <c r="H4" s="68" t="n"/>
-      <c r="I4" s="68" t="n"/>
-      <c r="J4" s="72" t="n"/>
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="72" t="n"/>
+      <c r="I4" s="72" t="n"/>
+      <c r="J4" s="76" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="71" t="n"/>
-      <c r="D5" s="83" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="75" t="n"/>
+      <c r="D5" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="88">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="57" t="n"/>
-      <c r="H5" s="73" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="F6" s="57" t="n"/>
-      <c r="I6" s="74" t="inlineStr">
+      <c r="F5" s="61" t="n"/>
+      <c r="H5" s="77" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="F6" s="61" t="n"/>
+      <c r="I6" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="61" t="n"/>
-      <c r="K6" s="75" t="n">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="79" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="F7" s="57" t="n"/>
-      <c r="H7" s="57" t="n"/>
-      <c r="I7" s="74" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="F7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="61" t="n"/>
+      <c r="J7" s="65" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="F8" s="57" t="n"/>
-      <c r="I8" s="76" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="F8" s="61" t="n"/>
+      <c r="I8" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="61" t="n"/>
-      <c r="K8" s="77" t="n">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="81" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="F9" s="57" t="n"/>
-      <c r="I9" s="74" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="F9" s="61" t="n"/>
+      <c r="I9" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="61" t="n"/>
+      <c r="J9" s="65" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="F10" s="57" t="n"/>
-      <c r="I10" s="74" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="F10" s="61" t="n"/>
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="61" t="n"/>
-      <c r="K10" s="78" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="82" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="F11" s="57" t="n"/>
-      <c r="I11" s="74" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="F11" s="61" t="n"/>
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="78" t="n">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="82" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="F12" s="57" t="n"/>
-      <c r="I12" s="74" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="F12" s="61" t="n"/>
+      <c r="I12" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="79">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="83">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="F13" s="57" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="F13" s="61" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="81" t="inlineStr">
+      <c r="I13" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="82">
+      <c r="J13" s="65" t="n"/>
+      <c r="K13" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="F14" s="57" t="n"/>
-      <c r="I14" s="81" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="F14" s="61" t="n"/>
+      <c r="I14" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="82">
+      <c r="J14" s="65" t="n"/>
+      <c r="K14" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="F15" s="57" t="n"/>
-      <c r="I15" s="85" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="F15" s="61" t="n"/>
+      <c r="I15" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="61" t="n"/>
-      <c r="K15" s="86">
+      <c r="J15" s="65" t="n"/>
+      <c r="K15" s="90">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="F16" s="57" t="n"/>
-      <c r="K16" s="72" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="F17" s="57" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="F18" s="57" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="F19" s="57" t="n"/>
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="F16" s="61" t="n"/>
+      <c r="K16" s="76" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="F17" s="61" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="F18" s="61" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="F19" s="61" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2659,504 +3277,504 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="I15:L27 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.57" customWidth="1" style="57" min="2" max="2"/>
-    <col width="18" customWidth="1" style="57" min="3" max="3"/>
-    <col width="10.43" customWidth="1" style="57" min="5" max="5"/>
-    <col width="38.7" customWidth="1" style="57" min="8" max="8"/>
-    <col width="12.57" customWidth="1" style="57" min="10" max="10"/>
-    <col width="17.43" customWidth="1" style="57" min="11" max="11"/>
+    <col width="41.57" customWidth="1" style="61" min="2" max="2"/>
+    <col width="18" customWidth="1" style="61" min="3" max="3"/>
+    <col width="10.43" customWidth="1" style="61" min="5" max="5"/>
+    <col width="38.7" customWidth="1" style="61" min="8" max="8"/>
+    <col width="12.57" customWidth="1" style="61" min="10" max="10"/>
+    <col width="17.43" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="62" t="n">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="inlineStr">
+      <c r="B3" s="66" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="63" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="59" t="n"/>
-      <c r="E3" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="57" t="inlineStr">
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="68" t="n"/>
-      <c r="J3" s="69" t="inlineStr">
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="74">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="62" t="n">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="inlineStr">
+      <c r="B4" s="66" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="63" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="59" t="n"/>
-      <c r="E4" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="57" t="inlineStr">
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="71" t="n"/>
-      <c r="H4" s="68" t="n"/>
-      <c r="I4" s="68" t="n"/>
-      <c r="J4" s="72" t="n"/>
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="72" t="n"/>
+      <c r="I4" s="72" t="n"/>
+      <c r="J4" s="76" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="62" t="n">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="inlineStr">
+      <c r="B5" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="63" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="59" t="n"/>
-      <c r="E5" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="57" t="inlineStr">
+      <c r="D5" s="63" t="n"/>
+      <c r="E5" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="73" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="A6" s="62" t="n">
+      <c r="H5" s="77" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="A6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="inlineStr">
+      <c r="B6" s="66" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="63" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="57" t="inlineStr">
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="74" t="inlineStr">
+      <c r="I6" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="61" t="n"/>
-      <c r="K6" s="75" t="n">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="79" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="A7" s="62" t="n">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="A7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="inlineStr">
+      <c r="B7" s="66" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="63" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="59" t="n"/>
-      <c r="E7" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="57" t="inlineStr">
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="74" t="inlineStr">
+      <c r="I7" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="61" t="n"/>
+      <c r="J7" s="65" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="A8" s="62" t="n">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="A8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="inlineStr">
+      <c r="B8" s="66" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="63" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="59" t="n"/>
-      <c r="E8" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="57" t="inlineStr">
+      <c r="D8" s="63" t="n"/>
+      <c r="E8" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="76" t="inlineStr">
+      <c r="I8" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="61" t="n"/>
-      <c r="K8" s="77">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="81">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="A9" s="62" t="n">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="A9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="inlineStr">
+      <c r="B9" s="66" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="63" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="59" t="n"/>
-      <c r="E9" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="57" t="inlineStr">
+      <c r="D9" s="63" t="n"/>
+      <c r="E9" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="74" t="inlineStr">
+      <c r="I9" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="61" t="n"/>
+      <c r="J9" s="65" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="A10" s="62" t="n">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="A10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="inlineStr">
+      <c r="B10" s="66" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="63" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="65" t="n"/>
-      <c r="E10" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="57" t="inlineStr">
+      <c r="D10" s="69" t="n"/>
+      <c r="E10" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="74" t="inlineStr">
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="61" t="n"/>
-      <c r="K10" s="78" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="82" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="A11" s="62" t="n">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="A11" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="66" t="inlineStr">
+      <c r="B11" s="70" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="63" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="65" t="n"/>
-      <c r="E11" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="57" t="inlineStr">
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="74" t="inlineStr">
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="79">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="83">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="A12" s="62" t="n">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="A12" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="62" t="inlineStr">
+      <c r="B12" s="66" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="63" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="59" t="n"/>
-      <c r="E12" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="57" t="inlineStr">
+      <c r="D12" s="63" t="n"/>
+      <c r="E12" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="81" t="inlineStr">
+      <c r="I12" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="82">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="86">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="A13" s="62" t="n">
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="A13" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="62" t="inlineStr">
+      <c r="B13" s="66" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="63" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="57" t="inlineStr">
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="81" t="inlineStr">
+      <c r="I13" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="82">
+      <c r="J13" s="65" t="n"/>
+      <c r="K13" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="A14" s="62" t="n">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="A14" s="66" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="62" t="inlineStr">
+      <c r="B14" s="66" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="63" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="65" t="n"/>
-      <c r="E14" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="57" t="inlineStr">
+      <c r="D14" s="69" t="n"/>
+      <c r="E14" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="85" t="inlineStr">
+      <c r="I14" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="86">
+      <c r="J14" s="65" t="n"/>
+      <c r="K14" s="90">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="A15" s="71" t="n"/>
-      <c r="B15" s="72" t="n"/>
-      <c r="D15" s="80" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="A15" s="75" t="n"/>
+      <c r="B15" s="76" t="n"/>
+      <c r="D15" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="71">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="57" t="n"/>
-      <c r="K15" s="72" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="A16" s="71" t="n"/>
-      <c r="D16" s="83" t="inlineStr">
+      <c r="F15" s="61" t="n"/>
+      <c r="K15" s="76" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="A16" s="75" t="n"/>
+      <c r="D16" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="88">
         <f>49*12</f>
         <v/>
       </c>
-      <c r="F16" s="57" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="A17" s="71" t="n"/>
-      <c r="D17" s="83" t="inlineStr">
+      <c r="F16" s="61" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="A17" s="75" t="n"/>
+      <c r="D17" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="84" t="n">
+      <c r="E17" s="88" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F17" s="57" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="F18" s="57" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="F19" s="57" t="n"/>
+      <c r="F17" s="61" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="F18" s="61" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="F19" s="61" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3187,326 +3805,326 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="I15:L27 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.86" customWidth="1" style="57" min="5" max="5"/>
-    <col width="18.14" customWidth="1" style="57" min="10" max="10"/>
-    <col width="14" customWidth="1" style="57" min="11" max="11"/>
+    <col width="13.86" customWidth="1" style="61" min="5" max="5"/>
+    <col width="18.14" customWidth="1" style="61" min="10" max="10"/>
+    <col width="14" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="71" t="n"/>
-      <c r="B3" s="72" t="n"/>
-      <c r="D3" s="80" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="75" t="n"/>
+      <c r="B3" s="76" t="n"/>
+      <c r="D3" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="71">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="68" t="n"/>
-      <c r="J3" s="69" t="inlineStr">
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="74">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="71" t="n"/>
-      <c r="D4" s="83" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="75" t="n"/>
+      <c r="D4" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="88">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="71" t="n"/>
-      <c r="H4" s="68" t="n"/>
-      <c r="I4" s="68" t="n"/>
-      <c r="J4" s="72" t="n"/>
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="72" t="n"/>
+      <c r="I4" s="72" t="n"/>
+      <c r="J4" s="76" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="71" t="n"/>
-      <c r="D5" s="83" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="75" t="n"/>
+      <c r="D5" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="88">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="57" t="n"/>
-      <c r="H5" s="73" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="F6" s="57" t="n"/>
-      <c r="I6" s="74" t="inlineStr">
+      <c r="F5" s="61" t="n"/>
+      <c r="H5" s="77" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="F6" s="61" t="n"/>
+      <c r="I6" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="61" t="n"/>
-      <c r="K6" s="75" t="n">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="79" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="F7" s="57" t="n"/>
-      <c r="H7" s="57" t="n"/>
-      <c r="I7" s="74" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="F7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="61" t="n"/>
+      <c r="J7" s="65" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="F8" s="57" t="n"/>
-      <c r="I8" s="76" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="F8" s="61" t="n"/>
+      <c r="I8" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="61" t="n"/>
-      <c r="K8" s="77" t="n">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="81" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="F9" s="57" t="n"/>
-      <c r="I9" s="74" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="F9" s="61" t="n"/>
+      <c r="I9" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="61" t="n"/>
+      <c r="J9" s="65" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="F10" s="57" t="n"/>
-      <c r="I10" s="74" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="F10" s="61" t="n"/>
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="61" t="n"/>
-      <c r="K10" s="78" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="82" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="F11" s="57" t="n"/>
-      <c r="I11" s="74" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="F11" s="61" t="n"/>
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="78" t="n">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="82" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="F12" s="57" t="n"/>
-      <c r="I12" s="74" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="F12" s="61" t="n"/>
+      <c r="I12" s="78" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="78" t="n">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="82" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="F13" s="57" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="F13" s="61" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="74" t="inlineStr">
+      <c r="I13" s="78" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="78" t="n">
+      <c r="J13" s="65" t="n"/>
+      <c r="K13" s="82" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="F14" s="57" t="n"/>
-      <c r="I14" s="74" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="F14" s="61" t="n"/>
+      <c r="I14" s="78" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="78" t="n">
+      <c r="J14" s="65" t="n"/>
+      <c r="K14" s="82" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="F15" s="57" t="n"/>
-      <c r="I15" s="74" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="F15" s="61" t="n"/>
+      <c r="I15" s="78" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="61" t="n"/>
-      <c r="K15" s="78" t="n">
+      <c r="J15" s="65" t="n"/>
+      <c r="K15" s="82" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="F16" s="57" t="n"/>
-      <c r="I16" s="74" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="F16" s="61" t="n"/>
+      <c r="I16" s="78" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="78" t="n">
+      <c r="J16" s="65" t="n"/>
+      <c r="K16" s="82" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="I17" s="74" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="I17" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="61" t="n"/>
-      <c r="K17" s="79">
+      <c r="J17" s="65" t="n"/>
+      <c r="K17" s="83">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="I18" s="81" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="I18" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="82">
+      <c r="J18" s="65" t="n"/>
+      <c r="K18" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="I19" s="81" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="I19" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="61" t="n"/>
-      <c r="K19" s="82">
+      <c r="J19" s="65" t="n"/>
+      <c r="K19" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="58">
-      <c r="I20" s="85" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="62">
+      <c r="I20" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="86">
+      <c r="J20" s="65" t="n"/>
+      <c r="K20" s="90">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="58">
-      <c r="K21" s="72" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="62">
+      <c r="K21" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3543,893 +4161,893 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I15:L27 A1"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="45.3" customWidth="1" style="57" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="57" min="3" max="3"/>
-    <col width="10.29" customWidth="1" style="57" min="5" max="5"/>
-    <col width="12.72" customWidth="1" style="57" min="6" max="6"/>
-    <col width="33.57" customWidth="1" style="57" min="8" max="8"/>
-    <col width="13.86" customWidth="1" style="57" min="9" max="9"/>
-    <col width="14.57" customWidth="1" style="57" min="11" max="11"/>
+    <col width="45.3" customWidth="1" style="61" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="61" min="3" max="3"/>
+    <col width="10.29" customWidth="1" style="61" min="5" max="5"/>
+    <col width="12.72" customWidth="1" style="61" min="6" max="6"/>
+    <col width="33.57" customWidth="1" style="61" min="8" max="8"/>
+    <col width="13.86" customWidth="1" style="61" min="9" max="9"/>
+    <col width="14.57" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="62" t="n">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="inlineStr">
+      <c r="B3" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="63" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="59" t="n"/>
-      <c r="E3" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="57" t="inlineStr">
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="62" t="n">
+      <c r="G3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="64" t="inlineStr">
+      <c r="H3" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="59" t="n">
+      <c r="I3" s="63" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="59" t="n"/>
-      <c r="K3" s="59" t="n">
+      <c r="J3" s="63" t="n"/>
+      <c r="K3" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="57" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="62" t="n">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="64" t="inlineStr">
+      <c r="B4" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="63" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="59" t="n"/>
-      <c r="E4" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="57" t="inlineStr">
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="62" t="n">
+      <c r="G4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="64" t="inlineStr">
+      <c r="H4" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="59" t="n">
+      <c r="I4" s="63" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="59" t="n"/>
-      <c r="K4" s="59" t="n">
+      <c r="J4" s="63" t="n"/>
+      <c r="K4" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="57" t="inlineStr">
+      <c r="L4" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="62" t="n">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="64" t="inlineStr">
+      <c r="B5" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="63" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="59" t="n"/>
-      <c r="E5" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="57" t="inlineStr">
+      <c r="D5" s="63" t="n"/>
+      <c r="E5" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n">
+      <c r="G5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="64" t="inlineStr">
+      <c r="H5" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="59" t="n">
+      <c r="I5" s="63" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="59" t="n"/>
-      <c r="K5" s="59" t="n">
+      <c r="J5" s="63" t="n"/>
+      <c r="K5" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="57" t="inlineStr">
+      <c r="L5" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="A6" s="62" t="n">
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="A6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="64" t="inlineStr">
+      <c r="B6" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="63" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="57" t="inlineStr">
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="62" t="n">
+      <c r="G6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="64" t="inlineStr">
+      <c r="H6" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="59" t="n">
+      <c r="I6" s="63" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="59" t="n"/>
-      <c r="K6" s="59" t="n">
+      <c r="J6" s="63" t="n"/>
+      <c r="K6" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="57" t="inlineStr">
+      <c r="L6" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="A7" s="62" t="n">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="A7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="64" t="inlineStr">
+      <c r="B7" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="63" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="59" t="n"/>
-      <c r="E7" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="57" t="inlineStr">
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="62" t="n">
+      <c r="G7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="64" t="inlineStr">
+      <c r="H7" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="59" t="n">
+      <c r="I7" s="63" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="59" t="n"/>
-      <c r="K7" s="59" t="n">
+      <c r="J7" s="63" t="n"/>
+      <c r="K7" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="57" t="inlineStr">
+      <c r="L7" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="A8" s="62" t="n">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="A8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="64" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="63" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="59" t="n"/>
-      <c r="E8" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="57" t="inlineStr">
+      <c r="D8" s="63" t="n"/>
+      <c r="E8" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="62" t="n">
+      <c r="G8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="64" t="inlineStr">
+      <c r="H8" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="59" t="n">
+      <c r="I8" s="63" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="59" t="n"/>
-      <c r="K8" s="59" t="n">
+      <c r="J8" s="63" t="n"/>
+      <c r="K8" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="57" t="inlineStr">
+      <c r="L8" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="A9" s="62" t="n">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="A9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="64" t="inlineStr">
+      <c r="B9" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="63" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="59" t="n"/>
-      <c r="E9" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="57" t="inlineStr">
+      <c r="D9" s="63" t="n"/>
+      <c r="E9" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="62" t="n">
+      <c r="G9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="64" t="inlineStr">
+      <c r="H9" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="59" t="n">
+      <c r="I9" s="63" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="59" t="n"/>
-      <c r="K9" s="59" t="n">
+      <c r="J9" s="63" t="n"/>
+      <c r="K9" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="57" t="inlineStr">
+      <c r="L9" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="A10" s="62" t="n">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="A10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="64" t="inlineStr">
+      <c r="B10" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="63" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="59" t="n"/>
-      <c r="E10" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="57" t="inlineStr">
+      <c r="D10" s="63" t="n"/>
+      <c r="E10" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="62" t="n">
+      <c r="G10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="64" t="inlineStr">
+      <c r="H10" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="59" t="n">
+      <c r="I10" s="63" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="59" t="n"/>
-      <c r="K10" s="59" t="n">
+      <c r="J10" s="63" t="n"/>
+      <c r="K10" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="57" t="inlineStr">
+      <c r="L10" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="A11" s="62" t="n">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="A11" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="64" t="inlineStr">
+      <c r="B11" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="63" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="59" t="n"/>
-      <c r="E11" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="57" t="inlineStr">
+      <c r="D11" s="63" t="n"/>
+      <c r="E11" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="62" t="n">
+      <c r="G11" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="64" t="inlineStr">
+      <c r="H11" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="59" t="n">
+      <c r="I11" s="63" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="59" t="n"/>
-      <c r="K11" s="59" t="n">
+      <c r="J11" s="63" t="n"/>
+      <c r="K11" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="57" t="inlineStr">
+      <c r="L11" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="A12" s="62" t="n">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="A12" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="64" t="inlineStr">
+      <c r="B12" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="63" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="59" t="n"/>
-      <c r="E12" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="57" t="inlineStr">
+      <c r="D12" s="63" t="n"/>
+      <c r="E12" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="62" t="n">
+      <c r="G12" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="64" t="inlineStr">
+      <c r="H12" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="59" t="n">
+      <c r="I12" s="63" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="59" t="n"/>
-      <c r="K12" s="59" t="n">
+      <c r="J12" s="63" t="n"/>
+      <c r="K12" s="63" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="57" t="inlineStr">
+      <c r="L12" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="A13" s="62" t="n">
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="A13" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="64" t="inlineStr">
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="63" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="59" t="n"/>
-      <c r="E13" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="57" t="inlineStr">
+      <c r="D13" s="63" t="n"/>
+      <c r="E13" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="68" t="n"/>
-      <c r="J13" s="69" t="inlineStr">
+      <c r="I13" s="72" t="n"/>
+      <c r="J13" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="74">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="A14" s="62" t="n">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="A14" s="66" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="64" t="inlineStr">
+      <c r="B14" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="63" t="n">
         <v>513760379</v>
       </c>
-      <c r="D14" s="59" t="n"/>
-      <c r="E14" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="57" t="inlineStr">
+      <c r="D14" s="63" t="n"/>
+      <c r="E14" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G14" s="71" t="n"/>
-      <c r="H14" s="68" t="n"/>
-      <c r="I14" s="68" t="n"/>
-      <c r="J14" s="72" t="n"/>
+      <c r="G14" s="75" t="n"/>
+      <c r="H14" s="72" t="n"/>
+      <c r="I14" s="72" t="n"/>
+      <c r="J14" s="76" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="A15" s="62" t="n">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="A15" s="66" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="64" t="inlineStr">
+      <c r="B15" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="59" t="n">
+      <c r="C15" s="63" t="n">
         <v>513782331</v>
       </c>
-      <c r="D15" s="59" t="n"/>
-      <c r="E15" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="57" t="inlineStr">
+      <c r="D15" s="63" t="n"/>
+      <c r="E15" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="73" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="A16" s="62" t="n">
+      <c r="H15" s="77" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="A16" s="66" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="64" t="inlineStr">
+      <c r="B16" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="59" t="n">
+      <c r="C16" s="63" t="n">
         <v>513775191</v>
       </c>
-      <c r="D16" s="59" t="n"/>
-      <c r="E16" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="57" t="inlineStr">
+      <c r="D16" s="63" t="n"/>
+      <c r="E16" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="74" t="inlineStr">
+      <c r="I16" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="75">
+      <c r="J16" s="65" t="n"/>
+      <c r="K16" s="79">
         <f>E24</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="A17" s="62" t="n">
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="A17" s="66" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="64" t="inlineStr">
+      <c r="B17" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="59" t="n">
+      <c r="C17" s="63" t="n">
         <v>513790578</v>
       </c>
-      <c r="D17" s="59" t="n"/>
-      <c r="E17" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="57" t="inlineStr">
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="61" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
       </c>
-      <c r="I17" s="74" t="inlineStr">
+      <c r="I17" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J17" s="61" t="n"/>
-      <c r="K17" s="75">
+      <c r="J17" s="65" t="n"/>
+      <c r="K17" s="79">
         <f>K13</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="A18" s="62" t="n">
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="A18" s="66" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="64" t="inlineStr">
+      <c r="B18" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="59" t="n">
+      <c r="C18" s="63" t="n">
         <v>513721847</v>
       </c>
-      <c r="D18" s="59" t="n"/>
-      <c r="E18" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="57" t="inlineStr">
+      <c r="D18" s="63" t="n"/>
+      <c r="E18" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="76" t="inlineStr">
+      <c r="I18" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="77">
+      <c r="J18" s="65" t="n"/>
+      <c r="K18" s="81">
         <f>K16+K17</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="A19" s="62" t="n">
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="A19" s="66" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="64" t="inlineStr">
+      <c r="B19" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="59" t="n">
+      <c r="C19" s="63" t="n">
         <v>513782693</v>
       </c>
-      <c r="D19" s="59" t="n"/>
-      <c r="E19" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="57" t="inlineStr">
+      <c r="D19" s="63" t="n"/>
+      <c r="E19" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="74" t="inlineStr">
+      <c r="I19" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J19" s="61" t="n"/>
+      <c r="J19" s="65" t="n"/>
       <c r="K19" s="21" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="58">
-      <c r="A20" s="62" t="n">
+    <row r="20" ht="15" customHeight="1" s="62">
+      <c r="A20" s="66" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="64" t="inlineStr">
+      <c r="B20" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="59" t="n">
+      <c r="C20" s="63" t="n">
         <v>513773401</v>
       </c>
-      <c r="D20" s="59" t="n"/>
-      <c r="E20" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="57" t="inlineStr">
+      <c r="D20" s="63" t="n"/>
+      <c r="E20" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="74" t="inlineStr">
+      <c r="I20" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="78">
+      <c r="J20" s="65" t="n"/>
+      <c r="K20" s="82">
         <f>E25</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="58">
-      <c r="A21" s="62" t="n">
+    <row r="21" ht="15" customHeight="1" s="62">
+      <c r="A21" s="66" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="64" t="inlineStr">
+      <c r="B21" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="59" t="n">
+      <c r="C21" s="63" t="n">
         <v>513797287</v>
       </c>
-      <c r="D21" s="59" t="n"/>
-      <c r="E21" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="57" t="inlineStr">
+      <c r="D21" s="63" t="n"/>
+      <c r="E21" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I21" s="74" t="inlineStr">
+      <c r="I21" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="79">
+      <c r="J21" s="65" t="n"/>
+      <c r="K21" s="83">
         <f>K18-K20-K19</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="58">
-      <c r="A22" s="62" t="n">
+    <row r="22" ht="15" customHeight="1" s="62">
+      <c r="A22" s="66" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="64" t="inlineStr">
+      <c r="B22" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="59" t="n">
+      <c r="C22" s="63" t="n">
         <v>14091389</v>
       </c>
-      <c r="D22" s="59" t="n"/>
-      <c r="E22" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="57" t="inlineStr">
+      <c r="D22" s="63" t="n"/>
+      <c r="E22" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="81" t="inlineStr">
+      <c r="I22" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J22" s="61" t="n"/>
-      <c r="K22" s="82">
+      <c r="J22" s="65" t="n"/>
+      <c r="K22" s="86">
         <f>E3+E4+E5+E8+E10+E12+E13+E15+E16+48.65+E18+E19+E20+E21+E22+E23+K3+K4+K5+K6+K7+K8+K9+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="58">
-      <c r="A23" s="62" t="n">
+    <row r="23" ht="15" customHeight="1" s="62">
+      <c r="A23" s="66" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="64" t="inlineStr">
+      <c r="B23" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="87" t="n">
+      <c r="C23" s="91" t="n">
         <v>513791549</v>
       </c>
-      <c r="D23" s="59" t="n"/>
-      <c r="E23" s="59" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="57" t="inlineStr">
+      <c r="D23" s="63" t="n"/>
+      <c r="E23" s="63" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="81" t="inlineStr">
+      <c r="I23" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J23" s="61" t="n"/>
-      <c r="K23" s="82">
+      <c r="J23" s="65" t="n"/>
+      <c r="K23" s="86">
         <f>E6+E14+100+K10</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="58">
-      <c r="A24" s="71" t="n"/>
-      <c r="B24" s="72" t="n"/>
-      <c r="D24" s="80" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="62">
+      <c r="A24" s="75" t="n"/>
+      <c r="B24" s="76" t="n"/>
+      <c r="D24" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="71">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23</f>
         <v/>
       </c>
-      <c r="I24" s="85" t="inlineStr">
+      <c r="I24" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J24" s="61" t="n"/>
-      <c r="K24" s="86">
+      <c r="J24" s="65" t="n"/>
+      <c r="K24" s="90">
         <f>E7+E9+E11+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="58">
-      <c r="A25" s="71" t="n"/>
-      <c r="D25" s="83" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="62">
+      <c r="A25" s="75" t="n"/>
+      <c r="D25" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="88">
         <f>49*21</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="58">
-      <c r="A26" s="71" t="n"/>
-      <c r="D26" s="83" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="62">
+      <c r="A26" s="75" t="n"/>
+      <c r="D26" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="88">
         <f>E24-E25</f>
         <v/>
       </c>
@@ -4463,497 +5081,497 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="I15:L27 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.86" customWidth="1" style="57" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="57" min="3" max="3"/>
-    <col width="11.15" customWidth="1" style="57" min="5" max="5"/>
-    <col width="13.86" customWidth="1" style="57" min="10" max="10"/>
-    <col width="13.71" customWidth="1" style="57" min="11" max="11"/>
+    <col width="35.86" customWidth="1" style="61" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="61" min="3" max="3"/>
+    <col width="11.15" customWidth="1" style="61" min="5" max="5"/>
+    <col width="13.86" customWidth="1" style="61" min="10" max="10"/>
+    <col width="13.71" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="62" t="n">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="inlineStr">
+      <c r="B3" s="66" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="63" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="59" t="n"/>
-      <c r="E3" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="57" t="inlineStr">
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="68" t="n"/>
-      <c r="J3" s="69" t="inlineStr">
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="74">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="62" t="n">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="inlineStr">
+      <c r="B4" s="66" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="63" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="59" t="n"/>
-      <c r="E4" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="57" t="inlineStr">
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="71" t="n"/>
-      <c r="H4" s="68" t="n"/>
-      <c r="I4" s="68" t="n"/>
-      <c r="J4" s="72" t="n"/>
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="72" t="n"/>
+      <c r="I4" s="72" t="n"/>
+      <c r="J4" s="76" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="62" t="n">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="inlineStr">
+      <c r="B5" s="70" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="63" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="59" t="n"/>
-      <c r="E5" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="57" t="inlineStr">
+      <c r="D5" s="63" t="n"/>
+      <c r="E5" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="73" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="A6" s="62" t="n">
+      <c r="H5" s="77" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="A6" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="inlineStr">
+      <c r="B6" s="66" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="63" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="57" t="inlineStr">
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="74" t="inlineStr">
+      <c r="I6" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="61" t="n"/>
-      <c r="K6" s="75">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="79">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="A7" s="62" t="n">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="A7" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="62" t="inlineStr">
+      <c r="B7" s="66" t="inlineStr">
         <is>
           <t>FENIX ALEXANDRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="63" t="n">
         <v>513701027</v>
       </c>
-      <c r="D7" s="59" t="n"/>
-      <c r="E7" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="57" t="inlineStr">
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H7" s="57" t="n"/>
-      <c r="I7" s="74" t="inlineStr">
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="61" t="n"/>
+      <c r="J7" s="65" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="A8" s="62" t="n">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="A8" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="inlineStr">
+      <c r="B8" s="66" t="inlineStr">
         <is>
           <t>NORMA CELIA NOBRE DE CARVALHO</t>
         </is>
       </c>
-      <c r="C8" s="59" t="inlineStr">
+      <c r="C8" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">513803911	</t>
         </is>
       </c>
-      <c r="D8" s="59" t="n"/>
-      <c r="E8" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="57" t="inlineStr">
+      <c r="D8" s="63" t="n"/>
+      <c r="E8" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="76" t="inlineStr">
+      <c r="I8" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="61" t="n"/>
-      <c r="K8" s="77">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="81">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="A9" s="62" t="n">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="A9" s="66" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="inlineStr">
+      <c r="B9" s="66" t="inlineStr">
         <is>
           <t>ANA CRISTINA DE MATOS HORACIO</t>
         </is>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="63" t="n">
         <v>513757236</v>
       </c>
-      <c r="D9" s="59" t="n"/>
-      <c r="E9" s="63" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="57" t="inlineStr">
+      <c r="D9" s="63" t="n"/>
+      <c r="E9" s="67" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I9" s="74" t="inlineStr">
+      <c r="I9" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="61" t="n"/>
+      <c r="J9" s="65" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="A10" s="62" t="n">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="A10" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="inlineStr">
+      <c r="B10" s="66" t="inlineStr">
         <is>
           <t>CLEIDE COSTA DOS SANTOS GALVAO</t>
         </is>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="63" t="n">
         <v>14085503</v>
       </c>
-      <c r="D10" s="65" t="n"/>
-      <c r="E10" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="57" t="inlineStr">
+      <c r="D10" s="69" t="n"/>
+      <c r="E10" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" s="74" t="inlineStr">
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="61" t="n"/>
-      <c r="K10" s="78" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="82" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="A11" s="62" t="n">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="A11" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="66" t="inlineStr">
+      <c r="B11" s="70" t="inlineStr">
         <is>
           <t>NEIDA GOMES FAGUNDES</t>
         </is>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="63" t="n">
         <v>513797034</v>
       </c>
-      <c r="D11" s="65" t="n"/>
-      <c r="E11" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="57" t="inlineStr">
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="74" t="inlineStr">
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="78" t="n">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="82" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="A12" s="62" t="n">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="A12" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="62" t="inlineStr">
+      <c r="B12" s="66" t="inlineStr">
         <is>
           <t>JONATAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="63" t="n">
         <v>513801412</v>
       </c>
-      <c r="D12" s="59" t="n"/>
-      <c r="E12" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="57" t="inlineStr">
+      <c r="D12" s="63" t="n"/>
+      <c r="E12" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="74" t="inlineStr">
+      <c r="I12" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="79">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="83">
         <f>K8-K10-K9-K11</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="A13" s="62" t="n">
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="A13" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="62" t="inlineStr">
+      <c r="B13" s="66" t="inlineStr">
         <is>
           <t>EDUARDO GOMES DE LIMA</t>
         </is>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="63" t="n">
         <v>513789092</v>
       </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="67" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="57" t="inlineStr">
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="71" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="81" t="inlineStr">
+      <c r="I13" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="82">
+      <c r="J13" s="65" t="n"/>
+      <c r="K13" s="86">
         <f>E3+E4+E5+E6+E7+E9+E11+E12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="A14" s="71" t="n"/>
-      <c r="B14" s="72" t="n"/>
-      <c r="D14" s="80" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="A14" s="75" t="n"/>
+      <c r="B14" s="76" t="n"/>
+      <c r="D14" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="71">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v/>
       </c>
-      <c r="F14" s="57" t="n"/>
-      <c r="I14" s="81" t="inlineStr">
+      <c r="F14" s="61" t="n"/>
+      <c r="I14" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="82">
+      <c r="J14" s="65" t="n"/>
+      <c r="K14" s="86">
         <f>E10</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="A15" s="71" t="n"/>
-      <c r="D15" s="83" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="A15" s="75" t="n"/>
+      <c r="D15" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="88">
         <f>49*11</f>
         <v/>
       </c>
-      <c r="F15" s="57" t="n"/>
-      <c r="I15" s="85" t="inlineStr">
+      <c r="F15" s="61" t="n"/>
+      <c r="I15" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="61" t="n"/>
-      <c r="K15" s="86">
+      <c r="J15" s="65" t="n"/>
+      <c r="K15" s="90">
         <f>E8+E13</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="A16" s="71" t="n"/>
-      <c r="D16" s="83" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="A16" s="75" t="n"/>
+      <c r="D16" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E16" s="84" t="n">
+      <c r="E16" s="88" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F16" s="57" t="n"/>
-      <c r="K16" s="72" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="F17" s="57" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="F18" s="57" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="F19" s="57" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="K16" s="76" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="F17" s="61" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="F18" s="61" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="F19" s="61" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4985,655 +5603,655 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="I15:L27 F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="43.72" customWidth="1" style="57" min="2" max="2"/>
-    <col width="14.29" customWidth="1" style="57" min="3" max="3"/>
-    <col width="11.57" customWidth="1" style="57" min="5" max="5"/>
-    <col width="30.57" customWidth="1" style="57" min="8" max="8"/>
-    <col width="17.43" customWidth="1" style="57" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="57" min="10" max="10"/>
-    <col width="12" customWidth="1" style="57" min="11" max="11"/>
+    <col width="43.72" customWidth="1" style="61" min="2" max="2"/>
+    <col width="14.29" customWidth="1" style="61" min="3" max="3"/>
+    <col width="11.57" customWidth="1" style="61" min="5" max="5"/>
+    <col width="30.57" customWidth="1" style="61" min="8" max="8"/>
+    <col width="17.43" customWidth="1" style="61" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="61" min="10" max="10"/>
+    <col width="12" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="88" t="n">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="93" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="90" t="n">
+      <c r="C3" s="94" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="89" t="n"/>
+      <c r="D3" s="93" t="n"/>
       <c r="E3" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F3" s="57" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="89" t="n">
+      <c r="G3" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="89" t="inlineStr">
+      <c r="H3" s="93" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="89" t="n">
+      <c r="I3" s="93" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="89" t="n"/>
+      <c r="J3" s="93" t="n"/>
       <c r="K3" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="57" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="88" t="n">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="93" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="90" t="n">
+      <c r="C4" s="94" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="89" t="n"/>
+      <c r="D4" s="93" t="n"/>
       <c r="E4" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F4" s="57" t="inlineStr">
+      <c r="F4" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="89" t="n">
+      <c r="G4" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="89" t="inlineStr">
+      <c r="H4" s="93" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="89" t="n">
+      <c r="I4" s="93" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="89" t="n"/>
+      <c r="J4" s="93" t="n"/>
       <c r="K4" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="57" t="inlineStr">
+      <c r="L4" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="88" t="n">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="89" t="inlineStr">
+      <c r="B5" s="93" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="90" t="n">
+      <c r="C5" s="94" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="89" t="n"/>
+      <c r="D5" s="93" t="n"/>
       <c r="E5" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F5" s="57" t="inlineStr">
+      <c r="F5" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="89" t="n">
+      <c r="G5" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="89" t="inlineStr">
+      <c r="H5" s="93" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="89" t="n">
+      <c r="I5" s="93" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="89" t="n"/>
+      <c r="J5" s="93" t="n"/>
       <c r="K5" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="57" t="inlineStr">
+      <c r="L5" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="A6" s="88" t="n">
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="A6" s="92" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="89" t="inlineStr">
+      <c r="B6" s="93" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="90" t="n">
+      <c r="C6" s="94" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="89" t="n"/>
+      <c r="D6" s="93" t="n"/>
       <c r="E6" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F6" s="57" t="inlineStr">
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="89" t="n">
+      <c r="G6" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="89" t="inlineStr">
+      <c r="H6" s="93" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="89" t="n">
+      <c r="I6" s="93" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="89" t="n"/>
+      <c r="J6" s="93" t="n"/>
       <c r="K6" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="57" t="inlineStr">
+      <c r="L6" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="A7" s="88" t="n">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="A7" s="92" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="89" t="inlineStr">
+      <c r="B7" s="93" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="90" t="n">
+      <c r="C7" s="94" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="89" t="n"/>
+      <c r="D7" s="93" t="n"/>
       <c r="E7" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F7" s="57" t="inlineStr">
+      <c r="F7" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="89" t="n">
+      <c r="G7" s="93" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="89" t="inlineStr">
+      <c r="H7" s="93" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="89" t="n">
+      <c r="I7" s="93" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="89" t="n"/>
+      <c r="J7" s="93" t="n"/>
       <c r="K7" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="57" t="inlineStr">
+      <c r="L7" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="A8" s="88" t="n">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="A8" s="92" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="89" t="inlineStr">
+      <c r="B8" s="93" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="90" t="n">
+      <c r="C8" s="94" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="89" t="n"/>
+      <c r="D8" s="93" t="n"/>
       <c r="E8" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F8" s="57" t="inlineStr">
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="91" t="n"/>
-      <c r="I8" s="91" t="n"/>
-      <c r="J8" s="69" t="inlineStr">
+      <c r="H8" s="95" t="n"/>
+      <c r="I8" s="95" t="n"/>
+      <c r="J8" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="74">
         <f>K3+K4+K5+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="A9" s="88" t="n">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="A9" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="89" t="inlineStr">
+      <c r="B9" s="93" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="90" t="n">
+      <c r="C9" s="94" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="89" t="n"/>
+      <c r="D9" s="93" t="n"/>
       <c r="E9" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F9" s="57" t="inlineStr">
+      <c r="F9" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="91" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="A10" s="88" t="n">
+      <c r="H9" s="95" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="A10" s="92" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="89" t="inlineStr">
+      <c r="B10" s="93" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="90" t="n">
+      <c r="C10" s="94" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="89" t="n"/>
+      <c r="D10" s="93" t="n"/>
       <c r="E10" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F10" s="57" t="inlineStr">
+      <c r="F10" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="A11" s="88" t="n">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="A11" s="92" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="89" t="inlineStr">
+      <c r="B11" s="93" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="90" t="n">
+      <c r="C11" s="94" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="92" t="n"/>
+      <c r="D11" s="96" t="n"/>
       <c r="E11" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F11" s="57" t="inlineStr">
+      <c r="F11" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I11" s="74" t="inlineStr">
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="75">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="79">
         <f>E18</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="A12" s="88" t="n">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="A12" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="89" t="inlineStr">
+      <c r="B12" s="93" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="90" t="n">
+      <c r="C12" s="94" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="92" t="n"/>
+      <c r="D12" s="96" t="n"/>
       <c r="E12" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F12" s="57" t="inlineStr">
+      <c r="F12" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I12" s="74" t="inlineStr">
+      <c r="I12" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="75">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="79">
         <f>K8</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="A13" s="88" t="n">
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="A13" s="92" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="89" t="inlineStr">
+      <c r="B13" s="93" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="90" t="n">
+      <c r="C13" s="94" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="92" t="n"/>
+      <c r="D13" s="96" t="n"/>
       <c r="E13" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F13" s="57" t="inlineStr">
+      <c r="F13" s="61" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I13" s="76" t="inlineStr">
+      <c r="I13" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="77">
+      <c r="J13" s="65" t="n"/>
+      <c r="K13" s="81">
         <f>K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="A14" s="88" t="n">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="A14" s="92" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="89" t="inlineStr">
+      <c r="B14" s="93" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="93" t="n">
+      <c r="C14" s="97" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="94" t="n"/>
+      <c r="D14" s="98" t="n"/>
       <c r="E14" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F14" s="57" t="inlineStr">
+      <c r="F14" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="74" t="inlineStr">
+      <c r="I14" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
+      <c r="J14" s="65" t="n"/>
       <c r="K14" s="21" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="A15" s="95" t="n">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="A15" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="95" t="inlineStr">
+      <c r="B15" s="99" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="96" t="n">
+      <c r="C15" s="100" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="97" t="n"/>
+      <c r="D15" s="101" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F15" s="57" t="inlineStr">
+      <c r="F15" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I15" s="74" t="inlineStr">
+      <c r="I15" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J15" s="61" t="n"/>
-      <c r="K15" s="78" t="n">
+      <c r="J15" s="65" t="n"/>
+      <c r="K15" s="82" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="A16" s="95" t="n">
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="A16" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="95" t="inlineStr">
+      <c r="B16" s="99" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="96" t="n">
+      <c r="C16" s="100" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="97" t="n"/>
+      <c r="D16" s="101" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F16" s="57" t="inlineStr">
+      <c r="F16" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="74" t="inlineStr">
+      <c r="I16" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="79">
+      <c r="J16" s="65" t="n"/>
+      <c r="K16" s="83">
         <f>K13-K15-K14</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="A17" s="95" t="n">
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="A17" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="95" t="inlineStr">
+      <c r="B17" s="99" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="96" t="n">
+      <c r="C17" s="100" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="97" t="n"/>
+      <c r="D17" s="101" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F17" s="57" t="inlineStr">
+      <c r="F17" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I17" s="81" t="inlineStr">
+      <c r="I17" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J17" s="61" t="n"/>
-      <c r="K17" s="82">
+      <c r="J17" s="65" t="n"/>
+      <c r="K17" s="86">
         <f>E3+E5+E7+E8+E11+E14+E15+E16+E17+K4</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="D18" s="80" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="D18" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="71">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
         <v/>
       </c>
-      <c r="I18" s="81" t="inlineStr">
+      <c r="I18" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="82">
+      <c r="J18" s="65" t="n"/>
+      <c r="K18" s="86">
         <f>E4+E9+E12+E13+K3+K5</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="D19" s="83" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="D19" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="88">
         <f>49*15</f>
         <v/>
       </c>
-      <c r="I19" s="85" t="inlineStr">
+      <c r="I19" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J19" s="61" t="n"/>
-      <c r="K19" s="86">
+      <c r="J19" s="65" t="n"/>
+      <c r="K19" s="90">
         <f>E6+E10+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="58">
-      <c r="D20" s="83" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="62">
+      <c r="D20" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="88">
         <f>E18-E19</f>
         <v/>
       </c>
-      <c r="K20" s="72" t="n"/>
+      <c r="K20" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5664,282 +6282,282 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="1" sqref="I15:L27 F14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.72" customWidth="1" style="57" min="5" max="5"/>
-    <col width="31.15" customWidth="1" style="57" min="10" max="10"/>
-    <col width="13.86" customWidth="1" style="57" min="11" max="11"/>
+    <col width="11.72" customWidth="1" style="61" min="5" max="5"/>
+    <col width="31.15" customWidth="1" style="61" min="10" max="10"/>
+    <col width="13.86" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 16/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 16/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="59" t="inlineStr">
+      <c r="B2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="59" t="inlineStr">
+      <c r="C2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="59" t="inlineStr">
+      <c r="D2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="59" t="inlineStr">
+      <c r="E2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="59" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="59" t="inlineStr">
+      <c r="I2" s="63" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="59" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="59" t="inlineStr">
+      <c r="K2" s="63" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="71" t="n"/>
-      <c r="B3" s="72" t="n"/>
-      <c r="D3" s="80" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="75" t="n"/>
+      <c r="B3" s="76" t="n"/>
+      <c r="D3" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="71">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="68" t="n"/>
-      <c r="J3" s="69" t="inlineStr">
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="74">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="71" t="n"/>
-      <c r="D4" s="83" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="75" t="n"/>
+      <c r="D4" s="87" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="88">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="71" t="n"/>
-      <c r="H4" s="68" t="n"/>
-      <c r="I4" s="68" t="n"/>
-      <c r="J4" s="72" t="n"/>
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="72" t="n"/>
+      <c r="I4" s="72" t="n"/>
+      <c r="J4" s="76" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="71" t="n"/>
-      <c r="D5" s="83" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="75" t="n"/>
+      <c r="D5" s="87" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="88">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="57" t="n"/>
-      <c r="H5" s="73" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="F6" s="57" t="n"/>
-      <c r="I6" s="74" t="inlineStr">
+      <c r="F5" s="61" t="n"/>
+      <c r="H5" s="77" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="F6" s="61" t="n"/>
+      <c r="I6" s="78" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="61" t="n"/>
-      <c r="K6" s="75" t="n">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="79" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="F7" s="57" t="n"/>
-      <c r="H7" s="57" t="n"/>
-      <c r="I7" s="74" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="F7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="78" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="61" t="n"/>
+      <c r="J7" s="65" t="n"/>
       <c r="K7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="F8" s="57" t="n"/>
-      <c r="I8" s="76" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="F8" s="61" t="n"/>
+      <c r="I8" s="80" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="61" t="n"/>
-      <c r="K8" s="77" t="n">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="81" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="F9" s="57" t="n"/>
-      <c r="I9" s="74" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="F9" s="61" t="n"/>
+      <c r="I9" s="78" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="61" t="n"/>
+      <c r="J9" s="65" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="F10" s="57" t="n"/>
-      <c r="I10" s="74" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="F10" s="61" t="n"/>
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="61" t="n"/>
-      <c r="K10" s="78" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="82" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="F11" s="57" t="n"/>
-      <c r="I11" s="74" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="F11" s="61" t="n"/>
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 604 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="78" t="n">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="82" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="F12" s="57" t="n"/>
-      <c r="I12" s="74" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="F12" s="61" t="n"/>
+      <c r="I12" s="78" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 605 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="78" t="n">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="82" t="n">
         <v>64.81</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="F13" s="57" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="F13" s="61" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="74" t="inlineStr">
+      <c r="I13" s="78" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="79">
+      <c r="J13" s="65" t="n"/>
+      <c r="K13" s="83">
         <f>K8-K10-K9-K11-K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="F14" s="57" t="n"/>
-      <c r="I14" s="81" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="F14" s="61" t="n"/>
+      <c r="I14" s="85" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="82">
+      <c r="J14" s="65" t="n"/>
+      <c r="K14" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="F15" s="57" t="n"/>
-      <c r="I15" s="81" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="F15" s="61" t="n"/>
+      <c r="I15" s="85" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J15" s="61" t="n"/>
-      <c r="K15" s="82">
+      <c r="J15" s="65" t="n"/>
+      <c r="K15" s="86">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="F16" s="57" t="n"/>
-      <c r="I16" s="85" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="F16" s="61" t="n"/>
+      <c r="I16" s="89" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="86">
+      <c r="J16" s="65" t="n"/>
+      <c r="K16" s="90">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="K17" s="72" t="n"/>
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="K17" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5971,562 +6589,562 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I15:L27 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="37.3" customWidth="1" style="57" min="2" max="2"/>
-    <col width="11.72" customWidth="1" style="57" min="3" max="3"/>
-    <col width="8.699999999999999" customWidth="1" style="57" min="5" max="5"/>
-    <col width="29.3" customWidth="1" style="57" min="8" max="8"/>
-    <col width="15.44" customWidth="1" style="57" min="9" max="9"/>
-    <col width="22" customWidth="1" style="57" min="10" max="10"/>
-    <col width="8.33" customWidth="1" style="57" min="11" max="11"/>
+    <col width="37.3" customWidth="1" style="61" min="2" max="2"/>
+    <col width="11.72" customWidth="1" style="61" min="3" max="3"/>
+    <col width="8.699999999999999" customWidth="1" style="61" min="5" max="5"/>
+    <col width="29.3" customWidth="1" style="61" min="8" max="8"/>
+    <col width="15.44" customWidth="1" style="61" min="9" max="9"/>
+    <col width="22" customWidth="1" style="61" min="10" max="10"/>
+    <col width="8.33" customWidth="1" style="61" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="59" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="62">
+      <c r="A1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 17/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
-      <c r="E1" s="61" t="n"/>
-      <c r="G1" s="59" t="inlineStr">
+      <c r="B1" s="64" t="n"/>
+      <c r="C1" s="64" t="n"/>
+      <c r="D1" s="64" t="n"/>
+      <c r="E1" s="65" t="n"/>
+      <c r="G1" s="63" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 17/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="60" t="n"/>
-      <c r="I1" s="60" t="n"/>
-      <c r="J1" s="60" t="n"/>
-      <c r="K1" s="61" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="58">
-      <c r="A2" s="62" t="inlineStr">
+      <c r="H1" s="64" t="n"/>
+      <c r="I1" s="64" t="n"/>
+      <c r="J1" s="64" t="n"/>
+      <c r="K1" s="65" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="62">
+      <c r="A2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="62" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="62" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="62" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="57" t="n"/>
-      <c r="G2" s="62" t="inlineStr">
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="66" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="62" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="62" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="62" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="62" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="58">
-      <c r="A3" s="62" t="n"/>
-      <c r="B3" s="62" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="62">
+      <c r="A3" s="66" t="n"/>
+      <c r="B3" s="66" t="inlineStr">
         <is>
           <t>SOFIA ALMEIDA FERREIRA</t>
         </is>
       </c>
-      <c r="C3" s="59" t="inlineStr">
+      <c r="C3" s="63" t="inlineStr">
         <is>
           <t>513641554</t>
         </is>
       </c>
-      <c r="D3" s="59" t="n"/>
-      <c r="E3" s="63" t="n"/>
-      <c r="F3" s="57" t="inlineStr">
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="67" t="n"/>
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="57" t="n"/>
-      <c r="H3" s="57" t="inlineStr">
+      <c r="G3" s="61" t="n"/>
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="I3" s="71" t="inlineStr">
+      <c r="I3" s="75" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="98" t="n"/>
-      <c r="K3" s="70" t="n"/>
-      <c r="L3" s="57" t="inlineStr">
+      <c r="J3" s="102" t="n"/>
+      <c r="K3" s="74" t="n"/>
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="58">
-      <c r="A4" s="62" t="n"/>
-      <c r="B4" s="62" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="62">
+      <c r="A4" s="66" t="n"/>
+      <c r="B4" s="66" t="inlineStr">
         <is>
           <t>ANA CRISTINA LEONE RIOS</t>
         </is>
       </c>
-      <c r="C4" s="59" t="inlineStr">
+      <c r="C4" s="63" t="inlineStr">
         <is>
           <t>513835235</t>
         </is>
       </c>
-      <c r="D4" s="59" t="n"/>
-      <c r="E4" s="63" t="n"/>
-      <c r="F4" s="57" t="inlineStr">
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="67" t="n"/>
+      <c r="F4" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="71" t="n"/>
-      <c r="H4" s="71" t="inlineStr">
+      <c r="G4" s="75" t="n"/>
+      <c r="H4" s="75" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="I4" s="71" t="inlineStr">
+      <c r="I4" s="75" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="J4" s="72" t="n"/>
+      <c r="J4" s="76" t="n"/>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="57" t="inlineStr">
+      <c r="L4" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="58">
-      <c r="A5" s="62" t="n"/>
-      <c r="B5" s="66" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="62">
+      <c r="A5" s="66" t="n"/>
+      <c r="B5" s="70" t="inlineStr">
         <is>
           <t>ROBSON OLIVEIRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C5" s="59" t="inlineStr">
+      <c r="C5" s="63" t="inlineStr">
         <is>
           <t>513808652</t>
         </is>
       </c>
-      <c r="D5" s="59" t="n"/>
-      <c r="E5" s="63" t="n"/>
-      <c r="F5" s="57" t="inlineStr">
+      <c r="D5" s="63" t="n"/>
+      <c r="E5" s="67" t="n"/>
+      <c r="F5" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" s="57" t="n"/>
-      <c r="H5" s="71" t="n"/>
-      <c r="L5" s="57" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="58">
-      <c r="A6" s="62" t="n"/>
-      <c r="B6" s="62" t="inlineStr">
+      <c r="G5" s="61" t="n"/>
+      <c r="H5" s="75" t="n"/>
+      <c r="L5" s="61" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="62">
+      <c r="A6" s="66" t="n"/>
+      <c r="B6" s="66" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="59" t="inlineStr">
+      <c r="C6" s="63" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="D6" s="59" t="n"/>
-      <c r="E6" s="63" t="n"/>
-      <c r="F6" s="57" t="inlineStr">
+      <c r="D6" s="63" t="n"/>
+      <c r="E6" s="67" t="n"/>
+      <c r="F6" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="57" t="n"/>
-      <c r="H6" s="57" t="inlineStr">
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="61" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="95" t="inlineStr">
+      <c r="I6" s="99" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="99" t="n"/>
-      <c r="K6" s="100" t="n"/>
-      <c r="L6" s="57" t="inlineStr">
+      <c r="J6" s="103" t="n"/>
+      <c r="K6" s="104" t="n"/>
+      <c r="L6" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="58">
-      <c r="A7" s="62" t="n"/>
-      <c r="B7" s="62" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="62">
+      <c r="A7" s="66" t="n"/>
+      <c r="B7" s="66" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="C7" s="59" t="inlineStr">
+      <c r="C7" s="63" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="D7" s="59" t="n"/>
-      <c r="E7" s="63" t="n"/>
-      <c r="F7" s="57" t="inlineStr">
+      <c r="D7" s="63" t="n"/>
+      <c r="E7" s="67" t="n"/>
+      <c r="F7" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="57" t="n"/>
-      <c r="I7" s="95" t="n"/>
-      <c r="J7" s="99" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="I7" s="99" t="n"/>
+      <c r="J7" s="103" t="n"/>
       <c r="K7" s="47" t="n"/>
-      <c r="L7" s="57" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="58">
-      <c r="A8" s="62" t="n"/>
-      <c r="B8" s="62" t="inlineStr">
+      <c r="L7" s="61" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="62">
+      <c r="A8" s="66" t="n"/>
+      <c r="B8" s="66" t="inlineStr">
         <is>
           <t>MARIANNE ESPINDOLA LEFUNDES</t>
         </is>
       </c>
-      <c r="C8" s="59" t="inlineStr">
+      <c r="C8" s="63" t="inlineStr">
         <is>
           <t>513717741</t>
         </is>
       </c>
-      <c r="D8" s="59" t="n"/>
-      <c r="E8" s="63" t="n"/>
-      <c r="F8" s="57" t="inlineStr">
+      <c r="D8" s="63" t="n"/>
+      <c r="E8" s="67" t="n"/>
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="57" t="n"/>
-      <c r="I8" s="95" t="n"/>
-      <c r="J8" s="99" t="n"/>
-      <c r="K8" s="77" t="n"/>
-      <c r="L8" s="57" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="58">
-      <c r="A9" s="62" t="n"/>
-      <c r="B9" s="62" t="n"/>
-      <c r="C9" s="59" t="n"/>
-      <c r="D9" s="59" t="n"/>
-      <c r="E9" s="63" t="n"/>
-      <c r="F9" s="57" t="n"/>
-      <c r="G9" s="57" t="n"/>
-      <c r="I9" s="95" t="n"/>
-      <c r="J9" s="99" t="n"/>
+      <c r="G8" s="61" t="n"/>
+      <c r="I8" s="99" t="n"/>
+      <c r="J8" s="103" t="n"/>
+      <c r="K8" s="81" t="n"/>
+      <c r="L8" s="61" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="62">
+      <c r="A9" s="66" t="n"/>
+      <c r="B9" s="66" t="n"/>
+      <c r="C9" s="63" t="n"/>
+      <c r="D9" s="63" t="n"/>
+      <c r="E9" s="67" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="I9" s="99" t="n"/>
+      <c r="J9" s="103" t="n"/>
       <c r="K9" s="21" t="n"/>
-      <c r="L9" s="57" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="58">
-      <c r="A10" s="62" t="n"/>
-      <c r="B10" s="62" t="inlineStr">
+      <c r="L9" s="61" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="62">
+      <c r="A10" s="66" t="n"/>
+      <c r="B10" s="66" t="inlineStr">
         <is>
           <t>RENATA DE JESUS SALES</t>
         </is>
       </c>
-      <c r="C10" s="59" t="inlineStr">
+      <c r="C10" s="63" t="inlineStr">
         <is>
           <t>513831409</t>
         </is>
       </c>
-      <c r="D10" s="65" t="n"/>
-      <c r="E10" s="67" t="n"/>
-      <c r="F10" s="57" t="inlineStr">
+      <c r="D10" s="69" t="n"/>
+      <c r="E10" s="71" t="n"/>
+      <c r="F10" s="61" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G10" s="57" t="n"/>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="99" t="n"/>
-      <c r="K10" s="78" t="n"/>
-      <c r="L10" s="57" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="58">
-      <c r="A11" s="62" t="n"/>
-      <c r="B11" s="66" t="inlineStr">
+      <c r="G10" s="61" t="n"/>
+      <c r="I10" s="99" t="n"/>
+      <c r="J10" s="103" t="n"/>
+      <c r="K10" s="82" t="n"/>
+      <c r="L10" s="61" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="62">
+      <c r="A11" s="66" t="n"/>
+      <c r="B11" s="70" t="inlineStr">
         <is>
           <t>ARTUR PRUST SALIBA</t>
         </is>
       </c>
-      <c r="C11" s="59" t="inlineStr">
+      <c r="C11" s="63" t="inlineStr">
         <is>
           <t>513753012</t>
         </is>
       </c>
-      <c r="D11" s="65" t="n"/>
-      <c r="E11" s="67" t="n"/>
-      <c r="F11" s="57" t="inlineStr">
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="71" t="n"/>
+      <c r="F11" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="57" t="n"/>
-      <c r="I11" s="95" t="n"/>
-      <c r="J11" s="99" t="n"/>
-      <c r="K11" s="78" t="n"/>
-      <c r="L11" s="57" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="58">
-      <c r="A12" s="71" t="n"/>
-      <c r="B12" s="62" t="inlineStr">
+      <c r="G11" s="61" t="n"/>
+      <c r="I11" s="99" t="n"/>
+      <c r="J11" s="103" t="n"/>
+      <c r="K11" s="82" t="n"/>
+      <c r="L11" s="61" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="62">
+      <c r="A12" s="75" t="n"/>
+      <c r="B12" s="66" t="inlineStr">
         <is>
           <t>CAROLINA GALVAO BROCHADO DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="59" t="inlineStr">
+      <c r="C12" s="63" t="inlineStr">
         <is>
           <t>513830449</t>
         </is>
       </c>
-      <c r="D12" s="59" t="n"/>
-      <c r="E12" s="67" t="n"/>
-      <c r="F12" s="57" t="inlineStr">
+      <c r="D12" s="63" t="n"/>
+      <c r="E12" s="71" t="n"/>
+      <c r="F12" s="61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="57" t="n"/>
-      <c r="I12" s="95" t="n"/>
-      <c r="J12" s="99" t="n"/>
-      <c r="K12" s="78" t="n"/>
-      <c r="L12" s="57" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="58">
-      <c r="A13" s="71" t="n"/>
-      <c r="B13" s="62" t="inlineStr">
+      <c r="G12" s="61" t="n"/>
+      <c r="I12" s="99" t="n"/>
+      <c r="J12" s="103" t="n"/>
+      <c r="K12" s="82" t="n"/>
+      <c r="L12" s="61" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="62">
+      <c r="A13" s="75" t="n"/>
+      <c r="B13" s="66" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="C13" s="59" t="inlineStr">
+      <c r="C13" s="63" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="67" t="n"/>
-      <c r="F13" s="57" t="inlineStr">
+      <c r="D13" s="69" t="n"/>
+      <c r="E13" s="71" t="n"/>
+      <c r="F13" s="61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="95" t="n"/>
-      <c r="J13" s="99" t="n"/>
-      <c r="K13" s="79" t="n"/>
-      <c r="L13" s="57" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="58">
-      <c r="A14" s="71" t="n"/>
-      <c r="B14" s="57" t="inlineStr">
+      <c r="I13" s="99" t="n"/>
+      <c r="J13" s="103" t="n"/>
+      <c r="K13" s="83" t="n"/>
+      <c r="L13" s="61" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="62">
+      <c r="A14" s="75" t="n"/>
+      <c r="B14" s="61" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C14" s="57" t="inlineStr">
+      <c r="C14" s="61" t="inlineStr">
         <is>
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="101" t="n"/>
-      <c r="E14" s="102" t="n"/>
-      <c r="F14" s="57" t="inlineStr">
+      <c r="D14" s="105" t="n"/>
+      <c r="E14" s="106" t="n"/>
+      <c r="F14" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G14" s="57" t="n"/>
-      <c r="I14" s="103" t="n"/>
-      <c r="J14" s="99" t="n"/>
-      <c r="K14" s="82" t="n"/>
-      <c r="L14" s="57" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="58">
-      <c r="A15" s="57" t="n"/>
-      <c r="B15" s="57" t="inlineStr">
+      <c r="G14" s="61" t="n"/>
+      <c r="I14" s="107" t="n"/>
+      <c r="J14" s="103" t="n"/>
+      <c r="K14" s="86" t="n"/>
+      <c r="L14" s="61" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="62">
+      <c r="A15" s="61" t="n"/>
+      <c r="B15" s="61" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C15" s="57" t="inlineStr">
+      <c r="C15" s="61" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D15" s="57" t="n"/>
-      <c r="F15" s="57" t="inlineStr">
+      <c r="D15" s="61" t="n"/>
+      <c r="F15" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G15" s="57" t="n"/>
-      <c r="I15" s="103" t="n"/>
-      <c r="J15" s="99" t="n"/>
-      <c r="K15" s="82" t="n"/>
-      <c r="L15" s="57" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="58">
-      <c r="A16" s="57" t="n"/>
-      <c r="D16" s="57" t="n"/>
-      <c r="F16" s="57" t="n"/>
-      <c r="G16" s="57" t="n"/>
-      <c r="I16" s="104" t="n"/>
-      <c r="J16" s="99" t="n"/>
-      <c r="K16" s="86" t="n"/>
-      <c r="L16" s="57" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="58">
-      <c r="A17" s="57" t="n"/>
-      <c r="D17" s="57" t="n"/>
-      <c r="F17" s="57" t="n"/>
-      <c r="G17" s="57" t="n"/>
-      <c r="K17" s="72" t="n"/>
-      <c r="L17" s="57" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="58">
-      <c r="A18" s="57" t="n"/>
-      <c r="D18" s="57" t="n"/>
-      <c r="F18" s="57" t="n"/>
-      <c r="G18" s="57" t="n"/>
-      <c r="L18" s="57" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="58">
-      <c r="A19" s="57" t="n"/>
-      <c r="D19" s="57" t="n"/>
-      <c r="F19" s="57" t="n"/>
-      <c r="G19" s="57" t="n"/>
-      <c r="L19" s="57" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="58">
-      <c r="A20" s="57" t="n"/>
-      <c r="D20" s="57" t="n"/>
-      <c r="F20" s="57" t="n"/>
-      <c r="G20" s="57" t="n"/>
-      <c r="L20" s="57" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="58">
-      <c r="A21" s="57" t="n"/>
-      <c r="D21" s="57" t="n"/>
-      <c r="F21" s="57" t="n"/>
-      <c r="G21" s="57" t="n"/>
-      <c r="L21" s="57" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="58">
-      <c r="A22" s="57" t="n"/>
-      <c r="D22" s="57" t="n"/>
-      <c r="F22" s="57" t="n"/>
-      <c r="G22" s="57" t="n"/>
-      <c r="L22" s="57" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="58">
-      <c r="A23" s="57" t="n"/>
-      <c r="D23" s="57" t="n"/>
-      <c r="F23" s="57" t="n"/>
-      <c r="G23" s="57" t="n"/>
-      <c r="L23" s="57" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="58">
-      <c r="A24" s="57" t="n"/>
-      <c r="D24" s="57" t="n"/>
-      <c r="F24" s="57" t="n"/>
-      <c r="G24" s="57" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="58">
-      <c r="A25" s="57" t="n"/>
-      <c r="D25" s="57" t="n"/>
-      <c r="F25" s="57" t="n"/>
-      <c r="G25" s="57" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="58">
-      <c r="A26" s="57" t="n"/>
-      <c r="D26" s="57" t="n"/>
-      <c r="F26" s="57" t="n"/>
-      <c r="G26" s="57" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="58">
-      <c r="A27" s="57" t="n"/>
-      <c r="D27" s="57" t="n"/>
-      <c r="F27" s="57" t="n"/>
-      <c r="G27" s="57" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="58">
-      <c r="A28" s="57" t="n"/>
-      <c r="D28" s="57" t="n"/>
-      <c r="F28" s="57" t="n"/>
-      <c r="G28" s="57" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="58">
-      <c r="A29" s="57" t="n"/>
-      <c r="D29" s="57" t="n"/>
-      <c r="F29" s="57" t="n"/>
-      <c r="G29" s="57" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="58">
-      <c r="A30" s="57" t="n"/>
-      <c r="D30" s="57" t="n"/>
-      <c r="F30" s="57" t="n"/>
-      <c r="G30" s="57" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="58">
-      <c r="A31" s="57" t="n"/>
-      <c r="D31" s="57" t="n"/>
-      <c r="F31" s="57" t="n"/>
-      <c r="G31" s="57" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="58">
-      <c r="A32" s="57" t="n"/>
-      <c r="D32" s="57" t="n"/>
-      <c r="F32" s="57" t="n"/>
-      <c r="G32" s="57" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="58">
-      <c r="A33" s="57" t="n"/>
-      <c r="D33" s="57" t="n"/>
-      <c r="F33" s="57" t="n"/>
-      <c r="G33" s="57" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="I15" s="107" t="n"/>
+      <c r="J15" s="103" t="n"/>
+      <c r="K15" s="86" t="n"/>
+      <c r="L15" s="61" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="62">
+      <c r="A16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="I16" s="108" t="n"/>
+      <c r="J16" s="103" t="n"/>
+      <c r="K16" s="90" t="n"/>
+      <c r="L16" s="61" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="62">
+      <c r="A17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="K17" s="76" t="n"/>
+      <c r="L17" s="61" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="62">
+      <c r="A18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="62">
+      <c r="A19" s="61" t="n"/>
+      <c r="D19" s="61" t="n"/>
+      <c r="F19" s="61" t="n"/>
+      <c r="G19" s="61" t="n"/>
+      <c r="L19" s="61" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="62">
+      <c r="A20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="62">
+      <c r="A21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="62">
+      <c r="A22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="62">
+      <c r="A23" s="61" t="n"/>
+      <c r="D23" s="61" t="n"/>
+      <c r="F23" s="61" t="n"/>
+      <c r="G23" s="61" t="n"/>
+      <c r="L23" s="61" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="62">
+      <c r="A24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="62">
+      <c r="A25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="62">
+      <c r="A26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="62">
+      <c r="A27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="62">
+      <c r="A28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="62">
+      <c r="A29" s="61" t="n"/>
+      <c r="D29" s="61" t="n"/>
+      <c r="F29" s="61" t="n"/>
+      <c r="G29" s="61" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="62">
+      <c r="A30" s="61" t="n"/>
+      <c r="D30" s="61" t="n"/>
+      <c r="F30" s="61" t="n"/>
+      <c r="G30" s="61" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="62">
+      <c r="A31" s="61" t="n"/>
+      <c r="D31" s="61" t="n"/>
+      <c r="F31" s="61" t="n"/>
+      <c r="G31" s="61" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="62">
+      <c r="A32" s="61" t="n"/>
+      <c r="D32" s="61" t="n"/>
+      <c r="F32" s="61" t="n"/>
+      <c r="G32" s="61" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="62">
+      <c r="A33" s="61" t="n"/>
+      <c r="D33" s="61" t="n"/>
+      <c r="F33" s="61" t="n"/>
+      <c r="G33" s="61" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Planilha10" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Planilha11" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Planilha12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Planilha13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Planilha14" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -31,7 +33,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -153,6 +155,28 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -254,7 +278,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -439,6 +463,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -603,6 +633,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -612,13 +654,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,765 +919,765 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.57" customWidth="1" style="62" min="1" max="1"/>
-    <col width="36.14" customWidth="1" style="62" min="2" max="2"/>
-    <col width="13.14" customWidth="1" style="62" min="3" max="3"/>
-    <col width="11.43" customWidth="1" style="62" min="5" max="5"/>
-    <col width="12.57" customWidth="1" style="62" min="6" max="6"/>
-    <col width="45" customWidth="1" style="62" min="8" max="8"/>
-    <col width="14.43" customWidth="1" style="62" min="9" max="9"/>
-    <col width="11.86" customWidth="1" style="62" min="10" max="10"/>
-    <col width="13.43" customWidth="1" style="62" min="11" max="11"/>
+    <col width="6.57" customWidth="1" style="64" min="1" max="1"/>
+    <col width="36.14" customWidth="1" style="64" min="2" max="2"/>
+    <col width="13.14" customWidth="1" style="64" min="3" max="3"/>
+    <col width="11.43" customWidth="1" style="64" min="5" max="5"/>
+    <col width="12.57" customWidth="1" style="64" min="6" max="6"/>
+    <col width="45" customWidth="1" style="64" min="8" max="8"/>
+    <col width="14.43" customWidth="1" style="64" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="64" min="10" max="10"/>
+    <col width="13.43" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="67" t="n">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="inlineStr">
+      <c r="B3" s="69" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="C3" s="64" t="n">
+      <c r="C3" s="66" t="n">
         <v>513777451</v>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="D3" s="66" t="n"/>
+      <c r="E3" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G3" s="67" t="n">
+      <c r="G3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="69" t="inlineStr">
+      <c r="H3" s="71" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="I3" s="64" t="n">
+      <c r="I3" s="66" t="n">
         <v>513777451</v>
       </c>
-      <c r="J3" s="70" t="n"/>
-      <c r="K3" s="70" t="n">
+      <c r="J3" s="72" t="n"/>
+      <c r="K3" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="62" t="inlineStr">
+      <c r="L3" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="67" t="n">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="inlineStr">
+      <c r="B4" s="69" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="66" t="n">
         <v>513700004</v>
       </c>
-      <c r="D4" s="64" t="n"/>
-      <c r="E4" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="67" t="n">
+      <c r="G4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="69" t="inlineStr">
+      <c r="H4" s="71" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I4" s="64" t="n">
+      <c r="I4" s="66" t="n">
         <v>513700004</v>
       </c>
-      <c r="J4" s="70" t="n"/>
-      <c r="K4" s="70" t="n">
+      <c r="J4" s="72" t="n"/>
+      <c r="K4" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="62" t="inlineStr">
+      <c r="L4" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="67" t="n">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="73" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="66" t="n">
         <v>513776719</v>
       </c>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="D5" s="66" t="n"/>
+      <c r="E5" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="67" t="n">
+      <c r="G5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="69" t="inlineStr">
+      <c r="H5" s="71" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I5" s="64" t="n">
+      <c r="I5" s="66" t="n">
         <v>513758449</v>
       </c>
-      <c r="J5" s="70" t="n"/>
-      <c r="K5" s="70" t="n">
+      <c r="J5" s="72" t="n"/>
+      <c r="K5" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="62" t="inlineStr">
+      <c r="L5" s="64" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="A6" s="67" t="n">
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="A6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="inlineStr">
+      <c r="B6" s="69" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="66" t="n">
         <v>513758449</v>
       </c>
-      <c r="D6" s="64" t="n"/>
-      <c r="E6" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="D6" s="66" t="n"/>
+      <c r="E6" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G6" s="67" t="n">
+      <c r="G6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="69" t="inlineStr">
+      <c r="H6" s="71" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I6" s="64" t="n">
+      <c r="I6" s="66" t="n">
         <v>513749220</v>
       </c>
-      <c r="J6" s="70" t="n"/>
-      <c r="K6" s="70" t="n">
+      <c r="J6" s="72" t="n"/>
+      <c r="K6" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="62" t="inlineStr">
+      <c r="L6" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="A7" s="67" t="n">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="A7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="inlineStr">
+      <c r="B7" s="69" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="66" t="n">
         <v>513749220</v>
       </c>
-      <c r="D7" s="64" t="n"/>
-      <c r="E7" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="D7" s="66" t="n"/>
+      <c r="E7" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="67" t="n">
+      <c r="G7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="69" t="inlineStr">
+      <c r="H7" s="71" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="64" t="n">
+      <c r="I7" s="66" t="n">
         <v>513754823</v>
       </c>
-      <c r="J7" s="70" t="n"/>
-      <c r="K7" s="70" t="n">
+      <c r="J7" s="72" t="n"/>
+      <c r="K7" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="62" t="inlineStr">
+      <c r="L7" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="A8" s="67" t="n">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="A8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="67" t="inlineStr">
+      <c r="B8" s="69" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="66" t="n">
         <v>513756797</v>
       </c>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="D8" s="66" t="n"/>
+      <c r="E8" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="67" t="n">
+      <c r="G8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="67" t="inlineStr">
+      <c r="H8" s="69" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I8" s="64" t="n">
+      <c r="I8" s="66" t="n">
         <v>513781493</v>
       </c>
-      <c r="J8" s="70" t="n"/>
-      <c r="K8" s="70" t="n">
+      <c r="J8" s="72" t="n"/>
+      <c r="K8" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="62" t="inlineStr">
+      <c r="L8" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="A9" s="67" t="n">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="A9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="inlineStr">
+      <c r="B9" s="69" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="66" t="n">
         <v>513761848</v>
       </c>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="D9" s="66" t="n"/>
+      <c r="E9" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="67" t="n">
+      <c r="G9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="67" t="inlineStr">
+      <c r="H9" s="69" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="66" t="n">
         <v>513701260</v>
       </c>
-      <c r="J9" s="70" t="n"/>
-      <c r="K9" s="70" t="n">
+      <c r="J9" s="72" t="n"/>
+      <c r="K9" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="62" t="inlineStr">
+      <c r="L9" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="A10" s="67" t="n">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="A10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="67" t="inlineStr">
+      <c r="B10" s="69" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="66" t="n">
         <v>513778649</v>
       </c>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="D10" s="72" t="n"/>
+      <c r="E10" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G10" s="67" t="n">
+      <c r="G10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="67" t="inlineStr">
+      <c r="H10" s="69" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I10" s="64" t="n">
+      <c r="I10" s="66" t="n">
         <v>513772028</v>
       </c>
-      <c r="J10" s="70" t="n"/>
-      <c r="K10" s="70" t="n">
+      <c r="J10" s="72" t="n"/>
+      <c r="K10" s="72" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="62" t="inlineStr">
+      <c r="L10" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="A11" s="67" t="n">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="A11" s="69" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="71" t="inlineStr">
+      <c r="B11" s="73" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="66" t="n">
         <v>513720426</v>
       </c>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
+      <c r="D11" s="72" t="n"/>
+      <c r="E11" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I11" s="73" t="n"/>
-      <c r="J11" s="74" t="inlineStr">
+      <c r="I11" s="75" t="n"/>
+      <c r="J11" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="77">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="A12" s="67" t="n">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="A12" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="inlineStr">
+      <c r="B12" s="69" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="66" t="n">
         <v>513754823</v>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="76" t="n"/>
-      <c r="H12" s="73" t="n"/>
-      <c r="I12" s="73" t="n"/>
-      <c r="J12" s="77" t="n"/>
+      <c r="G12" s="78" t="n"/>
+      <c r="H12" s="75" t="n"/>
+      <c r="I12" s="75" t="n"/>
+      <c r="J12" s="79" t="n"/>
       <c r="K12" s="14" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="A13" s="67" t="n">
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="A13" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="inlineStr">
+      <c r="B13" s="69" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="66" t="n">
         <v>513781493</v>
       </c>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
+      <c r="D13" s="72" t="n"/>
+      <c r="E13" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H13" s="78" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="A14" s="67" t="n">
+      <c r="H13" s="80" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="A14" s="69" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="67" t="inlineStr">
+      <c r="B14" s="69" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C14" s="64" t="n">
+      <c r="C14" s="66" t="n">
         <v>513766860</v>
       </c>
-      <c r="D14" s="70" t="n"/>
-      <c r="E14" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="62" t="inlineStr">
+      <c r="D14" s="72" t="n"/>
+      <c r="E14" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I14" s="79" t="inlineStr">
+      <c r="I14" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J14" s="66" t="n"/>
-      <c r="K14" s="80" t="n">
+      <c r="J14" s="68" t="n"/>
+      <c r="K14" s="82" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="A15" s="67" t="n">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="A15" s="69" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="67" t="inlineStr">
+      <c r="B15" s="69" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C15" s="64" t="n">
+      <c r="C15" s="66" t="n">
         <v>513701260</v>
       </c>
-      <c r="D15" s="70" t="n"/>
-      <c r="E15" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="62" t="inlineStr">
+      <c r="D15" s="72" t="n"/>
+      <c r="E15" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I15" s="79" t="inlineStr">
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J15" s="66" t="n"/>
+      <c r="J15" s="68" t="n"/>
       <c r="K15" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="A16" s="67" t="n">
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="A16" s="69" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="67" t="inlineStr">
+      <c r="B16" s="69" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C16" s="64" t="inlineStr">
+      <c r="C16" s="66" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D16" s="70" t="n"/>
-      <c r="E16" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="62" t="inlineStr">
+      <c r="D16" s="72" t="n"/>
+      <c r="E16" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="81" t="inlineStr">
+      <c r="I16" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J16" s="66" t="n"/>
-      <c r="K16" s="82" t="n">
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="84" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="A17" s="67" t="n">
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="A17" s="69" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="67" t="inlineStr">
+      <c r="B17" s="69" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C17" s="64" t="n">
+      <c r="C17" s="66" t="n">
         <v>513772028</v>
       </c>
-      <c r="D17" s="70" t="n"/>
-      <c r="E17" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="62" t="inlineStr">
+      <c r="D17" s="72" t="n"/>
+      <c r="E17" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I17" s="79" t="inlineStr">
+      <c r="I17" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J17" s="66" t="n"/>
+      <c r="J17" s="68" t="n"/>
       <c r="K17" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="A18" s="67" t="n">
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="A18" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="67" t="inlineStr">
+      <c r="B18" s="69" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C18" s="64" t="n">
+      <c r="C18" s="66" t="n">
         <v>513753257</v>
       </c>
-      <c r="D18" s="70" t="n"/>
-      <c r="E18" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="62" t="inlineStr">
+      <c r="D18" s="72" t="n"/>
+      <c r="E18" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I18" s="79" t="inlineStr">
+      <c r="I18" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J18" s="66" t="n"/>
-      <c r="K18" s="83" t="n">
+      <c r="J18" s="68" t="n"/>
+      <c r="K18" s="85" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="A19" s="67" t="n">
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="A19" s="69" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="67" t="inlineStr">
+      <c r="B19" s="69" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C19" s="64" t="n">
+      <c r="C19" s="66" t="n">
         <v>513697796</v>
       </c>
-      <c r="D19" s="70" t="n"/>
-      <c r="E19" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="62" t="inlineStr">
+      <c r="D19" s="72" t="n"/>
+      <c r="E19" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="79" t="inlineStr">
+      <c r="I19" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J19" s="66" t="n"/>
-      <c r="K19" s="84">
+      <c r="J19" s="68" t="n"/>
+      <c r="K19" s="86">
         <f>K16-K18-K17</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="63">
-      <c r="A20" s="76" t="n"/>
-      <c r="B20" s="77" t="n"/>
-      <c r="D20" s="85" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="65">
+      <c r="A20" s="78" t="n"/>
+      <c r="B20" s="79" t="n"/>
+      <c r="D20" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="74">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="I20" s="86" t="inlineStr">
+      <c r="I20" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J20" s="66" t="n"/>
-      <c r="K20" s="87">
+      <c r="J20" s="68" t="n"/>
+      <c r="K20" s="89">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="63">
-      <c r="A21" s="76" t="n"/>
-      <c r="D21" s="88" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="65">
+      <c r="A21" s="78" t="n"/>
+      <c r="D21" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="91">
         <f>49*17</f>
         <v/>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="I21" s="86" t="inlineStr">
+      <c r="I21" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J21" s="66" t="n"/>
-      <c r="K21" s="87">
+      <c r="J21" s="68" t="n"/>
+      <c r="K21" s="89">
         <f>300+E14</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="63">
-      <c r="A22" s="76" t="n"/>
-      <c r="D22" s="88" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="65">
+      <c r="A22" s="78" t="n"/>
+      <c r="D22" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E22" s="89" t="n">
+      <c r="E22" s="91" t="n">
         <v>1444.1</v>
       </c>
-      <c r="I22" s="90" t="inlineStr">
+      <c r="I22" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J22" s="66" t="n"/>
-      <c r="K22" s="91">
+      <c r="J22" s="68" t="n"/>
+      <c r="K22" s="93">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="63">
-      <c r="K23" s="77" t="n"/>
+    <row r="23" ht="15" customHeight="1" s="65">
+      <c r="K23" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1668,719 +1707,719 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48.04" customWidth="1" style="62" min="2" max="2"/>
-    <col width="12.13" customWidth="1" style="62" min="3" max="3"/>
-    <col width="41.17" customWidth="1" style="62" min="8" max="8"/>
-    <col width="10.54" customWidth="1" style="62" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="62" min="11" max="11"/>
+    <col width="48.04" customWidth="1" style="64" min="2" max="2"/>
+    <col width="12.13" customWidth="1" style="64" min="3" max="3"/>
+    <col width="41.17" customWidth="1" style="64" min="8" max="8"/>
+    <col width="10.54" customWidth="1" style="64" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="F1" s="62" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="F1" s="64" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="62" t="n"/>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="F2" s="64" t="n"/>
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="63">
-      <c r="A3" s="67" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="65">
+      <c r="A3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="110" t="inlineStr">
+      <c r="B3" s="112" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="64" t="inlineStr">
+      <c r="C3" s="66" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="77" t="inlineStr">
+      <c r="D3" s="66" t="n"/>
+      <c r="E3" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="67" t="n"/>
-      <c r="H3" s="111" t="inlineStr">
+      <c r="G3" s="69" t="n"/>
+      <c r="H3" s="113" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="64" t="inlineStr">
+      <c r="I3" s="66" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="64" t="n"/>
-      <c r="K3" s="64" t="n">
+      <c r="J3" s="66" t="n"/>
+      <c r="K3" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="77" t="inlineStr">
+      <c r="L3" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="63">
-      <c r="A4" s="67" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="65">
+      <c r="A4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="111" t="inlineStr">
+      <c r="B4" s="113" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="66" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="64" t="n"/>
-      <c r="E4" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="77" t="inlineStr">
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="67" t="n"/>
-      <c r="H4" s="112" t="inlineStr">
+      <c r="G4" s="69" t="n"/>
+      <c r="H4" s="114" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="64" t="n">
+      <c r="I4" s="66" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="64" t="n"/>
-      <c r="K4" s="64" t="n">
+      <c r="J4" s="66" t="n"/>
+      <c r="K4" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="77" t="inlineStr">
+      <c r="L4" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="63">
-      <c r="A5" s="67" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="65">
+      <c r="A5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="112" t="inlineStr">
+      <c r="B5" s="114" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="66" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="D5" s="66" t="n"/>
+      <c r="E5" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="79" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="67" t="n"/>
-      <c r="H5" s="112" t="inlineStr">
+      <c r="G5" s="69" t="n"/>
+      <c r="H5" s="114" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="64" t="n">
+      <c r="I5" s="66" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n">
+      <c r="J5" s="66" t="n"/>
+      <c r="K5" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="L5" s="79" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="63">
-      <c r="A6" s="67" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="65">
+      <c r="A6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="113" t="inlineStr">
+      <c r="B6" s="115" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="66" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="64" t="n"/>
-      <c r="E6" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="77" t="inlineStr">
+      <c r="D6" s="66" t="n"/>
+      <c r="E6" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="67" t="n"/>
-      <c r="H6" s="112" t="inlineStr">
+      <c r="G6" s="69" t="n"/>
+      <c r="H6" s="114" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="64" t="n">
+      <c r="I6" s="66" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="64" t="n"/>
-      <c r="K6" s="64" t="n">
+      <c r="J6" s="66" t="n"/>
+      <c r="K6" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="77" t="inlineStr">
+      <c r="L6" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="63">
-      <c r="A7" s="67" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="65">
+      <c r="A7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="112" t="inlineStr">
+      <c r="B7" s="114" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="66" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="64" t="n"/>
-      <c r="E7" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="77" t="inlineStr">
+      <c r="D7" s="66" t="n"/>
+      <c r="E7" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="67" t="n"/>
-      <c r="H7" s="112" t="inlineStr">
+      <c r="G7" s="69" t="n"/>
+      <c r="H7" s="114" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="64" t="n">
+      <c r="I7" s="66" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n">
+      <c r="J7" s="66" t="n"/>
+      <c r="K7" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="77" t="inlineStr">
+      <c r="L7" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="63">
-      <c r="A8" s="67" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="65">
+      <c r="A8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="113" t="inlineStr">
+      <c r="B8" s="115" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="66" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="77" t="inlineStr">
+      <c r="D8" s="66" t="n"/>
+      <c r="E8" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="79" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="67" t="n"/>
-      <c r="H8" s="112" t="inlineStr">
+      <c r="G8" s="69" t="n"/>
+      <c r="H8" s="114" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="64" t="n">
+      <c r="I8" s="66" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="64" t="n"/>
-      <c r="K8" s="64" t="n">
+      <c r="J8" s="66" t="n"/>
+      <c r="K8" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="77" t="inlineStr">
+      <c r="L8" s="79" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="63">
-      <c r="A9" s="67" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="65">
+      <c r="A9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="112" t="inlineStr">
+      <c r="B9" s="114" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="66" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="77" t="inlineStr">
+      <c r="D9" s="66" t="n"/>
+      <c r="E9" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="67" t="n"/>
-      <c r="H9" s="112" t="inlineStr">
+      <c r="G9" s="69" t="n"/>
+      <c r="H9" s="114" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="66" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n">
+      <c r="J9" s="66" t="n"/>
+      <c r="K9" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="77" t="inlineStr">
+      <c r="L9" s="79" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="63">
-      <c r="A10" s="67" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="65">
+      <c r="A10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="112" t="inlineStr">
+      <c r="B10" s="114" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="66" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="64" t="n"/>
-      <c r="E10" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="77" t="inlineStr">
+      <c r="D10" s="66" t="n"/>
+      <c r="E10" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="67" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
+      <c r="G10" s="69" t="n"/>
+      <c r="H10" s="71" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="64" t="inlineStr">
+      <c r="I10" s="66" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="64" t="n"/>
-      <c r="K10" s="64" t="n">
+      <c r="J10" s="66" t="n"/>
+      <c r="K10" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="77" t="inlineStr">
+      <c r="L10" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="63">
-      <c r="A11" s="67" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="65">
+      <c r="A11" s="69" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="112" t="inlineStr">
+      <c r="B11" s="114" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="66" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="64" t="n"/>
-      <c r="E11" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="77" t="inlineStr">
+      <c r="D11" s="66" t="n"/>
+      <c r="E11" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="67" t="n"/>
-      <c r="H11" s="69" t="inlineStr">
+      <c r="G11" s="69" t="n"/>
+      <c r="H11" s="71" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="64" t="inlineStr">
+      <c r="I11" s="66" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n">
+      <c r="J11" s="66" t="n"/>
+      <c r="K11" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="77" t="inlineStr">
+      <c r="L11" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="63">
-      <c r="A12" s="67" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="65">
+      <c r="A12" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="112" t="inlineStr">
+      <c r="B12" s="114" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="66" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="77" t="inlineStr">
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="67" t="n"/>
-      <c r="H12" s="69" t="n"/>
-      <c r="I12" s="64" t="n"/>
-      <c r="J12" s="64" t="n"/>
-      <c r="K12" s="64" t="n">
+      <c r="G12" s="69" t="n"/>
+      <c r="H12" s="71" t="n"/>
+      <c r="I12" s="66" t="n"/>
+      <c r="J12" s="66" t="n"/>
+      <c r="K12" s="66" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="77" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="63">
-      <c r="A13" s="67" t="n">
+      <c r="L12" s="79" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="65">
+      <c r="A13" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="112" t="inlineStr">
+      <c r="B13" s="114" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="66" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="64" t="n"/>
-      <c r="E13" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="77" t="inlineStr">
+      <c r="D13" s="66" t="n"/>
+      <c r="E13" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="77" t="n"/>
-      <c r="H13" s="77" t="n"/>
-      <c r="I13" s="73" t="n"/>
-      <c r="J13" s="74" t="inlineStr">
+      <c r="G13" s="79" t="n"/>
+      <c r="H13" s="79" t="n"/>
+      <c r="I13" s="75" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="77">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="63">
-      <c r="A14" s="67" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="65">
+      <c r="A14" s="69" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="112" t="inlineStr">
+      <c r="B14" s="114" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="64" t="n">
+      <c r="C14" s="66" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="64" t="n"/>
-      <c r="E14" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="77" t="inlineStr">
+      <c r="D14" s="66" t="n"/>
+      <c r="E14" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="79" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="76" t="n"/>
-      <c r="H14" s="73" t="n"/>
-      <c r="I14" s="73" t="n"/>
-      <c r="J14" s="77" t="n"/>
+      <c r="G14" s="78" t="n"/>
+      <c r="H14" s="75" t="n"/>
+      <c r="I14" s="75" t="n"/>
+      <c r="J14" s="79" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="63">
-      <c r="A15" s="67" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="65">
+      <c r="A15" s="69" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="112" t="inlineStr">
+      <c r="B15" s="114" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="64" t="n">
+      <c r="C15" s="66" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="64" t="n"/>
-      <c r="E15" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="77" t="inlineStr">
+      <c r="D15" s="66" t="n"/>
+      <c r="E15" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="79" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="78" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="63">
-      <c r="A16" s="67" t="n">
+      <c r="H15" s="80" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="65">
+      <c r="A16" s="69" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="69" t="n"/>
-      <c r="C16" s="64" t="n"/>
-      <c r="D16" s="64" t="n"/>
-      <c r="E16" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="77" t="n"/>
-      <c r="I16" s="79" t="n"/>
-      <c r="J16" s="66" t="n"/>
-      <c r="K16" s="80" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="63">
-      <c r="A17" s="67" t="n">
+      <c r="B16" s="71" t="n"/>
+      <c r="C16" s="66" t="n"/>
+      <c r="D16" s="66" t="n"/>
+      <c r="E16" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="79" t="n"/>
+      <c r="I16" s="81" t="n"/>
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="82" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="65">
+      <c r="A17" s="69" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="69" t="n"/>
-      <c r="C17" s="64" t="n"/>
-      <c r="D17" s="64" t="n"/>
-      <c r="E17" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="77" t="n"/>
-      <c r="I17" s="79" t="n"/>
-      <c r="J17" s="66" t="n"/>
-      <c r="K17" s="80" t="n"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="63">
-      <c r="A18" s="67" t="n">
+      <c r="B17" s="71" t="n"/>
+      <c r="C17" s="66" t="n"/>
+      <c r="D17" s="66" t="n"/>
+      <c r="E17" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="79" t="n"/>
+      <c r="I17" s="81" t="n"/>
+      <c r="J17" s="68" t="n"/>
+      <c r="K17" s="82" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="65">
+      <c r="A18" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="69" t="n"/>
-      <c r="C18" s="64" t="n"/>
-      <c r="D18" s="64" t="n"/>
-      <c r="E18" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="77" t="n"/>
-      <c r="I18" s="81" t="n"/>
-      <c r="J18" s="66" t="n"/>
-      <c r="K18" s="82" t="n"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="63">
-      <c r="A19" s="67" t="n">
+      <c r="B18" s="71" t="n"/>
+      <c r="C18" s="66" t="n"/>
+      <c r="D18" s="66" t="n"/>
+      <c r="E18" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="79" t="n"/>
+      <c r="I18" s="83" t="n"/>
+      <c r="J18" s="68" t="n"/>
+      <c r="K18" s="84" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="65">
+      <c r="A19" s="69" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="69" t="n"/>
-      <c r="C19" s="64" t="n"/>
-      <c r="D19" s="64" t="n"/>
-      <c r="E19" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="77" t="n"/>
-      <c r="I19" s="79" t="n"/>
-      <c r="J19" s="66" t="n"/>
+      <c r="B19" s="71" t="n"/>
+      <c r="C19" s="66" t="n"/>
+      <c r="D19" s="66" t="n"/>
+      <c r="E19" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="79" t="n"/>
+      <c r="I19" s="81" t="n"/>
+      <c r="J19" s="68" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="63">
-      <c r="A20" s="67" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="65">
+      <c r="A20" s="69" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="69" t="n"/>
-      <c r="C20" s="64" t="n"/>
-      <c r="D20" s="64" t="n"/>
-      <c r="E20" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="77" t="n"/>
-      <c r="I20" s="79" t="n"/>
-      <c r="J20" s="66" t="n"/>
-      <c r="K20" s="83" t="n"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="63">
-      <c r="A21" s="67" t="n">
+      <c r="B20" s="71" t="n"/>
+      <c r="C20" s="66" t="n"/>
+      <c r="D20" s="66" t="n"/>
+      <c r="E20" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="79" t="n"/>
+      <c r="I20" s="81" t="n"/>
+      <c r="J20" s="68" t="n"/>
+      <c r="K20" s="85" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="65">
+      <c r="A21" s="69" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="69" t="n"/>
-      <c r="C21" s="64" t="n"/>
-      <c r="D21" s="64" t="n"/>
-      <c r="E21" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="77" t="n"/>
-      <c r="I21" s="79" t="n"/>
-      <c r="J21" s="66" t="n"/>
-      <c r="K21" s="84" t="n"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="63">
-      <c r="A22" s="67" t="n">
+      <c r="B21" s="71" t="n"/>
+      <c r="C21" s="66" t="n"/>
+      <c r="D21" s="66" t="n"/>
+      <c r="E21" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="79" t="n"/>
+      <c r="I21" s="81" t="n"/>
+      <c r="J21" s="68" t="n"/>
+      <c r="K21" s="86" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="65">
+      <c r="A22" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="69" t="n"/>
-      <c r="C22" s="64" t="n"/>
-      <c r="D22" s="64" t="n"/>
-      <c r="E22" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="77" t="n"/>
-      <c r="I22" s="86" t="n"/>
-      <c r="J22" s="66" t="n"/>
-      <c r="K22" s="87" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="63">
-      <c r="A23" s="67" t="n">
+      <c r="B22" s="71" t="n"/>
+      <c r="C22" s="66" t="n"/>
+      <c r="D22" s="66" t="n"/>
+      <c r="E22" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="79" t="n"/>
+      <c r="I22" s="88" t="n"/>
+      <c r="J22" s="68" t="n"/>
+      <c r="K22" s="89" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="65">
+      <c r="A23" s="69" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="69" t="n"/>
-      <c r="C23" s="114" t="n"/>
-      <c r="D23" s="64" t="n"/>
-      <c r="E23" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="77" t="n"/>
+      <c r="B23" s="71" t="n"/>
+      <c r="C23" s="116" t="n"/>
+      <c r="D23" s="66" t="n"/>
+      <c r="E23" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="79" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="86" t="n"/>
-      <c r="J23" s="66" t="n"/>
-      <c r="K23" s="87" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="63">
-      <c r="A24" s="76" t="n"/>
-      <c r="B24" s="77" t="n"/>
-      <c r="D24" s="85" t="n"/>
-      <c r="E24" s="72" t="n"/>
-      <c r="F24" s="62" t="n"/>
-      <c r="I24" s="90" t="n"/>
-      <c r="J24" s="66" t="n"/>
-      <c r="K24" s="91" t="n"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="63">
-      <c r="A25" s="76" t="n"/>
-      <c r="D25" s="88" t="n"/>
-      <c r="E25" s="89" t="n"/>
-      <c r="F25" s="62" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="63">
-      <c r="A26" s="76" t="n"/>
-      <c r="D26" s="88" t="n"/>
-      <c r="E26" s="89" t="n"/>
-      <c r="F26" s="62" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="63"/>
+      <c r="I23" s="88" t="n"/>
+      <c r="J23" s="68" t="n"/>
+      <c r="K23" s="89" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="65">
+      <c r="A24" s="78" t="n"/>
+      <c r="B24" s="79" t="n"/>
+      <c r="D24" s="87" t="n"/>
+      <c r="E24" s="74" t="n"/>
+      <c r="F24" s="64" t="n"/>
+      <c r="I24" s="92" t="n"/>
+      <c r="J24" s="68" t="n"/>
+      <c r="K24" s="93" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="65">
+      <c r="A25" s="78" t="n"/>
+      <c r="D25" s="90" t="n"/>
+      <c r="E25" s="91" t="n"/>
+      <c r="F25" s="64" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="65">
+      <c r="A26" s="78" t="n"/>
+      <c r="D26" s="90" t="n"/>
+      <c r="E26" s="91" t="n"/>
+      <c r="F26" s="64" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="65"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2417,156 +2456,156 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="62" min="2" max="2"/>
-    <col width="9.92" customWidth="1" style="62" min="4" max="4"/>
-    <col width="55" customWidth="1" style="62" min="8" max="8"/>
+    <col width="55" customWidth="1" style="64" min="2" max="2"/>
+    <col width="9.92" customWidth="1" style="64" min="4" max="4"/>
+    <col width="55" customWidth="1" style="64" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="63">
-      <c r="A1" s="115" t="n"/>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="115" t="n"/>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="63">
-      <c r="A2" s="115" t="n"/>
-      <c r="B2" s="115" t="n"/>
-      <c r="C2" s="115" t="n"/>
-      <c r="D2" s="115" t="n"/>
-      <c r="E2" s="115" t="n"/>
-      <c r="G2" s="115" t="n"/>
-      <c r="H2" s="115" t="n"/>
-      <c r="I2" s="115" t="n"/>
-      <c r="J2" s="115" t="n"/>
-      <c r="K2" s="115" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="63">
-      <c r="A3" s="102" t="n"/>
-      <c r="B3" s="102" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="65">
+      <c r="A1" s="117" t="n"/>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="117" t="n"/>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="65">
+      <c r="A2" s="117" t="n"/>
+      <c r="B2" s="117" t="n"/>
+      <c r="C2" s="117" t="n"/>
+      <c r="D2" s="117" t="n"/>
+      <c r="E2" s="117" t="n"/>
+      <c r="G2" s="117" t="n"/>
+      <c r="H2" s="117" t="n"/>
+      <c r="I2" s="117" t="n"/>
+      <c r="J2" s="117" t="n"/>
+      <c r="K2" s="117" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="65">
+      <c r="A3" s="104" t="n"/>
+      <c r="B3" s="104" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="62" t="n"/>
-      <c r="E3" s="102" t="n"/>
-      <c r="F3" s="62" t="n"/>
-      <c r="G3" s="102" t="n"/>
-      <c r="H3" s="102" t="inlineStr">
+      <c r="C3" s="64" t="n"/>
+      <c r="E3" s="104" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="104" t="n"/>
+      <c r="H3" s="104" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="102" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="63">
-      <c r="A4" s="102" t="n"/>
-      <c r="B4" s="116" t="inlineStr">
+      <c r="K3" s="104" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="65">
+      <c r="A4" s="104" t="n"/>
+      <c r="B4" s="118" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="117" t="n"/>
-      <c r="D4" s="117" t="n"/>
-      <c r="E4" s="116" t="n"/>
-      <c r="F4" s="62" t="n"/>
-      <c r="G4" s="102" t="n"/>
-      <c r="H4" s="116" t="inlineStr">
+      <c r="C4" s="119" t="n"/>
+      <c r="D4" s="119" t="n"/>
+      <c r="E4" s="118" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="104" t="n"/>
+      <c r="H4" s="118" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="102" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="63">
-      <c r="A5" s="102" t="n"/>
-      <c r="B5" s="102" t="inlineStr">
+      <c r="K4" s="104" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="65">
+      <c r="A5" s="104" t="n"/>
+      <c r="B5" s="104" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="62" t="n"/>
-      <c r="E5" s="102" t="n"/>
-      <c r="F5" s="62" t="n"/>
-      <c r="G5" s="102" t="n"/>
-      <c r="H5" s="102" t="inlineStr">
+      <c r="C5" s="64" t="n"/>
+      <c r="E5" s="104" t="n"/>
+      <c r="F5" s="64" t="n"/>
+      <c r="G5" s="104" t="n"/>
+      <c r="H5" s="104" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="102" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="63">
-      <c r="A6" s="102" t="n"/>
-      <c r="B6" s="102" t="inlineStr">
+      <c r="K5" s="104" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="65">
+      <c r="A6" s="104" t="n"/>
+      <c r="B6" s="104" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="62" t="n"/>
-      <c r="E6" s="102" t="n"/>
-      <c r="F6" s="62" t="n"/>
-      <c r="G6" s="102" t="n"/>
-      <c r="H6" s="102" t="inlineStr">
+      <c r="C6" s="64" t="n"/>
+      <c r="E6" s="104" t="n"/>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="104" t="n"/>
+      <c r="H6" s="104" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="102" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="63">
-      <c r="A7" s="102" t="n"/>
-      <c r="B7" s="102" t="inlineStr">
+      <c r="K6" s="104" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="65">
+      <c r="A7" s="104" t="n"/>
+      <c r="B7" s="104" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="62" t="n"/>
-      <c r="E7" s="102" t="n"/>
-      <c r="F7" s="62" t="n"/>
-      <c r="G7" s="62" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="63">
-      <c r="A8" s="102" t="n"/>
-      <c r="B8" s="102" t="inlineStr">
+      <c r="C7" s="64" t="n"/>
+      <c r="E7" s="104" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="65">
+      <c r="A8" s="104" t="n"/>
+      <c r="B8" s="104" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="62" t="n"/>
-      <c r="E8" s="102" t="n"/>
-      <c r="F8" s="62" t="n"/>
-      <c r="G8" s="62" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="63"/>
-    <row r="10" ht="13.5" customHeight="1" s="63"/>
-    <row r="11" ht="13.5" customHeight="1" s="63">
-      <c r="I11" s="102" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="63">
-      <c r="I12" s="102" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="63">
-      <c r="I13" s="102" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="63">
-      <c r="I14" s="102" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="63">
-      <c r="I15" s="102" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="63"/>
+      <c r="C8" s="64" t="n"/>
+      <c r="E8" s="104" t="n"/>
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="64" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="65"/>
+    <row r="10" ht="13.5" customHeight="1" s="65"/>
+    <row r="11" ht="13.5" customHeight="1" s="65">
+      <c r="I11" s="104" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="65">
+      <c r="I12" s="104" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="65">
+      <c r="I13" s="104" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="65">
+      <c r="I14" s="104" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="65">
+      <c r="I15" s="104" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="65"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2594,279 +2633,978 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="62" min="2" max="2"/>
-    <col width="55" customWidth="1" style="62" min="8" max="8"/>
+    <col width="55" customWidth="1" style="64" min="2" max="2"/>
+    <col width="55" customWidth="1" style="64" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="63">
-      <c r="A1" s="115" t="n"/>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="115" t="n"/>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="63">
-      <c r="A2" s="115" t="n"/>
-      <c r="B2" s="115" t="n"/>
-      <c r="C2" s="115" t="n"/>
-      <c r="D2" s="115" t="n"/>
-      <c r="E2" s="115" t="n"/>
-      <c r="G2" s="115" t="n"/>
-      <c r="H2" s="115" t="n"/>
-      <c r="I2" s="115" t="n"/>
-      <c r="J2" s="115" t="n"/>
-      <c r="K2" s="115" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="63">
-      <c r="A3" s="102" t="n"/>
-      <c r="B3" s="118" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="65">
+      <c r="A1" s="117" t="inlineStr">
+        <is>
+          <t>(A) Atendimento Médico 02/11/2024</t>
+        </is>
+      </c>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="117" t="inlineStr">
+        <is>
+          <t>(A) Atendimento Psicológico 02/11/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="65">
+      <c r="A2" s="117" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="B2" s="117" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C2" s="117" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="D2" s="117" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="E2" s="117" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="G2" s="117" t="n"/>
+      <c r="H2" s="117" t="n"/>
+      <c r="I2" s="117" t="n"/>
+      <c r="J2" s="117" t="n"/>
+      <c r="K2" s="117" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="65">
+      <c r="A3" s="104" t="n"/>
+      <c r="B3" s="104" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="118" t="n">
+      <c r="C3" s="104" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="102" t="n"/>
-      <c r="E3" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="62" t="n"/>
-      <c r="G3" s="102" t="n"/>
-      <c r="H3" s="118" t="inlineStr">
+      <c r="D3" s="104" t="n"/>
+      <c r="E3" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="104" t="n"/>
+      <c r="H3" s="104" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="119" t="n">
+      <c r="K3" s="120" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="63">
-      <c r="A4" s="102" t="n"/>
-      <c r="B4" s="120" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1" s="65">
+      <c r="A4" s="104" t="n"/>
+      <c r="B4" s="118" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="120" t="n">
+      <c r="C4" s="118" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="116" t="n"/>
+      <c r="D4" s="118" t="n"/>
       <c r="E4" s="121" t="n">
         <v>148.65</v>
       </c>
-      <c r="F4" s="62" t="n"/>
-      <c r="G4" s="102" t="n"/>
-      <c r="H4" s="120" t="inlineStr">
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="104" t="n"/>
+      <c r="H4" s="118" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="119" t="n">
+      <c r="K4" s="120" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="63">
-      <c r="A5" s="102" t="n"/>
-      <c r="B5" s="118" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="65">
+      <c r="A5" s="104" t="n"/>
+      <c r="B5" s="104" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="118" t="n">
+      <c r="C5" s="104" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="102" t="n"/>
-      <c r="E5" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="62" t="n"/>
-      <c r="G5" s="102" t="n"/>
-      <c r="H5" s="118" t="inlineStr">
+      <c r="D5" s="104" t="n"/>
+      <c r="E5" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="64" t="n"/>
+      <c r="G5" s="104" t="n"/>
+      <c r="H5" s="104" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="119" t="n">
+      <c r="K5" s="120" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="63">
-      <c r="A6" s="102" t="n"/>
-      <c r="B6" s="118" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="65">
+      <c r="A6" s="104" t="n"/>
+      <c r="B6" s="104" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="62" t="n"/>
-      <c r="D6" s="102" t="n"/>
-      <c r="E6" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="62" t="n"/>
-      <c r="G6" s="102" t="n"/>
-      <c r="H6" s="118" t="inlineStr">
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="104" t="n"/>
+      <c r="E6" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="104" t="n"/>
+      <c r="H6" s="104" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="119" t="n">
+      <c r="K6" s="120" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="63">
-      <c r="A7" s="102" t="n"/>
-      <c r="B7" s="118" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="65">
+      <c r="A7" s="104" t="n"/>
+      <c r="B7" s="104" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="62" t="n"/>
-      <c r="D7" s="102" t="n"/>
-      <c r="E7" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="62" t="n"/>
-      <c r="G7" s="62" t="n"/>
-      <c r="H7" s="118" t="inlineStr">
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="104" t="n"/>
+      <c r="E7" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="104" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="115" t="n"/>
-      <c r="K7" s="122" t="n">
+      <c r="J7" s="117" t="n"/>
+      <c r="K7" s="117" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="63">
-      <c r="A8" s="102" t="n"/>
-      <c r="B8" s="118" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="65">
+      <c r="A8" s="104" t="n"/>
+      <c r="B8" s="104" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="62" t="n"/>
-      <c r="D8" s="102" t="n"/>
-      <c r="E8" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="62" t="n"/>
-      <c r="G8" s="62" t="n"/>
-      <c r="H8" s="118" t="inlineStr">
+      <c r="C8" s="64" t="n"/>
+      <c r="D8" s="104" t="n"/>
+      <c r="E8" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="64" t="n"/>
+      <c r="H8" s="104" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="115" t="n"/>
-      <c r="K8" s="122" t="n">
+      <c r="J8" s="117" t="n"/>
+      <c r="K8" s="117" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="63">
-      <c r="B9" s="118" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="65">
+      <c r="B9" s="104" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="115" t="n"/>
-      <c r="E9" s="122" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="123" t="inlineStr">
+      <c r="D9" s="117" t="n"/>
+      <c r="E9" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="117" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="123" t="n">
+      <c r="K9" s="117" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="63">
-      <c r="B10" s="118" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="65">
+      <c r="B10" s="104" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="115" t="n"/>
-      <c r="E10" s="122" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="123" t="inlineStr">
+      <c r="D10" s="117" t="n"/>
+      <c r="E10" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="117" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="123" t="n">
+      <c r="K10" s="117" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="63">
-      <c r="D11" s="123" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="65">
+      <c r="D11" s="117" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="123" t="n">
+      <c r="E11" s="117" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="102" t="n"/>
-      <c r="J11" s="123" t="inlineStr">
+      <c r="I11" s="104" t="n"/>
+      <c r="J11" s="117" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="123" t="n">
-        <v>774.6600000000001</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="63">
-      <c r="D12" s="123" t="inlineStr">
+      <c r="K11" s="117" t="n">
+        <v>774.66</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="65">
+      <c r="D12" s="117" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="123" t="n">
+      <c r="E12" s="117" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="102" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="63">
-      <c r="D13" s="123" t="inlineStr">
+      <c r="I12" s="104" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="65">
+      <c r="D13" s="117" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="123" t="n">
+      <c r="E13" s="117" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="102" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="63">
-      <c r="I14" s="102" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="63">
-      <c r="I15" s="102" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="63">
-      <c r="D16" s="102" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="63"/>
+      <c r="I13" s="104" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="65">
+      <c r="I14" s="104" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="65">
+      <c r="I15" s="104" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="65">
+      <c r="D16" s="104" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="65"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.64" customWidth="1" style="64" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" s="65">
+      <c r="A1" s="122" t="inlineStr">
+        <is>
+          <t>(Nome do Usuário) Atendimento Médico 02/11/2024</t>
+        </is>
+      </c>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="122" t="inlineStr">
+        <is>
+          <t>(Nome do Usuário) Atendimento Psicológico 02/11/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="65">
+      <c r="A2" s="122" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="B2" s="122" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C2" s="122" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="D2" s="122" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="E2" s="122" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="65">
+      <c r="B3" s="104" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="C3" s="104" t="n">
+        <v>88565544</v>
+      </c>
+      <c r="E3" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H3" s="117" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="65">
+      <c r="B4" s="118" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C4" s="118" t="n">
+        <v>2224158</v>
+      </c>
+      <c r="E4" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H4" s="104" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="K4" s="120" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="65">
+      <c r="B5" s="104" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="C5" s="104" t="n">
+        <v>585447148</v>
+      </c>
+      <c r="E5" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H5" s="118" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="K5" s="120" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="65">
+      <c r="B6" s="104" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="E6" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H6" s="104" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="K6" s="120" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="65">
+      <c r="B7" s="104" t="inlineStr">
+        <is>
+          <t>gustavo</t>
+        </is>
+      </c>
+      <c r="E7" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H7" s="104" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="K7" s="120" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="65">
+      <c r="B8" s="104" t="inlineStr">
+        <is>
+          <t>brother</t>
+        </is>
+      </c>
+      <c r="E8" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H8" s="104" t="inlineStr">
+        <is>
+          <t>emanuelison</t>
+        </is>
+      </c>
+      <c r="K8" s="120" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="65">
+      <c r="B9" s="104" t="inlineStr">
+        <is>
+          <t>abigobaldo</t>
+        </is>
+      </c>
+      <c r="E9" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H9" s="104" t="inlineStr">
+        <is>
+          <t>patricio</t>
+        </is>
+      </c>
+      <c r="K9" s="120" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="65">
+      <c r="B10" s="104" t="inlineStr">
+        <is>
+          <t>joaquin neto</t>
+        </is>
+      </c>
+      <c r="E10" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="117" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="K10" s="117" t="n">
+        <v>1155.66</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="65">
+      <c r="D11" s="117" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="E11" s="117" t="n">
+        <v>1189.2</v>
+      </c>
+      <c r="J11" s="117" t="inlineStr">
+        <is>
+          <t>Psicólogo</t>
+        </is>
+      </c>
+      <c r="K11" s="117" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="65">
+      <c r="D12" s="117" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="E12" s="117" t="n">
+        <v>392</v>
+      </c>
+      <c r="J12" s="117" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="K12" s="117" t="n">
+        <v>774.66</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="65">
+      <c r="D13" s="117" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E13" s="117" t="n">
+        <v>797.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="55" customWidth="1" style="64" min="2" max="2"/>
+    <col width="13" customWidth="1" style="64" min="3" max="3"/>
+    <col width="55" customWidth="1" style="64" min="8" max="8"/>
+    <col width="13" customWidth="1" style="64" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" s="65">
+      <c r="A1" s="123" t="inlineStr">
+        <is>
+          <t>(Nome do Usuário) Atendimento Médico 04/11/2024</t>
+        </is>
+      </c>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="123" t="inlineStr">
+        <is>
+          <t>(Nome do Usuário) Atendimento Psicológico 04/11/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="65">
+      <c r="A2" s="123" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="B2" s="123" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C2" s="123" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="D2" s="123" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="E2" s="123" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="G2" s="123" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="H2" s="123" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="I2" s="123" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="J2" s="123" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="K2" s="123" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="65">
+      <c r="B3" s="124" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="C3" s="124" t="n">
+        <v>88565544</v>
+      </c>
+      <c r="E3" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H3" s="124" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="K3" s="125" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="65">
+      <c r="B4" s="126" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="C4" s="126" t="n">
+        <v>2224158</v>
+      </c>
+      <c r="E4" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H4" s="126" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="K4" s="125" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="65">
+      <c r="B5" s="124" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="C5" s="124" t="n">
+        <v>585447148</v>
+      </c>
+      <c r="E5" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H5" s="124" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="K5" s="125" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="65">
+      <c r="B6" s="124" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="E6" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H6" s="124" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="K6" s="125" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="65">
+      <c r="B7" s="124" t="inlineStr">
+        <is>
+          <t>gustavo</t>
+        </is>
+      </c>
+      <c r="E7" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H7" s="124" t="inlineStr">
+        <is>
+          <t>emanuelison</t>
+        </is>
+      </c>
+      <c r="K7" s="125" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="65">
+      <c r="B8" s="124" t="inlineStr">
+        <is>
+          <t>brother</t>
+        </is>
+      </c>
+      <c r="E8" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H8" s="124" t="inlineStr">
+        <is>
+          <t>patricio</t>
+        </is>
+      </c>
+      <c r="K8" s="125" t="n">
+        <v>192.61</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="65">
+      <c r="B9" s="124" t="inlineStr">
+        <is>
+          <t>abigobaldo</t>
+        </is>
+      </c>
+      <c r="E9" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="127" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="K9" s="127" t="n">
+        <v>1155.66</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="65">
+      <c r="B10" s="124" t="inlineStr">
+        <is>
+          <t>joaquin neto</t>
+        </is>
+      </c>
+      <c r="E10" s="125" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="127" t="inlineStr">
+        <is>
+          <t>Psicólogo</t>
+        </is>
+      </c>
+      <c r="K10" s="127" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="65">
+      <c r="D11" s="127" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="E11" s="127" t="n">
+        <v>1189.2</v>
+      </c>
+      <c r="J11" s="127" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="K11" s="127" t="n">
+        <v>774.6600000000001</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="65">
+      <c r="D12" s="127" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="E12" s="127" t="n">
+        <v>392</v>
+      </c>
+      <c r="J12" s="117" t="n"/>
+      <c r="K12" s="117" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="65">
+      <c r="D13" s="127" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E13" s="127" t="n">
+        <v>797.2</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="65"/>
+    <row r="15" ht="13.5" customHeight="1" s="65">
+      <c r="J15" s="64" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="65">
+      <c r="I16" s="123" t="inlineStr">
+        <is>
+          <t>Atendimento Médico</t>
+        </is>
+      </c>
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="123" t="n">
+        <v>1189.2</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="65">
+      <c r="I17" s="123" t="inlineStr">
+        <is>
+          <t>Atendimento Psicológico</t>
+        </is>
+      </c>
+      <c r="J17" s="68" t="n"/>
+      <c r="K17" s="123" t="n">
+        <v>1155.66</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="65">
+      <c r="I18" s="123" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J18" s="68" t="n"/>
+      <c r="K18" s="123" t="n">
+        <v>2344.86</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="65">
+      <c r="I19" s="128" t="n"/>
+      <c r="J19" s="68" t="n"/>
+      <c r="K19" s="128" t="n"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" s="65">
+      <c r="I20" s="123" t="inlineStr">
+        <is>
+          <t>Pagamento Médico</t>
+        </is>
+      </c>
+      <c r="J20" s="68" t="n"/>
+      <c r="K20" s="123" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="65">
+      <c r="I21" s="123" t="inlineStr">
+        <is>
+          <t>Pagamento Psicológico</t>
+        </is>
+      </c>
+      <c r="J21" s="68" t="n"/>
+      <c r="K21" s="123" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="65">
+      <c r="I22" s="123" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="J22" s="68" t="n"/>
+      <c r="K22" s="123" t="n">
+        <v>1571.86</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="65"/>
+    <row r="24" ht="13.8" customHeight="1" s="65"/>
+    <row r="28" ht="13.5" customHeight="1" s="65"/>
+    <row r="29" ht="13.5" customHeight="1" s="65"/>
+    <row r="30" ht="13.5" customHeight="1" s="65"/>
+    <row r="31" ht="13.5" customHeight="1" s="65"/>
+    <row r="32" ht="13.5" customHeight="1" s="65"/>
+    <row r="33" ht="13.5" customHeight="1" s="65"/>
+    <row r="34" ht="13.5" customHeight="1" s="65"/>
+    <row r="35" ht="13.5" customHeight="1" s="65"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2896,277 +3634,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.72" customWidth="1" style="62" min="2" max="2"/>
-    <col width="16.72" customWidth="1" style="62" min="3" max="3"/>
-    <col width="19.28" customWidth="1" style="62" min="5" max="5"/>
-    <col width="15.86" customWidth="1" style="62" min="10" max="10"/>
-    <col width="16.57" customWidth="1" style="62" min="11" max="11"/>
+    <col width="32.72" customWidth="1" style="64" min="2" max="2"/>
+    <col width="16.72" customWidth="1" style="64" min="3" max="3"/>
+    <col width="19.28" customWidth="1" style="64" min="5" max="5"/>
+    <col width="15.86" customWidth="1" style="64" min="10" max="10"/>
+    <col width="16.57" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="76" t="n"/>
-      <c r="B3" s="77" t="n"/>
-      <c r="D3" s="85" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="78" t="n"/>
+      <c r="B3" s="79" t="n"/>
+      <c r="D3" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="74">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="73" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="77">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="76" t="n"/>
-      <c r="D4" s="88" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="78" t="n"/>
+      <c r="D4" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="91">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="73" t="n"/>
-      <c r="J4" s="77" t="n"/>
+      <c r="G4" s="78" t="n"/>
+      <c r="H4" s="75" t="n"/>
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="79" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="76" t="n"/>
-      <c r="D5" s="88" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="78" t="n"/>
+      <c r="D5" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="91">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="62" t="n"/>
-      <c r="H5" s="78" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="F6" s="62" t="n"/>
-      <c r="I6" s="79" t="inlineStr">
+      <c r="F5" s="64" t="n"/>
+      <c r="H5" s="80" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="F6" s="64" t="n"/>
+      <c r="I6" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="66" t="n"/>
-      <c r="K6" s="80" t="n">
+      <c r="J6" s="68" t="n"/>
+      <c r="K6" s="82" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="F7" s="62" t="n"/>
-      <c r="H7" s="62" t="n"/>
-      <c r="I7" s="79" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="F7" s="64" t="n"/>
+      <c r="H7" s="64" t="n"/>
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="66" t="n"/>
+      <c r="J7" s="68" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="F8" s="62" t="n"/>
-      <c r="I8" s="81" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="F8" s="64" t="n"/>
+      <c r="I8" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="66" t="n"/>
-      <c r="K8" s="82" t="n">
+      <c r="J8" s="68" t="n"/>
+      <c r="K8" s="84" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="F9" s="62" t="n"/>
-      <c r="I9" s="79" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="F9" s="64" t="n"/>
+      <c r="I9" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="66" t="n"/>
+      <c r="J9" s="68" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="F10" s="62" t="n"/>
-      <c r="I10" s="79" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="F10" s="64" t="n"/>
+      <c r="I10" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="66" t="n"/>
-      <c r="K10" s="83" t="n">
+      <c r="J10" s="68" t="n"/>
+      <c r="K10" s="85" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="F11" s="62" t="n"/>
-      <c r="I11" s="79" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="F11" s="64" t="n"/>
+      <c r="I11" s="81" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="66" t="n"/>
-      <c r="K11" s="83" t="n">
+      <c r="J11" s="68" t="n"/>
+      <c r="K11" s="85" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="F12" s="62" t="n"/>
-      <c r="I12" s="79" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="F12" s="64" t="n"/>
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="66" t="n"/>
-      <c r="K12" s="84">
+      <c r="J12" s="68" t="n"/>
+      <c r="K12" s="86">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="F13" s="62" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="F13" s="64" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="86" t="inlineStr">
+      <c r="I13" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="66" t="n"/>
-      <c r="K13" s="87">
+      <c r="J13" s="68" t="n"/>
+      <c r="K13" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="F14" s="62" t="n"/>
-      <c r="I14" s="86" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="F14" s="64" t="n"/>
+      <c r="I14" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="66" t="n"/>
-      <c r="K14" s="87">
+      <c r="J14" s="68" t="n"/>
+      <c r="K14" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="F15" s="62" t="n"/>
-      <c r="I15" s="90" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="F15" s="64" t="n"/>
+      <c r="I15" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="66" t="n"/>
-      <c r="K15" s="91">
+      <c r="J15" s="68" t="n"/>
+      <c r="K15" s="93">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="F16" s="62" t="n"/>
-      <c r="K16" s="77" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="F17" s="62" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="F18" s="62" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="F19" s="62" t="n"/>
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="F16" s="64" t="n"/>
+      <c r="K16" s="79" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="F17" s="64" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="F18" s="64" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="F19" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3203,499 +3941,499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.57" customWidth="1" style="62" min="2" max="2"/>
-    <col width="18" customWidth="1" style="62" min="3" max="3"/>
-    <col width="10.43" customWidth="1" style="62" min="5" max="5"/>
-    <col width="38.7" customWidth="1" style="62" min="8" max="8"/>
-    <col width="12.57" customWidth="1" style="62" min="10" max="10"/>
-    <col width="17.43" customWidth="1" style="62" min="11" max="11"/>
+    <col width="41.57" customWidth="1" style="64" min="2" max="2"/>
+    <col width="18" customWidth="1" style="64" min="3" max="3"/>
+    <col width="10.43" customWidth="1" style="64" min="5" max="5"/>
+    <col width="38.7" customWidth="1" style="64" min="8" max="8"/>
+    <col width="12.57" customWidth="1" style="64" min="10" max="10"/>
+    <col width="17.43" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="67" t="n">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="inlineStr">
+      <c r="B3" s="69" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="64" t="n">
+      <c r="C3" s="66" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="D3" s="66" t="n"/>
+      <c r="E3" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="73" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="77">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="67" t="n">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="inlineStr">
+      <c r="B4" s="69" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="66" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="64" t="n"/>
-      <c r="E4" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="73" t="n"/>
-      <c r="J4" s="77" t="n"/>
+      <c r="G4" s="78" t="n"/>
+      <c r="H4" s="75" t="n"/>
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="79" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="67" t="n">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="66" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="D5" s="66" t="n"/>
+      <c r="E5" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="78" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="A6" s="67" t="n">
+      <c r="H5" s="80" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="A6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="inlineStr">
+      <c r="B6" s="69" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="66" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="64" t="n"/>
-      <c r="E6" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="D6" s="66" t="n"/>
+      <c r="E6" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="79" t="inlineStr">
+      <c r="I6" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="66" t="n"/>
-      <c r="K6" s="80" t="n">
+      <c r="J6" s="68" t="n"/>
+      <c r="K6" s="82" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="A7" s="67" t="n">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="A7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="inlineStr">
+      <c r="B7" s="69" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="66" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="64" t="n"/>
-      <c r="E7" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="D7" s="66" t="n"/>
+      <c r="E7" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="79" t="inlineStr">
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="66" t="n"/>
+      <c r="J7" s="68" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="A8" s="67" t="n">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="A8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="67" t="inlineStr">
+      <c r="B8" s="69" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="66" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="D8" s="66" t="n"/>
+      <c r="E8" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="81" t="inlineStr">
+      <c r="I8" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="66" t="n"/>
-      <c r="K8" s="82">
+      <c r="J8" s="68" t="n"/>
+      <c r="K8" s="84">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="A9" s="67" t="n">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="A9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="inlineStr">
+      <c r="B9" s="69" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="66" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="D9" s="66" t="n"/>
+      <c r="E9" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="79" t="inlineStr">
+      <c r="I9" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="66" t="n"/>
+      <c r="J9" s="68" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="A10" s="67" t="n">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="A10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="67" t="inlineStr">
+      <c r="B10" s="69" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="66" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="D10" s="72" t="n"/>
+      <c r="E10" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="79" t="inlineStr">
+      <c r="I10" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="66" t="n"/>
-      <c r="K10" s="83" t="n">
+      <c r="J10" s="68" t="n"/>
+      <c r="K10" s="85" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="A11" s="67" t="n">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="A11" s="69" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="71" t="inlineStr">
+      <c r="B11" s="73" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="66" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
+      <c r="D11" s="72" t="n"/>
+      <c r="E11" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="79" t="inlineStr">
+      <c r="I11" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="66" t="n"/>
-      <c r="K11" s="84">
+      <c r="J11" s="68" t="n"/>
+      <c r="K11" s="86">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="A12" s="67" t="n">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="A12" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="inlineStr">
+      <c r="B12" s="69" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="66" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="86" t="inlineStr">
+      <c r="I12" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="66" t="n"/>
-      <c r="K12" s="87">
+      <c r="J12" s="68" t="n"/>
+      <c r="K12" s="89">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="A13" s="67" t="n">
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="A13" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="inlineStr">
+      <c r="B13" s="69" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="66" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
+      <c r="D13" s="72" t="n"/>
+      <c r="E13" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="86" t="inlineStr">
+      <c r="I13" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="66" t="n"/>
-      <c r="K13" s="87">
+      <c r="J13" s="68" t="n"/>
+      <c r="K13" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="A14" s="67" t="n">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="A14" s="69" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="67" t="inlineStr">
+      <c r="B14" s="69" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="64" t="n">
+      <c r="C14" s="66" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="70" t="n"/>
-      <c r="E14" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="62" t="inlineStr">
+      <c r="D14" s="72" t="n"/>
+      <c r="E14" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="90" t="inlineStr">
+      <c r="I14" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="66" t="n"/>
-      <c r="K14" s="91">
+      <c r="J14" s="68" t="n"/>
+      <c r="K14" s="93">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="A15" s="76" t="n"/>
-      <c r="B15" s="77" t="n"/>
-      <c r="D15" s="85" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="A15" s="78" t="n"/>
+      <c r="B15" s="79" t="n"/>
+      <c r="D15" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="74">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="62" t="n"/>
-      <c r="K15" s="77" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="A16" s="76" t="n"/>
-      <c r="D16" s="88" t="inlineStr">
+      <c r="F15" s="64" t="n"/>
+      <c r="K15" s="79" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="A16" s="78" t="n"/>
+      <c r="D16" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="91">
         <f>49*12</f>
         <v/>
       </c>
-      <c r="F16" s="62" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="A17" s="76" t="n"/>
-      <c r="D17" s="88" t="inlineStr">
+      <c r="F16" s="64" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="A17" s="78" t="n"/>
+      <c r="D17" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="89" t="n">
+      <c r="E17" s="91" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F17" s="62" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="F18" s="62" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="F19" s="62" t="n"/>
+      <c r="F17" s="64" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="F18" s="64" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="F19" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3731,321 +4469,321 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.86" customWidth="1" style="62" min="5" max="5"/>
-    <col width="18.14" customWidth="1" style="62" min="10" max="10"/>
-    <col width="14" customWidth="1" style="62" min="11" max="11"/>
+    <col width="13.86" customWidth="1" style="64" min="5" max="5"/>
+    <col width="18.14" customWidth="1" style="64" min="10" max="10"/>
+    <col width="14" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="76" t="n"/>
-      <c r="B3" s="77" t="n"/>
-      <c r="D3" s="85" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="78" t="n"/>
+      <c r="B3" s="79" t="n"/>
+      <c r="D3" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="74">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="73" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="77">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="76" t="n"/>
-      <c r="D4" s="88" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="78" t="n"/>
+      <c r="D4" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="91">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="73" t="n"/>
-      <c r="J4" s="77" t="n"/>
+      <c r="G4" s="78" t="n"/>
+      <c r="H4" s="75" t="n"/>
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="79" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="76" t="n"/>
-      <c r="D5" s="88" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="78" t="n"/>
+      <c r="D5" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="91">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="62" t="n"/>
-      <c r="H5" s="78" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="F6" s="62" t="n"/>
-      <c r="I6" s="79" t="inlineStr">
+      <c r="F5" s="64" t="n"/>
+      <c r="H5" s="80" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="F6" s="64" t="n"/>
+      <c r="I6" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="66" t="n"/>
-      <c r="K6" s="80" t="n">
+      <c r="J6" s="68" t="n"/>
+      <c r="K6" s="82" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="F7" s="62" t="n"/>
-      <c r="H7" s="62" t="n"/>
-      <c r="I7" s="79" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="F7" s="64" t="n"/>
+      <c r="H7" s="64" t="n"/>
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="66" t="n"/>
+      <c r="J7" s="68" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="F8" s="62" t="n"/>
-      <c r="I8" s="81" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="F8" s="64" t="n"/>
+      <c r="I8" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="66" t="n"/>
-      <c r="K8" s="82" t="n">
+      <c r="J8" s="68" t="n"/>
+      <c r="K8" s="84" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="F9" s="62" t="n"/>
-      <c r="I9" s="79" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="F9" s="64" t="n"/>
+      <c r="I9" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="66" t="n"/>
+      <c r="J9" s="68" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="F10" s="62" t="n"/>
-      <c r="I10" s="79" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="F10" s="64" t="n"/>
+      <c r="I10" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="66" t="n"/>
-      <c r="K10" s="83" t="n">
+      <c r="J10" s="68" t="n"/>
+      <c r="K10" s="85" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="F11" s="62" t="n"/>
-      <c r="I11" s="79" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="F11" s="64" t="n"/>
+      <c r="I11" s="81" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="66" t="n"/>
-      <c r="K11" s="83" t="n">
+      <c r="J11" s="68" t="n"/>
+      <c r="K11" s="85" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="F12" s="62" t="n"/>
-      <c r="I12" s="79" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="F12" s="64" t="n"/>
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="66" t="n"/>
-      <c r="K12" s="83" t="n">
+      <c r="J12" s="68" t="n"/>
+      <c r="K12" s="85" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="F13" s="62" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="F13" s="64" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="79" t="inlineStr">
+      <c r="I13" s="81" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="66" t="n"/>
-      <c r="K13" s="83" t="n">
+      <c r="J13" s="68" t="n"/>
+      <c r="K13" s="85" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="F14" s="62" t="n"/>
-      <c r="I14" s="79" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="F14" s="64" t="n"/>
+      <c r="I14" s="81" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="66" t="n"/>
-      <c r="K14" s="83" t="n">
+      <c r="J14" s="68" t="n"/>
+      <c r="K14" s="85" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="F15" s="62" t="n"/>
-      <c r="I15" s="79" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="F15" s="64" t="n"/>
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="66" t="n"/>
-      <c r="K15" s="83" t="n">
+      <c r="J15" s="68" t="n"/>
+      <c r="K15" s="85" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="F16" s="62" t="n"/>
-      <c r="I16" s="79" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="F16" s="64" t="n"/>
+      <c r="I16" s="81" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="66" t="n"/>
-      <c r="K16" s="83" t="n">
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="85" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="I17" s="79" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="I17" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="66" t="n"/>
-      <c r="K17" s="84">
+      <c r="J17" s="68" t="n"/>
+      <c r="K17" s="86">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="I18" s="86" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="I18" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="66" t="n"/>
-      <c r="K18" s="87">
+      <c r="J18" s="68" t="n"/>
+      <c r="K18" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="I19" s="86" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="I19" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="66" t="n"/>
-      <c r="K19" s="87">
+      <c r="J19" s="68" t="n"/>
+      <c r="K19" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="63">
-      <c r="I20" s="90" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="65">
+      <c r="I20" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="66" t="n"/>
-      <c r="K20" s="91">
+      <c r="J20" s="68" t="n"/>
+      <c r="K20" s="93">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="63">
-      <c r="K21" s="77" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="65">
+      <c r="K21" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4087,888 +4825,888 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="45.3" customWidth="1" style="62" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="62" min="3" max="3"/>
-    <col width="10.29" customWidth="1" style="62" min="5" max="5"/>
-    <col width="12.72" customWidth="1" style="62" min="6" max="6"/>
-    <col width="33.57" customWidth="1" style="62" min="8" max="8"/>
-    <col width="13.86" customWidth="1" style="62" min="9" max="9"/>
-    <col width="14.57" customWidth="1" style="62" min="11" max="11"/>
+    <col width="45.3" customWidth="1" style="64" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="64" min="3" max="3"/>
+    <col width="10.29" customWidth="1" style="64" min="5" max="5"/>
+    <col width="12.72" customWidth="1" style="64" min="6" max="6"/>
+    <col width="33.57" customWidth="1" style="64" min="8" max="8"/>
+    <col width="13.86" customWidth="1" style="64" min="9" max="9"/>
+    <col width="14.57" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="67" t="n">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="inlineStr">
+      <c r="B3" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="64" t="n">
+      <c r="C3" s="66" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="D3" s="66" t="n"/>
+      <c r="E3" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="67" t="n">
+      <c r="G3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="69" t="inlineStr">
+      <c r="H3" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="64" t="n">
+      <c r="I3" s="66" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="64" t="n"/>
-      <c r="K3" s="64" t="n">
+      <c r="J3" s="66" t="n"/>
+      <c r="K3" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="62" t="inlineStr">
+      <c r="L3" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="67" t="n">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="inlineStr">
+      <c r="B4" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="66" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="64" t="n"/>
-      <c r="E4" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="67" t="n">
+      <c r="G4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="69" t="inlineStr">
+      <c r="H4" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="64" t="n">
+      <c r="I4" s="66" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="64" t="n"/>
-      <c r="K4" s="64" t="n">
+      <c r="J4" s="66" t="n"/>
+      <c r="K4" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="62" t="inlineStr">
+      <c r="L4" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="67" t="n">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="69" t="inlineStr">
+      <c r="B5" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="66" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="D5" s="66" t="n"/>
+      <c r="E5" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="67" t="n">
+      <c r="G5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="69" t="inlineStr">
+      <c r="H5" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="64" t="n">
+      <c r="I5" s="66" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n">
+      <c r="J5" s="66" t="n"/>
+      <c r="K5" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="62" t="inlineStr">
+      <c r="L5" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="A6" s="67" t="n">
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="A6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="69" t="inlineStr">
+      <c r="B6" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="66" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="64" t="n"/>
-      <c r="E6" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="D6" s="66" t="n"/>
+      <c r="E6" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="67" t="n">
+      <c r="G6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="69" t="inlineStr">
+      <c r="H6" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="64" t="n">
+      <c r="I6" s="66" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="64" t="n"/>
-      <c r="K6" s="64" t="n">
+      <c r="J6" s="66" t="n"/>
+      <c r="K6" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="62" t="inlineStr">
+      <c r="L6" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="A7" s="67" t="n">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="A7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="inlineStr">
+      <c r="B7" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="66" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="64" t="n"/>
-      <c r="E7" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="D7" s="66" t="n"/>
+      <c r="E7" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="67" t="n">
+      <c r="G7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="69" t="inlineStr">
+      <c r="H7" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="64" t="n">
+      <c r="I7" s="66" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n">
+      <c r="J7" s="66" t="n"/>
+      <c r="K7" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="62" t="inlineStr">
+      <c r="L7" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="A8" s="67" t="n">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="A8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="69" t="inlineStr">
+      <c r="B8" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="66" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="D8" s="66" t="n"/>
+      <c r="E8" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="67" t="n">
+      <c r="G8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="69" t="inlineStr">
+      <c r="H8" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="64" t="n">
+      <c r="I8" s="66" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="64" t="n"/>
-      <c r="K8" s="64" t="n">
+      <c r="J8" s="66" t="n"/>
+      <c r="K8" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="62" t="inlineStr">
+      <c r="L8" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="A9" s="67" t="n">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="A9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="69" t="inlineStr">
+      <c r="B9" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="66" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="D9" s="66" t="n"/>
+      <c r="E9" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="67" t="n">
+      <c r="G9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="69" t="inlineStr">
+      <c r="H9" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="66" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n">
+      <c r="J9" s="66" t="n"/>
+      <c r="K9" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="62" t="inlineStr">
+      <c r="L9" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="A10" s="67" t="n">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="A10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="69" t="inlineStr">
+      <c r="B10" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="66" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="64" t="n"/>
-      <c r="E10" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="D10" s="66" t="n"/>
+      <c r="E10" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="67" t="n">
+      <c r="G10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="69" t="inlineStr">
+      <c r="H10" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="64" t="n">
+      <c r="I10" s="66" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="64" t="n"/>
-      <c r="K10" s="64" t="n">
+      <c r="J10" s="66" t="n"/>
+      <c r="K10" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="62" t="inlineStr">
+      <c r="L10" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="A11" s="67" t="n">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="A11" s="69" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="69" t="inlineStr">
+      <c r="B11" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="66" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="64" t="n"/>
-      <c r="E11" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
+      <c r="D11" s="66" t="n"/>
+      <c r="E11" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="67" t="n">
+      <c r="G11" s="69" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="69" t="inlineStr">
+      <c r="H11" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="64" t="n">
+      <c r="I11" s="66" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n">
+      <c r="J11" s="66" t="n"/>
+      <c r="K11" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="62" t="inlineStr">
+      <c r="L11" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="A12" s="67" t="n">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="A12" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="69" t="inlineStr">
+      <c r="B12" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="66" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="67" t="n">
+      <c r="G12" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="69" t="inlineStr">
+      <c r="H12" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="64" t="n">
+      <c r="I12" s="66" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="64" t="n"/>
-      <c r="K12" s="64" t="n">
+      <c r="J12" s="66" t="n"/>
+      <c r="K12" s="66" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="62" t="inlineStr">
+      <c r="L12" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="A13" s="67" t="n">
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="A13" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="69" t="inlineStr">
+      <c r="B13" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="66" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="64" t="n"/>
-      <c r="E13" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
+      <c r="D13" s="66" t="n"/>
+      <c r="E13" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="73" t="n"/>
-      <c r="J13" s="74" t="inlineStr">
+      <c r="I13" s="75" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="77">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="A14" s="67" t="n">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="A14" s="69" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="69" t="inlineStr">
+      <c r="B14" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="64" t="n">
+      <c r="C14" s="66" t="n">
         <v>513760379</v>
       </c>
-      <c r="D14" s="64" t="n"/>
-      <c r="E14" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="62" t="inlineStr">
+      <c r="D14" s="66" t="n"/>
+      <c r="E14" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G14" s="76" t="n"/>
-      <c r="H14" s="73" t="n"/>
-      <c r="I14" s="73" t="n"/>
-      <c r="J14" s="77" t="n"/>
+      <c r="G14" s="78" t="n"/>
+      <c r="H14" s="75" t="n"/>
+      <c r="I14" s="75" t="n"/>
+      <c r="J14" s="79" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="A15" s="67" t="n">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="A15" s="69" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="69" t="inlineStr">
+      <c r="B15" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="64" t="n">
+      <c r="C15" s="66" t="n">
         <v>513782331</v>
       </c>
-      <c r="D15" s="64" t="n"/>
-      <c r="E15" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="62" t="inlineStr">
+      <c r="D15" s="66" t="n"/>
+      <c r="E15" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="78" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="A16" s="67" t="n">
+      <c r="H15" s="80" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="A16" s="69" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="69" t="inlineStr">
+      <c r="B16" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="64" t="n">
+      <c r="C16" s="66" t="n">
         <v>513775191</v>
       </c>
-      <c r="D16" s="64" t="n"/>
-      <c r="E16" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="62" t="inlineStr">
+      <c r="D16" s="66" t="n"/>
+      <c r="E16" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="79" t="inlineStr">
+      <c r="I16" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J16" s="66" t="n"/>
-      <c r="K16" s="80">
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="82">
         <f>E24</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="A17" s="67" t="n">
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="A17" s="69" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="69" t="inlineStr">
+      <c r="B17" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="64" t="n">
+      <c r="C17" s="66" t="n">
         <v>513790578</v>
       </c>
-      <c r="D17" s="64" t="n"/>
-      <c r="E17" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="62" t="inlineStr">
+      <c r="D17" s="66" t="n"/>
+      <c r="E17" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="64" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
       </c>
-      <c r="I17" s="79" t="inlineStr">
+      <c r="I17" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J17" s="66" t="n"/>
-      <c r="K17" s="80">
+      <c r="J17" s="68" t="n"/>
+      <c r="K17" s="82">
         <f>K13</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="A18" s="67" t="n">
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="A18" s="69" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="69" t="inlineStr">
+      <c r="B18" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="64" t="n">
+      <c r="C18" s="66" t="n">
         <v>513721847</v>
       </c>
-      <c r="D18" s="64" t="n"/>
-      <c r="E18" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="62" t="inlineStr">
+      <c r="D18" s="66" t="n"/>
+      <c r="E18" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="81" t="inlineStr">
+      <c r="I18" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J18" s="66" t="n"/>
-      <c r="K18" s="82">
+      <c r="J18" s="68" t="n"/>
+      <c r="K18" s="84">
         <f>K16+K17</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="A19" s="67" t="n">
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="A19" s="69" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="69" t="inlineStr">
+      <c r="B19" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="64" t="n">
+      <c r="C19" s="66" t="n">
         <v>513782693</v>
       </c>
-      <c r="D19" s="64" t="n"/>
-      <c r="E19" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="62" t="inlineStr">
+      <c r="D19" s="66" t="n"/>
+      <c r="E19" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="79" t="inlineStr">
+      <c r="I19" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J19" s="66" t="n"/>
+      <c r="J19" s="68" t="n"/>
       <c r="K19" s="21" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="63">
-      <c r="A20" s="67" t="n">
+    <row r="20" ht="15" customHeight="1" s="65">
+      <c r="A20" s="69" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="69" t="inlineStr">
+      <c r="B20" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="64" t="n">
+      <c r="C20" s="66" t="n">
         <v>513773401</v>
       </c>
-      <c r="D20" s="64" t="n"/>
-      <c r="E20" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="62" t="inlineStr">
+      <c r="D20" s="66" t="n"/>
+      <c r="E20" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="79" t="inlineStr">
+      <c r="I20" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J20" s="66" t="n"/>
-      <c r="K20" s="83">
+      <c r="J20" s="68" t="n"/>
+      <c r="K20" s="85">
         <f>E25</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="63">
-      <c r="A21" s="67" t="n">
+    <row r="21" ht="15" customHeight="1" s="65">
+      <c r="A21" s="69" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="69" t="inlineStr">
+      <c r="B21" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="64" t="n">
+      <c r="C21" s="66" t="n">
         <v>513797287</v>
       </c>
-      <c r="D21" s="64" t="n"/>
-      <c r="E21" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="62" t="inlineStr">
+      <c r="D21" s="66" t="n"/>
+      <c r="E21" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I21" s="79" t="inlineStr">
+      <c r="I21" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J21" s="66" t="n"/>
-      <c r="K21" s="84">
+      <c r="J21" s="68" t="n"/>
+      <c r="K21" s="86">
         <f>K18-K20-K19</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="63">
-      <c r="A22" s="67" t="n">
+    <row r="22" ht="15" customHeight="1" s="65">
+      <c r="A22" s="69" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="69" t="inlineStr">
+      <c r="B22" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="64" t="n">
+      <c r="C22" s="66" t="n">
         <v>14091389</v>
       </c>
-      <c r="D22" s="64" t="n"/>
-      <c r="E22" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="62" t="inlineStr">
+      <c r="D22" s="66" t="n"/>
+      <c r="E22" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="86" t="inlineStr">
+      <c r="I22" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J22" s="66" t="n"/>
-      <c r="K22" s="87">
+      <c r="J22" s="68" t="n"/>
+      <c r="K22" s="89">
         <f>E3+E4+E5+E8+E10+E12+E13+E15+E16+48.65+E18+E19+E20+E21+E22+E23+K3+K4+K5+K6+K7+K8+K9+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="63">
-      <c r="A23" s="67" t="n">
+    <row r="23" ht="15" customHeight="1" s="65">
+      <c r="A23" s="69" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="69" t="inlineStr">
+      <c r="B23" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="92" t="n">
+      <c r="C23" s="94" t="n">
         <v>513791549</v>
       </c>
-      <c r="D23" s="64" t="n"/>
-      <c r="E23" s="64" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="62" t="inlineStr">
+      <c r="D23" s="66" t="n"/>
+      <c r="E23" s="66" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="86" t="inlineStr">
+      <c r="I23" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J23" s="66" t="n"/>
-      <c r="K23" s="87">
+      <c r="J23" s="68" t="n"/>
+      <c r="K23" s="89">
         <f>E6+E14+100+K10</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="63">
-      <c r="A24" s="76" t="n"/>
-      <c r="B24" s="77" t="n"/>
-      <c r="D24" s="85" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="65">
+      <c r="A24" s="78" t="n"/>
+      <c r="B24" s="79" t="n"/>
+      <c r="D24" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="74">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23</f>
         <v/>
       </c>
-      <c r="I24" s="90" t="inlineStr">
+      <c r="I24" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J24" s="66" t="n"/>
-      <c r="K24" s="91">
+      <c r="J24" s="68" t="n"/>
+      <c r="K24" s="93">
         <f>E7+E9+E11+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="63">
-      <c r="A25" s="76" t="n"/>
-      <c r="D25" s="88" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="65">
+      <c r="A25" s="78" t="n"/>
+      <c r="D25" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E25" s="89">
+      <c r="E25" s="91">
         <f>49*21</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="63">
-      <c r="A26" s="76" t="n"/>
-      <c r="D26" s="88" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="65">
+      <c r="A26" s="78" t="n"/>
+      <c r="D26" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="91">
         <f>E24-E25</f>
         <v/>
       </c>
@@ -5001,498 +5739,498 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.86" customWidth="1" style="62" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="62" min="3" max="3"/>
-    <col width="11.15" customWidth="1" style="62" min="5" max="5"/>
-    <col width="13.86" customWidth="1" style="62" min="10" max="10"/>
-    <col width="13.71" customWidth="1" style="62" min="11" max="11"/>
+    <col width="35.86" customWidth="1" style="64" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="64" min="3" max="3"/>
+    <col width="11.15" customWidth="1" style="64" min="5" max="5"/>
+    <col width="13.86" customWidth="1" style="64" min="10" max="10"/>
+    <col width="13.71" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="67" t="n">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="inlineStr">
+      <c r="B3" s="69" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="64" t="n">
+      <c r="C3" s="66" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="D3" s="66" t="n"/>
+      <c r="E3" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="73" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="77">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="67" t="n">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="inlineStr">
+      <c r="B4" s="69" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="64" t="n">
+      <c r="C4" s="66" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="64" t="n"/>
-      <c r="E4" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="73" t="n"/>
-      <c r="J4" s="77" t="n"/>
+      <c r="G4" s="78" t="n"/>
+      <c r="H4" s="75" t="n"/>
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="79" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="67" t="n">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="73" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="66" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="D5" s="66" t="n"/>
+      <c r="E5" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="78" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="A6" s="67" t="n">
+      <c r="H5" s="80" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="A6" s="69" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="inlineStr">
+      <c r="B6" s="69" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="66" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="64" t="n"/>
-      <c r="E6" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="D6" s="66" t="n"/>
+      <c r="E6" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="79" t="inlineStr">
+      <c r="I6" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="66" t="n"/>
-      <c r="K6" s="80">
+      <c r="J6" s="68" t="n"/>
+      <c r="K6" s="82">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="A7" s="67" t="n">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="A7" s="69" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="inlineStr">
+      <c r="B7" s="69" t="inlineStr">
         <is>
           <t>FENIX ALEXANDRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="66" t="n">
         <v>513701027</v>
       </c>
-      <c r="D7" s="64" t="n"/>
-      <c r="E7" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="D7" s="66" t="n"/>
+      <c r="E7" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H7" s="62" t="n"/>
-      <c r="I7" s="79" t="inlineStr">
+      <c r="H7" s="64" t="n"/>
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="66" t="n"/>
+      <c r="J7" s="68" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="A8" s="67" t="n">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="A8" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="67" t="inlineStr">
+      <c r="B8" s="69" t="inlineStr">
         <is>
           <t>NORMA CELIA NOBRE DE CARVALHO</t>
         </is>
       </c>
-      <c r="C8" s="64" t="inlineStr">
+      <c r="C8" s="66" t="inlineStr">
         <is>
           <t xml:space="preserve">513803911	</t>
         </is>
       </c>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="D8" s="66" t="n"/>
+      <c r="E8" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="81" t="inlineStr">
+      <c r="I8" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="66" t="n"/>
-      <c r="K8" s="82">
+      <c r="J8" s="68" t="n"/>
+      <c r="K8" s="84">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="A9" s="67" t="n">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="A9" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="inlineStr">
+      <c r="B9" s="69" t="inlineStr">
         <is>
           <t>ANA CRISTINA DE MATOS HORACIO</t>
         </is>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="66" t="n">
         <v>513757236</v>
       </c>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="68" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="D9" s="66" t="n"/>
+      <c r="E9" s="70" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I9" s="79" t="inlineStr">
+      <c r="I9" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="66" t="n"/>
+      <c r="J9" s="68" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="A10" s="67" t="n">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="A10" s="69" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="67" t="inlineStr">
+      <c r="B10" s="69" t="inlineStr">
         <is>
           <t>CLEIDE COSTA DOS SANTOS GALVAO</t>
         </is>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="66" t="n">
         <v>14085503</v>
       </c>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="D10" s="72" t="n"/>
+      <c r="E10" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" s="79" t="inlineStr">
+      <c r="I10" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="66" t="n"/>
-      <c r="K10" s="83" t="n">
+      <c r="J10" s="68" t="n"/>
+      <c r="K10" s="85" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="A11" s="67" t="n">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="A11" s="69" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="71" t="inlineStr">
+      <c r="B11" s="73" t="inlineStr">
         <is>
           <t>NEIDA GOMES FAGUNDES</t>
         </is>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="66" t="n">
         <v>513797034</v>
       </c>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
+      <c r="D11" s="72" t="n"/>
+      <c r="E11" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="79" t="inlineStr">
+      <c r="I11" s="81" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="66" t="n"/>
-      <c r="K11" s="83" t="n">
+      <c r="J11" s="68" t="n"/>
+      <c r="K11" s="85" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="A12" s="67" t="n">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="A12" s="69" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="inlineStr">
+      <c r="B12" s="69" t="inlineStr">
         <is>
           <t>JONATAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="66" t="n">
         <v>513801412</v>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="79" t="inlineStr">
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="66" t="n"/>
-      <c r="K12" s="84">
+      <c r="J12" s="68" t="n"/>
+      <c r="K12" s="86">
         <f>K8-K10-K9-K11</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="A13" s="67" t="n">
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="A13" s="69" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="inlineStr">
+      <c r="B13" s="69" t="inlineStr">
         <is>
           <t>EDUARDO GOMES DE LIMA</t>
         </is>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="66" t="n">
         <v>513789092</v>
       </c>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="72" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
+      <c r="D13" s="72" t="n"/>
+      <c r="E13" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="86" t="inlineStr">
+      <c r="I13" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="66" t="n"/>
-      <c r="K13" s="87">
+      <c r="J13" s="68" t="n"/>
+      <c r="K13" s="89">
         <f>E3+E4+E5+E6+E7+E9+E11+E12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="A14" s="76" t="n"/>
-      <c r="B14" s="77" t="n"/>
-      <c r="D14" s="85" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="A14" s="78" t="n"/>
+      <c r="B14" s="79" t="n"/>
+      <c r="D14" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="74">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v/>
       </c>
-      <c r="F14" s="62" t="n"/>
-      <c r="I14" s="86" t="inlineStr">
+      <c r="F14" s="64" t="n"/>
+      <c r="I14" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="66" t="n"/>
-      <c r="K14" s="87">
+      <c r="J14" s="68" t="n"/>
+      <c r="K14" s="89">
         <f>E10</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="A15" s="76" t="n"/>
-      <c r="D15" s="88" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="A15" s="78" t="n"/>
+      <c r="D15" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="91">
         <f>49*11</f>
         <v/>
       </c>
-      <c r="F15" s="62" t="n"/>
-      <c r="I15" s="90" t="inlineStr">
+      <c r="F15" s="64" t="n"/>
+      <c r="I15" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="66" t="n"/>
-      <c r="K15" s="91">
+      <c r="J15" s="68" t="n"/>
+      <c r="K15" s="93">
         <f>E8+E13</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="A16" s="76" t="n"/>
-      <c r="D16" s="88" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="A16" s="78" t="n"/>
+      <c r="D16" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E16" s="89" t="n">
+      <c r="E16" s="91" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F16" s="62" t="n"/>
-      <c r="K16" s="77" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="F17" s="62" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="F18" s="62" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="F19" s="62" t="n"/>
+      <c r="F16" s="64" t="n"/>
+      <c r="K16" s="79" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="F17" s="64" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="F18" s="64" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="F19" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5523,668 +6261,668 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="43.72" customWidth="1" style="62" min="2" max="2"/>
-    <col width="14.29" customWidth="1" style="62" min="3" max="3"/>
-    <col width="11.57" customWidth="1" style="62" min="5" max="5"/>
-    <col width="30.57" customWidth="1" style="62" min="8" max="8"/>
-    <col width="10.91" customWidth="1" style="62" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="62" min="10" max="10"/>
-    <col width="12" customWidth="1" style="62" min="11" max="11"/>
+    <col width="43.72" customWidth="1" style="64" min="2" max="2"/>
+    <col width="14.29" customWidth="1" style="64" min="3" max="3"/>
+    <col width="11.57" customWidth="1" style="64" min="5" max="5"/>
+    <col width="30.57" customWidth="1" style="64" min="8" max="8"/>
+    <col width="10.91" customWidth="1" style="64" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="64" min="10" max="10"/>
+    <col width="12" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="93" t="n">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="inlineStr">
+      <c r="B3" s="96" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="95" t="n">
+      <c r="C3" s="97" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="94" t="n"/>
+      <c r="D3" s="96" t="n"/>
       <c r="E3" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="94" t="n">
+      <c r="G3" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="94" t="inlineStr">
+      <c r="H3" s="96" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="94" t="n">
+      <c r="I3" s="96" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="94" t="n"/>
+      <c r="J3" s="96" t="n"/>
       <c r="K3" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="62" t="inlineStr">
+      <c r="L3" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="93" t="n">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="inlineStr">
+      <c r="B4" s="96" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="95" t="n">
+      <c r="C4" s="97" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="94" t="n"/>
+      <c r="D4" s="96" t="n"/>
       <c r="E4" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="94" t="n">
+      <c r="G4" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="94" t="inlineStr">
+      <c r="H4" s="96" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="94" t="n">
+      <c r="I4" s="96" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="94" t="n"/>
+      <c r="J4" s="96" t="n"/>
       <c r="K4" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="62" t="inlineStr">
+      <c r="L4" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="93" t="n">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="inlineStr">
+      <c r="B5" s="96" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="95" t="n">
+      <c r="C5" s="97" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="94" t="n"/>
+      <c r="D5" s="96" t="n"/>
       <c r="E5" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="94" t="n">
+      <c r="G5" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="94" t="inlineStr">
+      <c r="H5" s="96" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="94" t="n">
+      <c r="I5" s="96" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="94" t="n"/>
+      <c r="J5" s="96" t="n"/>
       <c r="K5" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="62" t="inlineStr">
+      <c r="L5" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="A6" s="93" t="n">
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="A6" s="95" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="inlineStr">
+      <c r="B6" s="96" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="95" t="n">
+      <c r="C6" s="97" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="94" t="n"/>
+      <c r="D6" s="96" t="n"/>
       <c r="E6" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="94" t="n">
+      <c r="G6" s="96" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="94" t="inlineStr">
+      <c r="H6" s="96" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="94" t="n">
+      <c r="I6" s="96" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="94" t="n"/>
+      <c r="J6" s="96" t="n"/>
       <c r="K6" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="62" t="inlineStr">
+      <c r="L6" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="A7" s="93" t="n">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="A7" s="95" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="94" t="inlineStr">
+      <c r="B7" s="96" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="95" t="n">
+      <c r="C7" s="97" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="94" t="n"/>
+      <c r="D7" s="96" t="n"/>
       <c r="E7" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="94" t="n">
+      <c r="G7" s="96" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="94" t="inlineStr">
+      <c r="H7" s="96" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="94" t="n">
+      <c r="I7" s="96" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="94" t="n"/>
+      <c r="J7" s="96" t="n"/>
       <c r="K7" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="62" t="inlineStr">
+      <c r="L7" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="A8" s="93" t="n">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="A8" s="95" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="94" t="inlineStr">
+      <c r="B8" s="96" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="95" t="n">
+      <c r="C8" s="97" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="94" t="n"/>
+      <c r="D8" s="96" t="n"/>
       <c r="E8" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="96" t="n"/>
-      <c r="I8" s="96" t="n"/>
-      <c r="J8" s="74" t="inlineStr">
+      <c r="H8" s="98" t="n"/>
+      <c r="I8" s="98" t="n"/>
+      <c r="J8" s="76" t="inlineStr">
         <is>
           <t>soma</t>
         </is>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="77">
         <f>K3+K4+K5+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="A9" s="93" t="n">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="A9" s="95" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="94" t="inlineStr">
+      <c r="B9" s="96" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="95" t="n">
+      <c r="C9" s="97" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="94" t="n"/>
+      <c r="D9" s="96" t="n"/>
       <c r="E9" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="96" t="n"/>
-      <c r="J9" s="62" t="inlineStr">
+      <c r="H9" s="98" t="n"/>
+      <c r="J9" s="64" t="inlineStr">
         <is>
           <t>psicologo</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="A10" s="93" t="n">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="A10" s="95" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="94" t="inlineStr">
+      <c r="B10" s="96" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="95" t="n">
+      <c r="C10" s="97" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="94" t="n"/>
+      <c r="D10" s="96" t="n"/>
       <c r="E10" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J10" s="62" t="inlineStr">
+      <c r="J10" s="64" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="A11" s="93" t="n">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="A11" s="95" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="94" t="inlineStr">
+      <c r="B11" s="96" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="95" t="n">
+      <c r="C11" s="97" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="97" t="n"/>
+      <c r="D11" s="99" t="n"/>
       <c r="E11" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F11" s="62" t="inlineStr">
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="A12" s="93" t="n">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="A12" s="95" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="94" t="inlineStr">
+      <c r="B12" s="96" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="95" t="n">
+      <c r="C12" s="97" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="97" t="n"/>
+      <c r="D12" s="99" t="n"/>
       <c r="E12" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F12" s="62" t="inlineStr">
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="A13" s="93" t="n">
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="A13" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="94" t="inlineStr">
+      <c r="B13" s="96" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="95" t="n">
+      <c r="C13" s="97" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="97" t="n"/>
+      <c r="D13" s="99" t="n"/>
       <c r="E13" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F13" s="62" t="inlineStr">
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="A14" s="93" t="n">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="A14" s="95" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="94" t="inlineStr">
+      <c r="B14" s="96" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="98" t="n">
+      <c r="C14" s="100" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="99" t="n"/>
+      <c r="D14" s="101" t="n"/>
       <c r="E14" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F14" s="62" t="inlineStr">
+      <c r="F14" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="A15" s="100" t="n">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="A15" s="102" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="100" t="inlineStr">
+      <c r="B15" s="102" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="101" t="n">
+      <c r="C15" s="103" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="102" t="n"/>
+      <c r="D15" s="104" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F15" s="62" t="inlineStr">
+      <c r="F15" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I15" s="79" t="inlineStr">
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J15" s="66" t="n"/>
-      <c r="K15" s="80">
+      <c r="J15" s="68" t="n"/>
+      <c r="K15" s="82">
         <f>E18</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="A16" s="100" t="n">
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="A16" s="102" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="100" t="inlineStr">
+      <c r="B16" s="102" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="101" t="n">
+      <c r="C16" s="103" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="102" t="n"/>
+      <c r="D16" s="104" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F16" s="62" t="inlineStr">
+      <c r="F16" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="79" t="inlineStr">
+      <c r="I16" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J16" s="66" t="n"/>
-      <c r="K16" s="80">
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="82">
         <f>K8</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="A17" s="100" t="n">
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="A17" s="102" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="100" t="inlineStr">
+      <c r="B17" s="102" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="101" t="n">
+      <c r="C17" s="103" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="102" t="n"/>
+      <c r="D17" s="104" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F17" s="62" t="inlineStr">
+      <c r="F17" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I17" s="81" t="inlineStr">
+      <c r="I17" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J17" s="66" t="n"/>
-      <c r="K17" s="82">
+      <c r="J17" s="68" t="n"/>
+      <c r="K17" s="84">
         <f>K15+K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="D18" s="85" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="D18" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="74">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
         <v/>
       </c>
-      <c r="I18" s="79" t="inlineStr">
+      <c r="I18" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J18" s="66" t="n"/>
+      <c r="J18" s="68" t="n"/>
       <c r="K18" s="21" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="D19" s="88" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="D19" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="91">
         <f>49*15</f>
         <v/>
       </c>
-      <c r="I19" s="79" t="inlineStr">
+      <c r="I19" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J19" s="66" t="n"/>
-      <c r="K19" s="83" t="n">
+      <c r="J19" s="68" t="n"/>
+      <c r="K19" s="85" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="63">
-      <c r="D20" s="88" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="65">
+      <c r="D20" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="91">
         <f>E18-E19</f>
         <v/>
       </c>
-      <c r="I20" s="79" t="inlineStr">
+      <c r="I20" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J20" s="66" t="n"/>
-      <c r="K20" s="84">
+      <c r="J20" s="68" t="n"/>
+      <c r="K20" s="86">
         <f>K17-K19-K18</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="63">
-      <c r="I21" s="86" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="65">
+      <c r="I21" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J21" s="66" t="n"/>
-      <c r="K21" s="87">
+      <c r="J21" s="68" t="n"/>
+      <c r="K21" s="89">
         <f>E3+E5+E7+E8+E11+E14+E15+E16+E17+K4</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="63">
-      <c r="I22" s="86" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="65">
+      <c r="I22" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J22" s="66" t="n"/>
-      <c r="K22" s="87">
+      <c r="J22" s="68" t="n"/>
+      <c r="K22" s="89">
         <f>E4+E9+E12+E13+K3+K5</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="63">
-      <c r="I23" s="90" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="65">
+      <c r="I23" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J23" s="66" t="n"/>
-      <c r="K23" s="91">
+      <c r="J23" s="68" t="n"/>
+      <c r="K23" s="93">
         <f>E6+E10+K6+K7</f>
         <v/>
       </c>
@@ -6223,277 +6961,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.72" customWidth="1" style="62" min="5" max="5"/>
-    <col width="31.15" customWidth="1" style="62" min="10" max="10"/>
-    <col width="13.86" customWidth="1" style="62" min="11" max="11"/>
+    <col width="11.72" customWidth="1" style="64" min="5" max="5"/>
+    <col width="31.15" customWidth="1" style="64" min="10" max="10"/>
+    <col width="13.86" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 16/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 16/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="64" t="inlineStr">
+      <c r="B2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="64" t="inlineStr">
+      <c r="C2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="64" t="inlineStr">
+      <c r="D2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="64" t="inlineStr">
+      <c r="E2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
+      <c r="H2" s="66" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="64" t="inlineStr">
+      <c r="I2" s="66" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="64" t="inlineStr">
+      <c r="J2" s="66" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="64" t="inlineStr">
+      <c r="K2" s="66" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="76" t="n"/>
-      <c r="B3" s="77" t="n"/>
-      <c r="D3" s="85" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="78" t="n"/>
+      <c r="B3" s="79" t="n"/>
+      <c r="D3" s="87" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="74">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="73" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="I3" s="75" t="n"/>
+      <c r="J3" s="76" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="77">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="76" t="n"/>
-      <c r="D4" s="88" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="78" t="n"/>
+      <c r="D4" s="90" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="91">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="73" t="n"/>
-      <c r="J4" s="77" t="n"/>
+      <c r="G4" s="78" t="n"/>
+      <c r="H4" s="75" t="n"/>
+      <c r="I4" s="75" t="n"/>
+      <c r="J4" s="79" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="76" t="n"/>
-      <c r="D5" s="88" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="78" t="n"/>
+      <c r="D5" s="90" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="91">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="62" t="n"/>
-      <c r="H5" s="78" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="F6" s="62" t="n"/>
-      <c r="I6" s="79" t="inlineStr">
+      <c r="F5" s="64" t="n"/>
+      <c r="H5" s="80" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="F6" s="64" t="n"/>
+      <c r="I6" s="81" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="66" t="n"/>
-      <c r="K6" s="80" t="n">
+      <c r="J6" s="68" t="n"/>
+      <c r="K6" s="82" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="F7" s="62" t="n"/>
-      <c r="H7" s="62" t="n"/>
-      <c r="I7" s="79" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="F7" s="64" t="n"/>
+      <c r="H7" s="64" t="n"/>
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="66" t="n"/>
+      <c r="J7" s="68" t="n"/>
       <c r="K7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="F8" s="62" t="n"/>
-      <c r="I8" s="81" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="F8" s="64" t="n"/>
+      <c r="I8" s="83" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="66" t="n"/>
-      <c r="K8" s="82" t="n">
+      <c r="J8" s="68" t="n"/>
+      <c r="K8" s="84" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="F9" s="62" t="n"/>
-      <c r="I9" s="79" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="F9" s="64" t="n"/>
+      <c r="I9" s="81" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="66" t="n"/>
+      <c r="J9" s="68" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="F10" s="62" t="n"/>
-      <c r="I10" s="79" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="F10" s="64" t="n"/>
+      <c r="I10" s="81" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="66" t="n"/>
-      <c r="K10" s="83" t="n">
+      <c r="J10" s="68" t="n"/>
+      <c r="K10" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="F11" s="62" t="n"/>
-      <c r="I11" s="79" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="F11" s="64" t="n"/>
+      <c r="I11" s="81" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 604 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J11" s="66" t="n"/>
-      <c r="K11" s="83" t="n">
+      <c r="J11" s="68" t="n"/>
+      <c r="K11" s="85" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="F12" s="62" t="n"/>
-      <c r="I12" s="79" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="F12" s="64" t="n"/>
+      <c r="I12" s="81" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 605 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J12" s="66" t="n"/>
-      <c r="K12" s="83" t="n">
+      <c r="J12" s="68" t="n"/>
+      <c r="K12" s="85" t="n">
         <v>64.81</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="F13" s="62" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="F13" s="64" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="79" t="inlineStr">
+      <c r="I13" s="81" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J13" s="66" t="n"/>
-      <c r="K13" s="84">
+      <c r="J13" s="68" t="n"/>
+      <c r="K13" s="86">
         <f>K8-K10-K9-K11-K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="F14" s="62" t="n"/>
-      <c r="I14" s="86" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="F14" s="64" t="n"/>
+      <c r="I14" s="88" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J14" s="66" t="n"/>
-      <c r="K14" s="87">
+      <c r="J14" s="68" t="n"/>
+      <c r="K14" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="F15" s="62" t="n"/>
-      <c r="I15" s="86" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="F15" s="64" t="n"/>
+      <c r="I15" s="88" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J15" s="66" t="n"/>
-      <c r="K15" s="87">
+      <c r="J15" s="68" t="n"/>
+      <c r="K15" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="F16" s="62" t="n"/>
-      <c r="I16" s="90" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="F16" s="64" t="n"/>
+      <c r="I16" s="92" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J16" s="66" t="n"/>
-      <c r="K16" s="91">
+      <c r="J16" s="68" t="n"/>
+      <c r="K16" s="93">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="K17" s="77" t="n"/>
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="K17" s="79" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6525,562 +7263,562 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="37.3" customWidth="1" style="62" min="2" max="2"/>
-    <col width="11.72" customWidth="1" style="62" min="3" max="3"/>
-    <col width="8.699999999999999" customWidth="1" style="62" min="5" max="5"/>
-    <col width="29.3" customWidth="1" style="62" min="8" max="8"/>
-    <col width="15.44" customWidth="1" style="62" min="9" max="9"/>
-    <col width="22" customWidth="1" style="62" min="10" max="10"/>
-    <col width="8.33" customWidth="1" style="62" min="11" max="11"/>
+    <col width="37.3" customWidth="1" style="64" min="2" max="2"/>
+    <col width="11.72" customWidth="1" style="64" min="3" max="3"/>
+    <col width="8.699999999999999" customWidth="1" style="64" min="5" max="5"/>
+    <col width="29.3" customWidth="1" style="64" min="8" max="8"/>
+    <col width="15.44" customWidth="1" style="64" min="9" max="9"/>
+    <col width="22" customWidth="1" style="64" min="10" max="10"/>
+    <col width="8.33" customWidth="1" style="64" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="63">
-      <c r="A1" s="64" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="65">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 17/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="65" t="n"/>
-      <c r="C1" s="65" t="n"/>
-      <c r="D1" s="65" t="n"/>
-      <c r="E1" s="66" t="n"/>
-      <c r="G1" s="64" t="inlineStr">
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="68" t="n"/>
+      <c r="G1" s="66" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 17/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="65" t="n"/>
-      <c r="I1" s="65" t="n"/>
-      <c r="J1" s="65" t="n"/>
-      <c r="K1" s="66" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="63">
-      <c r="A2" s="67" t="inlineStr">
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="68" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="65">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="67" t="inlineStr">
+      <c r="B2" s="69" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="67" t="inlineStr">
+      <c r="C2" s="69" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="67" t="inlineStr">
+      <c r="D2" s="69" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="67" t="inlineStr">
+      <c r="E2" s="69" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="62" t="n"/>
-      <c r="G2" s="67" t="inlineStr">
+      <c r="F2" s="64" t="n"/>
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="67" t="inlineStr">
+      <c r="H2" s="69" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="67" t="inlineStr">
+      <c r="I2" s="69" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="67" t="inlineStr">
+      <c r="J2" s="69" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="67" t="inlineStr">
+      <c r="K2" s="69" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="63">
-      <c r="A3" s="67" t="n"/>
-      <c r="B3" s="67" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="65">
+      <c r="A3" s="69" t="n"/>
+      <c r="B3" s="69" t="inlineStr">
         <is>
           <t>SOFIA ALMEIDA FERREIRA</t>
         </is>
       </c>
-      <c r="C3" s="64" t="inlineStr">
+      <c r="C3" s="66" t="inlineStr">
         <is>
           <t>513641554</t>
         </is>
       </c>
-      <c r="D3" s="64" t="n"/>
-      <c r="E3" s="68" t="n"/>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="D3" s="66" t="n"/>
+      <c r="E3" s="70" t="n"/>
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="62" t="n"/>
-      <c r="H3" s="62" t="inlineStr">
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="I3" s="76" t="inlineStr">
+      <c r="I3" s="78" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="103" t="n"/>
-      <c r="K3" s="75" t="n"/>
-      <c r="L3" s="62" t="inlineStr">
+      <c r="J3" s="105" t="n"/>
+      <c r="K3" s="77" t="n"/>
+      <c r="L3" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="63">
-      <c r="A4" s="67" t="n"/>
-      <c r="B4" s="67" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="65">
+      <c r="A4" s="69" t="n"/>
+      <c r="B4" s="69" t="inlineStr">
         <is>
           <t>ANA CRISTINA LEONE RIOS</t>
         </is>
       </c>
-      <c r="C4" s="64" t="inlineStr">
+      <c r="C4" s="66" t="inlineStr">
         <is>
           <t>513835235</t>
         </is>
       </c>
-      <c r="D4" s="64" t="n"/>
-      <c r="E4" s="68" t="n"/>
-      <c r="F4" s="62" t="inlineStr">
+      <c r="D4" s="66" t="n"/>
+      <c r="E4" s="70" t="n"/>
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="76" t="inlineStr">
+      <c r="G4" s="78" t="n"/>
+      <c r="H4" s="78" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="I4" s="76" t="inlineStr">
+      <c r="I4" s="78" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="J4" s="77" t="n"/>
+      <c r="J4" s="79" t="n"/>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="62" t="inlineStr">
+      <c r="L4" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="63">
-      <c r="A5" s="67" t="n"/>
-      <c r="B5" s="71" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="65">
+      <c r="A5" s="69" t="n"/>
+      <c r="B5" s="73" t="inlineStr">
         <is>
           <t>ROBSON OLIVEIRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="C5" s="66" t="inlineStr">
         <is>
           <t>513808652</t>
         </is>
       </c>
-      <c r="D5" s="64" t="n"/>
-      <c r="E5" s="68" t="n"/>
-      <c r="F5" s="62" t="inlineStr">
+      <c r="D5" s="66" t="n"/>
+      <c r="E5" s="70" t="n"/>
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" s="62" t="n"/>
-      <c r="H5" s="76" t="n"/>
-      <c r="L5" s="62" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="63">
-      <c r="A6" s="67" t="n"/>
-      <c r="B6" s="67" t="inlineStr">
+      <c r="G5" s="64" t="n"/>
+      <c r="H5" s="78" t="n"/>
+      <c r="L5" s="64" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="65">
+      <c r="A6" s="69" t="n"/>
+      <c r="B6" s="69" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="64" t="inlineStr">
+      <c r="C6" s="66" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="D6" s="64" t="n"/>
-      <c r="E6" s="68" t="n"/>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="D6" s="66" t="n"/>
+      <c r="E6" s="70" t="n"/>
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="62" t="n"/>
-      <c r="H6" s="62" t="inlineStr">
+      <c r="G6" s="64" t="n"/>
+      <c r="H6" s="64" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="100" t="inlineStr">
+      <c r="I6" s="102" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="104" t="n"/>
-      <c r="K6" s="105" t="n"/>
-      <c r="L6" s="62" t="inlineStr">
+      <c r="J6" s="106" t="n"/>
+      <c r="K6" s="107" t="n"/>
+      <c r="L6" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="63">
-      <c r="A7" s="67" t="n"/>
-      <c r="B7" s="67" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="65">
+      <c r="A7" s="69" t="n"/>
+      <c r="B7" s="69" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="C7" s="66" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="D7" s="64" t="n"/>
-      <c r="E7" s="68" t="n"/>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="D7" s="66" t="n"/>
+      <c r="E7" s="70" t="n"/>
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="62" t="n"/>
-      <c r="I7" s="100" t="n"/>
-      <c r="J7" s="104" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="I7" s="102" t="n"/>
+      <c r="J7" s="106" t="n"/>
       <c r="K7" s="47" t="n"/>
-      <c r="L7" s="62" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="63">
-      <c r="A8" s="67" t="n"/>
-      <c r="B8" s="67" t="inlineStr">
+      <c r="L7" s="64" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="65">
+      <c r="A8" s="69" t="n"/>
+      <c r="B8" s="69" t="inlineStr">
         <is>
           <t>MARIANNE ESPINDOLA LEFUNDES</t>
         </is>
       </c>
-      <c r="C8" s="64" t="inlineStr">
+      <c r="C8" s="66" t="inlineStr">
         <is>
           <t>513717741</t>
         </is>
       </c>
-      <c r="D8" s="64" t="n"/>
-      <c r="E8" s="68" t="n"/>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="D8" s="66" t="n"/>
+      <c r="E8" s="70" t="n"/>
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="62" t="n"/>
-      <c r="I8" s="100" t="n"/>
-      <c r="J8" s="104" t="n"/>
-      <c r="K8" s="82" t="n"/>
-      <c r="L8" s="62" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="63">
-      <c r="A9" s="67" t="n"/>
-      <c r="B9" s="67" t="n"/>
-      <c r="C9" s="64" t="n"/>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="68" t="n"/>
-      <c r="F9" s="62" t="n"/>
-      <c r="G9" s="62" t="n"/>
-      <c r="I9" s="100" t="n"/>
-      <c r="J9" s="104" t="n"/>
+      <c r="G8" s="64" t="n"/>
+      <c r="I8" s="102" t="n"/>
+      <c r="J8" s="106" t="n"/>
+      <c r="K8" s="84" t="n"/>
+      <c r="L8" s="64" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="65">
+      <c r="A9" s="69" t="n"/>
+      <c r="B9" s="69" t="n"/>
+      <c r="C9" s="66" t="n"/>
+      <c r="D9" s="66" t="n"/>
+      <c r="E9" s="70" t="n"/>
+      <c r="F9" s="64" t="n"/>
+      <c r="G9" s="64" t="n"/>
+      <c r="I9" s="102" t="n"/>
+      <c r="J9" s="106" t="n"/>
       <c r="K9" s="21" t="n"/>
-      <c r="L9" s="62" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="63">
-      <c r="A10" s="67" t="n"/>
-      <c r="B10" s="67" t="inlineStr">
+      <c r="L9" s="64" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="65">
+      <c r="A10" s="69" t="n"/>
+      <c r="B10" s="69" t="inlineStr">
         <is>
           <t>RENATA DE JESUS SALES</t>
         </is>
       </c>
-      <c r="C10" s="64" t="inlineStr">
+      <c r="C10" s="66" t="inlineStr">
         <is>
           <t>513831409</t>
         </is>
       </c>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="72" t="n"/>
-      <c r="F10" s="62" t="inlineStr">
+      <c r="D10" s="72" t="n"/>
+      <c r="E10" s="74" t="n"/>
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G10" s="62" t="n"/>
-      <c r="I10" s="100" t="n"/>
-      <c r="J10" s="104" t="n"/>
-      <c r="K10" s="83" t="n"/>
-      <c r="L10" s="62" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="63">
-      <c r="A11" s="67" t="n"/>
-      <c r="B11" s="71" t="inlineStr">
+      <c r="G10" s="64" t="n"/>
+      <c r="I10" s="102" t="n"/>
+      <c r="J10" s="106" t="n"/>
+      <c r="K10" s="85" t="n"/>
+      <c r="L10" s="64" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="65">
+      <c r="A11" s="69" t="n"/>
+      <c r="B11" s="73" t="inlineStr">
         <is>
           <t>ARTUR PRUST SALIBA</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="C11" s="66" t="inlineStr">
         <is>
           <t>513753012</t>
         </is>
       </c>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="72" t="n"/>
-      <c r="F11" s="62" t="inlineStr">
+      <c r="D11" s="72" t="n"/>
+      <c r="E11" s="74" t="n"/>
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="62" t="n"/>
-      <c r="I11" s="100" t="n"/>
-      <c r="J11" s="104" t="n"/>
-      <c r="K11" s="83" t="n"/>
-      <c r="L11" s="62" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="63">
-      <c r="A12" s="76" t="n"/>
-      <c r="B12" s="67" t="inlineStr">
+      <c r="G11" s="64" t="n"/>
+      <c r="I11" s="102" t="n"/>
+      <c r="J11" s="106" t="n"/>
+      <c r="K11" s="85" t="n"/>
+      <c r="L11" s="64" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="65">
+      <c r="A12" s="78" t="n"/>
+      <c r="B12" s="69" t="inlineStr">
         <is>
           <t>CAROLINA GALVAO BROCHADO DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="64" t="inlineStr">
+      <c r="C12" s="66" t="inlineStr">
         <is>
           <t>513830449</t>
         </is>
       </c>
-      <c r="D12" s="64" t="n"/>
-      <c r="E12" s="72" t="n"/>
-      <c r="F12" s="62" t="inlineStr">
+      <c r="D12" s="66" t="n"/>
+      <c r="E12" s="74" t="n"/>
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="62" t="n"/>
-      <c r="I12" s="100" t="n"/>
-      <c r="J12" s="104" t="n"/>
-      <c r="K12" s="83" t="n"/>
-      <c r="L12" s="62" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="63">
-      <c r="A13" s="76" t="n"/>
-      <c r="B13" s="67" t="inlineStr">
+      <c r="G12" s="64" t="n"/>
+      <c r="I12" s="102" t="n"/>
+      <c r="J12" s="106" t="n"/>
+      <c r="K12" s="85" t="n"/>
+      <c r="L12" s="64" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="65">
+      <c r="A13" s="78" t="n"/>
+      <c r="B13" s="69" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="C13" s="66" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="72" t="n"/>
-      <c r="F13" s="62" t="inlineStr">
+      <c r="D13" s="72" t="n"/>
+      <c r="E13" s="74" t="n"/>
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="100" t="n"/>
-      <c r="J13" s="104" t="n"/>
-      <c r="K13" s="84" t="n"/>
-      <c r="L13" s="62" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="63">
-      <c r="A14" s="76" t="n"/>
-      <c r="B14" s="62" t="inlineStr">
+      <c r="I13" s="102" t="n"/>
+      <c r="J13" s="106" t="n"/>
+      <c r="K13" s="86" t="n"/>
+      <c r="L13" s="64" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="65">
+      <c r="A14" s="78" t="n"/>
+      <c r="B14" s="64" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C14" s="62" t="inlineStr">
+      <c r="C14" s="64" t="inlineStr">
         <is>
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="106" t="n"/>
-      <c r="E14" s="107" t="n"/>
-      <c r="F14" s="62" t="inlineStr">
+      <c r="D14" s="108" t="n"/>
+      <c r="E14" s="109" t="n"/>
+      <c r="F14" s="64" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G14" s="62" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="104" t="n"/>
-      <c r="K14" s="87" t="n"/>
-      <c r="L14" s="62" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="63">
-      <c r="A15" s="62" t="n"/>
-      <c r="B15" s="62" t="inlineStr">
+      <c r="G14" s="64" t="n"/>
+      <c r="I14" s="110" t="n"/>
+      <c r="J14" s="106" t="n"/>
+      <c r="K14" s="89" t="n"/>
+      <c r="L14" s="64" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="65">
+      <c r="A15" s="64" t="n"/>
+      <c r="B15" s="64" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C15" s="62" t="inlineStr">
+      <c r="C15" s="64" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D15" s="62" t="n"/>
-      <c r="F15" s="62" t="inlineStr">
+      <c r="D15" s="64" t="n"/>
+      <c r="F15" s="64" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G15" s="62" t="n"/>
-      <c r="I15" s="108" t="n"/>
-      <c r="J15" s="104" t="n"/>
-      <c r="K15" s="87" t="n"/>
-      <c r="L15" s="62" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="63">
-      <c r="A16" s="62" t="n"/>
-      <c r="D16" s="62" t="n"/>
-      <c r="F16" s="62" t="n"/>
-      <c r="G16" s="62" t="n"/>
-      <c r="I16" s="109" t="n"/>
-      <c r="J16" s="104" t="n"/>
-      <c r="K16" s="91" t="n"/>
-      <c r="L16" s="62" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="63">
-      <c r="A17" s="62" t="n"/>
-      <c r="D17" s="62" t="n"/>
-      <c r="F17" s="62" t="n"/>
-      <c r="G17" s="62" t="n"/>
-      <c r="K17" s="77" t="n"/>
-      <c r="L17" s="62" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="63">
-      <c r="A18" s="62" t="n"/>
-      <c r="D18" s="62" t="n"/>
-      <c r="F18" s="62" t="n"/>
-      <c r="G18" s="62" t="n"/>
-      <c r="L18" s="62" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="63">
-      <c r="A19" s="62" t="n"/>
-      <c r="D19" s="62" t="n"/>
-      <c r="F19" s="62" t="n"/>
-      <c r="G19" s="62" t="n"/>
-      <c r="L19" s="62" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="63">
-      <c r="A20" s="62" t="n"/>
-      <c r="D20" s="62" t="n"/>
-      <c r="F20" s="62" t="n"/>
-      <c r="G20" s="62" t="n"/>
-      <c r="L20" s="62" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="63">
-      <c r="A21" s="62" t="n"/>
-      <c r="D21" s="62" t="n"/>
-      <c r="F21" s="62" t="n"/>
-      <c r="G21" s="62" t="n"/>
-      <c r="L21" s="62" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="63">
-      <c r="A22" s="62" t="n"/>
-      <c r="D22" s="62" t="n"/>
-      <c r="F22" s="62" t="n"/>
-      <c r="G22" s="62" t="n"/>
-      <c r="L22" s="62" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="63">
-      <c r="A23" s="62" t="n"/>
-      <c r="D23" s="62" t="n"/>
-      <c r="F23" s="62" t="n"/>
-      <c r="G23" s="62" t="n"/>
-      <c r="L23" s="62" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="63">
-      <c r="A24" s="62" t="n"/>
-      <c r="D24" s="62" t="n"/>
-      <c r="F24" s="62" t="n"/>
-      <c r="G24" s="62" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="63">
-      <c r="A25" s="62" t="n"/>
-      <c r="D25" s="62" t="n"/>
-      <c r="F25" s="62" t="n"/>
-      <c r="G25" s="62" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="63">
-      <c r="A26" s="62" t="n"/>
-      <c r="D26" s="62" t="n"/>
-      <c r="F26" s="62" t="n"/>
-      <c r="G26" s="62" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="63">
-      <c r="A27" s="62" t="n"/>
-      <c r="D27" s="62" t="n"/>
-      <c r="F27" s="62" t="n"/>
-      <c r="G27" s="62" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="63">
-      <c r="A28" s="62" t="n"/>
-      <c r="D28" s="62" t="n"/>
-      <c r="F28" s="62" t="n"/>
-      <c r="G28" s="62" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="63">
-      <c r="A29" s="62" t="n"/>
-      <c r="D29" s="62" t="n"/>
-      <c r="F29" s="62" t="n"/>
-      <c r="G29" s="62" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="63">
-      <c r="A30" s="62" t="n"/>
-      <c r="D30" s="62" t="n"/>
-      <c r="F30" s="62" t="n"/>
-      <c r="G30" s="62" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="63">
-      <c r="A31" s="62" t="n"/>
-      <c r="D31" s="62" t="n"/>
-      <c r="F31" s="62" t="n"/>
-      <c r="G31" s="62" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="63">
-      <c r="A32" s="62" t="n"/>
-      <c r="D32" s="62" t="n"/>
-      <c r="F32" s="62" t="n"/>
-      <c r="G32" s="62" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="63">
-      <c r="A33" s="62" t="n"/>
-      <c r="D33" s="62" t="n"/>
-      <c r="F33" s="62" t="n"/>
-      <c r="G33" s="62" t="n"/>
+      <c r="G15" s="64" t="n"/>
+      <c r="I15" s="110" t="n"/>
+      <c r="J15" s="106" t="n"/>
+      <c r="K15" s="89" t="n"/>
+      <c r="L15" s="64" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="65">
+      <c r="A16" s="64" t="n"/>
+      <c r="D16" s="64" t="n"/>
+      <c r="F16" s="64" t="n"/>
+      <c r="G16" s="64" t="n"/>
+      <c r="I16" s="111" t="n"/>
+      <c r="J16" s="106" t="n"/>
+      <c r="K16" s="93" t="n"/>
+      <c r="L16" s="64" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="65">
+      <c r="A17" s="64" t="n"/>
+      <c r="D17" s="64" t="n"/>
+      <c r="F17" s="64" t="n"/>
+      <c r="G17" s="64" t="n"/>
+      <c r="K17" s="79" t="n"/>
+      <c r="L17" s="64" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="65">
+      <c r="A18" s="64" t="n"/>
+      <c r="D18" s="64" t="n"/>
+      <c r="F18" s="64" t="n"/>
+      <c r="G18" s="64" t="n"/>
+      <c r="L18" s="64" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="65">
+      <c r="A19" s="64" t="n"/>
+      <c r="D19" s="64" t="n"/>
+      <c r="F19" s="64" t="n"/>
+      <c r="G19" s="64" t="n"/>
+      <c r="L19" s="64" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="65">
+      <c r="A20" s="64" t="n"/>
+      <c r="D20" s="64" t="n"/>
+      <c r="F20" s="64" t="n"/>
+      <c r="G20" s="64" t="n"/>
+      <c r="L20" s="64" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="65">
+      <c r="A21" s="64" t="n"/>
+      <c r="D21" s="64" t="n"/>
+      <c r="F21" s="64" t="n"/>
+      <c r="G21" s="64" t="n"/>
+      <c r="L21" s="64" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="65">
+      <c r="A22" s="64" t="n"/>
+      <c r="D22" s="64" t="n"/>
+      <c r="F22" s="64" t="n"/>
+      <c r="G22" s="64" t="n"/>
+      <c r="L22" s="64" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="65">
+      <c r="A23" s="64" t="n"/>
+      <c r="D23" s="64" t="n"/>
+      <c r="F23" s="64" t="n"/>
+      <c r="G23" s="64" t="n"/>
+      <c r="L23" s="64" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="65">
+      <c r="A24" s="64" t="n"/>
+      <c r="D24" s="64" t="n"/>
+      <c r="F24" s="64" t="n"/>
+      <c r="G24" s="64" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="65">
+      <c r="A25" s="64" t="n"/>
+      <c r="D25" s="64" t="n"/>
+      <c r="F25" s="64" t="n"/>
+      <c r="G25" s="64" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="65">
+      <c r="A26" s="64" t="n"/>
+      <c r="D26" s="64" t="n"/>
+      <c r="F26" s="64" t="n"/>
+      <c r="G26" s="64" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="65">
+      <c r="A27" s="64" t="n"/>
+      <c r="D27" s="64" t="n"/>
+      <c r="F27" s="64" t="n"/>
+      <c r="G27" s="64" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="65">
+      <c r="A28" s="64" t="n"/>
+      <c r="D28" s="64" t="n"/>
+      <c r="F28" s="64" t="n"/>
+      <c r="G28" s="64" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="65">
+      <c r="A29" s="64" t="n"/>
+      <c r="D29" s="64" t="n"/>
+      <c r="F29" s="64" t="n"/>
+      <c r="G29" s="64" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="65">
+      <c r="A30" s="64" t="n"/>
+      <c r="D30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
+      <c r="G30" s="64" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="65">
+      <c r="A31" s="64" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="F31" s="64" t="n"/>
+      <c r="G31" s="64" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="65">
+      <c r="A32" s="64" t="n"/>
+      <c r="D32" s="64" t="n"/>
+      <c r="F32" s="64" t="n"/>
+      <c r="G32" s="64" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="65">
+      <c r="A33" s="64" t="n"/>
+      <c r="D33" s="64" t="n"/>
+      <c r="F33" s="64" t="n"/>
+      <c r="G33" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="A1:I5 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2030,7 +2030,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="1" sqref="A1:I5 K16"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2652,7 +2652,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="A1:I5 G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2804,7 +2804,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="A1:I5"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3069,7 +3069,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="1" sqref="A1:I5 M13"/>
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3285,7 +3285,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="1" sqref="A1:I5 P16"/>
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3600,17 +3600,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="A1:I5"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,16 +3622,6 @@
       <c r="A2" s="64"/>
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3652,7 +3642,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A1:I5 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3910,7 +3900,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A1:I5 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4343,7 +4333,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="A1:I5 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4640,7 +4630,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A1:I5 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5389,7 +5379,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="1" sqref="A1:I5 M7"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5816,7 +5806,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="A1:I5 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6379,7 +6369,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="1" sqref="A1:I5 F14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6636,7 +6626,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="A1:I5 H11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,12 +20,7 @@
     <sheet name="Planilha11" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Planilha12" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Planilha13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Planilha14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Contas Fechamento" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Sheet" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="loo" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Contas Fechamento" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -37,10 +32,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -169,14 +164,6 @@
       <color rgb="FFFFFFFF"/>
       <sz val="14"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,7 +257,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -459,18 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -643,17 +618,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -914,765 +886,765 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.57" customWidth="1" style="67" min="1" max="1"/>
-    <col width="36.14" customWidth="1" style="67" min="2" max="2"/>
-    <col width="13.14" customWidth="1" style="67" min="3" max="3"/>
-    <col width="11.43" customWidth="1" style="67" min="5" max="5"/>
-    <col width="12.57" customWidth="1" style="67" min="6" max="6"/>
-    <col width="45" customWidth="1" style="67" min="8" max="8"/>
-    <col width="14.43" customWidth="1" style="67" min="9" max="9"/>
-    <col width="11.86" customWidth="1" style="67" min="10" max="10"/>
-    <col width="13.43" customWidth="1" style="67" min="11" max="11"/>
+    <col width="6.57" customWidth="1" style="63" min="1" max="1"/>
+    <col width="36.14" customWidth="1" style="63" min="2" max="2"/>
+    <col width="13.14" customWidth="1" style="63" min="3" max="3"/>
+    <col width="11.43" customWidth="1" style="63" min="5" max="5"/>
+    <col width="12.57" customWidth="1" style="63" min="6" max="6"/>
+    <col width="45" customWidth="1" style="63" min="8" max="8"/>
+    <col width="14.43" customWidth="1" style="63" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="63" min="10" max="10"/>
+    <col width="13.43" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="72" t="n">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="inlineStr">
+      <c r="B3" s="68" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="C3" s="69" t="n">
+      <c r="C3" s="65" t="n">
         <v>513777451</v>
       </c>
-      <c r="D3" s="69" t="n"/>
-      <c r="E3" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="67" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G3" s="72" t="n">
+      <c r="G3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="74" t="inlineStr">
+      <c r="H3" s="70" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="I3" s="69" t="n">
+      <c r="I3" s="65" t="n">
         <v>513777451</v>
       </c>
-      <c r="J3" s="75" t="n"/>
-      <c r="K3" s="75" t="n">
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="67" t="inlineStr">
+      <c r="L3" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="72" t="n">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="inlineStr">
+      <c r="B4" s="68" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="65" t="n">
         <v>513700004</v>
       </c>
-      <c r="D4" s="69" t="n"/>
-      <c r="E4" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="67" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="72" t="n">
+      <c r="G4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="74" t="inlineStr">
+      <c r="H4" s="70" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I4" s="69" t="n">
+      <c r="I4" s="65" t="n">
         <v>513700004</v>
       </c>
-      <c r="J4" s="75" t="n"/>
-      <c r="K4" s="75" t="n">
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="67" t="inlineStr">
+      <c r="L4" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="72" t="n">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="inlineStr">
+      <c r="B5" s="72" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="65" t="n">
         <v>513776719</v>
       </c>
-      <c r="D5" s="69" t="n"/>
-      <c r="E5" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="67" t="inlineStr">
+      <c r="D5" s="65" t="n"/>
+      <c r="E5" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="72" t="n">
+      <c r="G5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="74" t="inlineStr">
+      <c r="H5" s="70" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I5" s="69" t="n">
+      <c r="I5" s="65" t="n">
         <v>513758449</v>
       </c>
-      <c r="J5" s="75" t="n"/>
-      <c r="K5" s="75" t="n">
+      <c r="J5" s="71" t="n"/>
+      <c r="K5" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="67" t="inlineStr">
+      <c r="L5" s="63" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="A6" s="72" t="n">
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="A6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="inlineStr">
+      <c r="B6" s="68" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="65" t="n">
         <v>513758449</v>
       </c>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="67" t="inlineStr">
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="63" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G6" s="72" t="n">
+      <c r="G6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="74" t="inlineStr">
+      <c r="H6" s="70" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I6" s="69" t="n">
+      <c r="I6" s="65" t="n">
         <v>513749220</v>
       </c>
-      <c r="J6" s="75" t="n"/>
-      <c r="K6" s="75" t="n">
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="67" t="inlineStr">
+      <c r="L6" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="A7" s="72" t="n">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="A7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="inlineStr">
+      <c r="B7" s="68" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="65" t="n">
         <v>513749220</v>
       </c>
-      <c r="D7" s="69" t="n"/>
-      <c r="E7" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="67" t="inlineStr">
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="72" t="n">
+      <c r="G7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="74" t="inlineStr">
+      <c r="H7" s="70" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="69" t="n">
+      <c r="I7" s="65" t="n">
         <v>513754823</v>
       </c>
-      <c r="J7" s="75" t="n"/>
-      <c r="K7" s="75" t="n">
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="67" t="inlineStr">
+      <c r="L7" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="A8" s="72" t="n">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="A8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="65" t="n">
         <v>513756797</v>
       </c>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="67" t="inlineStr">
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="72" t="n">
+      <c r="G8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="72" t="inlineStr">
+      <c r="H8" s="68" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I8" s="69" t="n">
+      <c r="I8" s="65" t="n">
         <v>513781493</v>
       </c>
-      <c r="J8" s="75" t="n"/>
-      <c r="K8" s="75" t="n">
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="67" t="inlineStr">
+      <c r="L8" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="A9" s="72" t="n">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="A9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="inlineStr">
+      <c r="B9" s="68" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="65" t="n">
         <v>513761848</v>
       </c>
-      <c r="D9" s="69" t="n"/>
-      <c r="E9" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="D9" s="65" t="n"/>
+      <c r="E9" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="72" t="n">
+      <c r="G9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="72" t="inlineStr">
+      <c r="H9" s="68" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I9" s="69" t="n">
+      <c r="I9" s="65" t="n">
         <v>513701260</v>
       </c>
-      <c r="J9" s="75" t="n"/>
-      <c r="K9" s="75" t="n">
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="67" t="inlineStr">
+      <c r="L9" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="A10" s="72" t="n">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="A10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="72" t="inlineStr">
+      <c r="B10" s="68" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="65" t="n">
         <v>513778649</v>
       </c>
-      <c r="D10" s="75" t="n"/>
-      <c r="E10" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="D10" s="71" t="n"/>
+      <c r="E10" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G10" s="72" t="n">
+      <c r="G10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="72" t="inlineStr">
+      <c r="H10" s="68" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I10" s="69" t="n">
+      <c r="I10" s="65" t="n">
         <v>513772028</v>
       </c>
-      <c r="J10" s="75" t="n"/>
-      <c r="K10" s="75" t="n">
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="71" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="67" t="inlineStr">
+      <c r="L10" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="A11" s="72" t="n">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="A11" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="76" t="inlineStr">
+      <c r="B11" s="72" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="65" t="n">
         <v>513720426</v>
       </c>
-      <c r="D11" s="75" t="n"/>
-      <c r="E11" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="67" t="inlineStr">
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I11" s="78" t="n"/>
-      <c r="J11" s="79" t="inlineStr">
+      <c r="I11" s="74" t="n"/>
+      <c r="J11" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="76">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="A12" s="72" t="n">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="A12" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="72" t="inlineStr">
+      <c r="B12" s="68" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="69" t="n">
+      <c r="C12" s="65" t="n">
         <v>513754823</v>
       </c>
-      <c r="D12" s="69" t="n"/>
-      <c r="E12" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="67" t="inlineStr">
+      <c r="D12" s="65" t="n"/>
+      <c r="E12" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="81" t="n"/>
-      <c r="H12" s="78" t="n"/>
-      <c r="I12" s="78" t="n"/>
-      <c r="J12" s="82" t="n"/>
+      <c r="G12" s="77" t="n"/>
+      <c r="H12" s="74" t="n"/>
+      <c r="I12" s="74" t="n"/>
+      <c r="J12" s="78" t="n"/>
       <c r="K12" s="14" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="A13" s="72" t="n">
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="A13" s="68" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="inlineStr">
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C13" s="69" t="n">
+      <c r="C13" s="65" t="n">
         <v>513781493</v>
       </c>
-      <c r="D13" s="75" t="n"/>
-      <c r="E13" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="67" t="inlineStr">
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H13" s="83" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="A14" s="72" t="n">
+      <c r="H13" s="79" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="A14" s="68" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="inlineStr">
+      <c r="B14" s="68" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C14" s="69" t="n">
+      <c r="C14" s="65" t="n">
         <v>513766860</v>
       </c>
-      <c r="D14" s="75" t="n"/>
-      <c r="E14" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="67" t="inlineStr">
+      <c r="D14" s="71" t="n"/>
+      <c r="E14" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I14" s="84" t="inlineStr">
+      <c r="I14" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n"/>
-      <c r="K14" s="85" t="n">
+      <c r="J14" s="67" t="n"/>
+      <c r="K14" s="81" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="A15" s="72" t="n">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="A15" s="68" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="72" t="inlineStr">
+      <c r="B15" s="68" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C15" s="69" t="n">
+      <c r="C15" s="65" t="n">
         <v>513701260</v>
       </c>
-      <c r="D15" s="75" t="n"/>
-      <c r="E15" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="67" t="inlineStr">
+      <c r="D15" s="71" t="n"/>
+      <c r="E15" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I15" s="84" t="inlineStr">
+      <c r="I15" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n"/>
+      <c r="J15" s="67" t="n"/>
       <c r="K15" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="A16" s="72" t="n">
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="A16" s="68" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="72" t="inlineStr">
+      <c r="B16" s="68" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C16" s="69" t="inlineStr">
+      <c r="C16" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D16" s="75" t="n"/>
-      <c r="E16" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="67" t="inlineStr">
+      <c r="D16" s="71" t="n"/>
+      <c r="E16" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="86" t="inlineStr">
+      <c r="I16" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="87" t="n">
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="83" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="A17" s="72" t="n">
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="A17" s="68" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="72" t="inlineStr">
+      <c r="B17" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C17" s="69" t="n">
+      <c r="C17" s="65" t="n">
         <v>513772028</v>
       </c>
-      <c r="D17" s="75" t="n"/>
-      <c r="E17" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="67" t="inlineStr">
+      <c r="D17" s="71" t="n"/>
+      <c r="E17" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I17" s="84" t="inlineStr">
+      <c r="I17" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J17" s="71" t="n"/>
+      <c r="J17" s="67" t="n"/>
       <c r="K17" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="A18" s="72" t="n">
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="A18" s="68" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="72" t="inlineStr">
+      <c r="B18" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C18" s="69" t="n">
+      <c r="C18" s="65" t="n">
         <v>513753257</v>
       </c>
-      <c r="D18" s="75" t="n"/>
-      <c r="E18" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="67" t="inlineStr">
+      <c r="D18" s="71" t="n"/>
+      <c r="E18" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I18" s="84" t="inlineStr">
+      <c r="I18" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J18" s="71" t="n"/>
-      <c r="K18" s="88" t="n">
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="84" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="A19" s="72" t="n">
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="A19" s="68" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="72" t="inlineStr">
+      <c r="B19" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C19" s="69" t="n">
+      <c r="C19" s="65" t="n">
         <v>513697796</v>
       </c>
-      <c r="D19" s="75" t="n"/>
-      <c r="E19" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="67" t="inlineStr">
+      <c r="D19" s="71" t="n"/>
+      <c r="E19" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="84" t="inlineStr">
+      <c r="I19" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J19" s="71" t="n"/>
-      <c r="K19" s="89">
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="85">
         <f>K16-K18-K17</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="68">
-      <c r="A20" s="81" t="n"/>
-      <c r="B20" s="82" t="n"/>
-      <c r="D20" s="90" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="64">
+      <c r="A20" s="77" t="n"/>
+      <c r="B20" s="78" t="n"/>
+      <c r="D20" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="73">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="I20" s="91" t="inlineStr">
+      <c r="I20" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J20" s="71" t="n"/>
-      <c r="K20" s="92">
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="88">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="68">
-      <c r="A21" s="81" t="n"/>
-      <c r="D21" s="93" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="64">
+      <c r="A21" s="77" t="n"/>
+      <c r="D21" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="90">
         <f>49*17</f>
         <v/>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="I21" s="91" t="inlineStr">
+      <c r="I21" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J21" s="71" t="n"/>
-      <c r="K21" s="92">
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="88">
         <f>300+E14</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="68">
-      <c r="A22" s="81" t="n"/>
-      <c r="D22" s="93" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="64">
+      <c r="A22" s="77" t="n"/>
+      <c r="D22" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E22" s="94" t="n">
+      <c r="E22" s="90" t="n">
         <v>1444.1</v>
       </c>
-      <c r="I22" s="95" t="inlineStr">
+      <c r="I22" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J22" s="71" t="n"/>
-      <c r="K22" s="96">
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="92">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="68">
-      <c r="K23" s="82" t="n"/>
+    <row r="23" ht="15" customHeight="1" s="64">
+      <c r="K23" s="78" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1708,713 +1680,713 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48.04" customWidth="1" style="67" min="2" max="2"/>
-    <col width="12.13" customWidth="1" style="67" min="3" max="3"/>
-    <col width="41.17" customWidth="1" style="67" min="8" max="8"/>
-    <col width="10.54" customWidth="1" style="67" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="67" min="11" max="11"/>
+    <col width="48.04" customWidth="1" style="63" min="2" max="2"/>
+    <col width="12.13" customWidth="1" style="63" min="3" max="3"/>
+    <col width="41.17" customWidth="1" style="63" min="8" max="8"/>
+    <col width="10.54" customWidth="1" style="63" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="F1" s="67" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="F1" s="63" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="67" t="n"/>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="68">
-      <c r="A3" s="72" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="64">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="115" t="inlineStr">
+      <c r="B3" s="111" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="69" t="inlineStr">
+      <c r="C3" s="65" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="69" t="n"/>
-      <c r="E3" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="82" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="72" t="n"/>
-      <c r="H3" s="116" t="inlineStr">
+      <c r="G3" s="68" t="n"/>
+      <c r="H3" s="112" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="69" t="inlineStr">
+      <c r="I3" s="65" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="69" t="n"/>
-      <c r="K3" s="69" t="n">
+      <c r="J3" s="65" t="n"/>
+      <c r="K3" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="82" t="inlineStr">
+      <c r="L3" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="68">
-      <c r="A4" s="72" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="64">
+      <c r="A4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="116" t="inlineStr">
+      <c r="B4" s="112" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="65" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="69" t="n"/>
-      <c r="E4" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="82" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="72" t="n"/>
-      <c r="H4" s="117" t="inlineStr">
+      <c r="G4" s="68" t="n"/>
+      <c r="H4" s="113" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="69" t="n">
+      <c r="I4" s="65" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="69" t="n"/>
-      <c r="K4" s="69" t="n">
+      <c r="J4" s="65" t="n"/>
+      <c r="K4" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="82" t="inlineStr">
+      <c r="L4" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="68">
-      <c r="A5" s="72" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="64">
+      <c r="A5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="117" t="inlineStr">
+      <c r="B5" s="113" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="65" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="69" t="n"/>
-      <c r="E5" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="82" t="inlineStr">
+      <c r="D5" s="65" t="n"/>
+      <c r="E5" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="78" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="72" t="n"/>
-      <c r="H5" s="117" t="inlineStr">
+      <c r="G5" s="68" t="n"/>
+      <c r="H5" s="113" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="69" t="n">
+      <c r="I5" s="65" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="69" t="n"/>
-      <c r="K5" s="69" t="n">
+      <c r="J5" s="65" t="n"/>
+      <c r="K5" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="82" t="inlineStr">
+      <c r="L5" s="78" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="68">
-      <c r="A6" s="72" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="64">
+      <c r="A6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="118" t="inlineStr">
+      <c r="B6" s="114" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="65" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="82" t="inlineStr">
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="72" t="n"/>
-      <c r="H6" s="117" t="inlineStr">
+      <c r="G6" s="68" t="n"/>
+      <c r="H6" s="113" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="69" t="n">
+      <c r="I6" s="65" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="69" t="n"/>
-      <c r="K6" s="69" t="n">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="82" t="inlineStr">
+      <c r="L6" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="68">
-      <c r="A7" s="72" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="64">
+      <c r="A7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="117" t="inlineStr">
+      <c r="B7" s="113" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="65" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="69" t="n"/>
-      <c r="E7" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="82" t="inlineStr">
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="72" t="n"/>
-      <c r="H7" s="117" t="inlineStr">
+      <c r="G7" s="68" t="n"/>
+      <c r="H7" s="113" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="69" t="n">
+      <c r="I7" s="65" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="69" t="n"/>
-      <c r="K7" s="69" t="n">
+      <c r="J7" s="65" t="n"/>
+      <c r="K7" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="82" t="inlineStr">
+      <c r="L7" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="68">
-      <c r="A8" s="72" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="64">
+      <c r="A8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="118" t="inlineStr">
+      <c r="B8" s="114" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="65" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="82" t="inlineStr">
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="78" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="72" t="n"/>
-      <c r="H8" s="117" t="inlineStr">
+      <c r="G8" s="68" t="n"/>
+      <c r="H8" s="113" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="69" t="n">
+      <c r="I8" s="65" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="69" t="n"/>
-      <c r="K8" s="69" t="n">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="82" t="inlineStr">
+      <c r="L8" s="78" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="68">
-      <c r="A9" s="72" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="64">
+      <c r="A9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="117" t="inlineStr">
+      <c r="B9" s="113" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="65" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="69" t="n"/>
-      <c r="E9" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="82" t="inlineStr">
+      <c r="D9" s="65" t="n"/>
+      <c r="E9" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="72" t="n"/>
-      <c r="H9" s="117" t="inlineStr">
+      <c r="G9" s="68" t="n"/>
+      <c r="H9" s="113" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="69" t="n">
+      <c r="I9" s="65" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="69" t="n"/>
-      <c r="K9" s="69" t="n">
+      <c r="J9" s="65" t="n"/>
+      <c r="K9" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="82" t="inlineStr">
+      <c r="L9" s="78" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="68">
-      <c r="A10" s="72" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="64">
+      <c r="A10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="117" t="inlineStr">
+      <c r="B10" s="113" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="65" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="69" t="n"/>
-      <c r="E10" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="82" t="inlineStr">
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="72" t="n"/>
-      <c r="H10" s="74" t="inlineStr">
+      <c r="G10" s="68" t="n"/>
+      <c r="H10" s="70" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="69" t="inlineStr">
+      <c r="I10" s="65" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="69" t="n"/>
-      <c r="K10" s="69" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="82" t="inlineStr">
+      <c r="L10" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="68">
-      <c r="A11" s="72" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="64">
+      <c r="A11" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="117" t="inlineStr">
+      <c r="B11" s="113" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="65" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="69" t="n"/>
-      <c r="E11" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="82" t="inlineStr">
+      <c r="D11" s="65" t="n"/>
+      <c r="E11" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="72" t="n"/>
-      <c r="H11" s="74" t="inlineStr">
+      <c r="G11" s="68" t="n"/>
+      <c r="H11" s="70" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="69" t="inlineStr">
+      <c r="I11" s="65" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="69" t="n"/>
-      <c r="K11" s="69" t="n">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="82" t="inlineStr">
+      <c r="L11" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="68">
-      <c r="A12" s="72" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="64">
+      <c r="A12" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="117" t="inlineStr">
+      <c r="B12" s="113" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="69" t="n">
+      <c r="C12" s="65" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="69" t="n"/>
-      <c r="E12" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="82" t="inlineStr">
+      <c r="D12" s="65" t="n"/>
+      <c r="E12" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="72" t="n"/>
-      <c r="H12" s="74" t="n"/>
-      <c r="I12" s="69" t="n"/>
-      <c r="J12" s="69" t="n"/>
-      <c r="K12" s="69" t="n">
+      <c r="G12" s="68" t="n"/>
+      <c r="H12" s="70" t="n"/>
+      <c r="I12" s="65" t="n"/>
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="65" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="82" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="68">
-      <c r="A13" s="72" t="n">
+      <c r="L12" s="78" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="64">
+      <c r="A13" s="68" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="117" t="inlineStr">
+      <c r="B13" s="113" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="69" t="n">
+      <c r="C13" s="65" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="69" t="n"/>
-      <c r="E13" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="82" t="inlineStr">
+      <c r="D13" s="65" t="n"/>
+      <c r="E13" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="82" t="n"/>
-      <c r="H13" s="82" t="n"/>
-      <c r="I13" s="78" t="n"/>
-      <c r="J13" s="79" t="inlineStr">
+      <c r="G13" s="78" t="n"/>
+      <c r="H13" s="78" t="n"/>
+      <c r="I13" s="74" t="n"/>
+      <c r="J13" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="80">
+      <c r="K13" s="76">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="68">
-      <c r="A14" s="72" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="64">
+      <c r="A14" s="68" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="117" t="inlineStr">
+      <c r="B14" s="113" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="69" t="n">
+      <c r="C14" s="65" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="69" t="n"/>
-      <c r="E14" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="82" t="inlineStr">
+      <c r="D14" s="65" t="n"/>
+      <c r="E14" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="78" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="81" t="n"/>
-      <c r="H14" s="78" t="n"/>
-      <c r="I14" s="78" t="n"/>
-      <c r="J14" s="82" t="n"/>
+      <c r="G14" s="77" t="n"/>
+      <c r="H14" s="74" t="n"/>
+      <c r="I14" s="74" t="n"/>
+      <c r="J14" s="78" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="68">
-      <c r="A15" s="72" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="64">
+      <c r="A15" s="68" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="117" t="inlineStr">
+      <c r="B15" s="113" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="69" t="n">
+      <c r="C15" s="65" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="69" t="n"/>
-      <c r="E15" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="82" t="inlineStr">
+      <c r="D15" s="65" t="n"/>
+      <c r="E15" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="78" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="83" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="68">
-      <c r="A16" s="72" t="n">
+      <c r="H15" s="79" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="64">
+      <c r="A16" s="68" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="74" t="n"/>
-      <c r="C16" s="69" t="n"/>
-      <c r="D16" s="69" t="n"/>
-      <c r="E16" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="82" t="n"/>
-      <c r="I16" s="84" t="n"/>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="85" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="68">
-      <c r="A17" s="72" t="n">
+      <c r="B16" s="70" t="n"/>
+      <c r="C16" s="65" t="n"/>
+      <c r="D16" s="65" t="n"/>
+      <c r="E16" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="78" t="n"/>
+      <c r="I16" s="80" t="n"/>
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="81" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="64">
+      <c r="A17" s="68" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="74" t="n"/>
-      <c r="C17" s="69" t="n"/>
-      <c r="D17" s="69" t="n"/>
-      <c r="E17" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="82" t="n"/>
-      <c r="I17" s="84" t="n"/>
-      <c r="J17" s="71" t="n"/>
-      <c r="K17" s="85" t="n"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="68">
-      <c r="A18" s="72" t="n">
+      <c r="B17" s="70" t="n"/>
+      <c r="C17" s="65" t="n"/>
+      <c r="D17" s="65" t="n"/>
+      <c r="E17" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="78" t="n"/>
+      <c r="I17" s="80" t="n"/>
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="81" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="64">
+      <c r="A18" s="68" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="74" t="n"/>
-      <c r="C18" s="69" t="n"/>
-      <c r="D18" s="69" t="n"/>
-      <c r="E18" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="82" t="n"/>
-      <c r="I18" s="86" t="n"/>
-      <c r="J18" s="71" t="n"/>
-      <c r="K18" s="87" t="n"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="68">
-      <c r="A19" s="72" t="n">
+      <c r="B18" s="70" t="n"/>
+      <c r="C18" s="65" t="n"/>
+      <c r="D18" s="65" t="n"/>
+      <c r="E18" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="78" t="n"/>
+      <c r="I18" s="82" t="n"/>
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="83" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="64">
+      <c r="A19" s="68" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="74" t="n"/>
-      <c r="C19" s="69" t="n"/>
-      <c r="D19" s="69" t="n"/>
-      <c r="E19" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="82" t="n"/>
-      <c r="I19" s="84" t="n"/>
-      <c r="J19" s="71" t="n"/>
+      <c r="B19" s="70" t="n"/>
+      <c r="C19" s="65" t="n"/>
+      <c r="D19" s="65" t="n"/>
+      <c r="E19" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="78" t="n"/>
+      <c r="I19" s="80" t="n"/>
+      <c r="J19" s="67" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="68">
-      <c r="A20" s="72" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="64">
+      <c r="A20" s="68" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="n"/>
-      <c r="C20" s="69" t="n"/>
-      <c r="D20" s="69" t="n"/>
-      <c r="E20" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="82" t="n"/>
-      <c r="I20" s="84" t="n"/>
-      <c r="J20" s="71" t="n"/>
-      <c r="K20" s="88" t="n"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="68">
-      <c r="A21" s="72" t="n">
+      <c r="B20" s="70" t="n"/>
+      <c r="C20" s="65" t="n"/>
+      <c r="D20" s="65" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="78" t="n"/>
+      <c r="I20" s="80" t="n"/>
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="84" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="64">
+      <c r="A21" s="68" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="74" t="n"/>
-      <c r="C21" s="69" t="n"/>
-      <c r="D21" s="69" t="n"/>
-      <c r="E21" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="82" t="n"/>
-      <c r="I21" s="84" t="n"/>
-      <c r="J21" s="71" t="n"/>
-      <c r="K21" s="89" t="n"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="68">
-      <c r="A22" s="72" t="n">
+      <c r="B21" s="70" t="n"/>
+      <c r="C21" s="65" t="n"/>
+      <c r="D21" s="65" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="78" t="n"/>
+      <c r="I21" s="80" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="85" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="64">
+      <c r="A22" s="68" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="74" t="n"/>
-      <c r="C22" s="69" t="n"/>
-      <c r="D22" s="69" t="n"/>
-      <c r="E22" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="82" t="n"/>
-      <c r="I22" s="91" t="n"/>
-      <c r="J22" s="71" t="n"/>
-      <c r="K22" s="92" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="68">
-      <c r="A23" s="72" t="n">
+      <c r="B22" s="70" t="n"/>
+      <c r="C22" s="65" t="n"/>
+      <c r="D22" s="65" t="n"/>
+      <c r="E22" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="78" t="n"/>
+      <c r="I22" s="87" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="88" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="64">
+      <c r="A23" s="68" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="74" t="n"/>
-      <c r="C23" s="119" t="n"/>
-      <c r="D23" s="69" t="n"/>
-      <c r="E23" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="82" t="n"/>
+      <c r="B23" s="70" t="n"/>
+      <c r="C23" s="115" t="n"/>
+      <c r="D23" s="65" t="n"/>
+      <c r="E23" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="78" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="91" t="n"/>
-      <c r="J23" s="71" t="n"/>
-      <c r="K23" s="92" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="68">
-      <c r="A24" s="81" t="n"/>
-      <c r="B24" s="82" t="n"/>
-      <c r="D24" s="90" t="n"/>
-      <c r="E24" s="77" t="n"/>
-      <c r="F24" s="67" t="n"/>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="71" t="n"/>
-      <c r="K24" s="96" t="n"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="68">
-      <c r="A25" s="81" t="n"/>
-      <c r="D25" s="93" t="n"/>
-      <c r="E25" s="94" t="n"/>
-      <c r="F25" s="67" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="68">
-      <c r="A26" s="81" t="n"/>
-      <c r="D26" s="93" t="n"/>
-      <c r="E26" s="94" t="n"/>
-      <c r="F26" s="67" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="68"/>
+      <c r="I23" s="87" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="88" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="64">
+      <c r="A24" s="77" t="n"/>
+      <c r="B24" s="78" t="n"/>
+      <c r="D24" s="86" t="n"/>
+      <c r="E24" s="73" t="n"/>
+      <c r="F24" s="63" t="n"/>
+      <c r="I24" s="91" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="92" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="64">
+      <c r="A25" s="77" t="n"/>
+      <c r="D25" s="89" t="n"/>
+      <c r="E25" s="90" t="n"/>
+      <c r="F25" s="63" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="64">
+      <c r="A26" s="77" t="n"/>
+      <c r="D26" s="89" t="n"/>
+      <c r="E26" s="90" t="n"/>
+      <c r="F26" s="63" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="64"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2457,150 +2429,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="67" min="2" max="2"/>
-    <col width="9.92" customWidth="1" style="67" min="4" max="4"/>
-    <col width="55" customWidth="1" style="67" min="8" max="8"/>
+    <col width="55" customWidth="1" style="63" min="2" max="2"/>
+    <col width="9.92" customWidth="1" style="63" min="4" max="4"/>
+    <col width="55" customWidth="1" style="63" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="68">
-      <c r="A1" s="120" t="n"/>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="120" t="n"/>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="68">
-      <c r="A2" s="120" t="n"/>
-      <c r="B2" s="120" t="n"/>
-      <c r="C2" s="120" t="n"/>
-      <c r="D2" s="120" t="n"/>
-      <c r="E2" s="120" t="n"/>
-      <c r="G2" s="120" t="n"/>
-      <c r="H2" s="120" t="n"/>
-      <c r="I2" s="120" t="n"/>
-      <c r="J2" s="120" t="n"/>
-      <c r="K2" s="120" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="68">
-      <c r="A3" s="107" t="n"/>
-      <c r="B3" s="107" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="64">
+      <c r="A1" s="116" t="n"/>
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="116" t="n"/>
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="64">
+      <c r="A2" s="116" t="n"/>
+      <c r="B2" s="116" t="n"/>
+      <c r="C2" s="116" t="n"/>
+      <c r="D2" s="116" t="n"/>
+      <c r="E2" s="116" t="n"/>
+      <c r="G2" s="116" t="n"/>
+      <c r="H2" s="116" t="n"/>
+      <c r="I2" s="116" t="n"/>
+      <c r="J2" s="116" t="n"/>
+      <c r="K2" s="116" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="64">
+      <c r="A3" s="103" t="n"/>
+      <c r="B3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="67" t="n"/>
-      <c r="E3" s="107" t="n"/>
-      <c r="F3" s="67" t="n"/>
-      <c r="G3" s="107" t="n"/>
-      <c r="H3" s="107" t="inlineStr">
+      <c r="C3" s="63" t="n"/>
+      <c r="E3" s="103" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="103" t="n"/>
+      <c r="H3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="107" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="68">
-      <c r="A4" s="107" t="n"/>
-      <c r="B4" s="121" t="inlineStr">
+      <c r="K3" s="103" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="64">
+      <c r="A4" s="103" t="n"/>
+      <c r="B4" s="117" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="122" t="n"/>
-      <c r="D4" s="122" t="n"/>
-      <c r="E4" s="121" t="n"/>
-      <c r="F4" s="67" t="n"/>
-      <c r="G4" s="107" t="n"/>
-      <c r="H4" s="121" t="inlineStr">
+      <c r="C4" s="118" t="n"/>
+      <c r="D4" s="118" t="n"/>
+      <c r="E4" s="117" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="103" t="n"/>
+      <c r="H4" s="117" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="107" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="68">
-      <c r="A5" s="107" t="n"/>
-      <c r="B5" s="107" t="inlineStr">
+      <c r="K4" s="103" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="64">
+      <c r="A5" s="103" t="n"/>
+      <c r="B5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="67" t="n"/>
-      <c r="E5" s="107" t="n"/>
-      <c r="F5" s="67" t="n"/>
-      <c r="G5" s="107" t="n"/>
-      <c r="H5" s="107" t="inlineStr">
+      <c r="C5" s="63" t="n"/>
+      <c r="E5" s="103" t="n"/>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="103" t="n"/>
+      <c r="H5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="107" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="68">
-      <c r="A6" s="107" t="n"/>
-      <c r="B6" s="107" t="inlineStr">
+      <c r="K5" s="103" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="64">
+      <c r="A6" s="103" t="n"/>
+      <c r="B6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="67" t="n"/>
-      <c r="E6" s="107" t="n"/>
-      <c r="F6" s="67" t="n"/>
-      <c r="G6" s="107" t="n"/>
-      <c r="H6" s="107" t="inlineStr">
+      <c r="C6" s="63" t="n"/>
+      <c r="E6" s="103" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="103" t="n"/>
+      <c r="H6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="107" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="68">
-      <c r="A7" s="107" t="n"/>
-      <c r="B7" s="107" t="inlineStr">
+      <c r="K6" s="103" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="64">
+      <c r="A7" s="103" t="n"/>
+      <c r="B7" s="103" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="67" t="n"/>
-      <c r="E7" s="107" t="n"/>
-      <c r="F7" s="67" t="n"/>
-      <c r="G7" s="67" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="68">
-      <c r="A8" s="107" t="n"/>
-      <c r="B8" s="107" t="inlineStr">
+      <c r="C7" s="63" t="n"/>
+      <c r="E7" s="103" t="n"/>
+      <c r="F7" s="63" t="n"/>
+      <c r="G7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="64">
+      <c r="A8" s="103" t="n"/>
+      <c r="B8" s="103" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="67" t="n"/>
-      <c r="E8" s="107" t="n"/>
-      <c r="F8" s="67" t="n"/>
-      <c r="G8" s="67" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="68"/>
-    <row r="10" ht="13.5" customHeight="1" s="68"/>
-    <row r="11" ht="13.5" customHeight="1" s="68">
-      <c r="I11" s="107" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="68">
-      <c r="I12" s="107" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="68">
-      <c r="I13" s="107" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="68">
-      <c r="I14" s="107" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="68">
-      <c r="I15" s="107" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="68"/>
+      <c r="C8" s="63" t="n"/>
+      <c r="E8" s="103" t="n"/>
+      <c r="F8" s="63" t="n"/>
+      <c r="G8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="64"/>
+    <row r="10" ht="13.5" customHeight="1" s="64"/>
+    <row r="11" ht="13.5" customHeight="1" s="64">
+      <c r="I11" s="103" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="64">
+      <c r="I12" s="103" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="64">
+      <c r="I13" s="103" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="64">
+      <c r="I14" s="103" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="64">
+      <c r="I15" s="103" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="64"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2634,297 +2606,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="67" min="2" max="2"/>
-    <col width="55" customWidth="1" style="67" min="8" max="8"/>
+    <col width="55" customWidth="1" style="63" min="2" max="2"/>
+    <col width="55" customWidth="1" style="63" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="68">
-      <c r="A1" s="120" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="64">
+      <c r="A1" s="116" t="inlineStr">
         <is>
           <t>(A) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="120" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="116" t="inlineStr">
         <is>
           <t>(A) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="68">
-      <c r="A2" s="120" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="64">
+      <c r="A2" s="116" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="120" t="inlineStr">
+      <c r="B2" s="116" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="120" t="inlineStr">
+      <c r="C2" s="116" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="120" t="inlineStr">
+      <c r="D2" s="116" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="120" t="inlineStr">
+      <c r="E2" s="116" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="120" t="n"/>
-      <c r="H2" s="120" t="n"/>
-      <c r="I2" s="120" t="n"/>
-      <c r="J2" s="120" t="n"/>
-      <c r="K2" s="120" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="68">
-      <c r="A3" s="107" t="n"/>
-      <c r="B3" s="107" t="inlineStr">
+      <c r="G2" s="116" t="n"/>
+      <c r="H2" s="116" t="n"/>
+      <c r="I2" s="116" t="n"/>
+      <c r="J2" s="116" t="n"/>
+      <c r="K2" s="116" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="64">
+      <c r="A3" s="103" t="n"/>
+      <c r="B3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="107" t="n">
+      <c r="C3" s="103" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="107" t="n"/>
-      <c r="E3" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="67" t="n"/>
-      <c r="G3" s="107" t="n"/>
-      <c r="H3" s="107" t="inlineStr">
+      <c r="D3" s="103" t="n"/>
+      <c r="E3" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="103" t="n"/>
+      <c r="H3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="123" t="n">
+      <c r="K3" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="68">
-      <c r="A4" s="107" t="n"/>
-      <c r="B4" s="121" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1" s="64">
+      <c r="A4" s="103" t="n"/>
+      <c r="B4" s="117" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="121" t="n">
+      <c r="C4" s="117" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="121" t="n"/>
-      <c r="E4" s="124" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="67" t="n"/>
-      <c r="G4" s="107" t="n"/>
-      <c r="H4" s="121" t="inlineStr">
+      <c r="D4" s="117" t="n"/>
+      <c r="E4" s="120" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="103" t="n"/>
+      <c r="H4" s="117" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="123" t="n">
+      <c r="K4" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="68">
-      <c r="A5" s="107" t="n"/>
-      <c r="B5" s="107" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="64">
+      <c r="A5" s="103" t="n"/>
+      <c r="B5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="107" t="n">
+      <c r="C5" s="103" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="107" t="n"/>
-      <c r="E5" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="67" t="n"/>
-      <c r="G5" s="107" t="n"/>
-      <c r="H5" s="107" t="inlineStr">
+      <c r="D5" s="103" t="n"/>
+      <c r="E5" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="63" t="n"/>
+      <c r="G5" s="103" t="n"/>
+      <c r="H5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="123" t="n">
+      <c r="K5" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="68">
-      <c r="A6" s="107" t="n"/>
-      <c r="B6" s="107" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="64">
+      <c r="A6" s="103" t="n"/>
+      <c r="B6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="67" t="n"/>
-      <c r="D6" s="107" t="n"/>
-      <c r="E6" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="67" t="n"/>
-      <c r="G6" s="107" t="n"/>
-      <c r="H6" s="107" t="inlineStr">
+      <c r="C6" s="63" t="n"/>
+      <c r="D6" s="103" t="n"/>
+      <c r="E6" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="103" t="n"/>
+      <c r="H6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="123" t="n">
+      <c r="K6" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="68">
-      <c r="A7" s="107" t="n"/>
-      <c r="B7" s="107" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="64">
+      <c r="A7" s="103" t="n"/>
+      <c r="B7" s="103" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="67" t="n"/>
-      <c r="D7" s="107" t="n"/>
-      <c r="E7" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="67" t="n"/>
-      <c r="G7" s="67" t="n"/>
-      <c r="H7" s="107" t="inlineStr">
+      <c r="C7" s="63" t="n"/>
+      <c r="D7" s="103" t="n"/>
+      <c r="E7" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="63" t="n"/>
+      <c r="G7" s="63" t="n"/>
+      <c r="H7" s="103" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="120" t="n"/>
-      <c r="K7" s="120" t="n">
+      <c r="J7" s="116" t="n"/>
+      <c r="K7" s="116" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="68">
-      <c r="A8" s="107" t="n"/>
-      <c r="B8" s="107" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="64">
+      <c r="A8" s="103" t="n"/>
+      <c r="B8" s="103" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="67" t="n"/>
-      <c r="D8" s="107" t="n"/>
-      <c r="E8" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="67" t="n"/>
-      <c r="G8" s="67" t="n"/>
-      <c r="H8" s="107" t="inlineStr">
+      <c r="C8" s="63" t="n"/>
+      <c r="D8" s="103" t="n"/>
+      <c r="E8" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="63" t="n"/>
+      <c r="G8" s="63" t="n"/>
+      <c r="H8" s="103" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="120" t="n"/>
-      <c r="K8" s="120" t="n">
+      <c r="J8" s="116" t="n"/>
+      <c r="K8" s="116" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="68">
-      <c r="B9" s="107" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="64">
+      <c r="B9" s="103" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="120" t="n"/>
-      <c r="E9" s="120" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="120" t="inlineStr">
+      <c r="D9" s="116" t="n"/>
+      <c r="E9" s="116" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="116" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="120" t="n">
+      <c r="K9" s="116" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="68">
-      <c r="B10" s="107" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="64">
+      <c r="B10" s="103" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="120" t="n"/>
-      <c r="E10" s="120" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="120" t="inlineStr">
+      <c r="D10" s="116" t="n"/>
+      <c r="E10" s="116" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="116" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="120" t="n">
+      <c r="K10" s="116" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="68">
-      <c r="D11" s="120" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="64">
+      <c r="D11" s="116" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="120" t="n">
+      <c r="E11" s="116" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="107" t="n"/>
-      <c r="J11" s="120" t="inlineStr">
+      <c r="I11" s="103" t="n"/>
+      <c r="J11" s="116" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="120" t="n">
+      <c r="K11" s="116" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="68">
-      <c r="D12" s="120" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="64">
+      <c r="D12" s="116" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="120" t="n">
+      <c r="E12" s="116" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="107" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="68">
-      <c r="D13" s="120" t="inlineStr">
+      <c r="I12" s="103" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="64">
+      <c r="D13" s="116" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="120" t="n">
+      <c r="E13" s="116" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="107" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="68">
-      <c r="I14" s="107" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="68">
-      <c r="I15" s="107" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="68">
-      <c r="D16" s="107" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="68"/>
+      <c r="I13" s="103" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="64">
+      <c r="I14" s="103" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="64">
+      <c r="I15" s="103" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="64">
+      <c r="D16" s="103" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="64"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2952,251 +2924,251 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.64" customWidth="1" style="67" min="3" max="3"/>
+    <col width="11.64" customWidth="1" style="63" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="68">
-      <c r="A1" s="125" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="64">
+      <c r="A1" s="121" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="125" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="121" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="68">
-      <c r="A2" s="125" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="64">
+      <c r="A2" s="121" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="125" t="inlineStr">
+      <c r="B2" s="121" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="125" t="inlineStr">
+      <c r="C2" s="121" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="125" t="inlineStr">
+      <c r="D2" s="121" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="125" t="inlineStr">
+      <c r="E2" s="121" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="68">
-      <c r="B3" s="107" t="inlineStr">
+    <row r="3" ht="13.5" customHeight="1" s="64">
+      <c r="B3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="107" t="n">
+      <c r="C3" s="103" t="n">
         <v>88565544</v>
       </c>
-      <c r="E3" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H3" s="120" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="68">
-      <c r="B4" s="121" t="inlineStr">
+      <c r="E3" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H3" s="116" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="64">
+      <c r="B4" s="117" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="121" t="n">
+      <c r="C4" s="117" t="n">
         <v>2224158</v>
       </c>
-      <c r="E4" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H4" s="107" t="inlineStr">
+      <c r="E4" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H4" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K4" s="123" t="n">
+      <c r="K4" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="68">
-      <c r="B5" s="107" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="64">
+      <c r="B5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="107" t="n">
+      <c r="C5" s="103" t="n">
         <v>585447148</v>
       </c>
-      <c r="E5" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H5" s="121" t="inlineStr">
+      <c r="E5" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H5" s="117" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K5" s="123" t="n">
+      <c r="K5" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="68">
-      <c r="B6" s="107" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="64">
+      <c r="B6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="E6" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H6" s="107" t="inlineStr">
+      <c r="E6" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H6" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K6" s="123" t="n">
+      <c r="K6" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="68">
-      <c r="B7" s="107" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="64">
+      <c r="B7" s="103" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="E7" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H7" s="107" t="inlineStr">
+      <c r="E7" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H7" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K7" s="123" t="n">
+      <c r="K7" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="68">
-      <c r="B8" s="107" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="64">
+      <c r="B8" s="103" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="E8" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H8" s="107" t="inlineStr">
+      <c r="E8" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H8" s="103" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="K8" s="123" t="n">
+      <c r="K8" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="68">
-      <c r="B9" s="107" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="64">
+      <c r="B9" s="103" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="E9" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H9" s="107" t="inlineStr">
+      <c r="E9" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H9" s="103" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="K9" s="123" t="n">
+      <c r="K9" s="119" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="68">
-      <c r="B10" s="107" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="64">
+      <c r="B10" s="103" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="E10" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="120" t="inlineStr">
+      <c r="E10" s="119" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="116" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K10" s="120" t="n">
+      <c r="K10" s="116" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="68">
-      <c r="D11" s="120" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="64">
+      <c r="D11" s="116" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="120" t="n">
+      <c r="E11" s="116" t="n">
         <v>1189.2</v>
       </c>
-      <c r="J11" s="120" t="inlineStr">
+      <c r="J11" s="116" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K11" s="120" t="n">
+      <c r="K11" s="116" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="68">
-      <c r="D12" s="120" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="64">
+      <c r="D12" s="116" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="120" t="n">
+      <c r="E12" s="116" t="n">
         <v>392</v>
       </c>
-      <c r="J12" s="120" t="inlineStr">
+      <c r="J12" s="116" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K12" s="120" t="n">
+      <c r="K12" s="116" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="68">
-      <c r="D13" s="120" t="inlineStr">
+    <row r="13" ht="13.5" customHeight="1" s="64">
+      <c r="D13" s="116" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="120" t="n">
+      <c r="E13" s="116" t="n">
         <v>797.2</v>
       </c>
     </row>
@@ -3221,507 +3193,56 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="55" customWidth="1" style="67" min="2" max="2"/>
-    <col width="13" customWidth="1" style="67" min="3" max="3"/>
-    <col width="55" customWidth="1" style="67" min="8" max="8"/>
-    <col width="13" customWidth="1" style="67" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="68">
-      <c r="A1" s="126" t="inlineStr">
-        <is>
-          <t>(Nome do Usuário) Atendimento Médico 04/11/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="126" t="inlineStr">
-        <is>
-          <t>(Nome do Usuário) Atendimento Psicológico 04/11/2024</t>
-        </is>
-      </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="68">
-      <c r="A2" s="126" t="inlineStr">
-        <is>
-          <t>Ordem</t>
-        </is>
-      </c>
-      <c r="B2" s="126" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C2" s="126" t="inlineStr">
-        <is>
-          <t>Renach</t>
-        </is>
-      </c>
-      <c r="D2" s="126" t="inlineStr">
-        <is>
-          <t>Reexames</t>
-        </is>
-      </c>
-      <c r="E2" s="126" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="G2" s="126" t="inlineStr">
-        <is>
-          <t>Ordem</t>
-        </is>
-      </c>
-      <c r="H2" s="126" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="I2" s="126" t="inlineStr">
-        <is>
-          <t>Renach</t>
-        </is>
-      </c>
-      <c r="J2" s="126" t="inlineStr">
-        <is>
-          <t>Reexames</t>
-        </is>
-      </c>
-      <c r="K2" s="126" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="68">
-      <c r="B3" s="107" t="inlineStr">
-        <is>
-          <t>joao</t>
-        </is>
-      </c>
-      <c r="C3" s="107" t="n">
-        <v>88565544</v>
-      </c>
-      <c r="E3" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H3" s="107" t="inlineStr">
-        <is>
-          <t>joao</t>
-        </is>
-      </c>
-      <c r="K3" s="123" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="68">
-      <c r="B4" s="121" t="inlineStr">
-        <is>
-          <t>pedro</t>
-        </is>
-      </c>
-      <c r="C4" s="121" t="n">
-        <v>2224158</v>
-      </c>
-      <c r="E4" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H4" s="121" t="inlineStr">
-        <is>
-          <t>pedro</t>
-        </is>
-      </c>
-      <c r="K4" s="123" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="68">
-      <c r="B5" s="107" t="inlineStr">
-        <is>
-          <t>evandro</t>
-        </is>
-      </c>
-      <c r="C5" s="107" t="n">
-        <v>585447148</v>
-      </c>
-      <c r="E5" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H5" s="107" t="inlineStr">
-        <is>
-          <t>evandro</t>
-        </is>
-      </c>
-      <c r="K5" s="123" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="68">
-      <c r="B6" s="107" t="inlineStr">
-        <is>
-          <t>leonar</t>
-        </is>
-      </c>
-      <c r="E6" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H6" s="107" t="inlineStr">
-        <is>
-          <t>leonar</t>
-        </is>
-      </c>
-      <c r="K6" s="123" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="68">
-      <c r="B7" s="107" t="inlineStr">
-        <is>
-          <t>gustavo</t>
-        </is>
-      </c>
-      <c r="E7" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H7" s="107" t="inlineStr">
-        <is>
-          <t>emanuelison</t>
-        </is>
-      </c>
-      <c r="K7" s="123" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="68">
-      <c r="B8" s="107" t="inlineStr">
-        <is>
-          <t>brother</t>
-        </is>
-      </c>
-      <c r="E8" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H8" s="107" t="inlineStr">
-        <is>
-          <t>patricio</t>
-        </is>
-      </c>
-      <c r="K8" s="123" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="68">
-      <c r="B9" s="107" t="inlineStr">
-        <is>
-          <t>abigobaldo</t>
-        </is>
-      </c>
-      <c r="E9" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="120" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
-      <c r="K9" s="120" t="n">
-        <v>1155.66</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="68">
-      <c r="B10" s="107" t="inlineStr">
-        <is>
-          <t>joaquin neto</t>
-        </is>
-      </c>
-      <c r="E10" s="123" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="120" t="inlineStr">
-        <is>
-          <t>Psicólogo</t>
-        </is>
-      </c>
-      <c r="K10" s="120" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="68">
-      <c r="D11" s="120" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
-      <c r="E11" s="120" t="n">
-        <v>1189.2</v>
-      </c>
-      <c r="J11" s="120" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="K11" s="120" t="n">
-        <v>774.66</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="68">
-      <c r="D12" s="120" t="inlineStr">
-        <is>
-          <t>Médico</t>
-        </is>
-      </c>
-      <c r="E12" s="120" t="n">
-        <v>392</v>
-      </c>
-      <c r="J12" s="120" t="n"/>
-      <c r="K12" s="120" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="68">
-      <c r="D13" s="120" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E13" s="120" t="n">
-        <v>797.2</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="68"/>
-    <row r="15" ht="13.5" customHeight="1" s="68">
-      <c r="J15" s="67" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="68">
-      <c r="I16" s="126" t="inlineStr">
-        <is>
-          <t>Atendimento Médico</t>
-        </is>
-      </c>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="126" t="n">
-        <v>1189.2</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="68">
-      <c r="I17" s="126" t="inlineStr">
-        <is>
-          <t>Atendimento Psicológico</t>
-        </is>
-      </c>
-      <c r="J17" s="71" t="n"/>
-      <c r="K17" s="126" t="n">
-        <v>1155.66</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="68">
-      <c r="I18" s="126" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J18" s="71" t="n"/>
-      <c r="K18" s="126" t="n">
-        <v>2344.86</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="68">
-      <c r="I19" s="126" t="n"/>
-      <c r="J19" s="71" t="n"/>
-      <c r="K19" s="126" t="n"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1" s="68">
-      <c r="I20" s="126" t="inlineStr">
-        <is>
-          <t>Pagamento Médico</t>
-        </is>
-      </c>
-      <c r="J20" s="71" t="n"/>
-      <c r="K20" s="126" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="68">
-      <c r="I21" s="126" t="inlineStr">
-        <is>
-          <t>Pagamento Psicológico</t>
-        </is>
-      </c>
-      <c r="J21" s="71" t="n"/>
-      <c r="K21" s="126" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="68">
-      <c r="I22" s="126" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
-      <c r="J22" s="71" t="n"/>
-      <c r="K22" s="126" t="n">
-        <v>1571.86</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="68"/>
-    <row r="24" ht="13.5" customHeight="1" s="68"/>
-    <row r="25" ht="13.5" customHeight="1" s="68"/>
-    <row r="26" ht="13.5" customHeight="1" s="68"/>
-    <row r="27" ht="13.5" customHeight="1" s="68"/>
-    <row r="28" ht="13.5" customHeight="1" s="68"/>
-    <row r="29" ht="13.5" customHeight="1" s="68"/>
-    <row r="30" ht="13.5" customHeight="1" s="68"/>
-    <row r="31" ht="13.5" customHeight="1" s="68"/>
-    <row r="32" ht="13.5" customHeight="1" s="68"/>
-    <row r="33" ht="13.5" customHeight="1" s="68"/>
-    <row r="34" ht="13.5" customHeight="1" s="68"/>
-    <row r="35" ht="13.5" customHeight="1" s="68"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-  </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="12" customWidth="1" style="67" min="1" max="1"/>
-    <col width="8" customWidth="1" style="67" min="2" max="2"/>
-    <col width="11" customWidth="1" style="67" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="67" t="n"/>
-      <c r="B1" s="67" t="n"/>
-      <c r="C1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="127" t="n"/>
-      <c r="B2" s="128" t="n"/>
-      <c r="C2" s="129" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="12" customWidth="1" style="64" min="1" max="1"/>
+    <col width="8" customWidth="1" style="64" min="2" max="2"/>
+    <col width="11" customWidth="1" style="64" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="63" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="B1" s="63" t="inlineStr">
+        <is>
+          <t>CONTAS</t>
+        </is>
+      </c>
+      <c r="C1" s="63" t="inlineStr">
+        <is>
+          <t>VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="122" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B2" s="123" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="C2" s="124" t="inlineStr">
+        <is>
+          <t>R$ 333.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3740,277 +3261,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.72" customWidth="1" style="67" min="2" max="2"/>
-    <col width="16.72" customWidth="1" style="67" min="3" max="3"/>
-    <col width="19.28" customWidth="1" style="67" min="5" max="5"/>
-    <col width="15.86" customWidth="1" style="67" min="10" max="10"/>
-    <col width="16.57" customWidth="1" style="67" min="11" max="11"/>
+    <col width="32.72" customWidth="1" style="63" min="2" max="2"/>
+    <col width="16.72" customWidth="1" style="63" min="3" max="3"/>
+    <col width="19.28" customWidth="1" style="63" min="5" max="5"/>
+    <col width="15.86" customWidth="1" style="63" min="10" max="10"/>
+    <col width="16.57" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="81" t="n"/>
-      <c r="B3" s="82" t="n"/>
-      <c r="D3" s="90" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="77" t="n"/>
+      <c r="B3" s="78" t="n"/>
+      <c r="D3" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="73">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="78" t="n"/>
-      <c r="J3" s="79" t="inlineStr">
+      <c r="I3" s="74" t="n"/>
+      <c r="J3" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="76">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="81" t="n"/>
-      <c r="D4" s="93" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="77" t="n"/>
+      <c r="D4" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="90">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="81" t="n"/>
-      <c r="H4" s="78" t="n"/>
-      <c r="I4" s="78" t="n"/>
-      <c r="J4" s="82" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="74" t="n"/>
+      <c r="I4" s="74" t="n"/>
+      <c r="J4" s="78" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="81" t="n"/>
-      <c r="D5" s="93" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="77" t="n"/>
+      <c r="D5" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="90">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="67" t="n"/>
-      <c r="H5" s="83" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="F6" s="67" t="n"/>
-      <c r="I6" s="84" t="inlineStr">
+      <c r="F5" s="63" t="n"/>
+      <c r="H5" s="79" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="F6" s="63" t="n"/>
+      <c r="I6" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="71" t="n"/>
-      <c r="K6" s="85" t="n">
+      <c r="J6" s="67" t="n"/>
+      <c r="K6" s="81" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="F7" s="67" t="n"/>
-      <c r="H7" s="67" t="n"/>
-      <c r="I7" s="84" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="F7" s="63" t="n"/>
+      <c r="H7" s="63" t="n"/>
+      <c r="I7" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="71" t="n"/>
+      <c r="J7" s="67" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="F8" s="67" t="n"/>
-      <c r="I8" s="86" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="F8" s="63" t="n"/>
+      <c r="I8" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="71" t="n"/>
-      <c r="K8" s="87" t="n">
+      <c r="J8" s="67" t="n"/>
+      <c r="K8" s="83" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="F9" s="67" t="n"/>
-      <c r="I9" s="84" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="F9" s="63" t="n"/>
+      <c r="I9" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="71" t="n"/>
+      <c r="J9" s="67" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="F10" s="67" t="n"/>
-      <c r="I10" s="84" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="F10" s="63" t="n"/>
+      <c r="I10" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="71" t="n"/>
-      <c r="K10" s="88" t="n">
+      <c r="J10" s="67" t="n"/>
+      <c r="K10" s="84" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="F11" s="67" t="n"/>
-      <c r="I11" s="84" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="F11" s="63" t="n"/>
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="71" t="n"/>
-      <c r="K11" s="88" t="n">
+      <c r="J11" s="67" t="n"/>
+      <c r="K11" s="84" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="F12" s="67" t="n"/>
-      <c r="I12" s="84" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="F12" s="63" t="n"/>
+      <c r="I12" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="71" t="n"/>
-      <c r="K12" s="89">
+      <c r="J12" s="67" t="n"/>
+      <c r="K12" s="85">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="F13" s="67" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="F13" s="63" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="91" t="inlineStr">
+      <c r="I13" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="71" t="n"/>
-      <c r="K13" s="92">
+      <c r="J13" s="67" t="n"/>
+      <c r="K13" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="F14" s="67" t="n"/>
-      <c r="I14" s="91" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="F14" s="63" t="n"/>
+      <c r="I14" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n"/>
-      <c r="K14" s="92">
+      <c r="J14" s="67" t="n"/>
+      <c r="K14" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="F15" s="67" t="n"/>
-      <c r="I15" s="95" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="F15" s="63" t="n"/>
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n"/>
-      <c r="K15" s="96">
+      <c r="J15" s="67" t="n"/>
+      <c r="K15" s="92">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="F16" s="67" t="n"/>
-      <c r="K16" s="82" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="F17" s="67" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="F18" s="67" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="F19" s="67" t="n"/>
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="F16" s="63" t="n"/>
+      <c r="K16" s="78" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="F17" s="63" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="F18" s="63" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="F19" s="63" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4047,499 +3568,499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.57" customWidth="1" style="67" min="2" max="2"/>
-    <col width="18" customWidth="1" style="67" min="3" max="3"/>
-    <col width="10.43" customWidth="1" style="67" min="5" max="5"/>
-    <col width="38.7" customWidth="1" style="67" min="8" max="8"/>
-    <col width="12.57" customWidth="1" style="67" min="10" max="10"/>
-    <col width="17.43" customWidth="1" style="67" min="11" max="11"/>
+    <col width="41.57" customWidth="1" style="63" min="2" max="2"/>
+    <col width="18" customWidth="1" style="63" min="3" max="3"/>
+    <col width="10.43" customWidth="1" style="63" min="5" max="5"/>
+    <col width="38.7" customWidth="1" style="63" min="8" max="8"/>
+    <col width="12.57" customWidth="1" style="63" min="10" max="10"/>
+    <col width="17.43" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="72" t="n">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="inlineStr">
+      <c r="B3" s="68" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="69" t="n">
+      <c r="C3" s="65" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="69" t="n"/>
-      <c r="E3" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="67" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="78" t="n"/>
-      <c r="J3" s="79" t="inlineStr">
+      <c r="I3" s="74" t="n"/>
+      <c r="J3" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="76">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="72" t="n">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="inlineStr">
+      <c r="B4" s="68" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="65" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="69" t="n"/>
-      <c r="E4" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="67" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="81" t="n"/>
-      <c r="H4" s="78" t="n"/>
-      <c r="I4" s="78" t="n"/>
-      <c r="J4" s="82" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="74" t="n"/>
+      <c r="I4" s="74" t="n"/>
+      <c r="J4" s="78" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="72" t="n">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="inlineStr">
+      <c r="B5" s="72" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="65" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="69" t="n"/>
-      <c r="E5" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="67" t="inlineStr">
+      <c r="D5" s="65" t="n"/>
+      <c r="E5" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="83" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="A6" s="72" t="n">
+      <c r="H5" s="79" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="A6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="inlineStr">
+      <c r="B6" s="68" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="65" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="67" t="inlineStr">
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="84" t="inlineStr">
+      <c r="I6" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="71" t="n"/>
-      <c r="K6" s="85" t="n">
+      <c r="J6" s="67" t="n"/>
+      <c r="K6" s="81" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="A7" s="72" t="n">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="A7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="inlineStr">
+      <c r="B7" s="68" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="65" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="69" t="n"/>
-      <c r="E7" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="67" t="inlineStr">
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="84" t="inlineStr">
+      <c r="I7" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="71" t="n"/>
+      <c r="J7" s="67" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="A8" s="72" t="n">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="A8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="65" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="67" t="inlineStr">
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="86" t="inlineStr">
+      <c r="I8" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="71" t="n"/>
-      <c r="K8" s="87">
+      <c r="J8" s="67" t="n"/>
+      <c r="K8" s="83">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="A9" s="72" t="n">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="A9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="inlineStr">
+      <c r="B9" s="68" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="65" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="69" t="n"/>
-      <c r="E9" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="D9" s="65" t="n"/>
+      <c r="E9" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="84" t="inlineStr">
+      <c r="I9" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="71" t="n"/>
+      <c r="J9" s="67" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="A10" s="72" t="n">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="A10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="72" t="inlineStr">
+      <c r="B10" s="68" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="65" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="75" t="n"/>
-      <c r="E10" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="D10" s="71" t="n"/>
+      <c r="E10" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="84" t="inlineStr">
+      <c r="I10" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="71" t="n"/>
-      <c r="K10" s="88" t="n">
+      <c r="J10" s="67" t="n"/>
+      <c r="K10" s="84" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="A11" s="72" t="n">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="A11" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="76" t="inlineStr">
+      <c r="B11" s="72" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="65" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="75" t="n"/>
-      <c r="E11" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="67" t="inlineStr">
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="84" t="inlineStr">
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="71" t="n"/>
-      <c r="K11" s="89">
+      <c r="J11" s="67" t="n"/>
+      <c r="K11" s="85">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="A12" s="72" t="n">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="A12" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="72" t="inlineStr">
+      <c r="B12" s="68" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="69" t="n">
+      <c r="C12" s="65" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="69" t="n"/>
-      <c r="E12" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="67" t="inlineStr">
+      <c r="D12" s="65" t="n"/>
+      <c r="E12" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="91" t="inlineStr">
+      <c r="I12" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="71" t="n"/>
-      <c r="K12" s="92">
+      <c r="J12" s="67" t="n"/>
+      <c r="K12" s="88">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="A13" s="72" t="n">
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="A13" s="68" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="inlineStr">
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="69" t="n">
+      <c r="C13" s="65" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="75" t="n"/>
-      <c r="E13" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="67" t="inlineStr">
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="91" t="inlineStr">
+      <c r="I13" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="71" t="n"/>
-      <c r="K13" s="92">
+      <c r="J13" s="67" t="n"/>
+      <c r="K13" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="A14" s="72" t="n">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="A14" s="68" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="72" t="inlineStr">
+      <c r="B14" s="68" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="69" t="n">
+      <c r="C14" s="65" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="75" t="n"/>
-      <c r="E14" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="67" t="inlineStr">
+      <c r="D14" s="71" t="n"/>
+      <c r="E14" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="95" t="inlineStr">
+      <c r="I14" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n"/>
-      <c r="K14" s="96">
+      <c r="J14" s="67" t="n"/>
+      <c r="K14" s="92">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="A15" s="81" t="n"/>
-      <c r="B15" s="82" t="n"/>
-      <c r="D15" s="90" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="A15" s="77" t="n"/>
+      <c r="B15" s="78" t="n"/>
+      <c r="D15" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="73">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="67" t="n"/>
-      <c r="K15" s="82" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="A16" s="81" t="n"/>
-      <c r="D16" s="93" t="inlineStr">
+      <c r="F15" s="63" t="n"/>
+      <c r="K15" s="78" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="A16" s="77" t="n"/>
+      <c r="D16" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="90">
         <f>49*12</f>
         <v/>
       </c>
-      <c r="F16" s="67" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="A17" s="81" t="n"/>
-      <c r="D17" s="93" t="inlineStr">
+      <c r="F16" s="63" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="A17" s="77" t="n"/>
+      <c r="D17" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="94" t="n">
+      <c r="E17" s="90" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F17" s="67" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="F18" s="67" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="F19" s="67" t="n"/>
+      <c r="F17" s="63" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="F18" s="63" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="F19" s="63" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4575,321 +4096,321 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.86" customWidth="1" style="67" min="5" max="5"/>
-    <col width="18.14" customWidth="1" style="67" min="10" max="10"/>
-    <col width="14" customWidth="1" style="67" min="11" max="11"/>
+    <col width="13.86" customWidth="1" style="63" min="5" max="5"/>
+    <col width="18.14" customWidth="1" style="63" min="10" max="10"/>
+    <col width="14" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="81" t="n"/>
-      <c r="B3" s="82" t="n"/>
-      <c r="D3" s="90" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="77" t="n"/>
+      <c r="B3" s="78" t="n"/>
+      <c r="D3" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="73">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="78" t="n"/>
-      <c r="J3" s="79" t="inlineStr">
+      <c r="I3" s="74" t="n"/>
+      <c r="J3" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="76">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="81" t="n"/>
-      <c r="D4" s="93" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="77" t="n"/>
+      <c r="D4" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="90">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="81" t="n"/>
-      <c r="H4" s="78" t="n"/>
-      <c r="I4" s="78" t="n"/>
-      <c r="J4" s="82" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="74" t="n"/>
+      <c r="I4" s="74" t="n"/>
+      <c r="J4" s="78" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="81" t="n"/>
-      <c r="D5" s="93" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="77" t="n"/>
+      <c r="D5" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="90">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="67" t="n"/>
-      <c r="H5" s="83" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="F6" s="67" t="n"/>
-      <c r="I6" s="84" t="inlineStr">
+      <c r="F5" s="63" t="n"/>
+      <c r="H5" s="79" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="F6" s="63" t="n"/>
+      <c r="I6" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="71" t="n"/>
-      <c r="K6" s="85" t="n">
+      <c r="J6" s="67" t="n"/>
+      <c r="K6" s="81" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="F7" s="67" t="n"/>
-      <c r="H7" s="67" t="n"/>
-      <c r="I7" s="84" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="F7" s="63" t="n"/>
+      <c r="H7" s="63" t="n"/>
+      <c r="I7" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="71" t="n"/>
+      <c r="J7" s="67" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="F8" s="67" t="n"/>
-      <c r="I8" s="86" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="F8" s="63" t="n"/>
+      <c r="I8" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="71" t="n"/>
-      <c r="K8" s="87" t="n">
+      <c r="J8" s="67" t="n"/>
+      <c r="K8" s="83" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="F9" s="67" t="n"/>
-      <c r="I9" s="84" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="F9" s="63" t="n"/>
+      <c r="I9" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="71" t="n"/>
+      <c r="J9" s="67" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="F10" s="67" t="n"/>
-      <c r="I10" s="84" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="F10" s="63" t="n"/>
+      <c r="I10" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="71" t="n"/>
-      <c r="K10" s="88" t="n">
+      <c r="J10" s="67" t="n"/>
+      <c r="K10" s="84" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="F11" s="67" t="n"/>
-      <c r="I11" s="84" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="F11" s="63" t="n"/>
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="71" t="n"/>
-      <c r="K11" s="88" t="n">
+      <c r="J11" s="67" t="n"/>
+      <c r="K11" s="84" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="F12" s="67" t="n"/>
-      <c r="I12" s="84" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="F12" s="63" t="n"/>
+      <c r="I12" s="80" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="71" t="n"/>
-      <c r="K12" s="88" t="n">
+      <c r="J12" s="67" t="n"/>
+      <c r="K12" s="84" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="F13" s="67" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="F13" s="63" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="84" t="inlineStr">
+      <c r="I13" s="80" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="71" t="n"/>
-      <c r="K13" s="88" t="n">
+      <c r="J13" s="67" t="n"/>
+      <c r="K13" s="84" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="F14" s="67" t="n"/>
-      <c r="I14" s="84" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="F14" s="63" t="n"/>
+      <c r="I14" s="80" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n"/>
-      <c r="K14" s="88" t="n">
+      <c r="J14" s="67" t="n"/>
+      <c r="K14" s="84" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="F15" s="67" t="n"/>
-      <c r="I15" s="84" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="F15" s="63" t="n"/>
+      <c r="I15" s="80" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n"/>
-      <c r="K15" s="88" t="n">
+      <c r="J15" s="67" t="n"/>
+      <c r="K15" s="84" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="F16" s="67" t="n"/>
-      <c r="I16" s="84" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="F16" s="63" t="n"/>
+      <c r="I16" s="80" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="88" t="n">
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="84" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="I17" s="84" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="I17" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="71" t="n"/>
-      <c r="K17" s="89">
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="85">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="I18" s="91" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="I18" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="71" t="n"/>
-      <c r="K18" s="92">
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="I19" s="91" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="I19" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="71" t="n"/>
-      <c r="K19" s="92">
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="68">
-      <c r="I20" s="95" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="64">
+      <c r="I20" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="71" t="n"/>
-      <c r="K20" s="96">
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="92">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="68">
-      <c r="K21" s="82" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="64">
+      <c r="K21" s="78" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4926,893 +4447,893 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="45.3" customWidth="1" style="67" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="67" min="3" max="3"/>
-    <col width="10.29" customWidth="1" style="67" min="5" max="5"/>
-    <col width="12.72" customWidth="1" style="67" min="6" max="6"/>
-    <col width="33.57" customWidth="1" style="67" min="8" max="8"/>
-    <col width="13.86" customWidth="1" style="67" min="9" max="9"/>
-    <col width="14.57" customWidth="1" style="67" min="11" max="11"/>
+    <col width="45.3" customWidth="1" style="63" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="63" min="3" max="3"/>
+    <col width="10.29" customWidth="1" style="63" min="5" max="5"/>
+    <col width="12.72" customWidth="1" style="63" min="6" max="6"/>
+    <col width="33.57" customWidth="1" style="63" min="8" max="8"/>
+    <col width="13.86" customWidth="1" style="63" min="9" max="9"/>
+    <col width="14.57" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="72" t="n">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="inlineStr">
+      <c r="B3" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="69" t="n">
+      <c r="C3" s="65" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="69" t="n"/>
-      <c r="E3" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="67" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="72" t="n">
+      <c r="G3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="74" t="inlineStr">
+      <c r="H3" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="69" t="n">
+      <c r="I3" s="65" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="69" t="n"/>
-      <c r="K3" s="69" t="n">
+      <c r="J3" s="65" t="n"/>
+      <c r="K3" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="67" t="inlineStr">
+      <c r="L3" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="72" t="n">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="inlineStr">
+      <c r="B4" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="65" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="69" t="n"/>
-      <c r="E4" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="67" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="72" t="n">
+      <c r="G4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="74" t="inlineStr">
+      <c r="H4" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="69" t="n">
+      <c r="I4" s="65" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="69" t="n"/>
-      <c r="K4" s="69" t="n">
+      <c r="J4" s="65" t="n"/>
+      <c r="K4" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="67" t="inlineStr">
+      <c r="L4" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="72" t="n">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="74" t="inlineStr">
+      <c r="B5" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="65" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="69" t="n"/>
-      <c r="E5" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="67" t="inlineStr">
+      <c r="D5" s="65" t="n"/>
+      <c r="E5" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="72" t="n">
+      <c r="G5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="74" t="inlineStr">
+      <c r="H5" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="69" t="n">
+      <c r="I5" s="65" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="69" t="n"/>
-      <c r="K5" s="69" t="n">
+      <c r="J5" s="65" t="n"/>
+      <c r="K5" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="67" t="inlineStr">
+      <c r="L5" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="A6" s="72" t="n">
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="A6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="74" t="inlineStr">
+      <c r="B6" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="65" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="67" t="inlineStr">
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="72" t="n">
+      <c r="G6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="74" t="inlineStr">
+      <c r="H6" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="69" t="n">
+      <c r="I6" s="65" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="69" t="n"/>
-      <c r="K6" s="69" t="n">
+      <c r="J6" s="65" t="n"/>
+      <c r="K6" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="67" t="inlineStr">
+      <c r="L6" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="A7" s="72" t="n">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="A7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="74" t="inlineStr">
+      <c r="B7" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="65" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="69" t="n"/>
-      <c r="E7" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="67" t="inlineStr">
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="72" t="n">
+      <c r="G7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="74" t="inlineStr">
+      <c r="H7" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="69" t="n">
+      <c r="I7" s="65" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="69" t="n"/>
-      <c r="K7" s="69" t="n">
+      <c r="J7" s="65" t="n"/>
+      <c r="K7" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="67" t="inlineStr">
+      <c r="L7" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="A8" s="72" t="n">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="A8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="inlineStr">
+      <c r="B8" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="65" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="67" t="inlineStr">
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="72" t="n">
+      <c r="G8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="74" t="inlineStr">
+      <c r="H8" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="69" t="n">
+      <c r="I8" s="65" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="69" t="n"/>
-      <c r="K8" s="69" t="n">
+      <c r="J8" s="65" t="n"/>
+      <c r="K8" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="67" t="inlineStr">
+      <c r="L8" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="A9" s="72" t="n">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="A9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="74" t="inlineStr">
+      <c r="B9" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="65" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="69" t="n"/>
-      <c r="E9" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="D9" s="65" t="n"/>
+      <c r="E9" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="72" t="n">
+      <c r="G9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="74" t="inlineStr">
+      <c r="H9" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="69" t="n">
+      <c r="I9" s="65" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="69" t="n"/>
-      <c r="K9" s="69" t="n">
+      <c r="J9" s="65" t="n"/>
+      <c r="K9" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="67" t="inlineStr">
+      <c r="L9" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="A10" s="72" t="n">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="A10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="74" t="inlineStr">
+      <c r="B10" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="65" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="69" t="n"/>
-      <c r="E10" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="72" t="n">
+      <c r="G10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="74" t="inlineStr">
+      <c r="H10" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="69" t="n">
+      <c r="I10" s="65" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="69" t="n"/>
-      <c r="K10" s="69" t="n">
+      <c r="J10" s="65" t="n"/>
+      <c r="K10" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="67" t="inlineStr">
+      <c r="L10" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="A11" s="72" t="n">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="A11" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="74" t="inlineStr">
+      <c r="B11" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="65" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="69" t="n"/>
-      <c r="E11" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="67" t="inlineStr">
+      <c r="D11" s="65" t="n"/>
+      <c r="E11" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="72" t="n">
+      <c r="G11" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="74" t="inlineStr">
+      <c r="H11" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="69" t="n">
+      <c r="I11" s="65" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="69" t="n"/>
-      <c r="K11" s="69" t="n">
+      <c r="J11" s="65" t="n"/>
+      <c r="K11" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="67" t="inlineStr">
+      <c r="L11" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="A12" s="72" t="n">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="A12" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="74" t="inlineStr">
+      <c r="B12" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="69" t="n">
+      <c r="C12" s="65" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="69" t="n"/>
-      <c r="E12" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="67" t="inlineStr">
+      <c r="D12" s="65" t="n"/>
+      <c r="E12" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="72" t="n">
+      <c r="G12" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="74" t="inlineStr">
+      <c r="H12" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="69" t="n">
+      <c r="I12" s="65" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="69" t="n"/>
-      <c r="K12" s="69" t="n">
+      <c r="J12" s="65" t="n"/>
+      <c r="K12" s="65" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="67" t="inlineStr">
+      <c r="L12" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="A13" s="72" t="n">
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="A13" s="68" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="74" t="inlineStr">
+      <c r="B13" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="69" t="n">
+      <c r="C13" s="65" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="69" t="n"/>
-      <c r="E13" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="67" t="inlineStr">
+      <c r="D13" s="65" t="n"/>
+      <c r="E13" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="78" t="n"/>
-      <c r="J13" s="79" t="inlineStr">
+      <c r="I13" s="74" t="n"/>
+      <c r="J13" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="80">
+      <c r="K13" s="76">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="A14" s="72" t="n">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="A14" s="68" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="inlineStr">
+      <c r="B14" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="69" t="n">
+      <c r="C14" s="65" t="n">
         <v>513760379</v>
       </c>
-      <c r="D14" s="69" t="n"/>
-      <c r="E14" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="67" t="inlineStr">
+      <c r="D14" s="65" t="n"/>
+      <c r="E14" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G14" s="81" t="n"/>
-      <c r="H14" s="78" t="n"/>
-      <c r="I14" s="78" t="n"/>
-      <c r="J14" s="82" t="n"/>
+      <c r="G14" s="77" t="n"/>
+      <c r="H14" s="74" t="n"/>
+      <c r="I14" s="74" t="n"/>
+      <c r="J14" s="78" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="A15" s="72" t="n">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="A15" s="68" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="74" t="inlineStr">
+      <c r="B15" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="69" t="n">
+      <c r="C15" s="65" t="n">
         <v>513782331</v>
       </c>
-      <c r="D15" s="69" t="n"/>
-      <c r="E15" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="67" t="inlineStr">
+      <c r="D15" s="65" t="n"/>
+      <c r="E15" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="83" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="A16" s="72" t="n">
+      <c r="H15" s="79" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="A16" s="68" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="74" t="inlineStr">
+      <c r="B16" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="69" t="n">
+      <c r="C16" s="65" t="n">
         <v>513775191</v>
       </c>
-      <c r="D16" s="69" t="n"/>
-      <c r="E16" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="67" t="inlineStr">
+      <c r="D16" s="65" t="n"/>
+      <c r="E16" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="84" t="inlineStr">
+      <c r="I16" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="85">
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="81">
         <f>E24</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="A17" s="72" t="n">
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="A17" s="68" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="74" t="inlineStr">
+      <c r="B17" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="69" t="n">
+      <c r="C17" s="65" t="n">
         <v>513790578</v>
       </c>
-      <c r="D17" s="69" t="n"/>
-      <c r="E17" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="67" t="inlineStr">
+      <c r="D17" s="65" t="n"/>
+      <c r="E17" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="63" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
       </c>
-      <c r="I17" s="84" t="inlineStr">
+      <c r="I17" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J17" s="71" t="n"/>
-      <c r="K17" s="85">
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="81">
         <f>K13</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="A18" s="72" t="n">
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="A18" s="68" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="74" t="inlineStr">
+      <c r="B18" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="69" t="n">
+      <c r="C18" s="65" t="n">
         <v>513721847</v>
       </c>
-      <c r="D18" s="69" t="n"/>
-      <c r="E18" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="67" t="inlineStr">
+      <c r="D18" s="65" t="n"/>
+      <c r="E18" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="86" t="inlineStr">
+      <c r="I18" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J18" s="71" t="n"/>
-      <c r="K18" s="87">
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="83">
         <f>K16+K17</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="A19" s="72" t="n">
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="A19" s="68" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="74" t="inlineStr">
+      <c r="B19" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="69" t="n">
+      <c r="C19" s="65" t="n">
         <v>513782693</v>
       </c>
-      <c r="D19" s="69" t="n"/>
-      <c r="E19" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="67" t="inlineStr">
+      <c r="D19" s="65" t="n"/>
+      <c r="E19" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="84" t="inlineStr">
+      <c r="I19" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J19" s="71" t="n"/>
+      <c r="J19" s="67" t="n"/>
       <c r="K19" s="21" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="68">
-      <c r="A20" s="72" t="n">
+    <row r="20" ht="15" customHeight="1" s="64">
+      <c r="A20" s="68" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="inlineStr">
+      <c r="B20" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="69" t="n">
+      <c r="C20" s="65" t="n">
         <v>513773401</v>
       </c>
-      <c r="D20" s="69" t="n"/>
-      <c r="E20" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="67" t="inlineStr">
+      <c r="D20" s="65" t="n"/>
+      <c r="E20" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="84" t="inlineStr">
+      <c r="I20" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J20" s="71" t="n"/>
-      <c r="K20" s="88">
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="84">
         <f>E25</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="68">
-      <c r="A21" s="72" t="n">
+    <row r="21" ht="15" customHeight="1" s="64">
+      <c r="A21" s="68" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="74" t="inlineStr">
+      <c r="B21" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="69" t="n">
+      <c r="C21" s="65" t="n">
         <v>513797287</v>
       </c>
-      <c r="D21" s="69" t="n"/>
-      <c r="E21" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="67" t="inlineStr">
+      <c r="D21" s="65" t="n"/>
+      <c r="E21" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I21" s="84" t="inlineStr">
+      <c r="I21" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J21" s="71" t="n"/>
-      <c r="K21" s="89">
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="85">
         <f>K18-K20-K19</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="68">
-      <c r="A22" s="72" t="n">
+    <row r="22" ht="15" customHeight="1" s="64">
+      <c r="A22" s="68" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="74" t="inlineStr">
+      <c r="B22" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="69" t="n">
+      <c r="C22" s="65" t="n">
         <v>14091389</v>
       </c>
-      <c r="D22" s="69" t="n"/>
-      <c r="E22" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="67" t="inlineStr">
+      <c r="D22" s="65" t="n"/>
+      <c r="E22" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="91" t="inlineStr">
+      <c r="I22" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J22" s="71" t="n"/>
-      <c r="K22" s="92">
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="88">
         <f>E3+E4+E5+E8+E10+E12+E13+E15+E16+48.65+E18+E19+E20+E21+E22+E23+K3+K4+K5+K6+K7+K8+K9+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="68">
-      <c r="A23" s="72" t="n">
+    <row r="23" ht="15" customHeight="1" s="64">
+      <c r="A23" s="68" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="74" t="inlineStr">
+      <c r="B23" s="70" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="97" t="n">
+      <c r="C23" s="93" t="n">
         <v>513791549</v>
       </c>
-      <c r="D23" s="69" t="n"/>
-      <c r="E23" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="67" t="inlineStr">
+      <c r="D23" s="65" t="n"/>
+      <c r="E23" s="65" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="91" t="inlineStr">
+      <c r="I23" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J23" s="71" t="n"/>
-      <c r="K23" s="92">
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="88">
         <f>E6+E14+100+K10</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="68">
-      <c r="A24" s="81" t="n"/>
-      <c r="B24" s="82" t="n"/>
-      <c r="D24" s="90" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="64">
+      <c r="A24" s="77" t="n"/>
+      <c r="B24" s="78" t="n"/>
+      <c r="D24" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="73">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23</f>
         <v/>
       </c>
-      <c r="I24" s="95" t="inlineStr">
+      <c r="I24" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J24" s="71" t="n"/>
-      <c r="K24" s="96">
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="92">
         <f>E7+E9+E11+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="68">
-      <c r="A25" s="81" t="n"/>
-      <c r="D25" s="93" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="64">
+      <c r="A25" s="77" t="n"/>
+      <c r="D25" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="90">
         <f>49*21</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="68">
-      <c r="A26" s="81" t="n"/>
-      <c r="D26" s="93" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="64">
+      <c r="A26" s="77" t="n"/>
+      <c r="D26" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="90">
         <f>E24-E25</f>
         <v/>
       </c>
@@ -5851,492 +5372,492 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.86" customWidth="1" style="67" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="67" min="3" max="3"/>
-    <col width="11.15" customWidth="1" style="67" min="5" max="5"/>
-    <col width="13.86" customWidth="1" style="67" min="10" max="10"/>
-    <col width="13.71" customWidth="1" style="67" min="11" max="11"/>
+    <col width="35.86" customWidth="1" style="63" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="63" min="3" max="3"/>
+    <col width="11.15" customWidth="1" style="63" min="5" max="5"/>
+    <col width="13.86" customWidth="1" style="63" min="10" max="10"/>
+    <col width="13.71" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="72" t="n">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="inlineStr">
+      <c r="B3" s="68" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="69" t="n">
+      <c r="C3" s="65" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="69" t="n"/>
-      <c r="E3" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="67" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="78" t="n"/>
-      <c r="J3" s="79" t="inlineStr">
+      <c r="I3" s="74" t="n"/>
+      <c r="J3" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="76">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="72" t="n">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="inlineStr">
+      <c r="B4" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="65" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="69" t="n"/>
-      <c r="E4" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="67" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="81" t="n"/>
-      <c r="H4" s="78" t="n"/>
-      <c r="I4" s="78" t="n"/>
-      <c r="J4" s="82" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="74" t="n"/>
+      <c r="I4" s="74" t="n"/>
+      <c r="J4" s="78" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="72" t="n">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="inlineStr">
+      <c r="B5" s="72" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="65" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="69" t="n"/>
-      <c r="E5" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="67" t="inlineStr">
+      <c r="D5" s="65" t="n"/>
+      <c r="E5" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="83" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="A6" s="72" t="n">
+      <c r="H5" s="79" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="A6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="inlineStr">
+      <c r="B6" s="68" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="65" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="67" t="inlineStr">
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="84" t="inlineStr">
+      <c r="I6" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="71" t="n"/>
-      <c r="K6" s="85">
+      <c r="J6" s="67" t="n"/>
+      <c r="K6" s="81">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="A7" s="72" t="n">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="A7" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="inlineStr">
+      <c r="B7" s="68" t="inlineStr">
         <is>
           <t>FENIX ALEXANDRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="65" t="n">
         <v>513701027</v>
       </c>
-      <c r="D7" s="69" t="n"/>
-      <c r="E7" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="67" t="inlineStr">
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H7" s="67" t="n"/>
-      <c r="I7" s="84" t="inlineStr">
+      <c r="H7" s="63" t="n"/>
+      <c r="I7" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="71" t="n"/>
+      <c r="J7" s="67" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="A8" s="72" t="n">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="A8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="72" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
         <is>
           <t>NORMA CELIA NOBRE DE CARVALHO</t>
         </is>
       </c>
-      <c r="C8" s="69" t="inlineStr">
+      <c r="C8" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve">513803911	</t>
         </is>
       </c>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="67" t="inlineStr">
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="86" t="inlineStr">
+      <c r="I8" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="71" t="n"/>
-      <c r="K8" s="87">
+      <c r="J8" s="67" t="n"/>
+      <c r="K8" s="83">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="A9" s="72" t="n">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="A9" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="inlineStr">
+      <c r="B9" s="68" t="inlineStr">
         <is>
           <t>ANA CRISTINA DE MATOS HORACIO</t>
         </is>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="65" t="n">
         <v>513757236</v>
       </c>
-      <c r="D9" s="69" t="n"/>
-      <c r="E9" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="D9" s="65" t="n"/>
+      <c r="E9" s="69" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I9" s="84" t="inlineStr">
+      <c r="I9" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="71" t="n"/>
+      <c r="J9" s="67" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="A10" s="72" t="n">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="A10" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="72" t="inlineStr">
+      <c r="B10" s="68" t="inlineStr">
         <is>
           <t>CLEIDE COSTA DOS SANTOS GALVAO</t>
         </is>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="65" t="n">
         <v>14085503</v>
       </c>
-      <c r="D10" s="75" t="n"/>
-      <c r="E10" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="D10" s="71" t="n"/>
+      <c r="E10" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" s="84" t="inlineStr">
+      <c r="I10" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="71" t="n"/>
-      <c r="K10" s="88" t="n">
+      <c r="J10" s="67" t="n"/>
+      <c r="K10" s="84" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="A11" s="72" t="n">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="A11" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="76" t="inlineStr">
+      <c r="B11" s="72" t="inlineStr">
         <is>
           <t>NEIDA GOMES FAGUNDES</t>
         </is>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="65" t="n">
         <v>513797034</v>
       </c>
-      <c r="D11" s="75" t="n"/>
-      <c r="E11" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="67" t="inlineStr">
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="84" t="inlineStr">
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="71" t="n"/>
-      <c r="K11" s="88" t="n">
+      <c r="J11" s="67" t="n"/>
+      <c r="K11" s="84" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="A12" s="72" t="n">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="A12" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="72" t="inlineStr">
+      <c r="B12" s="68" t="inlineStr">
         <is>
           <t>JONATAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="69" t="n">
+      <c r="C12" s="65" t="n">
         <v>513801412</v>
       </c>
-      <c r="D12" s="69" t="n"/>
-      <c r="E12" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="67" t="inlineStr">
+      <c r="D12" s="65" t="n"/>
+      <c r="E12" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="84" t="inlineStr">
+      <c r="I12" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="71" t="n"/>
-      <c r="K12" s="89">
+      <c r="J12" s="67" t="n"/>
+      <c r="K12" s="85">
         <f>K8-K10-K9-K11</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="A13" s="72" t="n">
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="A13" s="68" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="inlineStr">
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t>EDUARDO GOMES DE LIMA</t>
         </is>
       </c>
-      <c r="C13" s="69" t="n">
+      <c r="C13" s="65" t="n">
         <v>513789092</v>
       </c>
-      <c r="D13" s="75" t="n"/>
-      <c r="E13" s="77" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="67" t="inlineStr">
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="73" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="91" t="inlineStr">
+      <c r="I13" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="71" t="n"/>
-      <c r="K13" s="92">
+      <c r="J13" s="67" t="n"/>
+      <c r="K13" s="88">
         <f>E3+E4+E5+E6+E7+E9+E11+E12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="A14" s="81" t="n"/>
-      <c r="B14" s="82" t="n"/>
-      <c r="D14" s="90" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="A14" s="77" t="n"/>
+      <c r="B14" s="78" t="n"/>
+      <c r="D14" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="73">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v/>
       </c>
-      <c r="F14" s="67" t="n"/>
-      <c r="I14" s="91" t="inlineStr">
+      <c r="F14" s="63" t="n"/>
+      <c r="I14" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n"/>
-      <c r="K14" s="92">
+      <c r="J14" s="67" t="n"/>
+      <c r="K14" s="88">
         <f>E10</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="A15" s="81" t="n"/>
-      <c r="D15" s="93" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="A15" s="77" t="n"/>
+      <c r="D15" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="90">
         <f>49*11</f>
         <v/>
       </c>
-      <c r="F15" s="67" t="n"/>
-      <c r="I15" s="95" t="inlineStr">
+      <c r="F15" s="63" t="n"/>
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n"/>
-      <c r="K15" s="96">
+      <c r="J15" s="67" t="n"/>
+      <c r="K15" s="92">
         <f>E8+E13</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="A16" s="81" t="n"/>
-      <c r="D16" s="93" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="A16" s="77" t="n"/>
+      <c r="D16" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E16" s="94" t="n">
+      <c r="E16" s="90" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F16" s="67" t="n"/>
-      <c r="K16" s="82" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="F17" s="67" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="F18" s="67" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="F19" s="67" t="n"/>
+      <c r="F16" s="63" t="n"/>
+      <c r="K16" s="78" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="F17" s="63" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="F18" s="63" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="F19" s="63" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6373,662 +5894,662 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="43.72" customWidth="1" style="67" min="2" max="2"/>
-    <col width="14.29" customWidth="1" style="67" min="3" max="3"/>
-    <col width="11.57" customWidth="1" style="67" min="5" max="5"/>
-    <col width="30.57" customWidth="1" style="67" min="8" max="8"/>
-    <col width="10.91" customWidth="1" style="67" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="67" min="10" max="10"/>
-    <col width="12" customWidth="1" style="67" min="11" max="11"/>
+    <col width="43.72" customWidth="1" style="63" min="2" max="2"/>
+    <col width="14.29" customWidth="1" style="63" min="3" max="3"/>
+    <col width="11.57" customWidth="1" style="63" min="5" max="5"/>
+    <col width="30.57" customWidth="1" style="63" min="8" max="8"/>
+    <col width="10.91" customWidth="1" style="63" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="63" min="10" max="10"/>
+    <col width="12" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="98" t="n">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="94" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="inlineStr">
+      <c r="B3" s="95" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="100" t="n">
+      <c r="C3" s="96" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="99" t="n"/>
+      <c r="D3" s="95" t="n"/>
       <c r="E3" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F3" s="67" t="inlineStr">
+      <c r="F3" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="99" t="n">
+      <c r="G3" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="99" t="inlineStr">
+      <c r="H3" s="95" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="99" t="n">
+      <c r="I3" s="95" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="99" t="n"/>
+      <c r="J3" s="95" t="n"/>
       <c r="K3" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="67" t="inlineStr">
+      <c r="L3" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="98" t="n">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="99" t="inlineStr">
+      <c r="B4" s="95" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="100" t="n">
+      <c r="C4" s="96" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="99" t="n"/>
+      <c r="D4" s="95" t="n"/>
       <c r="E4" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F4" s="67" t="inlineStr">
+      <c r="F4" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="99" t="n">
+      <c r="G4" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="99" t="inlineStr">
+      <c r="H4" s="95" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="99" t="n">
+      <c r="I4" s="95" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="99" t="n"/>
+      <c r="J4" s="95" t="n"/>
       <c r="K4" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="67" t="inlineStr">
+      <c r="L4" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="98" t="n">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="94" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="99" t="inlineStr">
+      <c r="B5" s="95" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="100" t="n">
+      <c r="C5" s="96" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="99" t="n"/>
+      <c r="D5" s="95" t="n"/>
       <c r="E5" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F5" s="67" t="inlineStr">
+      <c r="F5" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="99" t="n">
+      <c r="G5" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="99" t="inlineStr">
+      <c r="H5" s="95" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="99" t="n">
+      <c r="I5" s="95" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="99" t="n"/>
+      <c r="J5" s="95" t="n"/>
       <c r="K5" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="67" t="inlineStr">
+      <c r="L5" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="A6" s="98" t="n">
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="A6" s="94" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="99" t="inlineStr">
+      <c r="B6" s="95" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="100" t="n">
+      <c r="C6" s="96" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="99" t="n"/>
+      <c r="D6" s="95" t="n"/>
       <c r="E6" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F6" s="67" t="inlineStr">
+      <c r="F6" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="99" t="n">
+      <c r="G6" s="95" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="99" t="inlineStr">
+      <c r="H6" s="95" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="99" t="n">
+      <c r="I6" s="95" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="99" t="n"/>
+      <c r="J6" s="95" t="n"/>
       <c r="K6" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="67" t="inlineStr">
+      <c r="L6" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="A7" s="98" t="n">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="A7" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="99" t="inlineStr">
+      <c r="B7" s="95" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="100" t="n">
+      <c r="C7" s="96" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="99" t="n"/>
+      <c r="D7" s="95" t="n"/>
       <c r="E7" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F7" s="67" t="inlineStr">
+      <c r="F7" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="99" t="n">
+      <c r="G7" s="95" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="99" t="inlineStr">
+      <c r="H7" s="95" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="99" t="n">
+      <c r="I7" s="95" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="99" t="n"/>
+      <c r="J7" s="95" t="n"/>
       <c r="K7" s="36" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="67" t="inlineStr">
+      <c r="L7" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="A8" s="98" t="n">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="A8" s="94" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="99" t="inlineStr">
+      <c r="B8" s="95" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="100" t="n">
+      <c r="C8" s="96" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="99" t="n"/>
+      <c r="D8" s="95" t="n"/>
       <c r="E8" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F8" s="67" t="inlineStr">
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="101" t="n"/>
-      <c r="I8" s="101" t="n"/>
-      <c r="J8" s="79" t="inlineStr">
+      <c r="H8" s="97" t="n"/>
+      <c r="I8" s="97" t="n"/>
+      <c r="J8" s="75" t="inlineStr">
         <is>
           <t>soma</t>
         </is>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="76">
         <f>K3+K4+K5+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="A9" s="98" t="n">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="A9" s="94" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="99" t="inlineStr">
+      <c r="B9" s="95" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="100" t="n">
+      <c r="C9" s="96" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="99" t="n"/>
+      <c r="D9" s="95" t="n"/>
       <c r="E9" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="F9" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="101" t="n"/>
-      <c r="J9" s="67" t="inlineStr">
+      <c r="H9" s="97" t="n"/>
+      <c r="J9" s="63" t="inlineStr">
         <is>
           <t>psicologo</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="A10" s="98" t="n">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="A10" s="94" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="99" t="inlineStr">
+      <c r="B10" s="95" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="100" t="n">
+      <c r="C10" s="96" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="99" t="n"/>
+      <c r="D10" s="95" t="n"/>
       <c r="E10" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="F10" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J10" s="67" t="inlineStr">
+      <c r="J10" s="63" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="A11" s="98" t="n">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="A11" s="94" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="99" t="inlineStr">
+      <c r="B11" s="95" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="100" t="n">
+      <c r="C11" s="96" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="102" t="n"/>
+      <c r="D11" s="98" t="n"/>
       <c r="E11" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F11" s="67" t="inlineStr">
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="A12" s="98" t="n">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="A12" s="94" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="99" t="inlineStr">
+      <c r="B12" s="95" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="100" t="n">
+      <c r="C12" s="96" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="102" t="n"/>
+      <c r="D12" s="98" t="n"/>
       <c r="E12" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F12" s="67" t="inlineStr">
+      <c r="F12" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="A13" s="98" t="n">
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="A13" s="94" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="99" t="inlineStr">
+      <c r="B13" s="95" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="100" t="n">
+      <c r="C13" s="96" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="102" t="n"/>
+      <c r="D13" s="98" t="n"/>
       <c r="E13" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F13" s="67" t="inlineStr">
+      <c r="F13" s="63" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="A14" s="98" t="n">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="A14" s="94" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="99" t="inlineStr">
+      <c r="B14" s="95" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="103" t="n">
+      <c r="C14" s="99" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="104" t="n"/>
+      <c r="D14" s="100" t="n"/>
       <c r="E14" s="36" t="n">
         <v>148.65</v>
       </c>
-      <c r="F14" s="67" t="inlineStr">
+      <c r="F14" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="A15" s="105" t="n">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="A15" s="101" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="105" t="inlineStr">
+      <c r="B15" s="101" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="106" t="n">
+      <c r="C15" s="102" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="107" t="n"/>
+      <c r="D15" s="103" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F15" s="67" t="inlineStr">
+      <c r="F15" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I15" s="84" t="inlineStr">
+      <c r="I15" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n"/>
-      <c r="K15" s="85">
+      <c r="J15" s="67" t="n"/>
+      <c r="K15" s="81">
         <f>E18</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="A16" s="105" t="n">
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="A16" s="101" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="105" t="inlineStr">
+      <c r="B16" s="101" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="106" t="n">
+      <c r="C16" s="102" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="107" t="n"/>
+      <c r="D16" s="103" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F16" s="67" t="inlineStr">
+      <c r="F16" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="84" t="inlineStr">
+      <c r="I16" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="85">
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="81">
         <f>K8</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="A17" s="105" t="n">
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="A17" s="101" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="105" t="inlineStr">
+      <c r="B17" s="101" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="106" t="n">
+      <c r="C17" s="102" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="107" t="n"/>
+      <c r="D17" s="103" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F17" s="67" t="inlineStr">
+      <c r="F17" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I17" s="86" t="inlineStr">
+      <c r="I17" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J17" s="71" t="n"/>
-      <c r="K17" s="87">
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="83">
         <f>K15+K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="D18" s="90" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="D18" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="73">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
         <v/>
       </c>
-      <c r="I18" s="84" t="inlineStr">
+      <c r="I18" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J18" s="71" t="n"/>
+      <c r="J18" s="67" t="n"/>
       <c r="K18" s="21" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="D19" s="93" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="D19" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="90">
         <f>49*15</f>
         <v/>
       </c>
-      <c r="I19" s="84" t="inlineStr">
+      <c r="I19" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J19" s="71" t="n"/>
-      <c r="K19" s="88" t="n">
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="84" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="68">
-      <c r="D20" s="93" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="64">
+      <c r="D20" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="90">
         <f>E18-E19</f>
         <v/>
       </c>
-      <c r="I20" s="84" t="inlineStr">
+      <c r="I20" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J20" s="71" t="n"/>
-      <c r="K20" s="89">
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="85">
         <f>K17-K19-K18</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="68">
-      <c r="I21" s="91" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="64">
+      <c r="I21" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J21" s="71" t="n"/>
-      <c r="K21" s="92">
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="88">
         <f>E3+E5+E7+E8+E11+E14+E15+E16+E17+K4</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="68">
-      <c r="I22" s="91" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="64">
+      <c r="I22" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J22" s="71" t="n"/>
-      <c r="K22" s="92">
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="88">
         <f>E4+E9+E12+E13+K3+K5</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="68">
-      <c r="I23" s="95" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="64">
+      <c r="I23" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J23" s="71" t="n"/>
-      <c r="K23" s="96">
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="92">
         <f>E6+E10+K6+K7</f>
         <v/>
       </c>
@@ -7067,277 +6588,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.72" customWidth="1" style="67" min="5" max="5"/>
-    <col width="31.15" customWidth="1" style="67" min="10" max="10"/>
-    <col width="13.86" customWidth="1" style="67" min="11" max="11"/>
+    <col width="11.72" customWidth="1" style="63" min="5" max="5"/>
+    <col width="31.15" customWidth="1" style="63" min="10" max="10"/>
+    <col width="13.86" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 16/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 16/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="69" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="69" t="inlineStr">
+      <c r="C2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="69" t="inlineStr">
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="69" t="inlineStr">
+      <c r="E2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="69" t="inlineStr">
+      <c r="H2" s="65" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="69" t="inlineStr">
+      <c r="I2" s="65" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="69" t="inlineStr">
+      <c r="J2" s="65" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="69" t="inlineStr">
+      <c r="K2" s="65" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="81" t="n"/>
-      <c r="B3" s="82" t="n"/>
-      <c r="D3" s="90" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="77" t="n"/>
+      <c r="B3" s="78" t="n"/>
+      <c r="D3" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="73">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="78" t="n"/>
-      <c r="J3" s="79" t="inlineStr">
+      <c r="I3" s="74" t="n"/>
+      <c r="J3" s="75" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="76">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="81" t="n"/>
-      <c r="D4" s="93" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="77" t="n"/>
+      <c r="D4" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="90">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="81" t="n"/>
-      <c r="H4" s="78" t="n"/>
-      <c r="I4" s="78" t="n"/>
-      <c r="J4" s="82" t="n"/>
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="74" t="n"/>
+      <c r="I4" s="74" t="n"/>
+      <c r="J4" s="78" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="81" t="n"/>
-      <c r="D5" s="93" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="77" t="n"/>
+      <c r="D5" s="89" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="90">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="67" t="n"/>
-      <c r="H5" s="83" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="F6" s="67" t="n"/>
-      <c r="I6" s="84" t="inlineStr">
+      <c r="F5" s="63" t="n"/>
+      <c r="H5" s="79" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="F6" s="63" t="n"/>
+      <c r="I6" s="80" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="71" t="n"/>
-      <c r="K6" s="85" t="n">
+      <c r="J6" s="67" t="n"/>
+      <c r="K6" s="81" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="F7" s="67" t="n"/>
-      <c r="H7" s="67" t="n"/>
-      <c r="I7" s="84" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="F7" s="63" t="n"/>
+      <c r="H7" s="63" t="n"/>
+      <c r="I7" s="80" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="71" t="n"/>
+      <c r="J7" s="67" t="n"/>
       <c r="K7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="F8" s="67" t="n"/>
-      <c r="I8" s="86" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="F8" s="63" t="n"/>
+      <c r="I8" s="82" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="71" t="n"/>
-      <c r="K8" s="87" t="n">
+      <c r="J8" s="67" t="n"/>
+      <c r="K8" s="83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="F9" s="67" t="n"/>
-      <c r="I9" s="84" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="F9" s="63" t="n"/>
+      <c r="I9" s="80" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="71" t="n"/>
+      <c r="J9" s="67" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="F10" s="67" t="n"/>
-      <c r="I10" s="84" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="F10" s="63" t="n"/>
+      <c r="I10" s="80" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="71" t="n"/>
-      <c r="K10" s="88" t="n">
+      <c r="J10" s="67" t="n"/>
+      <c r="K10" s="84" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="F11" s="67" t="n"/>
-      <c r="I11" s="84" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="F11" s="63" t="n"/>
+      <c r="I11" s="80" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 604 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J11" s="71" t="n"/>
-      <c r="K11" s="88" t="n">
+      <c r="J11" s="67" t="n"/>
+      <c r="K11" s="84" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="F12" s="67" t="n"/>
-      <c r="I12" s="84" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="F12" s="63" t="n"/>
+      <c r="I12" s="80" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 605 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J12" s="71" t="n"/>
-      <c r="K12" s="88" t="n">
+      <c r="J12" s="67" t="n"/>
+      <c r="K12" s="84" t="n">
         <v>64.81</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="F13" s="67" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="F13" s="63" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="84" t="inlineStr">
+      <c r="I13" s="80" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J13" s="71" t="n"/>
-      <c r="K13" s="89">
+      <c r="J13" s="67" t="n"/>
+      <c r="K13" s="85">
         <f>K8-K10-K9-K11-K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="F14" s="67" t="n"/>
-      <c r="I14" s="91" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="F14" s="63" t="n"/>
+      <c r="I14" s="87" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n"/>
-      <c r="K14" s="92">
+      <c r="J14" s="67" t="n"/>
+      <c r="K14" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="F15" s="67" t="n"/>
-      <c r="I15" s="91" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="F15" s="63" t="n"/>
+      <c r="I15" s="87" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n"/>
-      <c r="K15" s="92">
+      <c r="J15" s="67" t="n"/>
+      <c r="K15" s="88">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="F16" s="67" t="n"/>
-      <c r="I16" s="95" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="F16" s="63" t="n"/>
+      <c r="I16" s="91" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J16" s="71" t="n"/>
-      <c r="K16" s="96">
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="92">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="K17" s="82" t="n"/>
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="K17" s="78" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7375,556 +6896,556 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="37.3" customWidth="1" style="67" min="2" max="2"/>
-    <col width="11.72" customWidth="1" style="67" min="3" max="3"/>
-    <col width="8.699999999999999" customWidth="1" style="67" min="5" max="5"/>
-    <col width="29.3" customWidth="1" style="67" min="8" max="8"/>
-    <col width="15.44" customWidth="1" style="67" min="9" max="9"/>
-    <col width="22" customWidth="1" style="67" min="10" max="10"/>
-    <col width="8.33" customWidth="1" style="67" min="11" max="11"/>
+    <col width="37.3" customWidth="1" style="63" min="2" max="2"/>
+    <col width="11.72" customWidth="1" style="63" min="3" max="3"/>
+    <col width="8.699999999999999" customWidth="1" style="63" min="5" max="5"/>
+    <col width="29.3" customWidth="1" style="63" min="8" max="8"/>
+    <col width="15.44" customWidth="1" style="63" min="9" max="9"/>
+    <col width="22" customWidth="1" style="63" min="10" max="10"/>
+    <col width="8.33" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="68">
-      <c r="A1" s="69" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 17/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="70" t="n"/>
-      <c r="C1" s="70" t="n"/>
-      <c r="D1" s="70" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="G1" s="69" t="inlineStr">
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="G1" s="65" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 17/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="70" t="n"/>
-      <c r="I1" s="70" t="n"/>
-      <c r="J1" s="70" t="n"/>
-      <c r="K1" s="71" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="68">
-      <c r="A2" s="72" t="inlineStr">
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="67" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="64">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="72" t="inlineStr">
+      <c r="B2" s="68" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="72" t="inlineStr">
+      <c r="C2" s="68" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="72" t="inlineStr">
+      <c r="D2" s="68" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="72" t="inlineStr">
+      <c r="E2" s="68" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="67" t="n"/>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="F2" s="63" t="n"/>
+      <c r="G2" s="68" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="72" t="inlineStr">
+      <c r="H2" s="68" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="72" t="inlineStr">
+      <c r="I2" s="68" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="72" t="inlineStr">
+      <c r="J2" s="68" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="72" t="inlineStr">
+      <c r="K2" s="68" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="68">
-      <c r="A3" s="72" t="n"/>
-      <c r="B3" s="72" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="64">
+      <c r="A3" s="68" t="n"/>
+      <c r="B3" s="68" t="inlineStr">
         <is>
           <t>SOFIA ALMEIDA FERREIRA</t>
         </is>
       </c>
-      <c r="C3" s="69" t="inlineStr">
+      <c r="C3" s="65" t="inlineStr">
         <is>
           <t>513641554</t>
         </is>
       </c>
-      <c r="D3" s="69" t="n"/>
-      <c r="E3" s="73" t="n"/>
-      <c r="F3" s="67" t="inlineStr">
+      <c r="D3" s="65" t="n"/>
+      <c r="E3" s="69" t="n"/>
+      <c r="F3" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="67" t="n"/>
-      <c r="H3" s="67" t="inlineStr">
+      <c r="G3" s="63" t="n"/>
+      <c r="H3" s="63" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="I3" s="81" t="inlineStr">
+      <c r="I3" s="77" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="108" t="n"/>
-      <c r="K3" s="80" t="n"/>
-      <c r="L3" s="67" t="inlineStr">
+      <c r="J3" s="104" t="n"/>
+      <c r="K3" s="76" t="n"/>
+      <c r="L3" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="68">
-      <c r="A4" s="72" t="n"/>
-      <c r="B4" s="72" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="64">
+      <c r="A4" s="68" t="n"/>
+      <c r="B4" s="68" t="inlineStr">
         <is>
           <t>ANA CRISTINA LEONE RIOS</t>
         </is>
       </c>
-      <c r="C4" s="69" t="inlineStr">
+      <c r="C4" s="65" t="inlineStr">
         <is>
           <t>513835235</t>
         </is>
       </c>
-      <c r="D4" s="69" t="n"/>
-      <c r="E4" s="73" t="n"/>
-      <c r="F4" s="67" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="69" t="n"/>
+      <c r="F4" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="81" t="n"/>
-      <c r="H4" s="81" t="inlineStr">
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="77" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="I4" s="81" t="inlineStr">
+      <c r="I4" s="77" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="J4" s="82" t="n"/>
+      <c r="J4" s="78" t="n"/>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="67" t="inlineStr">
+      <c r="L4" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="68">
-      <c r="A5" s="72" t="n"/>
-      <c r="B5" s="76" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="64">
+      <c r="A5" s="68" t="n"/>
+      <c r="B5" s="72" t="inlineStr">
         <is>
           <t>ROBSON OLIVEIRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C5" s="69" t="inlineStr">
+      <c r="C5" s="65" t="inlineStr">
         <is>
           <t>513808652</t>
         </is>
       </c>
-      <c r="D5" s="69" t="n"/>
-      <c r="E5" s="73" t="n"/>
-      <c r="F5" s="67" t="inlineStr">
+      <c r="D5" s="65" t="n"/>
+      <c r="E5" s="69" t="n"/>
+      <c r="F5" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" s="67" t="n"/>
-      <c r="H5" s="81" t="n"/>
-      <c r="L5" s="67" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="68">
-      <c r="A6" s="72" t="n"/>
-      <c r="B6" s="72" t="inlineStr">
+      <c r="G5" s="63" t="n"/>
+      <c r="H5" s="77" t="n"/>
+      <c r="L5" s="63" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="64">
+      <c r="A6" s="68" t="n"/>
+      <c r="B6" s="68" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="69" t="inlineStr">
+      <c r="C6" s="65" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="D6" s="69" t="n"/>
-      <c r="E6" s="73" t="n"/>
-      <c r="F6" s="67" t="inlineStr">
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="69" t="n"/>
+      <c r="F6" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="67" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
+      <c r="G6" s="63" t="n"/>
+      <c r="H6" s="63" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="105" t="inlineStr">
+      <c r="I6" s="101" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="109" t="n"/>
-      <c r="K6" s="110" t="n"/>
-      <c r="L6" s="67" t="inlineStr">
+      <c r="J6" s="105" t="n"/>
+      <c r="K6" s="106" t="n"/>
+      <c r="L6" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="68">
-      <c r="A7" s="72" t="n"/>
-      <c r="B7" s="72" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="64">
+      <c r="A7" s="68" t="n"/>
+      <c r="B7" s="68" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="C7" s="69" t="inlineStr">
+      <c r="C7" s="65" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="D7" s="69" t="n"/>
-      <c r="E7" s="73" t="n"/>
-      <c r="F7" s="67" t="inlineStr">
+      <c r="D7" s="65" t="n"/>
+      <c r="E7" s="69" t="n"/>
+      <c r="F7" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="67" t="n"/>
-      <c r="I7" s="105" t="n"/>
-      <c r="J7" s="109" t="n"/>
+      <c r="G7" s="63" t="n"/>
+      <c r="I7" s="101" t="n"/>
+      <c r="J7" s="105" t="n"/>
       <c r="K7" s="47" t="n"/>
-      <c r="L7" s="67" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="68">
-      <c r="A8" s="72" t="n"/>
-      <c r="B8" s="72" t="inlineStr">
+      <c r="L7" s="63" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="64">
+      <c r="A8" s="68" t="n"/>
+      <c r="B8" s="68" t="inlineStr">
         <is>
           <t>MARIANNE ESPINDOLA LEFUNDES</t>
         </is>
       </c>
-      <c r="C8" s="69" t="inlineStr">
+      <c r="C8" s="65" t="inlineStr">
         <is>
           <t>513717741</t>
         </is>
       </c>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="73" t="n"/>
-      <c r="F8" s="67" t="inlineStr">
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="69" t="n"/>
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="67" t="n"/>
-      <c r="I8" s="105" t="n"/>
-      <c r="J8" s="109" t="n"/>
-      <c r="K8" s="87" t="n"/>
-      <c r="L8" s="67" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="68">
-      <c r="A9" s="72" t="n"/>
-      <c r="B9" s="72" t="n"/>
-      <c r="C9" s="69" t="n"/>
-      <c r="D9" s="69" t="n"/>
-      <c r="E9" s="73" t="n"/>
-      <c r="F9" s="67" t="n"/>
-      <c r="G9" s="67" t="n"/>
-      <c r="I9" s="105" t="n"/>
-      <c r="J9" s="109" t="n"/>
+      <c r="G8" s="63" t="n"/>
+      <c r="I8" s="101" t="n"/>
+      <c r="J8" s="105" t="n"/>
+      <c r="K8" s="83" t="n"/>
+      <c r="L8" s="63" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="64">
+      <c r="A9" s="68" t="n"/>
+      <c r="B9" s="68" t="n"/>
+      <c r="C9" s="65" t="n"/>
+      <c r="D9" s="65" t="n"/>
+      <c r="E9" s="69" t="n"/>
+      <c r="F9" s="63" t="n"/>
+      <c r="G9" s="63" t="n"/>
+      <c r="I9" s="101" t="n"/>
+      <c r="J9" s="105" t="n"/>
       <c r="K9" s="21" t="n"/>
-      <c r="L9" s="67" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="68">
-      <c r="A10" s="72" t="n"/>
-      <c r="B10" s="72" t="inlineStr">
+      <c r="L9" s="63" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="64">
+      <c r="A10" s="68" t="n"/>
+      <c r="B10" s="68" t="inlineStr">
         <is>
           <t>RENATA DE JESUS SALES</t>
         </is>
       </c>
-      <c r="C10" s="69" t="inlineStr">
+      <c r="C10" s="65" t="inlineStr">
         <is>
           <t>513831409</t>
         </is>
       </c>
-      <c r="D10" s="75" t="n"/>
-      <c r="E10" s="77" t="n"/>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="D10" s="71" t="n"/>
+      <c r="E10" s="73" t="n"/>
+      <c r="F10" s="63" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G10" s="67" t="n"/>
-      <c r="I10" s="105" t="n"/>
-      <c r="J10" s="109" t="n"/>
-      <c r="K10" s="88" t="n"/>
-      <c r="L10" s="67" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="68">
-      <c r="A11" s="72" t="n"/>
-      <c r="B11" s="76" t="inlineStr">
+      <c r="G10" s="63" t="n"/>
+      <c r="I10" s="101" t="n"/>
+      <c r="J10" s="105" t="n"/>
+      <c r="K10" s="84" t="n"/>
+      <c r="L10" s="63" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="64">
+      <c r="A11" s="68" t="n"/>
+      <c r="B11" s="72" t="inlineStr">
         <is>
           <t>ARTUR PRUST SALIBA</t>
         </is>
       </c>
-      <c r="C11" s="69" t="inlineStr">
+      <c r="C11" s="65" t="inlineStr">
         <is>
           <t>513753012</t>
         </is>
       </c>
-      <c r="D11" s="75" t="n"/>
-      <c r="E11" s="77" t="n"/>
-      <c r="F11" s="67" t="inlineStr">
+      <c r="D11" s="71" t="n"/>
+      <c r="E11" s="73" t="n"/>
+      <c r="F11" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="67" t="n"/>
-      <c r="I11" s="105" t="n"/>
-      <c r="J11" s="109" t="n"/>
-      <c r="K11" s="88" t="n"/>
-      <c r="L11" s="67" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="68">
-      <c r="A12" s="81" t="n"/>
-      <c r="B12" s="72" t="inlineStr">
+      <c r="G11" s="63" t="n"/>
+      <c r="I11" s="101" t="n"/>
+      <c r="J11" s="105" t="n"/>
+      <c r="K11" s="84" t="n"/>
+      <c r="L11" s="63" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="64">
+      <c r="A12" s="77" t="n"/>
+      <c r="B12" s="68" t="inlineStr">
         <is>
           <t>CAROLINA GALVAO BROCHADO DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="69" t="inlineStr">
+      <c r="C12" s="65" t="inlineStr">
         <is>
           <t>513830449</t>
         </is>
       </c>
-      <c r="D12" s="69" t="n"/>
-      <c r="E12" s="77" t="n"/>
-      <c r="F12" s="67" t="inlineStr">
+      <c r="D12" s="65" t="n"/>
+      <c r="E12" s="73" t="n"/>
+      <c r="F12" s="63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="67" t="n"/>
-      <c r="I12" s="105" t="n"/>
-      <c r="J12" s="109" t="n"/>
-      <c r="K12" s="88" t="n"/>
-      <c r="L12" s="67" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="68">
-      <c r="A13" s="81" t="n"/>
-      <c r="B13" s="72" t="inlineStr">
+      <c r="G12" s="63" t="n"/>
+      <c r="I12" s="101" t="n"/>
+      <c r="J12" s="105" t="n"/>
+      <c r="K12" s="84" t="n"/>
+      <c r="L12" s="63" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="64">
+      <c r="A13" s="77" t="n"/>
+      <c r="B13" s="68" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="C13" s="69" t="inlineStr">
+      <c r="C13" s="65" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="D13" s="75" t="n"/>
-      <c r="E13" s="77" t="n"/>
-      <c r="F13" s="67" t="inlineStr">
+      <c r="D13" s="71" t="n"/>
+      <c r="E13" s="73" t="n"/>
+      <c r="F13" s="63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="105" t="n"/>
-      <c r="J13" s="109" t="n"/>
-      <c r="K13" s="89" t="n"/>
-      <c r="L13" s="67" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="68">
-      <c r="A14" s="81" t="n"/>
-      <c r="B14" s="67" t="inlineStr">
+      <c r="I13" s="101" t="n"/>
+      <c r="J13" s="105" t="n"/>
+      <c r="K13" s="85" t="n"/>
+      <c r="L13" s="63" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="64">
+      <c r="A14" s="77" t="n"/>
+      <c r="B14" s="63" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C14" s="67" t="inlineStr">
+      <c r="C14" s="63" t="inlineStr">
         <is>
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="111" t="n"/>
-      <c r="E14" s="112" t="n"/>
-      <c r="F14" s="67" t="inlineStr">
+      <c r="D14" s="107" t="n"/>
+      <c r="E14" s="108" t="n"/>
+      <c r="F14" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G14" s="67" t="n"/>
-      <c r="I14" s="113" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="92" t="n"/>
-      <c r="L14" s="67" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="68">
-      <c r="A15" s="67" t="n"/>
-      <c r="B15" s="67" t="inlineStr">
+      <c r="G14" s="63" t="n"/>
+      <c r="I14" s="109" t="n"/>
+      <c r="J14" s="105" t="n"/>
+      <c r="K14" s="88" t="n"/>
+      <c r="L14" s="63" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="64">
+      <c r="A15" s="63" t="n"/>
+      <c r="B15" s="63" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C15" s="67" t="inlineStr">
+      <c r="C15" s="63" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D15" s="67" t="n"/>
-      <c r="F15" s="67" t="inlineStr">
+      <c r="D15" s="63" t="n"/>
+      <c r="F15" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G15" s="67" t="n"/>
-      <c r="I15" s="113" t="n"/>
-      <c r="J15" s="109" t="n"/>
-      <c r="K15" s="92" t="n"/>
-      <c r="L15" s="67" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="68">
-      <c r="A16" s="67" t="n"/>
-      <c r="D16" s="67" t="n"/>
-      <c r="F16" s="67" t="n"/>
-      <c r="G16" s="67" t="n"/>
-      <c r="I16" s="114" t="n"/>
-      <c r="J16" s="109" t="n"/>
-      <c r="K16" s="96" t="n"/>
-      <c r="L16" s="67" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="68">
-      <c r="A17" s="67" t="n"/>
-      <c r="D17" s="67" t="n"/>
-      <c r="F17" s="67" t="n"/>
-      <c r="G17" s="67" t="n"/>
-      <c r="K17" s="82" t="n"/>
-      <c r="L17" s="67" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="68">
-      <c r="A18" s="67" t="n"/>
-      <c r="D18" s="67" t="n"/>
-      <c r="F18" s="67" t="n"/>
-      <c r="G18" s="67" t="n"/>
-      <c r="L18" s="67" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="68">
-      <c r="A19" s="67" t="n"/>
-      <c r="D19" s="67" t="n"/>
-      <c r="F19" s="67" t="n"/>
-      <c r="G19" s="67" t="n"/>
-      <c r="L19" s="67" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="68">
-      <c r="A20" s="67" t="n"/>
-      <c r="D20" s="67" t="n"/>
-      <c r="F20" s="67" t="n"/>
-      <c r="G20" s="67" t="n"/>
-      <c r="L20" s="67" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="68">
-      <c r="A21" s="67" t="n"/>
-      <c r="D21" s="67" t="n"/>
-      <c r="F21" s="67" t="n"/>
-      <c r="G21" s="67" t="n"/>
-      <c r="L21" s="67" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="68">
-      <c r="A22" s="67" t="n"/>
-      <c r="D22" s="67" t="n"/>
-      <c r="F22" s="67" t="n"/>
-      <c r="G22" s="67" t="n"/>
-      <c r="L22" s="67" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="68">
-      <c r="A23" s="67" t="n"/>
-      <c r="D23" s="67" t="n"/>
-      <c r="F23" s="67" t="n"/>
-      <c r="G23" s="67" t="n"/>
-      <c r="L23" s="67" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="68">
-      <c r="A24" s="67" t="n"/>
-      <c r="D24" s="67" t="n"/>
-      <c r="F24" s="67" t="n"/>
-      <c r="G24" s="67" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="68">
-      <c r="A25" s="67" t="n"/>
-      <c r="D25" s="67" t="n"/>
-      <c r="F25" s="67" t="n"/>
-      <c r="G25" s="67" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="68">
-      <c r="A26" s="67" t="n"/>
-      <c r="D26" s="67" t="n"/>
-      <c r="F26" s="67" t="n"/>
-      <c r="G26" s="67" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="68">
-      <c r="A27" s="67" t="n"/>
-      <c r="D27" s="67" t="n"/>
-      <c r="F27" s="67" t="n"/>
-      <c r="G27" s="67" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="68">
-      <c r="A28" s="67" t="n"/>
-      <c r="D28" s="67" t="n"/>
-      <c r="F28" s="67" t="n"/>
-      <c r="G28" s="67" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="68">
-      <c r="A29" s="67" t="n"/>
-      <c r="D29" s="67" t="n"/>
-      <c r="F29" s="67" t="n"/>
-      <c r="G29" s="67" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="68">
-      <c r="A30" s="67" t="n"/>
-      <c r="D30" s="67" t="n"/>
-      <c r="F30" s="67" t="n"/>
-      <c r="G30" s="67" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="68">
-      <c r="A31" s="67" t="n"/>
-      <c r="D31" s="67" t="n"/>
-      <c r="F31" s="67" t="n"/>
-      <c r="G31" s="67" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="68">
-      <c r="A32" s="67" t="n"/>
-      <c r="D32" s="67" t="n"/>
-      <c r="F32" s="67" t="n"/>
-      <c r="G32" s="67" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="68">
-      <c r="A33" s="67" t="n"/>
-      <c r="D33" s="67" t="n"/>
-      <c r="F33" s="67" t="n"/>
-      <c r="G33" s="67" t="n"/>
+      <c r="G15" s="63" t="n"/>
+      <c r="I15" s="109" t="n"/>
+      <c r="J15" s="105" t="n"/>
+      <c r="K15" s="88" t="n"/>
+      <c r="L15" s="63" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="64">
+      <c r="A16" s="63" t="n"/>
+      <c r="D16" s="63" t="n"/>
+      <c r="F16" s="63" t="n"/>
+      <c r="G16" s="63" t="n"/>
+      <c r="I16" s="110" t="n"/>
+      <c r="J16" s="105" t="n"/>
+      <c r="K16" s="92" t="n"/>
+      <c r="L16" s="63" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="64">
+      <c r="A17" s="63" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="F17" s="63" t="n"/>
+      <c r="G17" s="63" t="n"/>
+      <c r="K17" s="78" t="n"/>
+      <c r="L17" s="63" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="64">
+      <c r="A18" s="63" t="n"/>
+      <c r="D18" s="63" t="n"/>
+      <c r="F18" s="63" t="n"/>
+      <c r="G18" s="63" t="n"/>
+      <c r="L18" s="63" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="64">
+      <c r="A19" s="63" t="n"/>
+      <c r="D19" s="63" t="n"/>
+      <c r="F19" s="63" t="n"/>
+      <c r="G19" s="63" t="n"/>
+      <c r="L19" s="63" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="64">
+      <c r="A20" s="63" t="n"/>
+      <c r="D20" s="63" t="n"/>
+      <c r="F20" s="63" t="n"/>
+      <c r="G20" s="63" t="n"/>
+      <c r="L20" s="63" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="64">
+      <c r="A21" s="63" t="n"/>
+      <c r="D21" s="63" t="n"/>
+      <c r="F21" s="63" t="n"/>
+      <c r="G21" s="63" t="n"/>
+      <c r="L21" s="63" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="64">
+      <c r="A22" s="63" t="n"/>
+      <c r="D22" s="63" t="n"/>
+      <c r="F22" s="63" t="n"/>
+      <c r="G22" s="63" t="n"/>
+      <c r="L22" s="63" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="64">
+      <c r="A23" s="63" t="n"/>
+      <c r="D23" s="63" t="n"/>
+      <c r="F23" s="63" t="n"/>
+      <c r="G23" s="63" t="n"/>
+      <c r="L23" s="63" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="64">
+      <c r="A24" s="63" t="n"/>
+      <c r="D24" s="63" t="n"/>
+      <c r="F24" s="63" t="n"/>
+      <c r="G24" s="63" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="64">
+      <c r="A25" s="63" t="n"/>
+      <c r="D25" s="63" t="n"/>
+      <c r="F25" s="63" t="n"/>
+      <c r="G25" s="63" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="64">
+      <c r="A26" s="63" t="n"/>
+      <c r="D26" s="63" t="n"/>
+      <c r="F26" s="63" t="n"/>
+      <c r="G26" s="63" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="64">
+      <c r="A27" s="63" t="n"/>
+      <c r="D27" s="63" t="n"/>
+      <c r="F27" s="63" t="n"/>
+      <c r="G27" s="63" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="64">
+      <c r="A28" s="63" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="63" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="64">
+      <c r="A29" s="63" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="F29" s="63" t="n"/>
+      <c r="G29" s="63" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="64">
+      <c r="A30" s="63" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="F30" s="63" t="n"/>
+      <c r="G30" s="63" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="64">
+      <c r="A31" s="63" t="n"/>
+      <c r="D31" s="63" t="n"/>
+      <c r="F31" s="63" t="n"/>
+      <c r="G31" s="63" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="64">
+      <c r="A32" s="63" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="63" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="64">
+      <c r="A33" s="63" t="n"/>
+      <c r="D33" s="63" t="n"/>
+      <c r="F33" s="63" t="n"/>
+      <c r="G33" s="63" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -1326,7 +1326,16 @@
           <t>C</t>
         </is>
       </c>
-      <c r="I11" s="74" t="n"/>
+      <c r="H11" s="63" t="inlineStr">
+        <is>
+          <t>POLIGLOTA</t>
+        </is>
+      </c>
+      <c r="I11" s="74" t="inlineStr">
+        <is>
+          <t>777777</t>
+        </is>
+      </c>
       <c r="J11" s="75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1335,6 +1344,11 @@
       <c r="K11" s="76">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
+      </c>
+      <c r="L11" s="63" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="64">
@@ -1578,7 +1592,16 @@
     </row>
     <row r="20" ht="15" customHeight="1" s="64">
       <c r="A20" s="77" t="n"/>
-      <c r="B20" s="78" t="n"/>
+      <c r="B20" s="78" t="inlineStr">
+        <is>
+          <t>POLIGLOTA</t>
+        </is>
+      </c>
+      <c r="C20" s="63" t="inlineStr">
+        <is>
+          <t>777777</t>
+        </is>
+      </c>
       <c r="D20" s="86" t="inlineStr">
         <is>
           <t>Soma</t>
@@ -1587,6 +1610,11 @@
       <c r="E20" s="73">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
+      </c>
+      <c r="F20" s="63" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
       <c r="I20" s="87" t="inlineStr">
         <is>
@@ -1601,6 +1629,16 @@
     </row>
     <row r="21" ht="15" customHeight="1" s="64">
       <c r="A21" s="77" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>JOAO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="D21" s="89" t="inlineStr">
         <is>
           <t>Medico</t>
@@ -1609,6 +1647,11 @@
       <c r="E21" s="90">
         <f>49*17</f>
         <v/>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
       <c r="G21" s="29" t="n"/>
       <c r="I21" s="87" t="inlineStr">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Planilha12" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Planilha13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Contas Fechamento" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="teste" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -32,10 +33,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -121,6 +122,21 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <charset val="1"/>
       <family val="1"/>
@@ -147,13 +163,6 @@
       <name val="Cambria"/>
       <charset val="1"/>
       <family val="0"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Cambria"/>
-      <charset val="1"/>
-      <family val="0"/>
       <sz val="11"/>
     </font>
     <font>
@@ -163,6 +172,15 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,6 +261,12 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -257,7 +281,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -354,9 +378,36 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -381,15 +432,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -414,38 +459,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -531,8 +582,53 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
@@ -585,47 +681,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -886,808 +982,838 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.57" customWidth="1" style="63" min="1" max="1"/>
-    <col width="36.14" customWidth="1" style="63" min="2" max="2"/>
-    <col width="13.14" customWidth="1" style="63" min="3" max="3"/>
-    <col width="11.43" customWidth="1" style="63" min="5" max="5"/>
-    <col width="12.57" customWidth="1" style="63" min="6" max="6"/>
-    <col width="45" customWidth="1" style="63" min="8" max="8"/>
-    <col width="14.43" customWidth="1" style="63" min="9" max="9"/>
-    <col width="11.86" customWidth="1" style="63" min="10" max="10"/>
-    <col width="13.43" customWidth="1" style="63" min="11" max="11"/>
+    <col width="6.57" customWidth="1" style="72" min="1" max="1"/>
+    <col width="36.14" customWidth="1" style="72" min="2" max="2"/>
+    <col width="13.14" customWidth="1" style="72" min="3" max="3"/>
+    <col width="11.43" customWidth="1" style="72" min="5" max="5"/>
+    <col width="12.57" customWidth="1" style="72" min="6" max="6"/>
+    <col width="45" customWidth="1" style="72" min="8" max="8"/>
+    <col width="14.43" customWidth="1" style="72" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="72" min="10" max="10"/>
+    <col width="13.43" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="68" t="n">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="77" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="C3" s="65" t="n">
+      <c r="C3" s="74" t="n">
         <v>513777451</v>
       </c>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="63" t="inlineStr">
+      <c r="D3" s="74" t="n"/>
+      <c r="E3" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G3" s="68" t="n">
+      <c r="G3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="70" t="inlineStr">
+      <c r="H3" s="79" t="inlineStr">
         <is>
           <t>ATANAEL PINTO SANTANA</t>
         </is>
       </c>
-      <c r="I3" s="65" t="n">
+      <c r="I3" s="74" t="n">
         <v>513777451</v>
       </c>
-      <c r="J3" s="71" t="n"/>
-      <c r="K3" s="71" t="n">
+      <c r="J3" s="80" t="n"/>
+      <c r="K3" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="63" t="inlineStr">
+      <c r="L3" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="68" t="n">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="77" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="74" t="n">
         <v>513700004</v>
       </c>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="D4" s="74" t="n"/>
+      <c r="E4" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="68" t="n">
+      <c r="G4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="70" t="inlineStr">
+      <c r="H4" s="79" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I4" s="65" t="n">
+      <c r="I4" s="74" t="n">
         <v>513700004</v>
       </c>
-      <c r="J4" s="71" t="n"/>
-      <c r="K4" s="71" t="n">
+      <c r="J4" s="80" t="n"/>
+      <c r="K4" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="63" t="inlineStr">
+      <c r="L4" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="68" t="n">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="inlineStr">
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="74" t="n">
         <v>513776719</v>
       </c>
-      <c r="D5" s="65" t="n"/>
-      <c r="E5" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="63" t="inlineStr">
+      <c r="D5" s="74" t="n"/>
+      <c r="E5" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="68" t="n">
+      <c r="G5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="70" t="inlineStr">
+      <c r="H5" s="79" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I5" s="65" t="n">
+      <c r="I5" s="74" t="n">
         <v>513758449</v>
       </c>
-      <c r="J5" s="71" t="n"/>
-      <c r="K5" s="71" t="n">
+      <c r="J5" s="80" t="n"/>
+      <c r="K5" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="63" t="inlineStr">
+      <c r="L5" s="72" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="A6" s="68" t="n">
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="A6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="inlineStr">
+      <c r="B6" s="77" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="74" t="n">
         <v>513758449</v>
       </c>
-      <c r="D6" s="65" t="n"/>
-      <c r="E6" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="63" t="inlineStr">
+      <c r="D6" s="74" t="n"/>
+      <c r="E6" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="72" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G6" s="68" t="n">
+      <c r="G6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="70" t="inlineStr">
+      <c r="H6" s="79" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="74" t="n">
         <v>513749220</v>
       </c>
-      <c r="J6" s="71" t="n"/>
-      <c r="K6" s="71" t="n">
+      <c r="J6" s="80" t="n"/>
+      <c r="K6" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="63" t="inlineStr">
+      <c r="L6" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="A7" s="68" t="n">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="A7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="inlineStr">
+      <c r="B7" s="77" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="74" t="n">
         <v>513749220</v>
       </c>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="D7" s="74" t="n"/>
+      <c r="E7" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="68" t="n">
+      <c r="G7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="70" t="inlineStr">
+      <c r="H7" s="79" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="65" t="n">
+      <c r="I7" s="74" t="n">
         <v>513754823</v>
       </c>
-      <c r="J7" s="71" t="n"/>
-      <c r="K7" s="71" t="n">
+      <c r="J7" s="80" t="n"/>
+      <c r="K7" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="63" t="inlineStr">
+      <c r="L7" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="A8" s="68" t="n">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="A8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="inlineStr">
+      <c r="B8" s="77" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="74" t="n">
         <v>513756797</v>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="D8" s="74" t="n"/>
+      <c r="E8" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="68" t="n">
+      <c r="G8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="68" t="inlineStr">
+      <c r="H8" s="77" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I8" s="65" t="n">
+      <c r="I8" s="74" t="n">
         <v>513781493</v>
       </c>
-      <c r="J8" s="71" t="n"/>
-      <c r="K8" s="71" t="n">
+      <c r="J8" s="80" t="n"/>
+      <c r="K8" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="63" t="inlineStr">
+      <c r="L8" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="A9" s="68" t="n">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="A9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="68" t="inlineStr">
+      <c r="B9" s="77" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="74" t="n">
         <v>513761848</v>
       </c>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="D9" s="74" t="n"/>
+      <c r="E9" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="68" t="n">
+      <c r="G9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="68" t="inlineStr">
+      <c r="H9" s="77" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I9" s="65" t="n">
+      <c r="I9" s="74" t="n">
         <v>513701260</v>
       </c>
-      <c r="J9" s="71" t="n"/>
-      <c r="K9" s="71" t="n">
+      <c r="J9" s="80" t="n"/>
+      <c r="K9" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="63" t="inlineStr">
+      <c r="L9" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="A10" s="68" t="n">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="A10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="68" t="inlineStr">
+      <c r="B10" s="77" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="74" t="n">
         <v>513778649</v>
       </c>
-      <c r="D10" s="71" t="n"/>
-      <c r="E10" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="63" t="inlineStr">
+      <c r="D10" s="80" t="n"/>
+      <c r="E10" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G10" s="68" t="n">
+      <c r="G10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="68" t="inlineStr">
+      <c r="H10" s="77" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I10" s="65" t="n">
+      <c r="I10" s="74" t="n">
         <v>513772028</v>
       </c>
-      <c r="J10" s="71" t="n"/>
-      <c r="K10" s="71" t="n">
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="80" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="63" t="inlineStr">
+      <c r="L10" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="A11" s="68" t="n">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="A11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="72" t="inlineStr">
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="74" t="n">
         <v>513720426</v>
       </c>
-      <c r="D11" s="71" t="n"/>
-      <c r="E11" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="63" t="inlineStr">
+      <c r="D11" s="80" t="n"/>
+      <c r="E11" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H11" s="63" t="inlineStr">
+      <c r="H11" s="72" t="inlineStr">
         <is>
           <t>POLIGLOTA</t>
         </is>
       </c>
-      <c r="I11" s="74" t="inlineStr">
+      <c r="I11" s="83" t="inlineStr">
         <is>
           <t>777777</t>
         </is>
       </c>
-      <c r="J11" s="75" t="inlineStr">
+      <c r="J11" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="85">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L11" s="63" t="inlineStr">
+      <c r="L11" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="A12" s="68" t="n">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="A12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="68" t="inlineStr">
+      <c r="B12" s="77" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="74" t="n">
         <v>513754823</v>
       </c>
-      <c r="D12" s="65" t="n"/>
-      <c r="E12" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="63" t="inlineStr">
+      <c r="D12" s="74" t="n"/>
+      <c r="E12" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="77" t="n"/>
-      <c r="H12" s="74" t="n"/>
-      <c r="I12" s="74" t="n"/>
-      <c r="J12" s="78" t="n"/>
+      <c r="G12" s="86" t="n"/>
+      <c r="H12" s="83" t="n"/>
+      <c r="I12" s="83" t="n"/>
+      <c r="J12" s="87" t="n"/>
       <c r="K12" s="14" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="A13" s="68" t="n">
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="A13" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="68" t="inlineStr">
+      <c r="B13" s="77" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C13" s="65" t="n">
+      <c r="C13" s="74" t="n">
         <v>513781493</v>
       </c>
-      <c r="D13" s="71" t="n"/>
-      <c r="E13" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="63" t="inlineStr">
+      <c r="D13" s="80" t="n"/>
+      <c r="E13" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H13" s="79" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="A14" s="68" t="n">
+      <c r="H13" s="88" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="A14" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="68" t="inlineStr">
+      <c r="B14" s="77" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C14" s="65" t="n">
+      <c r="C14" s="74" t="n">
         <v>513766860</v>
       </c>
-      <c r="D14" s="71" t="n"/>
-      <c r="E14" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="63" t="inlineStr">
+      <c r="D14" s="80" t="n"/>
+      <c r="E14" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I14" s="80" t="inlineStr">
+      <c r="I14" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J14" s="67" t="n"/>
-      <c r="K14" s="81" t="n">
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="90" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="A15" s="68" t="n">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="A15" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="68" t="inlineStr">
+      <c r="B15" s="77" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C15" s="65" t="n">
+      <c r="C15" s="74" t="n">
         <v>513701260</v>
       </c>
-      <c r="D15" s="71" t="n"/>
-      <c r="E15" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="63" t="inlineStr">
+      <c r="D15" s="80" t="n"/>
+      <c r="E15" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I15" s="80" t="inlineStr">
+      <c r="I15" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J15" s="67" t="n"/>
+      <c r="J15" s="76" t="n"/>
       <c r="K15" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="A16" s="68" t="n">
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="A16" s="77" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="68" t="inlineStr">
+      <c r="B16" s="77" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="C16" s="74" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D16" s="71" t="n"/>
-      <c r="E16" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="63" t="inlineStr">
+      <c r="D16" s="80" t="n"/>
+      <c r="E16" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="82" t="inlineStr">
+      <c r="I16" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J16" s="67" t="n"/>
-      <c r="K16" s="83" t="n">
+      <c r="J16" s="76" t="n"/>
+      <c r="K16" s="92" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="A17" s="68" t="n">
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="A17" s="77" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="68" t="inlineStr">
+      <c r="B17" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C17" s="65" t="n">
+      <c r="C17" s="74" t="n">
         <v>513772028</v>
       </c>
-      <c r="D17" s="71" t="n"/>
-      <c r="E17" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="63" t="inlineStr">
+      <c r="D17" s="80" t="n"/>
+      <c r="E17" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I17" s="80" t="inlineStr">
+      <c r="I17" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J17" s="67" t="n"/>
+      <c r="J17" s="76" t="n"/>
       <c r="K17" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="A18" s="68" t="n">
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="A18" s="77" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="68" t="inlineStr">
+      <c r="B18" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C18" s="65" t="n">
+      <c r="C18" s="74" t="n">
         <v>513753257</v>
       </c>
-      <c r="D18" s="71" t="n"/>
-      <c r="E18" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="63" t="inlineStr">
+      <c r="D18" s="80" t="n"/>
+      <c r="E18" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I18" s="80" t="inlineStr">
+      <c r="I18" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J18" s="67" t="n"/>
-      <c r="K18" s="84" t="n">
+      <c r="J18" s="76" t="n"/>
+      <c r="K18" s="93" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="A19" s="68" t="n">
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="A19" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="68" t="inlineStr">
+      <c r="B19" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C19" s="65" t="n">
+      <c r="C19" s="74" t="n">
         <v>513697796</v>
       </c>
-      <c r="D19" s="71" t="n"/>
-      <c r="E19" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="63" t="inlineStr">
+      <c r="D19" s="80" t="n"/>
+      <c r="E19" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="80" t="inlineStr">
+      <c r="I19" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J19" s="67" t="n"/>
-      <c r="K19" s="85">
+      <c r="J19" s="76" t="n"/>
+      <c r="K19" s="94">
         <f>K16-K18-K17</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="64">
-      <c r="A20" s="77" t="n"/>
-      <c r="B20" s="78" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="73">
+      <c r="A20" s="86" t="n"/>
+      <c r="B20" s="87" t="inlineStr">
         <is>
           <t>POLIGLOTA</t>
         </is>
       </c>
-      <c r="C20" s="63" t="inlineStr">
+      <c r="C20" s="72" t="inlineStr">
         <is>
           <t>777777</t>
         </is>
       </c>
-      <c r="D20" s="86" t="inlineStr">
+      <c r="D20" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="82">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="F20" s="63" t="inlineStr">
+      <c r="F20" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="87" t="inlineStr">
+      <c r="I20" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J20" s="67" t="n"/>
-      <c r="K20" s="88">
+      <c r="J20" s="76" t="n"/>
+      <c r="K20" s="97">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="64">
-      <c r="A21" s="77" t="n"/>
-      <c r="B21" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="73">
+      <c r="A21" s="86" t="n"/>
+      <c r="B21" s="72" t="inlineStr">
         <is>
           <t>JOAO</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="72" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D21" s="89" t="inlineStr">
+      <c r="D21" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="99">
         <f>49*17</f>
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="I21" s="87" t="inlineStr">
+      <c r="I21" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J21" s="67" t="n"/>
-      <c r="K21" s="88">
+      <c r="J21" s="76" t="n"/>
+      <c r="K21" s="97">
         <f>300+E14</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="64">
-      <c r="A22" s="77" t="n"/>
-      <c r="D22" s="89" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="73">
+      <c r="A22" s="86" t="n"/>
+      <c r="B22" s="72" t="inlineStr">
+        <is>
+          <t>LLLLL</t>
+        </is>
+      </c>
+      <c r="C22" s="72" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="D22" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E22" s="90" t="n">
+      <c r="E22" s="99" t="n">
         <v>1444.1</v>
       </c>
-      <c r="I22" s="91" t="inlineStr">
+      <c r="F22" s="72" t="inlineStr">
+        <is>
+          <t>D: 100 | P: 60</t>
+        </is>
+      </c>
+      <c r="I22" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J22" s="67" t="n"/>
-      <c r="K22" s="92">
+      <c r="J22" s="76" t="n"/>
+      <c r="K22" s="101">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="64">
-      <c r="K23" s="78" t="n"/>
+    <row r="23" ht="15" customHeight="1" s="73">
+      <c r="B23" s="72" t="inlineStr">
+        <is>
+          <t>LUCIANO</t>
+        </is>
+      </c>
+      <c r="C23" s="72" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="F23" s="72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K23" s="87" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1723,713 +1849,713 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48.04" customWidth="1" style="63" min="2" max="2"/>
-    <col width="12.13" customWidth="1" style="63" min="3" max="3"/>
-    <col width="41.17" customWidth="1" style="63" min="8" max="8"/>
-    <col width="10.54" customWidth="1" style="63" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="63" min="11" max="11"/>
+    <col width="48.04" customWidth="1" style="72" min="2" max="2"/>
+    <col width="12.13" customWidth="1" style="72" min="3" max="3"/>
+    <col width="41.17" customWidth="1" style="72" min="8" max="8"/>
+    <col width="10.54" customWidth="1" style="72" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="F1" s="63" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="F1" s="72" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="63" t="n"/>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="F2" s="72" t="n"/>
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="64">
-      <c r="A3" s="68" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="73">
+      <c r="A3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="111" t="inlineStr">
+      <c r="B3" s="135" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="65" t="inlineStr">
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="78" t="inlineStr">
+      <c r="D3" s="74" t="n"/>
+      <c r="E3" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="68" t="n"/>
-      <c r="H3" s="112" t="inlineStr">
+      <c r="G3" s="77" t="n"/>
+      <c r="H3" s="136" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="65" t="inlineStr">
+      <c r="I3" s="74" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="65" t="n"/>
-      <c r="K3" s="65" t="n">
+      <c r="J3" s="74" t="n"/>
+      <c r="K3" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="78" t="inlineStr">
+      <c r="L3" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="64">
-      <c r="A4" s="68" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="73">
+      <c r="A4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="112" t="inlineStr">
+      <c r="B4" s="136" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="74" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="78" t="inlineStr">
+      <c r="D4" s="74" t="n"/>
+      <c r="E4" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="68" t="n"/>
-      <c r="H4" s="113" t="inlineStr">
+      <c r="G4" s="77" t="n"/>
+      <c r="H4" s="137" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="65" t="n">
+      <c r="I4" s="74" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n">
+      <c r="J4" s="74" t="n"/>
+      <c r="K4" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="78" t="inlineStr">
+      <c r="L4" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="64">
-      <c r="A5" s="68" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="73">
+      <c r="A5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="113" t="inlineStr">
+      <c r="B5" s="137" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="74" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="65" t="n"/>
-      <c r="E5" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="78" t="inlineStr">
+      <c r="D5" s="74" t="n"/>
+      <c r="E5" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="87" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="68" t="n"/>
-      <c r="H5" s="113" t="inlineStr">
+      <c r="G5" s="77" t="n"/>
+      <c r="H5" s="137" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="65" t="n">
+      <c r="I5" s="74" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="65" t="n"/>
-      <c r="K5" s="65" t="n">
+      <c r="J5" s="74" t="n"/>
+      <c r="K5" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="78" t="inlineStr">
+      <c r="L5" s="87" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="64">
-      <c r="A6" s="68" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="73">
+      <c r="A6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="114" t="inlineStr">
+      <c r="B6" s="138" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="74" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="65" t="n"/>
-      <c r="E6" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="78" t="inlineStr">
+      <c r="D6" s="74" t="n"/>
+      <c r="E6" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="68" t="n"/>
-      <c r="H6" s="113" t="inlineStr">
+      <c r="G6" s="77" t="n"/>
+      <c r="H6" s="137" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="74" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n">
+      <c r="J6" s="74" t="n"/>
+      <c r="K6" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="78" t="inlineStr">
+      <c r="L6" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="64">
-      <c r="A7" s="68" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="73">
+      <c r="A7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="113" t="inlineStr">
+      <c r="B7" s="137" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="74" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="78" t="inlineStr">
+      <c r="D7" s="74" t="n"/>
+      <c r="E7" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="68" t="n"/>
-      <c r="H7" s="113" t="inlineStr">
+      <c r="G7" s="77" t="n"/>
+      <c r="H7" s="137" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="65" t="n">
+      <c r="I7" s="74" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="65" t="n"/>
-      <c r="K7" s="65" t="n">
+      <c r="J7" s="74" t="n"/>
+      <c r="K7" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="78" t="inlineStr">
+      <c r="L7" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="64">
-      <c r="A8" s="68" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="73">
+      <c r="A8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="114" t="inlineStr">
+      <c r="B8" s="138" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="74" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="78" t="inlineStr">
+      <c r="D8" s="74" t="n"/>
+      <c r="E8" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="87" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="68" t="n"/>
-      <c r="H8" s="113" t="inlineStr">
+      <c r="G8" s="77" t="n"/>
+      <c r="H8" s="137" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="65" t="n">
+      <c r="I8" s="74" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n">
+      <c r="J8" s="74" t="n"/>
+      <c r="K8" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="78" t="inlineStr">
+      <c r="L8" s="87" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="64">
-      <c r="A9" s="68" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="73">
+      <c r="A9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="113" t="inlineStr">
+      <c r="B9" s="137" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="74" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="78" t="inlineStr">
+      <c r="D9" s="74" t="n"/>
+      <c r="E9" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="68" t="n"/>
-      <c r="H9" s="113" t="inlineStr">
+      <c r="G9" s="77" t="n"/>
+      <c r="H9" s="137" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="65" t="n">
+      <c r="I9" s="74" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="65" t="n"/>
-      <c r="K9" s="65" t="n">
+      <c r="J9" s="74" t="n"/>
+      <c r="K9" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="78" t="inlineStr">
+      <c r="L9" s="87" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="64">
-      <c r="A10" s="68" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="73">
+      <c r="A10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="113" t="inlineStr">
+      <c r="B10" s="137" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="74" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="65" t="n"/>
-      <c r="E10" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="78" t="inlineStr">
+      <c r="D10" s="74" t="n"/>
+      <c r="E10" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="68" t="n"/>
-      <c r="H10" s="70" t="inlineStr">
+      <c r="G10" s="77" t="n"/>
+      <c r="H10" s="79" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="65" t="inlineStr">
+      <c r="I10" s="74" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n">
+      <c r="J10" s="74" t="n"/>
+      <c r="K10" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="78" t="inlineStr">
+      <c r="L10" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="64">
-      <c r="A11" s="68" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="73">
+      <c r="A11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="113" t="inlineStr">
+      <c r="B11" s="137" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="74" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="65" t="n"/>
-      <c r="E11" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="78" t="inlineStr">
+      <c r="D11" s="74" t="n"/>
+      <c r="E11" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="68" t="n"/>
-      <c r="H11" s="70" t="inlineStr">
+      <c r="G11" s="77" t="n"/>
+      <c r="H11" s="79" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="65" t="inlineStr">
+      <c r="I11" s="74" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="65" t="n"/>
-      <c r="K11" s="65" t="n">
+      <c r="J11" s="74" t="n"/>
+      <c r="K11" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="78" t="inlineStr">
+      <c r="L11" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="64">
-      <c r="A12" s="68" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="73">
+      <c r="A12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="113" t="inlineStr">
+      <c r="B12" s="137" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="74" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="65" t="n"/>
-      <c r="E12" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="78" t="inlineStr">
+      <c r="D12" s="74" t="n"/>
+      <c r="E12" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="68" t="n"/>
-      <c r="H12" s="70" t="n"/>
-      <c r="I12" s="65" t="n"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n">
+      <c r="G12" s="77" t="n"/>
+      <c r="H12" s="79" t="n"/>
+      <c r="I12" s="74" t="n"/>
+      <c r="J12" s="74" t="n"/>
+      <c r="K12" s="74" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="78" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="64">
-      <c r="A13" s="68" t="n">
+      <c r="L12" s="87" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="73">
+      <c r="A13" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="113" t="inlineStr">
+      <c r="B13" s="137" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="65" t="n">
+      <c r="C13" s="74" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="78" t="inlineStr">
+      <c r="D13" s="74" t="n"/>
+      <c r="E13" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="78" t="n"/>
-      <c r="H13" s="78" t="n"/>
-      <c r="I13" s="74" t="n"/>
-      <c r="J13" s="75" t="inlineStr">
+      <c r="G13" s="87" t="n"/>
+      <c r="H13" s="87" t="n"/>
+      <c r="I13" s="83" t="n"/>
+      <c r="J13" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="85">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="64">
-      <c r="A14" s="68" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="73">
+      <c r="A14" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="113" t="inlineStr">
+      <c r="B14" s="137" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="65" t="n">
+      <c r="C14" s="74" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="65" t="n"/>
-      <c r="E14" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="78" t="inlineStr">
+      <c r="D14" s="74" t="n"/>
+      <c r="E14" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="87" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="77" t="n"/>
-      <c r="H14" s="74" t="n"/>
-      <c r="I14" s="74" t="n"/>
-      <c r="J14" s="78" t="n"/>
+      <c r="G14" s="86" t="n"/>
+      <c r="H14" s="83" t="n"/>
+      <c r="I14" s="83" t="n"/>
+      <c r="J14" s="87" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="64">
-      <c r="A15" s="68" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="73">
+      <c r="A15" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="113" t="inlineStr">
+      <c r="B15" s="137" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="65" t="n">
+      <c r="C15" s="74" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="65" t="n"/>
-      <c r="E15" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="78" t="inlineStr">
+      <c r="D15" s="74" t="n"/>
+      <c r="E15" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="87" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="79" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="64">
-      <c r="A16" s="68" t="n">
+      <c r="H15" s="88" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="73">
+      <c r="A16" s="77" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="70" t="n"/>
-      <c r="C16" s="65" t="n"/>
-      <c r="D16" s="65" t="n"/>
-      <c r="E16" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="78" t="n"/>
-      <c r="I16" s="80" t="n"/>
-      <c r="J16" s="67" t="n"/>
-      <c r="K16" s="81" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="64">
-      <c r="A17" s="68" t="n">
+      <c r="B16" s="79" t="n"/>
+      <c r="C16" s="74" t="n"/>
+      <c r="D16" s="74" t="n"/>
+      <c r="E16" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="87" t="n"/>
+      <c r="I16" s="89" t="n"/>
+      <c r="J16" s="76" t="n"/>
+      <c r="K16" s="90" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="73">
+      <c r="A17" s="77" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="70" t="n"/>
-      <c r="C17" s="65" t="n"/>
-      <c r="D17" s="65" t="n"/>
-      <c r="E17" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="78" t="n"/>
-      <c r="I17" s="80" t="n"/>
-      <c r="J17" s="67" t="n"/>
-      <c r="K17" s="81" t="n"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="64">
-      <c r="A18" s="68" t="n">
+      <c r="B17" s="79" t="n"/>
+      <c r="C17" s="74" t="n"/>
+      <c r="D17" s="74" t="n"/>
+      <c r="E17" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="87" t="n"/>
+      <c r="I17" s="89" t="n"/>
+      <c r="J17" s="76" t="n"/>
+      <c r="K17" s="90" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="73">
+      <c r="A18" s="77" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="70" t="n"/>
-      <c r="C18" s="65" t="n"/>
-      <c r="D18" s="65" t="n"/>
-      <c r="E18" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="78" t="n"/>
-      <c r="I18" s="82" t="n"/>
-      <c r="J18" s="67" t="n"/>
-      <c r="K18" s="83" t="n"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="64">
-      <c r="A19" s="68" t="n">
+      <c r="B18" s="79" t="n"/>
+      <c r="C18" s="74" t="n"/>
+      <c r="D18" s="74" t="n"/>
+      <c r="E18" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="87" t="n"/>
+      <c r="I18" s="91" t="n"/>
+      <c r="J18" s="76" t="n"/>
+      <c r="K18" s="92" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="73">
+      <c r="A19" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="70" t="n"/>
-      <c r="C19" s="65" t="n"/>
-      <c r="D19" s="65" t="n"/>
-      <c r="E19" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="78" t="n"/>
-      <c r="I19" s="80" t="n"/>
-      <c r="J19" s="67" t="n"/>
+      <c r="B19" s="79" t="n"/>
+      <c r="C19" s="74" t="n"/>
+      <c r="D19" s="74" t="n"/>
+      <c r="E19" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="87" t="n"/>
+      <c r="I19" s="89" t="n"/>
+      <c r="J19" s="76" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="64">
-      <c r="A20" s="68" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="73">
+      <c r="A20" s="77" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="70" t="n"/>
-      <c r="C20" s="65" t="n"/>
-      <c r="D20" s="65" t="n"/>
-      <c r="E20" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="78" t="n"/>
-      <c r="I20" s="80" t="n"/>
-      <c r="J20" s="67" t="n"/>
-      <c r="K20" s="84" t="n"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="64">
-      <c r="A21" s="68" t="n">
+      <c r="B20" s="79" t="n"/>
+      <c r="C20" s="74" t="n"/>
+      <c r="D20" s="74" t="n"/>
+      <c r="E20" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="87" t="n"/>
+      <c r="I20" s="89" t="n"/>
+      <c r="J20" s="76" t="n"/>
+      <c r="K20" s="93" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="73">
+      <c r="A21" s="77" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="70" t="n"/>
-      <c r="C21" s="65" t="n"/>
-      <c r="D21" s="65" t="n"/>
-      <c r="E21" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="78" t="n"/>
-      <c r="I21" s="80" t="n"/>
-      <c r="J21" s="67" t="n"/>
-      <c r="K21" s="85" t="n"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="64">
-      <c r="A22" s="68" t="n">
+      <c r="B21" s="79" t="n"/>
+      <c r="C21" s="74" t="n"/>
+      <c r="D21" s="74" t="n"/>
+      <c r="E21" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="87" t="n"/>
+      <c r="I21" s="89" t="n"/>
+      <c r="J21" s="76" t="n"/>
+      <c r="K21" s="94" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="73">
+      <c r="A22" s="77" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="70" t="n"/>
-      <c r="C22" s="65" t="n"/>
-      <c r="D22" s="65" t="n"/>
-      <c r="E22" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="78" t="n"/>
-      <c r="I22" s="87" t="n"/>
-      <c r="J22" s="67" t="n"/>
-      <c r="K22" s="88" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="64">
-      <c r="A23" s="68" t="n">
+      <c r="B22" s="79" t="n"/>
+      <c r="C22" s="74" t="n"/>
+      <c r="D22" s="74" t="n"/>
+      <c r="E22" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="87" t="n"/>
+      <c r="I22" s="96" t="n"/>
+      <c r="J22" s="76" t="n"/>
+      <c r="K22" s="97" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="73">
+      <c r="A23" s="77" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="70" t="n"/>
-      <c r="C23" s="115" t="n"/>
-      <c r="D23" s="65" t="n"/>
-      <c r="E23" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="78" t="n"/>
+      <c r="B23" s="79" t="n"/>
+      <c r="C23" s="139" t="n"/>
+      <c r="D23" s="74" t="n"/>
+      <c r="E23" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="87" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="87" t="n"/>
-      <c r="J23" s="67" t="n"/>
-      <c r="K23" s="88" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="64">
-      <c r="A24" s="77" t="n"/>
-      <c r="B24" s="78" t="n"/>
-      <c r="D24" s="86" t="n"/>
-      <c r="E24" s="73" t="n"/>
-      <c r="F24" s="63" t="n"/>
-      <c r="I24" s="91" t="n"/>
-      <c r="J24" s="67" t="n"/>
-      <c r="K24" s="92" t="n"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="64">
-      <c r="A25" s="77" t="n"/>
-      <c r="D25" s="89" t="n"/>
-      <c r="E25" s="90" t="n"/>
-      <c r="F25" s="63" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="64">
-      <c r="A26" s="77" t="n"/>
-      <c r="D26" s="89" t="n"/>
-      <c r="E26" s="90" t="n"/>
-      <c r="F26" s="63" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="64"/>
+      <c r="I23" s="96" t="n"/>
+      <c r="J23" s="76" t="n"/>
+      <c r="K23" s="97" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="73">
+      <c r="A24" s="86" t="n"/>
+      <c r="B24" s="87" t="n"/>
+      <c r="D24" s="95" t="n"/>
+      <c r="E24" s="82" t="n"/>
+      <c r="F24" s="72" t="n"/>
+      <c r="I24" s="100" t="n"/>
+      <c r="J24" s="76" t="n"/>
+      <c r="K24" s="101" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="73">
+      <c r="A25" s="86" t="n"/>
+      <c r="D25" s="98" t="n"/>
+      <c r="E25" s="99" t="n"/>
+      <c r="F25" s="72" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="73">
+      <c r="A26" s="86" t="n"/>
+      <c r="D26" s="98" t="n"/>
+      <c r="E26" s="99" t="n"/>
+      <c r="F26" s="72" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="73"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2472,150 +2598,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="63" min="2" max="2"/>
-    <col width="9.92" customWidth="1" style="63" min="4" max="4"/>
-    <col width="55" customWidth="1" style="63" min="8" max="8"/>
+    <col width="55" customWidth="1" style="72" min="2" max="2"/>
+    <col width="9.92" customWidth="1" style="72" min="4" max="4"/>
+    <col width="55" customWidth="1" style="72" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="64">
-      <c r="A1" s="116" t="n"/>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="116" t="n"/>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="64">
-      <c r="A2" s="116" t="n"/>
-      <c r="B2" s="116" t="n"/>
-      <c r="C2" s="116" t="n"/>
-      <c r="D2" s="116" t="n"/>
-      <c r="E2" s="116" t="n"/>
-      <c r="G2" s="116" t="n"/>
-      <c r="H2" s="116" t="n"/>
-      <c r="I2" s="116" t="n"/>
-      <c r="J2" s="116" t="n"/>
-      <c r="K2" s="116" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="64">
-      <c r="A3" s="103" t="n"/>
-      <c r="B3" s="103" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="73">
+      <c r="A1" s="140" t="n"/>
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="140" t="n"/>
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="73">
+      <c r="A2" s="140" t="n"/>
+      <c r="B2" s="140" t="n"/>
+      <c r="C2" s="140" t="n"/>
+      <c r="D2" s="140" t="n"/>
+      <c r="E2" s="140" t="n"/>
+      <c r="G2" s="140" t="n"/>
+      <c r="H2" s="140" t="n"/>
+      <c r="I2" s="140" t="n"/>
+      <c r="J2" s="140" t="n"/>
+      <c r="K2" s="140" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="73">
+      <c r="A3" s="127" t="n"/>
+      <c r="B3" s="127" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="63" t="n"/>
-      <c r="E3" s="103" t="n"/>
-      <c r="F3" s="63" t="n"/>
-      <c r="G3" s="103" t="n"/>
-      <c r="H3" s="103" t="inlineStr">
+      <c r="C3" s="72" t="n"/>
+      <c r="E3" s="127" t="n"/>
+      <c r="F3" s="72" t="n"/>
+      <c r="G3" s="127" t="n"/>
+      <c r="H3" s="127" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="103" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="64">
-      <c r="A4" s="103" t="n"/>
-      <c r="B4" s="117" t="inlineStr">
+      <c r="K3" s="127" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="73">
+      <c r="A4" s="127" t="n"/>
+      <c r="B4" s="141" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="118" t="n"/>
-      <c r="D4" s="118" t="n"/>
-      <c r="E4" s="117" t="n"/>
-      <c r="F4" s="63" t="n"/>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="117" t="inlineStr">
+      <c r="C4" s="142" t="n"/>
+      <c r="D4" s="142" t="n"/>
+      <c r="E4" s="141" t="n"/>
+      <c r="F4" s="72" t="n"/>
+      <c r="G4" s="127" t="n"/>
+      <c r="H4" s="141" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="103" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="64">
-      <c r="A5" s="103" t="n"/>
-      <c r="B5" s="103" t="inlineStr">
+      <c r="K4" s="127" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="73">
+      <c r="A5" s="127" t="n"/>
+      <c r="B5" s="127" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="63" t="n"/>
-      <c r="E5" s="103" t="n"/>
-      <c r="F5" s="63" t="n"/>
-      <c r="G5" s="103" t="n"/>
-      <c r="H5" s="103" t="inlineStr">
+      <c r="C5" s="72" t="n"/>
+      <c r="E5" s="127" t="n"/>
+      <c r="F5" s="72" t="n"/>
+      <c r="G5" s="127" t="n"/>
+      <c r="H5" s="127" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="103" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="64">
-      <c r="A6" s="103" t="n"/>
-      <c r="B6" s="103" t="inlineStr">
+      <c r="K5" s="127" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="73">
+      <c r="A6" s="127" t="n"/>
+      <c r="B6" s="127" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="63" t="n"/>
-      <c r="E6" s="103" t="n"/>
-      <c r="F6" s="63" t="n"/>
-      <c r="G6" s="103" t="n"/>
-      <c r="H6" s="103" t="inlineStr">
+      <c r="C6" s="72" t="n"/>
+      <c r="E6" s="127" t="n"/>
+      <c r="F6" s="72" t="n"/>
+      <c r="G6" s="127" t="n"/>
+      <c r="H6" s="127" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="103" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="64">
-      <c r="A7" s="103" t="n"/>
-      <c r="B7" s="103" t="inlineStr">
+      <c r="K6" s="127" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="73">
+      <c r="A7" s="127" t="n"/>
+      <c r="B7" s="127" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="63" t="n"/>
-      <c r="E7" s="103" t="n"/>
-      <c r="F7" s="63" t="n"/>
-      <c r="G7" s="63" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="64">
-      <c r="A8" s="103" t="n"/>
-      <c r="B8" s="103" t="inlineStr">
+      <c r="C7" s="72" t="n"/>
+      <c r="E7" s="127" t="n"/>
+      <c r="F7" s="72" t="n"/>
+      <c r="G7" s="72" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="73">
+      <c r="A8" s="127" t="n"/>
+      <c r="B8" s="127" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="63" t="n"/>
-      <c r="E8" s="103" t="n"/>
-      <c r="F8" s="63" t="n"/>
-      <c r="G8" s="63" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="64"/>
-    <row r="10" ht="13.5" customHeight="1" s="64"/>
-    <row r="11" ht="13.5" customHeight="1" s="64">
-      <c r="I11" s="103" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="64">
-      <c r="I12" s="103" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="64">
-      <c r="I13" s="103" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="64">
-      <c r="I14" s="103" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="64">
-      <c r="I15" s="103" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="64"/>
+      <c r="C8" s="72" t="n"/>
+      <c r="E8" s="127" t="n"/>
+      <c r="F8" s="72" t="n"/>
+      <c r="G8" s="72" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="73"/>
+    <row r="10" ht="13.5" customHeight="1" s="73"/>
+    <row r="11" ht="13.5" customHeight="1" s="73">
+      <c r="I11" s="127" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="73">
+      <c r="I12" s="127" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="73">
+      <c r="I13" s="127" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="73">
+      <c r="I14" s="127" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="73">
+      <c r="I15" s="127" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="73"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2649,297 +2775,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="63" min="2" max="2"/>
-    <col width="55" customWidth="1" style="63" min="8" max="8"/>
+    <col width="55" customWidth="1" style="72" min="2" max="2"/>
+    <col width="55" customWidth="1" style="72" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="64">
-      <c r="A1" s="116" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="73">
+      <c r="A1" s="140" t="inlineStr">
         <is>
           <t>(A) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="116" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="140" t="inlineStr">
         <is>
           <t>(A) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="64">
-      <c r="A2" s="116" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="73">
+      <c r="A2" s="140" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="116" t="inlineStr">
+      <c r="B2" s="140" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="116" t="inlineStr">
+      <c r="C2" s="140" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="116" t="inlineStr">
+      <c r="D2" s="140" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="116" t="inlineStr">
+      <c r="E2" s="140" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="116" t="n"/>
-      <c r="H2" s="116" t="n"/>
-      <c r="I2" s="116" t="n"/>
-      <c r="J2" s="116" t="n"/>
-      <c r="K2" s="116" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="64">
-      <c r="A3" s="103" t="n"/>
-      <c r="B3" s="103" t="inlineStr">
+      <c r="G2" s="140" t="n"/>
+      <c r="H2" s="140" t="n"/>
+      <c r="I2" s="140" t="n"/>
+      <c r="J2" s="140" t="n"/>
+      <c r="K2" s="140" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="73">
+      <c r="A3" s="127" t="n"/>
+      <c r="B3" s="127" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="103" t="n">
+      <c r="C3" s="127" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="103" t="n"/>
-      <c r="E3" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="63" t="n"/>
-      <c r="G3" s="103" t="n"/>
-      <c r="H3" s="103" t="inlineStr">
+      <c r="D3" s="127" t="n"/>
+      <c r="E3" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="72" t="n"/>
+      <c r="G3" s="127" t="n"/>
+      <c r="H3" s="127" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="119" t="n">
+      <c r="K3" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="64">
-      <c r="A4" s="103" t="n"/>
-      <c r="B4" s="117" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1" s="73">
+      <c r="A4" s="127" t="n"/>
+      <c r="B4" s="141" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="117" t="n">
+      <c r="C4" s="141" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="117" t="n"/>
-      <c r="E4" s="120" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="63" t="n"/>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="117" t="inlineStr">
+      <c r="D4" s="141" t="n"/>
+      <c r="E4" s="144" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="72" t="n"/>
+      <c r="G4" s="127" t="n"/>
+      <c r="H4" s="141" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="119" t="n">
+      <c r="K4" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="64">
-      <c r="A5" s="103" t="n"/>
-      <c r="B5" s="103" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="73">
+      <c r="A5" s="127" t="n"/>
+      <c r="B5" s="127" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="103" t="n">
+      <c r="C5" s="127" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="103" t="n"/>
-      <c r="E5" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="63" t="n"/>
-      <c r="G5" s="103" t="n"/>
-      <c r="H5" s="103" t="inlineStr">
+      <c r="D5" s="127" t="n"/>
+      <c r="E5" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="72" t="n"/>
+      <c r="G5" s="127" t="n"/>
+      <c r="H5" s="127" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="119" t="n">
+      <c r="K5" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="64">
-      <c r="A6" s="103" t="n"/>
-      <c r="B6" s="103" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="73">
+      <c r="A6" s="127" t="n"/>
+      <c r="B6" s="127" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="63" t="n"/>
-      <c r="D6" s="103" t="n"/>
-      <c r="E6" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="63" t="n"/>
-      <c r="G6" s="103" t="n"/>
-      <c r="H6" s="103" t="inlineStr">
+      <c r="C6" s="72" t="n"/>
+      <c r="D6" s="127" t="n"/>
+      <c r="E6" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="72" t="n"/>
+      <c r="G6" s="127" t="n"/>
+      <c r="H6" s="127" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="119" t="n">
+      <c r="K6" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="64">
-      <c r="A7" s="103" t="n"/>
-      <c r="B7" s="103" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="73">
+      <c r="A7" s="127" t="n"/>
+      <c r="B7" s="127" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="63" t="n"/>
-      <c r="D7" s="103" t="n"/>
-      <c r="E7" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="63" t="n"/>
-      <c r="G7" s="63" t="n"/>
-      <c r="H7" s="103" t="inlineStr">
+      <c r="C7" s="72" t="n"/>
+      <c r="D7" s="127" t="n"/>
+      <c r="E7" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="72" t="n"/>
+      <c r="G7" s="72" t="n"/>
+      <c r="H7" s="127" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="116" t="n"/>
-      <c r="K7" s="116" t="n">
+      <c r="J7" s="140" t="n"/>
+      <c r="K7" s="140" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="64">
-      <c r="A8" s="103" t="n"/>
-      <c r="B8" s="103" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="73">
+      <c r="A8" s="127" t="n"/>
+      <c r="B8" s="127" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="63" t="n"/>
-      <c r="D8" s="103" t="n"/>
-      <c r="E8" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="63" t="n"/>
-      <c r="G8" s="63" t="n"/>
-      <c r="H8" s="103" t="inlineStr">
+      <c r="C8" s="72" t="n"/>
+      <c r="D8" s="127" t="n"/>
+      <c r="E8" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="72" t="n"/>
+      <c r="G8" s="72" t="n"/>
+      <c r="H8" s="127" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="116" t="n"/>
-      <c r="K8" s="116" t="n">
+      <c r="J8" s="140" t="n"/>
+      <c r="K8" s="140" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="64">
-      <c r="B9" s="103" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="73">
+      <c r="B9" s="127" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="116" t="n"/>
-      <c r="E9" s="116" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="116" t="inlineStr">
+      <c r="D9" s="140" t="n"/>
+      <c r="E9" s="140" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="140" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="116" t="n">
+      <c r="K9" s="140" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="64">
-      <c r="B10" s="103" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="73">
+      <c r="B10" s="127" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="116" t="n"/>
-      <c r="E10" s="116" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="116" t="inlineStr">
+      <c r="D10" s="140" t="n"/>
+      <c r="E10" s="140" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="140" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="116" t="n">
+      <c r="K10" s="140" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="64">
-      <c r="D11" s="116" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="73">
+      <c r="D11" s="140" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="116" t="n">
+      <c r="E11" s="140" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="103" t="n"/>
-      <c r="J11" s="116" t="inlineStr">
+      <c r="I11" s="127" t="n"/>
+      <c r="J11" s="140" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="116" t="n">
+      <c r="K11" s="140" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="64">
-      <c r="D12" s="116" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="73">
+      <c r="D12" s="140" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="116" t="n">
+      <c r="E12" s="140" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="103" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="64">
-      <c r="D13" s="116" t="inlineStr">
+      <c r="I12" s="127" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="73">
+      <c r="D13" s="140" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="116" t="n">
+      <c r="E13" s="140" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="103" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="64">
-      <c r="I14" s="103" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="64">
-      <c r="I15" s="103" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="64">
-      <c r="D16" s="103" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="64"/>
+      <c r="I13" s="127" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="73">
+      <c r="I14" s="127" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="73">
+      <c r="I15" s="127" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="73">
+      <c r="D16" s="127" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="73"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2965,254 +3091,269 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.64" customWidth="1" style="63" min="3" max="3"/>
+    <col width="11.64" customWidth="1" style="72" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="64">
-      <c r="A1" s="121" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="73">
+      <c r="A1" s="145" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="121" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="145" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="64">
-      <c r="A2" s="121" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="73">
+      <c r="A2" s="145" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="121" t="inlineStr">
+      <c r="B2" s="145" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="121" t="inlineStr">
+      <c r="C2" s="145" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="121" t="inlineStr">
+      <c r="D2" s="145" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="121" t="inlineStr">
+      <c r="E2" s="145" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="64">
-      <c r="B3" s="103" t="inlineStr">
+    <row r="3" ht="13.5" customHeight="1" s="73">
+      <c r="B3" s="127" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="103" t="n">
+      <c r="C3" s="127" t="n">
         <v>88565544</v>
       </c>
-      <c r="E3" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H3" s="116" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="64">
-      <c r="B4" s="117" t="inlineStr">
+      <c r="E3" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H3" s="140" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="73">
+      <c r="B4" s="141" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="117" t="n">
+      <c r="C4" s="141" t="n">
         <v>2224158</v>
       </c>
-      <c r="E4" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H4" s="103" t="inlineStr">
+      <c r="E4" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H4" s="127" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K4" s="119" t="n">
+      <c r="K4" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="64">
-      <c r="B5" s="103" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="73">
+      <c r="B5" s="127" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="103" t="n">
+      <c r="C5" s="127" t="n">
         <v>585447148</v>
       </c>
-      <c r="E5" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H5" s="117" t="inlineStr">
+      <c r="E5" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H5" s="141" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K5" s="119" t="n">
+      <c r="K5" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="64">
-      <c r="B6" s="103" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="73">
+      <c r="B6" s="127" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="E6" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H6" s="103" t="inlineStr">
+      <c r="E6" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H6" s="127" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K6" s="119" t="n">
+      <c r="K6" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="64">
-      <c r="B7" s="103" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="73">
+      <c r="B7" s="127" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="E7" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H7" s="103" t="inlineStr">
+      <c r="E7" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H7" s="127" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K7" s="119" t="n">
+      <c r="K7" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="64">
-      <c r="B8" s="103" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="73">
+      <c r="B8" s="127" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="E8" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H8" s="103" t="inlineStr">
+      <c r="E8" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H8" s="127" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="K8" s="119" t="n">
+      <c r="K8" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="64">
-      <c r="B9" s="103" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="73">
+      <c r="B9" s="127" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="E9" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H9" s="103" t="inlineStr">
+      <c r="E9" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H9" s="127" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="K9" s="119" t="n">
+      <c r="K9" s="143" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="64">
-      <c r="B10" s="103" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="73">
+      <c r="B10" s="127" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="E10" s="119" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="116" t="inlineStr">
+      <c r="E10" s="143" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="140" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K10" s="116" t="n">
+      <c r="K10" s="140" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="64">
-      <c r="D11" s="116" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="73">
+      <c r="D11" s="140" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="116" t="n">
+      <c r="E11" s="140" t="n">
         <v>1189.2</v>
       </c>
-      <c r="J11" s="116" t="inlineStr">
+      <c r="J11" s="140" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K11" s="116" t="n">
+      <c r="K11" s="140" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="64">
-      <c r="D12" s="116" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="73">
+      <c r="D12" s="140" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="116" t="n">
+      <c r="E12" s="140" t="n">
         <v>392</v>
       </c>
-      <c r="J12" s="116" t="inlineStr">
+      <c r="J12" s="140" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K12" s="116" t="n">
+      <c r="K12" s="140" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="64">
-      <c r="D13" s="116" t="inlineStr">
+    <row r="13" ht="13.5" customHeight="1" s="73">
+      <c r="D13" s="140" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="116" t="n">
+      <c r="E13" s="140" t="n">
         <v>797.2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="73"/>
+    <row r="15" ht="12.75" customHeight="1" s="73"/>
+    <row r="16" ht="12.75" customHeight="1" s="73"/>
+    <row r="17" ht="12.75" customHeight="1" s="73"/>
+    <row r="18" ht="12.75" customHeight="1" s="73"/>
+    <row r="19" ht="12.75" customHeight="1" s="73"/>
+    <row r="20" ht="12.75" customHeight="1" s="73"/>
+    <row r="21" ht="12.75" customHeight="1" s="73"/>
+    <row r="22" ht="12.75" customHeight="1" s="73"/>
+    <row r="23" ht="12.75" customHeight="1" s="73"/>
+    <row r="24" ht="13.5" customHeight="1" s="73">
+      <c r="E24" s="72" t="n">
+        <v>148.65</v>
       </c>
     </row>
   </sheetData>
@@ -3236,57 +3377,178 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12" customWidth="1" style="64" min="1" max="1"/>
-    <col width="8" customWidth="1" style="64" min="2" max="2"/>
-    <col width="11" customWidth="1" style="64" min="3" max="3"/>
+    <col width="12" customWidth="1" style="72" min="1" max="1"/>
+    <col width="13.48" customWidth="1" style="72" min="2" max="2"/>
+    <col width="11" customWidth="1" style="72" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="63" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="72" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
-      <c r="B1" s="63" t="inlineStr">
+      <c r="B1" s="72" t="inlineStr">
         <is>
           <t>CONTAS</t>
         </is>
       </c>
-      <c r="C1" s="63" t="inlineStr">
+      <c r="C1" s="72" t="inlineStr">
         <is>
           <t>VALOR</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="122" t="n">
+    <row r="2" ht="57.75" customHeight="1" s="73">
+      <c r="A2" s="146" t="n">
         <v>45602</v>
       </c>
-      <c r="B2" s="123" t="inlineStr">
+      <c r="B2" s="147" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="C2" s="124" t="inlineStr">
+      <c r="C2" s="148" t="inlineStr">
         <is>
           <t>R$ 333.00</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="B3:L6"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="B3" s="72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" s="72" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="F3" s="72" t="inlineStr">
+        <is>
+          <t>D | C</t>
+        </is>
+      </c>
+      <c r="H3" s="72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" s="72" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L3" s="72" t="inlineStr">
+        <is>
+          <t>D | C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D:300,00 | C:41,26</t>
+        </is>
+      </c>
+      <c r="H4" s="72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" s="72" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L4" s="72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="H5" s="72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" s="72" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="L5" s="72" t="inlineStr">
+        <is>
+          <t>D | C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>D:300,00 | C:41,26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -3304,277 +3566,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.72" customWidth="1" style="63" min="2" max="2"/>
-    <col width="16.72" customWidth="1" style="63" min="3" max="3"/>
-    <col width="19.28" customWidth="1" style="63" min="5" max="5"/>
-    <col width="15.86" customWidth="1" style="63" min="10" max="10"/>
-    <col width="16.57" customWidth="1" style="63" min="11" max="11"/>
+    <col width="32.72" customWidth="1" style="72" min="2" max="2"/>
+    <col width="16.72" customWidth="1" style="72" min="3" max="3"/>
+    <col width="19.28" customWidth="1" style="72" min="5" max="5"/>
+    <col width="15.86" customWidth="1" style="72" min="10" max="10"/>
+    <col width="16.57" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="77" t="n"/>
-      <c r="B3" s="78" t="n"/>
-      <c r="D3" s="86" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="86" t="n"/>
+      <c r="B3" s="87" t="n"/>
+      <c r="D3" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="82">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="74" t="n"/>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="85">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="77" t="n"/>
-      <c r="D4" s="89" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="86" t="n"/>
+      <c r="D4" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="99">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="74" t="n"/>
-      <c r="I4" s="74" t="n"/>
-      <c r="J4" s="78" t="n"/>
+      <c r="G4" s="86" t="n"/>
+      <c r="H4" s="83" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="87" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="77" t="n"/>
-      <c r="D5" s="89" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="86" t="n"/>
+      <c r="D5" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="99">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="63" t="n"/>
-      <c r="H5" s="79" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="F6" s="63" t="n"/>
-      <c r="I6" s="80" t="inlineStr">
+      <c r="F5" s="72" t="n"/>
+      <c r="H5" s="88" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="F6" s="72" t="n"/>
+      <c r="I6" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="67" t="n"/>
-      <c r="K6" s="81" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="90" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="F7" s="63" t="n"/>
-      <c r="H7" s="63" t="n"/>
-      <c r="I7" s="80" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="F7" s="72" t="n"/>
+      <c r="H7" s="72" t="n"/>
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="67" t="n"/>
+      <c r="J7" s="76" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="F8" s="63" t="n"/>
-      <c r="I8" s="82" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="F8" s="72" t="n"/>
+      <c r="I8" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="67" t="n"/>
-      <c r="K8" s="83" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="92" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="F9" s="63" t="n"/>
-      <c r="I9" s="80" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="F9" s="72" t="n"/>
+      <c r="I9" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="67" t="n"/>
+      <c r="J9" s="76" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="F10" s="63" t="n"/>
-      <c r="I10" s="80" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="F10" s="72" t="n"/>
+      <c r="I10" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="67" t="n"/>
-      <c r="K10" s="84" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="93" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="F11" s="63" t="n"/>
-      <c r="I11" s="80" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="F11" s="72" t="n"/>
+      <c r="I11" s="89" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="67" t="n"/>
-      <c r="K11" s="84" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="93" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="F12" s="63" t="n"/>
-      <c r="I12" s="80" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="F12" s="72" t="n"/>
+      <c r="I12" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="67" t="n"/>
-      <c r="K12" s="85">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="94">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="F13" s="63" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="F13" s="72" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="87" t="inlineStr">
+      <c r="I13" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="67" t="n"/>
-      <c r="K13" s="88">
+      <c r="J13" s="76" t="n"/>
+      <c r="K13" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="F14" s="63" t="n"/>
-      <c r="I14" s="87" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="F14" s="72" t="n"/>
+      <c r="I14" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="67" t="n"/>
-      <c r="K14" s="88">
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="F15" s="63" t="n"/>
-      <c r="I15" s="91" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="F15" s="72" t="n"/>
+      <c r="I15" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="67" t="n"/>
-      <c r="K15" s="92">
+      <c r="J15" s="76" t="n"/>
+      <c r="K15" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="F16" s="63" t="n"/>
-      <c r="K16" s="78" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="F17" s="63" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="F18" s="63" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="F19" s="63" t="n"/>
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="F16" s="72" t="n"/>
+      <c r="K16" s="87" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="F17" s="72" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="F18" s="72" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="F19" s="72" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3611,499 +3873,499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.57" customWidth="1" style="63" min="2" max="2"/>
-    <col width="18" customWidth="1" style="63" min="3" max="3"/>
-    <col width="10.43" customWidth="1" style="63" min="5" max="5"/>
-    <col width="38.7" customWidth="1" style="63" min="8" max="8"/>
-    <col width="12.57" customWidth="1" style="63" min="10" max="10"/>
-    <col width="17.43" customWidth="1" style="63" min="11" max="11"/>
+    <col width="41.57" customWidth="1" style="72" min="2" max="2"/>
+    <col width="18" customWidth="1" style="72" min="3" max="3"/>
+    <col width="10.43" customWidth="1" style="72" min="5" max="5"/>
+    <col width="38.7" customWidth="1" style="72" min="8" max="8"/>
+    <col width="12.57" customWidth="1" style="72" min="10" max="10"/>
+    <col width="17.43" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="68" t="n">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="77" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="65" t="n">
+      <c r="C3" s="74" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="63" t="inlineStr">
+      <c r="D3" s="74" t="n"/>
+      <c r="E3" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="74" t="n"/>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="85">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="68" t="n">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="77" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="74" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="D4" s="74" t="n"/>
+      <c r="E4" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="74" t="n"/>
-      <c r="I4" s="74" t="n"/>
-      <c r="J4" s="78" t="n"/>
+      <c r="G4" s="86" t="n"/>
+      <c r="H4" s="83" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="87" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="68" t="n">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="inlineStr">
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="74" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="65" t="n"/>
-      <c r="E5" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="63" t="inlineStr">
+      <c r="D5" s="74" t="n"/>
+      <c r="E5" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="79" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="A6" s="68" t="n">
+      <c r="H5" s="88" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="A6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="inlineStr">
+      <c r="B6" s="77" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="74" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="65" t="n"/>
-      <c r="E6" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="63" t="inlineStr">
+      <c r="D6" s="74" t="n"/>
+      <c r="E6" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="80" t="inlineStr">
+      <c r="I6" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="67" t="n"/>
-      <c r="K6" s="81" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="90" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="A7" s="68" t="n">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="A7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="inlineStr">
+      <c r="B7" s="77" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="74" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="D7" s="74" t="n"/>
+      <c r="E7" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="80" t="inlineStr">
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="67" t="n"/>
+      <c r="J7" s="76" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="A8" s="68" t="n">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="A8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="inlineStr">
+      <c r="B8" s="77" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="74" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="D8" s="74" t="n"/>
+      <c r="E8" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="82" t="inlineStr">
+      <c r="I8" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="67" t="n"/>
-      <c r="K8" s="83">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="92">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="A9" s="68" t="n">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="A9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="68" t="inlineStr">
+      <c r="B9" s="77" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="74" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="D9" s="74" t="n"/>
+      <c r="E9" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="80" t="inlineStr">
+      <c r="I9" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="67" t="n"/>
+      <c r="J9" s="76" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="A10" s="68" t="n">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="A10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="68" t="inlineStr">
+      <c r="B10" s="77" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="74" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="71" t="n"/>
-      <c r="E10" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="63" t="inlineStr">
+      <c r="D10" s="80" t="n"/>
+      <c r="E10" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="80" t="inlineStr">
+      <c r="I10" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="67" t="n"/>
-      <c r="K10" s="84" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="93" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="A11" s="68" t="n">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="A11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="72" t="inlineStr">
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="74" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="71" t="n"/>
-      <c r="E11" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="63" t="inlineStr">
+      <c r="D11" s="80" t="n"/>
+      <c r="E11" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="80" t="inlineStr">
+      <c r="I11" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="67" t="n"/>
-      <c r="K11" s="85">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="94">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="A12" s="68" t="n">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="A12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="68" t="inlineStr">
+      <c r="B12" s="77" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="74" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="65" t="n"/>
-      <c r="E12" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="63" t="inlineStr">
+      <c r="D12" s="74" t="n"/>
+      <c r="E12" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="87" t="inlineStr">
+      <c r="I12" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="67" t="n"/>
-      <c r="K12" s="88">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="97">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="A13" s="68" t="n">
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="A13" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="68" t="inlineStr">
+      <c r="B13" s="77" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="65" t="n">
+      <c r="C13" s="74" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="71" t="n"/>
-      <c r="E13" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="63" t="inlineStr">
+      <c r="D13" s="80" t="n"/>
+      <c r="E13" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="87" t="inlineStr">
+      <c r="I13" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="67" t="n"/>
-      <c r="K13" s="88">
+      <c r="J13" s="76" t="n"/>
+      <c r="K13" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="A14" s="68" t="n">
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="A14" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="68" t="inlineStr">
+      <c r="B14" s="77" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="65" t="n">
+      <c r="C14" s="74" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="71" t="n"/>
-      <c r="E14" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="63" t="inlineStr">
+      <c r="D14" s="80" t="n"/>
+      <c r="E14" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="91" t="inlineStr">
+      <c r="I14" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="67" t="n"/>
-      <c r="K14" s="92">
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="101">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="A15" s="77" t="n"/>
-      <c r="B15" s="78" t="n"/>
-      <c r="D15" s="86" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="A15" s="86" t="n"/>
+      <c r="B15" s="87" t="n"/>
+      <c r="D15" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="82">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="63" t="n"/>
-      <c r="K15" s="78" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="A16" s="77" t="n"/>
-      <c r="D16" s="89" t="inlineStr">
+      <c r="F15" s="72" t="n"/>
+      <c r="K15" s="87" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="A16" s="86" t="n"/>
+      <c r="D16" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="99">
         <f>49*12</f>
         <v/>
       </c>
-      <c r="F16" s="63" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="A17" s="77" t="n"/>
-      <c r="D17" s="89" t="inlineStr">
+      <c r="F16" s="72" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="A17" s="86" t="n"/>
+      <c r="D17" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="90" t="n">
+      <c r="E17" s="99" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F17" s="63" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="F18" s="63" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="F19" s="63" t="n"/>
+      <c r="F17" s="72" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="F18" s="72" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="F19" s="72" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4139,321 +4401,321 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.86" customWidth="1" style="63" min="5" max="5"/>
-    <col width="18.14" customWidth="1" style="63" min="10" max="10"/>
-    <col width="14" customWidth="1" style="63" min="11" max="11"/>
+    <col width="13.86" customWidth="1" style="72" min="5" max="5"/>
+    <col width="18.14" customWidth="1" style="72" min="10" max="10"/>
+    <col width="14" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="77" t="n"/>
-      <c r="B3" s="78" t="n"/>
-      <c r="D3" s="86" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="86" t="n"/>
+      <c r="B3" s="87" t="n"/>
+      <c r="D3" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="82">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="74" t="n"/>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="85">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="77" t="n"/>
-      <c r="D4" s="89" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="86" t="n"/>
+      <c r="D4" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="99">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="74" t="n"/>
-      <c r="I4" s="74" t="n"/>
-      <c r="J4" s="78" t="n"/>
+      <c r="G4" s="86" t="n"/>
+      <c r="H4" s="83" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="87" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="77" t="n"/>
-      <c r="D5" s="89" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="86" t="n"/>
+      <c r="D5" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="99">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="63" t="n"/>
-      <c r="H5" s="79" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="F6" s="63" t="n"/>
-      <c r="I6" s="80" t="inlineStr">
+      <c r="F5" s="72" t="n"/>
+      <c r="H5" s="88" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="F6" s="72" t="n"/>
+      <c r="I6" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="67" t="n"/>
-      <c r="K6" s="81" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="90" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="F7" s="63" t="n"/>
-      <c r="H7" s="63" t="n"/>
-      <c r="I7" s="80" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="F7" s="72" t="n"/>
+      <c r="H7" s="72" t="n"/>
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="67" t="n"/>
+      <c r="J7" s="76" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="F8" s="63" t="n"/>
-      <c r="I8" s="82" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="F8" s="72" t="n"/>
+      <c r="I8" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="67" t="n"/>
-      <c r="K8" s="83" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="92" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="F9" s="63" t="n"/>
-      <c r="I9" s="80" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="F9" s="72" t="n"/>
+      <c r="I9" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="67" t="n"/>
+      <c r="J9" s="76" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="F10" s="63" t="n"/>
-      <c r="I10" s="80" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="F10" s="72" t="n"/>
+      <c r="I10" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="67" t="n"/>
-      <c r="K10" s="84" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="93" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="F11" s="63" t="n"/>
-      <c r="I11" s="80" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="F11" s="72" t="n"/>
+      <c r="I11" s="89" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="67" t="n"/>
-      <c r="K11" s="84" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="93" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="F12" s="63" t="n"/>
-      <c r="I12" s="80" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="F12" s="72" t="n"/>
+      <c r="I12" s="89" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="67" t="n"/>
-      <c r="K12" s="84" t="n">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="93" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="F13" s="63" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="F13" s="72" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="80" t="inlineStr">
+      <c r="I13" s="89" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="67" t="n"/>
-      <c r="K13" s="84" t="n">
+      <c r="J13" s="76" t="n"/>
+      <c r="K13" s="93" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="F14" s="63" t="n"/>
-      <c r="I14" s="80" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="F14" s="72" t="n"/>
+      <c r="I14" s="89" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="67" t="n"/>
-      <c r="K14" s="84" t="n">
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="93" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="F15" s="63" t="n"/>
-      <c r="I15" s="80" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="F15" s="72" t="n"/>
+      <c r="I15" s="89" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="67" t="n"/>
-      <c r="K15" s="84" t="n">
+      <c r="J15" s="76" t="n"/>
+      <c r="K15" s="93" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="F16" s="63" t="n"/>
-      <c r="I16" s="80" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="F16" s="72" t="n"/>
+      <c r="I16" s="89" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="67" t="n"/>
-      <c r="K16" s="84" t="n">
+      <c r="J16" s="76" t="n"/>
+      <c r="K16" s="93" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="I17" s="80" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="I17" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="67" t="n"/>
-      <c r="K17" s="85">
+      <c r="J17" s="76" t="n"/>
+      <c r="K17" s="94">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="I18" s="87" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="I18" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="67" t="n"/>
-      <c r="K18" s="88">
+      <c r="J18" s="76" t="n"/>
+      <c r="K18" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="I19" s="87" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="I19" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="67" t="n"/>
-      <c r="K19" s="88">
+      <c r="J19" s="76" t="n"/>
+      <c r="K19" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="64">
-      <c r="I20" s="91" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="73">
+      <c r="I20" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="67" t="n"/>
-      <c r="K20" s="92">
+      <c r="J20" s="76" t="n"/>
+      <c r="K20" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="64">
-      <c r="K21" s="78" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="73">
+      <c r="K21" s="87" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4487,913 +4749,931 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="45.3" customWidth="1" style="63" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="63" min="3" max="3"/>
-    <col width="10.29" customWidth="1" style="63" min="5" max="5"/>
-    <col width="12.72" customWidth="1" style="63" min="6" max="6"/>
-    <col width="33.57" customWidth="1" style="63" min="8" max="8"/>
-    <col width="13.86" customWidth="1" style="63" min="9" max="9"/>
-    <col width="14.57" customWidth="1" style="63" min="11" max="11"/>
+    <col width="55" customWidth="1" style="72" min="2" max="2"/>
+    <col width="13" customWidth="1" style="72" min="3" max="3"/>
+    <col width="14.58" customWidth="1" style="72" min="5" max="5"/>
+    <col width="12.72" customWidth="1" style="72" min="6" max="6"/>
+    <col width="55" customWidth="1" style="72" min="8" max="8"/>
+    <col width="13" customWidth="1" style="72" min="9" max="9"/>
+    <col width="14.57" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
-        <is>
-          <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
-        <is>
-          <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
-        </is>
-      </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="102" t="inlineStr">
+        <is>
+          <t>(Nome do Usuário) Atendimento Médico 06/11/2024</t>
+        </is>
+      </c>
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="102" t="inlineStr">
+        <is>
+          <t>(Nome do Usuário) Atendimento Psicológico 06/11/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="102" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="102" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="102" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="102" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="102" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="102" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="102" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="102" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="102" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="102" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="68" t="n">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="inlineStr">
+      <c r="B3" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="65" t="n">
+      <c r="C3" s="106" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="63" t="inlineStr">
+      <c r="D3" s="74" t="n"/>
+      <c r="E3" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="68" t="n">
+      <c r="G3" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="70" t="inlineStr">
+      <c r="H3" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="65" t="n">
+      <c r="I3" s="106" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="65" t="n"/>
-      <c r="K3" s="65" t="n">
+      <c r="J3" s="74" t="n"/>
+      <c r="K3" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="63" t="inlineStr">
+      <c r="L3" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="68" t="n">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="103" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="70" t="inlineStr">
+      <c r="B4" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="106" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="D4" s="74" t="n"/>
+      <c r="E4" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="68" t="n">
+      <c r="G4" s="103" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="70" t="inlineStr">
+      <c r="H4" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="65" t="n">
+      <c r="I4" s="106" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n">
+      <c r="J4" s="74" t="n"/>
+      <c r="K4" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="63" t="inlineStr">
+      <c r="L4" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="68" t="n">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="70" t="inlineStr">
+      <c r="B5" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="106" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="65" t="n"/>
-      <c r="E5" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="63" t="inlineStr">
+      <c r="D5" s="74" t="n"/>
+      <c r="E5" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="68" t="n">
+      <c r="G5" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="70" t="inlineStr">
+      <c r="H5" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="65" t="n">
+      <c r="I5" s="106" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="65" t="n"/>
-      <c r="K5" s="65" t="n">
+      <c r="J5" s="74" t="n"/>
+      <c r="K5" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="63" t="inlineStr">
+      <c r="L5" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="A6" s="68" t="n">
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="A6" s="103" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="inlineStr">
+      <c r="B6" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="106" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="65" t="n"/>
-      <c r="E6" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="63" t="inlineStr">
+      <c r="D6" s="74" t="n"/>
+      <c r="E6" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="107" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="68" t="n">
+      <c r="G6" s="103" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="70" t="inlineStr">
+      <c r="H6" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="106" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n">
+      <c r="J6" s="74" t="n"/>
+      <c r="K6" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="63" t="inlineStr">
+      <c r="L6" s="107" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="A7" s="68" t="n">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="A7" s="103" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="70" t="inlineStr">
+      <c r="B7" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="106" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="D7" s="74" t="n"/>
+      <c r="E7" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="107" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="68" t="n">
+      <c r="G7" s="103" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="70" t="inlineStr">
+      <c r="H7" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="65" t="n">
+      <c r="I7" s="106" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="65" t="n"/>
-      <c r="K7" s="65" t="n">
+      <c r="J7" s="74" t="n"/>
+      <c r="K7" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="63" t="inlineStr">
+      <c r="L7" s="107" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="A8" s="68" t="n">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="A8" s="103" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="70" t="inlineStr">
+      <c r="B8" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="106" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="D8" s="74" t="n"/>
+      <c r="E8" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="68" t="n">
+      <c r="G8" s="103" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="70" t="inlineStr">
+      <c r="H8" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="65" t="n">
+      <c r="I8" s="106" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n">
+      <c r="J8" s="74" t="n"/>
+      <c r="K8" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="63" t="inlineStr">
+      <c r="L8" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="A9" s="68" t="n">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="A9" s="103" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="70" t="inlineStr">
+      <c r="B9" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="106" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="D9" s="74" t="n"/>
+      <c r="E9" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="107" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="68" t="n">
+      <c r="G9" s="103" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="70" t="inlineStr">
+      <c r="H9" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="65" t="n">
+      <c r="I9" s="106" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="65" t="n"/>
-      <c r="K9" s="65" t="n">
+      <c r="J9" s="74" t="n"/>
+      <c r="K9" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="63" t="inlineStr">
+      <c r="L9" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="A10" s="68" t="n">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="A10" s="103" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="70" t="inlineStr">
+      <c r="B10" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="106" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="65" t="n"/>
-      <c r="E10" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="63" t="inlineStr">
+      <c r="D10" s="74" t="n"/>
+      <c r="E10" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="68" t="n">
+      <c r="G10" s="103" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="70" t="inlineStr">
+      <c r="H10" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="65" t="n">
+      <c r="I10" s="106" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n">
+      <c r="J10" s="74" t="n"/>
+      <c r="K10" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="63" t="inlineStr">
+      <c r="L10" s="107" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="A11" s="68" t="n">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="A11" s="103" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="70" t="inlineStr">
+      <c r="B11" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="106" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="65" t="n"/>
-      <c r="E11" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="63" t="inlineStr">
+      <c r="D11" s="74" t="n"/>
+      <c r="E11" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="107" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="68" t="n">
+      <c r="G11" s="103" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="70" t="inlineStr">
+      <c r="H11" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="65" t="n">
+      <c r="I11" s="106" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="65" t="n"/>
-      <c r="K11" s="65" t="n">
+      <c r="J11" s="74" t="n"/>
+      <c r="K11" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="63" t="inlineStr">
+      <c r="L11" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="A12" s="68" t="n">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="A12" s="103" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="70" t="inlineStr">
+      <c r="B12" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="106" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="65" t="n"/>
-      <c r="E12" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="63" t="inlineStr">
+      <c r="D12" s="74" t="n"/>
+      <c r="E12" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="68" t="n">
+      <c r="G12" s="103" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="70" t="inlineStr">
+      <c r="H12" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="65" t="n">
+      <c r="I12" s="106" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n">
+      <c r="J12" s="74" t="n"/>
+      <c r="K12" s="106" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="63" t="inlineStr">
+      <c r="L12" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="A13" s="68" t="n">
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="A13" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="70" t="inlineStr">
+      <c r="B13" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="65" t="n">
+      <c r="C13" s="106" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="65" t="n"/>
-      <c r="E13" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="63" t="inlineStr">
+      <c r="D13" s="74" t="n"/>
+      <c r="E13" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="74" t="n"/>
-      <c r="J13" s="75" t="inlineStr">
+      <c r="I13" s="83" t="n"/>
+      <c r="J13" s="108" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="K13" s="109" t="n">
+        <v>1926.1</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="A14" s="103" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
+        </is>
+      </c>
+      <c r="C14" s="106" t="n">
+        <v>513760379</v>
+      </c>
+      <c r="D14" s="74" t="n"/>
+      <c r="E14" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="107" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G14" s="86" t="n"/>
+      <c r="H14" s="83" t="n"/>
+      <c r="I14" s="83" t="n"/>
+      <c r="J14" s="108" t="inlineStr">
+        <is>
+          <t>Psicólogo</t>
+        </is>
+      </c>
+      <c r="K14" s="110" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="A15" s="103" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
+        </is>
+      </c>
+      <c r="C15" s="106" t="n">
+        <v>513782331</v>
+      </c>
+      <c r="D15" s="74" t="n"/>
+      <c r="E15" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H15" s="88" t="n"/>
+      <c r="J15" s="108" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="76">
-        <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="A14" s="68" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
-        </is>
-      </c>
-      <c r="C14" s="65" t="n">
-        <v>513760379</v>
-      </c>
-      <c r="D14" s="65" t="n"/>
-      <c r="E14" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="63" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="G14" s="77" t="n"/>
-      <c r="H14" s="74" t="n"/>
-      <c r="I14" s="74" t="n"/>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="14" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="A15" s="68" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
-        </is>
-      </c>
-      <c r="C15" s="65" t="n">
-        <v>513782331</v>
-      </c>
-      <c r="D15" s="65" t="n"/>
-      <c r="E15" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="63" t="inlineStr">
+      <c r="K15" s="108" t="n">
+        <v>1291.1</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="A16" s="103" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
+        </is>
+      </c>
+      <c r="C16" s="106" t="n">
+        <v>513775191</v>
+      </c>
+      <c r="D16" s="74" t="n"/>
+      <c r="E16" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="79" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="A16" s="68" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
-        </is>
-      </c>
-      <c r="C16" s="65" t="n">
-        <v>513775191</v>
-      </c>
-      <c r="D16" s="65" t="n"/>
-      <c r="E16" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="63" t="inlineStr">
+      <c r="I16" s="89" t="n"/>
+      <c r="J16" s="76" t="n"/>
+      <c r="K16" s="90" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="A17" s="103" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
+        </is>
+      </c>
+      <c r="C17" s="106" t="n">
+        <v>513790578</v>
+      </c>
+      <c r="D17" s="74" t="n"/>
+      <c r="E17" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="107" t="inlineStr">
+        <is>
+          <t>100E / 48,65D</t>
+        </is>
+      </c>
+      <c r="I17" s="89" t="n"/>
+      <c r="J17" s="76" t="n"/>
+      <c r="K17" s="90" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="A18" s="103" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
+        </is>
+      </c>
+      <c r="C18" s="106" t="n">
+        <v>513721847</v>
+      </c>
+      <c r="D18" s="74" t="n"/>
+      <c r="E18" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="107" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I18" s="91" t="n"/>
+      <c r="J18" s="76" t="n"/>
+      <c r="K18" s="92" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="A19" s="103" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
+        </is>
+      </c>
+      <c r="C19" s="106" t="n">
+        <v>513782693</v>
+      </c>
+      <c r="D19" s="74" t="n"/>
+      <c r="E19" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="107" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I19" s="89" t="n"/>
+      <c r="J19" s="76" t="n"/>
+      <c r="K19" s="21" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="73">
+      <c r="A20" s="103" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
+        </is>
+      </c>
+      <c r="C20" s="106" t="n">
+        <v>513773401</v>
+      </c>
+      <c r="D20" s="74" t="n"/>
+      <c r="E20" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="107" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="80" t="inlineStr">
-        <is>
-          <t>ATEND.MÉDICO</t>
-        </is>
-      </c>
-      <c r="J16" s="67" t="n"/>
-      <c r="K16" s="81">
-        <f>E24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="A17" s="68" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
-        </is>
-      </c>
-      <c r="C17" s="65" t="n">
-        <v>513790578</v>
-      </c>
-      <c r="D17" s="65" t="n"/>
-      <c r="E17" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="63" t="inlineStr">
-        <is>
-          <t>100E / 48,65D</t>
-        </is>
-      </c>
-      <c r="I17" s="80" t="inlineStr">
-        <is>
-          <t>ATEND.PSICOLÓGICO</t>
-        </is>
-      </c>
-      <c r="J17" s="67" t="n"/>
-      <c r="K17" s="81">
-        <f>K13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="A18" s="68" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
-        </is>
-      </c>
-      <c r="C18" s="65" t="n">
-        <v>513721847</v>
-      </c>
-      <c r="D18" s="65" t="n"/>
-      <c r="E18" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="63" t="inlineStr">
+      <c r="I20" s="102" t="inlineStr">
+        <is>
+          <t>Atendimento Médico</t>
+        </is>
+      </c>
+      <c r="J20" s="76" t="n"/>
+      <c r="K20" s="111" t="n">
+        <v>3270.3</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="73">
+      <c r="A21" s="103" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
+        </is>
+      </c>
+      <c r="C21" s="106" t="n">
+        <v>513797287</v>
+      </c>
+      <c r="D21" s="74" t="n"/>
+      <c r="E21" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="82" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="J18" s="67" t="n"/>
-      <c r="K18" s="83">
-        <f>K16+K17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="A19" s="68" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
-        </is>
-      </c>
-      <c r="C19" s="65" t="n">
-        <v>513782693</v>
-      </c>
-      <c r="D19" s="65" t="n"/>
-      <c r="E19" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="63" t="inlineStr">
+      <c r="I21" s="102" t="inlineStr">
+        <is>
+          <t>Atendimento Psicológico</t>
+        </is>
+      </c>
+      <c r="J21" s="76" t="n"/>
+      <c r="K21" s="112" t="n">
+        <v>1926.1</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="73">
+      <c r="A22" s="103" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
+        </is>
+      </c>
+      <c r="C22" s="106" t="n">
+        <v>14091389</v>
+      </c>
+      <c r="D22" s="74" t="n"/>
+      <c r="E22" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="107" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="80" t="inlineStr">
-        <is>
-          <t>PAGAM.PSICOLOGA</t>
-        </is>
-      </c>
-      <c r="J19" s="67" t="n"/>
-      <c r="K19" s="21" t="n">
+      <c r="I22" s="113" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J22" s="76" t="n"/>
+      <c r="K22" s="112" t="n">
+        <v>5196.400000000001</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="73">
+      <c r="A23" s="103" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
+        </is>
+      </c>
+      <c r="C23" s="114" t="n">
+        <v>513791549</v>
+      </c>
+      <c r="D23" s="74" t="n"/>
+      <c r="E23" s="106" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" s="29" t="n"/>
+      <c r="I23" s="96" t="n"/>
+      <c r="J23" s="76" t="n"/>
+      <c r="K23" s="97" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="73">
+      <c r="A24" s="86" t="n"/>
+      <c r="B24" s="115" t="inlineStr">
+        <is>
+          <t>LUCIANO</t>
+        </is>
+      </c>
+      <c r="C24" s="107" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="D24" s="116" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="E24" s="117" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F24" s="107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I24" s="102" t="inlineStr">
+        <is>
+          <t>Pagamento Médico</t>
+        </is>
+      </c>
+      <c r="J24" s="76" t="n"/>
+      <c r="K24" s="111" t="n">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="73">
+      <c r="A25" s="86" t="n"/>
+      <c r="D25" s="108" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="E25" s="109" t="n">
+        <v>3270.3</v>
+      </c>
+      <c r="I25" s="102" t="inlineStr">
+        <is>
+          <t>Pagamento Psicológico</t>
+        </is>
+      </c>
+      <c r="J25" s="76" t="n"/>
+      <c r="K25" s="102" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="64">
-      <c r="A20" s="68" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
-        </is>
-      </c>
-      <c r="C20" s="65" t="n">
-        <v>513773401</v>
-      </c>
-      <c r="D20" s="65" t="n"/>
-      <c r="E20" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="63" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="I20" s="80" t="inlineStr">
-        <is>
-          <t>PAGAM. MÉDICA</t>
-        </is>
-      </c>
-      <c r="J20" s="67" t="n"/>
-      <c r="K20" s="84">
-        <f>E25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="64">
-      <c r="A21" s="68" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
-        </is>
-      </c>
-      <c r="C21" s="65" t="n">
-        <v>513797287</v>
-      </c>
-      <c r="D21" s="65" t="n"/>
-      <c r="E21" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="63" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I21" s="80" t="inlineStr">
-        <is>
-          <t>SOMA</t>
-        </is>
-      </c>
-      <c r="J21" s="67" t="n"/>
-      <c r="K21" s="85">
-        <f>K18-K20-K19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="64">
-      <c r="A22" s="68" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
-        </is>
-      </c>
-      <c r="C22" s="65" t="n">
-        <v>14091389</v>
-      </c>
-      <c r="D22" s="65" t="n"/>
-      <c r="E22" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="63" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I22" s="87" t="inlineStr">
-        <is>
-          <t>CARTÃO</t>
-        </is>
-      </c>
-      <c r="J22" s="67" t="n"/>
-      <c r="K22" s="88">
-        <f>E3+E4+E5+E8+E10+E12+E13+E15+E16+48.65+E18+E19+E20+E21+E22+E23+K3+K4+K5+K6+K7+K8+K9+K11+K12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="64">
-      <c r="A23" s="68" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
-        </is>
-      </c>
-      <c r="C23" s="93" t="n">
-        <v>513791549</v>
-      </c>
-      <c r="D23" s="65" t="n"/>
-      <c r="E23" s="65" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="63" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G23" s="29" t="n"/>
-      <c r="I23" s="87" t="inlineStr">
-        <is>
-          <t>DINHEIRO</t>
-        </is>
-      </c>
-      <c r="J23" s="67" t="n"/>
-      <c r="K23" s="88">
-        <f>E6+E14+100+K10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="64">
-      <c r="A24" s="77" t="n"/>
-      <c r="B24" s="78" t="n"/>
-      <c r="D24" s="86" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="73">
+      <c r="A26" s="86" t="n"/>
+      <c r="D26" s="108" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="E26" s="109" t="n">
+        <v>1078</v>
+      </c>
+      <c r="I26" s="102" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="73">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23</f>
-        <v/>
-      </c>
-      <c r="I24" s="91" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
-      <c r="J24" s="67" t="n"/>
-      <c r="K24" s="92">
-        <f>E7+E9+E11+K6+K7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="64">
-      <c r="A25" s="77" t="n"/>
-      <c r="D25" s="89" t="inlineStr">
-        <is>
-          <t>Medico</t>
-        </is>
-      </c>
-      <c r="E25" s="90">
-        <f>49*21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="64">
-      <c r="A26" s="77" t="n"/>
-      <c r="D26" s="89" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E26" s="90">
-        <f>E24-E25</f>
-        <v/>
-      </c>
-    </row>
+      <c r="J26" s="76" t="n"/>
+      <c r="K26" s="102" t="n">
+        <v>3483.400000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="73">
+      <c r="D27" s="108" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E27" s="108" t="n">
+        <v>2192.3</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="73"/>
+    <row r="29" ht="15" customHeight="1" s="73"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5409,498 +5689,498 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.86" customWidth="1" style="63" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="63" min="3" max="3"/>
-    <col width="11.15" customWidth="1" style="63" min="5" max="5"/>
-    <col width="13.86" customWidth="1" style="63" min="10" max="10"/>
-    <col width="13.71" customWidth="1" style="63" min="11" max="11"/>
+    <col width="35.86" customWidth="1" style="72" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="72" min="3" max="3"/>
+    <col width="11.15" customWidth="1" style="72" min="5" max="5"/>
+    <col width="13.86" customWidth="1" style="72" min="10" max="10"/>
+    <col width="13.71" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="68" t="n">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="77" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="65" t="n">
+      <c r="C3" s="74" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="63" t="inlineStr">
+      <c r="D3" s="74" t="n"/>
+      <c r="E3" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="74" t="n"/>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="85">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="68" t="n">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="inlineStr">
+      <c r="B4" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="74" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="D4" s="74" t="n"/>
+      <c r="E4" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="74" t="n"/>
-      <c r="I4" s="74" t="n"/>
-      <c r="J4" s="78" t="n"/>
+      <c r="G4" s="86" t="n"/>
+      <c r="H4" s="83" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="87" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="68" t="n">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="inlineStr">
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="74" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="65" t="n"/>
-      <c r="E5" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="63" t="inlineStr">
+      <c r="D5" s="74" t="n"/>
+      <c r="E5" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="79" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="A6" s="68" t="n">
+      <c r="H5" s="88" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="A6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="inlineStr">
+      <c r="B6" s="77" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="74" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="65" t="n"/>
-      <c r="E6" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="63" t="inlineStr">
+      <c r="D6" s="74" t="n"/>
+      <c r="E6" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="80" t="inlineStr">
+      <c r="I6" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="67" t="n"/>
-      <c r="K6" s="81">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="90">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="A7" s="68" t="n">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="A7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="inlineStr">
+      <c r="B7" s="77" t="inlineStr">
         <is>
           <t>FENIX ALEXANDRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="74" t="n">
         <v>513701027</v>
       </c>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="D7" s="74" t="n"/>
+      <c r="E7" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H7" s="63" t="n"/>
-      <c r="I7" s="80" t="inlineStr">
+      <c r="H7" s="72" t="n"/>
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="67" t="n"/>
+      <c r="J7" s="76" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="A8" s="68" t="n">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="A8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="inlineStr">
+      <c r="B8" s="77" t="inlineStr">
         <is>
           <t>NORMA CELIA NOBRE DE CARVALHO</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="C8" s="74" t="inlineStr">
         <is>
           <t xml:space="preserve">513803911	</t>
         </is>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="D8" s="74" t="n"/>
+      <c r="E8" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="82" t="inlineStr">
+      <c r="I8" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="67" t="n"/>
-      <c r="K8" s="83">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="92">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="A9" s="68" t="n">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="A9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="68" t="inlineStr">
+      <c r="B9" s="77" t="inlineStr">
         <is>
           <t>ANA CRISTINA DE MATOS HORACIO</t>
         </is>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="74" t="n">
         <v>513757236</v>
       </c>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="69" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="D9" s="74" t="n"/>
+      <c r="E9" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I9" s="80" t="inlineStr">
+      <c r="I9" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="67" t="n"/>
+      <c r="J9" s="76" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="A10" s="68" t="n">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="A10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="68" t="inlineStr">
+      <c r="B10" s="77" t="inlineStr">
         <is>
           <t>CLEIDE COSTA DOS SANTOS GALVAO</t>
         </is>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="74" t="n">
         <v>14085503</v>
       </c>
-      <c r="D10" s="71" t="n"/>
-      <c r="E10" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="63" t="inlineStr">
+      <c r="D10" s="80" t="n"/>
+      <c r="E10" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" s="80" t="inlineStr">
+      <c r="I10" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="67" t="n"/>
-      <c r="K10" s="84" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="93" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="A11" s="68" t="n">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="A11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="72" t="inlineStr">
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t>NEIDA GOMES FAGUNDES</t>
         </is>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="74" t="n">
         <v>513797034</v>
       </c>
-      <c r="D11" s="71" t="n"/>
-      <c r="E11" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="63" t="inlineStr">
+      <c r="D11" s="80" t="n"/>
+      <c r="E11" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="80" t="inlineStr">
+      <c r="I11" s="89" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="67" t="n"/>
-      <c r="K11" s="84" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="93" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="A12" s="68" t="n">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="A12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="68" t="inlineStr">
+      <c r="B12" s="77" t="inlineStr">
         <is>
           <t>JONATAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="74" t="n">
         <v>513801412</v>
       </c>
-      <c r="D12" s="65" t="n"/>
-      <c r="E12" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="63" t="inlineStr">
+      <c r="D12" s="74" t="n"/>
+      <c r="E12" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="80" t="inlineStr">
+      <c r="I12" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="67" t="n"/>
-      <c r="K12" s="85">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="94">
         <f>K8-K10-K9-K11</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="A13" s="68" t="n">
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="A13" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="68" t="inlineStr">
+      <c r="B13" s="77" t="inlineStr">
         <is>
           <t>EDUARDO GOMES DE LIMA</t>
         </is>
       </c>
-      <c r="C13" s="65" t="n">
+      <c r="C13" s="74" t="n">
         <v>513789092</v>
       </c>
-      <c r="D13" s="71" t="n"/>
-      <c r="E13" s="73" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="63" t="inlineStr">
+      <c r="D13" s="80" t="n"/>
+      <c r="E13" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="87" t="inlineStr">
+      <c r="I13" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="67" t="n"/>
-      <c r="K13" s="88">
+      <c r="J13" s="76" t="n"/>
+      <c r="K13" s="97">
         <f>E3+E4+E5+E6+E7+E9+E11+E12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="A14" s="77" t="n"/>
-      <c r="B14" s="78" t="n"/>
-      <c r="D14" s="86" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="A14" s="86" t="n"/>
+      <c r="B14" s="87" t="n"/>
+      <c r="D14" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="82">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v/>
       </c>
-      <c r="F14" s="63" t="n"/>
-      <c r="I14" s="87" t="inlineStr">
+      <c r="F14" s="72" t="n"/>
+      <c r="I14" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="67" t="n"/>
-      <c r="K14" s="88">
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="97">
         <f>E10</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="A15" s="77" t="n"/>
-      <c r="D15" s="89" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="A15" s="86" t="n"/>
+      <c r="D15" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="99">
         <f>49*11</f>
         <v/>
       </c>
-      <c r="F15" s="63" t="n"/>
-      <c r="I15" s="91" t="inlineStr">
+      <c r="F15" s="72" t="n"/>
+      <c r="I15" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="67" t="n"/>
-      <c r="K15" s="92">
+      <c r="J15" s="76" t="n"/>
+      <c r="K15" s="101">
         <f>E8+E13</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="A16" s="77" t="n"/>
-      <c r="D16" s="89" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="A16" s="86" t="n"/>
+      <c r="D16" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E16" s="90" t="n">
+      <c r="E16" s="99" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F16" s="63" t="n"/>
-      <c r="K16" s="78" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="F17" s="63" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="F18" s="63" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="F19" s="63" t="n"/>
+      <c r="F16" s="72" t="n"/>
+      <c r="K16" s="87" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="F17" s="72" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="F18" s="72" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="F19" s="72" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5931,668 +6211,668 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="43.72" customWidth="1" style="63" min="2" max="2"/>
-    <col width="14.29" customWidth="1" style="63" min="3" max="3"/>
-    <col width="11.57" customWidth="1" style="63" min="5" max="5"/>
-    <col width="30.57" customWidth="1" style="63" min="8" max="8"/>
-    <col width="10.91" customWidth="1" style="63" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="63" min="10" max="10"/>
-    <col width="12" customWidth="1" style="63" min="11" max="11"/>
+    <col width="43.72" customWidth="1" style="72" min="2" max="2"/>
+    <col width="14.29" customWidth="1" style="72" min="3" max="3"/>
+    <col width="11.57" customWidth="1" style="72" min="5" max="5"/>
+    <col width="30.57" customWidth="1" style="72" min="8" max="8"/>
+    <col width="10.91" customWidth="1" style="72" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="72" min="10" max="10"/>
+    <col width="12" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="94" t="n">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="118" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="95" t="inlineStr">
+      <c r="B3" s="119" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="96" t="n">
+      <c r="C3" s="120" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="95" t="n"/>
-      <c r="E3" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="63" t="inlineStr">
+      <c r="D3" s="119" t="n"/>
+      <c r="E3" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="95" t="n">
+      <c r="G3" s="119" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="95" t="inlineStr">
+      <c r="H3" s="119" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="95" t="n">
+      <c r="I3" s="119" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="36" t="n">
+      <c r="J3" s="119" t="n"/>
+      <c r="K3" s="45" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="63" t="inlineStr">
+      <c r="L3" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="94" t="n">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="118" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="95" t="inlineStr">
+      <c r="B4" s="119" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="96" t="n">
+      <c r="C4" s="120" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="95" t="n"/>
-      <c r="E4" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="D4" s="119" t="n"/>
+      <c r="E4" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="95" t="n">
+      <c r="G4" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="95" t="inlineStr">
+      <c r="H4" s="119" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="95" t="n">
+      <c r="I4" s="119" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="95" t="n"/>
-      <c r="K4" s="36" t="n">
+      <c r="J4" s="119" t="n"/>
+      <c r="K4" s="45" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="63" t="inlineStr">
+      <c r="L4" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="94" t="n">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="118" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="95" t="inlineStr">
+      <c r="B5" s="119" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="96" t="n">
+      <c r="C5" s="120" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="95" t="n"/>
-      <c r="E5" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="63" t="inlineStr">
+      <c r="D5" s="119" t="n"/>
+      <c r="E5" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="95" t="n">
+      <c r="G5" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="95" t="inlineStr">
+      <c r="H5" s="119" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="95" t="n">
+      <c r="I5" s="119" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="36" t="n">
+      <c r="J5" s="119" t="n"/>
+      <c r="K5" s="45" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="63" t="inlineStr">
+      <c r="L5" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="A6" s="94" t="n">
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="A6" s="118" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="95" t="inlineStr">
+      <c r="B6" s="119" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="96" t="n">
+      <c r="C6" s="120" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="95" t="n"/>
-      <c r="E6" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="63" t="inlineStr">
+      <c r="D6" s="119" t="n"/>
+      <c r="E6" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="95" t="n">
+      <c r="G6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="95" t="inlineStr">
+      <c r="H6" s="119" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="95" t="n">
+      <c r="I6" s="119" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="36" t="n">
+      <c r="J6" s="119" t="n"/>
+      <c r="K6" s="45" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="63" t="inlineStr">
+      <c r="L6" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="A7" s="94" t="n">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="A7" s="118" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="95" t="inlineStr">
+      <c r="B7" s="119" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="96" t="n">
+      <c r="C7" s="120" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="95" t="n"/>
-      <c r="E7" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="D7" s="119" t="n"/>
+      <c r="E7" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="95" t="n">
+      <c r="G7" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="95" t="inlineStr">
+      <c r="H7" s="119" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="95" t="n">
+      <c r="I7" s="119" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="95" t="n"/>
-      <c r="K7" s="36" t="n">
+      <c r="J7" s="119" t="n"/>
+      <c r="K7" s="45" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="63" t="inlineStr">
+      <c r="L7" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="A8" s="94" t="n">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="A8" s="118" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="95" t="inlineStr">
+      <c r="B8" s="119" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="96" t="n">
+      <c r="C8" s="120" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="95" t="n"/>
-      <c r="E8" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="D8" s="119" t="n"/>
+      <c r="E8" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="97" t="n"/>
-      <c r="I8" s="97" t="n"/>
-      <c r="J8" s="75" t="inlineStr">
+      <c r="H8" s="121" t="n"/>
+      <c r="I8" s="121" t="n"/>
+      <c r="J8" s="84" t="inlineStr">
         <is>
           <t>soma</t>
         </is>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="85">
         <f>K3+K4+K5+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="A9" s="94" t="n">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="A9" s="118" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="95" t="inlineStr">
+      <c r="B9" s="119" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="96" t="n">
+      <c r="C9" s="120" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="95" t="n"/>
-      <c r="E9" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="D9" s="119" t="n"/>
+      <c r="E9" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="97" t="n"/>
-      <c r="J9" s="63" t="inlineStr">
+      <c r="H9" s="121" t="n"/>
+      <c r="J9" s="72" t="inlineStr">
         <is>
           <t>psicologo</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="A10" s="94" t="n">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="A10" s="118" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="95" t="inlineStr">
+      <c r="B10" s="119" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="96" t="n">
+      <c r="C10" s="120" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="95" t="n"/>
-      <c r="E10" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="63" t="inlineStr">
+      <c r="D10" s="119" t="n"/>
+      <c r="E10" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J10" s="63" t="inlineStr">
+      <c r="J10" s="72" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="A11" s="94" t="n">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="A11" s="118" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="95" t="inlineStr">
+      <c r="B11" s="119" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="96" t="n">
+      <c r="C11" s="120" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="98" t="n"/>
-      <c r="E11" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="63" t="inlineStr">
+      <c r="D11" s="122" t="n"/>
+      <c r="E11" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="A12" s="94" t="n">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="A12" s="118" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="95" t="inlineStr">
+      <c r="B12" s="119" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="96" t="n">
+      <c r="C12" s="120" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="98" t="n"/>
-      <c r="E12" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="63" t="inlineStr">
+      <c r="D12" s="122" t="n"/>
+      <c r="E12" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="A13" s="94" t="n">
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="A13" s="118" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="95" t="inlineStr">
+      <c r="B13" s="119" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="96" t="n">
+      <c r="C13" s="120" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="98" t="n"/>
-      <c r="E13" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="63" t="inlineStr">
+      <c r="D13" s="122" t="n"/>
+      <c r="E13" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="72" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="A14" s="94" t="n">
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="A14" s="118" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="95" t="inlineStr">
+      <c r="B14" s="119" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="99" t="n">
+      <c r="C14" s="123" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="100" t="n"/>
-      <c r="E14" s="36" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="63" t="inlineStr">
+      <c r="D14" s="124" t="n"/>
+      <c r="E14" s="45" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="A15" s="101" t="n">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="A15" s="125" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="101" t="inlineStr">
+      <c r="B15" s="125" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="102" t="n">
+      <c r="C15" s="126" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="103" t="n"/>
+      <c r="D15" s="127" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F15" s="63" t="inlineStr">
+      <c r="F15" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I15" s="80" t="inlineStr">
+      <c r="I15" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J15" s="67" t="n"/>
-      <c r="K15" s="81">
+      <c r="J15" s="76" t="n"/>
+      <c r="K15" s="90">
         <f>E18</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="A16" s="101" t="n">
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="A16" s="125" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="101" t="inlineStr">
+      <c r="B16" s="125" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="102" t="n">
+      <c r="C16" s="126" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="103" t="n"/>
+      <c r="D16" s="127" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F16" s="63" t="inlineStr">
+      <c r="F16" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="80" t="inlineStr">
+      <c r="I16" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J16" s="67" t="n"/>
-      <c r="K16" s="81">
+      <c r="J16" s="76" t="n"/>
+      <c r="K16" s="90">
         <f>K8</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="A17" s="101" t="n">
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="A17" s="125" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="101" t="inlineStr">
+      <c r="B17" s="125" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="102" t="n">
+      <c r="C17" s="126" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="103" t="n"/>
+      <c r="D17" s="127" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F17" s="63" t="inlineStr">
+      <c r="F17" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I17" s="82" t="inlineStr">
+      <c r="I17" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J17" s="67" t="n"/>
-      <c r="K17" s="83">
+      <c r="J17" s="76" t="n"/>
+      <c r="K17" s="92">
         <f>K15+K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="D18" s="86" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="D18" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="82">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
         <v/>
       </c>
-      <c r="I18" s="80" t="inlineStr">
+      <c r="I18" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J18" s="67" t="n"/>
+      <c r="J18" s="76" t="n"/>
       <c r="K18" s="21" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="D19" s="89" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="D19" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="99">
         <f>49*15</f>
         <v/>
       </c>
-      <c r="I19" s="80" t="inlineStr">
+      <c r="I19" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J19" s="67" t="n"/>
-      <c r="K19" s="84" t="n">
+      <c r="J19" s="76" t="n"/>
+      <c r="K19" s="93" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="64">
-      <c r="D20" s="89" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="73">
+      <c r="D20" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="99">
         <f>E18-E19</f>
         <v/>
       </c>
-      <c r="I20" s="80" t="inlineStr">
+      <c r="I20" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J20" s="67" t="n"/>
-      <c r="K20" s="85">
+      <c r="J20" s="76" t="n"/>
+      <c r="K20" s="94">
         <f>K17-K19-K18</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="64">
-      <c r="I21" s="87" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="73">
+      <c r="I21" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J21" s="67" t="n"/>
-      <c r="K21" s="88">
+      <c r="J21" s="76" t="n"/>
+      <c r="K21" s="97">
         <f>E3+E5+E7+E8+E11+E14+E15+E16+E17+K4</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="64">
-      <c r="I22" s="87" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="73">
+      <c r="I22" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J22" s="67" t="n"/>
-      <c r="K22" s="88">
+      <c r="J22" s="76" t="n"/>
+      <c r="K22" s="97">
         <f>E4+E9+E12+E13+K3+K5</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="64">
-      <c r="I23" s="91" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="73">
+      <c r="I23" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J23" s="67" t="n"/>
-      <c r="K23" s="92">
+      <c r="J23" s="76" t="n"/>
+      <c r="K23" s="101">
         <f>E6+E10+K6+K7</f>
         <v/>
       </c>
@@ -6631,277 +6911,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.72" customWidth="1" style="63" min="5" max="5"/>
-    <col width="31.15" customWidth="1" style="63" min="10" max="10"/>
-    <col width="13.86" customWidth="1" style="63" min="11" max="11"/>
+    <col width="11.72" customWidth="1" style="72" min="5" max="5"/>
+    <col width="31.15" customWidth="1" style="72" min="10" max="10"/>
+    <col width="13.86" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 16/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 16/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="65" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="65" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="65" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="65" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="65" t="inlineStr">
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="65" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="65" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="65" t="inlineStr">
+      <c r="K2" s="74" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="77" t="n"/>
-      <c r="B3" s="78" t="n"/>
-      <c r="D3" s="86" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="86" t="n"/>
+      <c r="B3" s="87" t="n"/>
+      <c r="D3" s="95" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="82">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="74" t="n"/>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="85">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="77" t="n"/>
-      <c r="D4" s="89" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="86" t="n"/>
+      <c r="D4" s="98" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="99">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="74" t="n"/>
-      <c r="I4" s="74" t="n"/>
-      <c r="J4" s="78" t="n"/>
+      <c r="G4" s="86" t="n"/>
+      <c r="H4" s="83" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="87" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="77" t="n"/>
-      <c r="D5" s="89" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="86" t="n"/>
+      <c r="D5" s="98" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="99">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="63" t="n"/>
-      <c r="H5" s="79" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="F6" s="63" t="n"/>
-      <c r="I6" s="80" t="inlineStr">
+      <c r="F5" s="72" t="n"/>
+      <c r="H5" s="88" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="F6" s="72" t="n"/>
+      <c r="I6" s="89" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="67" t="n"/>
-      <c r="K6" s="81" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="90" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="F7" s="63" t="n"/>
-      <c r="H7" s="63" t="n"/>
-      <c r="I7" s="80" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="F7" s="72" t="n"/>
+      <c r="H7" s="72" t="n"/>
+      <c r="I7" s="89" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="67" t="n"/>
+      <c r="J7" s="76" t="n"/>
       <c r="K7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="F8" s="63" t="n"/>
-      <c r="I8" s="82" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="F8" s="72" t="n"/>
+      <c r="I8" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="67" t="n"/>
-      <c r="K8" s="83" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="92" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="F9" s="63" t="n"/>
-      <c r="I9" s="80" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="F9" s="72" t="n"/>
+      <c r="I9" s="89" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="67" t="n"/>
+      <c r="J9" s="76" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="F10" s="63" t="n"/>
-      <c r="I10" s="80" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="F10" s="72" t="n"/>
+      <c r="I10" s="89" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="67" t="n"/>
-      <c r="K10" s="84" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="93" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="F11" s="63" t="n"/>
-      <c r="I11" s="80" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="F11" s="72" t="n"/>
+      <c r="I11" s="89" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 604 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J11" s="67" t="n"/>
-      <c r="K11" s="84" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="93" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="F12" s="63" t="n"/>
-      <c r="I12" s="80" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="F12" s="72" t="n"/>
+      <c r="I12" s="89" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 605 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J12" s="67" t="n"/>
-      <c r="K12" s="84" t="n">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="93" t="n">
         <v>64.81</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="F13" s="63" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="F13" s="72" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="80" t="inlineStr">
+      <c r="I13" s="89" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J13" s="67" t="n"/>
-      <c r="K13" s="85">
+      <c r="J13" s="76" t="n"/>
+      <c r="K13" s="94">
         <f>K8-K10-K9-K11-K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="F14" s="63" t="n"/>
-      <c r="I14" s="87" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="F14" s="72" t="n"/>
+      <c r="I14" s="96" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J14" s="67" t="n"/>
-      <c r="K14" s="88">
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="F15" s="63" t="n"/>
-      <c r="I15" s="87" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="F15" s="72" t="n"/>
+      <c r="I15" s="96" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J15" s="67" t="n"/>
-      <c r="K15" s="88">
+      <c r="J15" s="76" t="n"/>
+      <c r="K15" s="97">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="F16" s="63" t="n"/>
-      <c r="I16" s="91" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="F16" s="72" t="n"/>
+      <c r="I16" s="100" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J16" s="67" t="n"/>
-      <c r="K16" s="92">
+      <c r="J16" s="76" t="n"/>
+      <c r="K16" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="K17" s="78" t="n"/>
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="K17" s="87" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6939,556 +7219,556 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="37.3" customWidth="1" style="63" min="2" max="2"/>
-    <col width="11.72" customWidth="1" style="63" min="3" max="3"/>
-    <col width="8.699999999999999" customWidth="1" style="63" min="5" max="5"/>
-    <col width="29.3" customWidth="1" style="63" min="8" max="8"/>
-    <col width="15.44" customWidth="1" style="63" min="9" max="9"/>
-    <col width="22" customWidth="1" style="63" min="10" max="10"/>
-    <col width="8.33" customWidth="1" style="63" min="11" max="11"/>
+    <col width="37.3" customWidth="1" style="72" min="2" max="2"/>
+    <col width="11.72" customWidth="1" style="72" min="3" max="3"/>
+    <col width="8.699999999999999" customWidth="1" style="72" min="5" max="5"/>
+    <col width="29.3" customWidth="1" style="72" min="8" max="8"/>
+    <col width="15.44" customWidth="1" style="72" min="9" max="9"/>
+    <col width="22" customWidth="1" style="72" min="10" max="10"/>
+    <col width="8.33" customWidth="1" style="72" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="64">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="73">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 17/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="66" t="n"/>
-      <c r="C1" s="66" t="n"/>
-      <c r="D1" s="66" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="G1" s="65" t="inlineStr">
+      <c r="B1" s="75" t="n"/>
+      <c r="C1" s="75" t="n"/>
+      <c r="D1" s="75" t="n"/>
+      <c r="E1" s="76" t="n"/>
+      <c r="G1" s="74" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 17/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="66" t="n"/>
-      <c r="I1" s="66" t="n"/>
-      <c r="J1" s="66" t="n"/>
-      <c r="K1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="64">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="H1" s="75" t="n"/>
+      <c r="I1" s="75" t="n"/>
+      <c r="J1" s="75" t="n"/>
+      <c r="K1" s="76" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="73">
+      <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="68" t="inlineStr">
+      <c r="B2" s="77" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="68" t="inlineStr">
+      <c r="C2" s="77" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="68" t="inlineStr">
+      <c r="D2" s="77" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="68" t="inlineStr">
+      <c r="E2" s="77" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="63" t="n"/>
-      <c r="G2" s="68" t="inlineStr">
+      <c r="F2" s="72" t="n"/>
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="68" t="inlineStr">
+      <c r="H2" s="77" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="68" t="inlineStr">
+      <c r="I2" s="77" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="68" t="inlineStr">
+      <c r="J2" s="77" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="68" t="inlineStr">
+      <c r="K2" s="77" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="64">
-      <c r="A3" s="68" t="n"/>
-      <c r="B3" s="68" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="73">
+      <c r="A3" s="77" t="n"/>
+      <c r="B3" s="77" t="inlineStr">
         <is>
           <t>SOFIA ALMEIDA FERREIRA</t>
         </is>
       </c>
-      <c r="C3" s="65" t="inlineStr">
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>513641554</t>
         </is>
       </c>
-      <c r="D3" s="65" t="n"/>
-      <c r="E3" s="69" t="n"/>
-      <c r="F3" s="63" t="inlineStr">
+      <c r="D3" s="74" t="n"/>
+      <c r="E3" s="78" t="n"/>
+      <c r="F3" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="63" t="n"/>
-      <c r="H3" s="63" t="inlineStr">
+      <c r="G3" s="72" t="n"/>
+      <c r="H3" s="72" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="I3" s="77" t="inlineStr">
+      <c r="I3" s="86" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="104" t="n"/>
-      <c r="K3" s="76" t="n"/>
-      <c r="L3" s="63" t="inlineStr">
+      <c r="J3" s="128" t="n"/>
+      <c r="K3" s="85" t="n"/>
+      <c r="L3" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="64">
-      <c r="A4" s="68" t="n"/>
-      <c r="B4" s="68" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="73">
+      <c r="A4" s="77" t="n"/>
+      <c r="B4" s="77" t="inlineStr">
         <is>
           <t>ANA CRISTINA LEONE RIOS</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="C4" s="74" t="inlineStr">
         <is>
           <t>513835235</t>
         </is>
       </c>
-      <c r="D4" s="65" t="n"/>
-      <c r="E4" s="69" t="n"/>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="D4" s="74" t="n"/>
+      <c r="E4" s="78" t="n"/>
+      <c r="F4" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="77" t="inlineStr">
+      <c r="G4" s="86" t="n"/>
+      <c r="H4" s="86" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="I4" s="77" t="inlineStr">
+      <c r="I4" s="86" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="J4" s="78" t="n"/>
+      <c r="J4" s="87" t="n"/>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="63" t="inlineStr">
+      <c r="L4" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="64">
-      <c r="A5" s="68" t="n"/>
-      <c r="B5" s="72" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="73">
+      <c r="A5" s="77" t="n"/>
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t>ROBSON OLIVEIRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C5" s="65" t="inlineStr">
+      <c r="C5" s="74" t="inlineStr">
         <is>
           <t>513808652</t>
         </is>
       </c>
-      <c r="D5" s="65" t="n"/>
-      <c r="E5" s="69" t="n"/>
-      <c r="F5" s="63" t="inlineStr">
+      <c r="D5" s="74" t="n"/>
+      <c r="E5" s="78" t="n"/>
+      <c r="F5" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" s="63" t="n"/>
-      <c r="H5" s="77" t="n"/>
-      <c r="L5" s="63" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="64">
-      <c r="A6" s="68" t="n"/>
-      <c r="B6" s="68" t="inlineStr">
+      <c r="G5" s="72" t="n"/>
+      <c r="H5" s="86" t="n"/>
+      <c r="L5" s="72" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="A6" s="77" t="n"/>
+      <c r="B6" s="77" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="C6" s="74" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="D6" s="65" t="n"/>
-      <c r="E6" s="69" t="n"/>
-      <c r="F6" s="63" t="inlineStr">
+      <c r="D6" s="74" t="n"/>
+      <c r="E6" s="78" t="n"/>
+      <c r="F6" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="63" t="n"/>
-      <c r="H6" s="63" t="inlineStr">
+      <c r="G6" s="72" t="n"/>
+      <c r="H6" s="72" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="101" t="inlineStr">
+      <c r="I6" s="125" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="105" t="n"/>
-      <c r="K6" s="106" t="n"/>
-      <c r="L6" s="63" t="inlineStr">
+      <c r="J6" s="129" t="n"/>
+      <c r="K6" s="130" t="n"/>
+      <c r="L6" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="64">
-      <c r="A7" s="68" t="n"/>
-      <c r="B7" s="68" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="73">
+      <c r="A7" s="77" t="n"/>
+      <c r="B7" s="77" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="C7" s="65" t="inlineStr">
+      <c r="C7" s="74" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="D7" s="65" t="n"/>
-      <c r="E7" s="69" t="n"/>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="D7" s="74" t="n"/>
+      <c r="E7" s="78" t="n"/>
+      <c r="F7" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="63" t="n"/>
-      <c r="I7" s="101" t="n"/>
-      <c r="J7" s="105" t="n"/>
-      <c r="K7" s="47" t="n"/>
-      <c r="L7" s="63" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="64">
-      <c r="A8" s="68" t="n"/>
-      <c r="B8" s="68" t="inlineStr">
+      <c r="G7" s="72" t="n"/>
+      <c r="I7" s="125" t="n"/>
+      <c r="J7" s="129" t="n"/>
+      <c r="K7" s="54" t="n"/>
+      <c r="L7" s="72" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="73">
+      <c r="A8" s="77" t="n"/>
+      <c r="B8" s="77" t="inlineStr">
         <is>
           <t>MARIANNE ESPINDOLA LEFUNDES</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="C8" s="74" t="inlineStr">
         <is>
           <t>513717741</t>
         </is>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="69" t="n"/>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="D8" s="74" t="n"/>
+      <c r="E8" s="78" t="n"/>
+      <c r="F8" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="63" t="n"/>
-      <c r="I8" s="101" t="n"/>
-      <c r="J8" s="105" t="n"/>
-      <c r="K8" s="83" t="n"/>
-      <c r="L8" s="63" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="64">
-      <c r="A9" s="68" t="n"/>
-      <c r="B9" s="68" t="n"/>
-      <c r="C9" s="65" t="n"/>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="69" t="n"/>
-      <c r="F9" s="63" t="n"/>
-      <c r="G9" s="63" t="n"/>
-      <c r="I9" s="101" t="n"/>
-      <c r="J9" s="105" t="n"/>
+      <c r="G8" s="72" t="n"/>
+      <c r="I8" s="125" t="n"/>
+      <c r="J8" s="129" t="n"/>
+      <c r="K8" s="92" t="n"/>
+      <c r="L8" s="72" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="73">
+      <c r="A9" s="77" t="n"/>
+      <c r="B9" s="77" t="n"/>
+      <c r="C9" s="74" t="n"/>
+      <c r="D9" s="74" t="n"/>
+      <c r="E9" s="78" t="n"/>
+      <c r="F9" s="72" t="n"/>
+      <c r="G9" s="72" t="n"/>
+      <c r="I9" s="125" t="n"/>
+      <c r="J9" s="129" t="n"/>
       <c r="K9" s="21" t="n"/>
-      <c r="L9" s="63" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="64">
-      <c r="A10" s="68" t="n"/>
-      <c r="B10" s="68" t="inlineStr">
+      <c r="L9" s="72" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="73">
+      <c r="A10" s="77" t="n"/>
+      <c r="B10" s="77" t="inlineStr">
         <is>
           <t>RENATA DE JESUS SALES</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="C10" s="74" t="inlineStr">
         <is>
           <t>513831409</t>
         </is>
       </c>
-      <c r="D10" s="71" t="n"/>
-      <c r="E10" s="73" t="n"/>
-      <c r="F10" s="63" t="inlineStr">
+      <c r="D10" s="80" t="n"/>
+      <c r="E10" s="82" t="n"/>
+      <c r="F10" s="72" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G10" s="63" t="n"/>
-      <c r="I10" s="101" t="n"/>
-      <c r="J10" s="105" t="n"/>
-      <c r="K10" s="84" t="n"/>
-      <c r="L10" s="63" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="64">
-      <c r="A11" s="68" t="n"/>
-      <c r="B11" s="72" t="inlineStr">
+      <c r="G10" s="72" t="n"/>
+      <c r="I10" s="125" t="n"/>
+      <c r="J10" s="129" t="n"/>
+      <c r="K10" s="93" t="n"/>
+      <c r="L10" s="72" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="73">
+      <c r="A11" s="77" t="n"/>
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t>ARTUR PRUST SALIBA</t>
         </is>
       </c>
-      <c r="C11" s="65" t="inlineStr">
+      <c r="C11" s="74" t="inlineStr">
         <is>
           <t>513753012</t>
         </is>
       </c>
-      <c r="D11" s="71" t="n"/>
-      <c r="E11" s="73" t="n"/>
-      <c r="F11" s="63" t="inlineStr">
+      <c r="D11" s="80" t="n"/>
+      <c r="E11" s="82" t="n"/>
+      <c r="F11" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="63" t="n"/>
-      <c r="I11" s="101" t="n"/>
-      <c r="J11" s="105" t="n"/>
-      <c r="K11" s="84" t="n"/>
-      <c r="L11" s="63" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="64">
-      <c r="A12" s="77" t="n"/>
-      <c r="B12" s="68" t="inlineStr">
+      <c r="G11" s="72" t="n"/>
+      <c r="I11" s="125" t="n"/>
+      <c r="J11" s="129" t="n"/>
+      <c r="K11" s="93" t="n"/>
+      <c r="L11" s="72" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="73">
+      <c r="A12" s="86" t="n"/>
+      <c r="B12" s="77" t="inlineStr">
         <is>
           <t>CAROLINA GALVAO BROCHADO DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="C12" s="74" t="inlineStr">
         <is>
           <t>513830449</t>
         </is>
       </c>
-      <c r="D12" s="65" t="n"/>
-      <c r="E12" s="73" t="n"/>
-      <c r="F12" s="63" t="inlineStr">
+      <c r="D12" s="74" t="n"/>
+      <c r="E12" s="82" t="n"/>
+      <c r="F12" s="72" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="63" t="n"/>
-      <c r="I12" s="101" t="n"/>
-      <c r="J12" s="105" t="n"/>
-      <c r="K12" s="84" t="n"/>
-      <c r="L12" s="63" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="64">
-      <c r="A13" s="77" t="n"/>
-      <c r="B13" s="68" t="inlineStr">
+      <c r="G12" s="72" t="n"/>
+      <c r="I12" s="125" t="n"/>
+      <c r="J12" s="129" t="n"/>
+      <c r="K12" s="93" t="n"/>
+      <c r="L12" s="72" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="73">
+      <c r="A13" s="86" t="n"/>
+      <c r="B13" s="77" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="C13" s="65" t="inlineStr">
+      <c r="C13" s="74" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="D13" s="71" t="n"/>
-      <c r="E13" s="73" t="n"/>
-      <c r="F13" s="63" t="inlineStr">
+      <c r="D13" s="80" t="n"/>
+      <c r="E13" s="82" t="n"/>
+      <c r="F13" s="72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="101" t="n"/>
-      <c r="J13" s="105" t="n"/>
-      <c r="K13" s="85" t="n"/>
-      <c r="L13" s="63" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="64">
-      <c r="A14" s="77" t="n"/>
-      <c r="B14" s="63" t="inlineStr">
+      <c r="I13" s="125" t="n"/>
+      <c r="J13" s="129" t="n"/>
+      <c r="K13" s="94" t="n"/>
+      <c r="L13" s="72" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="73">
+      <c r="A14" s="86" t="n"/>
+      <c r="B14" s="72" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C14" s="63" t="inlineStr">
+      <c r="C14" s="72" t="inlineStr">
         <is>
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="107" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="63" t="inlineStr">
+      <c r="D14" s="131" t="n"/>
+      <c r="E14" s="132" t="n"/>
+      <c r="F14" s="72" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G14" s="63" t="n"/>
-      <c r="I14" s="109" t="n"/>
-      <c r="J14" s="105" t="n"/>
-      <c r="K14" s="88" t="n"/>
-      <c r="L14" s="63" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="64">
-      <c r="A15" s="63" t="n"/>
-      <c r="B15" s="63" t="inlineStr">
+      <c r="G14" s="72" t="n"/>
+      <c r="I14" s="133" t="n"/>
+      <c r="J14" s="129" t="n"/>
+      <c r="K14" s="97" t="n"/>
+      <c r="L14" s="72" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="73">
+      <c r="A15" s="72" t="n"/>
+      <c r="B15" s="72" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C15" s="63" t="inlineStr">
+      <c r="C15" s="72" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D15" s="63" t="n"/>
-      <c r="F15" s="63" t="inlineStr">
+      <c r="D15" s="72" t="n"/>
+      <c r="F15" s="72" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G15" s="63" t="n"/>
-      <c r="I15" s="109" t="n"/>
-      <c r="J15" s="105" t="n"/>
-      <c r="K15" s="88" t="n"/>
-      <c r="L15" s="63" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="64">
-      <c r="A16" s="63" t="n"/>
-      <c r="D16" s="63" t="n"/>
-      <c r="F16" s="63" t="n"/>
-      <c r="G16" s="63" t="n"/>
-      <c r="I16" s="110" t="n"/>
-      <c r="J16" s="105" t="n"/>
-      <c r="K16" s="92" t="n"/>
-      <c r="L16" s="63" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="64">
-      <c r="A17" s="63" t="n"/>
-      <c r="D17" s="63" t="n"/>
-      <c r="F17" s="63" t="n"/>
-      <c r="G17" s="63" t="n"/>
-      <c r="K17" s="78" t="n"/>
-      <c r="L17" s="63" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="64">
-      <c r="A18" s="63" t="n"/>
-      <c r="D18" s="63" t="n"/>
-      <c r="F18" s="63" t="n"/>
-      <c r="G18" s="63" t="n"/>
-      <c r="L18" s="63" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="64">
-      <c r="A19" s="63" t="n"/>
-      <c r="D19" s="63" t="n"/>
-      <c r="F19" s="63" t="n"/>
-      <c r="G19" s="63" t="n"/>
-      <c r="L19" s="63" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="64">
-      <c r="A20" s="63" t="n"/>
-      <c r="D20" s="63" t="n"/>
-      <c r="F20" s="63" t="n"/>
-      <c r="G20" s="63" t="n"/>
-      <c r="L20" s="63" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="64">
-      <c r="A21" s="63" t="n"/>
-      <c r="D21" s="63" t="n"/>
-      <c r="F21" s="63" t="n"/>
-      <c r="G21" s="63" t="n"/>
-      <c r="L21" s="63" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="64">
-      <c r="A22" s="63" t="n"/>
-      <c r="D22" s="63" t="n"/>
-      <c r="F22" s="63" t="n"/>
-      <c r="G22" s="63" t="n"/>
-      <c r="L22" s="63" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="64">
-      <c r="A23" s="63" t="n"/>
-      <c r="D23" s="63" t="n"/>
-      <c r="F23" s="63" t="n"/>
-      <c r="G23" s="63" t="n"/>
-      <c r="L23" s="63" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="64">
-      <c r="A24" s="63" t="n"/>
-      <c r="D24" s="63" t="n"/>
-      <c r="F24" s="63" t="n"/>
-      <c r="G24" s="63" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="64">
-      <c r="A25" s="63" t="n"/>
-      <c r="D25" s="63" t="n"/>
-      <c r="F25" s="63" t="n"/>
-      <c r="G25" s="63" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="64">
-      <c r="A26" s="63" t="n"/>
-      <c r="D26" s="63" t="n"/>
-      <c r="F26" s="63" t="n"/>
-      <c r="G26" s="63" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="64">
-      <c r="A27" s="63" t="n"/>
-      <c r="D27" s="63" t="n"/>
-      <c r="F27" s="63" t="n"/>
-      <c r="G27" s="63" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="64">
-      <c r="A28" s="63" t="n"/>
-      <c r="D28" s="63" t="n"/>
-      <c r="F28" s="63" t="n"/>
-      <c r="G28" s="63" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="64">
-      <c r="A29" s="63" t="n"/>
-      <c r="D29" s="63" t="n"/>
-      <c r="F29" s="63" t="n"/>
-      <c r="G29" s="63" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="64">
-      <c r="A30" s="63" t="n"/>
-      <c r="D30" s="63" t="n"/>
-      <c r="F30" s="63" t="n"/>
-      <c r="G30" s="63" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="64">
-      <c r="A31" s="63" t="n"/>
-      <c r="D31" s="63" t="n"/>
-      <c r="F31" s="63" t="n"/>
-      <c r="G31" s="63" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="64">
-      <c r="A32" s="63" t="n"/>
-      <c r="D32" s="63" t="n"/>
-      <c r="F32" s="63" t="n"/>
-      <c r="G32" s="63" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="64">
-      <c r="A33" s="63" t="n"/>
-      <c r="D33" s="63" t="n"/>
-      <c r="F33" s="63" t="n"/>
-      <c r="G33" s="63" t="n"/>
+      <c r="G15" s="72" t="n"/>
+      <c r="I15" s="133" t="n"/>
+      <c r="J15" s="129" t="n"/>
+      <c r="K15" s="97" t="n"/>
+      <c r="L15" s="72" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="73">
+      <c r="A16" s="72" t="n"/>
+      <c r="D16" s="72" t="n"/>
+      <c r="F16" s="72" t="n"/>
+      <c r="G16" s="72" t="n"/>
+      <c r="I16" s="134" t="n"/>
+      <c r="J16" s="129" t="n"/>
+      <c r="K16" s="101" t="n"/>
+      <c r="L16" s="72" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="73">
+      <c r="A17" s="72" t="n"/>
+      <c r="D17" s="72" t="n"/>
+      <c r="F17" s="72" t="n"/>
+      <c r="G17" s="72" t="n"/>
+      <c r="K17" s="87" t="n"/>
+      <c r="L17" s="72" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="73">
+      <c r="A18" s="72" t="n"/>
+      <c r="D18" s="72" t="n"/>
+      <c r="F18" s="72" t="n"/>
+      <c r="G18" s="72" t="n"/>
+      <c r="L18" s="72" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="73">
+      <c r="A19" s="72" t="n"/>
+      <c r="D19" s="72" t="n"/>
+      <c r="F19" s="72" t="n"/>
+      <c r="G19" s="72" t="n"/>
+      <c r="L19" s="72" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="73">
+      <c r="A20" s="72" t="n"/>
+      <c r="D20" s="72" t="n"/>
+      <c r="F20" s="72" t="n"/>
+      <c r="G20" s="72" t="n"/>
+      <c r="L20" s="72" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="73">
+      <c r="A21" s="72" t="n"/>
+      <c r="D21" s="72" t="n"/>
+      <c r="F21" s="72" t="n"/>
+      <c r="G21" s="72" t="n"/>
+      <c r="L21" s="72" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="73">
+      <c r="A22" s="72" t="n"/>
+      <c r="D22" s="72" t="n"/>
+      <c r="F22" s="72" t="n"/>
+      <c r="G22" s="72" t="n"/>
+      <c r="L22" s="72" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="73">
+      <c r="A23" s="72" t="n"/>
+      <c r="D23" s="72" t="n"/>
+      <c r="F23" s="72" t="n"/>
+      <c r="G23" s="72" t="n"/>
+      <c r="L23" s="72" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="73">
+      <c r="A24" s="72" t="n"/>
+      <c r="D24" s="72" t="n"/>
+      <c r="F24" s="72" t="n"/>
+      <c r="G24" s="72" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="73">
+      <c r="A25" s="72" t="n"/>
+      <c r="D25" s="72" t="n"/>
+      <c r="F25" s="72" t="n"/>
+      <c r="G25" s="72" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="73">
+      <c r="A26" s="72" t="n"/>
+      <c r="D26" s="72" t="n"/>
+      <c r="F26" s="72" t="n"/>
+      <c r="G26" s="72" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="73">
+      <c r="A27" s="72" t="n"/>
+      <c r="D27" s="72" t="n"/>
+      <c r="F27" s="72" t="n"/>
+      <c r="G27" s="72" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="73">
+      <c r="A28" s="72" t="n"/>
+      <c r="D28" s="72" t="n"/>
+      <c r="F28" s="72" t="n"/>
+      <c r="G28" s="72" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="73">
+      <c r="A29" s="72" t="n"/>
+      <c r="D29" s="72" t="n"/>
+      <c r="F29" s="72" t="n"/>
+      <c r="G29" s="72" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="73">
+      <c r="A30" s="72" t="n"/>
+      <c r="D30" s="72" t="n"/>
+      <c r="F30" s="72" t="n"/>
+      <c r="G30" s="72" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="73">
+      <c r="A31" s="72" t="n"/>
+      <c r="D31" s="72" t="n"/>
+      <c r="F31" s="72" t="n"/>
+      <c r="G31" s="72" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="73">
+      <c r="A32" s="72" t="n"/>
+      <c r="D32" s="72" t="n"/>
+      <c r="F32" s="72" t="n"/>
+      <c r="G32" s="72" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="73">
+      <c r="A33" s="72" t="n"/>
+      <c r="D33" s="72" t="n"/>
+      <c r="F33" s="72" t="n"/>
+      <c r="G33" s="72" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -173,15 +173,6 @@
       <color rgb="FFFFFFFF"/>
       <sz val="14"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -261,12 +252,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -281,7 +266,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -582,53 +567,32 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
@@ -651,15 +615,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -695,9 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -976,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -1071,11 +1026,11 @@
       </c>
       <c r="B3" s="77" t="inlineStr">
         <is>
-          <t>ATANAEL PINTO SANTANA</t>
+          <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
       <c r="C3" s="74" t="n">
-        <v>513777451</v>
+        <v>513700004</v>
       </c>
       <c r="D3" s="74" t="n"/>
       <c r="E3" s="78" t="n">
@@ -1083,7 +1038,7 @@
       </c>
       <c r="F3" s="72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" s="77" t="n">
@@ -1091,11 +1046,11 @@
       </c>
       <c r="H3" s="79" t="inlineStr">
         <is>
-          <t>ATANAEL PINTO SANTANA</t>
+          <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
       <c r="I3" s="74" t="n">
-        <v>513777451</v>
+        <v>513700004</v>
       </c>
       <c r="J3" s="80" t="n"/>
       <c r="K3" s="80" t="n">
@@ -1103,7 +1058,7 @@
       </c>
       <c r="L3" s="72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1113,11 +1068,11 @@
       </c>
       <c r="B4" s="77" t="inlineStr">
         <is>
-          <t>TAMILE SANTANA RIOS</t>
+          <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
       <c r="C4" s="74" t="n">
-        <v>513700004</v>
+        <v>513776719</v>
       </c>
       <c r="D4" s="74" t="n"/>
       <c r="E4" s="78" t="n">
@@ -1125,7 +1080,7 @@
       </c>
       <c r="F4" s="72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" s="77" t="n">
@@ -1133,11 +1088,11 @@
       </c>
       <c r="H4" s="79" t="inlineStr">
         <is>
-          <t>TAMILE SANTANA RIOS</t>
+          <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
       <c r="I4" s="74" t="n">
-        <v>513700004</v>
+        <v>513758449</v>
       </c>
       <c r="J4" s="80" t="n"/>
       <c r="K4" s="80" t="n">
@@ -1145,7 +1100,7 @@
       </c>
       <c r="L4" s="72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
@@ -1155,11 +1110,11 @@
       </c>
       <c r="B5" s="81" t="inlineStr">
         <is>
-          <t>MARIA ANGELA REIS COSTA</t>
+          <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
       <c r="C5" s="74" t="n">
-        <v>513776719</v>
+        <v>513758449</v>
       </c>
       <c r="D5" s="74" t="n"/>
       <c r="E5" s="78" t="n">
@@ -1167,7 +1122,7 @@
       </c>
       <c r="F5" s="72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E:300/P:41,26</t>
         </is>
       </c>
       <c r="G5" s="77" t="n">
@@ -1175,11 +1130,11 @@
       </c>
       <c r="H5" s="79" t="inlineStr">
         <is>
-          <t>CAMILA SILVA FRANCA</t>
+          <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
       <c r="I5" s="74" t="n">
-        <v>513758449</v>
+        <v>513749220</v>
       </c>
       <c r="J5" s="80" t="n"/>
       <c r="K5" s="80" t="n">
@@ -1187,7 +1142,7 @@
       </c>
       <c r="L5" s="72" t="inlineStr">
         <is>
-          <t>E:300/P:41,26</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1197,11 +1152,11 @@
       </c>
       <c r="B6" s="77" t="inlineStr">
         <is>
-          <t>CAMILA SILVA FRANCA</t>
+          <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
       <c r="C6" s="74" t="n">
-        <v>513758449</v>
+        <v>513749220</v>
       </c>
       <c r="D6" s="74" t="n"/>
       <c r="E6" s="78" t="n">
@@ -1209,7 +1164,7 @@
       </c>
       <c r="F6" s="72" t="inlineStr">
         <is>
-          <t>E:300/P:41,26</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G6" s="77" t="n">
@@ -1217,11 +1172,11 @@
       </c>
       <c r="H6" s="79" t="inlineStr">
         <is>
-          <t>GERSON ARAUJO SANTOS</t>
+          <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="I6" s="74" t="n">
-        <v>513749220</v>
+        <v>513754823</v>
       </c>
       <c r="J6" s="80" t="n"/>
       <c r="K6" s="80" t="n">
@@ -1229,7 +1184,7 @@
       </c>
       <c r="L6" s="72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1239,11 +1194,11 @@
       </c>
       <c r="B7" s="77" t="inlineStr">
         <is>
-          <t>GERSON ARAUJO SANTOS</t>
+          <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
       <c r="C7" s="74" t="n">
-        <v>513749220</v>
+        <v>513756797</v>
       </c>
       <c r="D7" s="74" t="n"/>
       <c r="E7" s="78" t="n">
@@ -1259,11 +1214,11 @@
       </c>
       <c r="H7" s="79" t="inlineStr">
         <is>
-          <t>GILMAR JOSE SANTOS DA SILVA</t>
+          <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
       <c r="I7" s="74" t="n">
-        <v>513754823</v>
+        <v>513781493</v>
       </c>
       <c r="J7" s="80" t="n"/>
       <c r="K7" s="80" t="n">
@@ -1271,7 +1226,7 @@
       </c>
       <c r="L7" s="72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1281,11 +1236,11 @@
       </c>
       <c r="B8" s="77" t="inlineStr">
         <is>
-          <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
+          <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
       <c r="C8" s="74" t="n">
-        <v>513756797</v>
+        <v>513761848</v>
       </c>
       <c r="D8" s="74" t="n"/>
       <c r="E8" s="78" t="n">
@@ -1301,11 +1256,11 @@
       </c>
       <c r="H8" s="77" t="inlineStr">
         <is>
-          <t>LEANDRO NERY SANTOS BRITO</t>
+          <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
       <c r="I8" s="74" t="n">
-        <v>513781493</v>
+        <v>513701260</v>
       </c>
       <c r="J8" s="80" t="n"/>
       <c r="K8" s="80" t="n">
@@ -1323,11 +1278,11 @@
       </c>
       <c r="B9" s="77" t="inlineStr">
         <is>
-          <t>MAILY BORGES NUNEZ</t>
+          <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
       <c r="C9" s="74" t="n">
-        <v>513761848</v>
+        <v>513778649</v>
       </c>
       <c r="D9" s="74" t="n"/>
       <c r="E9" s="78" t="n">
@@ -1335,7 +1290,7 @@
       </c>
       <c r="F9" s="72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G9" s="77" t="n">
@@ -1343,11 +1298,11 @@
       </c>
       <c r="H9" s="77" t="inlineStr">
         <is>
-          <t>MARIA CLARA MORAIS DE CARVALHO</t>
+          <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
       <c r="I9" s="74" t="n">
-        <v>513701260</v>
+        <v>513772028</v>
       </c>
       <c r="J9" s="80" t="n"/>
       <c r="K9" s="80" t="n">
@@ -1365,11 +1320,11 @@
       </c>
       <c r="B10" s="77" t="inlineStr">
         <is>
-          <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
+          <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
       <c r="C10" s="74" t="n">
-        <v>513778649</v>
+        <v>513720426</v>
       </c>
       <c r="D10" s="80" t="n"/>
       <c r="E10" s="82" t="n">
@@ -1377,29 +1332,24 @@
       </c>
       <c r="F10" s="72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="77" t="inlineStr">
-        <is>
-          <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
-        </is>
-      </c>
-      <c r="I10" s="74" t="n">
-        <v>513772028</v>
-      </c>
-      <c r="J10" s="80" t="n"/>
-      <c r="K10" s="80" t="n">
-        <v>192.61</v>
-      </c>
-      <c r="L10" s="72" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="H10" s="77" t="n"/>
+      <c r="I10" s="74" t="n"/>
+      <c r="J10" s="80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="K10" s="80">
+        <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
+        <v/>
+      </c>
+      <c r="L10" s="72" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="73">
       <c r="A11" s="77" t="n">
@@ -1407,11 +1357,11 @@
       </c>
       <c r="B11" s="81" t="inlineStr">
         <is>
-          <t>DIEGO CAVALCANTI GONCALVES</t>
+          <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
       <c r="C11" s="74" t="n">
-        <v>513720426</v>
+        <v>513754823</v>
       </c>
       <c r="D11" s="80" t="n"/>
       <c r="E11" s="82" t="n">
@@ -1419,33 +1369,13 @@
       </c>
       <c r="F11" s="72" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H11" s="72" t="inlineStr">
-        <is>
-          <t>POLIGLOTA</t>
-        </is>
-      </c>
-      <c r="I11" s="83" t="inlineStr">
-        <is>
-          <t>777777</t>
-        </is>
-      </c>
-      <c r="J11" s="84" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="K11" s="85">
-        <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
-        <v/>
-      </c>
-      <c r="L11" s="72" t="inlineStr">
-        <is>
           <t>D</t>
         </is>
       </c>
+      <c r="I11" s="83" t="n"/>
+      <c r="J11" s="84" t="n"/>
+      <c r="K11" s="85" t="n"/>
+      <c r="L11" s="72" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="73">
       <c r="A12" s="77" t="n">
@@ -1453,11 +1383,11 @@
       </c>
       <c r="B12" s="77" t="inlineStr">
         <is>
-          <t>GILMAR JOSE SANTOS DA SILVA</t>
+          <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
       <c r="C12" s="74" t="n">
-        <v>513754823</v>
+        <v>513781493</v>
       </c>
       <c r="D12" s="74" t="n"/>
       <c r="E12" s="82" t="n">
@@ -1465,7 +1395,7 @@
       </c>
       <c r="F12" s="72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" s="86" t="n"/>
@@ -1480,11 +1410,11 @@
       </c>
       <c r="B13" s="77" t="inlineStr">
         <is>
-          <t>LEANDRO NERY SANTOS BRITO</t>
+          <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
       <c r="C13" s="74" t="n">
-        <v>513781493</v>
+        <v>513766860</v>
       </c>
       <c r="D13" s="80" t="n"/>
       <c r="E13" s="82" t="n">
@@ -1492,10 +1422,18 @@
       </c>
       <c r="F13" s="72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H13" s="88" t="n"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ATEND.MÉDICO</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2527.05</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="73">
       <c r="A14" s="77" t="n">
@@ -1503,11 +1441,11 @@
       </c>
       <c r="B14" s="77" t="inlineStr">
         <is>
-          <t>JOAO CUSTODIO GONCALVES</t>
+          <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
       <c r="C14" s="74" t="n">
-        <v>513766860</v>
+        <v>513701260</v>
       </c>
       <c r="D14" s="80" t="n"/>
       <c r="E14" s="82" t="n">
@@ -1515,17 +1453,17 @@
       </c>
       <c r="F14" s="72" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I14" s="89" t="inlineStr">
         <is>
-          <t>ATEND.MÉDICO</t>
+          <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
       <c r="J14" s="76" t="n"/>
       <c r="K14" s="90" t="n">
-        <v>2527.05</v>
+        <v>1540.88</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="73">
@@ -1534,11 +1472,13 @@
       </c>
       <c r="B15" s="77" t="inlineStr">
         <is>
-          <t>MARIA CLARA MORAIS DE CARVALHO</t>
-        </is>
-      </c>
-      <c r="C15" s="74" t="n">
-        <v>513701260</v>
+          <t>DANIEL BARBOSA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C15" s="74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">513778201	</t>
+        </is>
       </c>
       <c r="D15" s="80" t="n"/>
       <c r="E15" s="82" t="n">
@@ -1551,12 +1491,12 @@
       </c>
       <c r="I15" s="89" t="inlineStr">
         <is>
-          <t>ATEND.PSICOLÓGICO</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="J15" s="76" t="n"/>
       <c r="K15" s="18" t="n">
-        <v>1540.88</v>
+        <v>2378.4</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="73">
@@ -1565,13 +1505,11 @@
       </c>
       <c r="B16" s="77" t="inlineStr">
         <is>
-          <t>DANIEL BARBOSA DA SILVA</t>
-        </is>
-      </c>
-      <c r="C16" s="74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">513778201	</t>
-        </is>
+          <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
+        </is>
+      </c>
+      <c r="C16" s="74" t="n">
+        <v>513772028</v>
       </c>
       <c r="D16" s="80" t="n"/>
       <c r="E16" s="82" t="n">
@@ -1584,12 +1522,12 @@
       </c>
       <c r="I16" s="91" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
       <c r="J16" s="76" t="n"/>
       <c r="K16" s="92" t="n">
-        <v>2378.4</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="73">
@@ -1598,11 +1536,11 @@
       </c>
       <c r="B17" s="77" t="inlineStr">
         <is>
-          <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
+          <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
       <c r="C17" s="74" t="n">
-        <v>513772028</v>
+        <v>513753257</v>
       </c>
       <c r="D17" s="80" t="n"/>
       <c r="E17" s="82" t="n">
@@ -1610,17 +1548,17 @@
       </c>
       <c r="F17" s="72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I17" s="89" t="inlineStr">
         <is>
-          <t>PAGAM.PSICOLOGA</t>
+          <t>PAGAM. MÉDICA</t>
         </is>
       </c>
       <c r="J17" s="76" t="n"/>
       <c r="K17" s="21" t="n">
-        <v>508</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="73">
@@ -1629,11 +1567,11 @@
       </c>
       <c r="B18" s="77" t="inlineStr">
         <is>
-          <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
+          <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
       <c r="C18" s="74" t="n">
-        <v>513753257</v>
+        <v>513697796</v>
       </c>
       <c r="D18" s="80" t="n"/>
       <c r="E18" s="82" t="n">
@@ -1641,178 +1579,101 @@
       </c>
       <c r="F18" s="72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I18" s="89" t="inlineStr">
         <is>
-          <t>PAGAM. MÉDICA</t>
+          <t>SOMA</t>
         </is>
       </c>
       <c r="J18" s="76" t="n"/>
-      <c r="K18" s="93" t="n">
-        <v>833</v>
+      <c r="K18" s="93">
+        <f>K16-K18-K17</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="73">
       <c r="A19" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
-        </is>
-      </c>
-      <c r="C19" s="74" t="n">
-        <v>513697796</v>
-      </c>
-      <c r="D19" s="80" t="n"/>
-      <c r="E19" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="72" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="B19" s="77" t="n"/>
+      <c r="C19" s="74" t="n"/>
+      <c r="D19" s="80" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="E19" s="82">
+        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
+        <v/>
+      </c>
+      <c r="F19" s="72" t="n"/>
       <c r="I19" s="89" t="inlineStr">
         <is>
-          <t>SOMA</t>
+          <t>CARTÃO</t>
         </is>
       </c>
       <c r="J19" s="76" t="n"/>
       <c r="K19" s="94">
-        <f>K16-K18-K17</f>
+        <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="73">
       <c r="A20" s="86" t="n"/>
-      <c r="B20" s="87" t="inlineStr">
-        <is>
-          <t>POLIGLOTA</t>
-        </is>
-      </c>
-      <c r="C20" s="72" t="inlineStr">
-        <is>
-          <t>777777</t>
-        </is>
-      </c>
+      <c r="B20" s="87" t="n"/>
       <c r="D20" s="95" t="inlineStr">
         <is>
-          <t>Soma</t>
+          <t>Medico</t>
         </is>
       </c>
       <c r="E20" s="82">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
+        <f>49*17</f>
         <v/>
       </c>
-      <c r="F20" s="72" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="I20" s="96" t="inlineStr">
         <is>
-          <t>CARTÃO</t>
+          <t>DINHEIRO</t>
         </is>
       </c>
       <c r="J20" s="76" t="n"/>
       <c r="K20" s="97">
-        <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
+        <f>300+E14</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="73">
       <c r="A21" s="86" t="n"/>
-      <c r="B21" s="72" t="inlineStr">
-        <is>
-          <t>JOAO</t>
-        </is>
-      </c>
-      <c r="C21" s="72" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
       <c r="D21" s="98" t="inlineStr">
         <is>
-          <t>Medico</t>
-        </is>
-      </c>
-      <c r="E21" s="99">
-        <f>49*17</f>
-        <v/>
-      </c>
-      <c r="F21" s="72" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="E21" s="99" t="n">
+        <v>1444.1</v>
       </c>
       <c r="G21" s="29" t="n"/>
       <c r="I21" s="96" t="inlineStr">
         <is>
-          <t>DINHEIRO</t>
+          <t>PIX</t>
         </is>
       </c>
       <c r="J21" s="76" t="n"/>
       <c r="K21" s="97">
-        <f>300+E14</f>
+        <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="73">
       <c r="A22" s="86" t="n"/>
-      <c r="B22" s="72" t="inlineStr">
-        <is>
-          <t>LLLLL</t>
-        </is>
-      </c>
-      <c r="C22" s="72" t="inlineStr">
-        <is>
-          <t>7777</t>
-        </is>
-      </c>
-      <c r="D22" s="98" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E22" s="99" t="n">
-        <v>1444.1</v>
-      </c>
-      <c r="F22" s="72" t="inlineStr">
-        <is>
-          <t>D: 100 | P: 60</t>
-        </is>
-      </c>
-      <c r="I22" s="100" t="inlineStr">
-        <is>
-          <t>PIX</t>
-        </is>
-      </c>
+      <c r="D22" s="98" t="n"/>
+      <c r="E22" s="99" t="n"/>
+      <c r="I22" s="100" t="n"/>
       <c r="J22" s="76" t="n"/>
-      <c r="K22" s="101">
-        <f>E3+41.26+E18+K3</f>
-        <v/>
-      </c>
+      <c r="K22" s="101" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="73">
-      <c r="B23" s="72" t="inlineStr">
-        <is>
-          <t>LUCIANO</t>
-        </is>
-      </c>
-      <c r="C23" s="72" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="F23" s="72" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="K23" s="87" t="n"/>
     </row>
   </sheetData>
@@ -1934,7 +1795,7 @@
       <c r="A3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="135" t="inlineStr">
+      <c r="B3" s="126" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
@@ -1954,7 +1815,7 @@
         </is>
       </c>
       <c r="G3" s="77" t="n"/>
-      <c r="H3" s="136" t="inlineStr">
+      <c r="H3" s="127" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
@@ -1978,7 +1839,7 @@
       <c r="A4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="136" t="inlineStr">
+      <c r="B4" s="127" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
@@ -1996,7 +1857,7 @@
         </is>
       </c>
       <c r="G4" s="77" t="n"/>
-      <c r="H4" s="137" t="inlineStr">
+      <c r="H4" s="128" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
@@ -2018,7 +1879,7 @@
       <c r="A5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="137" t="inlineStr">
+      <c r="B5" s="128" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
@@ -2036,7 +1897,7 @@
         </is>
       </c>
       <c r="G5" s="77" t="n"/>
-      <c r="H5" s="137" t="inlineStr">
+      <c r="H5" s="128" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
@@ -2058,7 +1919,7 @@
       <c r="A6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="138" t="inlineStr">
+      <c r="B6" s="129" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
@@ -2076,7 +1937,7 @@
         </is>
       </c>
       <c r="G6" s="77" t="n"/>
-      <c r="H6" s="137" t="inlineStr">
+      <c r="H6" s="128" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
@@ -2098,7 +1959,7 @@
       <c r="A7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="137" t="inlineStr">
+      <c r="B7" s="128" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
@@ -2116,7 +1977,7 @@
         </is>
       </c>
       <c r="G7" s="77" t="n"/>
-      <c r="H7" s="137" t="inlineStr">
+      <c r="H7" s="128" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
@@ -2138,7 +1999,7 @@
       <c r="A8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="138" t="inlineStr">
+      <c r="B8" s="129" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
@@ -2156,7 +2017,7 @@
         </is>
       </c>
       <c r="G8" s="77" t="n"/>
-      <c r="H8" s="137" t="inlineStr">
+      <c r="H8" s="128" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
@@ -2178,7 +2039,7 @@
       <c r="A9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="137" t="inlineStr">
+      <c r="B9" s="128" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
@@ -2196,7 +2057,7 @@
         </is>
       </c>
       <c r="G9" s="77" t="n"/>
-      <c r="H9" s="137" t="inlineStr">
+      <c r="H9" s="128" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
@@ -2218,7 +2079,7 @@
       <c r="A10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="137" t="inlineStr">
+      <c r="B10" s="128" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
@@ -2260,7 +2121,7 @@
       <c r="A11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="137" t="inlineStr">
+      <c r="B11" s="128" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
@@ -2302,7 +2163,7 @@
       <c r="A12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="137" t="inlineStr">
+      <c r="B12" s="128" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
@@ -2332,7 +2193,7 @@
       <c r="A13" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="137" t="inlineStr">
+      <c r="B13" s="128" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
@@ -2366,7 +2227,7 @@
       <c r="A14" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="137" t="inlineStr">
+      <c r="B14" s="128" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
@@ -2393,7 +2254,7 @@
       <c r="A15" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="137" t="inlineStr">
+      <c r="B15" s="128" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
@@ -2522,7 +2383,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="79" t="n"/>
-      <c r="C23" s="139" t="n"/>
+      <c r="C23" s="130" t="n"/>
       <c r="D23" s="74" t="n"/>
       <c r="E23" s="74" t="n">
         <v>148.65</v>
@@ -2604,142 +2465,142 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="73">
-      <c r="A1" s="140" t="n"/>
+      <c r="A1" s="104" t="n"/>
       <c r="B1" s="75" t="n"/>
       <c r="C1" s="75" t="n"/>
       <c r="D1" s="75" t="n"/>
       <c r="E1" s="76" t="n"/>
-      <c r="G1" s="140" t="n"/>
+      <c r="G1" s="104" t="n"/>
       <c r="H1" s="75" t="n"/>
       <c r="I1" s="75" t="n"/>
       <c r="J1" s="75" t="n"/>
       <c r="K1" s="76" t="n"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="73">
-      <c r="A2" s="140" t="n"/>
-      <c r="B2" s="140" t="n"/>
-      <c r="C2" s="140" t="n"/>
-      <c r="D2" s="140" t="n"/>
-      <c r="E2" s="140" t="n"/>
-      <c r="G2" s="140" t="n"/>
-      <c r="H2" s="140" t="n"/>
-      <c r="I2" s="140" t="n"/>
-      <c r="J2" s="140" t="n"/>
-      <c r="K2" s="140" t="n"/>
+      <c r="A2" s="104" t="n"/>
+      <c r="B2" s="104" t="n"/>
+      <c r="C2" s="104" t="n"/>
+      <c r="D2" s="104" t="n"/>
+      <c r="E2" s="104" t="n"/>
+      <c r="G2" s="104" t="n"/>
+      <c r="H2" s="104" t="n"/>
+      <c r="I2" s="104" t="n"/>
+      <c r="J2" s="104" t="n"/>
+      <c r="K2" s="104" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="A3" s="127" t="n"/>
-      <c r="B3" s="127" t="inlineStr">
+      <c r="A3" s="103" t="n"/>
+      <c r="B3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
-      <c r="E3" s="127" t="n"/>
+      <c r="E3" s="103" t="n"/>
       <c r="F3" s="72" t="n"/>
-      <c r="G3" s="127" t="n"/>
-      <c r="H3" s="127" t="inlineStr">
+      <c r="G3" s="103" t="n"/>
+      <c r="H3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="127" t="n"/>
+      <c r="K3" s="103" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="A4" s="127" t="n"/>
-      <c r="B4" s="141" t="inlineStr">
+      <c r="A4" s="103" t="n"/>
+      <c r="B4" s="131" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="142" t="n"/>
-      <c r="D4" s="142" t="n"/>
-      <c r="E4" s="141" t="n"/>
+      <c r="C4" s="132" t="n"/>
+      <c r="D4" s="132" t="n"/>
+      <c r="E4" s="131" t="n"/>
       <c r="F4" s="72" t="n"/>
-      <c r="G4" s="127" t="n"/>
-      <c r="H4" s="141" t="inlineStr">
+      <c r="G4" s="103" t="n"/>
+      <c r="H4" s="131" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="127" t="n"/>
+      <c r="K4" s="103" t="n"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="A5" s="127" t="n"/>
-      <c r="B5" s="127" t="inlineStr">
+      <c r="A5" s="103" t="n"/>
+      <c r="B5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
       <c r="C5" s="72" t="n"/>
-      <c r="E5" s="127" t="n"/>
+      <c r="E5" s="103" t="n"/>
       <c r="F5" s="72" t="n"/>
-      <c r="G5" s="127" t="n"/>
-      <c r="H5" s="127" t="inlineStr">
+      <c r="G5" s="103" t="n"/>
+      <c r="H5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="127" t="n"/>
+      <c r="K5" s="103" t="n"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="A6" s="127" t="n"/>
-      <c r="B6" s="127" t="inlineStr">
+      <c r="A6" s="103" t="n"/>
+      <c r="B6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
-      <c r="E6" s="127" t="n"/>
+      <c r="E6" s="103" t="n"/>
       <c r="F6" s="72" t="n"/>
-      <c r="G6" s="127" t="n"/>
-      <c r="H6" s="127" t="inlineStr">
+      <c r="G6" s="103" t="n"/>
+      <c r="H6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="127" t="n"/>
+      <c r="K6" s="103" t="n"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="A7" s="127" t="n"/>
-      <c r="B7" s="127" t="inlineStr">
+      <c r="A7" s="103" t="n"/>
+      <c r="B7" s="103" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
       <c r="C7" s="72" t="n"/>
-      <c r="E7" s="127" t="n"/>
+      <c r="E7" s="103" t="n"/>
       <c r="F7" s="72" t="n"/>
       <c r="G7" s="72" t="n"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="A8" s="127" t="n"/>
-      <c r="B8" s="127" t="inlineStr">
+      <c r="A8" s="103" t="n"/>
+      <c r="B8" s="103" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
       <c r="C8" s="72" t="n"/>
-      <c r="E8" s="127" t="n"/>
+      <c r="E8" s="103" t="n"/>
       <c r="F8" s="72" t="n"/>
       <c r="G8" s="72" t="n"/>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="73"/>
     <row r="10" ht="13.5" customHeight="1" s="73"/>
     <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="I11" s="127" t="n"/>
+      <c r="I11" s="103" t="n"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="I12" s="127" t="n"/>
+      <c r="I12" s="103" t="n"/>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="I13" s="127" t="n"/>
+      <c r="I13" s="103" t="n"/>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="73">
-      <c r="I14" s="127" t="n"/>
+      <c r="I14" s="103" t="n"/>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="73">
-      <c r="I15" s="127" t="n"/>
+      <c r="I15" s="103" t="n"/>
     </row>
     <row r="16" ht="13.5" customHeight="1" s="73"/>
   </sheetData>
@@ -2780,7 +2641,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="73">
-      <c r="A1" s="140" t="inlineStr">
+      <c r="A1" s="104" t="inlineStr">
         <is>
           <t>(A) Atendimento Médico 02/11/2024</t>
         </is>
@@ -2789,7 +2650,7 @@
       <c r="C1" s="75" t="n"/>
       <c r="D1" s="75" t="n"/>
       <c r="E1" s="76" t="n"/>
-      <c r="G1" s="140" t="inlineStr">
+      <c r="G1" s="104" t="inlineStr">
         <is>
           <t>(A) Atendimento Psicológico 02/11/2024</t>
         </is>
@@ -2800,270 +2661,270 @@
       <c r="K1" s="76" t="n"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" s="73">
-      <c r="A2" s="140" t="inlineStr">
+      <c r="A2" s="104" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="140" t="inlineStr">
+      <c r="B2" s="104" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="140" t="inlineStr">
+      <c r="C2" s="104" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="140" t="inlineStr">
+      <c r="D2" s="104" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="140" t="inlineStr">
+      <c r="E2" s="104" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="140" t="n"/>
-      <c r="H2" s="140" t="n"/>
-      <c r="I2" s="140" t="n"/>
-      <c r="J2" s="140" t="n"/>
-      <c r="K2" s="140" t="n"/>
+      <c r="G2" s="104" t="n"/>
+      <c r="H2" s="104" t="n"/>
+      <c r="I2" s="104" t="n"/>
+      <c r="J2" s="104" t="n"/>
+      <c r="K2" s="104" t="n"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="A3" s="127" t="n"/>
-      <c r="B3" s="127" t="inlineStr">
+      <c r="A3" s="103" t="n"/>
+      <c r="B3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="127" t="n">
+      <c r="C3" s="103" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="127" t="n"/>
-      <c r="E3" s="143" t="n">
+      <c r="D3" s="103" t="n"/>
+      <c r="E3" s="133" t="n">
         <v>148.65</v>
       </c>
       <c r="F3" s="72" t="n"/>
-      <c r="G3" s="127" t="n"/>
-      <c r="H3" s="127" t="inlineStr">
+      <c r="G3" s="103" t="n"/>
+      <c r="H3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="143" t="n">
+      <c r="K3" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="A4" s="127" t="n"/>
-      <c r="B4" s="141" t="inlineStr">
+      <c r="A4" s="103" t="n"/>
+      <c r="B4" s="131" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="141" t="n">
+      <c r="C4" s="131" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="141" t="n"/>
-      <c r="E4" s="144" t="n">
+      <c r="D4" s="131" t="n"/>
+      <c r="E4" s="134" t="n">
         <v>148.65</v>
       </c>
       <c r="F4" s="72" t="n"/>
-      <c r="G4" s="127" t="n"/>
-      <c r="H4" s="141" t="inlineStr">
+      <c r="G4" s="103" t="n"/>
+      <c r="H4" s="131" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="143" t="n">
+      <c r="K4" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="A5" s="127" t="n"/>
-      <c r="B5" s="127" t="inlineStr">
+      <c r="A5" s="103" t="n"/>
+      <c r="B5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="127" t="n">
+      <c r="C5" s="103" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="127" t="n"/>
-      <c r="E5" s="143" t="n">
+      <c r="D5" s="103" t="n"/>
+      <c r="E5" s="133" t="n">
         <v>148.65</v>
       </c>
       <c r="F5" s="72" t="n"/>
-      <c r="G5" s="127" t="n"/>
-      <c r="H5" s="127" t="inlineStr">
+      <c r="G5" s="103" t="n"/>
+      <c r="H5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="143" t="n">
+      <c r="K5" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="A6" s="127" t="n"/>
-      <c r="B6" s="127" t="inlineStr">
+      <c r="A6" s="103" t="n"/>
+      <c r="B6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
-      <c r="D6" s="127" t="n"/>
-      <c r="E6" s="143" t="n">
+      <c r="D6" s="103" t="n"/>
+      <c r="E6" s="133" t="n">
         <v>148.65</v>
       </c>
       <c r="F6" s="72" t="n"/>
-      <c r="G6" s="127" t="n"/>
-      <c r="H6" s="127" t="inlineStr">
+      <c r="G6" s="103" t="n"/>
+      <c r="H6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="143" t="n">
+      <c r="K6" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="A7" s="127" t="n"/>
-      <c r="B7" s="127" t="inlineStr">
+      <c r="A7" s="103" t="n"/>
+      <c r="B7" s="103" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
       <c r="C7" s="72" t="n"/>
-      <c r="D7" s="127" t="n"/>
-      <c r="E7" s="143" t="n">
+      <c r="D7" s="103" t="n"/>
+      <c r="E7" s="133" t="n">
         <v>148.65</v>
       </c>
       <c r="F7" s="72" t="n"/>
       <c r="G7" s="72" t="n"/>
-      <c r="H7" s="127" t="inlineStr">
+      <c r="H7" s="103" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="140" t="n"/>
-      <c r="K7" s="140" t="n">
+      <c r="J7" s="104" t="n"/>
+      <c r="K7" s="104" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="A8" s="127" t="n"/>
-      <c r="B8" s="127" t="inlineStr">
+      <c r="A8" s="103" t="n"/>
+      <c r="B8" s="103" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
       <c r="C8" s="72" t="n"/>
-      <c r="D8" s="127" t="n"/>
-      <c r="E8" s="143" t="n">
+      <c r="D8" s="103" t="n"/>
+      <c r="E8" s="133" t="n">
         <v>148.65</v>
       </c>
       <c r="F8" s="72" t="n"/>
       <c r="G8" s="72" t="n"/>
-      <c r="H8" s="127" t="inlineStr">
+      <c r="H8" s="103" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="140" t="n"/>
-      <c r="K8" s="140" t="n">
+      <c r="J8" s="104" t="n"/>
+      <c r="K8" s="104" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="73">
-      <c r="B9" s="127" t="inlineStr">
+      <c r="B9" s="103" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="140" t="n"/>
-      <c r="E9" s="140" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="140" t="inlineStr">
+      <c r="D9" s="104" t="n"/>
+      <c r="E9" s="104" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="104" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="140" t="n">
+      <c r="K9" s="104" t="n">
         <v>1155.66</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="73">
-      <c r="B10" s="127" t="inlineStr">
+      <c r="B10" s="103" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="140" t="n"/>
-      <c r="E10" s="140" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="140" t="inlineStr">
+      <c r="D10" s="104" t="n"/>
+      <c r="E10" s="104" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="104" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="140" t="n">
+      <c r="K10" s="104" t="n">
         <v>381</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="D11" s="140" t="inlineStr">
+      <c r="D11" s="104" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="140" t="n">
+      <c r="E11" s="104" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="127" t="n"/>
-      <c r="J11" s="140" t="inlineStr">
+      <c r="I11" s="103" t="n"/>
+      <c r="J11" s="104" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="140" t="n">
+      <c r="K11" s="104" t="n">
         <v>774.66</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="D12" s="140" t="inlineStr">
+      <c r="D12" s="104" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="140" t="n">
+      <c r="E12" s="104" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="127" t="n"/>
+      <c r="I12" s="103" t="n"/>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="D13" s="140" t="inlineStr">
+      <c r="D13" s="104" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="140" t="n">
+      <c r="E13" s="104" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="127" t="n"/>
+      <c r="I13" s="103" t="n"/>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="73">
-      <c r="I14" s="127" t="n"/>
+      <c r="I14" s="103" t="n"/>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="73">
-      <c r="I15" s="127" t="n"/>
+      <c r="I15" s="103" t="n"/>
     </row>
     <row r="16" ht="13.5" customHeight="1" s="73">
-      <c r="D16" s="127" t="n"/>
+      <c r="D16" s="103" t="n"/>
     </row>
     <row r="17" ht="13.5" customHeight="1" s="73"/>
   </sheetData>
@@ -3103,7 +2964,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" s="73">
-      <c r="A1" s="145" t="inlineStr">
+      <c r="A1" s="135" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Médico 02/11/2024</t>
         </is>
@@ -3112,7 +2973,7 @@
       <c r="C1" s="75" t="n"/>
       <c r="D1" s="75" t="n"/>
       <c r="E1" s="76" t="n"/>
-      <c r="G1" s="145" t="inlineStr">
+      <c r="G1" s="135" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Psicológico 02/11/2024</t>
         </is>
@@ -3123,221 +2984,221 @@
       <c r="K1" s="76" t="n"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" s="73">
-      <c r="A2" s="145" t="inlineStr">
+      <c r="A2" s="135" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="145" t="inlineStr">
+      <c r="B2" s="135" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="145" t="inlineStr">
+      <c r="C2" s="135" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="145" t="inlineStr">
+      <c r="D2" s="135" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="145" t="inlineStr">
+      <c r="E2" s="135" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="B3" s="127" t="inlineStr">
+      <c r="B3" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="127" t="n">
+      <c r="C3" s="103" t="n">
         <v>88565544</v>
       </c>
-      <c r="E3" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H3" s="140" t="n"/>
+      <c r="E3" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H3" s="104" t="n"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="B4" s="141" t="inlineStr">
+      <c r="B4" s="131" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="141" t="n">
+      <c r="C4" s="131" t="n">
         <v>2224158</v>
       </c>
-      <c r="E4" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H4" s="127" t="inlineStr">
+      <c r="E4" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H4" s="103" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K4" s="143" t="n">
+      <c r="K4" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="B5" s="127" t="inlineStr">
+      <c r="B5" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="127" t="n">
+      <c r="C5" s="103" t="n">
         <v>585447148</v>
       </c>
-      <c r="E5" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H5" s="141" t="inlineStr">
+      <c r="E5" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H5" s="131" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K5" s="143" t="n">
+      <c r="K5" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="B6" s="127" t="inlineStr">
+      <c r="B6" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="E6" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H6" s="127" t="inlineStr">
+      <c r="E6" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H6" s="103" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K6" s="143" t="n">
+      <c r="K6" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="B7" s="127" t="inlineStr">
+      <c r="B7" s="103" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="E7" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H7" s="127" t="inlineStr">
+      <c r="E7" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H7" s="103" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K7" s="143" t="n">
+      <c r="K7" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="B8" s="127" t="inlineStr">
+      <c r="B8" s="103" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="E8" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H8" s="127" t="inlineStr">
+      <c r="E8" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H8" s="103" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="K8" s="143" t="n">
+      <c r="K8" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="73">
-      <c r="B9" s="127" t="inlineStr">
+      <c r="B9" s="103" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="E9" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H9" s="127" t="inlineStr">
+      <c r="E9" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H9" s="103" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="K9" s="143" t="n">
+      <c r="K9" s="133" t="n">
         <v>192.61</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="73">
-      <c r="B10" s="127" t="inlineStr">
+      <c r="B10" s="103" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="E10" s="143" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="140" t="inlineStr">
+      <c r="E10" s="133" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="104" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K10" s="140" t="n">
+      <c r="K10" s="104" t="n">
         <v>1155.66</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="D11" s="140" t="inlineStr">
+      <c r="D11" s="104" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="140" t="n">
+      <c r="E11" s="104" t="n">
         <v>1189.2</v>
       </c>
-      <c r="J11" s="140" t="inlineStr">
+      <c r="J11" s="104" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K11" s="140" t="n">
+      <c r="K11" s="104" t="n">
         <v>381</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="D12" s="140" t="inlineStr">
+      <c r="D12" s="104" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="140" t="n">
+      <c r="E12" s="104" t="n">
         <v>392</v>
       </c>
-      <c r="J12" s="140" t="inlineStr">
+      <c r="J12" s="104" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K12" s="140" t="n">
+      <c r="K12" s="104" t="n">
         <v>774.66</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="D13" s="140" t="inlineStr">
+      <c r="D13" s="104" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="140" t="n">
+      <c r="E13" s="104" t="n">
         <v>797.2</v>
       </c>
     </row>
@@ -3412,15 +3273,15 @@
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" s="73">
-      <c r="A2" s="146" t="n">
+      <c r="A2" s="136" t="n">
         <v>45602</v>
       </c>
-      <c r="B2" s="147" t="inlineStr">
+      <c r="B2" s="137" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="C2" s="148" t="inlineStr">
+      <c r="C2" s="138" t="inlineStr">
         <is>
           <t>R$ 333.00</t>
         </is>
@@ -3480,17 +3341,17 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="73">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="72" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="72" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="72" t="inlineStr">
         <is>
           <t>D:300,00 | C:41,26</t>
         </is>
@@ -3528,18 +3389,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="H6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="73">
+      <c r="H6" s="72" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="72" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="72" t="inlineStr">
         <is>
           <t>D:300,00 | C:41,26</t>
         </is>
@@ -4751,7 +4612,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -4839,473 +4700,473 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="103" t="n">
+      <c r="A3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="106" t="n">
+      <c r="C3" s="74" t="n">
         <v>513702080</v>
       </c>
       <c r="D3" s="74" t="n"/>
-      <c r="E3" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="107" t="inlineStr">
+      <c r="E3" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="103" t="n">
+      <c r="G3" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="104" t="inlineStr">
+      <c r="H3" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="106" t="n">
+      <c r="I3" s="74" t="n">
         <v>513768895</v>
       </c>
       <c r="J3" s="74" t="n"/>
-      <c r="K3" s="106" t="n">
+      <c r="K3" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="107" t="inlineStr">
+      <c r="L3" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="103" t="n">
+      <c r="A4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="104" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="106" t="n">
+      <c r="C4" s="74" t="n">
         <v>513768895</v>
       </c>
       <c r="D4" s="74" t="n"/>
-      <c r="E4" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="107" t="inlineStr">
+      <c r="E4" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="103" t="n">
+      <c r="G4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="104" t="inlineStr">
+      <c r="H4" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="106" t="n">
+      <c r="I4" s="74" t="n">
         <v>513733841</v>
       </c>
       <c r="J4" s="74" t="n"/>
-      <c r="K4" s="106" t="n">
+      <c r="K4" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="107" t="inlineStr">
+      <c r="L4" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="103" t="n">
+      <c r="A5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="104" t="inlineStr">
+      <c r="B5" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="106" t="n">
+      <c r="C5" s="74" t="n">
         <v>513733841</v>
       </c>
       <c r="D5" s="74" t="n"/>
-      <c r="E5" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="107" t="inlineStr">
+      <c r="E5" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="103" t="n">
+      <c r="G5" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="104" t="inlineStr">
+      <c r="H5" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="106" t="n">
+      <c r="I5" s="74" t="n">
         <v>14090930</v>
       </c>
       <c r="J5" s="74" t="n"/>
-      <c r="K5" s="106" t="n">
+      <c r="K5" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="107" t="inlineStr">
+      <c r="L5" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="103" t="n">
+      <c r="A6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="104" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="106" t="n">
+      <c r="C6" s="74" t="n">
         <v>513709344</v>
       </c>
       <c r="D6" s="74" t="n"/>
-      <c r="E6" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="107" t="inlineStr">
+      <c r="E6" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="103" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="103" t="n">
+      <c r="G6" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="104" t="inlineStr">
+      <c r="H6" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="106" t="n">
+      <c r="I6" s="74" t="n">
         <v>513784410</v>
       </c>
       <c r="J6" s="74" t="n"/>
-      <c r="K6" s="106" t="n">
+      <c r="K6" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="107" t="inlineStr">
+      <c r="L6" s="103" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="103" t="n">
+      <c r="A7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="104" t="inlineStr">
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="106" t="n">
+      <c r="C7" s="74" t="n">
         <v>513783161</v>
       </c>
       <c r="D7" s="74" t="n"/>
-      <c r="E7" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="107" t="inlineStr">
+      <c r="E7" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="103" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="103" t="n">
+      <c r="G7" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="104" t="inlineStr">
+      <c r="H7" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="106" t="n">
+      <c r="I7" s="74" t="n">
         <v>513790094</v>
       </c>
       <c r="J7" s="74" t="n"/>
-      <c r="K7" s="106" t="n">
+      <c r="K7" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="107" t="inlineStr">
+      <c r="L7" s="103" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="103" t="n">
+      <c r="A8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="104" t="inlineStr">
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="106" t="n">
+      <c r="C8" s="74" t="n">
         <v>14090930</v>
       </c>
       <c r="D8" s="74" t="n"/>
-      <c r="E8" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="107" t="inlineStr">
+      <c r="E8" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="103" t="n">
+      <c r="G8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="104" t="inlineStr">
+      <c r="H8" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="106" t="n">
+      <c r="I8" s="74" t="n">
         <v>513608124</v>
       </c>
       <c r="J8" s="74" t="n"/>
-      <c r="K8" s="106" t="n">
+      <c r="K8" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="107" t="inlineStr">
+      <c r="L8" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="103" t="n">
+      <c r="A9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="104" t="inlineStr">
+      <c r="B9" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="106" t="n">
+      <c r="C9" s="74" t="n">
         <v>513784410</v>
       </c>
       <c r="D9" s="74" t="n"/>
-      <c r="E9" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="107" t="inlineStr">
+      <c r="E9" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="103" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="103" t="n">
+      <c r="G9" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="104" t="inlineStr">
+      <c r="H9" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="106" t="n">
+      <c r="I9" s="74" t="n">
         <v>513762567</v>
       </c>
       <c r="J9" s="74" t="n"/>
-      <c r="K9" s="106" t="n">
+      <c r="K9" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="107" t="inlineStr">
+      <c r="L9" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="103" t="n">
+      <c r="A10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="104" t="inlineStr">
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="106" t="n">
+      <c r="C10" s="74" t="n">
         <v>513793384</v>
       </c>
       <c r="D10" s="74" t="n"/>
-      <c r="E10" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="107" t="inlineStr">
+      <c r="E10" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="103" t="n">
+      <c r="G10" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="104" t="inlineStr">
+      <c r="H10" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="106" t="n">
+      <c r="I10" s="74" t="n">
         <v>513760379</v>
       </c>
       <c r="J10" s="74" t="n"/>
-      <c r="K10" s="106" t="n">
+      <c r="K10" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="107" t="inlineStr">
+      <c r="L10" s="103" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="103" t="n">
+      <c r="A11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="104" t="inlineStr">
+      <c r="B11" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="106" t="n">
+      <c r="C11" s="74" t="n">
         <v>513790094</v>
       </c>
       <c r="D11" s="74" t="n"/>
-      <c r="E11" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="107" t="inlineStr">
+      <c r="E11" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="103" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="103" t="n">
+      <c r="G11" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="104" t="inlineStr">
+      <c r="H11" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="106" t="n">
+      <c r="I11" s="74" t="n">
         <v>513782331</v>
       </c>
       <c r="J11" s="74" t="n"/>
-      <c r="K11" s="106" t="n">
+      <c r="K11" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="107" t="inlineStr">
+      <c r="L11" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="103" t="n">
+      <c r="A12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="104" t="inlineStr">
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="106" t="n">
+      <c r="C12" s="74" t="n">
         <v>513608124</v>
       </c>
       <c r="D12" s="74" t="n"/>
-      <c r="E12" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="107" t="inlineStr">
+      <c r="E12" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="103" t="n">
+      <c r="G12" s="77" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="104" t="inlineStr">
+      <c r="H12" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="106" t="n">
+      <c r="I12" s="74" t="n">
         <v>513775191</v>
       </c>
       <c r="J12" s="74" t="n"/>
-      <c r="K12" s="106" t="n">
+      <c r="K12" s="74" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="107" t="inlineStr">
+      <c r="L12" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="103" t="n">
+      <c r="A13" s="77" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="104" t="inlineStr">
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="106" t="n">
+      <c r="C13" s="74" t="n">
         <v>513762567</v>
       </c>
       <c r="D13" s="74" t="n"/>
-      <c r="E13" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="107" t="inlineStr">
+      <c r="E13" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="I13" s="83" t="n"/>
-      <c r="J13" s="108" t="inlineStr">
+      <c r="J13" s="104" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K13" s="109" t="n">
+      <c r="K13" s="105" t="n">
         <v>1926.1</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="103" t="n">
+      <c r="A14" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="104" t="inlineStr">
+      <c r="B14" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="106" t="n">
+      <c r="C14" s="74" t="n">
         <v>513760379</v>
       </c>
       <c r="D14" s="74" t="n"/>
-      <c r="E14" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="107" t="inlineStr">
+      <c r="E14" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="103" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -5313,63 +5174,63 @@
       <c r="G14" s="86" t="n"/>
       <c r="H14" s="83" t="n"/>
       <c r="I14" s="83" t="n"/>
-      <c r="J14" s="108" t="inlineStr">
+      <c r="J14" s="104" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K14" s="110" t="n">
+      <c r="K14" s="36" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="103" t="n">
+      <c r="A15" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="104" t="inlineStr">
+      <c r="B15" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="106" t="n">
+      <c r="C15" s="74" t="n">
         <v>513782331</v>
       </c>
       <c r="D15" s="74" t="n"/>
-      <c r="E15" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="107" t="inlineStr">
+      <c r="E15" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="H15" s="88" t="n"/>
-      <c r="J15" s="108" t="inlineStr">
+      <c r="J15" s="104" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K15" s="108" t="n">
+      <c r="K15" s="104" t="n">
         <v>1291.1</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="103" t="n">
+      <c r="A16" s="77" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="104" t="inlineStr">
+      <c r="B16" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="106" t="n">
+      <c r="C16" s="74" t="n">
         <v>513775191</v>
       </c>
       <c r="D16" s="74" t="n"/>
-      <c r="E16" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="107" t="inlineStr">
+      <c r="E16" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -5379,22 +5240,22 @@
       <c r="K16" s="90" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="103" t="n">
+      <c r="A17" s="77" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="104" t="inlineStr">
+      <c r="B17" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="106" t="n">
+      <c r="C17" s="74" t="n">
         <v>513790578</v>
       </c>
       <c r="D17" s="74" t="n"/>
-      <c r="E17" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="107" t="inlineStr">
+      <c r="E17" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="103" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
@@ -5404,22 +5265,22 @@
       <c r="K17" s="90" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="73">
-      <c r="A18" s="103" t="n">
+      <c r="A18" s="77" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="104" t="inlineStr">
+      <c r="B18" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="106" t="n">
+      <c r="C18" s="74" t="n">
         <v>513721847</v>
       </c>
       <c r="D18" s="74" t="n"/>
-      <c r="E18" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="107" t="inlineStr">
+      <c r="E18" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -5429,22 +5290,22 @@
       <c r="K18" s="92" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="73">
-      <c r="A19" s="103" t="n">
+      <c r="A19" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="104" t="inlineStr">
+      <c r="B19" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="106" t="n">
+      <c r="C19" s="74" t="n">
         <v>513782693</v>
       </c>
       <c r="D19" s="74" t="n"/>
-      <c r="E19" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="107" t="inlineStr">
+      <c r="E19" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -5454,22 +5315,22 @@
       <c r="K19" s="21" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="73">
-      <c r="A20" s="103" t="n">
+      <c r="A20" s="77" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="104" t="inlineStr">
+      <c r="B20" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="106" t="n">
+      <c r="C20" s="74" t="n">
         <v>513773401</v>
       </c>
       <c r="D20" s="74" t="n"/>
-      <c r="E20" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="107" t="inlineStr">
+      <c r="E20" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -5480,27 +5341,27 @@
         </is>
       </c>
       <c r="J20" s="76" t="n"/>
-      <c r="K20" s="111" t="n">
+      <c r="K20" s="106" t="n">
         <v>3270.3</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="73">
-      <c r="A21" s="103" t="n">
+      <c r="A21" s="77" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="104" t="inlineStr">
+      <c r="B21" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="106" t="n">
+      <c r="C21" s="74" t="n">
         <v>513797287</v>
       </c>
       <c r="D21" s="74" t="n"/>
-      <c r="E21" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="107" t="inlineStr">
+      <c r="E21" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -5511,58 +5372,58 @@
         </is>
       </c>
       <c r="J21" s="76" t="n"/>
-      <c r="K21" s="112" t="n">
+      <c r="K21" s="107" t="n">
         <v>1926.1</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="73">
-      <c r="A22" s="103" t="n">
+      <c r="A22" s="77" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="104" t="inlineStr">
+      <c r="B22" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="106" t="n">
+      <c r="C22" s="74" t="n">
         <v>14091389</v>
       </c>
       <c r="D22" s="74" t="n"/>
-      <c r="E22" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="107" t="inlineStr">
+      <c r="E22" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="103" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="113" t="inlineStr">
+      <c r="I22" s="108" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
       <c r="J22" s="76" t="n"/>
-      <c r="K22" s="112" t="n">
-        <v>5196.400000000001</v>
+      <c r="K22" s="107" t="n">
+        <v>5196.4</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="73">
-      <c r="A23" s="103" t="n">
+      <c r="A23" s="77" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="104" t="inlineStr">
+      <c r="B23" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="114" t="n">
+      <c r="C23" s="109" t="n">
         <v>513791549</v>
       </c>
       <c r="D23" s="74" t="n"/>
-      <c r="E23" s="106" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="107" t="inlineStr">
+      <c r="E23" s="74" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -5574,25 +5435,25 @@
     </row>
     <row r="24" ht="15" customHeight="1" s="73">
       <c r="A24" s="86" t="n"/>
-      <c r="B24" s="115" t="inlineStr">
+      <c r="B24" s="110" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="C24" s="107" t="inlineStr">
+      <c r="C24" s="103" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D24" s="116" t="inlineStr">
+      <c r="D24" s="98" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="117" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F24" s="107" t="inlineStr">
+      <c r="E24" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F24" s="103" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -5603,18 +5464,18 @@
         </is>
       </c>
       <c r="J24" s="76" t="n"/>
-      <c r="K24" s="111" t="n">
+      <c r="K24" s="106" t="n">
         <v>1078</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="73">
       <c r="A25" s="86" t="n"/>
-      <c r="D25" s="108" t="inlineStr">
+      <c r="D25" s="104" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E25" s="109" t="n">
+      <c r="E25" s="105" t="n">
         <v>3270.3</v>
       </c>
       <c r="I25" s="102" t="inlineStr">
@@ -5629,12 +5490,12 @@
     </row>
     <row r="26" ht="15" customHeight="1" s="73">
       <c r="A26" s="86" t="n"/>
-      <c r="D26" s="108" t="inlineStr">
+      <c r="D26" s="104" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E26" s="109" t="n">
+      <c r="E26" s="105" t="n">
         <v>1078</v>
       </c>
       <c r="I26" s="102" t="inlineStr">
@@ -5644,16 +5505,16 @@
       </c>
       <c r="J26" s="76" t="n"/>
       <c r="K26" s="102" t="n">
-        <v>3483.400000000001</v>
+        <v>3483.4</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="73">
-      <c r="D27" s="108" t="inlineStr">
+      <c r="D27" s="104" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E27" s="108" t="n">
+      <c r="E27" s="104" t="n">
         <v>2192.3</v>
       </c>
     </row>
@@ -6299,18 +6160,18 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="118" t="n">
+      <c r="A3" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="119" t="inlineStr">
+      <c r="B3" s="112" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="120" t="n">
+      <c r="C3" s="113" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="119" t="n"/>
+      <c r="D3" s="112" t="n"/>
       <c r="E3" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6319,18 +6180,18 @@
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="119" t="n">
+      <c r="G3" s="112" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="119" t="inlineStr">
+      <c r="H3" s="112" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="119" t="n">
+      <c r="I3" s="112" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="119" t="n"/>
+      <c r="J3" s="112" t="n"/>
       <c r="K3" s="45" t="n">
         <v>192.61</v>
       </c>
@@ -6341,18 +6202,18 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="118" t="n">
+      <c r="A4" s="111" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="119" t="inlineStr">
+      <c r="B4" s="112" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="120" t="n">
+      <c r="C4" s="113" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="119" t="n"/>
+      <c r="D4" s="112" t="n"/>
       <c r="E4" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6361,18 +6222,18 @@
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="119" t="n">
+      <c r="G4" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="119" t="inlineStr">
+      <c r="H4" s="112" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="119" t="n">
+      <c r="I4" s="112" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="119" t="n"/>
+      <c r="J4" s="112" t="n"/>
       <c r="K4" s="45" t="n">
         <v>192.61</v>
       </c>
@@ -6383,18 +6244,18 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="118" t="n">
+      <c r="A5" s="111" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="119" t="inlineStr">
+      <c r="B5" s="112" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="120" t="n">
+      <c r="C5" s="113" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="119" t="n"/>
+      <c r="D5" s="112" t="n"/>
       <c r="E5" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6403,18 +6264,18 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="119" t="n">
+      <c r="G5" s="112" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="119" t="inlineStr">
+      <c r="H5" s="112" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="119" t="n">
+      <c r="I5" s="112" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="119" t="n"/>
+      <c r="J5" s="112" t="n"/>
       <c r="K5" s="45" t="n">
         <v>192.61</v>
       </c>
@@ -6425,18 +6286,18 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="118" t="n">
+      <c r="A6" s="111" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="119" t="inlineStr">
+      <c r="B6" s="112" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="120" t="n">
+      <c r="C6" s="113" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="119" t="n"/>
+      <c r="D6" s="112" t="n"/>
       <c r="E6" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6445,18 +6306,18 @@
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="119" t="n">
+      <c r="G6" s="112" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="119" t="inlineStr">
+      <c r="H6" s="112" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="119" t="n">
+      <c r="I6" s="112" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="119" t="n"/>
+      <c r="J6" s="112" t="n"/>
       <c r="K6" s="45" t="n">
         <v>192.61</v>
       </c>
@@ -6467,18 +6328,18 @@
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="118" t="n">
+      <c r="A7" s="111" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="119" t="inlineStr">
+      <c r="B7" s="112" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="120" t="n">
+      <c r="C7" s="113" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="119" t="n"/>
+      <c r="D7" s="112" t="n"/>
       <c r="E7" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6487,18 +6348,18 @@
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="119" t="n">
+      <c r="G7" s="112" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="119" t="inlineStr">
+      <c r="H7" s="112" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="119" t="n">
+      <c r="I7" s="112" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="119" t="n"/>
+      <c r="J7" s="112" t="n"/>
       <c r="K7" s="45" t="n">
         <v>192.61</v>
       </c>
@@ -6509,18 +6370,18 @@
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="118" t="n">
+      <c r="A8" s="111" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="119" t="inlineStr">
+      <c r="B8" s="112" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="120" t="n">
+      <c r="C8" s="113" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="119" t="n"/>
+      <c r="D8" s="112" t="n"/>
       <c r="E8" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6529,8 +6390,8 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="121" t="n"/>
-      <c r="I8" s="121" t="n"/>
+      <c r="H8" s="114" t="n"/>
+      <c r="I8" s="114" t="n"/>
       <c r="J8" s="84" t="inlineStr">
         <is>
           <t>soma</t>
@@ -6542,18 +6403,18 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="118" t="n">
+      <c r="A9" s="111" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="119" t="inlineStr">
+      <c r="B9" s="112" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="120" t="n">
+      <c r="C9" s="113" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="119" t="n"/>
+      <c r="D9" s="112" t="n"/>
       <c r="E9" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6562,7 +6423,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="121" t="n"/>
+      <c r="H9" s="114" t="n"/>
       <c r="J9" s="72" t="inlineStr">
         <is>
           <t>psicologo</t>
@@ -6570,18 +6431,18 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="118" t="n">
+      <c r="A10" s="111" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="119" t="inlineStr">
+      <c r="B10" s="112" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="120" t="n">
+      <c r="C10" s="113" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="119" t="n"/>
+      <c r="D10" s="112" t="n"/>
       <c r="E10" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6597,18 +6458,18 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="118" t="n">
+      <c r="A11" s="111" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="119" t="inlineStr">
+      <c r="B11" s="112" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="120" t="n">
+      <c r="C11" s="113" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="122" t="n"/>
+      <c r="D11" s="115" t="n"/>
       <c r="E11" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6619,18 +6480,18 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="118" t="n">
+      <c r="A12" s="111" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="119" t="inlineStr">
+      <c r="B12" s="112" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="120" t="n">
+      <c r="C12" s="113" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="122" t="n"/>
+      <c r="D12" s="115" t="n"/>
       <c r="E12" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6641,18 +6502,18 @@
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="118" t="n">
+      <c r="A13" s="111" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="119" t="inlineStr">
+      <c r="B13" s="112" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="120" t="n">
+      <c r="C13" s="113" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="122" t="n"/>
+      <c r="D13" s="115" t="n"/>
       <c r="E13" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6663,18 +6524,18 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="118" t="n">
+      <c r="A14" s="111" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="119" t="inlineStr">
+      <c r="B14" s="112" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="123" t="n">
+      <c r="C14" s="116" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="124" t="n"/>
+      <c r="D14" s="117" t="n"/>
       <c r="E14" s="45" t="n">
         <v>148.65</v>
       </c>
@@ -6685,18 +6546,18 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="125" t="n">
+      <c r="A15" s="110" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="125" t="inlineStr">
+      <c r="B15" s="110" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="126" t="n">
+      <c r="C15" s="118" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="127" t="n"/>
+      <c r="D15" s="103" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
@@ -6717,18 +6578,18 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="125" t="n">
+      <c r="A16" s="110" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="125" t="inlineStr">
+      <c r="B16" s="110" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="126" t="n">
+      <c r="C16" s="118" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="127" t="n"/>
+      <c r="D16" s="103" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
@@ -6749,18 +6610,18 @@
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="125" t="n">
+      <c r="A17" s="110" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="125" t="inlineStr">
+      <c r="B17" s="110" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="126" t="n">
+      <c r="C17" s="118" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="127" t="n"/>
+      <c r="D17" s="103" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
@@ -7331,7 +7192,7 @@
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="128" t="n"/>
+      <c r="J3" s="119" t="n"/>
       <c r="K3" s="85" t="n"/>
       <c r="L3" s="72" t="inlineStr">
         <is>
@@ -7425,13 +7286,13 @@
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="125" t="inlineStr">
+      <c r="I6" s="110" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="129" t="n"/>
-      <c r="K6" s="130" t="n"/>
+      <c r="J6" s="120" t="n"/>
+      <c r="K6" s="121" t="n"/>
       <c r="L6" s="72" t="inlineStr">
         <is>
           <t>C</t>
@@ -7458,8 +7319,8 @@
         </is>
       </c>
       <c r="G7" s="72" t="n"/>
-      <c r="I7" s="125" t="n"/>
-      <c r="J7" s="129" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="120" t="n"/>
       <c r="K7" s="54" t="n"/>
       <c r="L7" s="72" t="n"/>
     </row>
@@ -7483,8 +7344,8 @@
         </is>
       </c>
       <c r="G8" s="72" t="n"/>
-      <c r="I8" s="125" t="n"/>
-      <c r="J8" s="129" t="n"/>
+      <c r="I8" s="110" t="n"/>
+      <c r="J8" s="120" t="n"/>
       <c r="K8" s="92" t="n"/>
       <c r="L8" s="72" t="n"/>
     </row>
@@ -7496,8 +7357,8 @@
       <c r="E9" s="78" t="n"/>
       <c r="F9" s="72" t="n"/>
       <c r="G9" s="72" t="n"/>
-      <c r="I9" s="125" t="n"/>
-      <c r="J9" s="129" t="n"/>
+      <c r="I9" s="110" t="n"/>
+      <c r="J9" s="120" t="n"/>
       <c r="K9" s="21" t="n"/>
       <c r="L9" s="72" t="n"/>
     </row>
@@ -7521,8 +7382,8 @@
         </is>
       </c>
       <c r="G10" s="72" t="n"/>
-      <c r="I10" s="125" t="n"/>
-      <c r="J10" s="129" t="n"/>
+      <c r="I10" s="110" t="n"/>
+      <c r="J10" s="120" t="n"/>
       <c r="K10" s="93" t="n"/>
       <c r="L10" s="72" t="n"/>
     </row>
@@ -7546,8 +7407,8 @@
         </is>
       </c>
       <c r="G11" s="72" t="n"/>
-      <c r="I11" s="125" t="n"/>
-      <c r="J11" s="129" t="n"/>
+      <c r="I11" s="110" t="n"/>
+      <c r="J11" s="120" t="n"/>
       <c r="K11" s="93" t="n"/>
       <c r="L11" s="72" t="n"/>
     </row>
@@ -7571,8 +7432,8 @@
         </is>
       </c>
       <c r="G12" s="72" t="n"/>
-      <c r="I12" s="125" t="n"/>
-      <c r="J12" s="129" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="120" t="n"/>
       <c r="K12" s="93" t="n"/>
       <c r="L12" s="72" t="n"/>
     </row>
@@ -7596,8 +7457,8 @@
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="125" t="n"/>
-      <c r="J13" s="129" t="n"/>
+      <c r="I13" s="110" t="n"/>
+      <c r="J13" s="120" t="n"/>
       <c r="K13" s="94" t="n"/>
       <c r="L13" s="72" t="n"/>
     </row>
@@ -7613,16 +7474,16 @@
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="131" t="n"/>
-      <c r="E14" s="132" t="n"/>
+      <c r="D14" s="122" t="n"/>
+      <c r="E14" s="123" t="n"/>
       <c r="F14" s="72" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
       <c r="G14" s="72" t="n"/>
-      <c r="I14" s="133" t="n"/>
-      <c r="J14" s="129" t="n"/>
+      <c r="I14" s="124" t="n"/>
+      <c r="J14" s="120" t="n"/>
       <c r="K14" s="97" t="n"/>
       <c r="L14" s="72" t="n"/>
     </row>
@@ -7645,8 +7506,8 @@
         </is>
       </c>
       <c r="G15" s="72" t="n"/>
-      <c r="I15" s="133" t="n"/>
-      <c r="J15" s="129" t="n"/>
+      <c r="I15" s="124" t="n"/>
+      <c r="J15" s="120" t="n"/>
       <c r="K15" s="97" t="n"/>
       <c r="L15" s="72" t="n"/>
     </row>
@@ -7655,8 +7516,8 @@
       <c r="D16" s="72" t="n"/>
       <c r="F16" s="72" t="n"/>
       <c r="G16" s="72" t="n"/>
-      <c r="I16" s="134" t="n"/>
-      <c r="J16" s="129" t="n"/>
+      <c r="I16" s="125" t="n"/>
+      <c r="J16" s="120" t="n"/>
       <c r="K16" s="101" t="n"/>
       <c r="L16" s="72" t="n"/>
     </row>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -33,10 +33,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -165,14 +165,6 @@
       <family val="0"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="14"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +258,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -358,11 +350,14 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,16 +466,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -562,11 +560,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,16 +667,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -931,750 +935,749 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.57" customWidth="1" style="72" min="1" max="1"/>
-    <col width="36.14" customWidth="1" style="72" min="2" max="2"/>
-    <col width="13.14" customWidth="1" style="72" min="3" max="3"/>
-    <col width="11.43" customWidth="1" style="72" min="5" max="5"/>
-    <col width="12.57" customWidth="1" style="72" min="6" max="6"/>
-    <col width="45" customWidth="1" style="72" min="8" max="8"/>
-    <col width="14.43" customWidth="1" style="72" min="9" max="9"/>
-    <col width="11.86" customWidth="1" style="72" min="10" max="10"/>
-    <col width="13.43" customWidth="1" style="72" min="11" max="11"/>
+    <col width="6.57" customWidth="1" style="74" min="1" max="1"/>
+    <col width="36.14" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13.14" customWidth="1" style="74" min="3" max="3"/>
+    <col width="11.43" customWidth="1" style="74" min="5" max="5"/>
+    <col width="12.57" customWidth="1" style="74" min="6" max="6"/>
+    <col width="45" customWidth="1" style="74" min="8" max="8"/>
+    <col width="14.43" customWidth="1" style="74" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="74" min="10" max="10"/>
+    <col width="13.43" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="77" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C3" s="74" t="n">
+      <c r="C3" s="76" t="n">
         <v>513700004</v>
       </c>
-      <c r="D3" s="74" t="n"/>
-      <c r="E3" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="77" t="n">
+      <c r="G3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="79" t="inlineStr">
+      <c r="H3" s="81" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I3" s="74" t="n">
+      <c r="I3" s="76" t="n">
         <v>513700004</v>
       </c>
-      <c r="J3" s="80" t="n"/>
-      <c r="K3" s="80" t="n">
+      <c r="J3" s="82" t="n"/>
+      <c r="K3" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="72" t="inlineStr">
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="77" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="76" t="n">
         <v>513776719</v>
       </c>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n">
+      <c r="G4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="79" t="inlineStr">
+      <c r="H4" s="81" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I4" s="74" t="n">
+      <c r="I4" s="76" t="n">
         <v>513758449</v>
       </c>
-      <c r="J4" s="80" t="n"/>
-      <c r="K4" s="80" t="n">
+      <c r="J4" s="82" t="n"/>
+      <c r="K4" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="72" t="inlineStr">
+      <c r="L4" s="74" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="77" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="81" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="76" t="n">
         <v>513758449</v>
       </c>
-      <c r="D5" s="74" t="n"/>
-      <c r="E5" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G5" s="77" t="n">
+      <c r="G5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="79" t="inlineStr">
+      <c r="H5" s="81" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I5" s="74" t="n">
+      <c r="I5" s="76" t="n">
         <v>513749220</v>
       </c>
-      <c r="J5" s="80" t="n"/>
-      <c r="K5" s="80" t="n">
+      <c r="J5" s="82" t="n"/>
+      <c r="K5" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="72" t="inlineStr">
+      <c r="L5" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="77" t="n">
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="76" t="n">
         <v>513749220</v>
       </c>
-      <c r="D6" s="74" t="n"/>
-      <c r="E6" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="79" t="inlineStr">
+      <c r="H6" s="81" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I6" s="74" t="n">
+      <c r="I6" s="76" t="n">
         <v>513754823</v>
       </c>
-      <c r="J6" s="80" t="n"/>
-      <c r="K6" s="80" t="n">
+      <c r="J6" s="82" t="n"/>
+      <c r="K6" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="72" t="inlineStr">
+      <c r="L6" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="77" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="77" t="inlineStr">
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="76" t="n">
         <v>513756797</v>
       </c>
-      <c r="D7" s="74" t="n"/>
-      <c r="E7" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="77" t="n">
+      <c r="G7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="79" t="inlineStr">
+      <c r="H7" s="81" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I7" s="74" t="n">
+      <c r="I7" s="76" t="n">
         <v>513781493</v>
       </c>
-      <c r="J7" s="80" t="n"/>
-      <c r="K7" s="80" t="n">
+      <c r="J7" s="82" t="n"/>
+      <c r="K7" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="72" t="inlineStr">
+      <c r="L7" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="77" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="inlineStr">
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C8" s="74" t="n">
+      <c r="C8" s="76" t="n">
         <v>513761848</v>
       </c>
-      <c r="D8" s="74" t="n"/>
-      <c r="E8" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="77" t="inlineStr">
+      <c r="H8" s="79" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I8" s="74" t="n">
+      <c r="I8" s="76" t="n">
         <v>513701260</v>
       </c>
-      <c r="J8" s="80" t="n"/>
-      <c r="K8" s="80" t="n">
+      <c r="J8" s="82" t="n"/>
+      <c r="K8" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="72" t="inlineStr">
+      <c r="L8" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="77" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="77" t="inlineStr">
+      <c r="B9" s="79" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C9" s="74" t="n">
+      <c r="C9" s="76" t="n">
         <v>513778649</v>
       </c>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="72" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G9" s="77" t="n">
+      <c r="G9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="77" t="inlineStr">
+      <c r="H9" s="79" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I9" s="74" t="n">
+      <c r="I9" s="76" t="n">
         <v>513772028</v>
       </c>
-      <c r="J9" s="80" t="n"/>
-      <c r="K9" s="80" t="n">
+      <c r="J9" s="82" t="n"/>
+      <c r="K9" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="72" t="inlineStr">
+      <c r="L9" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="77" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="77" t="inlineStr">
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C10" s="74" t="n">
+      <c r="C10" s="76" t="n">
         <v>513720426</v>
       </c>
-      <c r="D10" s="80" t="n"/>
-      <c r="E10" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="72" t="inlineStr">
+      <c r="D10" s="82" t="n"/>
+      <c r="E10" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="77" t="n">
+      <c r="G10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="77" t="n"/>
-      <c r="I10" s="74" t="n"/>
-      <c r="J10" s="80" t="inlineStr">
+      <c r="H10" s="79" t="n"/>
+      <c r="I10" s="76" t="n"/>
+      <c r="J10" s="82" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="82">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L10" s="72" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="77" t="n">
+      <c r="L10" s="74" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="81" t="inlineStr">
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="76" t="n">
         <v>513754823</v>
       </c>
-      <c r="D11" s="80" t="n"/>
-      <c r="E11" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="72" t="inlineStr">
+      <c r="D11" s="82" t="n"/>
+      <c r="E11" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="83" t="n"/>
-      <c r="J11" s="84" t="n"/>
-      <c r="K11" s="85" t="n"/>
-      <c r="L11" s="72" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="77" t="n">
+      <c r="I11" s="85" t="n"/>
+      <c r="J11" s="86" t="n"/>
+      <c r="K11" s="87" t="n"/>
+      <c r="L11" s="74" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="77" t="inlineStr">
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C12" s="74" t="n">
+      <c r="C12" s="76" t="n">
         <v>513781493</v>
       </c>
-      <c r="D12" s="74" t="n"/>
-      <c r="E12" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="72" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="86" t="n"/>
-      <c r="H12" s="83" t="n"/>
-      <c r="I12" s="83" t="n"/>
-      <c r="J12" s="87" t="n"/>
+      <c r="G12" s="88" t="n"/>
+      <c r="H12" s="85" t="n"/>
+      <c r="I12" s="85" t="n"/>
+      <c r="J12" s="89" t="n"/>
       <c r="K12" s="14" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="77" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="77" t="inlineStr">
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C13" s="74" t="n">
+      <c r="C13" s="76" t="n">
         <v>513766860</v>
       </c>
-      <c r="D13" s="80" t="n"/>
-      <c r="E13" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="72" t="inlineStr">
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="88" t="n"/>
-      <c r="I13" t="inlineStr">
+      <c r="H13" s="90" t="n"/>
+      <c r="I13" s="74" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="74" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="77" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="77" t="inlineStr">
+      <c r="B14" s="79" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C14" s="74" t="n">
+      <c r="C14" s="76" t="n">
         <v>513701260</v>
       </c>
-      <c r="D14" s="80" t="n"/>
-      <c r="E14" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="72" t="inlineStr">
+      <c r="D14" s="82" t="n"/>
+      <c r="E14" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="89" t="inlineStr">
+      <c r="I14" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="90" t="n">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="92" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="77" t="n">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="77" t="inlineStr">
+      <c r="B15" s="79" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C15" s="74" t="inlineStr">
+      <c r="C15" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D15" s="80" t="n"/>
-      <c r="E15" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="72" t="inlineStr">
+      <c r="D15" s="82" t="n"/>
+      <c r="E15" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I15" s="89" t="inlineStr">
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J15" s="76" t="n"/>
+      <c r="J15" s="78" t="n"/>
       <c r="K15" s="18" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="77" t="n">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="77" t="inlineStr">
+      <c r="B16" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C16" s="74" t="n">
+      <c r="C16" s="76" t="n">
         <v>513772028</v>
       </c>
-      <c r="D16" s="80" t="n"/>
-      <c r="E16" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="72" t="inlineStr">
+      <c r="D16" s="82" t="n"/>
+      <c r="E16" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="91" t="inlineStr">
+      <c r="I16" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J16" s="76" t="n"/>
-      <c r="K16" s="92" t="n">
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="94" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="77" t="n">
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="77" t="inlineStr">
+      <c r="B17" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C17" s="74" t="n">
+      <c r="C17" s="76" t="n">
         <v>513753257</v>
       </c>
-      <c r="D17" s="80" t="n"/>
-      <c r="E17" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="72" t="inlineStr">
+      <c r="D17" s="82" t="n"/>
+      <c r="E17" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I17" s="89" t="inlineStr">
+      <c r="I17" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J17" s="76" t="n"/>
+      <c r="J17" s="78" t="n"/>
       <c r="K17" s="21" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="A18" s="77" t="n">
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="77" t="inlineStr">
+      <c r="B18" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C18" s="74" t="n">
+      <c r="C18" s="76" t="n">
         <v>513697796</v>
       </c>
-      <c r="D18" s="80" t="n"/>
-      <c r="E18" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="72" t="inlineStr">
+      <c r="D18" s="82" t="n"/>
+      <c r="E18" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="89" t="inlineStr">
+      <c r="I18" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J18" s="76" t="n"/>
-      <c r="K18" s="93">
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="95">
         <f>K16-K18-K17</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="A19" s="77" t="n">
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="77" t="n"/>
-      <c r="C19" s="74" t="n"/>
-      <c r="D19" s="80" t="inlineStr">
+      <c r="B19" s="79" t="n"/>
+      <c r="C19" s="76" t="n"/>
+      <c r="D19" s="82" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="84">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="F19" s="72" t="n"/>
-      <c r="I19" s="89" t="inlineStr">
+      <c r="I19" s="91" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J19" s="76" t="n"/>
-      <c r="K19" s="94">
+      <c r="J19" s="78" t="n"/>
+      <c r="K19" s="96">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="73">
-      <c r="A20" s="86" t="n"/>
-      <c r="B20" s="87" t="n"/>
-      <c r="D20" s="95" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="A20" s="88" t="n"/>
+      <c r="B20" s="89" t="n"/>
+      <c r="D20" s="97" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="84">
         <f>49*17</f>
         <v/>
       </c>
-      <c r="I20" s="96" t="inlineStr">
+      <c r="I20" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J20" s="76" t="n"/>
-      <c r="K20" s="97">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="99">
         <f>300+E14</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="73">
-      <c r="A21" s="86" t="n"/>
-      <c r="D21" s="98" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="A21" s="88" t="n"/>
+      <c r="D21" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E21" s="99" t="n">
+      <c r="E21" s="101" t="n">
         <v>1444.1</v>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="I21" s="96" t="inlineStr">
+      <c r="I21" s="98" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J21" s="76" t="n"/>
-      <c r="K21" s="97">
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="99">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="73">
-      <c r="A22" s="86" t="n"/>
-      <c r="D22" s="98" t="n"/>
-      <c r="E22" s="99" t="n"/>
-      <c r="I22" s="100" t="n"/>
-      <c r="J22" s="76" t="n"/>
-      <c r="K22" s="101" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="73">
-      <c r="K23" s="87" t="n"/>
+    <row r="22" ht="15" customHeight="1" s="75">
+      <c r="A22" s="88" t="n"/>
+      <c r="D22" s="100" t="n"/>
+      <c r="E22" s="101" t="n"/>
+      <c r="I22" s="102" t="n"/>
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="103" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="75">
+      <c r="K23" s="89" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1710,713 +1713,713 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48.04" customWidth="1" style="72" min="2" max="2"/>
-    <col width="12.13" customWidth="1" style="72" min="3" max="3"/>
-    <col width="41.17" customWidth="1" style="72" min="8" max="8"/>
-    <col width="10.54" customWidth="1" style="72" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="72" min="11" max="11"/>
+    <col width="48.04" customWidth="1" style="74" min="2" max="2"/>
+    <col width="12.13" customWidth="1" style="74" min="3" max="3"/>
+    <col width="41.17" customWidth="1" style="74" min="8" max="8"/>
+    <col width="10.54" customWidth="1" style="74" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="F1" s="72" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="F1" s="74" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="72" t="n"/>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="F2" s="74" t="n"/>
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="A3" s="77" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="126" t="inlineStr">
+      <c r="B3" s="129" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="74" t="inlineStr">
+      <c r="C3" s="76" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="74" t="n"/>
-      <c r="E3" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="87" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="77" t="n"/>
-      <c r="H3" s="127" t="inlineStr">
+      <c r="G3" s="79" t="n"/>
+      <c r="H3" s="130" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="74" t="inlineStr">
+      <c r="I3" s="76" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="74" t="n"/>
-      <c r="K3" s="74" t="n">
+      <c r="J3" s="76" t="n"/>
+      <c r="K3" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="87" t="inlineStr">
+      <c r="L3" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="A4" s="77" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="127" t="inlineStr">
+      <c r="B4" s="130" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="76" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="87" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n"/>
-      <c r="H4" s="128" t="inlineStr">
+      <c r="G4" s="79" t="n"/>
+      <c r="H4" s="131" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="74" t="n">
+      <c r="I4" s="76" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="74" t="n"/>
-      <c r="K4" s="74" t="n">
+      <c r="J4" s="76" t="n"/>
+      <c r="K4" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="87" t="inlineStr">
+      <c r="L4" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="A5" s="77" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="128" t="inlineStr">
+      <c r="B5" s="131" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="76" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="74" t="n"/>
-      <c r="E5" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="87" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="77" t="n"/>
-      <c r="H5" s="128" t="inlineStr">
+      <c r="G5" s="79" t="n"/>
+      <c r="H5" s="131" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="74" t="n">
+      <c r="I5" s="76" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="74" t="n"/>
-      <c r="K5" s="74" t="n">
+      <c r="J5" s="76" t="n"/>
+      <c r="K5" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="87" t="inlineStr">
+      <c r="L5" s="89" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="A6" s="77" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="129" t="inlineStr">
+      <c r="B6" s="132" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="76" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="74" t="n"/>
-      <c r="E6" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="87" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="77" t="n"/>
-      <c r="H6" s="128" t="inlineStr">
+      <c r="G6" s="79" t="n"/>
+      <c r="H6" s="131" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="74" t="n">
+      <c r="I6" s="76" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="74" t="n"/>
-      <c r="K6" s="74" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="87" t="inlineStr">
+      <c r="L6" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="A7" s="77" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="128" t="inlineStr">
+      <c r="B7" s="131" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="76" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="74" t="n"/>
-      <c r="E7" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="87" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="77" t="n"/>
-      <c r="H7" s="128" t="inlineStr">
+      <c r="G7" s="79" t="n"/>
+      <c r="H7" s="131" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="74" t="n">
+      <c r="I7" s="76" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="74" t="n"/>
-      <c r="K7" s="74" t="n">
+      <c r="J7" s="76" t="n"/>
+      <c r="K7" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="87" t="inlineStr">
+      <c r="L7" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="A8" s="77" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="129" t="inlineStr">
+      <c r="B8" s="132" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="74" t="n">
+      <c r="C8" s="76" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="74" t="n"/>
-      <c r="E8" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="87" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="89" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="77" t="n"/>
-      <c r="H8" s="128" t="inlineStr">
+      <c r="G8" s="79" t="n"/>
+      <c r="H8" s="131" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="74" t="n">
+      <c r="I8" s="76" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="74" t="n"/>
-      <c r="K8" s="74" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="87" t="inlineStr">
+      <c r="L8" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="73">
-      <c r="A9" s="77" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="128" t="inlineStr">
+      <c r="B9" s="131" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="74" t="n">
+      <c r="C9" s="76" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="87" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="77" t="n"/>
-      <c r="H9" s="128" t="inlineStr">
+      <c r="G9" s="79" t="n"/>
+      <c r="H9" s="131" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="74" t="n">
+      <c r="I9" s="76" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="74" t="n"/>
-      <c r="K9" s="74" t="n">
+      <c r="J9" s="76" t="n"/>
+      <c r="K9" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="87" t="inlineStr">
+      <c r="L9" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="73">
-      <c r="A10" s="77" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="128" t="inlineStr">
+      <c r="B10" s="131" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="74" t="n">
+      <c r="C10" s="76" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="74" t="n"/>
-      <c r="E10" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="87" t="inlineStr">
+      <c r="D10" s="76" t="n"/>
+      <c r="E10" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="77" t="n"/>
-      <c r="H10" s="79" t="inlineStr">
+      <c r="G10" s="79" t="n"/>
+      <c r="H10" s="81" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="74" t="inlineStr">
+      <c r="I10" s="76" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="74" t="n"/>
-      <c r="K10" s="74" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="87" t="inlineStr">
+      <c r="L10" s="89" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="A11" s="77" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="128" t="inlineStr">
+      <c r="B11" s="131" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="76" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="74" t="n"/>
-      <c r="E11" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="87" t="inlineStr">
+      <c r="D11" s="76" t="n"/>
+      <c r="E11" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="77" t="n"/>
-      <c r="H11" s="79" t="inlineStr">
+      <c r="G11" s="79" t="n"/>
+      <c r="H11" s="81" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="74" t="inlineStr">
+      <c r="I11" s="76" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="74" t="n"/>
-      <c r="K11" s="74" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="87" t="inlineStr">
+      <c r="L11" s="89" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="A12" s="77" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="128" t="inlineStr">
+      <c r="B12" s="131" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="74" t="n">
+      <c r="C12" s="76" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="74" t="n"/>
-      <c r="E12" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="87" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="77" t="n"/>
-      <c r="H12" s="79" t="n"/>
-      <c r="I12" s="74" t="n"/>
-      <c r="J12" s="74" t="n"/>
-      <c r="K12" s="74" t="n">
+      <c r="G12" s="79" t="n"/>
+      <c r="H12" s="81" t="n"/>
+      <c r="I12" s="76" t="n"/>
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="87" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="A13" s="77" t="n">
+      <c r="L12" s="89" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="128" t="inlineStr">
+      <c r="B13" s="131" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="74" t="n">
+      <c r="C13" s="76" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="74" t="n"/>
-      <c r="E13" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="87" t="inlineStr">
+      <c r="D13" s="76" t="n"/>
+      <c r="E13" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="87" t="n"/>
-      <c r="H13" s="87" t="n"/>
-      <c r="I13" s="83" t="n"/>
-      <c r="J13" s="84" t="inlineStr">
+      <c r="G13" s="89" t="n"/>
+      <c r="H13" s="89" t="n"/>
+      <c r="I13" s="85" t="n"/>
+      <c r="J13" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="87">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="73">
-      <c r="A14" s="77" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="128" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="74" t="n">
+      <c r="C14" s="76" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="74" t="n"/>
-      <c r="E14" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="87" t="inlineStr">
+      <c r="D14" s="76" t="n"/>
+      <c r="E14" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="89" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="86" t="n"/>
-      <c r="H14" s="83" t="n"/>
-      <c r="I14" s="83" t="n"/>
-      <c r="J14" s="87" t="n"/>
+      <c r="G14" s="88" t="n"/>
+      <c r="H14" s="85" t="n"/>
+      <c r="I14" s="85" t="n"/>
+      <c r="J14" s="89" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="73">
-      <c r="A15" s="77" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="128" t="inlineStr">
+      <c r="B15" s="131" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="74" t="n">
+      <c r="C15" s="76" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="74" t="n"/>
-      <c r="E15" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="87" t="inlineStr">
+      <c r="D15" s="76" t="n"/>
+      <c r="E15" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="88" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="73">
-      <c r="A16" s="77" t="n">
+      <c r="H15" s="90" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="79" t="n"/>
-      <c r="C16" s="74" t="n"/>
-      <c r="D16" s="74" t="n"/>
-      <c r="E16" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="87" t="n"/>
-      <c r="I16" s="89" t="n"/>
-      <c r="J16" s="76" t="n"/>
-      <c r="K16" s="90" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="73">
-      <c r="A17" s="77" t="n">
+      <c r="B16" s="81" t="n"/>
+      <c r="C16" s="76" t="n"/>
+      <c r="D16" s="76" t="n"/>
+      <c r="E16" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="89" t="n"/>
+      <c r="I16" s="91" t="n"/>
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="92" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="79" t="n"/>
-      <c r="C17" s="74" t="n"/>
-      <c r="D17" s="74" t="n"/>
-      <c r="E17" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="87" t="n"/>
-      <c r="I17" s="89" t="n"/>
-      <c r="J17" s="76" t="n"/>
-      <c r="K17" s="90" t="n"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="73">
-      <c r="A18" s="77" t="n">
+      <c r="B17" s="81" t="n"/>
+      <c r="C17" s="76" t="n"/>
+      <c r="D17" s="76" t="n"/>
+      <c r="E17" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="89" t="n"/>
+      <c r="I17" s="91" t="n"/>
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="92" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="79" t="n"/>
-      <c r="C18" s="74" t="n"/>
-      <c r="D18" s="74" t="n"/>
-      <c r="E18" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="87" t="n"/>
-      <c r="I18" s="91" t="n"/>
-      <c r="J18" s="76" t="n"/>
-      <c r="K18" s="92" t="n"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="73">
-      <c r="A19" s="77" t="n">
+      <c r="B18" s="81" t="n"/>
+      <c r="C18" s="76" t="n"/>
+      <c r="D18" s="76" t="n"/>
+      <c r="E18" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="89" t="n"/>
+      <c r="I18" s="93" t="n"/>
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="94" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="79" t="n"/>
-      <c r="C19" s="74" t="n"/>
-      <c r="D19" s="74" t="n"/>
-      <c r="E19" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="87" t="n"/>
-      <c r="I19" s="89" t="n"/>
-      <c r="J19" s="76" t="n"/>
+      <c r="B19" s="81" t="n"/>
+      <c r="C19" s="76" t="n"/>
+      <c r="D19" s="76" t="n"/>
+      <c r="E19" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="89" t="n"/>
+      <c r="I19" s="91" t="n"/>
+      <c r="J19" s="78" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="73">
-      <c r="A20" s="77" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="75">
+      <c r="A20" s="79" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="79" t="n"/>
-      <c r="C20" s="74" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="87" t="n"/>
-      <c r="I20" s="89" t="n"/>
-      <c r="J20" s="76" t="n"/>
-      <c r="K20" s="93" t="n"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="73">
-      <c r="A21" s="77" t="n">
+      <c r="B20" s="81" t="n"/>
+      <c r="C20" s="76" t="n"/>
+      <c r="D20" s="76" t="n"/>
+      <c r="E20" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="89" t="n"/>
+      <c r="I20" s="91" t="n"/>
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="95" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="75">
+      <c r="A21" s="79" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="79" t="n"/>
-      <c r="C21" s="74" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="87" t="n"/>
-      <c r="I21" s="89" t="n"/>
-      <c r="J21" s="76" t="n"/>
-      <c r="K21" s="94" t="n"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="73">
-      <c r="A22" s="77" t="n">
+      <c r="B21" s="81" t="n"/>
+      <c r="C21" s="76" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="89" t="n"/>
+      <c r="I21" s="91" t="n"/>
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="96" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="75">
+      <c r="A22" s="79" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="79" t="n"/>
-      <c r="C22" s="74" t="n"/>
-      <c r="D22" s="74" t="n"/>
-      <c r="E22" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="87" t="n"/>
-      <c r="I22" s="96" t="n"/>
-      <c r="J22" s="76" t="n"/>
-      <c r="K22" s="97" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="73">
-      <c r="A23" s="77" t="n">
+      <c r="B22" s="81" t="n"/>
+      <c r="C22" s="76" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="89" t="n"/>
+      <c r="I22" s="98" t="n"/>
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="99" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="75">
+      <c r="A23" s="79" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="79" t="n"/>
-      <c r="C23" s="130" t="n"/>
-      <c r="D23" s="74" t="n"/>
-      <c r="E23" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="87" t="n"/>
+      <c r="B23" s="81" t="n"/>
+      <c r="C23" s="133" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="89" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="96" t="n"/>
-      <c r="J23" s="76" t="n"/>
-      <c r="K23" s="97" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="73">
-      <c r="A24" s="86" t="n"/>
-      <c r="B24" s="87" t="n"/>
-      <c r="D24" s="95" t="n"/>
-      <c r="E24" s="82" t="n"/>
-      <c r="F24" s="72" t="n"/>
-      <c r="I24" s="100" t="n"/>
-      <c r="J24" s="76" t="n"/>
-      <c r="K24" s="101" t="n"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="73">
-      <c r="A25" s="86" t="n"/>
-      <c r="D25" s="98" t="n"/>
-      <c r="E25" s="99" t="n"/>
-      <c r="F25" s="72" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="73">
-      <c r="A26" s="86" t="n"/>
-      <c r="D26" s="98" t="n"/>
-      <c r="E26" s="99" t="n"/>
-      <c r="F26" s="72" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="73"/>
+      <c r="I23" s="98" t="n"/>
+      <c r="J23" s="78" t="n"/>
+      <c r="K23" s="99" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="75">
+      <c r="A24" s="88" t="n"/>
+      <c r="B24" s="89" t="n"/>
+      <c r="D24" s="97" t="n"/>
+      <c r="E24" s="84" t="n"/>
+      <c r="F24" s="74" t="n"/>
+      <c r="I24" s="102" t="n"/>
+      <c r="J24" s="78" t="n"/>
+      <c r="K24" s="103" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="75">
+      <c r="A25" s="88" t="n"/>
+      <c r="D25" s="100" t="n"/>
+      <c r="E25" s="101" t="n"/>
+      <c r="F25" s="74" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="75">
+      <c r="A26" s="88" t="n"/>
+      <c r="D26" s="100" t="n"/>
+      <c r="E26" s="101" t="n"/>
+      <c r="F26" s="74" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2459,150 +2462,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="72" min="2" max="2"/>
-    <col width="9.92" customWidth="1" style="72" min="4" max="4"/>
-    <col width="55" customWidth="1" style="72" min="8" max="8"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="9.92" customWidth="1" style="74" min="4" max="4"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="73">
-      <c r="A1" s="104" t="n"/>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="104" t="n"/>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="73">
-      <c r="A2" s="104" t="n"/>
-      <c r="B2" s="104" t="n"/>
-      <c r="C2" s="104" t="n"/>
-      <c r="D2" s="104" t="n"/>
-      <c r="E2" s="104" t="n"/>
-      <c r="G2" s="104" t="n"/>
-      <c r="H2" s="104" t="n"/>
-      <c r="I2" s="104" t="n"/>
-      <c r="J2" s="104" t="n"/>
-      <c r="K2" s="104" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="A3" s="103" t="n"/>
-      <c r="B3" s="103" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="107" t="n"/>
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="107" t="n"/>
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="75">
+      <c r="A2" s="107" t="n"/>
+      <c r="B2" s="107" t="n"/>
+      <c r="C2" s="107" t="n"/>
+      <c r="D2" s="107" t="n"/>
+      <c r="E2" s="107" t="n"/>
+      <c r="G2" s="107" t="n"/>
+      <c r="H2" s="107" t="n"/>
+      <c r="I2" s="107" t="n"/>
+      <c r="J2" s="107" t="n"/>
+      <c r="K2" s="107" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="72" t="n"/>
-      <c r="E3" s="103" t="n"/>
-      <c r="F3" s="72" t="n"/>
-      <c r="G3" s="103" t="n"/>
-      <c r="H3" s="103" t="inlineStr">
+      <c r="C3" s="74" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="74" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="103" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="A4" s="103" t="n"/>
-      <c r="B4" s="131" t="inlineStr">
+      <c r="K3" s="106" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="106" t="n"/>
+      <c r="B4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="132" t="n"/>
-      <c r="D4" s="132" t="n"/>
-      <c r="E4" s="131" t="n"/>
-      <c r="F4" s="72" t="n"/>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="131" t="inlineStr">
+      <c r="C4" s="135" t="n"/>
+      <c r="D4" s="135" t="n"/>
+      <c r="E4" s="134" t="n"/>
+      <c r="F4" s="74" t="n"/>
+      <c r="G4" s="106" t="n"/>
+      <c r="H4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="103" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="A5" s="103" t="n"/>
-      <c r="B5" s="103" t="inlineStr">
+      <c r="K4" s="106" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="106" t="n"/>
+      <c r="B5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="72" t="n"/>
-      <c r="E5" s="103" t="n"/>
-      <c r="F5" s="72" t="n"/>
-      <c r="G5" s="103" t="n"/>
-      <c r="H5" s="103" t="inlineStr">
+      <c r="C5" s="74" t="n"/>
+      <c r="E5" s="106" t="n"/>
+      <c r="F5" s="74" t="n"/>
+      <c r="G5" s="106" t="n"/>
+      <c r="H5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="103" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="A6" s="103" t="n"/>
-      <c r="B6" s="103" t="inlineStr">
+      <c r="K5" s="106" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="106" t="n"/>
+      <c r="B6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="72" t="n"/>
-      <c r="E6" s="103" t="n"/>
-      <c r="F6" s="72" t="n"/>
-      <c r="G6" s="103" t="n"/>
-      <c r="H6" s="103" t="inlineStr">
+      <c r="C6" s="74" t="n"/>
+      <c r="E6" s="106" t="n"/>
+      <c r="F6" s="74" t="n"/>
+      <c r="G6" s="106" t="n"/>
+      <c r="H6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="103" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="A7" s="103" t="n"/>
-      <c r="B7" s="103" t="inlineStr">
+      <c r="K6" s="106" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="106" t="n"/>
+      <c r="B7" s="106" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="72" t="n"/>
-      <c r="E7" s="103" t="n"/>
-      <c r="F7" s="72" t="n"/>
-      <c r="G7" s="72" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="A8" s="103" t="n"/>
-      <c r="B8" s="103" t="inlineStr">
+      <c r="C7" s="74" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="74" t="n"/>
+      <c r="G7" s="74" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="106" t="n"/>
+      <c r="B8" s="106" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="72" t="n"/>
-      <c r="E8" s="103" t="n"/>
-      <c r="F8" s="72" t="n"/>
-      <c r="G8" s="72" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="73"/>
-    <row r="10" ht="13.5" customHeight="1" s="73"/>
-    <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="I11" s="103" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="I12" s="103" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="I13" s="103" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="73">
-      <c r="I14" s="103" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="73">
-      <c r="I15" s="103" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="73"/>
+      <c r="C8" s="74" t="n"/>
+      <c r="E8" s="106" t="n"/>
+      <c r="F8" s="74" t="n"/>
+      <c r="G8" s="74" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="75"/>
+    <row r="10" ht="13.5" customHeight="1" s="75"/>
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="I11" s="106" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="I12" s="106" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="I13" s="106" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="I14" s="106" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="I15" s="106" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2636,297 +2639,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="72" min="2" max="2"/>
-    <col width="55" customWidth="1" style="72" min="8" max="8"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="73">
-      <c r="A1" s="104" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="107" t="inlineStr">
         <is>
           <t>(A) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="104" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="107" t="inlineStr">
         <is>
           <t>(A) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="73">
-      <c r="A2" s="104" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="75">
+      <c r="A2" s="107" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="104" t="inlineStr">
+      <c r="B2" s="107" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="104" t="inlineStr">
+      <c r="C2" s="107" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="104" t="inlineStr">
+      <c r="D2" s="107" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="104" t="inlineStr">
+      <c r="E2" s="107" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="104" t="n"/>
-      <c r="H2" s="104" t="n"/>
-      <c r="I2" s="104" t="n"/>
-      <c r="J2" s="104" t="n"/>
-      <c r="K2" s="104" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="A3" s="103" t="n"/>
-      <c r="B3" s="103" t="inlineStr">
+      <c r="G2" s="107" t="n"/>
+      <c r="H2" s="107" t="n"/>
+      <c r="I2" s="107" t="n"/>
+      <c r="J2" s="107" t="n"/>
+      <c r="K2" s="107" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="103" t="n">
+      <c r="C3" s="106" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="103" t="n"/>
-      <c r="E3" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="72" t="n"/>
-      <c r="G3" s="103" t="n"/>
-      <c r="H3" s="103" t="inlineStr">
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="133" t="n">
+      <c r="K3" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="A4" s="103" t="n"/>
-      <c r="B4" s="131" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="106" t="n"/>
+      <c r="B4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="131" t="n">
+      <c r="C4" s="134" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="131" t="n"/>
-      <c r="E4" s="134" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="72" t="n"/>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="131" t="inlineStr">
+      <c r="D4" s="134" t="n"/>
+      <c r="E4" s="137" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="n"/>
+      <c r="G4" s="106" t="n"/>
+      <c r="H4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="133" t="n">
+      <c r="K4" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="A5" s="103" t="n"/>
-      <c r="B5" s="103" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="106" t="n"/>
+      <c r="B5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="103" t="n">
+      <c r="C5" s="106" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="103" t="n"/>
-      <c r="E5" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="72" t="n"/>
-      <c r="G5" s="103" t="n"/>
-      <c r="H5" s="103" t="inlineStr">
+      <c r="D5" s="106" t="n"/>
+      <c r="E5" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="n"/>
+      <c r="G5" s="106" t="n"/>
+      <c r="H5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="133" t="n">
+      <c r="K5" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="A6" s="103" t="n"/>
-      <c r="B6" s="103" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="106" t="n"/>
+      <c r="B6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="72" t="n"/>
-      <c r="D6" s="103" t="n"/>
-      <c r="E6" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="72" t="n"/>
-      <c r="G6" s="103" t="n"/>
-      <c r="H6" s="103" t="inlineStr">
+      <c r="C6" s="74" t="n"/>
+      <c r="D6" s="106" t="n"/>
+      <c r="E6" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="n"/>
+      <c r="G6" s="106" t="n"/>
+      <c r="H6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="133" t="n">
+      <c r="K6" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="A7" s="103" t="n"/>
-      <c r="B7" s="103" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="106" t="n"/>
+      <c r="B7" s="106" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="72" t="n"/>
-      <c r="D7" s="103" t="n"/>
-      <c r="E7" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="72" t="n"/>
-      <c r="G7" s="72" t="n"/>
-      <c r="H7" s="103" t="inlineStr">
+      <c r="C7" s="74" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="n"/>
+      <c r="G7" s="74" t="n"/>
+      <c r="H7" s="106" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="104" t="n"/>
-      <c r="K7" s="104" t="n">
+      <c r="J7" s="107" t="n"/>
+      <c r="K7" s="107" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="A8" s="103" t="n"/>
-      <c r="B8" s="103" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="106" t="n"/>
+      <c r="B8" s="106" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="72" t="n"/>
-      <c r="D8" s="103" t="n"/>
-      <c r="E8" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="72" t="n"/>
-      <c r="G8" s="72" t="n"/>
-      <c r="H8" s="103" t="inlineStr">
+      <c r="C8" s="74" t="n"/>
+      <c r="D8" s="106" t="n"/>
+      <c r="E8" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="n"/>
+      <c r="G8" s="74" t="n"/>
+      <c r="H8" s="106" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="104" t="n"/>
-      <c r="K8" s="104" t="n">
+      <c r="J8" s="107" t="n"/>
+      <c r="K8" s="107" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="73">
-      <c r="B9" s="103" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="B9" s="106" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="104" t="n"/>
-      <c r="E9" s="104" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="104" t="inlineStr">
+      <c r="D9" s="107" t="n"/>
+      <c r="E9" s="107" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="104" t="n">
+      <c r="K9" s="107" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="73">
-      <c r="B10" s="103" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="B10" s="106" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="104" t="n"/>
-      <c r="E10" s="104" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="104" t="inlineStr">
+      <c r="D10" s="107" t="n"/>
+      <c r="E10" s="107" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="107" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="104" t="n">
+      <c r="K10" s="107" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="D11" s="104" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="D11" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="104" t="n">
+      <c r="E11" s="107" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="103" t="n"/>
-      <c r="J11" s="104" t="inlineStr">
+      <c r="I11" s="106" t="n"/>
+      <c r="J11" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="104" t="n">
+      <c r="K11" s="107" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="D12" s="104" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="D12" s="107" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="104" t="n">
+      <c r="E12" s="107" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="103" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="D13" s="104" t="inlineStr">
+      <c r="I12" s="106" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="D13" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="104" t="n">
+      <c r="E13" s="107" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="103" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="73">
-      <c r="I14" s="103" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="73">
-      <c r="I15" s="103" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="73">
-      <c r="D16" s="103" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="73"/>
+      <c r="I13" s="106" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="I14" s="106" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="I15" s="106" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75">
+      <c r="D16" s="106" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2952,275 +2955,365 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.64" customWidth="1" style="72" min="3" max="3"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13" customWidth="1" style="74" min="3" max="3"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
+    <col width="13" customWidth="1" style="74" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="73">
-      <c r="A1" s="135" t="inlineStr">
-        <is>
-          <t>(Nome do Usuário) Atendimento Médico 02/11/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="135" t="inlineStr">
-        <is>
-          <t>(Nome do Usuário) Atendimento Psicológico 02/11/2024</t>
-        </is>
-      </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="73">
-      <c r="A2" s="135" t="inlineStr">
-        <is>
-          <t>Ordem</t>
-        </is>
-      </c>
-      <c r="B2" s="135" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C2" s="135" t="inlineStr">
-        <is>
-          <t>Renach</t>
-        </is>
-      </c>
-      <c r="D2" s="135" t="inlineStr">
-        <is>
-          <t>Reexames</t>
-        </is>
-      </c>
-      <c r="E2" s="135" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="73">
-      <c r="B3" s="103" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="75">
+      <c r="A1" s="105" t="n"/>
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="105" t="n"/>
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="75">
+      <c r="A2" s="105" t="n"/>
+      <c r="B2" s="105" t="n"/>
+      <c r="C2" s="105" t="n"/>
+      <c r="D2" s="105" t="n"/>
+      <c r="E2" s="138" t="n"/>
+      <c r="G2" s="105" t="n"/>
+      <c r="H2" s="105" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="105" t="n"/>
+      <c r="K2" s="105" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="136" t="n"/>
+      <c r="B3" s="136" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="103" t="n">
+      <c r="C3" s="136" t="n">
         <v>88565544</v>
       </c>
-      <c r="E3" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H3" s="104" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="73">
-      <c r="B4" s="131" t="inlineStr">
+      <c r="D3" s="136" t="n"/>
+      <c r="E3" s="139" t="n"/>
+      <c r="G3" s="136" t="n"/>
+      <c r="H3" s="136" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="I3" s="136" t="n"/>
+      <c r="J3" s="136" t="n"/>
+      <c r="K3" s="139" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="136" t="n"/>
+      <c r="B4" s="137" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="131" t="n">
+      <c r="C4" s="137" t="n">
         <v>2224158</v>
       </c>
-      <c r="E4" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H4" s="103" t="inlineStr">
-        <is>
-          <t>joao</t>
-        </is>
-      </c>
-      <c r="K4" s="133" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="73">
-      <c r="B5" s="103" t="inlineStr">
+      <c r="D4" s="136" t="n"/>
+      <c r="E4" s="139" t="n"/>
+      <c r="G4" s="136" t="n"/>
+      <c r="H4" s="137" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="I4" s="136" t="n"/>
+      <c r="J4" s="136" t="n"/>
+      <c r="K4" s="139" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="136" t="n"/>
+      <c r="B5" s="136" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="103" t="n">
+      <c r="C5" s="136" t="n">
         <v>585447148</v>
       </c>
-      <c r="E5" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H5" s="131" t="inlineStr">
-        <is>
-          <t>pedro</t>
-        </is>
-      </c>
-      <c r="K5" s="133" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="73">
-      <c r="B6" s="103" t="inlineStr">
+      <c r="D5" s="136" t="n"/>
+      <c r="E5" s="139" t="n"/>
+      <c r="G5" s="136" t="n"/>
+      <c r="H5" s="136" t="inlineStr">
+        <is>
+          <t>evandro</t>
+        </is>
+      </c>
+      <c r="I5" s="136" t="n"/>
+      <c r="J5" s="136" t="n"/>
+      <c r="K5" s="139" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="136" t="n"/>
+      <c r="B6" s="136" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="E6" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H6" s="103" t="inlineStr">
-        <is>
-          <t>evandro</t>
-        </is>
-      </c>
-      <c r="K6" s="133" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="73">
-      <c r="B7" s="103" t="inlineStr">
+      <c r="C6" s="136" t="n"/>
+      <c r="D6" s="136" t="n"/>
+      <c r="E6" s="139" t="n"/>
+      <c r="G6" s="136" t="n"/>
+      <c r="H6" s="136" t="inlineStr">
+        <is>
+          <t>leonar</t>
+        </is>
+      </c>
+      <c r="I6" s="136" t="n"/>
+      <c r="J6" s="136" t="n"/>
+      <c r="K6" s="139" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="136" t="n"/>
+      <c r="B7" s="136" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="E7" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H7" s="103" t="inlineStr">
-        <is>
-          <t>leonar</t>
-        </is>
-      </c>
-      <c r="K7" s="133" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="73">
-      <c r="B8" s="103" t="inlineStr">
+      <c r="C7" s="136" t="n"/>
+      <c r="D7" s="136" t="n"/>
+      <c r="E7" s="139" t="n"/>
+      <c r="G7" s="136" t="n"/>
+      <c r="H7" s="136" t="inlineStr">
+        <is>
+          <t>emanuelison</t>
+        </is>
+      </c>
+      <c r="I7" s="136" t="n"/>
+      <c r="J7" s="136" t="n"/>
+      <c r="K7" s="139" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="136" t="n"/>
+      <c r="B8" s="136" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="E8" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H8" s="103" t="inlineStr">
-        <is>
-          <t>emanuelison</t>
-        </is>
-      </c>
-      <c r="K8" s="133" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="73">
-      <c r="B9" s="103" t="inlineStr">
+      <c r="C8" s="136" t="n"/>
+      <c r="D8" s="136" t="n"/>
+      <c r="E8" s="139" t="n"/>
+      <c r="G8" s="136" t="n"/>
+      <c r="H8" s="136" t="inlineStr">
+        <is>
+          <t>patricio</t>
+        </is>
+      </c>
+      <c r="I8" s="136" t="n"/>
+      <c r="J8" s="136" t="n"/>
+      <c r="K8" s="139" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="A9" s="136" t="n"/>
+      <c r="B9" s="136" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="E9" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H9" s="103" t="inlineStr">
-        <is>
-          <t>patricio</t>
-        </is>
-      </c>
-      <c r="K9" s="133" t="n">
-        <v>192.61</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="73">
-      <c r="B10" s="103" t="inlineStr">
+      <c r="C9" s="136" t="n"/>
+      <c r="D9" s="136" t="n"/>
+      <c r="E9" s="138" t="n"/>
+      <c r="G9" s="136" t="n"/>
+      <c r="H9" s="136" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="I9" s="105" t="inlineStr">
+        <is>
+          <t>855555</t>
+        </is>
+      </c>
+      <c r="J9" s="105" t="n"/>
+      <c r="K9" s="138" t="n"/>
+      <c r="L9" s="74" t="n"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="A10" s="136" t="n"/>
+      <c r="B10" s="136" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="E10" s="133" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="104" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
-      <c r="K10" s="104" t="n">
-        <v>1155.66</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="73">
-      <c r="D11" s="104" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
-      <c r="E11" s="104" t="n">
-        <v>1189.2</v>
-      </c>
-      <c r="J11" s="104" t="inlineStr">
-        <is>
-          <t>Psicólogo</t>
-        </is>
-      </c>
-      <c r="K11" s="104" t="n">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="73">
-      <c r="D12" s="104" t="inlineStr">
-        <is>
-          <t>Médico</t>
-        </is>
-      </c>
-      <c r="E12" s="104" t="n">
-        <v>392</v>
-      </c>
-      <c r="J12" s="104" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="K12" s="104" t="n">
-        <v>774.66</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="73">
-      <c r="D13" s="104" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E13" s="104" t="n">
-        <v>797.2</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" s="73"/>
-    <row r="15" ht="12.75" customHeight="1" s="73"/>
-    <row r="16" ht="12.75" customHeight="1" s="73"/>
-    <row r="17" ht="12.75" customHeight="1" s="73"/>
-    <row r="18" ht="12.75" customHeight="1" s="73"/>
-    <row r="19" ht="12.75" customHeight="1" s="73"/>
-    <row r="20" ht="12.75" customHeight="1" s="73"/>
-    <row r="21" ht="12.75" customHeight="1" s="73"/>
-    <row r="22" ht="12.75" customHeight="1" s="73"/>
-    <row r="23" ht="12.75" customHeight="1" s="73"/>
-    <row r="24" ht="13.5" customHeight="1" s="73">
-      <c r="E24" s="72" t="n">
-        <v>148.65</v>
-      </c>
+      <c r="C10" s="136" t="n"/>
+      <c r="D10" s="136" t="n"/>
+      <c r="E10" s="138" t="n"/>
+      <c r="I10" s="105" t="n"/>
+      <c r="J10" s="105" t="n"/>
+      <c r="K10" s="138" t="n"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="A11" s="136" t="n"/>
+      <c r="B11" s="136" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="C11" s="105" t="inlineStr">
+        <is>
+          <t>855555</t>
+        </is>
+      </c>
+      <c r="D11" s="105" t="n"/>
+      <c r="E11" s="138" t="n"/>
+      <c r="F11" s="74" t="n"/>
+      <c r="I11" s="105" t="n"/>
+      <c r="J11" s="105" t="n"/>
+      <c r="K11" s="138" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="B12" s="74" t="inlineStr">
+        <is>
+          <t>LUCAS</t>
+        </is>
+      </c>
+      <c r="C12" s="105" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D12" s="105" t="n"/>
+      <c r="E12" s="138" t="n"/>
+      <c r="F12" s="74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I12" s="105" t="n"/>
+      <c r="J12" s="105" t="n"/>
+      <c r="K12" s="138" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="C13" s="105" t="n"/>
+      <c r="D13" s="105" t="n"/>
+      <c r="E13" s="138" t="n"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="75">
+      <c r="C14" s="105" t="n"/>
+      <c r="D14" s="105" t="n"/>
+      <c r="E14" s="138" t="n"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="75">
+      <c r="G15" s="136" t="n"/>
+      <c r="H15" s="105" t="n"/>
+      <c r="I15" s="78" t="n"/>
+      <c r="J15" s="138" t="n"/>
+      <c r="K15" s="139" t="n"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="75">
+      <c r="G16" s="136" t="n"/>
+      <c r="H16" s="105" t="n"/>
+      <c r="I16" s="78" t="n"/>
+      <c r="J16" s="138" t="n"/>
+      <c r="K16" s="139" t="n"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="75">
+      <c r="G17" s="136" t="n"/>
+      <c r="H17" s="105" t="n"/>
+      <c r="I17" s="78" t="n"/>
+      <c r="J17" s="138" t="n"/>
+      <c r="K17" s="139" t="n"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="75"/>
+    <row r="19" ht="12.75" customHeight="1" s="75">
+      <c r="G19" s="136" t="n"/>
+      <c r="H19" s="105" t="n"/>
+      <c r="I19" s="78" t="n"/>
+      <c r="J19" s="138" t="n"/>
+      <c r="K19" s="139" t="n"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="75">
+      <c r="G20" s="136" t="n"/>
+      <c r="H20" s="105" t="n"/>
+      <c r="I20" s="78" t="n"/>
+      <c r="J20" s="138" t="n"/>
+      <c r="K20" s="139" t="n"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="75">
+      <c r="G21" s="136" t="n"/>
+      <c r="H21" s="105" t="n"/>
+      <c r="I21" s="78" t="n"/>
+      <c r="J21" s="138" t="n"/>
+      <c r="K21" s="139" t="n"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="75">
+      <c r="I22" s="105" t="n"/>
+      <c r="J22" s="105" t="n"/>
+      <c r="K22" s="138" t="n"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="75">
+      <c r="I23" s="105" t="n"/>
+      <c r="J23" s="105" t="n"/>
+      <c r="K23" s="138" t="n"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" s="75">
+      <c r="E24" s="74" t="n"/>
+      <c r="I24" s="105" t="n"/>
+      <c r="J24" s="105" t="n"/>
+      <c r="K24" s="138" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="75">
+      <c r="H26" s="105" t="n"/>
+      <c r="I26" s="78" t="n"/>
+      <c r="J26" s="138" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="75">
+      <c r="H27" s="105" t="n"/>
+      <c r="I27" s="78" t="n"/>
+      <c r="J27" s="138" t="n"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" s="75">
+      <c r="H28" s="105" t="n"/>
+      <c r="I28" s="78" t="n"/>
+      <c r="J28" s="138" t="n"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" s="75">
+      <c r="H30" s="105" t="n"/>
+      <c r="I30" s="78" t="n"/>
+      <c r="J30" s="138" t="n"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" s="75">
+      <c r="H31" s="105" t="n"/>
+      <c r="I31" s="78" t="n"/>
+      <c r="J31" s="138" t="n"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" s="75">
+      <c r="H32" s="105" t="n"/>
+      <c r="I32" s="78" t="n"/>
+      <c r="J32" s="138" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="14">
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3250,38 +3343,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12" customWidth="1" style="72" min="1" max="1"/>
-    <col width="13.48" customWidth="1" style="72" min="2" max="2"/>
-    <col width="11" customWidth="1" style="72" min="3" max="3"/>
+    <col width="12" customWidth="1" style="74" min="1" max="1"/>
+    <col width="13.48" customWidth="1" style="74" min="2" max="2"/>
+    <col width="11" customWidth="1" style="74" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="72" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
-      <c r="B1" s="72" t="inlineStr">
+      <c r="B1" s="74" t="inlineStr">
         <is>
           <t>CONTAS</t>
         </is>
       </c>
-      <c r="C1" s="72" t="inlineStr">
+      <c r="C1" s="74" t="inlineStr">
         <is>
           <t>VALOR</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="57.75" customHeight="1" s="73">
-      <c r="A2" s="136" t="n">
+    <row r="2" ht="57.75" customHeight="1" s="75">
+      <c r="A2" s="140" t="n">
         <v>45602</v>
       </c>
-      <c r="B2" s="137" t="inlineStr">
+      <c r="B2" s="141" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="C2" s="138" t="inlineStr">
+      <c r="C2" s="142" t="inlineStr">
         <is>
           <t>R$ 333.00</t>
         </is>
@@ -3302,105 +3395,108 @@
   </sheetPr>
   <dimension ref="B3:L6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T9" activeCellId="0" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="18.38" customWidth="1" style="74" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="B3" s="72" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="B3" s="74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C3" s="72" t="inlineStr">
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>D | C</t>
         </is>
       </c>
-      <c r="H3" s="72" t="inlineStr">
+      <c r="H3" s="74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I3" s="72" t="inlineStr">
+      <c r="I3" s="74" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="L3" s="72" t="inlineStr">
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>D | C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="B4" s="72" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="B4" s="74" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="C4" s="72" t="inlineStr">
+      <c r="C4" s="74" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>D:300,00 | C:41,26</t>
         </is>
       </c>
-      <c r="H4" s="72" t="inlineStr">
+      <c r="H4" s="74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I4" s="72" t="inlineStr">
+      <c r="I4" s="74" t="inlineStr">
         <is>
           <t>222</t>
         </is>
       </c>
-      <c r="L4" s="72" t="inlineStr">
+      <c r="L4" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="H5" s="72" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="H5" s="74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I5" s="72" t="inlineStr">
+      <c r="I5" s="74" t="inlineStr">
         <is>
           <t>1111</t>
         </is>
       </c>
-      <c r="L5" s="72" t="inlineStr">
+      <c r="L5" s="74" t="inlineStr">
         <is>
           <t>D | C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="H6" s="72" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="H6" s="74" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="I6" s="72" t="inlineStr">
+      <c r="I6" s="74" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="L6" s="72" t="inlineStr">
+      <c r="L6" s="74" t="inlineStr">
         <is>
           <t>D:300,00 | C:41,26</t>
         </is>
@@ -3427,277 +3523,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.72" customWidth="1" style="72" min="2" max="2"/>
-    <col width="16.72" customWidth="1" style="72" min="3" max="3"/>
-    <col width="19.28" customWidth="1" style="72" min="5" max="5"/>
-    <col width="15.86" customWidth="1" style="72" min="10" max="10"/>
-    <col width="16.57" customWidth="1" style="72" min="11" max="11"/>
+    <col width="32.72" customWidth="1" style="74" min="2" max="2"/>
+    <col width="16.72" customWidth="1" style="74" min="3" max="3"/>
+    <col width="19.28" customWidth="1" style="74" min="5" max="5"/>
+    <col width="15.86" customWidth="1" style="74" min="10" max="10"/>
+    <col width="16.57" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="86" t="n"/>
-      <c r="B3" s="87" t="n"/>
-      <c r="D3" s="95" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="88" t="n"/>
+      <c r="B3" s="89" t="n"/>
+      <c r="D3" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="84">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="83" t="n"/>
-      <c r="J3" s="84" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="86" t="n"/>
-      <c r="D4" s="98" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="88" t="n"/>
+      <c r="D4" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="101">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="86" t="n"/>
-      <c r="H4" s="83" t="n"/>
-      <c r="I4" s="83" t="n"/>
-      <c r="J4" s="87" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="86" t="n"/>
-      <c r="D5" s="98" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="88" t="n"/>
+      <c r="D5" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="101">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="72" t="n"/>
-      <c r="H5" s="88" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="F6" s="72" t="n"/>
-      <c r="I6" s="89" t="inlineStr">
+      <c r="F5" s="74" t="n"/>
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="F6" s="74" t="n"/>
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="90" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="F7" s="72" t="n"/>
-      <c r="H7" s="72" t="n"/>
-      <c r="I7" s="89" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="F7" s="74" t="n"/>
+      <c r="H7" s="74" t="n"/>
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="76" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="F8" s="72" t="n"/>
-      <c r="I8" s="91" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="F8" s="74" t="n"/>
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="92" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="F9" s="72" t="n"/>
-      <c r="I9" s="89" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="F9" s="74" t="n"/>
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="76" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="F10" s="72" t="n"/>
-      <c r="I10" s="89" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="F10" s="74" t="n"/>
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="93" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="F11" s="72" t="n"/>
-      <c r="I11" s="89" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="F11" s="74" t="n"/>
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="93" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="95" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="F12" s="72" t="n"/>
-      <c r="I12" s="89" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="F12" s="74" t="n"/>
+      <c r="I12" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="94">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="96">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="F13" s="72" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="F13" s="74" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="96" t="inlineStr">
+      <c r="I13" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="76" t="n"/>
-      <c r="K13" s="97">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="F14" s="72" t="n"/>
-      <c r="I14" s="96" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="F14" s="74" t="n"/>
+      <c r="I14" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="97">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="F15" s="72" t="n"/>
-      <c r="I15" s="100" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="F15" s="74" t="n"/>
+      <c r="I15" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="76" t="n"/>
-      <c r="K15" s="101">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="103">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="F16" s="72" t="n"/>
-      <c r="K16" s="87" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="F17" s="72" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="F18" s="72" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="F19" s="72" t="n"/>
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="F16" s="74" t="n"/>
+      <c r="K16" s="89" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="F17" s="74" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="F18" s="74" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="F19" s="74" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3734,499 +3830,499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.57" customWidth="1" style="72" min="2" max="2"/>
-    <col width="18" customWidth="1" style="72" min="3" max="3"/>
-    <col width="10.43" customWidth="1" style="72" min="5" max="5"/>
-    <col width="38.7" customWidth="1" style="72" min="8" max="8"/>
-    <col width="12.57" customWidth="1" style="72" min="10" max="10"/>
-    <col width="17.43" customWidth="1" style="72" min="11" max="11"/>
+    <col width="41.57" customWidth="1" style="74" min="2" max="2"/>
+    <col width="18" customWidth="1" style="74" min="3" max="3"/>
+    <col width="10.43" customWidth="1" style="74" min="5" max="5"/>
+    <col width="38.7" customWidth="1" style="74" min="8" max="8"/>
+    <col width="12.57" customWidth="1" style="74" min="10" max="10"/>
+    <col width="17.43" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="77" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="74" t="n">
+      <c r="C3" s="76" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="74" t="n"/>
-      <c r="E3" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="83" t="n"/>
-      <c r="J3" s="84" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="77" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="76" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="86" t="n"/>
-      <c r="H4" s="83" t="n"/>
-      <c r="I4" s="83" t="n"/>
-      <c r="J4" s="87" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="77" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="81" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="76" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="74" t="n"/>
-      <c r="E5" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="88" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="77" t="n">
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="76" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="74" t="n"/>
-      <c r="E6" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="89" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="90" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="77" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="77" t="inlineStr">
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="76" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="74" t="n"/>
-      <c r="E7" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="89" t="inlineStr">
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="76" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="77" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="inlineStr">
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="74" t="n">
+      <c r="C8" s="76" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="74" t="n"/>
-      <c r="E8" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="91" t="inlineStr">
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="92">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="77" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="77" t="inlineStr">
+      <c r="B9" s="79" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="74" t="n">
+      <c r="C9" s="76" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="72" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="89" t="inlineStr">
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="76" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="77" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="77" t="inlineStr">
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="74" t="n">
+      <c r="C10" s="76" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="80" t="n"/>
-      <c r="E10" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="72" t="inlineStr">
+      <c r="D10" s="82" t="n"/>
+      <c r="E10" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="89" t="inlineStr">
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="93" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="77" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="81" t="inlineStr">
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="76" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="80" t="n"/>
-      <c r="E11" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="72" t="inlineStr">
+      <c r="D11" s="82" t="n"/>
+      <c r="E11" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="89" t="inlineStr">
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="94">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="96">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="77" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="77" t="inlineStr">
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="74" t="n">
+      <c r="C12" s="76" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="74" t="n"/>
-      <c r="E12" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="72" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="96" t="inlineStr">
+      <c r="I12" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="97">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="99">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="77" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="77" t="inlineStr">
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="74" t="n">
+      <c r="C13" s="76" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="80" t="n"/>
-      <c r="E13" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="72" t="inlineStr">
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="96" t="inlineStr">
+      <c r="I13" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="76" t="n"/>
-      <c r="K13" s="97">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="77" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="77" t="inlineStr">
+      <c r="B14" s="79" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="74" t="n">
+      <c r="C14" s="76" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="80" t="n"/>
-      <c r="E14" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="72" t="inlineStr">
+      <c r="D14" s="82" t="n"/>
+      <c r="E14" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="100" t="inlineStr">
+      <c r="I14" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="101">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="103">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="86" t="n"/>
-      <c r="B15" s="87" t="n"/>
-      <c r="D15" s="95" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="88" t="n"/>
+      <c r="B15" s="89" t="n"/>
+      <c r="D15" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="84">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="72" t="n"/>
-      <c r="K15" s="87" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="86" t="n"/>
-      <c r="D16" s="98" t="inlineStr">
+      <c r="F15" s="74" t="n"/>
+      <c r="K15" s="89" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="88" t="n"/>
+      <c r="D16" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="101">
         <f>49*12</f>
         <v/>
       </c>
-      <c r="F16" s="72" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="86" t="n"/>
-      <c r="D17" s="98" t="inlineStr">
+      <c r="F16" s="74" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="88" t="n"/>
+      <c r="D17" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="99" t="n">
+      <c r="E17" s="101" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F17" s="72" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="F18" s="72" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="F19" s="72" t="n"/>
+      <c r="F17" s="74" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="F18" s="74" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="F19" s="74" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4262,321 +4358,321 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.86" customWidth="1" style="72" min="5" max="5"/>
-    <col width="18.14" customWidth="1" style="72" min="10" max="10"/>
-    <col width="14" customWidth="1" style="72" min="11" max="11"/>
+    <col width="13.86" customWidth="1" style="74" min="5" max="5"/>
+    <col width="18.14" customWidth="1" style="74" min="10" max="10"/>
+    <col width="14" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="86" t="n"/>
-      <c r="B3" s="87" t="n"/>
-      <c r="D3" s="95" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="88" t="n"/>
+      <c r="B3" s="89" t="n"/>
+      <c r="D3" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="84">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="83" t="n"/>
-      <c r="J3" s="84" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="86" t="n"/>
-      <c r="D4" s="98" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="88" t="n"/>
+      <c r="D4" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="101">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="86" t="n"/>
-      <c r="H4" s="83" t="n"/>
-      <c r="I4" s="83" t="n"/>
-      <c r="J4" s="87" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="86" t="n"/>
-      <c r="D5" s="98" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="88" t="n"/>
+      <c r="D5" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="101">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="72" t="n"/>
-      <c r="H5" s="88" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="F6" s="72" t="n"/>
-      <c r="I6" s="89" t="inlineStr">
+      <c r="F5" s="74" t="n"/>
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="F6" s="74" t="n"/>
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="90" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="F7" s="72" t="n"/>
-      <c r="H7" s="72" t="n"/>
-      <c r="I7" s="89" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="F7" s="74" t="n"/>
+      <c r="H7" s="74" t="n"/>
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="76" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="F8" s="72" t="n"/>
-      <c r="I8" s="91" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="F8" s="74" t="n"/>
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="92" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="F9" s="72" t="n"/>
-      <c r="I9" s="89" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="F9" s="74" t="n"/>
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="76" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="F10" s="72" t="n"/>
-      <c r="I10" s="89" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="F10" s="74" t="n"/>
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="93" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="F11" s="72" t="n"/>
-      <c r="I11" s="89" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="F11" s="74" t="n"/>
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="93" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="95" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="F12" s="72" t="n"/>
-      <c r="I12" s="89" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="F12" s="74" t="n"/>
+      <c r="I12" s="91" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="93" t="n">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="95" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="F13" s="72" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="F13" s="74" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="89" t="inlineStr">
+      <c r="I13" s="91" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="76" t="n"/>
-      <c r="K13" s="93" t="n">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="95" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="F14" s="72" t="n"/>
-      <c r="I14" s="89" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="F14" s="74" t="n"/>
+      <c r="I14" s="91" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="93" t="n">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="95" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="F15" s="72" t="n"/>
-      <c r="I15" s="89" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="F15" s="74" t="n"/>
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="76" t="n"/>
-      <c r="K15" s="93" t="n">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="95" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="F16" s="72" t="n"/>
-      <c r="I16" s="89" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="F16" s="74" t="n"/>
+      <c r="I16" s="91" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="76" t="n"/>
-      <c r="K16" s="93" t="n">
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="95" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="I17" s="89" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="I17" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="76" t="n"/>
-      <c r="K17" s="94">
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="96">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="I18" s="96" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="I18" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="76" t="n"/>
-      <c r="K18" s="97">
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="I19" s="96" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="I19" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="76" t="n"/>
-      <c r="K19" s="97">
+      <c r="J19" s="78" t="n"/>
+      <c r="K19" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="73">
-      <c r="I20" s="100" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="I20" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="76" t="n"/>
-      <c r="K20" s="101">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="103">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="73">
-      <c r="K21" s="87" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="K21" s="89" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4618,908 +4714,908 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="72" min="2" max="2"/>
-    <col width="13" customWidth="1" style="72" min="3" max="3"/>
-    <col width="14.58" customWidth="1" style="72" min="5" max="5"/>
-    <col width="12.72" customWidth="1" style="72" min="6" max="6"/>
-    <col width="55" customWidth="1" style="72" min="8" max="8"/>
-    <col width="13" customWidth="1" style="72" min="9" max="9"/>
-    <col width="14.57" customWidth="1" style="72" min="11" max="11"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13" customWidth="1" style="74" min="3" max="3"/>
+    <col width="14.58" customWidth="1" style="74" min="5" max="5"/>
+    <col width="12.72" customWidth="1" style="74" min="6" max="6"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
+    <col width="13" customWidth="1" style="74" min="9" max="9"/>
+    <col width="14.57" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="102" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="105" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Médico 06/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="102" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="105" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Psicológico 06/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="102" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="102" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="102" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="102" t="inlineStr">
+      <c r="D2" s="105" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="102" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="102" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="102" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="102" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="102" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="102" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="77" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="inlineStr">
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="74" t="n">
+      <c r="C3" s="76" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="74" t="n"/>
-      <c r="E3" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="103" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="77" t="n">
+      <c r="G3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="79" t="inlineStr">
+      <c r="H3" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="74" t="n">
+      <c r="I3" s="76" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="74" t="n"/>
-      <c r="K3" s="74" t="n">
+      <c r="J3" s="76" t="n"/>
+      <c r="K3" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="103" t="inlineStr">
+      <c r="L3" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="77" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="inlineStr">
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="76" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="103" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="77" t="n">
+      <c r="G4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="79" t="inlineStr">
+      <c r="H4" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="74" t="n">
+      <c r="I4" s="76" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="74" t="n"/>
-      <c r="K4" s="74" t="n">
+      <c r="J4" s="76" t="n"/>
+      <c r="K4" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="103" t="inlineStr">
+      <c r="L4" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="77" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="79" t="inlineStr">
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="76" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="74" t="n"/>
-      <c r="E5" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="103" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="77" t="n">
+      <c r="G5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="79" t="inlineStr">
+      <c r="H5" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="74" t="n">
+      <c r="I5" s="76" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="74" t="n"/>
-      <c r="K5" s="74" t="n">
+      <c r="J5" s="76" t="n"/>
+      <c r="K5" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="103" t="inlineStr">
+      <c r="L5" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="77" t="n">
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="inlineStr">
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="76" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="74" t="n"/>
-      <c r="E6" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="103" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="106" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="79" t="inlineStr">
+      <c r="H6" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="74" t="n">
+      <c r="I6" s="76" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="74" t="n"/>
-      <c r="K6" s="74" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="103" t="inlineStr">
+      <c r="L6" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="77" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="76" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="74" t="n"/>
-      <c r="E7" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="103" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="77" t="n">
+      <c r="G7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="79" t="inlineStr">
+      <c r="H7" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="74" t="n">
+      <c r="I7" s="76" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="74" t="n"/>
-      <c r="K7" s="74" t="n">
+      <c r="J7" s="76" t="n"/>
+      <c r="K7" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="103" t="inlineStr">
+      <c r="L7" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="77" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="inlineStr">
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="74" t="n">
+      <c r="C8" s="76" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="74" t="n"/>
-      <c r="E8" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="103" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="79" t="inlineStr">
+      <c r="H8" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="74" t="n">
+      <c r="I8" s="76" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="74" t="n"/>
-      <c r="K8" s="74" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="103" t="inlineStr">
+      <c r="L8" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="77" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="79" t="inlineStr">
+      <c r="B9" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="74" t="n">
+      <c r="C9" s="76" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="103" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="77" t="n">
+      <c r="G9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="79" t="inlineStr">
+      <c r="H9" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="74" t="n">
+      <c r="I9" s="76" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="74" t="n"/>
-      <c r="K9" s="74" t="n">
+      <c r="J9" s="76" t="n"/>
+      <c r="K9" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="103" t="inlineStr">
+      <c r="L9" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="77" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="inlineStr">
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="74" t="n">
+      <c r="C10" s="76" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="74" t="n"/>
-      <c r="E10" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="103" t="inlineStr">
+      <c r="D10" s="76" t="n"/>
+      <c r="E10" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="77" t="n">
+      <c r="G10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="79" t="inlineStr">
+      <c r="H10" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="74" t="n">
+      <c r="I10" s="76" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="74" t="n"/>
-      <c r="K10" s="74" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="103" t="inlineStr">
+      <c r="L10" s="106" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="77" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="79" t="inlineStr">
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="76" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="74" t="n"/>
-      <c r="E11" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="103" t="inlineStr">
+      <c r="D11" s="76" t="n"/>
+      <c r="E11" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="77" t="n">
+      <c r="G11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="79" t="inlineStr">
+      <c r="H11" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="74" t="n">
+      <c r="I11" s="76" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="74" t="n"/>
-      <c r="K11" s="74" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="103" t="inlineStr">
+      <c r="L11" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="77" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="79" t="inlineStr">
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="74" t="n">
+      <c r="C12" s="76" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="74" t="n"/>
-      <c r="E12" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="103" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="77" t="n">
+      <c r="G12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="79" t="inlineStr">
+      <c r="H12" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="74" t="n">
+      <c r="I12" s="76" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="74" t="n"/>
-      <c r="K12" s="74" t="n">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="103" t="inlineStr">
+      <c r="L12" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="77" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="79" t="inlineStr">
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="74" t="n">
+      <c r="C13" s="76" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="74" t="n"/>
-      <c r="E13" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="103" t="inlineStr">
+      <c r="D13" s="76" t="n"/>
+      <c r="E13" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="83" t="n"/>
-      <c r="J13" s="104" t="inlineStr">
+      <c r="I13" s="85" t="n"/>
+      <c r="J13" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K13" s="105" t="n">
+      <c r="K13" s="108" t="n">
         <v>1926.1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="77" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="79" t="inlineStr">
+      <c r="B14" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="74" t="n">
+      <c r="C14" s="76" t="n">
         <v>513760379</v>
       </c>
-      <c r="D14" s="74" t="n"/>
-      <c r="E14" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="103" t="inlineStr">
+      <c r="D14" s="76" t="n"/>
+      <c r="E14" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="106" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G14" s="86" t="n"/>
-      <c r="H14" s="83" t="n"/>
-      <c r="I14" s="83" t="n"/>
-      <c r="J14" s="104" t="inlineStr">
+      <c r="G14" s="88" t="n"/>
+      <c r="H14" s="85" t="n"/>
+      <c r="I14" s="85" t="n"/>
+      <c r="J14" s="107" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K14" s="36" t="n">
+      <c r="K14" s="37" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="77" t="n">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="79" t="inlineStr">
+      <c r="B15" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="74" t="n">
+      <c r="C15" s="76" t="n">
         <v>513782331</v>
       </c>
-      <c r="D15" s="74" t="n"/>
-      <c r="E15" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="103" t="inlineStr">
+      <c r="D15" s="76" t="n"/>
+      <c r="E15" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="88" t="n"/>
-      <c r="J15" s="104" t="inlineStr">
+      <c r="H15" s="90" t="n"/>
+      <c r="J15" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K15" s="104" t="n">
+      <c r="K15" s="107" t="n">
         <v>1291.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="77" t="n">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="79" t="inlineStr">
+      <c r="B16" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="74" t="n">
+      <c r="C16" s="76" t="n">
         <v>513775191</v>
       </c>
-      <c r="D16" s="74" t="n"/>
-      <c r="E16" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="103" t="inlineStr">
+      <c r="D16" s="76" t="n"/>
+      <c r="E16" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="89" t="n"/>
-      <c r="J16" s="76" t="n"/>
-      <c r="K16" s="90" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="77" t="n">
+      <c r="I16" s="91" t="n"/>
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="92" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="79" t="inlineStr">
+      <c r="B17" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="74" t="n">
+      <c r="C17" s="76" t="n">
         <v>513790578</v>
       </c>
-      <c r="D17" s="74" t="n"/>
-      <c r="E17" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="103" t="inlineStr">
+      <c r="D17" s="76" t="n"/>
+      <c r="E17" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="106" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
       </c>
-      <c r="I17" s="89" t="n"/>
-      <c r="J17" s="76" t="n"/>
-      <c r="K17" s="90" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="A18" s="77" t="n">
+      <c r="I17" s="91" t="n"/>
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="92" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="79" t="inlineStr">
+      <c r="B18" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="74" t="n">
+      <c r="C18" s="76" t="n">
         <v>513721847</v>
       </c>
-      <c r="D18" s="74" t="n"/>
-      <c r="E18" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="103" t="inlineStr">
+      <c r="D18" s="76" t="n"/>
+      <c r="E18" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="91" t="n"/>
-      <c r="J18" s="76" t="n"/>
-      <c r="K18" s="92" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="A19" s="77" t="n">
+      <c r="I18" s="93" t="n"/>
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="94" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="79" t="inlineStr">
+      <c r="B19" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="74" t="n">
+      <c r="C19" s="76" t="n">
         <v>513782693</v>
       </c>
-      <c r="D19" s="74" t="n"/>
-      <c r="E19" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="103" t="inlineStr">
+      <c r="D19" s="76" t="n"/>
+      <c r="E19" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="89" t="n"/>
-      <c r="J19" s="76" t="n"/>
+      <c r="I19" s="91" t="n"/>
+      <c r="J19" s="78" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="73">
-      <c r="A20" s="77" t="n">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="A20" s="79" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="79" t="inlineStr">
+      <c r="B20" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="74" t="n">
+      <c r="C20" s="76" t="n">
         <v>513773401</v>
       </c>
-      <c r="D20" s="74" t="n"/>
-      <c r="E20" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="103" t="inlineStr">
+      <c r="D20" s="76" t="n"/>
+      <c r="E20" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="102" t="inlineStr">
+      <c r="I20" s="105" t="inlineStr">
         <is>
           <t>Atendimento Médico</t>
         </is>
       </c>
-      <c r="J20" s="76" t="n"/>
-      <c r="K20" s="106" t="n">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="109" t="n">
         <v>3270.3</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="73">
-      <c r="A21" s="77" t="n">
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="A21" s="79" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="79" t="inlineStr">
+      <c r="B21" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="74" t="n">
+      <c r="C21" s="76" t="n">
         <v>513797287</v>
       </c>
-      <c r="D21" s="74" t="n"/>
-      <c r="E21" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="103" t="inlineStr">
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I21" s="102" t="inlineStr">
+      <c r="I21" s="105" t="inlineStr">
         <is>
           <t>Atendimento Psicológico</t>
         </is>
       </c>
-      <c r="J21" s="76" t="n"/>
-      <c r="K21" s="107" t="n">
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="110" t="n">
         <v>1926.1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="73">
-      <c r="A22" s="77" t="n">
+    <row r="22" ht="15" customHeight="1" s="75">
+      <c r="A22" s="79" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="79" t="inlineStr">
+      <c r="B22" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="74" t="n">
+      <c r="C22" s="76" t="n">
         <v>14091389</v>
       </c>
-      <c r="D22" s="74" t="n"/>
-      <c r="E22" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="103" t="inlineStr">
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="108" t="inlineStr">
+      <c r="I22" s="111" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J22" s="76" t="n"/>
-      <c r="K22" s="107" t="n">
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="110" t="n">
         <v>5196.4</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="73">
-      <c r="A23" s="77" t="n">
+    <row r="23" ht="15" customHeight="1" s="75">
+      <c r="A23" s="79" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="79" t="inlineStr">
+      <c r="B23" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="109" t="n">
+      <c r="C23" s="112" t="n">
         <v>513791549</v>
       </c>
-      <c r="D23" s="74" t="n"/>
-      <c r="E23" s="74" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="103" t="inlineStr">
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="96" t="n"/>
-      <c r="J23" s="76" t="n"/>
-      <c r="K23" s="97" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="73">
-      <c r="A24" s="86" t="n"/>
-      <c r="B24" s="110" t="inlineStr">
+      <c r="I23" s="98" t="n"/>
+      <c r="J23" s="78" t="n"/>
+      <c r="K23" s="99" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="75">
+      <c r="A24" s="88" t="n"/>
+      <c r="B24" s="113" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="C24" s="103" t="inlineStr">
+      <c r="C24" s="106" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D24" s="98" t="inlineStr">
+      <c r="D24" s="100" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F24" s="103" t="inlineStr">
+      <c r="E24" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F24" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I24" s="102" t="inlineStr">
+      <c r="I24" s="105" t="inlineStr">
         <is>
           <t>Pagamento Médico</t>
         </is>
       </c>
-      <c r="J24" s="76" t="n"/>
-      <c r="K24" s="106" t="n">
+      <c r="J24" s="78" t="n"/>
+      <c r="K24" s="109" t="n">
         <v>1078</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="73">
-      <c r="A25" s="86" t="n"/>
-      <c r="D25" s="104" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="75">
+      <c r="A25" s="88" t="n"/>
+      <c r="D25" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E25" s="105" t="n">
+      <c r="E25" s="108" t="n">
         <v>3270.3</v>
       </c>
-      <c r="I25" s="102" t="inlineStr">
+      <c r="I25" s="105" t="inlineStr">
         <is>
           <t>Pagamento Psicológico</t>
         </is>
       </c>
-      <c r="J25" s="76" t="n"/>
-      <c r="K25" s="102" t="n">
+      <c r="J25" s="78" t="n"/>
+      <c r="K25" s="105" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="73">
-      <c r="A26" s="86" t="n"/>
-      <c r="D26" s="104" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="75">
+      <c r="A26" s="88" t="n"/>
+      <c r="D26" s="107" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E26" s="105" t="n">
+      <c r="E26" s="108" t="n">
         <v>1078</v>
       </c>
-      <c r="I26" s="102" t="inlineStr">
+      <c r="I26" s="105" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="J26" s="76" t="n"/>
-      <c r="K26" s="102" t="n">
+      <c r="J26" s="78" t="n"/>
+      <c r="K26" s="105" t="n">
         <v>3483.4</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="73">
-      <c r="D27" s="104" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="75">
+      <c r="D27" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E27" s="104" t="n">
+      <c r="E27" s="107" t="n">
         <v>2192.3</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="73"/>
-    <row r="29" ht="15" customHeight="1" s="73"/>
+    <row r="28" ht="15" customHeight="1" s="75"/>
+    <row r="29" ht="15" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="I21:J21"/>
@@ -5556,492 +5652,492 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.86" customWidth="1" style="72" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="72" min="3" max="3"/>
-    <col width="11.15" customWidth="1" style="72" min="5" max="5"/>
-    <col width="13.86" customWidth="1" style="72" min="10" max="10"/>
-    <col width="13.71" customWidth="1" style="72" min="11" max="11"/>
+    <col width="35.86" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="74" min="3" max="3"/>
+    <col width="11.15" customWidth="1" style="74" min="5" max="5"/>
+    <col width="13.86" customWidth="1" style="74" min="10" max="10"/>
+    <col width="13.71" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="77" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="74" t="n">
+      <c r="C3" s="76" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="74" t="n"/>
-      <c r="E3" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="83" t="n"/>
-      <c r="J3" s="84" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="77" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="76" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="86" t="n"/>
-      <c r="H4" s="83" t="n"/>
-      <c r="I4" s="83" t="n"/>
-      <c r="J4" s="87" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="77" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="81" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="76" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="74" t="n"/>
-      <c r="E5" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="88" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="77" t="n">
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="76" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="74" t="n"/>
-      <c r="E6" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="89" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="90">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="77" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="77" t="inlineStr">
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t>FENIX ALEXANDRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n">
+      <c r="C7" s="76" t="n">
         <v>513701027</v>
       </c>
-      <c r="D7" s="74" t="n"/>
-      <c r="E7" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H7" s="72" t="n"/>
-      <c r="I7" s="89" t="inlineStr">
+      <c r="H7" s="74" t="n"/>
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="76" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="77" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="inlineStr">
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t>NORMA CELIA NOBRE DE CARVALHO</t>
         </is>
       </c>
-      <c r="C8" s="74" t="inlineStr">
+      <c r="C8" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">513803911	</t>
         </is>
       </c>
-      <c r="D8" s="74" t="n"/>
-      <c r="E8" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="91" t="inlineStr">
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="92">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="77" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="77" t="inlineStr">
+      <c r="B9" s="79" t="inlineStr">
         <is>
           <t>ANA CRISTINA DE MATOS HORACIO</t>
         </is>
       </c>
-      <c r="C9" s="74" t="n">
+      <c r="C9" s="76" t="n">
         <v>513757236</v>
       </c>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="78" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="72" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I9" s="89" t="inlineStr">
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="76" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="77" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="77" t="inlineStr">
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t>CLEIDE COSTA DOS SANTOS GALVAO</t>
         </is>
       </c>
-      <c r="C10" s="74" t="n">
+      <c r="C10" s="76" t="n">
         <v>14085503</v>
       </c>
-      <c r="D10" s="80" t="n"/>
-      <c r="E10" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="72" t="inlineStr">
+      <c r="D10" s="82" t="n"/>
+      <c r="E10" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" s="89" t="inlineStr">
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="93" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="77" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="81" t="inlineStr">
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t>NEIDA GOMES FAGUNDES</t>
         </is>
       </c>
-      <c r="C11" s="74" t="n">
+      <c r="C11" s="76" t="n">
         <v>513797034</v>
       </c>
-      <c r="D11" s="80" t="n"/>
-      <c r="E11" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="72" t="inlineStr">
+      <c r="D11" s="82" t="n"/>
+      <c r="E11" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="89" t="inlineStr">
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="93" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="95" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="77" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="77" t="inlineStr">
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t>JONATAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="74" t="n">
+      <c r="C12" s="76" t="n">
         <v>513801412</v>
       </c>
-      <c r="D12" s="74" t="n"/>
-      <c r="E12" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="72" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="89" t="inlineStr">
+      <c r="I12" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="94">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="96">
         <f>K8-K10-K9-K11</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="77" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="77" t="inlineStr">
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t>EDUARDO GOMES DE LIMA</t>
         </is>
       </c>
-      <c r="C13" s="74" t="n">
+      <c r="C13" s="76" t="n">
         <v>513789092</v>
       </c>
-      <c r="D13" s="80" t="n"/>
-      <c r="E13" s="82" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="72" t="inlineStr">
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="96" t="inlineStr">
+      <c r="I13" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="76" t="n"/>
-      <c r="K13" s="97">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="99">
         <f>E3+E4+E5+E6+E7+E9+E11+E12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="86" t="n"/>
-      <c r="B14" s="87" t="n"/>
-      <c r="D14" s="95" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="88" t="n"/>
+      <c r="B14" s="89" t="n"/>
+      <c r="D14" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="84">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v/>
       </c>
-      <c r="F14" s="72" t="n"/>
-      <c r="I14" s="96" t="inlineStr">
+      <c r="F14" s="74" t="n"/>
+      <c r="I14" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="97">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="99">
         <f>E10</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="86" t="n"/>
-      <c r="D15" s="98" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="88" t="n"/>
+      <c r="D15" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="101">
         <f>49*11</f>
         <v/>
       </c>
-      <c r="F15" s="72" t="n"/>
-      <c r="I15" s="100" t="inlineStr">
+      <c r="F15" s="74" t="n"/>
+      <c r="I15" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="76" t="n"/>
-      <c r="K15" s="101">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="103">
         <f>E8+E13</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="86" t="n"/>
-      <c r="D16" s="98" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="88" t="n"/>
+      <c r="D16" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E16" s="99" t="n">
+      <c r="E16" s="101" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F16" s="72" t="n"/>
-      <c r="K16" s="87" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="F17" s="72" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="F18" s="72" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="F19" s="72" t="n"/>
+      <c r="F16" s="74" t="n"/>
+      <c r="K16" s="89" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="F17" s="74" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="F18" s="74" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="F19" s="74" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6078,662 +6174,662 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="43.72" customWidth="1" style="72" min="2" max="2"/>
-    <col width="14.29" customWidth="1" style="72" min="3" max="3"/>
-    <col width="11.57" customWidth="1" style="72" min="5" max="5"/>
-    <col width="30.57" customWidth="1" style="72" min="8" max="8"/>
-    <col width="10.91" customWidth="1" style="72" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="72" min="10" max="10"/>
-    <col width="12" customWidth="1" style="72" min="11" max="11"/>
+    <col width="43.72" customWidth="1" style="74" min="2" max="2"/>
+    <col width="14.29" customWidth="1" style="74" min="3" max="3"/>
+    <col width="11.57" customWidth="1" style="74" min="5" max="5"/>
+    <col width="30.57" customWidth="1" style="74" min="8" max="8"/>
+    <col width="10.91" customWidth="1" style="74" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="74" min="10" max="10"/>
+    <col width="12" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="111" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="112" t="inlineStr">
+      <c r="B3" s="115" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="113" t="n">
+      <c r="C3" s="116" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="112" t="n"/>
-      <c r="E3" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="D3" s="115" t="n"/>
+      <c r="E3" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="112" t="n">
+      <c r="G3" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="112" t="inlineStr">
+      <c r="H3" s="115" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="112" t="n">
+      <c r="I3" s="115" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="112" t="n"/>
-      <c r="K3" s="45" t="n">
+      <c r="J3" s="115" t="n"/>
+      <c r="K3" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="72" t="inlineStr">
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="111" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="112" t="inlineStr">
+      <c r="B4" s="115" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="113" t="n">
+      <c r="C4" s="116" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="112" t="n"/>
-      <c r="E4" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="D4" s="115" t="n"/>
+      <c r="E4" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="112" t="n">
+      <c r="G4" s="115" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="112" t="inlineStr">
+      <c r="H4" s="115" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="112" t="n">
+      <c r="I4" s="115" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="112" t="n"/>
-      <c r="K4" s="45" t="n">
+      <c r="J4" s="115" t="n"/>
+      <c r="K4" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="72" t="inlineStr">
+      <c r="L4" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="111" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="114" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="112" t="inlineStr">
+      <c r="B5" s="115" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="113" t="n">
+      <c r="C5" s="116" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="112" t="n"/>
-      <c r="E5" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="D5" s="115" t="n"/>
+      <c r="E5" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="112" t="n">
+      <c r="G5" s="115" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="112" t="inlineStr">
+      <c r="H5" s="115" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="112" t="n">
+      <c r="I5" s="115" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="112" t="n"/>
-      <c r="K5" s="45" t="n">
+      <c r="J5" s="115" t="n"/>
+      <c r="K5" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="72" t="inlineStr">
+      <c r="L5" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="111" t="n">
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="114" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="112" t="inlineStr">
+      <c r="B6" s="115" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="113" t="n">
+      <c r="C6" s="116" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="112" t="n"/>
-      <c r="E6" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="D6" s="115" t="n"/>
+      <c r="E6" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="112" t="n">
+      <c r="G6" s="115" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="112" t="inlineStr">
+      <c r="H6" s="115" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="112" t="n">
+      <c r="I6" s="115" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="112" t="n"/>
-      <c r="K6" s="45" t="n">
+      <c r="J6" s="115" t="n"/>
+      <c r="K6" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="72" t="inlineStr">
+      <c r="L6" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="111" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="114" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="112" t="inlineStr">
+      <c r="B7" s="115" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="113" t="n">
+      <c r="C7" s="116" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="112" t="n"/>
-      <c r="E7" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="D7" s="115" t="n"/>
+      <c r="E7" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="112" t="n">
+      <c r="G7" s="115" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="112" t="inlineStr">
+      <c r="H7" s="115" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="112" t="n">
+      <c r="I7" s="115" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="112" t="n"/>
-      <c r="K7" s="45" t="n">
+      <c r="J7" s="115" t="n"/>
+      <c r="K7" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="72" t="inlineStr">
+      <c r="L7" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="111" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="114" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="112" t="inlineStr">
+      <c r="B8" s="115" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="113" t="n">
+      <c r="C8" s="116" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="112" t="n"/>
-      <c r="E8" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="D8" s="115" t="n"/>
+      <c r="E8" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="114" t="n"/>
-      <c r="I8" s="114" t="n"/>
-      <c r="J8" s="84" t="inlineStr">
+      <c r="H8" s="117" t="n"/>
+      <c r="I8" s="117" t="n"/>
+      <c r="J8" s="86" t="inlineStr">
         <is>
           <t>soma</t>
         </is>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="87">
         <f>K3+K4+K5+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="111" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="114" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="112" t="inlineStr">
+      <c r="B9" s="115" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="113" t="n">
+      <c r="C9" s="116" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="112" t="n"/>
-      <c r="E9" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="72" t="inlineStr">
+      <c r="D9" s="115" t="n"/>
+      <c r="E9" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="114" t="n"/>
-      <c r="J9" s="72" t="inlineStr">
+      <c r="H9" s="117" t="n"/>
+      <c r="J9" s="74" t="inlineStr">
         <is>
           <t>psicologo</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="111" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="114" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="112" t="inlineStr">
+      <c r="B10" s="115" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="113" t="n">
+      <c r="C10" s="116" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="112" t="n"/>
-      <c r="E10" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="72" t="inlineStr">
+      <c r="D10" s="115" t="n"/>
+      <c r="E10" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J10" s="72" t="inlineStr">
+      <c r="J10" s="74" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="111" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="114" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="112" t="inlineStr">
+      <c r="B11" s="115" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="113" t="n">
+      <c r="C11" s="116" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="115" t="n"/>
-      <c r="E11" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="72" t="inlineStr">
+      <c r="D11" s="118" t="n"/>
+      <c r="E11" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="111" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="114" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="112" t="inlineStr">
+      <c r="B12" s="115" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="113" t="n">
+      <c r="C12" s="116" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="115" t="n"/>
-      <c r="E12" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="72" t="inlineStr">
+      <c r="D12" s="118" t="n"/>
+      <c r="E12" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="111" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="114" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="112" t="inlineStr">
+      <c r="B13" s="115" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="113" t="n">
+      <c r="C13" s="116" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="115" t="n"/>
-      <c r="E13" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="72" t="inlineStr">
+      <c r="D13" s="118" t="n"/>
+      <c r="E13" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="111" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="114" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="112" t="inlineStr">
+      <c r="B14" s="115" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="116" t="n">
+      <c r="C14" s="119" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="117" t="n"/>
-      <c r="E14" s="45" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="72" t="inlineStr">
+      <c r="D14" s="120" t="n"/>
+      <c r="E14" s="46" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="110" t="n">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="113" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="110" t="inlineStr">
+      <c r="B15" s="113" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="118" t="n">
+      <c r="C15" s="121" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="103" t="n"/>
+      <c r="D15" s="106" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F15" s="72" t="inlineStr">
+      <c r="F15" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I15" s="89" t="inlineStr">
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J15" s="76" t="n"/>
-      <c r="K15" s="90">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="92">
         <f>E18</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="110" t="n">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="113" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="110" t="inlineStr">
+      <c r="B16" s="113" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="118" t="n">
+      <c r="C16" s="121" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="103" t="n"/>
+      <c r="D16" s="106" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F16" s="72" t="inlineStr">
+      <c r="F16" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="89" t="inlineStr">
+      <c r="I16" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J16" s="76" t="n"/>
-      <c r="K16" s="90">
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="92">
         <f>K8</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="110" t="n">
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="113" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="110" t="inlineStr">
+      <c r="B17" s="113" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="118" t="n">
+      <c r="C17" s="121" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="103" t="n"/>
+      <c r="D17" s="106" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F17" s="72" t="inlineStr">
+      <c r="F17" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I17" s="91" t="inlineStr">
+      <c r="I17" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J17" s="76" t="n"/>
-      <c r="K17" s="92">
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="94">
         <f>K15+K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="D18" s="95" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="D18" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="84">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
         <v/>
       </c>
-      <c r="I18" s="89" t="inlineStr">
+      <c r="I18" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J18" s="76" t="n"/>
+      <c r="J18" s="78" t="n"/>
       <c r="K18" s="21" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="D19" s="98" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="D19" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="101">
         <f>49*15</f>
         <v/>
       </c>
-      <c r="I19" s="89" t="inlineStr">
+      <c r="I19" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J19" s="76" t="n"/>
-      <c r="K19" s="93" t="n">
+      <c r="J19" s="78" t="n"/>
+      <c r="K19" s="95" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="73">
-      <c r="D20" s="98" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="D20" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="101">
         <f>E18-E19</f>
         <v/>
       </c>
-      <c r="I20" s="89" t="inlineStr">
+      <c r="I20" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J20" s="76" t="n"/>
-      <c r="K20" s="94">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="96">
         <f>K17-K19-K18</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="73">
-      <c r="I21" s="96" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="I21" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J21" s="76" t="n"/>
-      <c r="K21" s="97">
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="99">
         <f>E3+E5+E7+E8+E11+E14+E15+E16+E17+K4</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="73">
-      <c r="I22" s="96" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="75">
+      <c r="I22" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J22" s="76" t="n"/>
-      <c r="K22" s="97">
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="99">
         <f>E4+E9+E12+E13+K3+K5</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="73">
-      <c r="I23" s="100" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="75">
+      <c r="I23" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J23" s="76" t="n"/>
-      <c r="K23" s="101">
+      <c r="J23" s="78" t="n"/>
+      <c r="K23" s="103">
         <f>E6+E10+K6+K7</f>
         <v/>
       </c>
@@ -6772,277 +6868,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.72" customWidth="1" style="72" min="5" max="5"/>
-    <col width="31.15" customWidth="1" style="72" min="10" max="10"/>
-    <col width="13.86" customWidth="1" style="72" min="11" max="11"/>
+    <col width="11.72" customWidth="1" style="74" min="5" max="5"/>
+    <col width="31.15" customWidth="1" style="74" min="10" max="10"/>
+    <col width="13.86" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 16/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 16/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="74" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="74" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="74" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="74" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="74" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="74" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="74" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="74" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="86" t="n"/>
-      <c r="B3" s="87" t="n"/>
-      <c r="D3" s="95" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="88" t="n"/>
+      <c r="B3" s="89" t="n"/>
+      <c r="D3" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="84">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="83" t="n"/>
-      <c r="J3" s="84" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="86" t="n"/>
-      <c r="D4" s="98" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="88" t="n"/>
+      <c r="D4" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="101">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="86" t="n"/>
-      <c r="H4" s="83" t="n"/>
-      <c r="I4" s="83" t="n"/>
-      <c r="J4" s="87" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="86" t="n"/>
-      <c r="D5" s="98" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="88" t="n"/>
+      <c r="D5" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="101">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="72" t="n"/>
-      <c r="H5" s="88" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="F6" s="72" t="n"/>
-      <c r="I6" s="89" t="inlineStr">
+      <c r="F5" s="74" t="n"/>
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="F6" s="74" t="n"/>
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="90" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="F7" s="72" t="n"/>
-      <c r="H7" s="72" t="n"/>
-      <c r="I7" s="89" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="F7" s="74" t="n"/>
+      <c r="H7" s="74" t="n"/>
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="76" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="F8" s="72" t="n"/>
-      <c r="I8" s="91" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="F8" s="74" t="n"/>
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="92" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="F9" s="72" t="n"/>
-      <c r="I9" s="89" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="F9" s="74" t="n"/>
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="76" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="F10" s="72" t="n"/>
-      <c r="I10" s="89" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="F10" s="74" t="n"/>
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="93" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="F11" s="72" t="n"/>
-      <c r="I11" s="89" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="F11" s="74" t="n"/>
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 604 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="93" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="95" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="F12" s="72" t="n"/>
-      <c r="I12" s="89" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="F12" s="74" t="n"/>
+      <c r="I12" s="91" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 605 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="93" t="n">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="95" t="n">
         <v>64.81</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="F13" s="72" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="F13" s="74" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="89" t="inlineStr">
+      <c r="I13" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J13" s="76" t="n"/>
-      <c r="K13" s="94">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="96">
         <f>K8-K10-K9-K11-K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="F14" s="72" t="n"/>
-      <c r="I14" s="96" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="F14" s="74" t="n"/>
+      <c r="I14" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="97">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="F15" s="72" t="n"/>
-      <c r="I15" s="96" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="F15" s="74" t="n"/>
+      <c r="I15" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J15" s="76" t="n"/>
-      <c r="K15" s="97">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="F16" s="72" t="n"/>
-      <c r="I16" s="100" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="F16" s="74" t="n"/>
+      <c r="I16" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J16" s="76" t="n"/>
-      <c r="K16" s="101">
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="103">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="K17" s="87" t="n"/>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="K17" s="89" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7080,556 +7176,556 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="37.3" customWidth="1" style="72" min="2" max="2"/>
-    <col width="11.72" customWidth="1" style="72" min="3" max="3"/>
-    <col width="8.699999999999999" customWidth="1" style="72" min="5" max="5"/>
-    <col width="29.3" customWidth="1" style="72" min="8" max="8"/>
-    <col width="15.44" customWidth="1" style="72" min="9" max="9"/>
-    <col width="22" customWidth="1" style="72" min="10" max="10"/>
-    <col width="8.33" customWidth="1" style="72" min="11" max="11"/>
+    <col width="37.3" customWidth="1" style="74" min="2" max="2"/>
+    <col width="11.72" customWidth="1" style="74" min="3" max="3"/>
+    <col width="8.699999999999999" customWidth="1" style="74" min="5" max="5"/>
+    <col width="29.3" customWidth="1" style="74" min="8" max="8"/>
+    <col width="15.44" customWidth="1" style="74" min="9" max="9"/>
+    <col width="22" customWidth="1" style="74" min="10" max="10"/>
+    <col width="8.33" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="73">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 17/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="75" t="n"/>
-      <c r="C1" s="75" t="n"/>
-      <c r="D1" s="75" t="n"/>
-      <c r="E1" s="76" t="n"/>
-      <c r="G1" s="74" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 17/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="75" t="n"/>
-      <c r="I1" s="75" t="n"/>
-      <c r="J1" s="75" t="n"/>
-      <c r="K1" s="76" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="73">
-      <c r="A2" s="77" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="77" t="inlineStr">
+      <c r="B2" s="79" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="77" t="inlineStr">
+      <c r="C2" s="79" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="77" t="inlineStr">
+      <c r="D2" s="79" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="77" t="inlineStr">
+      <c r="E2" s="79" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="72" t="n"/>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="F2" s="74" t="n"/>
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="77" t="inlineStr">
+      <c r="H2" s="79" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="77" t="inlineStr">
+      <c r="I2" s="79" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="77" t="inlineStr">
+      <c r="J2" s="79" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="77" t="inlineStr">
+      <c r="K2" s="79" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="73">
-      <c r="A3" s="77" t="n"/>
-      <c r="B3" s="77" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n"/>
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>SOFIA ALMEIDA FERREIRA</t>
         </is>
       </c>
-      <c r="C3" s="74" t="inlineStr">
+      <c r="C3" s="76" t="inlineStr">
         <is>
           <t>513641554</t>
         </is>
       </c>
-      <c r="D3" s="74" t="n"/>
-      <c r="E3" s="78" t="n"/>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n"/>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="72" t="n"/>
-      <c r="H3" s="72" t="inlineStr">
+      <c r="G3" s="74" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="I3" s="86" t="inlineStr">
+      <c r="I3" s="88" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="119" t="n"/>
-      <c r="K3" s="85" t="n"/>
-      <c r="L3" s="72" t="inlineStr">
+      <c r="J3" s="122" t="n"/>
+      <c r="K3" s="87" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="73">
-      <c r="A4" s="77" t="n"/>
-      <c r="B4" s="77" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n"/>
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t>ANA CRISTINA LEONE RIOS</t>
         </is>
       </c>
-      <c r="C4" s="74" t="inlineStr">
+      <c r="C4" s="76" t="inlineStr">
         <is>
           <t>513835235</t>
         </is>
       </c>
-      <c r="D4" s="74" t="n"/>
-      <c r="E4" s="78" t="n"/>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n"/>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="86" t="n"/>
-      <c r="H4" s="86" t="inlineStr">
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="88" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="I4" s="86" t="inlineStr">
+      <c r="I4" s="88" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="J4" s="87" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="72" t="inlineStr">
+      <c r="L4" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="73">
-      <c r="A5" s="77" t="n"/>
-      <c r="B5" s="81" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n"/>
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>ROBSON OLIVEIRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C5" s="74" t="inlineStr">
+      <c r="C5" s="76" t="inlineStr">
         <is>
           <t>513808652</t>
         </is>
       </c>
-      <c r="D5" s="74" t="n"/>
-      <c r="E5" s="78" t="n"/>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n"/>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" s="72" t="n"/>
-      <c r="H5" s="86" t="n"/>
-      <c r="L5" s="72" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="73">
-      <c r="A6" s="77" t="n"/>
-      <c r="B6" s="77" t="inlineStr">
+      <c r="G5" s="74" t="n"/>
+      <c r="H5" s="88" t="n"/>
+      <c r="L5" s="74" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n"/>
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="74" t="inlineStr">
+      <c r="C6" s="76" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="D6" s="74" t="n"/>
-      <c r="E6" s="78" t="n"/>
-      <c r="F6" s="72" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n"/>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="72" t="n"/>
-      <c r="H6" s="72" t="inlineStr">
+      <c r="G6" s="74" t="n"/>
+      <c r="H6" s="74" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="110" t="inlineStr">
+      <c r="I6" s="113" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="120" t="n"/>
-      <c r="K6" s="121" t="n"/>
-      <c r="L6" s="72" t="inlineStr">
+      <c r="J6" s="123" t="n"/>
+      <c r="K6" s="124" t="n"/>
+      <c r="L6" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="73">
-      <c r="A7" s="77" t="n"/>
-      <c r="B7" s="77" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n"/>
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="C7" s="74" t="inlineStr">
+      <c r="C7" s="76" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="D7" s="74" t="n"/>
-      <c r="E7" s="78" t="n"/>
-      <c r="F7" s="72" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="80" t="n"/>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="72" t="n"/>
-      <c r="I7" s="110" t="n"/>
-      <c r="J7" s="120" t="n"/>
-      <c r="K7" s="54" t="n"/>
-      <c r="L7" s="72" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="73">
-      <c r="A8" s="77" t="n"/>
-      <c r="B8" s="77" t="inlineStr">
+      <c r="G7" s="74" t="n"/>
+      <c r="I7" s="113" t="n"/>
+      <c r="J7" s="123" t="n"/>
+      <c r="K7" s="55" t="n"/>
+      <c r="L7" s="74" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n"/>
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t>MARIANNE ESPINDOLA LEFUNDES</t>
         </is>
       </c>
-      <c r="C8" s="74" t="inlineStr">
+      <c r="C8" s="76" t="inlineStr">
         <is>
           <t>513717741</t>
         </is>
       </c>
-      <c r="D8" s="74" t="n"/>
-      <c r="E8" s="78" t="n"/>
-      <c r="F8" s="72" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="80" t="n"/>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="72" t="n"/>
-      <c r="I8" s="110" t="n"/>
-      <c r="J8" s="120" t="n"/>
-      <c r="K8" s="92" t="n"/>
-      <c r="L8" s="72" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="73">
-      <c r="A9" s="77" t="n"/>
-      <c r="B9" s="77" t="n"/>
-      <c r="C9" s="74" t="n"/>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="78" t="n"/>
-      <c r="F9" s="72" t="n"/>
-      <c r="G9" s="72" t="n"/>
-      <c r="I9" s="110" t="n"/>
-      <c r="J9" s="120" t="n"/>
+      <c r="G8" s="74" t="n"/>
+      <c r="I8" s="113" t="n"/>
+      <c r="J8" s="123" t="n"/>
+      <c r="K8" s="94" t="n"/>
+      <c r="L8" s="74" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n"/>
+      <c r="B9" s="79" t="n"/>
+      <c r="C9" s="76" t="n"/>
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="80" t="n"/>
+      <c r="F9" s="74" t="n"/>
+      <c r="G9" s="74" t="n"/>
+      <c r="I9" s="113" t="n"/>
+      <c r="J9" s="123" t="n"/>
       <c r="K9" s="21" t="n"/>
-      <c r="L9" s="72" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="73">
-      <c r="A10" s="77" t="n"/>
-      <c r="B10" s="77" t="inlineStr">
+      <c r="L9" s="74" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n"/>
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t>RENATA DE JESUS SALES</t>
         </is>
       </c>
-      <c r="C10" s="74" t="inlineStr">
+      <c r="C10" s="76" t="inlineStr">
         <is>
           <t>513831409</t>
         </is>
       </c>
-      <c r="D10" s="80" t="n"/>
-      <c r="E10" s="82" t="n"/>
-      <c r="F10" s="72" t="inlineStr">
+      <c r="D10" s="82" t="n"/>
+      <c r="E10" s="84" t="n"/>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G10" s="72" t="n"/>
-      <c r="I10" s="110" t="n"/>
-      <c r="J10" s="120" t="n"/>
-      <c r="K10" s="93" t="n"/>
-      <c r="L10" s="72" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="73">
-      <c r="A11" s="77" t="n"/>
-      <c r="B11" s="81" t="inlineStr">
+      <c r="G10" s="74" t="n"/>
+      <c r="I10" s="113" t="n"/>
+      <c r="J10" s="123" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="74" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n"/>
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t>ARTUR PRUST SALIBA</t>
         </is>
       </c>
-      <c r="C11" s="74" t="inlineStr">
+      <c r="C11" s="76" t="inlineStr">
         <is>
           <t>513753012</t>
         </is>
       </c>
-      <c r="D11" s="80" t="n"/>
-      <c r="E11" s="82" t="n"/>
-      <c r="F11" s="72" t="inlineStr">
+      <c r="D11" s="82" t="n"/>
+      <c r="E11" s="84" t="n"/>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="72" t="n"/>
-      <c r="I11" s="110" t="n"/>
-      <c r="J11" s="120" t="n"/>
-      <c r="K11" s="93" t="n"/>
-      <c r="L11" s="72" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="73">
-      <c r="A12" s="86" t="n"/>
-      <c r="B12" s="77" t="inlineStr">
+      <c r="G11" s="74" t="n"/>
+      <c r="I11" s="113" t="n"/>
+      <c r="J11" s="123" t="n"/>
+      <c r="K11" s="95" t="n"/>
+      <c r="L11" s="74" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="88" t="n"/>
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t>CAROLINA GALVAO BROCHADO DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="74" t="inlineStr">
+      <c r="C12" s="76" t="inlineStr">
         <is>
           <t>513830449</t>
         </is>
       </c>
-      <c r="D12" s="74" t="n"/>
-      <c r="E12" s="82" t="n"/>
-      <c r="F12" s="72" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="84" t="n"/>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="72" t="n"/>
-      <c r="I12" s="110" t="n"/>
-      <c r="J12" s="120" t="n"/>
-      <c r="K12" s="93" t="n"/>
-      <c r="L12" s="72" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="73">
-      <c r="A13" s="86" t="n"/>
-      <c r="B13" s="77" t="inlineStr">
+      <c r="G12" s="74" t="n"/>
+      <c r="I12" s="113" t="n"/>
+      <c r="J12" s="123" t="n"/>
+      <c r="K12" s="95" t="n"/>
+      <c r="L12" s="74" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="88" t="n"/>
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="C13" s="74" t="inlineStr">
+      <c r="C13" s="76" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="D13" s="80" t="n"/>
-      <c r="E13" s="82" t="n"/>
-      <c r="F13" s="72" t="inlineStr">
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="84" t="n"/>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="110" t="n"/>
-      <c r="J13" s="120" t="n"/>
-      <c r="K13" s="94" t="n"/>
-      <c r="L13" s="72" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="73">
-      <c r="A14" s="86" t="n"/>
-      <c r="B14" s="72" t="inlineStr">
+      <c r="I13" s="113" t="n"/>
+      <c r="J13" s="123" t="n"/>
+      <c r="K13" s="96" t="n"/>
+      <c r="L13" s="74" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="88" t="n"/>
+      <c r="B14" s="74" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C14" s="72" t="inlineStr">
+      <c r="C14" s="74" t="inlineStr">
         <is>
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="122" t="n"/>
-      <c r="E14" s="123" t="n"/>
-      <c r="F14" s="72" t="inlineStr">
+      <c r="D14" s="125" t="n"/>
+      <c r="E14" s="126" t="n"/>
+      <c r="F14" s="74" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G14" s="72" t="n"/>
-      <c r="I14" s="124" t="n"/>
-      <c r="J14" s="120" t="n"/>
-      <c r="K14" s="97" t="n"/>
-      <c r="L14" s="72" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="73">
-      <c r="A15" s="72" t="n"/>
-      <c r="B15" s="72" t="inlineStr">
+      <c r="G14" s="74" t="n"/>
+      <c r="I14" s="127" t="n"/>
+      <c r="J14" s="123" t="n"/>
+      <c r="K14" s="99" t="n"/>
+      <c r="L14" s="74" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="74" t="n"/>
+      <c r="B15" s="74" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C15" s="72" t="inlineStr">
+      <c r="C15" s="74" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D15" s="72" t="n"/>
-      <c r="F15" s="72" t="inlineStr">
+      <c r="D15" s="74" t="n"/>
+      <c r="F15" s="74" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G15" s="72" t="n"/>
-      <c r="I15" s="124" t="n"/>
-      <c r="J15" s="120" t="n"/>
-      <c r="K15" s="97" t="n"/>
-      <c r="L15" s="72" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="73">
-      <c r="A16" s="72" t="n"/>
-      <c r="D16" s="72" t="n"/>
-      <c r="F16" s="72" t="n"/>
-      <c r="G16" s="72" t="n"/>
-      <c r="I16" s="125" t="n"/>
-      <c r="J16" s="120" t="n"/>
-      <c r="K16" s="101" t="n"/>
-      <c r="L16" s="72" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="73">
-      <c r="A17" s="72" t="n"/>
-      <c r="D17" s="72" t="n"/>
-      <c r="F17" s="72" t="n"/>
-      <c r="G17" s="72" t="n"/>
-      <c r="K17" s="87" t="n"/>
-      <c r="L17" s="72" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="73">
-      <c r="A18" s="72" t="n"/>
-      <c r="D18" s="72" t="n"/>
-      <c r="F18" s="72" t="n"/>
-      <c r="G18" s="72" t="n"/>
-      <c r="L18" s="72" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="73">
-      <c r="A19" s="72" t="n"/>
-      <c r="D19" s="72" t="n"/>
-      <c r="F19" s="72" t="n"/>
-      <c r="G19" s="72" t="n"/>
-      <c r="L19" s="72" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="73">
-      <c r="A20" s="72" t="n"/>
-      <c r="D20" s="72" t="n"/>
-      <c r="F20" s="72" t="n"/>
-      <c r="G20" s="72" t="n"/>
-      <c r="L20" s="72" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="73">
-      <c r="A21" s="72" t="n"/>
-      <c r="D21" s="72" t="n"/>
-      <c r="F21" s="72" t="n"/>
-      <c r="G21" s="72" t="n"/>
-      <c r="L21" s="72" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="73">
-      <c r="A22" s="72" t="n"/>
-      <c r="D22" s="72" t="n"/>
-      <c r="F22" s="72" t="n"/>
-      <c r="G22" s="72" t="n"/>
-      <c r="L22" s="72" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="73">
-      <c r="A23" s="72" t="n"/>
-      <c r="D23" s="72" t="n"/>
-      <c r="F23" s="72" t="n"/>
-      <c r="G23" s="72" t="n"/>
-      <c r="L23" s="72" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="73">
-      <c r="A24" s="72" t="n"/>
-      <c r="D24" s="72" t="n"/>
-      <c r="F24" s="72" t="n"/>
-      <c r="G24" s="72" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="73">
-      <c r="A25" s="72" t="n"/>
-      <c r="D25" s="72" t="n"/>
-      <c r="F25" s="72" t="n"/>
-      <c r="G25" s="72" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="73">
-      <c r="A26" s="72" t="n"/>
-      <c r="D26" s="72" t="n"/>
-      <c r="F26" s="72" t="n"/>
-      <c r="G26" s="72" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="73">
-      <c r="A27" s="72" t="n"/>
-      <c r="D27" s="72" t="n"/>
-      <c r="F27" s="72" t="n"/>
-      <c r="G27" s="72" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="73">
-      <c r="A28" s="72" t="n"/>
-      <c r="D28" s="72" t="n"/>
-      <c r="F28" s="72" t="n"/>
-      <c r="G28" s="72" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="73">
-      <c r="A29" s="72" t="n"/>
-      <c r="D29" s="72" t="n"/>
-      <c r="F29" s="72" t="n"/>
-      <c r="G29" s="72" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="73">
-      <c r="A30" s="72" t="n"/>
-      <c r="D30" s="72" t="n"/>
-      <c r="F30" s="72" t="n"/>
-      <c r="G30" s="72" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="73">
-      <c r="A31" s="72" t="n"/>
-      <c r="D31" s="72" t="n"/>
-      <c r="F31" s="72" t="n"/>
-      <c r="G31" s="72" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="73">
-      <c r="A32" s="72" t="n"/>
-      <c r="D32" s="72" t="n"/>
-      <c r="F32" s="72" t="n"/>
-      <c r="G32" s="72" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="73">
-      <c r="A33" s="72" t="n"/>
-      <c r="D33" s="72" t="n"/>
-      <c r="F33" s="72" t="n"/>
-      <c r="G33" s="72" t="n"/>
+      <c r="G15" s="74" t="n"/>
+      <c r="I15" s="127" t="n"/>
+      <c r="J15" s="123" t="n"/>
+      <c r="K15" s="99" t="n"/>
+      <c r="L15" s="74" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="74" t="n"/>
+      <c r="D16" s="74" t="n"/>
+      <c r="F16" s="74" t="n"/>
+      <c r="G16" s="74" t="n"/>
+      <c r="I16" s="128" t="n"/>
+      <c r="J16" s="123" t="n"/>
+      <c r="K16" s="103" t="n"/>
+      <c r="L16" s="74" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="74" t="n"/>
+      <c r="D17" s="74" t="n"/>
+      <c r="F17" s="74" t="n"/>
+      <c r="G17" s="74" t="n"/>
+      <c r="K17" s="89" t="n"/>
+      <c r="L17" s="74" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="A18" s="74" t="n"/>
+      <c r="D18" s="74" t="n"/>
+      <c r="F18" s="74" t="n"/>
+      <c r="G18" s="74" t="n"/>
+      <c r="L18" s="74" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="A19" s="74" t="n"/>
+      <c r="D19" s="74" t="n"/>
+      <c r="F19" s="74" t="n"/>
+      <c r="G19" s="74" t="n"/>
+      <c r="L19" s="74" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="A20" s="74" t="n"/>
+      <c r="D20" s="74" t="n"/>
+      <c r="F20" s="74" t="n"/>
+      <c r="G20" s="74" t="n"/>
+      <c r="L20" s="74" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="A21" s="74" t="n"/>
+      <c r="D21" s="74" t="n"/>
+      <c r="F21" s="74" t="n"/>
+      <c r="G21" s="74" t="n"/>
+      <c r="L21" s="74" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="75">
+      <c r="A22" s="74" t="n"/>
+      <c r="D22" s="74" t="n"/>
+      <c r="F22" s="74" t="n"/>
+      <c r="G22" s="74" t="n"/>
+      <c r="L22" s="74" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="75">
+      <c r="A23" s="74" t="n"/>
+      <c r="D23" s="74" t="n"/>
+      <c r="F23" s="74" t="n"/>
+      <c r="G23" s="74" t="n"/>
+      <c r="L23" s="74" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="75">
+      <c r="A24" s="74" t="n"/>
+      <c r="D24" s="74" t="n"/>
+      <c r="F24" s="74" t="n"/>
+      <c r="G24" s="74" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="75">
+      <c r="A25" s="74" t="n"/>
+      <c r="D25" s="74" t="n"/>
+      <c r="F25" s="74" t="n"/>
+      <c r="G25" s="74" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="75">
+      <c r="A26" s="74" t="n"/>
+      <c r="D26" s="74" t="n"/>
+      <c r="F26" s="74" t="n"/>
+      <c r="G26" s="74" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="75">
+      <c r="A27" s="74" t="n"/>
+      <c r="D27" s="74" t="n"/>
+      <c r="F27" s="74" t="n"/>
+      <c r="G27" s="74" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="75">
+      <c r="A28" s="74" t="n"/>
+      <c r="D28" s="74" t="n"/>
+      <c r="F28" s="74" t="n"/>
+      <c r="G28" s="74" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="75">
+      <c r="A29" s="74" t="n"/>
+      <c r="D29" s="74" t="n"/>
+      <c r="F29" s="74" t="n"/>
+      <c r="G29" s="74" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="75">
+      <c r="A30" s="74" t="n"/>
+      <c r="D30" s="74" t="n"/>
+      <c r="F30" s="74" t="n"/>
+      <c r="G30" s="74" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="75">
+      <c r="A31" s="74" t="n"/>
+      <c r="D31" s="74" t="n"/>
+      <c r="F31" s="74" t="n"/>
+      <c r="G31" s="74" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="75">
+      <c r="A32" s="74" t="n"/>
+      <c r="D32" s="74" t="n"/>
+      <c r="F32" s="74" t="n"/>
+      <c r="G32" s="74" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="75">
+      <c r="A33" s="74" t="n"/>
+      <c r="D33" s="74" t="n"/>
+      <c r="F33" s="74" t="n"/>
+      <c r="G33" s="74" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
@@ -1342,8 +1342,16 @@
       <c r="G10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="79" t="n"/>
-      <c r="I10" s="76" t="n"/>
+      <c r="H10" s="79" t="inlineStr">
+        <is>
+          <t>CLEBER</t>
+        </is>
+      </c>
+      <c r="I10" s="76" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="J10" s="82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1353,7 +1361,11 @@
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L10" s="74" t="n"/>
+      <c r="L10" s="74" t="inlineStr">
+        <is>
+          <t>E:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="75">
       <c r="A11" s="79" t="n">
@@ -1376,10 +1388,23 @@
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="85" t="n"/>
+      <c r="H11" s="74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" s="85" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="J11" s="86" t="n"/>
       <c r="K11" s="87" t="n"/>
-      <c r="L11" s="74" t="n"/>
+      <c r="L11" s="74" t="inlineStr">
+        <is>
+          <t>D:192,61</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="75">
       <c r="A12" s="79" t="n">
@@ -1403,10 +1428,23 @@
         </is>
       </c>
       <c r="G12" s="88" t="n"/>
-      <c r="H12" s="85" t="n"/>
-      <c r="I12" s="85" t="n"/>
+      <c r="H12" s="85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I12" s="85" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="J12" s="89" t="n"/>
       <c r="K12" s="14" t="n"/>
+      <c r="L12" s="74" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="75">
       <c r="A13" s="79" t="n">
@@ -1429,14 +1467,23 @@
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="90" t="n"/>
+      <c r="H13" s="90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="I13" s="74" t="inlineStr">
         <is>
-          <t>ATEND.MÉDICO</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K13" s="74" t="n">
         <v>2527.05</v>
+      </c>
+      <c r="L13" s="74" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="75">
@@ -1460,15 +1507,25 @@
           <t>C</t>
         </is>
       </c>
+      <c r="H14" s="74" t="inlineStr">
+        <is>
+          <t>TTTTTT</t>
+        </is>
+      </c>
       <c r="I14" s="91" t="inlineStr">
         <is>
-          <t>ATEND.PSICOLÓGICO</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J14" s="78" t="n"/>
       <c r="K14" s="92" t="n">
         <v>1540.88</v>
       </c>
+      <c r="L14" s="74" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="75">
       <c r="A15" s="79" t="n">
@@ -1493,15 +1550,25 @@
           <t>C</t>
         </is>
       </c>
+      <c r="H15" s="74" t="inlineStr">
+        <is>
+          <t>SSSSSS</t>
+        </is>
+      </c>
       <c r="I15" s="91" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J15" s="78" t="n"/>
       <c r="K15" s="18" t="n">
         <v>2378.4</v>
       </c>
+      <c r="L15" s="74" t="inlineStr">
+        <is>
+          <t>C:192,61</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="75">
       <c r="A16" s="79" t="n">
@@ -1524,15 +1591,25 @@
           <t>C</t>
         </is>
       </c>
+      <c r="H16" s="74" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
       <c r="I16" s="93" t="inlineStr">
         <is>
-          <t>PAGAM.PSICOLOGA</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J16" s="78" t="n"/>
       <c r="K16" s="94" t="n">
         <v>508</v>
       </c>
+      <c r="L16" s="74" t="inlineStr">
+        <is>
+          <t>E:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="75">
       <c r="A17" s="79" t="n">
@@ -1555,15 +1632,25 @@
           <t>P</t>
         </is>
       </c>
+      <c r="H17" s="74" t="inlineStr">
+        <is>
+          <t>LUCIANO</t>
+        </is>
+      </c>
       <c r="I17" s="91" t="inlineStr">
         <is>
-          <t>PAGAM. MÉDICA</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J17" s="78" t="n"/>
       <c r="K17" s="21" t="n">
         <v>833</v>
       </c>
+      <c r="L17" s="74" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="75">
       <c r="A18" s="79" t="n">
@@ -1586,9 +1673,14 @@
           <t>C</t>
         </is>
       </c>
+      <c r="H18" s="74" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
       <c r="I18" s="91" t="inlineStr">
         <is>
-          <t>SOMA</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J18" s="78" t="n"/>
@@ -1596,13 +1688,26 @@
         <f>K16-K18-K17</f>
         <v/>
       </c>
+      <c r="L18" s="74" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="75">
       <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="79" t="n"/>
-      <c r="C19" s="76" t="n"/>
+      <c r="B19" s="79" t="inlineStr">
+        <is>
+          <t>CLEBER</t>
+        </is>
+      </c>
+      <c r="C19" s="76" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="D19" s="82" t="inlineStr">
         <is>
           <t>Soma</t>
@@ -1612,9 +1717,19 @@
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
+      <c r="F19" s="74" t="inlineStr">
+        <is>
+          <t>E:341,26</t>
+        </is>
+      </c>
+      <c r="H19" s="74" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="I19" s="91" t="inlineStr">
         <is>
-          <t>CARTÃO</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J19" s="78" t="n"/>
@@ -1622,10 +1737,24 @@
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
+      <c r="L19" s="74" t="inlineStr">
+        <is>
+          <t>D:192,61</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="75">
       <c r="A20" s="88" t="n"/>
-      <c r="B20" s="89" t="n"/>
+      <c r="B20" s="89" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C20" s="74" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="D20" s="97" t="inlineStr">
         <is>
           <t>Medico</t>
@@ -1635,9 +1764,19 @@
         <f>49*17</f>
         <v/>
       </c>
+      <c r="F20" s="74" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
+      <c r="H20" s="74" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
       <c r="I20" s="98" t="inlineStr">
         <is>
-          <t>DINHEIRO</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J20" s="78" t="n"/>
@@ -1645,9 +1784,24 @@
         <f>300+E14</f>
         <v/>
       </c>
+      <c r="L20" s="74" t="inlineStr">
+        <is>
+          <t>D:192,61</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="75">
       <c r="A21" s="88" t="n"/>
+      <c r="B21" s="74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C21" s="74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D21" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
@@ -1656,10 +1810,20 @@
       <c r="E21" s="101" t="n">
         <v>1444.1</v>
       </c>
+      <c r="F21" s="74" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
       <c r="G21" s="29" t="n"/>
+      <c r="H21" s="74" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
       <c r="I21" s="98" t="inlineStr">
         <is>
-          <t>PIX</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J21" s="78" t="n"/>
@@ -1667,17 +1831,149 @@
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
+      <c r="L21" s="74" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="75">
       <c r="A22" s="88" t="n"/>
+      <c r="B22" s="74" t="inlineStr">
+        <is>
+          <t>TTTTTT</t>
+        </is>
+      </c>
+      <c r="C22" s="74" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="D22" s="100" t="n"/>
       <c r="E22" s="101" t="n"/>
-      <c r="I22" s="102" t="n"/>
+      <c r="F22" s="74" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
+      <c r="H22" s="74" t="inlineStr">
+        <is>
+          <t>LORD</t>
+        </is>
+      </c>
+      <c r="I22" s="102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J22" s="78" t="n"/>
       <c r="K22" s="103" t="n"/>
+      <c r="L22" s="74" t="inlineStr">
+        <is>
+          <t>C:192,61</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="75">
+      <c r="B23" s="74" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="C23" s="74" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F23" s="74" t="inlineStr">
+        <is>
+          <t>E:341,26</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>MARCI</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K23" s="89" t="n"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="74" t="inlineStr">
+        <is>
+          <t>LUCIANO</t>
+        </is>
+      </c>
+      <c r="C24" s="74" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="F24" s="74" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="74" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="C25" s="74" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F25" s="74" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="74" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="C26" s="74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F26" s="74" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MARCI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>C:341,26</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.10" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -165,6 +165,24 @@
       <family val="0"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -180,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -244,6 +262,18 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -258,7 +288,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -480,6 +510,12 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -681,6 +717,21 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -941,1035 +992,1035 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.57" customWidth="1" style="74" min="1" max="1"/>
-    <col width="36.14" customWidth="1" style="74" min="2" max="2"/>
-    <col width="13.14" customWidth="1" style="74" min="3" max="3"/>
-    <col width="11.43" customWidth="1" style="74" min="5" max="5"/>
-    <col width="12.57" customWidth="1" style="74" min="6" max="6"/>
-    <col width="45" customWidth="1" style="74" min="8" max="8"/>
-    <col width="14.43" customWidth="1" style="74" min="9" max="9"/>
-    <col width="11.86" customWidth="1" style="74" min="10" max="10"/>
-    <col width="13.43" customWidth="1" style="74" min="11" max="11"/>
+    <col width="6.57" customWidth="1" style="76" min="1" max="1"/>
+    <col width="36.14" customWidth="1" style="76" min="2" max="2"/>
+    <col width="13.14" customWidth="1" style="76" min="3" max="3"/>
+    <col width="11.43" customWidth="1" style="76" min="5" max="5"/>
+    <col width="12.57" customWidth="1" style="76" min="6" max="6"/>
+    <col width="45" customWidth="1" style="76" min="8" max="8"/>
+    <col width="14.43" customWidth="1" style="76" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="76" min="10" max="10"/>
+    <col width="13.43" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="79" t="n">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="inlineStr">
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C3" s="76" t="n">
+      <c r="C3" s="78" t="n">
         <v>513700004</v>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="74" t="inlineStr">
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="79" t="n">
+      <c r="G3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="81" t="inlineStr">
+      <c r="H3" s="83" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I3" s="76" t="n">
+      <c r="I3" s="78" t="n">
         <v>513700004</v>
       </c>
-      <c r="J3" s="82" t="n"/>
-      <c r="K3" s="82" t="n">
+      <c r="J3" s="84" t="n"/>
+      <c r="K3" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="74" t="inlineStr">
+      <c r="L3" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="79" t="n">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="inlineStr">
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="78" t="n">
         <v>513776719</v>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="74" t="inlineStr">
+      <c r="D4" s="78" t="n"/>
+      <c r="E4" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="79" t="n">
+      <c r="G4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="81" t="inlineStr">
+      <c r="H4" s="83" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I4" s="76" t="n">
+      <c r="I4" s="78" t="n">
         <v>513758449</v>
       </c>
-      <c r="J4" s="82" t="n"/>
-      <c r="K4" s="82" t="n">
+      <c r="J4" s="84" t="n"/>
+      <c r="K4" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="74" t="inlineStr">
+      <c r="L4" s="76" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="79" t="n">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="inlineStr">
+      <c r="B5" s="85" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="78" t="n">
         <v>513758449</v>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="74" t="inlineStr">
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="76" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G5" s="79" t="n">
+      <c r="G5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="81" t="inlineStr">
+      <c r="H5" s="83" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I5" s="76" t="n">
+      <c r="I5" s="78" t="n">
         <v>513749220</v>
       </c>
-      <c r="J5" s="82" t="n"/>
-      <c r="K5" s="82" t="n">
+      <c r="J5" s="84" t="n"/>
+      <c r="K5" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="74" t="inlineStr">
+      <c r="L5" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="A6" s="79" t="n">
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="inlineStr">
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="78" t="n">
         <v>513749220</v>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="74" t="inlineStr">
+      <c r="D6" s="78" t="n"/>
+      <c r="E6" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="79" t="n">
+      <c r="G6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="81" t="inlineStr">
+      <c r="H6" s="83" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I6" s="76" t="n">
+      <c r="I6" s="78" t="n">
         <v>513754823</v>
       </c>
-      <c r="J6" s="82" t="n"/>
-      <c r="K6" s="82" t="n">
+      <c r="J6" s="84" t="n"/>
+      <c r="K6" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="74" t="inlineStr">
+      <c r="L6" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="A7" s="79" t="n">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="78" t="n">
         <v>513756797</v>
       </c>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="74" t="inlineStr">
+      <c r="D7" s="78" t="n"/>
+      <c r="E7" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="79" t="n">
+      <c r="G7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="81" t="inlineStr">
+      <c r="H7" s="83" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I7" s="76" t="n">
+      <c r="I7" s="78" t="n">
         <v>513781493</v>
       </c>
-      <c r="J7" s="82" t="n"/>
-      <c r="K7" s="82" t="n">
+      <c r="J7" s="84" t="n"/>
+      <c r="K7" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="74" t="inlineStr">
+      <c r="L7" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="A8" s="79" t="n">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="A8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="inlineStr">
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C8" s="76" t="n">
+      <c r="C8" s="78" t="n">
         <v>513761848</v>
       </c>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="74" t="inlineStr">
+      <c r="D8" s="78" t="n"/>
+      <c r="E8" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="79" t="n">
+      <c r="G8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="79" t="inlineStr">
+      <c r="H8" s="81" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I8" s="76" t="n">
+      <c r="I8" s="78" t="n">
         <v>513701260</v>
       </c>
-      <c r="J8" s="82" t="n"/>
-      <c r="K8" s="82" t="n">
+      <c r="J8" s="84" t="n"/>
+      <c r="K8" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="74" t="inlineStr">
+      <c r="L8" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="A9" s="79" t="n">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="A9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="79" t="inlineStr">
+      <c r="B9" s="81" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="78" t="n">
         <v>513778649</v>
       </c>
-      <c r="D9" s="76" t="n"/>
-      <c r="E9" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="74" t="inlineStr">
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G9" s="79" t="n">
+      <c r="G9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="79" t="inlineStr">
+      <c r="H9" s="81" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I9" s="76" t="n">
+      <c r="I9" s="78" t="n">
         <v>513772028</v>
       </c>
-      <c r="J9" s="82" t="n"/>
-      <c r="K9" s="82" t="n">
+      <c r="J9" s="84" t="n"/>
+      <c r="K9" s="84" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="74" t="inlineStr">
+      <c r="L9" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="A10" s="79" t="n">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="A10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="inlineStr">
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="78" t="n">
         <v>513720426</v>
       </c>
-      <c r="D10" s="82" t="n"/>
-      <c r="E10" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="74" t="inlineStr">
+      <c r="D10" s="84" t="n"/>
+      <c r="E10" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="79" t="n">
+      <c r="G10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="79" t="inlineStr">
+      <c r="H10" s="81" t="inlineStr">
         <is>
           <t>CLEBER</t>
         </is>
       </c>
-      <c r="I10" s="76" t="inlineStr">
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J10" s="82" t="inlineStr">
+      <c r="J10" s="84" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="84">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L10" s="74" t="inlineStr">
+      <c r="L10" s="76" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="A11" s="79" t="n">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="A11" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="inlineStr">
+      <c r="B11" s="85" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="78" t="n">
         <v>513754823</v>
       </c>
-      <c r="D11" s="82" t="n"/>
-      <c r="E11" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="74" t="inlineStr">
+      <c r="D11" s="84" t="n"/>
+      <c r="E11" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H11" s="74" t="inlineStr">
+      <c r="H11" s="76" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I11" s="85" t="inlineStr">
+      <c r="I11" s="87" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="J11" s="86" t="n"/>
-      <c r="K11" s="87" t="n"/>
-      <c r="L11" s="74" t="inlineStr">
+      <c r="J11" s="88" t="n"/>
+      <c r="K11" s="89" t="n"/>
+      <c r="L11" s="76" t="inlineStr">
         <is>
           <t>D:192,61</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="A12" s="79" t="n">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="A12" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="79" t="inlineStr">
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="78" t="n">
         <v>513781493</v>
       </c>
-      <c r="D12" s="76" t="n"/>
-      <c r="E12" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="74" t="inlineStr">
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="88" t="n"/>
-      <c r="H12" s="85" t="inlineStr">
+      <c r="G12" s="90" t="n"/>
+      <c r="H12" s="87" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I12" s="85" t="inlineStr">
+      <c r="I12" s="87" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="J12" s="89" t="n"/>
+      <c r="J12" s="91" t="n"/>
       <c r="K12" s="14" t="n"/>
-      <c r="L12" s="74" t="inlineStr">
+      <c r="L12" s="76" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="A13" s="79" t="n">
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="A13" s="81" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="79" t="inlineStr">
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="78" t="n">
         <v>513766860</v>
       </c>
-      <c r="D13" s="82" t="n"/>
-      <c r="E13" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="74" t="inlineStr">
+      <c r="D13" s="84" t="n"/>
+      <c r="E13" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="90" t="inlineStr">
+      <c r="H13" s="92" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I13" s="74" t="inlineStr">
+      <c r="I13" s="76" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K13" s="74" t="n">
+      <c r="K13" s="76" t="n">
         <v>2527.05</v>
       </c>
-      <c r="L13" s="74" t="inlineStr">
+      <c r="L13" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="A14" s="79" t="n">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="A14" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="79" t="inlineStr">
+      <c r="B14" s="81" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C14" s="76" t="n">
+      <c r="C14" s="78" t="n">
         <v>513701260</v>
       </c>
-      <c r="D14" s="82" t="n"/>
-      <c r="E14" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="74" t="inlineStr">
+      <c r="D14" s="84" t="n"/>
+      <c r="E14" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H14" s="74" t="inlineStr">
+      <c r="H14" s="76" t="inlineStr">
         <is>
           <t>TTTTTT</t>
         </is>
       </c>
-      <c r="I14" s="91" t="inlineStr">
+      <c r="I14" s="93" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="92" t="n">
+      <c r="J14" s="80" t="n"/>
+      <c r="K14" s="94" t="n">
         <v>1540.88</v>
       </c>
-      <c r="L14" s="74" t="inlineStr">
+      <c r="L14" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="A15" s="79" t="n">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="A15" s="81" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="79" t="inlineStr">
+      <c r="B15" s="81" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C15" s="76" t="inlineStr">
+      <c r="C15" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D15" s="82" t="n"/>
-      <c r="E15" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="74" t="inlineStr">
+      <c r="D15" s="84" t="n"/>
+      <c r="E15" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H15" s="74" t="inlineStr">
+      <c r="H15" s="76" t="inlineStr">
         <is>
           <t>SSSSSS</t>
         </is>
       </c>
-      <c r="I15" s="91" t="inlineStr">
+      <c r="I15" s="93" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n"/>
+      <c r="J15" s="80" t="n"/>
       <c r="K15" s="18" t="n">
         <v>2378.4</v>
       </c>
-      <c r="L15" s="74" t="inlineStr">
+      <c r="L15" s="76" t="inlineStr">
         <is>
           <t>C:192,61</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="A16" s="79" t="n">
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="A16" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="79" t="inlineStr">
+      <c r="B16" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C16" s="76" t="n">
+      <c r="C16" s="78" t="n">
         <v>513772028</v>
       </c>
-      <c r="D16" s="82" t="n"/>
-      <c r="E16" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="74" t="inlineStr">
+      <c r="D16" s="84" t="n"/>
+      <c r="E16" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H16" s="74" t="inlineStr">
+      <c r="H16" s="76" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="I16" s="93" t="inlineStr">
+      <c r="I16" s="95" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="J16" s="78" t="n"/>
-      <c r="K16" s="94" t="n">
+      <c r="J16" s="80" t="n"/>
+      <c r="K16" s="96" t="n">
         <v>508</v>
       </c>
-      <c r="L16" s="74" t="inlineStr">
+      <c r="L16" s="76" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="A17" s="79" t="n">
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="A17" s="81" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="79" t="inlineStr">
+      <c r="B17" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C17" s="76" t="n">
+      <c r="C17" s="78" t="n">
         <v>513753257</v>
       </c>
-      <c r="D17" s="82" t="n"/>
-      <c r="E17" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="74" t="inlineStr">
+      <c r="D17" s="84" t="n"/>
+      <c r="E17" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="H17" s="74" t="inlineStr">
+      <c r="H17" s="76" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="I17" s="91" t="inlineStr">
+      <c r="I17" s="93" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="J17" s="78" t="n"/>
+      <c r="J17" s="80" t="n"/>
       <c r="K17" s="21" t="n">
         <v>833</v>
       </c>
-      <c r="L17" s="74" t="inlineStr">
+      <c r="L17" s="76" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="A18" s="79" t="n">
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="A18" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="79" t="inlineStr">
+      <c r="B18" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C18" s="76" t="n">
+      <c r="C18" s="78" t="n">
         <v>513697796</v>
       </c>
-      <c r="D18" s="82" t="n"/>
-      <c r="E18" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="74" t="inlineStr">
+      <c r="D18" s="84" t="n"/>
+      <c r="E18" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H18" s="74" t="inlineStr">
+      <c r="H18" s="76" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="I18" s="91" t="inlineStr">
+      <c r="I18" s="93" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="J18" s="78" t="n"/>
-      <c r="K18" s="95">
+      <c r="J18" s="80" t="n"/>
+      <c r="K18" s="97">
         <f>K16-K18-K17</f>
         <v/>
       </c>
-      <c r="L18" s="74" t="inlineStr">
+      <c r="L18" s="76" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="A19" s="79" t="n">
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="A19" s="81" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="79" t="inlineStr">
+      <c r="B19" s="81" t="inlineStr">
         <is>
           <t>CLEBER</t>
         </is>
       </c>
-      <c r="C19" s="76" t="inlineStr">
+      <c r="C19" s="78" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D19" s="82" t="inlineStr">
+      <c r="D19" s="84" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="86">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="F19" s="74" t="inlineStr">
+      <c r="F19" s="76" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
-      <c r="H19" s="74" t="inlineStr">
+      <c r="H19" s="76" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="I19" s="91" t="inlineStr">
+      <c r="I19" s="93" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J19" s="78" t="n"/>
-      <c r="K19" s="96">
+      <c r="J19" s="80" t="n"/>
+      <c r="K19" s="98">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L19" s="74" t="inlineStr">
+      <c r="L19" s="76" t="inlineStr">
         <is>
           <t>D:192,61</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="75">
-      <c r="A20" s="88" t="n"/>
-      <c r="B20" s="89" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="77">
+      <c r="A20" s="90" t="n"/>
+      <c r="B20" s="91" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="C20" s="74" t="inlineStr">
+      <c r="C20" s="76" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="D20" s="97" t="inlineStr">
+      <c r="D20" s="99" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="86">
         <f>49*17</f>
         <v/>
       </c>
-      <c r="F20" s="74" t="inlineStr">
+      <c r="F20" s="76" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
-      <c r="H20" s="74" t="inlineStr">
+      <c r="H20" s="76" t="inlineStr">
         <is>
           <t>LO</t>
         </is>
       </c>
-      <c r="I20" s="98" t="inlineStr">
+      <c r="I20" s="100" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="J20" s="78" t="n"/>
-      <c r="K20" s="99">
+      <c r="J20" s="80" t="n"/>
+      <c r="K20" s="101">
         <f>300+E14</f>
         <v/>
       </c>
-      <c r="L20" s="74" t="inlineStr">
+      <c r="L20" s="76" t="inlineStr">
         <is>
           <t>D:192,61</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="75">
-      <c r="A21" s="88" t="n"/>
-      <c r="B21" s="74" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="77">
+      <c r="A21" s="90" t="n"/>
+      <c r="B21" s="76" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C21" s="74" t="inlineStr">
+      <c r="C21" s="76" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" s="100" t="inlineStr">
+      <c r="D21" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E21" s="101" t="n">
+      <c r="E21" s="103" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F21" s="74" t="inlineStr">
+      <c r="F21" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="H21" s="74" t="inlineStr">
+      <c r="H21" s="76" t="inlineStr">
         <is>
           <t>RT</t>
         </is>
       </c>
-      <c r="I21" s="98" t="inlineStr">
+      <c r="I21" s="100" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J21" s="78" t="n"/>
-      <c r="K21" s="99">
+      <c r="J21" s="80" t="n"/>
+      <c r="K21" s="101">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
-      <c r="L21" s="74" t="inlineStr">
+      <c r="L21" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="75">
-      <c r="A22" s="88" t="n"/>
-      <c r="B22" s="74" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="77">
+      <c r="A22" s="90" t="n"/>
+      <c r="B22" s="76" t="inlineStr">
         <is>
           <t>TTTTTT</t>
         </is>
       </c>
-      <c r="C22" s="74" t="inlineStr">
+      <c r="C22" s="76" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D22" s="100" t="n"/>
-      <c r="E22" s="101" t="n"/>
-      <c r="F22" s="74" t="inlineStr">
+      <c r="D22" s="102" t="n"/>
+      <c r="E22" s="103" t="n"/>
+      <c r="F22" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
-      <c r="H22" s="74" t="inlineStr">
+      <c r="H22" s="76" t="inlineStr">
         <is>
           <t>LORD</t>
         </is>
       </c>
-      <c r="I22" s="102" t="inlineStr">
+      <c r="I22" s="104" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J22" s="78" t="n"/>
-      <c r="K22" s="103" t="n"/>
-      <c r="L22" s="74" t="inlineStr">
+      <c r="J22" s="80" t="n"/>
+      <c r="K22" s="105" t="n"/>
+      <c r="L22" s="76" t="inlineStr">
         <is>
           <t>C:192,61</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="75">
-      <c r="B23" s="74" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="77">
+      <c r="B23" s="76" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="C23" s="74" t="inlineStr">
+      <c r="C23" s="76" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="F23" s="74" t="inlineStr">
+      <c r="F23" s="76" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="76" t="inlineStr">
         <is>
           <t>MARCI</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" s="76" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K23" s="89" t="n"/>
-      <c r="L23" t="inlineStr">
+      <c r="K23" s="91" t="n"/>
+      <c r="L23" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="74" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="77">
+      <c r="B24" s="76" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="C24" s="74" t="inlineStr">
+      <c r="C24" s="76" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="F24" s="74" t="inlineStr">
+      <c r="F24" s="76" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="74" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="77">
+      <c r="B25" s="76" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="C25" s="74" t="inlineStr">
+      <c r="C25" s="76" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="F25" s="74" t="inlineStr">
+      <c r="F25" s="76" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="74" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="77">
+      <c r="B26" s="76" t="inlineStr">
         <is>
           <t>RT</t>
         </is>
       </c>
-      <c r="C26" s="74" t="inlineStr">
+      <c r="C26" s="76" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F26" s="74" t="inlineStr">
+      <c r="F26" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="77">
+      <c r="B27" s="76" t="inlineStr">
         <is>
           <t>MARCI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="76" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="76" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
@@ -2009,713 +2060,713 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48.04" customWidth="1" style="74" min="2" max="2"/>
-    <col width="12.13" customWidth="1" style="74" min="3" max="3"/>
-    <col width="41.17" customWidth="1" style="74" min="8" max="8"/>
-    <col width="10.54" customWidth="1" style="74" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="74" min="11" max="11"/>
+    <col width="48.04" customWidth="1" style="76" min="2" max="2"/>
+    <col width="12.13" customWidth="1" style="76" min="3" max="3"/>
+    <col width="41.17" customWidth="1" style="76" min="8" max="8"/>
+    <col width="10.54" customWidth="1" style="76" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="F1" s="74" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="F1" s="76" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="74" t="n"/>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="F2" s="76" t="n"/>
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="75">
-      <c r="A3" s="79" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="77">
+      <c r="A3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="inlineStr">
+      <c r="B3" s="131" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="76" t="inlineStr">
+      <c r="C3" s="78" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="89" t="inlineStr">
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="79" t="n"/>
-      <c r="H3" s="130" t="inlineStr">
+      <c r="G3" s="81" t="n"/>
+      <c r="H3" s="132" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="76" t="inlineStr">
+      <c r="I3" s="78" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="76" t="n"/>
-      <c r="K3" s="76" t="n">
+      <c r="J3" s="78" t="n"/>
+      <c r="K3" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="89" t="inlineStr">
+      <c r="L3" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="75">
-      <c r="A4" s="79" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="77">
+      <c r="A4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="130" t="inlineStr">
+      <c r="B4" s="132" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="78" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="89" t="inlineStr">
+      <c r="D4" s="78" t="n"/>
+      <c r="E4" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="79" t="n"/>
-      <c r="H4" s="131" t="inlineStr">
+      <c r="G4" s="81" t="n"/>
+      <c r="H4" s="133" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="76" t="n">
+      <c r="I4" s="78" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="76" t="n"/>
-      <c r="K4" s="76" t="n">
+      <c r="J4" s="78" t="n"/>
+      <c r="K4" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="89" t="inlineStr">
+      <c r="L4" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="75">
-      <c r="A5" s="79" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="77">
+      <c r="A5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="131" t="inlineStr">
+      <c r="B5" s="133" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="78" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="89" t="inlineStr">
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="91" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="79" t="n"/>
-      <c r="H5" s="131" t="inlineStr">
+      <c r="G5" s="81" t="n"/>
+      <c r="H5" s="133" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="76" t="n">
+      <c r="I5" s="78" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="76" t="n"/>
-      <c r="K5" s="76" t="n">
+      <c r="J5" s="78" t="n"/>
+      <c r="K5" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="89" t="inlineStr">
+      <c r="L5" s="91" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="75">
-      <c r="A6" s="79" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="77">
+      <c r="A6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="132" t="inlineStr">
+      <c r="B6" s="134" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="78" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="89" t="inlineStr">
+      <c r="D6" s="78" t="n"/>
+      <c r="E6" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="79" t="n"/>
-      <c r="H6" s="131" t="inlineStr">
+      <c r="G6" s="81" t="n"/>
+      <c r="H6" s="133" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="76" t="n">
+      <c r="I6" s="78" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="76" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="89" t="inlineStr">
+      <c r="L6" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="75">
-      <c r="A7" s="79" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="77">
+      <c r="A7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="131" t="inlineStr">
+      <c r="B7" s="133" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="78" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="89" t="inlineStr">
+      <c r="D7" s="78" t="n"/>
+      <c r="E7" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="79" t="n"/>
-      <c r="H7" s="131" t="inlineStr">
+      <c r="G7" s="81" t="n"/>
+      <c r="H7" s="133" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="76" t="n">
+      <c r="I7" s="78" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="76" t="n"/>
-      <c r="K7" s="76" t="n">
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="89" t="inlineStr">
+      <c r="L7" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="75">
-      <c r="A8" s="79" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="77">
+      <c r="A8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="132" t="inlineStr">
+      <c r="B8" s="134" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="76" t="n">
+      <c r="C8" s="78" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="89" t="inlineStr">
+      <c r="D8" s="78" t="n"/>
+      <c r="E8" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="91" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="79" t="n"/>
-      <c r="H8" s="131" t="inlineStr">
+      <c r="G8" s="81" t="n"/>
+      <c r="H8" s="133" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="76" t="n">
+      <c r="I8" s="78" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="76" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="89" t="inlineStr">
+      <c r="L8" s="91" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="75">
-      <c r="A9" s="79" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="77">
+      <c r="A9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="131" t="inlineStr">
+      <c r="B9" s="133" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="78" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="76" t="n"/>
-      <c r="E9" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="89" t="inlineStr">
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="79" t="n"/>
-      <c r="H9" s="131" t="inlineStr">
+      <c r="G9" s="81" t="n"/>
+      <c r="H9" s="133" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="76" t="n">
+      <c r="I9" s="78" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="76" t="n"/>
-      <c r="K9" s="76" t="n">
+      <c r="J9" s="78" t="n"/>
+      <c r="K9" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="89" t="inlineStr">
+      <c r="L9" s="91" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="75">
-      <c r="A10" s="79" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="77">
+      <c r="A10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="131" t="inlineStr">
+      <c r="B10" s="133" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="78" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="76" t="n"/>
-      <c r="E10" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="89" t="inlineStr">
+      <c r="D10" s="78" t="n"/>
+      <c r="E10" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="79" t="n"/>
-      <c r="H10" s="81" t="inlineStr">
+      <c r="G10" s="81" t="n"/>
+      <c r="H10" s="83" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="76" t="inlineStr">
+      <c r="I10" s="78" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="76" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="89" t="inlineStr">
+      <c r="L10" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="75">
-      <c r="A11" s="79" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="77">
+      <c r="A11" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="131" t="inlineStr">
+      <c r="B11" s="133" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="78" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="76" t="n"/>
-      <c r="E11" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="89" t="inlineStr">
+      <c r="D11" s="78" t="n"/>
+      <c r="E11" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="79" t="n"/>
-      <c r="H11" s="81" t="inlineStr">
+      <c r="G11" s="81" t="n"/>
+      <c r="H11" s="83" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="76" t="inlineStr">
+      <c r="I11" s="78" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="76" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="89" t="inlineStr">
+      <c r="L11" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="75">
-      <c r="A12" s="79" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="77">
+      <c r="A12" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="131" t="inlineStr">
+      <c r="B12" s="133" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="78" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="76" t="n"/>
-      <c r="E12" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="89" t="inlineStr">
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="79" t="n"/>
-      <c r="H12" s="81" t="n"/>
-      <c r="I12" s="76" t="n"/>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="76" t="n">
+      <c r="G12" s="81" t="n"/>
+      <c r="H12" s="83" t="n"/>
+      <c r="I12" s="78" t="n"/>
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="78" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="89" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="75">
-      <c r="A13" s="79" t="n">
+      <c r="L12" s="91" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="77">
+      <c r="A13" s="81" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="131" t="inlineStr">
+      <c r="B13" s="133" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="78" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="76" t="n"/>
-      <c r="E13" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="89" t="inlineStr">
+      <c r="D13" s="78" t="n"/>
+      <c r="E13" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="89" t="n"/>
-      <c r="H13" s="89" t="n"/>
-      <c r="I13" s="85" t="n"/>
-      <c r="J13" s="86" t="inlineStr">
+      <c r="G13" s="91" t="n"/>
+      <c r="H13" s="91" t="n"/>
+      <c r="I13" s="87" t="n"/>
+      <c r="J13" s="88" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="89">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="75">
-      <c r="A14" s="79" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="77">
+      <c r="A14" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="131" t="inlineStr">
+      <c r="B14" s="133" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="76" t="n">
+      <c r="C14" s="78" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="76" t="n"/>
-      <c r="E14" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="89" t="inlineStr">
+      <c r="D14" s="78" t="n"/>
+      <c r="E14" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="91" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="88" t="n"/>
-      <c r="H14" s="85" t="n"/>
-      <c r="I14" s="85" t="n"/>
-      <c r="J14" s="89" t="n"/>
+      <c r="G14" s="90" t="n"/>
+      <c r="H14" s="87" t="n"/>
+      <c r="I14" s="87" t="n"/>
+      <c r="J14" s="91" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="75">
-      <c r="A15" s="79" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="77">
+      <c r="A15" s="81" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="131" t="inlineStr">
+      <c r="B15" s="133" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="76" t="n">
+      <c r="C15" s="78" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="76" t="n"/>
-      <c r="E15" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="89" t="inlineStr">
+      <c r="D15" s="78" t="n"/>
+      <c r="E15" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="91" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="90" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="75">
-      <c r="A16" s="79" t="n">
+      <c r="H15" s="92" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="77">
+      <c r="A16" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="81" t="n"/>
-      <c r="C16" s="76" t="n"/>
-      <c r="D16" s="76" t="n"/>
-      <c r="E16" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="89" t="n"/>
-      <c r="I16" s="91" t="n"/>
-      <c r="J16" s="78" t="n"/>
-      <c r="K16" s="92" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="75">
-      <c r="A17" s="79" t="n">
+      <c r="B16" s="83" t="n"/>
+      <c r="C16" s="78" t="n"/>
+      <c r="D16" s="78" t="n"/>
+      <c r="E16" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="91" t="n"/>
+      <c r="I16" s="93" t="n"/>
+      <c r="J16" s="80" t="n"/>
+      <c r="K16" s="94" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="77">
+      <c r="A17" s="81" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="81" t="n"/>
-      <c r="C17" s="76" t="n"/>
-      <c r="D17" s="76" t="n"/>
-      <c r="E17" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="89" t="n"/>
-      <c r="I17" s="91" t="n"/>
-      <c r="J17" s="78" t="n"/>
-      <c r="K17" s="92" t="n"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="75">
-      <c r="A18" s="79" t="n">
+      <c r="B17" s="83" t="n"/>
+      <c r="C17" s="78" t="n"/>
+      <c r="D17" s="78" t="n"/>
+      <c r="E17" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="91" t="n"/>
+      <c r="I17" s="93" t="n"/>
+      <c r="J17" s="80" t="n"/>
+      <c r="K17" s="94" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="77">
+      <c r="A18" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="81" t="n"/>
-      <c r="C18" s="76" t="n"/>
-      <c r="D18" s="76" t="n"/>
-      <c r="E18" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="89" t="n"/>
-      <c r="I18" s="93" t="n"/>
-      <c r="J18" s="78" t="n"/>
-      <c r="K18" s="94" t="n"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="75">
-      <c r="A19" s="79" t="n">
+      <c r="B18" s="83" t="n"/>
+      <c r="C18" s="78" t="n"/>
+      <c r="D18" s="78" t="n"/>
+      <c r="E18" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="91" t="n"/>
+      <c r="I18" s="95" t="n"/>
+      <c r="J18" s="80" t="n"/>
+      <c r="K18" s="96" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="77">
+      <c r="A19" s="81" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="81" t="n"/>
-      <c r="C19" s="76" t="n"/>
-      <c r="D19" s="76" t="n"/>
-      <c r="E19" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="89" t="n"/>
-      <c r="I19" s="91" t="n"/>
-      <c r="J19" s="78" t="n"/>
+      <c r="B19" s="83" t="n"/>
+      <c r="C19" s="78" t="n"/>
+      <c r="D19" s="78" t="n"/>
+      <c r="E19" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="91" t="n"/>
+      <c r="I19" s="93" t="n"/>
+      <c r="J19" s="80" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="75">
-      <c r="A20" s="79" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="77">
+      <c r="A20" s="81" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="81" t="n"/>
-      <c r="C20" s="76" t="n"/>
-      <c r="D20" s="76" t="n"/>
-      <c r="E20" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="89" t="n"/>
-      <c r="I20" s="91" t="n"/>
-      <c r="J20" s="78" t="n"/>
-      <c r="K20" s="95" t="n"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="75">
-      <c r="A21" s="79" t="n">
+      <c r="B20" s="83" t="n"/>
+      <c r="C20" s="78" t="n"/>
+      <c r="D20" s="78" t="n"/>
+      <c r="E20" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="91" t="n"/>
+      <c r="I20" s="93" t="n"/>
+      <c r="J20" s="80" t="n"/>
+      <c r="K20" s="97" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="77">
+      <c r="A21" s="81" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="81" t="n"/>
-      <c r="C21" s="76" t="n"/>
-      <c r="D21" s="76" t="n"/>
-      <c r="E21" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="89" t="n"/>
-      <c r="I21" s="91" t="n"/>
-      <c r="J21" s="78" t="n"/>
-      <c r="K21" s="96" t="n"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="75">
-      <c r="A22" s="79" t="n">
+      <c r="B21" s="83" t="n"/>
+      <c r="C21" s="78" t="n"/>
+      <c r="D21" s="78" t="n"/>
+      <c r="E21" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="91" t="n"/>
+      <c r="I21" s="93" t="n"/>
+      <c r="J21" s="80" t="n"/>
+      <c r="K21" s="98" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="77">
+      <c r="A22" s="81" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="81" t="n"/>
-      <c r="C22" s="76" t="n"/>
-      <c r="D22" s="76" t="n"/>
-      <c r="E22" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="89" t="n"/>
-      <c r="I22" s="98" t="n"/>
-      <c r="J22" s="78" t="n"/>
-      <c r="K22" s="99" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="75">
-      <c r="A23" s="79" t="n">
+      <c r="B22" s="83" t="n"/>
+      <c r="C22" s="78" t="n"/>
+      <c r="D22" s="78" t="n"/>
+      <c r="E22" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="91" t="n"/>
+      <c r="I22" s="100" t="n"/>
+      <c r="J22" s="80" t="n"/>
+      <c r="K22" s="101" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="77">
+      <c r="A23" s="81" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="133" t="n"/>
-      <c r="D23" s="76" t="n"/>
-      <c r="E23" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="89" t="n"/>
+      <c r="B23" s="83" t="n"/>
+      <c r="C23" s="135" t="n"/>
+      <c r="D23" s="78" t="n"/>
+      <c r="E23" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="91" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="98" t="n"/>
-      <c r="J23" s="78" t="n"/>
-      <c r="K23" s="99" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="75">
-      <c r="A24" s="88" t="n"/>
-      <c r="B24" s="89" t="n"/>
-      <c r="D24" s="97" t="n"/>
-      <c r="E24" s="84" t="n"/>
-      <c r="F24" s="74" t="n"/>
-      <c r="I24" s="102" t="n"/>
-      <c r="J24" s="78" t="n"/>
-      <c r="K24" s="103" t="n"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="75">
-      <c r="A25" s="88" t="n"/>
-      <c r="D25" s="100" t="n"/>
-      <c r="E25" s="101" t="n"/>
-      <c r="F25" s="74" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="75">
-      <c r="A26" s="88" t="n"/>
-      <c r="D26" s="100" t="n"/>
-      <c r="E26" s="101" t="n"/>
-      <c r="F26" s="74" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="75"/>
+      <c r="I23" s="100" t="n"/>
+      <c r="J23" s="80" t="n"/>
+      <c r="K23" s="101" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="77">
+      <c r="A24" s="90" t="n"/>
+      <c r="B24" s="91" t="n"/>
+      <c r="D24" s="99" t="n"/>
+      <c r="E24" s="86" t="n"/>
+      <c r="F24" s="76" t="n"/>
+      <c r="I24" s="104" t="n"/>
+      <c r="J24" s="80" t="n"/>
+      <c r="K24" s="105" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="77">
+      <c r="A25" s="90" t="n"/>
+      <c r="D25" s="102" t="n"/>
+      <c r="E25" s="103" t="n"/>
+      <c r="F25" s="76" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="77">
+      <c r="A26" s="90" t="n"/>
+      <c r="D26" s="102" t="n"/>
+      <c r="E26" s="103" t="n"/>
+      <c r="F26" s="76" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="77"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2758,150 +2809,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="74" min="2" max="2"/>
-    <col width="9.92" customWidth="1" style="74" min="4" max="4"/>
-    <col width="55" customWidth="1" style="74" min="8" max="8"/>
+    <col width="55" customWidth="1" style="76" min="2" max="2"/>
+    <col width="9.92" customWidth="1" style="76" min="4" max="4"/>
+    <col width="55" customWidth="1" style="76" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="75">
-      <c r="A1" s="107" t="n"/>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="107" t="n"/>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="75">
-      <c r="A2" s="107" t="n"/>
-      <c r="B2" s="107" t="n"/>
-      <c r="C2" s="107" t="n"/>
-      <c r="D2" s="107" t="n"/>
-      <c r="E2" s="107" t="n"/>
-      <c r="G2" s="107" t="n"/>
-      <c r="H2" s="107" t="n"/>
-      <c r="I2" s="107" t="n"/>
-      <c r="J2" s="107" t="n"/>
-      <c r="K2" s="107" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="75">
-      <c r="A3" s="106" t="n"/>
-      <c r="B3" s="106" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="77">
+      <c r="A1" s="109" t="n"/>
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="109" t="n"/>
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="77">
+      <c r="A2" s="109" t="n"/>
+      <c r="B2" s="109" t="n"/>
+      <c r="C2" s="109" t="n"/>
+      <c r="D2" s="109" t="n"/>
+      <c r="E2" s="109" t="n"/>
+      <c r="G2" s="109" t="n"/>
+      <c r="H2" s="109" t="n"/>
+      <c r="I2" s="109" t="n"/>
+      <c r="J2" s="109" t="n"/>
+      <c r="K2" s="109" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="77">
+      <c r="A3" s="108" t="n"/>
+      <c r="B3" s="108" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="74" t="n"/>
-      <c r="E3" s="106" t="n"/>
-      <c r="F3" s="74" t="n"/>
-      <c r="G3" s="106" t="n"/>
-      <c r="H3" s="106" t="inlineStr">
+      <c r="C3" s="76" t="n"/>
+      <c r="E3" s="108" t="n"/>
+      <c r="F3" s="76" t="n"/>
+      <c r="G3" s="108" t="n"/>
+      <c r="H3" s="108" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="106" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="75">
-      <c r="A4" s="106" t="n"/>
-      <c r="B4" s="134" t="inlineStr">
+      <c r="K3" s="108" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="77">
+      <c r="A4" s="108" t="n"/>
+      <c r="B4" s="136" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="135" t="n"/>
-      <c r="D4" s="135" t="n"/>
-      <c r="E4" s="134" t="n"/>
-      <c r="F4" s="74" t="n"/>
-      <c r="G4" s="106" t="n"/>
-      <c r="H4" s="134" t="inlineStr">
+      <c r="C4" s="137" t="n"/>
+      <c r="D4" s="137" t="n"/>
+      <c r="E4" s="136" t="n"/>
+      <c r="F4" s="76" t="n"/>
+      <c r="G4" s="108" t="n"/>
+      <c r="H4" s="136" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="106" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="75">
-      <c r="A5" s="106" t="n"/>
-      <c r="B5" s="106" t="inlineStr">
+      <c r="K4" s="108" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="77">
+      <c r="A5" s="108" t="n"/>
+      <c r="B5" s="108" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="74" t="n"/>
-      <c r="E5" s="106" t="n"/>
-      <c r="F5" s="74" t="n"/>
-      <c r="G5" s="106" t="n"/>
-      <c r="H5" s="106" t="inlineStr">
+      <c r="C5" s="76" t="n"/>
+      <c r="E5" s="108" t="n"/>
+      <c r="F5" s="76" t="n"/>
+      <c r="G5" s="108" t="n"/>
+      <c r="H5" s="108" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="106" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="75">
-      <c r="A6" s="106" t="n"/>
-      <c r="B6" s="106" t="inlineStr">
+      <c r="K5" s="108" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="77">
+      <c r="A6" s="108" t="n"/>
+      <c r="B6" s="108" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n"/>
-      <c r="E6" s="106" t="n"/>
-      <c r="F6" s="74" t="n"/>
-      <c r="G6" s="106" t="n"/>
-      <c r="H6" s="106" t="inlineStr">
+      <c r="C6" s="76" t="n"/>
+      <c r="E6" s="108" t="n"/>
+      <c r="F6" s="76" t="n"/>
+      <c r="G6" s="108" t="n"/>
+      <c r="H6" s="108" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="106" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="75">
-      <c r="A7" s="106" t="n"/>
-      <c r="B7" s="106" t="inlineStr">
+      <c r="K6" s="108" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="77">
+      <c r="A7" s="108" t="n"/>
+      <c r="B7" s="108" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n"/>
-      <c r="E7" s="106" t="n"/>
-      <c r="F7" s="74" t="n"/>
-      <c r="G7" s="74" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="75">
-      <c r="A8" s="106" t="n"/>
-      <c r="B8" s="106" t="inlineStr">
+      <c r="C7" s="76" t="n"/>
+      <c r="E7" s="108" t="n"/>
+      <c r="F7" s="76" t="n"/>
+      <c r="G7" s="76" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="77">
+      <c r="A8" s="108" t="n"/>
+      <c r="B8" s="108" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="74" t="n"/>
-      <c r="E8" s="106" t="n"/>
-      <c r="F8" s="74" t="n"/>
-      <c r="G8" s="74" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="75"/>
-    <row r="10" ht="13.5" customHeight="1" s="75"/>
-    <row r="11" ht="13.5" customHeight="1" s="75">
-      <c r="I11" s="106" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="75">
-      <c r="I12" s="106" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="75">
-      <c r="I13" s="106" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="75">
-      <c r="I14" s="106" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="75">
-      <c r="I15" s="106" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="75"/>
+      <c r="C8" s="76" t="n"/>
+      <c r="E8" s="108" t="n"/>
+      <c r="F8" s="76" t="n"/>
+      <c r="G8" s="76" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="77"/>
+    <row r="10" ht="13.5" customHeight="1" s="77"/>
+    <row r="11" ht="13.5" customHeight="1" s="77">
+      <c r="I11" s="108" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="77">
+      <c r="I12" s="108" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="77">
+      <c r="I13" s="108" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="77">
+      <c r="I14" s="108" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="77">
+      <c r="I15" s="108" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="77"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2935,297 +2986,297 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="74" min="2" max="2"/>
-    <col width="55" customWidth="1" style="74" min="8" max="8"/>
+    <col width="55" customWidth="1" style="76" min="2" max="2"/>
+    <col width="55" customWidth="1" style="76" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="75">
-      <c r="A1" s="107" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="77">
+      <c r="A1" s="109" t="inlineStr">
         <is>
           <t>(A) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="107" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="109" t="inlineStr">
         <is>
           <t>(A) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="75">
-      <c r="A2" s="107" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="77">
+      <c r="A2" s="109" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="107" t="inlineStr">
+      <c r="B2" s="109" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="107" t="inlineStr">
+      <c r="C2" s="109" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="107" t="inlineStr">
+      <c r="D2" s="109" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="107" t="inlineStr">
+      <c r="E2" s="109" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="107" t="n"/>
-      <c r="H2" s="107" t="n"/>
-      <c r="I2" s="107" t="n"/>
-      <c r="J2" s="107" t="n"/>
-      <c r="K2" s="107" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="75">
-      <c r="A3" s="106" t="n"/>
-      <c r="B3" s="106" t="inlineStr">
+      <c r="G2" s="109" t="n"/>
+      <c r="H2" s="109" t="n"/>
+      <c r="I2" s="109" t="n"/>
+      <c r="J2" s="109" t="n"/>
+      <c r="K2" s="109" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="77">
+      <c r="A3" s="108" t="n"/>
+      <c r="B3" s="108" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="106" t="n">
+      <c r="C3" s="108" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="106" t="n"/>
-      <c r="E3" s="136" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="74" t="n"/>
-      <c r="G3" s="106" t="n"/>
-      <c r="H3" s="106" t="inlineStr">
+      <c r="D3" s="108" t="n"/>
+      <c r="E3" s="138" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="76" t="n"/>
+      <c r="G3" s="108" t="n"/>
+      <c r="H3" s="108" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="136" t="n">
+      <c r="K3" s="138" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="75">
-      <c r="A4" s="106" t="n"/>
-      <c r="B4" s="134" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1" s="77">
+      <c r="A4" s="108" t="n"/>
+      <c r="B4" s="136" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="134" t="n">
+      <c r="C4" s="136" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="134" t="n"/>
-      <c r="E4" s="137" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="74" t="n"/>
-      <c r="G4" s="106" t="n"/>
-      <c r="H4" s="134" t="inlineStr">
+      <c r="D4" s="136" t="n"/>
+      <c r="E4" s="139" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="76" t="n"/>
+      <c r="G4" s="108" t="n"/>
+      <c r="H4" s="136" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="136" t="n">
+      <c r="K4" s="138" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="75">
-      <c r="A5" s="106" t="n"/>
-      <c r="B5" s="106" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="77">
+      <c r="A5" s="108" t="n"/>
+      <c r="B5" s="108" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="106" t="n">
+      <c r="C5" s="108" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="106" t="n"/>
-      <c r="E5" s="136" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="74" t="n"/>
-      <c r="G5" s="106" t="n"/>
-      <c r="H5" s="106" t="inlineStr">
+      <c r="D5" s="108" t="n"/>
+      <c r="E5" s="138" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="76" t="n"/>
+      <c r="G5" s="108" t="n"/>
+      <c r="H5" s="108" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="136" t="n">
+      <c r="K5" s="138" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="75">
-      <c r="A6" s="106" t="n"/>
-      <c r="B6" s="106" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="77">
+      <c r="A6" s="108" t="n"/>
+      <c r="B6" s="108" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="74" t="n"/>
-      <c r="D6" s="106" t="n"/>
-      <c r="E6" s="136" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="74" t="n"/>
-      <c r="G6" s="106" t="n"/>
-      <c r="H6" s="106" t="inlineStr">
+      <c r="C6" s="76" t="n"/>
+      <c r="D6" s="108" t="n"/>
+      <c r="E6" s="138" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="76" t="n"/>
+      <c r="G6" s="108" t="n"/>
+      <c r="H6" s="108" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="136" t="n">
+      <c r="K6" s="138" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="75">
-      <c r="A7" s="106" t="n"/>
-      <c r="B7" s="106" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="77">
+      <c r="A7" s="108" t="n"/>
+      <c r="B7" s="108" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="74" t="n"/>
-      <c r="D7" s="106" t="n"/>
-      <c r="E7" s="136" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="74" t="n"/>
-      <c r="G7" s="74" t="n"/>
-      <c r="H7" s="106" t="inlineStr">
+      <c r="C7" s="76" t="n"/>
+      <c r="D7" s="108" t="n"/>
+      <c r="E7" s="138" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="76" t="n"/>
+      <c r="G7" s="76" t="n"/>
+      <c r="H7" s="108" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="107" t="n"/>
-      <c r="K7" s="107" t="n">
+      <c r="J7" s="109" t="n"/>
+      <c r="K7" s="109" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="75">
-      <c r="A8" s="106" t="n"/>
-      <c r="B8" s="106" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="77">
+      <c r="A8" s="108" t="n"/>
+      <c r="B8" s="108" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="74" t="n"/>
-      <c r="D8" s="106" t="n"/>
-      <c r="E8" s="136" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="74" t="n"/>
-      <c r="G8" s="74" t="n"/>
-      <c r="H8" s="106" t="inlineStr">
+      <c r="C8" s="76" t="n"/>
+      <c r="D8" s="108" t="n"/>
+      <c r="E8" s="138" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="76" t="n"/>
+      <c r="G8" s="76" t="n"/>
+      <c r="H8" s="108" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="107" t="n"/>
-      <c r="K8" s="107" t="n">
+      <c r="J8" s="109" t="n"/>
+      <c r="K8" s="109" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="75">
-      <c r="B9" s="106" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="77">
+      <c r="B9" s="108" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="107" t="n"/>
-      <c r="E9" s="107" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="107" t="inlineStr">
+      <c r="D9" s="109" t="n"/>
+      <c r="E9" s="109" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="109" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="107" t="n">
+      <c r="K9" s="109" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="75">
-      <c r="B10" s="106" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="77">
+      <c r="B10" s="108" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="107" t="n"/>
-      <c r="E10" s="107" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="107" t="inlineStr">
+      <c r="D10" s="109" t="n"/>
+      <c r="E10" s="109" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="109" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="107" t="n">
+      <c r="K10" s="109" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="75">
-      <c r="D11" s="107" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="77">
+      <c r="D11" s="109" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="107" t="n">
+      <c r="E11" s="109" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="106" t="n"/>
-      <c r="J11" s="107" t="inlineStr">
+      <c r="I11" s="108" t="n"/>
+      <c r="J11" s="109" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="107" t="n">
+      <c r="K11" s="109" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="75">
-      <c r="D12" s="107" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="77">
+      <c r="D12" s="109" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="107" t="n">
+      <c r="E12" s="109" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="106" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="75">
-      <c r="D13" s="107" t="inlineStr">
+      <c r="I12" s="108" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="77">
+      <c r="D13" s="109" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="107" t="n">
+      <c r="E13" s="109" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="106" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="75">
-      <c r="I14" s="106" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="75">
-      <c r="I15" s="106" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="75">
-      <c r="D16" s="106" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="75"/>
+      <c r="I13" s="108" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="77">
+      <c r="I14" s="108" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="77">
+      <c r="I15" s="108" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="77">
+      <c r="D16" s="108" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="77"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -3259,340 +3310,340 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="74" min="2" max="2"/>
-    <col width="13" customWidth="1" style="74" min="3" max="3"/>
-    <col width="55" customWidth="1" style="74" min="8" max="8"/>
-    <col width="13" customWidth="1" style="74" min="9" max="9"/>
+    <col width="55" customWidth="1" style="76" min="2" max="2"/>
+    <col width="13" customWidth="1" style="76" min="3" max="3"/>
+    <col width="55" customWidth="1" style="76" min="8" max="8"/>
+    <col width="13" customWidth="1" style="76" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="75">
-      <c r="A1" s="105" t="n"/>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="105" t="n"/>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="75">
-      <c r="A2" s="105" t="n"/>
-      <c r="B2" s="105" t="n"/>
-      <c r="C2" s="105" t="n"/>
-      <c r="D2" s="105" t="n"/>
-      <c r="E2" s="138" t="n"/>
-      <c r="G2" s="105" t="n"/>
-      <c r="H2" s="105" t="n"/>
-      <c r="I2" s="105" t="n"/>
-      <c r="J2" s="105" t="n"/>
-      <c r="K2" s="105" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="75">
-      <c r="A3" s="136" t="n"/>
-      <c r="B3" s="136" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="77">
+      <c r="A1" s="107" t="n"/>
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="107" t="n"/>
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="77">
+      <c r="A2" s="107" t="n"/>
+      <c r="B2" s="107" t="n"/>
+      <c r="C2" s="107" t="n"/>
+      <c r="D2" s="107" t="n"/>
+      <c r="E2" s="140" t="n"/>
+      <c r="G2" s="107" t="n"/>
+      <c r="H2" s="107" t="n"/>
+      <c r="I2" s="107" t="n"/>
+      <c r="J2" s="107" t="n"/>
+      <c r="K2" s="107" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="77">
+      <c r="A3" s="138" t="n"/>
+      <c r="B3" s="138" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="136" t="n">
+      <c r="C3" s="138" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="136" t="n"/>
-      <c r="E3" s="139" t="n"/>
-      <c r="G3" s="136" t="n"/>
-      <c r="H3" s="136" t="inlineStr">
+      <c r="D3" s="138" t="n"/>
+      <c r="E3" s="141" t="n"/>
+      <c r="G3" s="138" t="n"/>
+      <c r="H3" s="138" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="I3" s="136" t="n"/>
-      <c r="J3" s="136" t="n"/>
-      <c r="K3" s="139" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="75">
-      <c r="A4" s="136" t="n"/>
-      <c r="B4" s="137" t="inlineStr">
+      <c r="I3" s="138" t="n"/>
+      <c r="J3" s="138" t="n"/>
+      <c r="K3" s="141" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="77">
+      <c r="A4" s="138" t="n"/>
+      <c r="B4" s="139" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="137" t="n">
+      <c r="C4" s="139" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="136" t="n"/>
-      <c r="E4" s="139" t="n"/>
-      <c r="G4" s="136" t="n"/>
-      <c r="H4" s="137" t="inlineStr">
+      <c r="D4" s="138" t="n"/>
+      <c r="E4" s="141" t="n"/>
+      <c r="G4" s="138" t="n"/>
+      <c r="H4" s="139" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="I4" s="136" t="n"/>
-      <c r="J4" s="136" t="n"/>
-      <c r="K4" s="139" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="75">
-      <c r="A5" s="136" t="n"/>
-      <c r="B5" s="136" t="inlineStr">
+      <c r="I4" s="138" t="n"/>
+      <c r="J4" s="138" t="n"/>
+      <c r="K4" s="141" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="77">
+      <c r="A5" s="138" t="n"/>
+      <c r="B5" s="138" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="136" t="n">
+      <c r="C5" s="138" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="136" t="n"/>
-      <c r="E5" s="139" t="n"/>
-      <c r="G5" s="136" t="n"/>
-      <c r="H5" s="136" t="inlineStr">
+      <c r="D5" s="138" t="n"/>
+      <c r="E5" s="141" t="n"/>
+      <c r="G5" s="138" t="n"/>
+      <c r="H5" s="138" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="I5" s="136" t="n"/>
-      <c r="J5" s="136" t="n"/>
-      <c r="K5" s="139" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="75">
-      <c r="A6" s="136" t="n"/>
-      <c r="B6" s="136" t="inlineStr">
+      <c r="I5" s="138" t="n"/>
+      <c r="J5" s="138" t="n"/>
+      <c r="K5" s="141" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="77">
+      <c r="A6" s="138" t="n"/>
+      <c r="B6" s="138" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="136" t="n"/>
-      <c r="D6" s="136" t="n"/>
-      <c r="E6" s="139" t="n"/>
-      <c r="G6" s="136" t="n"/>
-      <c r="H6" s="136" t="inlineStr">
+      <c r="C6" s="138" t="n"/>
+      <c r="D6" s="138" t="n"/>
+      <c r="E6" s="141" t="n"/>
+      <c r="G6" s="138" t="n"/>
+      <c r="H6" s="138" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="I6" s="136" t="n"/>
-      <c r="J6" s="136" t="n"/>
-      <c r="K6" s="139" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="75">
-      <c r="A7" s="136" t="n"/>
-      <c r="B7" s="136" t="inlineStr">
+      <c r="I6" s="138" t="n"/>
+      <c r="J6" s="138" t="n"/>
+      <c r="K6" s="141" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="77">
+      <c r="A7" s="138" t="n"/>
+      <c r="B7" s="138" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="136" t="n"/>
-      <c r="D7" s="136" t="n"/>
-      <c r="E7" s="139" t="n"/>
-      <c r="G7" s="136" t="n"/>
-      <c r="H7" s="136" t="inlineStr">
+      <c r="C7" s="138" t="n"/>
+      <c r="D7" s="138" t="n"/>
+      <c r="E7" s="141" t="n"/>
+      <c r="G7" s="138" t="n"/>
+      <c r="H7" s="138" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="I7" s="136" t="n"/>
-      <c r="J7" s="136" t="n"/>
-      <c r="K7" s="139" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="75">
-      <c r="A8" s="136" t="n"/>
-      <c r="B8" s="136" t="inlineStr">
+      <c r="I7" s="138" t="n"/>
+      <c r="J7" s="138" t="n"/>
+      <c r="K7" s="141" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="77">
+      <c r="A8" s="138" t="n"/>
+      <c r="B8" s="138" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="136" t="n"/>
-      <c r="D8" s="136" t="n"/>
-      <c r="E8" s="139" t="n"/>
-      <c r="G8" s="136" t="n"/>
-      <c r="H8" s="136" t="inlineStr">
+      <c r="C8" s="138" t="n"/>
+      <c r="D8" s="138" t="n"/>
+      <c r="E8" s="141" t="n"/>
+      <c r="G8" s="138" t="n"/>
+      <c r="H8" s="138" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="I8" s="136" t="n"/>
-      <c r="J8" s="136" t="n"/>
-      <c r="K8" s="139" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="75">
-      <c r="A9" s="136" t="n"/>
-      <c r="B9" s="136" t="inlineStr">
+      <c r="I8" s="138" t="n"/>
+      <c r="J8" s="138" t="n"/>
+      <c r="K8" s="141" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="77">
+      <c r="A9" s="138" t="n"/>
+      <c r="B9" s="138" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="C9" s="136" t="n"/>
-      <c r="D9" s="136" t="n"/>
-      <c r="E9" s="138" t="n"/>
-      <c r="G9" s="136" t="n"/>
-      <c r="H9" s="136" t="inlineStr">
+      <c r="C9" s="138" t="n"/>
+      <c r="D9" s="138" t="n"/>
+      <c r="E9" s="140" t="n"/>
+      <c r="G9" s="138" t="n"/>
+      <c r="H9" s="138" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="I9" s="105" t="inlineStr">
+      <c r="I9" s="107" t="inlineStr">
         <is>
           <t>855555</t>
         </is>
       </c>
-      <c r="J9" s="105" t="n"/>
-      <c r="K9" s="138" t="n"/>
-      <c r="L9" s="74" t="n"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="75">
-      <c r="A10" s="136" t="n"/>
-      <c r="B10" s="136" t="inlineStr">
+      <c r="J9" s="107" t="n"/>
+      <c r="K9" s="140" t="n"/>
+      <c r="L9" s="76" t="n"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="77">
+      <c r="A10" s="138" t="n"/>
+      <c r="B10" s="138" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="C10" s="136" t="n"/>
-      <c r="D10" s="136" t="n"/>
-      <c r="E10" s="138" t="n"/>
-      <c r="I10" s="105" t="n"/>
-      <c r="J10" s="105" t="n"/>
-      <c r="K10" s="138" t="n"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="75">
-      <c r="A11" s="136" t="n"/>
-      <c r="B11" s="136" t="inlineStr">
+      <c r="C10" s="138" t="n"/>
+      <c r="D10" s="138" t="n"/>
+      <c r="E10" s="140" t="n"/>
+      <c r="I10" s="107" t="n"/>
+      <c r="J10" s="107" t="n"/>
+      <c r="K10" s="140" t="n"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="77">
+      <c r="A11" s="138" t="n"/>
+      <c r="B11" s="138" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="C11" s="105" t="inlineStr">
+      <c r="C11" s="107" t="inlineStr">
         <is>
           <t>855555</t>
         </is>
       </c>
-      <c r="D11" s="105" t="n"/>
-      <c r="E11" s="138" t="n"/>
-      <c r="F11" s="74" t="n"/>
-      <c r="I11" s="105" t="n"/>
-      <c r="J11" s="105" t="n"/>
-      <c r="K11" s="138" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="75">
-      <c r="B12" s="74" t="inlineStr">
+      <c r="D11" s="107" t="n"/>
+      <c r="E11" s="140" t="n"/>
+      <c r="F11" s="76" t="n"/>
+      <c r="I11" s="107" t="n"/>
+      <c r="J11" s="107" t="n"/>
+      <c r="K11" s="140" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="77">
+      <c r="B12" s="76" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C12" s="105" t="inlineStr">
+      <c r="C12" s="107" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="D12" s="105" t="n"/>
-      <c r="E12" s="138" t="n"/>
-      <c r="F12" s="74" t="inlineStr">
+      <c r="D12" s="107" t="n"/>
+      <c r="E12" s="140" t="n"/>
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I12" s="105" t="n"/>
-      <c r="J12" s="105" t="n"/>
-      <c r="K12" s="138" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="75">
-      <c r="C13" s="105" t="n"/>
-      <c r="D13" s="105" t="n"/>
-      <c r="E13" s="138" t="n"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" s="75">
-      <c r="C14" s="105" t="n"/>
-      <c r="D14" s="105" t="n"/>
-      <c r="E14" s="138" t="n"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" s="75">
-      <c r="G15" s="136" t="n"/>
-      <c r="H15" s="105" t="n"/>
-      <c r="I15" s="78" t="n"/>
-      <c r="J15" s="138" t="n"/>
-      <c r="K15" s="139" t="n"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" s="75">
-      <c r="G16" s="136" t="n"/>
-      <c r="H16" s="105" t="n"/>
-      <c r="I16" s="78" t="n"/>
-      <c r="J16" s="138" t="n"/>
-      <c r="K16" s="139" t="n"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="75">
-      <c r="G17" s="136" t="n"/>
-      <c r="H17" s="105" t="n"/>
-      <c r="I17" s="78" t="n"/>
-      <c r="J17" s="138" t="n"/>
-      <c r="K17" s="139" t="n"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" s="75"/>
-    <row r="19" ht="12.75" customHeight="1" s="75">
-      <c r="G19" s="136" t="n"/>
-      <c r="H19" s="105" t="n"/>
-      <c r="I19" s="78" t="n"/>
-      <c r="J19" s="138" t="n"/>
-      <c r="K19" s="139" t="n"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" s="75">
-      <c r="G20" s="136" t="n"/>
-      <c r="H20" s="105" t="n"/>
-      <c r="I20" s="78" t="n"/>
-      <c r="J20" s="138" t="n"/>
-      <c r="K20" s="139" t="n"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" s="75">
-      <c r="G21" s="136" t="n"/>
-      <c r="H21" s="105" t="n"/>
-      <c r="I21" s="78" t="n"/>
-      <c r="J21" s="138" t="n"/>
-      <c r="K21" s="139" t="n"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1" s="75">
-      <c r="I22" s="105" t="n"/>
-      <c r="J22" s="105" t="n"/>
-      <c r="K22" s="138" t="n"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" s="75">
-      <c r="I23" s="105" t="n"/>
-      <c r="J23" s="105" t="n"/>
-      <c r="K23" s="138" t="n"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1" s="75">
-      <c r="E24" s="74" t="n"/>
-      <c r="I24" s="105" t="n"/>
-      <c r="J24" s="105" t="n"/>
-      <c r="K24" s="138" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="75">
-      <c r="H26" s="105" t="n"/>
-      <c r="I26" s="78" t="n"/>
-      <c r="J26" s="138" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="75">
-      <c r="H27" s="105" t="n"/>
-      <c r="I27" s="78" t="n"/>
-      <c r="J27" s="138" t="n"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" s="75">
-      <c r="H28" s="105" t="n"/>
-      <c r="I28" s="78" t="n"/>
-      <c r="J28" s="138" t="n"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" s="75">
-      <c r="H30" s="105" t="n"/>
-      <c r="I30" s="78" t="n"/>
-      <c r="J30" s="138" t="n"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" s="75">
-      <c r="H31" s="105" t="n"/>
-      <c r="I31" s="78" t="n"/>
-      <c r="J31" s="138" t="n"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" s="75">
-      <c r="H32" s="105" t="n"/>
-      <c r="I32" s="78" t="n"/>
-      <c r="J32" s="138" t="n"/>
+      <c r="I12" s="107" t="n"/>
+      <c r="J12" s="107" t="n"/>
+      <c r="K12" s="140" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="77">
+      <c r="C13" s="107" t="n"/>
+      <c r="D13" s="107" t="n"/>
+      <c r="E13" s="140" t="n"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="77">
+      <c r="C14" s="107" t="n"/>
+      <c r="D14" s="107" t="n"/>
+      <c r="E14" s="140" t="n"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="77">
+      <c r="G15" s="138" t="n"/>
+      <c r="H15" s="107" t="n"/>
+      <c r="I15" s="80" t="n"/>
+      <c r="J15" s="140" t="n"/>
+      <c r="K15" s="141" t="n"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="77">
+      <c r="G16" s="138" t="n"/>
+      <c r="H16" s="107" t="n"/>
+      <c r="I16" s="80" t="n"/>
+      <c r="J16" s="140" t="n"/>
+      <c r="K16" s="141" t="n"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="77">
+      <c r="G17" s="138" t="n"/>
+      <c r="H17" s="107" t="n"/>
+      <c r="I17" s="80" t="n"/>
+      <c r="J17" s="140" t="n"/>
+      <c r="K17" s="141" t="n"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="77"/>
+    <row r="19" ht="12.75" customHeight="1" s="77">
+      <c r="G19" s="138" t="n"/>
+      <c r="H19" s="107" t="n"/>
+      <c r="I19" s="80" t="n"/>
+      <c r="J19" s="140" t="n"/>
+      <c r="K19" s="141" t="n"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="77">
+      <c r="G20" s="138" t="n"/>
+      <c r="H20" s="107" t="n"/>
+      <c r="I20" s="80" t="n"/>
+      <c r="J20" s="140" t="n"/>
+      <c r="K20" s="141" t="n"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="77">
+      <c r="G21" s="138" t="n"/>
+      <c r="H21" s="107" t="n"/>
+      <c r="I21" s="80" t="n"/>
+      <c r="J21" s="140" t="n"/>
+      <c r="K21" s="141" t="n"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="77">
+      <c r="I22" s="107" t="n"/>
+      <c r="J22" s="107" t="n"/>
+      <c r="K22" s="140" t="n"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="77">
+      <c r="I23" s="107" t="n"/>
+      <c r="J23" s="107" t="n"/>
+      <c r="K23" s="140" t="n"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" s="77">
+      <c r="E24" s="76" t="n"/>
+      <c r="I24" s="107" t="n"/>
+      <c r="J24" s="107" t="n"/>
+      <c r="K24" s="140" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="77">
+      <c r="H26" s="107" t="n"/>
+      <c r="I26" s="80" t="n"/>
+      <c r="J26" s="140" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="77">
+      <c r="H27" s="107" t="n"/>
+      <c r="I27" s="80" t="n"/>
+      <c r="J27" s="140" t="n"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" s="77">
+      <c r="H28" s="107" t="n"/>
+      <c r="I28" s="80" t="n"/>
+      <c r="J28" s="140" t="n"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" s="77">
+      <c r="H30" s="107" t="n"/>
+      <c r="I30" s="80" t="n"/>
+      <c r="J30" s="140" t="n"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" s="77">
+      <c r="H31" s="107" t="n"/>
+      <c r="I31" s="80" t="n"/>
+      <c r="J31" s="140" t="n"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" s="77">
+      <c r="H32" s="107" t="n"/>
+      <c r="I32" s="80" t="n"/>
+      <c r="J32" s="140" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3639,38 +3690,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12" customWidth="1" style="74" min="1" max="1"/>
-    <col width="13.48" customWidth="1" style="74" min="2" max="2"/>
-    <col width="11" customWidth="1" style="74" min="3" max="3"/>
+    <col width="12" customWidth="1" style="76" min="1" max="1"/>
+    <col width="13.48" customWidth="1" style="76" min="2" max="2"/>
+    <col width="11" customWidth="1" style="76" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
-      <c r="B1" s="74" t="inlineStr">
+      <c r="B1" s="76" t="inlineStr">
         <is>
           <t>CONTAS</t>
         </is>
       </c>
-      <c r="C1" s="74" t="inlineStr">
+      <c r="C1" s="76" t="inlineStr">
         <is>
           <t>VALOR</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="57.75" customHeight="1" s="75">
-      <c r="A2" s="140" t="n">
+    <row r="2" ht="57.75" customHeight="1" s="77">
+      <c r="A2" s="142" t="n">
         <v>45602</v>
       </c>
-      <c r="B2" s="141" t="inlineStr">
+      <c r="B2" s="143" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="C2" s="142" t="inlineStr">
+      <c r="C2" s="144" t="inlineStr">
         <is>
           <t>R$ 333.00</t>
         </is>
@@ -3689,116 +3740,430 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B3:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T9" activeCellId="0" sqref="T9"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="18.38" customWidth="1" style="74" min="6" max="6"/>
+    <col width="55" customWidth="1" style="76" min="2" max="2"/>
+    <col width="13" customWidth="1" style="76" min="3" max="3"/>
+    <col width="12.62" customWidth="1" style="76" min="4" max="4"/>
+    <col width="18.38" customWidth="1" style="76" min="6" max="6"/>
+    <col width="55" customWidth="1" style="76" min="8" max="8"/>
+    <col width="13" customWidth="1" style="76" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="B3" s="74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C3" s="74" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="F3" s="74" t="inlineStr">
-        <is>
-          <t>D | C</t>
-        </is>
-      </c>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I3" s="74" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="147" t="inlineStr">
+        <is>
+          <t>(Usuário) Atendimento Médico 07/11/2024</t>
+        </is>
+      </c>
+      <c r="F1" s="148" t="n"/>
+      <c r="G1" s="147" t="inlineStr">
+        <is>
+          <t>(Usuário) Atendimento Psicológico 07/11/2024</t>
+        </is>
+      </c>
+      <c r="L1" s="148" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="149" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="B2" s="149" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C2" s="149" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="D2" s="149" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="E2" s="149" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="F2" s="148" t="n"/>
+      <c r="G2" s="149" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="H2" s="149" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="I2" s="149" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="J2" s="149" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="K2" s="149" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="L2" s="148" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="148" t="n"/>
+      <c r="B3" s="148" t="inlineStr">
+        <is>
+          <t>ASDASDS</t>
+        </is>
+      </c>
+      <c r="C3" s="148" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="D3" s="148" t="n"/>
+      <c r="E3" s="148" t="n"/>
+      <c r="F3" s="148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G3" s="148" t="n"/>
+      <c r="H3" s="148" t="inlineStr">
+        <is>
+          <t>ASDASDS</t>
+        </is>
+      </c>
+      <c r="I3" s="148" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="J3" s="148" t="n"/>
+      <c r="K3" s="148" t="n"/>
+      <c r="L3" s="148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="148" t="n"/>
+      <c r="B4" s="148" t="inlineStr">
+        <is>
+          <t>SSSS</t>
+        </is>
+      </c>
+      <c r="C4" s="148" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D4" s="148" t="n"/>
+      <c r="E4" s="148" t="n"/>
+      <c r="F4" s="148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" s="148" t="n"/>
+      <c r="H4" s="148" t="inlineStr">
+        <is>
+          <t>SSSS</t>
+        </is>
+      </c>
+      <c r="I4" s="148" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="J4" s="148" t="n"/>
+      <c r="K4" s="148" t="n"/>
+      <c r="L4" s="148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="148" t="n"/>
+      <c r="B5" s="148" t="inlineStr">
+        <is>
+          <t>ADADE</t>
+        </is>
+      </c>
+      <c r="C5" s="148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" s="148" t="n"/>
+      <c r="E5" s="148" t="n"/>
+      <c r="F5" s="148" t="inlineStr">
+        <is>
+          <t>D | E</t>
+        </is>
+      </c>
+      <c r="G5" s="148" t="n"/>
+      <c r="H5" s="148" t="inlineStr">
+        <is>
+          <t>ADADE</t>
+        </is>
+      </c>
+      <c r="I5" s="148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J5" s="148" t="n"/>
+      <c r="K5" s="148" t="n"/>
+      <c r="L5" s="148" t="inlineStr">
+        <is>
+          <t>D | E</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="148" t="n"/>
+      <c r="B6" s="148" t="inlineStr">
+        <is>
+          <t>WEEWF</t>
+        </is>
+      </c>
+      <c r="C6" s="148" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="L3" s="74" t="inlineStr">
-        <is>
-          <t>D | C</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>PEDRO</t>
-        </is>
-      </c>
-      <c r="C4" s="74" t="inlineStr">
-        <is>
-          <t>888</t>
-        </is>
-      </c>
-      <c r="F4" s="74" t="inlineStr">
-        <is>
-          <t>D:300,00 | C:41,26</t>
-        </is>
-      </c>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I4" s="74" t="inlineStr">
+      <c r="D6" s="148" t="n"/>
+      <c r="E6" s="148" t="n"/>
+      <c r="F6" s="148" t="inlineStr">
+        <is>
+          <t>D | E</t>
+        </is>
+      </c>
+      <c r="G6" s="148" t="n"/>
+      <c r="H6" s="148" t="inlineStr">
+        <is>
+          <t>WEEWF</t>
+        </is>
+      </c>
+      <c r="I6" s="148" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J6" s="148" t="n"/>
+      <c r="K6" s="148" t="n"/>
+      <c r="L6" s="148" t="inlineStr">
+        <is>
+          <t>D | E</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="148" t="n"/>
+      <c r="B7" s="148" t="inlineStr">
+        <is>
+          <t>JOAOZITO</t>
+        </is>
+      </c>
+      <c r="C7" s="148" t="inlineStr">
         <is>
           <t>222</t>
         </is>
       </c>
-      <c r="L4" s="74" t="inlineStr">
+      <c r="D7" s="148" t="n"/>
+      <c r="E7" s="148" t="n"/>
+      <c r="F7" s="148" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="H5" s="74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I5" s="74" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="L5" s="74" t="inlineStr">
-        <is>
-          <t>D | C</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="H6" s="74" t="inlineStr">
-        <is>
-          <t>PEDRO</t>
-        </is>
-      </c>
-      <c r="I6" s="74" t="inlineStr">
-        <is>
-          <t>888</t>
-        </is>
-      </c>
-      <c r="L6" s="74" t="inlineStr">
-        <is>
-          <t>D:300,00 | C:41,26</t>
+      <c r="G7" s="148" t="n"/>
+      <c r="H7" s="148" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="I7" s="148" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="148" t="n"/>
+      <c r="K7" s="148" t="n"/>
+      <c r="L7" s="148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="76" t="inlineStr">
+        <is>
+          <t>AAAAASS</t>
+        </is>
+      </c>
+      <c r="C8" s="76" t="inlineStr">
+        <is>
+          <t>223333</t>
+        </is>
+      </c>
+      <c r="F8" s="76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H8" s="76" t="inlineStr">
+        <is>
+          <t>JOAOZITO</t>
+        </is>
+      </c>
+      <c r="I8" s="76" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L8" s="76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="76" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C9" s="76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" s="76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H9" s="76" t="inlineStr">
+        <is>
+          <t>AAAAASS</t>
+        </is>
+      </c>
+      <c r="I9" s="76" t="inlineStr">
+        <is>
+          <t>223333</t>
+        </is>
+      </c>
+      <c r="L9" s="76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="76" t="inlineStr">
+        <is>
+          <t>MMMMMMMMMMMM</t>
+        </is>
+      </c>
+      <c r="C10" s="76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="76" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H10" s="76" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="I10" s="76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ABIGOBALDO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D:100,00 | C:48,65</t>
+        </is>
+      </c>
+      <c r="H11" s="76" t="inlineStr">
+        <is>
+          <t>AAAA</t>
+        </is>
+      </c>
+      <c r="I11" s="76" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L11" s="76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" s="76" t="inlineStr">
+        <is>
+          <t>MMMMMMMMMMMM</t>
+        </is>
+      </c>
+      <c r="I12" s="76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" s="76" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3819,277 +4184,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.72" customWidth="1" style="74" min="2" max="2"/>
-    <col width="16.72" customWidth="1" style="74" min="3" max="3"/>
-    <col width="19.28" customWidth="1" style="74" min="5" max="5"/>
-    <col width="15.86" customWidth="1" style="74" min="10" max="10"/>
-    <col width="16.57" customWidth="1" style="74" min="11" max="11"/>
+    <col width="32.72" customWidth="1" style="76" min="2" max="2"/>
+    <col width="16.72" customWidth="1" style="76" min="3" max="3"/>
+    <col width="19.28" customWidth="1" style="76" min="5" max="5"/>
+    <col width="15.86" customWidth="1" style="76" min="10" max="10"/>
+    <col width="16.57" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="88" t="n"/>
-      <c r="B3" s="89" t="n"/>
-      <c r="D3" s="97" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="90" t="n"/>
+      <c r="B3" s="91" t="n"/>
+      <c r="D3" s="99" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="86">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="85" t="n"/>
-      <c r="J3" s="86" t="inlineStr">
+      <c r="I3" s="87" t="n"/>
+      <c r="J3" s="88" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="88" t="n"/>
-      <c r="D4" s="100" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="90" t="n"/>
+      <c r="D4" s="102" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="103">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="88" t="n"/>
-      <c r="H4" s="85" t="n"/>
-      <c r="I4" s="85" t="n"/>
-      <c r="J4" s="89" t="n"/>
+      <c r="G4" s="90" t="n"/>
+      <c r="H4" s="87" t="n"/>
+      <c r="I4" s="87" t="n"/>
+      <c r="J4" s="91" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="88" t="n"/>
-      <c r="D5" s="100" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="90" t="n"/>
+      <c r="D5" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="103">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="74" t="n"/>
-      <c r="H5" s="90" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="F6" s="74" t="n"/>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="F5" s="76" t="n"/>
+      <c r="H5" s="92" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="F6" s="76" t="n"/>
+      <c r="I6" s="93" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="78" t="n"/>
-      <c r="K6" s="92" t="n">
+      <c r="J6" s="80" t="n"/>
+      <c r="K6" s="94" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="F7" s="74" t="n"/>
-      <c r="H7" s="74" t="n"/>
-      <c r="I7" s="91" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="F7" s="76" t="n"/>
+      <c r="H7" s="76" t="n"/>
+      <c r="I7" s="93" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="78" t="n"/>
+      <c r="J7" s="80" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="F8" s="74" t="n"/>
-      <c r="I8" s="93" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="F8" s="76" t="n"/>
+      <c r="I8" s="95" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="78" t="n"/>
-      <c r="K8" s="94" t="n">
+      <c r="J8" s="80" t="n"/>
+      <c r="K8" s="96" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="F9" s="74" t="n"/>
-      <c r="I9" s="91" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="F9" s="76" t="n"/>
+      <c r="I9" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="78" t="n"/>
+      <c r="J9" s="80" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="F10" s="74" t="n"/>
-      <c r="I10" s="91" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="F10" s="76" t="n"/>
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="78" t="n"/>
-      <c r="K10" s="95" t="n">
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="97" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="F11" s="74" t="n"/>
-      <c r="I11" s="91" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="F11" s="76" t="n"/>
+      <c r="I11" s="93" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="78" t="n"/>
-      <c r="K11" s="95" t="n">
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="97" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="F12" s="74" t="n"/>
-      <c r="I12" s="91" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="F12" s="76" t="n"/>
+      <c r="I12" s="93" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="78" t="n"/>
-      <c r="K12" s="96">
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="98">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="F13" s="74" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="F13" s="76" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="98" t="inlineStr">
+      <c r="I13" s="100" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="78" t="n"/>
-      <c r="K13" s="99">
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="F14" s="74" t="n"/>
-      <c r="I14" s="98" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="F14" s="76" t="n"/>
+      <c r="I14" s="100" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="99">
+      <c r="J14" s="80" t="n"/>
+      <c r="K14" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="F15" s="74" t="n"/>
-      <c r="I15" s="104" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="F15" s="76" t="n"/>
+      <c r="I15" s="106" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n"/>
-      <c r="K15" s="103">
+      <c r="J15" s="80" t="n"/>
+      <c r="K15" s="105">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="F16" s="74" t="n"/>
-      <c r="K16" s="89" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="F17" s="74" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="F18" s="74" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="F19" s="74" t="n"/>
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="F16" s="76" t="n"/>
+      <c r="K16" s="91" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="F17" s="76" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="F18" s="76" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="F19" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4126,499 +4491,499 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.57" customWidth="1" style="74" min="2" max="2"/>
-    <col width="18" customWidth="1" style="74" min="3" max="3"/>
-    <col width="10.43" customWidth="1" style="74" min="5" max="5"/>
-    <col width="38.7" customWidth="1" style="74" min="8" max="8"/>
-    <col width="12.57" customWidth="1" style="74" min="10" max="10"/>
-    <col width="17.43" customWidth="1" style="74" min="11" max="11"/>
+    <col width="41.57" customWidth="1" style="76" min="2" max="2"/>
+    <col width="18" customWidth="1" style="76" min="3" max="3"/>
+    <col width="10.43" customWidth="1" style="76" min="5" max="5"/>
+    <col width="38.7" customWidth="1" style="76" min="8" max="8"/>
+    <col width="12.57" customWidth="1" style="76" min="10" max="10"/>
+    <col width="17.43" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="79" t="n">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="inlineStr">
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="76" t="n">
+      <c r="C3" s="78" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="74" t="inlineStr">
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="85" t="n"/>
-      <c r="J3" s="86" t="inlineStr">
+      <c r="I3" s="87" t="n"/>
+      <c r="J3" s="88" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="79" t="n">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="inlineStr">
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="78" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="74" t="inlineStr">
+      <c r="D4" s="78" t="n"/>
+      <c r="E4" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="88" t="n"/>
-      <c r="H4" s="85" t="n"/>
-      <c r="I4" s="85" t="n"/>
-      <c r="J4" s="89" t="n"/>
+      <c r="G4" s="90" t="n"/>
+      <c r="H4" s="87" t="n"/>
+      <c r="I4" s="87" t="n"/>
+      <c r="J4" s="91" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="79" t="n">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="inlineStr">
+      <c r="B5" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="78" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="74" t="inlineStr">
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="90" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="A6" s="79" t="n">
+      <c r="H5" s="92" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="inlineStr">
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="78" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="74" t="inlineStr">
+      <c r="D6" s="78" t="n"/>
+      <c r="E6" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="I6" s="93" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="78" t="n"/>
-      <c r="K6" s="92" t="n">
+      <c r="J6" s="80" t="n"/>
+      <c r="K6" s="94" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="A7" s="79" t="n">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="78" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="74" t="inlineStr">
+      <c r="D7" s="78" t="n"/>
+      <c r="E7" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="91" t="inlineStr">
+      <c r="I7" s="93" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="78" t="n"/>
+      <c r="J7" s="80" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="A8" s="79" t="n">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="A8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="inlineStr">
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="76" t="n">
+      <c r="C8" s="78" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="74" t="inlineStr">
+      <c r="D8" s="78" t="n"/>
+      <c r="E8" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="93" t="inlineStr">
+      <c r="I8" s="95" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="78" t="n"/>
-      <c r="K8" s="94">
+      <c r="J8" s="80" t="n"/>
+      <c r="K8" s="96">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="A9" s="79" t="n">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="A9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="79" t="inlineStr">
+      <c r="B9" s="81" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="78" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="76" t="n"/>
-      <c r="E9" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="74" t="inlineStr">
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="91" t="inlineStr">
+      <c r="I9" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="78" t="n"/>
+      <c r="J9" s="80" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="A10" s="79" t="n">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="A10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="inlineStr">
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="78" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="82" t="n"/>
-      <c r="E10" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="74" t="inlineStr">
+      <c r="D10" s="84" t="n"/>
+      <c r="E10" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="91" t="inlineStr">
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="78" t="n"/>
-      <c r="K10" s="95" t="n">
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="97" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="A11" s="79" t="n">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="A11" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="inlineStr">
+      <c r="B11" s="85" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="78" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="82" t="n"/>
-      <c r="E11" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="74" t="inlineStr">
+      <c r="D11" s="84" t="n"/>
+      <c r="E11" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="91" t="inlineStr">
+      <c r="I11" s="93" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="78" t="n"/>
-      <c r="K11" s="96">
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="98">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="A12" s="79" t="n">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="A12" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="79" t="inlineStr">
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="78" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="76" t="n"/>
-      <c r="E12" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="74" t="inlineStr">
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="98" t="inlineStr">
+      <c r="I12" s="100" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="78" t="n"/>
-      <c r="K12" s="99">
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="101">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="A13" s="79" t="n">
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="A13" s="81" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="79" t="inlineStr">
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="78" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="82" t="n"/>
-      <c r="E13" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="74" t="inlineStr">
+      <c r="D13" s="84" t="n"/>
+      <c r="E13" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="98" t="inlineStr">
+      <c r="I13" s="100" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="78" t="n"/>
-      <c r="K13" s="99">
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="A14" s="79" t="n">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="A14" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="79" t="inlineStr">
+      <c r="B14" s="81" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="76" t="n">
+      <c r="C14" s="78" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="82" t="n"/>
-      <c r="E14" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="74" t="inlineStr">
+      <c r="D14" s="84" t="n"/>
+      <c r="E14" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="104" t="inlineStr">
+      <c r="I14" s="106" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="103">
+      <c r="J14" s="80" t="n"/>
+      <c r="K14" s="105">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="A15" s="88" t="n"/>
-      <c r="B15" s="89" t="n"/>
-      <c r="D15" s="97" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="A15" s="90" t="n"/>
+      <c r="B15" s="91" t="n"/>
+      <c r="D15" s="99" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="86">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="F15" s="74" t="n"/>
-      <c r="K15" s="89" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="A16" s="88" t="n"/>
-      <c r="D16" s="100" t="inlineStr">
+      <c r="F15" s="76" t="n"/>
+      <c r="K15" s="91" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="A16" s="90" t="n"/>
+      <c r="D16" s="102" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="103">
         <f>49*12</f>
         <v/>
       </c>
-      <c r="F16" s="74" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="A17" s="88" t="n"/>
-      <c r="D17" s="100" t="inlineStr">
+      <c r="F16" s="76" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="A17" s="90" t="n"/>
+      <c r="D17" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="101" t="n">
+      <c r="E17" s="103" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F17" s="74" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="F18" s="74" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="F19" s="74" t="n"/>
+      <c r="F17" s="76" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="F18" s="76" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="F19" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4654,321 +5019,321 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.86" customWidth="1" style="74" min="5" max="5"/>
-    <col width="18.14" customWidth="1" style="74" min="10" max="10"/>
-    <col width="14" customWidth="1" style="74" min="11" max="11"/>
+    <col width="13.86" customWidth="1" style="76" min="5" max="5"/>
+    <col width="18.14" customWidth="1" style="76" min="10" max="10"/>
+    <col width="14" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="88" t="n"/>
-      <c r="B3" s="89" t="n"/>
-      <c r="D3" s="97" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="90" t="n"/>
+      <c r="B3" s="91" t="n"/>
+      <c r="D3" s="99" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="86">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="85" t="n"/>
-      <c r="J3" s="86" t="inlineStr">
+      <c r="I3" s="87" t="n"/>
+      <c r="J3" s="88" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="88" t="n"/>
-      <c r="D4" s="100" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="90" t="n"/>
+      <c r="D4" s="102" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="103">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="88" t="n"/>
-      <c r="H4" s="85" t="n"/>
-      <c r="I4" s="85" t="n"/>
-      <c r="J4" s="89" t="n"/>
+      <c r="G4" s="90" t="n"/>
+      <c r="H4" s="87" t="n"/>
+      <c r="I4" s="87" t="n"/>
+      <c r="J4" s="91" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="88" t="n"/>
-      <c r="D5" s="100" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="90" t="n"/>
+      <c r="D5" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="103">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="74" t="n"/>
-      <c r="H5" s="90" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="F6" s="74" t="n"/>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="F5" s="76" t="n"/>
+      <c r="H5" s="92" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="F6" s="76" t="n"/>
+      <c r="I6" s="93" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="78" t="n"/>
-      <c r="K6" s="92" t="n">
+      <c r="J6" s="80" t="n"/>
+      <c r="K6" s="94" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="F7" s="74" t="n"/>
-      <c r="H7" s="74" t="n"/>
-      <c r="I7" s="91" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="F7" s="76" t="n"/>
+      <c r="H7" s="76" t="n"/>
+      <c r="I7" s="93" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="78" t="n"/>
+      <c r="J7" s="80" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="F8" s="74" t="n"/>
-      <c r="I8" s="93" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="F8" s="76" t="n"/>
+      <c r="I8" s="95" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="78" t="n"/>
-      <c r="K8" s="94" t="n">
+      <c r="J8" s="80" t="n"/>
+      <c r="K8" s="96" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="F9" s="74" t="n"/>
-      <c r="I9" s="91" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="F9" s="76" t="n"/>
+      <c r="I9" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="78" t="n"/>
+      <c r="J9" s="80" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="F10" s="74" t="n"/>
-      <c r="I10" s="91" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="F10" s="76" t="n"/>
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="78" t="n"/>
-      <c r="K10" s="95" t="n">
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="97" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="F11" s="74" t="n"/>
-      <c r="I11" s="91" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="F11" s="76" t="n"/>
+      <c r="I11" s="93" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="78" t="n"/>
-      <c r="K11" s="95" t="n">
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="97" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="F12" s="74" t="n"/>
-      <c r="I12" s="91" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="F12" s="76" t="n"/>
+      <c r="I12" s="93" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="78" t="n"/>
-      <c r="K12" s="95" t="n">
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="97" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="F13" s="74" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="F13" s="76" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="91" t="inlineStr">
+      <c r="I13" s="93" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="78" t="n"/>
-      <c r="K13" s="95" t="n">
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="97" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="F14" s="74" t="n"/>
-      <c r="I14" s="91" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="F14" s="76" t="n"/>
+      <c r="I14" s="93" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="95" t="n">
+      <c r="J14" s="80" t="n"/>
+      <c r="K14" s="97" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="F15" s="74" t="n"/>
-      <c r="I15" s="91" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="F15" s="76" t="n"/>
+      <c r="I15" s="93" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n"/>
-      <c r="K15" s="95" t="n">
+      <c r="J15" s="80" t="n"/>
+      <c r="K15" s="97" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="F16" s="74" t="n"/>
-      <c r="I16" s="91" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="F16" s="76" t="n"/>
+      <c r="I16" s="93" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="78" t="n"/>
-      <c r="K16" s="95" t="n">
+      <c r="J16" s="80" t="n"/>
+      <c r="K16" s="97" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="I17" s="91" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="I17" s="93" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="78" t="n"/>
-      <c r="K17" s="96">
+      <c r="J17" s="80" t="n"/>
+      <c r="K17" s="98">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="I18" s="98" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="I18" s="100" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="78" t="n"/>
-      <c r="K18" s="99">
+      <c r="J18" s="80" t="n"/>
+      <c r="K18" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="I19" s="98" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="I19" s="100" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="78" t="n"/>
-      <c r="K19" s="99">
+      <c r="J19" s="80" t="n"/>
+      <c r="K19" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="75">
-      <c r="I20" s="104" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="77">
+      <c r="I20" s="106" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="78" t="n"/>
-      <c r="K20" s="103">
+      <c r="J20" s="80" t="n"/>
+      <c r="K20" s="105">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="75">
-      <c r="K21" s="89" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="77">
+      <c r="K21" s="91" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5010,563 +5375,563 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="74" min="2" max="2"/>
-    <col width="13" customWidth="1" style="74" min="3" max="3"/>
-    <col width="14.58" customWidth="1" style="74" min="5" max="5"/>
-    <col width="12.72" customWidth="1" style="74" min="6" max="6"/>
-    <col width="55" customWidth="1" style="74" min="8" max="8"/>
-    <col width="13" customWidth="1" style="74" min="9" max="9"/>
-    <col width="14.57" customWidth="1" style="74" min="11" max="11"/>
+    <col width="55" customWidth="1" style="76" min="2" max="2"/>
+    <col width="13" customWidth="1" style="76" min="3" max="3"/>
+    <col width="14.58" customWidth="1" style="76" min="5" max="5"/>
+    <col width="12.72" customWidth="1" style="76" min="6" max="6"/>
+    <col width="55" customWidth="1" style="76" min="8" max="8"/>
+    <col width="13" customWidth="1" style="76" min="9" max="9"/>
+    <col width="14.57" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="105" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="107" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Médico 06/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="105" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="107" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Psicológico 06/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="105" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="107" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="105" t="inlineStr">
+      <c r="B2" s="107" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="105" t="inlineStr">
+      <c r="C2" s="107" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="105" t="inlineStr">
+      <c r="D2" s="107" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="105" t="inlineStr">
+      <c r="E2" s="107" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="105" t="inlineStr">
+      <c r="G2" s="107" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="105" t="inlineStr">
+      <c r="H2" s="107" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="105" t="inlineStr">
+      <c r="I2" s="107" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="105" t="inlineStr">
+      <c r="J2" s="107" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="105" t="inlineStr">
+      <c r="K2" s="107" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="79" t="n">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="inlineStr">
+      <c r="B3" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="76" t="n">
+      <c r="C3" s="78" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="106" t="inlineStr">
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="79" t="n">
+      <c r="G3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="81" t="inlineStr">
+      <c r="H3" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="76" t="n">
+      <c r="I3" s="78" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="76" t="n"/>
-      <c r="K3" s="76" t="n">
+      <c r="J3" s="78" t="n"/>
+      <c r="K3" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="106" t="inlineStr">
+      <c r="L3" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="79" t="n">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="81" t="inlineStr">
+      <c r="B4" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="78" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="106" t="inlineStr">
+      <c r="D4" s="78" t="n"/>
+      <c r="E4" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="79" t="n">
+      <c r="G4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="81" t="inlineStr">
+      <c r="H4" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="76" t="n">
+      <c r="I4" s="78" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="76" t="n"/>
-      <c r="K4" s="76" t="n">
+      <c r="J4" s="78" t="n"/>
+      <c r="K4" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="106" t="inlineStr">
+      <c r="L4" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="79" t="n">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="81" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="78" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="106" t="inlineStr">
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="79" t="n">
+      <c r="G5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="81" t="inlineStr">
+      <c r="H5" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="76" t="n">
+      <c r="I5" s="78" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="76" t="n"/>
-      <c r="K5" s="76" t="n">
+      <c r="J5" s="78" t="n"/>
+      <c r="K5" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="106" t="inlineStr">
+      <c r="L5" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="A6" s="79" t="n">
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="inlineStr">
+      <c r="B6" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="78" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="106" t="inlineStr">
+      <c r="D6" s="78" t="n"/>
+      <c r="E6" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="108" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="79" t="n">
+      <c r="G6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="81" t="inlineStr">
+      <c r="H6" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="76" t="n">
+      <c r="I6" s="78" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="76" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="106" t="inlineStr">
+      <c r="L6" s="108" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="A7" s="79" t="n">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="81" t="inlineStr">
+      <c r="B7" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="78" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="106" t="inlineStr">
+      <c r="D7" s="78" t="n"/>
+      <c r="E7" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="108" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="79" t="n">
+      <c r="G7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="81" t="inlineStr">
+      <c r="H7" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="76" t="n">
+      <c r="I7" s="78" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="76" t="n"/>
-      <c r="K7" s="76" t="n">
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="106" t="inlineStr">
+      <c r="L7" s="108" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="A8" s="79" t="n">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="A8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="81" t="inlineStr">
+      <c r="B8" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="76" t="n">
+      <c r="C8" s="78" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="106" t="inlineStr">
+      <c r="D8" s="78" t="n"/>
+      <c r="E8" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="79" t="n">
+      <c r="G8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="81" t="inlineStr">
+      <c r="H8" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="76" t="n">
+      <c r="I8" s="78" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="76" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="106" t="inlineStr">
+      <c r="L8" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="A9" s="79" t="n">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="A9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="81" t="inlineStr">
+      <c r="B9" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="78" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="76" t="n"/>
-      <c r="E9" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="106" t="inlineStr">
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="108" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="79" t="n">
+      <c r="G9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="81" t="inlineStr">
+      <c r="H9" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="76" t="n">
+      <c r="I9" s="78" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="76" t="n"/>
-      <c r="K9" s="76" t="n">
+      <c r="J9" s="78" t="n"/>
+      <c r="K9" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="106" t="inlineStr">
+      <c r="L9" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="A10" s="79" t="n">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="A10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="81" t="inlineStr">
+      <c r="B10" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="78" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="76" t="n"/>
-      <c r="E10" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="106" t="inlineStr">
+      <c r="D10" s="78" t="n"/>
+      <c r="E10" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="79" t="n">
+      <c r="G10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="81" t="inlineStr">
+      <c r="H10" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="76" t="n">
+      <c r="I10" s="78" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="76" t="n"/>
-      <c r="K10" s="76" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="106" t="inlineStr">
+      <c r="L10" s="108" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="A11" s="79" t="n">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="A11" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="81" t="inlineStr">
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="78" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="76" t="n"/>
-      <c r="E11" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="106" t="inlineStr">
+      <c r="D11" s="78" t="n"/>
+      <c r="E11" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="108" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="79" t="n">
+      <c r="G11" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="81" t="inlineStr">
+      <c r="H11" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="76" t="n">
+      <c r="I11" s="78" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="76" t="n"/>
-      <c r="K11" s="76" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="106" t="inlineStr">
+      <c r="L11" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="A12" s="79" t="n">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="A12" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="81" t="inlineStr">
+      <c r="B12" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="78" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="76" t="n"/>
-      <c r="E12" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="106" t="inlineStr">
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="79" t="n">
+      <c r="G12" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="81" t="inlineStr">
+      <c r="H12" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="76" t="n">
+      <c r="I12" s="78" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="76" t="n"/>
-      <c r="K12" s="76" t="n">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="78" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="106" t="inlineStr">
+      <c r="L12" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="A13" s="79" t="n">
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="A13" s="81" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="81" t="inlineStr">
+      <c r="B13" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="78" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="76" t="n"/>
-      <c r="E13" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="106" t="inlineStr">
+      <c r="D13" s="78" t="n"/>
+      <c r="E13" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="85" t="n"/>
-      <c r="J13" s="107" t="inlineStr">
+      <c r="I13" s="87" t="n"/>
+      <c r="J13" s="109" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K13" s="108" t="n">
+      <c r="K13" s="110" t="n">
         <v>1926.1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="A14" s="79" t="n">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="A14" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="81" t="inlineStr">
+      <c r="B14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="76" t="n">
+      <c r="C14" s="78" t="n">
         <v>513760379</v>
       </c>
-      <c r="D14" s="76" t="n"/>
-      <c r="E14" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="106" t="inlineStr">
+      <c r="D14" s="78" t="n"/>
+      <c r="E14" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="108" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G14" s="88" t="n"/>
-      <c r="H14" s="85" t="n"/>
-      <c r="I14" s="85" t="n"/>
-      <c r="J14" s="107" t="inlineStr">
+      <c r="G14" s="90" t="n"/>
+      <c r="H14" s="87" t="n"/>
+      <c r="I14" s="87" t="n"/>
+      <c r="J14" s="109" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
@@ -5575,343 +5940,343 @@
         <v>635</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="A15" s="79" t="n">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="A15" s="81" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="81" t="inlineStr">
+      <c r="B15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="76" t="n">
+      <c r="C15" s="78" t="n">
         <v>513782331</v>
       </c>
-      <c r="D15" s="76" t="n"/>
-      <c r="E15" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="106" t="inlineStr">
+      <c r="D15" s="78" t="n"/>
+      <c r="E15" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="90" t="n"/>
-      <c r="J15" s="107" t="inlineStr">
+      <c r="H15" s="92" t="n"/>
+      <c r="J15" s="109" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K15" s="107" t="n">
+      <c r="K15" s="109" t="n">
         <v>1291.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="A16" s="79" t="n">
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="A16" s="81" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="81" t="inlineStr">
+      <c r="B16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="76" t="n">
+      <c r="C16" s="78" t="n">
         <v>513775191</v>
       </c>
-      <c r="D16" s="76" t="n"/>
-      <c r="E16" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="106" t="inlineStr">
+      <c r="D16" s="78" t="n"/>
+      <c r="E16" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="91" t="n"/>
-      <c r="J16" s="78" t="n"/>
-      <c r="K16" s="92" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="A17" s="79" t="n">
+      <c r="I16" s="93" t="n"/>
+      <c r="J16" s="80" t="n"/>
+      <c r="K16" s="94" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="A17" s="81" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="81" t="inlineStr">
+      <c r="B17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="76" t="n">
+      <c r="C17" s="78" t="n">
         <v>513790578</v>
       </c>
-      <c r="D17" s="76" t="n"/>
-      <c r="E17" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="106" t="inlineStr">
+      <c r="D17" s="78" t="n"/>
+      <c r="E17" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="108" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
       </c>
-      <c r="I17" s="91" t="n"/>
-      <c r="J17" s="78" t="n"/>
-      <c r="K17" s="92" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="A18" s="79" t="n">
+      <c r="I17" s="93" t="n"/>
+      <c r="J17" s="80" t="n"/>
+      <c r="K17" s="94" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="A18" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="81" t="inlineStr">
+      <c r="B18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="76" t="n">
+      <c r="C18" s="78" t="n">
         <v>513721847</v>
       </c>
-      <c r="D18" s="76" t="n"/>
-      <c r="E18" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="106" t="inlineStr">
+      <c r="D18" s="78" t="n"/>
+      <c r="E18" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="93" t="n"/>
-      <c r="J18" s="78" t="n"/>
-      <c r="K18" s="94" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="A19" s="79" t="n">
+      <c r="I18" s="95" t="n"/>
+      <c r="J18" s="80" t="n"/>
+      <c r="K18" s="96" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="A19" s="81" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="81" t="inlineStr">
+      <c r="B19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="76" t="n">
+      <c r="C19" s="78" t="n">
         <v>513782693</v>
       </c>
-      <c r="D19" s="76" t="n"/>
-      <c r="E19" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="106" t="inlineStr">
+      <c r="D19" s="78" t="n"/>
+      <c r="E19" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="91" t="n"/>
-      <c r="J19" s="78" t="n"/>
+      <c r="I19" s="93" t="n"/>
+      <c r="J19" s="80" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="75">
-      <c r="A20" s="79" t="n">
+    <row r="20" ht="15" customHeight="1" s="77">
+      <c r="A20" s="81" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="81" t="inlineStr">
+      <c r="B20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="76" t="n">
+      <c r="C20" s="78" t="n">
         <v>513773401</v>
       </c>
-      <c r="D20" s="76" t="n"/>
-      <c r="E20" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="106" t="inlineStr">
+      <c r="D20" s="78" t="n"/>
+      <c r="E20" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="105" t="inlineStr">
+      <c r="I20" s="107" t="inlineStr">
         <is>
           <t>Atendimento Médico</t>
         </is>
       </c>
-      <c r="J20" s="78" t="n"/>
-      <c r="K20" s="109" t="n">
+      <c r="J20" s="80" t="n"/>
+      <c r="K20" s="111" t="n">
         <v>3270.3</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="75">
-      <c r="A21" s="79" t="n">
+    <row r="21" ht="15" customHeight="1" s="77">
+      <c r="A21" s="81" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="81" t="inlineStr">
+      <c r="B21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="76" t="n">
+      <c r="C21" s="78" t="n">
         <v>513797287</v>
       </c>
-      <c r="D21" s="76" t="n"/>
-      <c r="E21" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="106" t="inlineStr">
+      <c r="D21" s="78" t="n"/>
+      <c r="E21" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I21" s="105" t="inlineStr">
+      <c r="I21" s="107" t="inlineStr">
         <is>
           <t>Atendimento Psicológico</t>
         </is>
       </c>
-      <c r="J21" s="78" t="n"/>
-      <c r="K21" s="110" t="n">
+      <c r="J21" s="80" t="n"/>
+      <c r="K21" s="112" t="n">
         <v>1926.1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="75">
-      <c r="A22" s="79" t="n">
+    <row r="22" ht="15" customHeight="1" s="77">
+      <c r="A22" s="81" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="81" t="inlineStr">
+      <c r="B22" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="76" t="n">
+      <c r="C22" s="78" t="n">
         <v>14091389</v>
       </c>
-      <c r="D22" s="76" t="n"/>
-      <c r="E22" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="106" t="inlineStr">
+      <c r="D22" s="78" t="n"/>
+      <c r="E22" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="111" t="inlineStr">
+      <c r="I22" s="113" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J22" s="78" t="n"/>
-      <c r="K22" s="110" t="n">
+      <c r="J22" s="80" t="n"/>
+      <c r="K22" s="112" t="n">
         <v>5196.4</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="75">
-      <c r="A23" s="79" t="n">
+    <row r="23" ht="15" customHeight="1" s="77">
+      <c r="A23" s="81" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="81" t="inlineStr">
+      <c r="B23" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="112" t="n">
+      <c r="C23" s="114" t="n">
         <v>513791549</v>
       </c>
-      <c r="D23" s="76" t="n"/>
-      <c r="E23" s="76" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="106" t="inlineStr">
+      <c r="D23" s="78" t="n"/>
+      <c r="E23" s="78" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="98" t="n"/>
-      <c r="J23" s="78" t="n"/>
-      <c r="K23" s="99" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="75">
-      <c r="A24" s="88" t="n"/>
-      <c r="B24" s="113" t="inlineStr">
+      <c r="I23" s="100" t="n"/>
+      <c r="J23" s="80" t="n"/>
+      <c r="K23" s="101" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="77">
+      <c r="A24" s="90" t="n"/>
+      <c r="B24" s="115" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="C24" s="106" t="inlineStr">
+      <c r="C24" s="108" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D24" s="100" t="inlineStr">
+      <c r="D24" s="102" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F24" s="106" t="inlineStr">
+      <c r="E24" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F24" s="108" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I24" s="105" t="inlineStr">
+      <c r="I24" s="107" t="inlineStr">
         <is>
           <t>Pagamento Médico</t>
         </is>
       </c>
-      <c r="J24" s="78" t="n"/>
-      <c r="K24" s="109" t="n">
+      <c r="J24" s="80" t="n"/>
+      <c r="K24" s="111" t="n">
         <v>1078</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="75">
-      <c r="A25" s="88" t="n"/>
-      <c r="D25" s="107" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="77">
+      <c r="A25" s="90" t="n"/>
+      <c r="D25" s="109" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E25" s="108" t="n">
+      <c r="E25" s="110" t="n">
         <v>3270.3</v>
       </c>
-      <c r="I25" s="105" t="inlineStr">
+      <c r="I25" s="107" t="inlineStr">
         <is>
           <t>Pagamento Psicológico</t>
         </is>
       </c>
-      <c r="J25" s="78" t="n"/>
-      <c r="K25" s="105" t="n">
+      <c r="J25" s="80" t="n"/>
+      <c r="K25" s="107" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="75">
-      <c r="A26" s="88" t="n"/>
-      <c r="D26" s="107" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="77">
+      <c r="A26" s="90" t="n"/>
+      <c r="D26" s="109" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E26" s="108" t="n">
+      <c r="E26" s="110" t="n">
         <v>1078</v>
       </c>
-      <c r="I26" s="105" t="inlineStr">
+      <c r="I26" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="J26" s="78" t="n"/>
-      <c r="K26" s="105" t="n">
+      <c r="J26" s="80" t="n"/>
+      <c r="K26" s="107" t="n">
         <v>3483.4</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="75">
-      <c r="D27" s="107" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="77">
+      <c r="D27" s="109" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E27" s="107" t="n">
+      <c r="E27" s="109" t="n">
         <v>2192.3</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="75"/>
-    <row r="29" ht="15" customHeight="1" s="75"/>
+    <row r="28" ht="15" customHeight="1" s="77"/>
+    <row r="29" ht="15" customHeight="1" s="77"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="I21:J21"/>
@@ -5948,492 +6313,492 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.86" customWidth="1" style="74" min="2" max="2"/>
-    <col width="13.43" customWidth="1" style="74" min="3" max="3"/>
-    <col width="11.15" customWidth="1" style="74" min="5" max="5"/>
-    <col width="13.86" customWidth="1" style="74" min="10" max="10"/>
-    <col width="13.71" customWidth="1" style="74" min="11" max="11"/>
+    <col width="35.86" customWidth="1" style="76" min="2" max="2"/>
+    <col width="13.43" customWidth="1" style="76" min="3" max="3"/>
+    <col width="11.15" customWidth="1" style="76" min="5" max="5"/>
+    <col width="13.86" customWidth="1" style="76" min="10" max="10"/>
+    <col width="13.71" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="79" t="n">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="inlineStr">
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="76" t="n">
+      <c r="C3" s="78" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="74" t="inlineStr">
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="85" t="n"/>
-      <c r="J3" s="86" t="inlineStr">
+      <c r="I3" s="87" t="n"/>
+      <c r="J3" s="88" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="79" t="n">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="inlineStr">
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="78" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="74" t="inlineStr">
+      <c r="D4" s="78" t="n"/>
+      <c r="E4" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="88" t="n"/>
-      <c r="H4" s="85" t="n"/>
-      <c r="I4" s="85" t="n"/>
-      <c r="J4" s="89" t="n"/>
+      <c r="G4" s="90" t="n"/>
+      <c r="H4" s="87" t="n"/>
+      <c r="I4" s="87" t="n"/>
+      <c r="J4" s="91" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="79" t="n">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="inlineStr">
+      <c r="B5" s="85" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="78" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="74" t="inlineStr">
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="90" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="A6" s="79" t="n">
+      <c r="H5" s="92" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="inlineStr">
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="78" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="74" t="inlineStr">
+      <c r="D6" s="78" t="n"/>
+      <c r="E6" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="I6" s="93" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="78" t="n"/>
-      <c r="K6" s="92">
+      <c r="J6" s="80" t="n"/>
+      <c r="K6" s="94">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="A7" s="79" t="n">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t>FENIX ALEXANDRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="78" t="n">
         <v>513701027</v>
       </c>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="74" t="inlineStr">
+      <c r="D7" s="78" t="n"/>
+      <c r="E7" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H7" s="74" t="n"/>
-      <c r="I7" s="91" t="inlineStr">
+      <c r="H7" s="76" t="n"/>
+      <c r="I7" s="93" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="78" t="n"/>
+      <c r="J7" s="80" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="A8" s="79" t="n">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="A8" s="81" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="inlineStr">
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t>NORMA CELIA NOBRE DE CARVALHO</t>
         </is>
       </c>
-      <c r="C8" s="76" t="inlineStr">
+      <c r="C8" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">513803911	</t>
         </is>
       </c>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="74" t="inlineStr">
+      <c r="D8" s="78" t="n"/>
+      <c r="E8" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I8" s="93" t="inlineStr">
+      <c r="I8" s="95" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="78" t="n"/>
-      <c r="K8" s="94">
+      <c r="J8" s="80" t="n"/>
+      <c r="K8" s="96">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="A9" s="79" t="n">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="A9" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="79" t="inlineStr">
+      <c r="B9" s="81" t="inlineStr">
         <is>
           <t>ANA CRISTINA DE MATOS HORACIO</t>
         </is>
       </c>
-      <c r="C9" s="76" t="n">
+      <c r="C9" s="78" t="n">
         <v>513757236</v>
       </c>
-      <c r="D9" s="76" t="n"/>
-      <c r="E9" s="80" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="74" t="inlineStr">
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="82" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I9" s="91" t="inlineStr">
+      <c r="I9" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="78" t="n"/>
+      <c r="J9" s="80" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="A10" s="79" t="n">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="A10" s="81" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="inlineStr">
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t>CLEIDE COSTA DOS SANTOS GALVAO</t>
         </is>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="78" t="n">
         <v>14085503</v>
       </c>
-      <c r="D10" s="82" t="n"/>
-      <c r="E10" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="74" t="inlineStr">
+      <c r="D10" s="84" t="n"/>
+      <c r="E10" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="I10" s="91" t="inlineStr">
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="78" t="n"/>
-      <c r="K10" s="95" t="n">
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="97" t="n">
         <v>539</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="A11" s="79" t="n">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="A11" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="inlineStr">
+      <c r="B11" s="85" t="inlineStr">
         <is>
           <t>NEIDA GOMES FAGUNDES</t>
         </is>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="78" t="n">
         <v>513797034</v>
       </c>
-      <c r="D11" s="82" t="n"/>
-      <c r="E11" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="74" t="inlineStr">
+      <c r="D11" s="84" t="n"/>
+      <c r="E11" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I11" s="91" t="inlineStr">
+      <c r="I11" s="93" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="78" t="n"/>
-      <c r="K11" s="95" t="n">
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="97" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="A12" s="79" t="n">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="A12" s="81" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="79" t="inlineStr">
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t>JONATAS JOSE DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="76" t="n">
+      <c r="C12" s="78" t="n">
         <v>513801412</v>
       </c>
-      <c r="D12" s="76" t="n"/>
-      <c r="E12" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="74" t="inlineStr">
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="91" t="inlineStr">
+      <c r="I12" s="93" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="78" t="n"/>
-      <c r="K12" s="96">
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="98">
         <f>K8-K10-K9-K11</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="A13" s="79" t="n">
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="A13" s="81" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="79" t="inlineStr">
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t>EDUARDO GOMES DE LIMA</t>
         </is>
       </c>
-      <c r="C13" s="76" t="n">
+      <c r="C13" s="78" t="n">
         <v>513789092</v>
       </c>
-      <c r="D13" s="82" t="n"/>
-      <c r="E13" s="84" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="74" t="inlineStr">
+      <c r="D13" s="84" t="n"/>
+      <c r="E13" s="86" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="98" t="inlineStr">
+      <c r="I13" s="100" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="78" t="n"/>
-      <c r="K13" s="99">
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="101">
         <f>E3+E4+E5+E6+E7+E9+E11+E12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="A14" s="88" t="n"/>
-      <c r="B14" s="89" t="n"/>
-      <c r="D14" s="97" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="A14" s="90" t="n"/>
+      <c r="B14" s="91" t="n"/>
+      <c r="D14" s="99" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="86">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
         <v/>
       </c>
-      <c r="F14" s="74" t="n"/>
-      <c r="I14" s="98" t="inlineStr">
+      <c r="F14" s="76" t="n"/>
+      <c r="I14" s="100" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="99">
+      <c r="J14" s="80" t="n"/>
+      <c r="K14" s="101">
         <f>E10</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="A15" s="88" t="n"/>
-      <c r="D15" s="100" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="A15" s="90" t="n"/>
+      <c r="D15" s="102" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="103">
         <f>49*11</f>
         <v/>
       </c>
-      <c r="F15" s="74" t="n"/>
-      <c r="I15" s="104" t="inlineStr">
+      <c r="F15" s="76" t="n"/>
+      <c r="I15" s="106" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n"/>
-      <c r="K15" s="103">
+      <c r="J15" s="80" t="n"/>
+      <c r="K15" s="105">
         <f>E8+E13</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="A16" s="88" t="n"/>
-      <c r="D16" s="100" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="A16" s="90" t="n"/>
+      <c r="D16" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E16" s="101" t="n">
+      <c r="E16" s="103" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F16" s="74" t="n"/>
-      <c r="K16" s="89" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="F17" s="74" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="F18" s="74" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="F19" s="74" t="n"/>
+      <c r="F16" s="76" t="n"/>
+      <c r="K16" s="91" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="F17" s="76" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="F18" s="76" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="F19" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6470,662 +6835,662 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="43.72" customWidth="1" style="74" min="2" max="2"/>
-    <col width="14.29" customWidth="1" style="74" min="3" max="3"/>
-    <col width="11.57" customWidth="1" style="74" min="5" max="5"/>
-    <col width="30.57" customWidth="1" style="74" min="8" max="8"/>
-    <col width="10.91" customWidth="1" style="74" min="9" max="9"/>
-    <col width="12.57" customWidth="1" style="74" min="10" max="10"/>
-    <col width="12" customWidth="1" style="74" min="11" max="11"/>
+    <col width="43.72" customWidth="1" style="76" min="2" max="2"/>
+    <col width="14.29" customWidth="1" style="76" min="3" max="3"/>
+    <col width="11.57" customWidth="1" style="76" min="5" max="5"/>
+    <col width="30.57" customWidth="1" style="76" min="8" max="8"/>
+    <col width="10.91" customWidth="1" style="76" min="9" max="9"/>
+    <col width="12.57" customWidth="1" style="76" min="10" max="10"/>
+    <col width="12" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 15/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="114" t="n">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="115" t="inlineStr">
+      <c r="B3" s="117" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="C3" s="116" t="n">
+      <c r="C3" s="118" t="n">
         <v>513815864</v>
       </c>
-      <c r="D3" s="115" t="n"/>
+      <c r="D3" s="117" t="n"/>
       <c r="E3" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F3" s="74" t="inlineStr">
+      <c r="F3" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="115" t="n">
+      <c r="G3" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="115" t="inlineStr">
+      <c r="H3" s="117" t="inlineStr">
         <is>
           <t>MAICON ANTONIO DA SILVA</t>
         </is>
       </c>
-      <c r="I3" s="115" t="n">
+      <c r="I3" s="117" t="n">
         <v>14093991</v>
       </c>
-      <c r="J3" s="115" t="n"/>
+      <c r="J3" s="117" t="n"/>
       <c r="K3" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="74" t="inlineStr">
+      <c r="L3" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="114" t="n">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="115" t="inlineStr">
+      <c r="B4" s="117" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="C4" s="116" t="n">
+      <c r="C4" s="118" t="n">
         <v>513805852</v>
       </c>
-      <c r="D4" s="115" t="n"/>
+      <c r="D4" s="117" t="n"/>
       <c r="E4" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F4" s="74" t="inlineStr">
+      <c r="F4" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G4" s="115" t="n">
+      <c r="G4" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="115" t="inlineStr">
+      <c r="H4" s="117" t="inlineStr">
         <is>
           <t>ALINE SOUZA DE SOUZA</t>
         </is>
       </c>
-      <c r="I4" s="115" t="n">
+      <c r="I4" s="117" t="n">
         <v>513815864</v>
       </c>
-      <c r="J4" s="115" t="n"/>
+      <c r="J4" s="117" t="n"/>
       <c r="K4" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="74" t="inlineStr">
+      <c r="L4" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="114" t="n">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="116" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="115" t="inlineStr">
+      <c r="B5" s="117" t="inlineStr">
         <is>
           <t>FELIPE BOMFIM OLIVEIRA DE MELLO</t>
         </is>
       </c>
-      <c r="C5" s="116" t="n">
+      <c r="C5" s="118" t="n">
         <v>513753862</v>
       </c>
-      <c r="D5" s="115" t="n"/>
+      <c r="D5" s="117" t="n"/>
       <c r="E5" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F5" s="74" t="inlineStr">
+      <c r="F5" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="115" t="n">
+      <c r="G5" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="115" t="inlineStr">
+      <c r="H5" s="117" t="inlineStr">
         <is>
           <t>WILSON PINHEIRO</t>
         </is>
       </c>
-      <c r="I5" s="115" t="n">
+      <c r="I5" s="117" t="n">
         <v>513805852</v>
       </c>
-      <c r="J5" s="115" t="n"/>
+      <c r="J5" s="117" t="n"/>
       <c r="K5" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="74" t="inlineStr">
+      <c r="L5" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="A6" s="114" t="n">
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="116" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="115" t="inlineStr">
+      <c r="B6" s="117" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="C6" s="116" t="n">
+      <c r="C6" s="118" t="n">
         <v>513804841</v>
       </c>
-      <c r="D6" s="115" t="n"/>
+      <c r="D6" s="117" t="n"/>
       <c r="E6" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F6" s="74" t="inlineStr">
+      <c r="F6" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G6" s="115" t="n">
+      <c r="G6" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="115" t="inlineStr">
+      <c r="H6" s="117" t="inlineStr">
         <is>
           <t>WILAS DE JESUS PEREIRA</t>
         </is>
       </c>
-      <c r="I6" s="115" t="n">
+      <c r="I6" s="117" t="n">
         <v>513804841</v>
       </c>
-      <c r="J6" s="115" t="n"/>
+      <c r="J6" s="117" t="n"/>
       <c r="K6" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="74" t="inlineStr">
+      <c r="L6" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="A7" s="114" t="n">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="115" t="inlineStr">
+      <c r="B7" s="117" t="inlineStr">
         <is>
           <t>ISABELE BACELAR FERREIRA</t>
         </is>
       </c>
-      <c r="C7" s="116" t="n">
+      <c r="C7" s="118" t="n">
         <v>513778911</v>
       </c>
-      <c r="D7" s="115" t="n"/>
+      <c r="D7" s="117" t="n"/>
       <c r="E7" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F7" s="74" t="inlineStr">
+      <c r="F7" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G7" s="115" t="n">
+      <c r="G7" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="115" t="inlineStr">
+      <c r="H7" s="117" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="I7" s="115" t="n">
+      <c r="I7" s="117" t="n">
         <v>513796122</v>
       </c>
-      <c r="J7" s="115" t="n"/>
+      <c r="J7" s="117" t="n"/>
       <c r="K7" s="46" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="74" t="inlineStr">
+      <c r="L7" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="A8" s="114" t="n">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="A8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="115" t="inlineStr">
+      <c r="B8" s="117" t="inlineStr">
         <is>
           <t>ROBSON PINTO GUEDES</t>
         </is>
       </c>
-      <c r="C8" s="116" t="n">
+      <c r="C8" s="118" t="n">
         <v>513820586</v>
       </c>
-      <c r="D8" s="115" t="n"/>
+      <c r="D8" s="117" t="n"/>
       <c r="E8" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F8" s="74" t="inlineStr">
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="117" t="n"/>
-      <c r="I8" s="117" t="n"/>
-      <c r="J8" s="86" t="inlineStr">
+      <c r="H8" s="119" t="n"/>
+      <c r="I8" s="119" t="n"/>
+      <c r="J8" s="88" t="inlineStr">
         <is>
           <t>soma</t>
         </is>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="89">
         <f>K3+K4+K5+K6+K7</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="A9" s="114" t="n">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="A9" s="116" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="115" t="inlineStr">
+      <c r="B9" s="117" t="inlineStr">
         <is>
           <t>JOAO SOUZA SILVA</t>
         </is>
       </c>
-      <c r="C9" s="116" t="n">
+      <c r="C9" s="118" t="n">
         <v>513751548</v>
       </c>
-      <c r="D9" s="115" t="n"/>
+      <c r="D9" s="117" t="n"/>
       <c r="E9" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F9" s="74" t="inlineStr">
+      <c r="F9" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H9" s="117" t="n"/>
-      <c r="J9" s="74" t="inlineStr">
+      <c r="H9" s="119" t="n"/>
+      <c r="J9" s="76" t="inlineStr">
         <is>
           <t>psicologo</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="A10" s="114" t="n">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="A10" s="116" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="115" t="inlineStr">
+      <c r="B10" s="117" t="inlineStr">
         <is>
           <t>ANDRE MAGALHAES COSTA GOMES</t>
         </is>
       </c>
-      <c r="C10" s="116" t="n">
+      <c r="C10" s="118" t="n">
         <v>513796122</v>
       </c>
-      <c r="D10" s="115" t="n"/>
+      <c r="D10" s="117" t="n"/>
       <c r="E10" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F10" s="74" t="inlineStr">
+      <c r="F10" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="J10" s="74" t="inlineStr">
+      <c r="J10" s="76" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="A11" s="114" t="n">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="A11" s="116" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="115" t="inlineStr">
+      <c r="B11" s="117" t="inlineStr">
         <is>
           <t>LUCAS IBRAHIM SIMOES DE ARAGAO</t>
         </is>
       </c>
-      <c r="C11" s="116" t="n">
+      <c r="C11" s="118" t="n">
         <v>513810027</v>
       </c>
-      <c r="D11" s="118" t="n"/>
+      <c r="D11" s="120" t="n"/>
       <c r="E11" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F11" s="74" t="inlineStr">
+      <c r="F11" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="A12" s="114" t="n">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="A12" s="116" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="115" t="inlineStr">
+      <c r="B12" s="117" t="inlineStr">
         <is>
           <t>JOAO GILBERTO FERREIRA COSTA</t>
         </is>
       </c>
-      <c r="C12" s="116" t="n">
+      <c r="C12" s="118" t="n">
         <v>513806865</v>
       </c>
-      <c r="D12" s="118" t="n"/>
+      <c r="D12" s="120" t="n"/>
       <c r="E12" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F12" s="74" t="inlineStr">
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="A13" s="114" t="n">
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="A13" s="116" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="115" t="inlineStr">
+      <c r="B13" s="117" t="inlineStr">
         <is>
           <t>CARLYLE MAZOLA ALVES DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C13" s="116" t="n">
+      <c r="C13" s="118" t="n">
         <v>513818467</v>
       </c>
-      <c r="D13" s="118" t="n"/>
+      <c r="D13" s="120" t="n"/>
       <c r="E13" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F13" s="74" t="inlineStr">
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="A14" s="114" t="n">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="A14" s="116" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="115" t="inlineStr">
+      <c r="B14" s="117" t="inlineStr">
         <is>
           <t>PAULO AFONSO DO REGO MONTEIRO JUNIOR</t>
         </is>
       </c>
-      <c r="C14" s="119" t="n">
+      <c r="C14" s="121" t="n">
         <v>513799284</v>
       </c>
-      <c r="D14" s="120" t="n"/>
+      <c r="D14" s="122" t="n"/>
       <c r="E14" s="46" t="n">
         <v>148.65</v>
       </c>
-      <c r="F14" s="74" t="inlineStr">
+      <c r="F14" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="A15" s="113" t="n">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="A15" s="115" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="113" t="inlineStr">
+      <c r="B15" s="115" t="inlineStr">
         <is>
           <t>LUCIO DOS REIS GUSMAO ANDRADE</t>
         </is>
       </c>
-      <c r="C15" s="121" t="n">
+      <c r="C15" s="123" t="n">
         <v>14095430</v>
       </c>
-      <c r="D15" s="106" t="n"/>
+      <c r="D15" s="108" t="n"/>
       <c r="E15" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F15" s="74" t="inlineStr">
+      <c r="F15" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I15" s="91" t="inlineStr">
+      <c r="I15" s="93" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n"/>
-      <c r="K15" s="92">
+      <c r="J15" s="80" t="n"/>
+      <c r="K15" s="94">
         <f>E18</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="A16" s="113" t="n">
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="A16" s="115" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="113" t="inlineStr">
+      <c r="B16" s="115" t="inlineStr">
         <is>
           <t>THIAGO SEPULVEDA ABUD</t>
         </is>
       </c>
-      <c r="C16" s="121" t="n">
+      <c r="C16" s="123" t="n">
         <v>513800553</v>
       </c>
-      <c r="D16" s="106" t="n"/>
+      <c r="D16" s="108" t="n"/>
       <c r="E16" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F16" s="74" t="inlineStr">
+      <c r="F16" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I16" s="91" t="inlineStr">
+      <c r="I16" s="93" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J16" s="78" t="n"/>
-      <c r="K16" s="92">
+      <c r="J16" s="80" t="n"/>
+      <c r="K16" s="94">
         <f>K8</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="A17" s="113" t="n">
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="A17" s="115" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="113" t="inlineStr">
+      <c r="B17" s="115" t="inlineStr">
         <is>
           <t>MARCOS GURGEL DE LIMA</t>
         </is>
       </c>
-      <c r="C17" s="121" t="n">
+      <c r="C17" s="123" t="n">
         <v>513794109</v>
       </c>
-      <c r="D17" s="106" t="n"/>
+      <c r="D17" s="108" t="n"/>
       <c r="E17" s="21" t="n">
         <v>148.65</v>
       </c>
-      <c r="F17" s="74" t="inlineStr">
+      <c r="F17" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I17" s="93" t="inlineStr">
+      <c r="I17" s="95" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J17" s="78" t="n"/>
-      <c r="K17" s="94">
+      <c r="J17" s="80" t="n"/>
+      <c r="K17" s="96">
         <f>K15+K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="D18" s="97" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="D18" s="99" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="86">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
         <v/>
       </c>
-      <c r="I18" s="91" t="inlineStr">
+      <c r="I18" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J18" s="78" t="n"/>
+      <c r="J18" s="80" t="n"/>
       <c r="K18" s="21" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="D19" s="100" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="D19" s="102" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="103">
         <f>49*15</f>
         <v/>
       </c>
-      <c r="I19" s="91" t="inlineStr">
+      <c r="I19" s="93" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J19" s="78" t="n"/>
-      <c r="K19" s="95" t="n">
+      <c r="J19" s="80" t="n"/>
+      <c r="K19" s="97" t="n">
         <v>735</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="75">
-      <c r="D20" s="100" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="77">
+      <c r="D20" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="103">
         <f>E18-E19</f>
         <v/>
       </c>
-      <c r="I20" s="91" t="inlineStr">
+      <c r="I20" s="93" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J20" s="78" t="n"/>
-      <c r="K20" s="96">
+      <c r="J20" s="80" t="n"/>
+      <c r="K20" s="98">
         <f>K17-K19-K18</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="75">
-      <c r="I21" s="98" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="77">
+      <c r="I21" s="100" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J21" s="78" t="n"/>
-      <c r="K21" s="99">
+      <c r="J21" s="80" t="n"/>
+      <c r="K21" s="101">
         <f>E3+E5+E7+E8+E11+E14+E15+E16+E17+K4</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="75">
-      <c r="I22" s="98" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="77">
+      <c r="I22" s="100" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J22" s="78" t="n"/>
-      <c r="K22" s="99">
+      <c r="J22" s="80" t="n"/>
+      <c r="K22" s="101">
         <f>E4+E9+E12+E13+K3+K5</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="75">
-      <c r="I23" s="104" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="77">
+      <c r="I23" s="106" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J23" s="78" t="n"/>
-      <c r="K23" s="103">
+      <c r="J23" s="80" t="n"/>
+      <c r="K23" s="105">
         <f>E6+E10+K6+K7</f>
         <v/>
       </c>
@@ -7164,277 +7529,277 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.72" customWidth="1" style="74" min="5" max="5"/>
-    <col width="31.15" customWidth="1" style="74" min="10" max="10"/>
-    <col width="13.86" customWidth="1" style="74" min="11" max="11"/>
+    <col width="11.72" customWidth="1" style="76" min="5" max="5"/>
+    <col width="31.15" customWidth="1" style="76" min="10" max="10"/>
+    <col width="13.86" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 16/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 16/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="76" t="inlineStr">
+      <c r="B2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="76" t="inlineStr">
+      <c r="C2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="76" t="inlineStr">
+      <c r="D2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="76" t="inlineStr">
+      <c r="E2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="76" t="inlineStr">
+      <c r="H2" s="78" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="76" t="inlineStr">
+      <c r="I2" s="78" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="J2" s="78" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="76" t="inlineStr">
+      <c r="K2" s="78" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="88" t="n"/>
-      <c r="B3" s="89" t="n"/>
-      <c r="D3" s="97" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="90" t="n"/>
+      <c r="B3" s="91" t="n"/>
+      <c r="D3" s="99" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="86">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="85" t="n"/>
-      <c r="J3" s="86" t="inlineStr">
+      <c r="I3" s="87" t="n"/>
+      <c r="J3" s="88" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="89">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="88" t="n"/>
-      <c r="D4" s="100" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="90" t="n"/>
+      <c r="D4" s="102" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="103">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="88" t="n"/>
-      <c r="H4" s="85" t="n"/>
-      <c r="I4" s="85" t="n"/>
-      <c r="J4" s="89" t="n"/>
+      <c r="G4" s="90" t="n"/>
+      <c r="H4" s="87" t="n"/>
+      <c r="I4" s="87" t="n"/>
+      <c r="J4" s="91" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="88" t="n"/>
-      <c r="D5" s="100" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="90" t="n"/>
+      <c r="D5" s="102" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="103">
         <f>0</f>
         <v/>
       </c>
-      <c r="F5" s="74" t="n"/>
-      <c r="H5" s="90" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="F6" s="74" t="n"/>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="F5" s="76" t="n"/>
+      <c r="H5" s="92" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="F6" s="76" t="n"/>
+      <c r="I6" s="93" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="78" t="n"/>
-      <c r="K6" s="92" t="n">
+      <c r="J6" s="80" t="n"/>
+      <c r="K6" s="94" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="F7" s="74" t="n"/>
-      <c r="H7" s="74" t="n"/>
-      <c r="I7" s="91" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="F7" s="76" t="n"/>
+      <c r="H7" s="76" t="n"/>
+      <c r="I7" s="93" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="78" t="n"/>
+      <c r="J7" s="80" t="n"/>
       <c r="K7" s="18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="F8" s="74" t="n"/>
-      <c r="I8" s="93" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="F8" s="76" t="n"/>
+      <c r="I8" s="95" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="78" t="n"/>
-      <c r="K8" s="94" t="n">
+      <c r="J8" s="80" t="n"/>
+      <c r="K8" s="96" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="F9" s="74" t="n"/>
-      <c r="I9" s="91" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="F9" s="76" t="n"/>
+      <c r="I9" s="93" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="78" t="n"/>
+      <c r="J9" s="80" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="F10" s="74" t="n"/>
-      <c r="I10" s="91" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="F10" s="76" t="n"/>
+      <c r="I10" s="93" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="78" t="n"/>
-      <c r="K10" s="95" t="n">
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="97" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="F11" s="74" t="n"/>
-      <c r="I11" s="91" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="F11" s="76" t="n"/>
+      <c r="I11" s="93" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 604 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J11" s="78" t="n"/>
-      <c r="K11" s="95" t="n">
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="97" t="n">
         <v>64.39</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="F12" s="74" t="n"/>
-      <c r="I12" s="91" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="F12" s="76" t="n"/>
+      <c r="I12" s="93" t="inlineStr">
         <is>
           <t>PAG. CONTA DE LUZ SALA 605 (VENC.08/10)</t>
         </is>
       </c>
-      <c r="J12" s="78" t="n"/>
-      <c r="K12" s="95" t="n">
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="97" t="n">
         <v>64.81</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="F13" s="74" t="n"/>
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="F13" s="76" t="n"/>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="91" t="inlineStr">
+      <c r="I13" s="93" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J13" s="78" t="n"/>
-      <c r="K13" s="96">
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="98">
         <f>K8-K10-K9-K11-K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="F14" s="74" t="n"/>
-      <c r="I14" s="98" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="F14" s="76" t="n"/>
+      <c r="I14" s="100" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n"/>
-      <c r="K14" s="99">
+      <c r="J14" s="80" t="n"/>
+      <c r="K14" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="F15" s="74" t="n"/>
-      <c r="I15" s="98" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="F15" s="76" t="n"/>
+      <c r="I15" s="100" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n"/>
-      <c r="K15" s="99">
+      <c r="J15" s="80" t="n"/>
+      <c r="K15" s="101">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="F16" s="74" t="n"/>
-      <c r="I16" s="104" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="F16" s="76" t="n"/>
+      <c r="I16" s="106" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J16" s="78" t="n"/>
-      <c r="K16" s="103">
+      <c r="J16" s="80" t="n"/>
+      <c r="K16" s="105">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="K17" s="89" t="n"/>
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="K17" s="91" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7472,556 +7837,556 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="37.3" customWidth="1" style="74" min="2" max="2"/>
-    <col width="11.72" customWidth="1" style="74" min="3" max="3"/>
-    <col width="8.699999999999999" customWidth="1" style="74" min="5" max="5"/>
-    <col width="29.3" customWidth="1" style="74" min="8" max="8"/>
-    <col width="15.44" customWidth="1" style="74" min="9" max="9"/>
-    <col width="22" customWidth="1" style="74" min="10" max="10"/>
-    <col width="8.33" customWidth="1" style="74" min="11" max="11"/>
+    <col width="37.3" customWidth="1" style="76" min="2" max="2"/>
+    <col width="11.72" customWidth="1" style="76" min="3" max="3"/>
+    <col width="8.699999999999999" customWidth="1" style="76" min="5" max="5"/>
+    <col width="29.3" customWidth="1" style="76" min="8" max="8"/>
+    <col width="15.44" customWidth="1" style="76" min="9" max="9"/>
+    <col width="22" customWidth="1" style="76" min="10" max="10"/>
+    <col width="8.33" customWidth="1" style="76" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="75">
-      <c r="A1" s="76" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="77">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 17/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="77" t="n"/>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
-      <c r="E1" s="78" t="n"/>
-      <c r="G1" s="76" t="inlineStr">
+      <c r="B1" s="79" t="n"/>
+      <c r="C1" s="79" t="n"/>
+      <c r="D1" s="79" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="G1" s="78" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 17/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="77" t="n"/>
-      <c r="I1" s="77" t="n"/>
-      <c r="J1" s="77" t="n"/>
-      <c r="K1" s="78" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="75">
-      <c r="A2" s="79" t="inlineStr">
+      <c r="H1" s="79" t="n"/>
+      <c r="I1" s="79" t="n"/>
+      <c r="J1" s="79" t="n"/>
+      <c r="K1" s="80" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="77">
+      <c r="A2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="81" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="81" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="81" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="81" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="74" t="n"/>
-      <c r="G2" s="79" t="inlineStr">
+      <c r="F2" s="76" t="n"/>
+      <c r="G2" s="81" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="81" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="81" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="81" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="81" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="75">
-      <c r="A3" s="79" t="n"/>
-      <c r="B3" s="79" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="77">
+      <c r="A3" s="81" t="n"/>
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t>SOFIA ALMEIDA FERREIRA</t>
         </is>
       </c>
-      <c r="C3" s="76" t="inlineStr">
+      <c r="C3" s="78" t="inlineStr">
         <is>
           <t>513641554</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="80" t="n"/>
-      <c r="F3" s="74" t="inlineStr">
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="82" t="n"/>
+      <c r="F3" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="74" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
+      <c r="G3" s="76" t="n"/>
+      <c r="H3" s="76" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="I3" s="88" t="inlineStr">
+      <c r="I3" s="90" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="J3" s="122" t="n"/>
-      <c r="K3" s="87" t="n"/>
-      <c r="L3" s="74" t="inlineStr">
+      <c r="J3" s="124" t="n"/>
+      <c r="K3" s="89" t="n"/>
+      <c r="L3" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="75">
-      <c r="A4" s="79" t="n"/>
-      <c r="B4" s="79" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="77">
+      <c r="A4" s="81" t="n"/>
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t>ANA CRISTINA LEONE RIOS</t>
         </is>
       </c>
-      <c r="C4" s="76" t="inlineStr">
+      <c r="C4" s="78" t="inlineStr">
         <is>
           <t>513835235</t>
         </is>
       </c>
-      <c r="D4" s="76" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="74" t="inlineStr">
+      <c r="D4" s="78" t="n"/>
+      <c r="E4" s="82" t="n"/>
+      <c r="F4" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="88" t="n"/>
-      <c r="H4" s="88" t="inlineStr">
+      <c r="G4" s="90" t="n"/>
+      <c r="H4" s="90" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="I4" s="88" t="inlineStr">
+      <c r="I4" s="90" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="J4" s="89" t="n"/>
+      <c r="J4" s="91" t="n"/>
       <c r="K4" s="14" t="n"/>
-      <c r="L4" s="74" t="inlineStr">
+      <c r="L4" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
-      <c r="A5" s="79" t="n"/>
-      <c r="B5" s="83" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="77">
+      <c r="A5" s="81" t="n"/>
+      <c r="B5" s="85" t="inlineStr">
         <is>
           <t>ROBSON OLIVEIRA DE ARAUJO</t>
         </is>
       </c>
-      <c r="C5" s="76" t="inlineStr">
+      <c r="C5" s="78" t="inlineStr">
         <is>
           <t>513808652</t>
         </is>
       </c>
-      <c r="D5" s="76" t="n"/>
-      <c r="E5" s="80" t="n"/>
-      <c r="F5" s="74" t="inlineStr">
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="82" t="n"/>
+      <c r="F5" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G5" s="74" t="n"/>
-      <c r="H5" s="88" t="n"/>
-      <c r="L5" s="74" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="75">
-      <c r="A6" s="79" t="n"/>
-      <c r="B6" s="79" t="inlineStr">
+      <c r="G5" s="76" t="n"/>
+      <c r="H5" s="90" t="n"/>
+      <c r="L5" s="76" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="77">
+      <c r="A6" s="81" t="n"/>
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t>HAMILTON CHAVES SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="76" t="inlineStr">
+      <c r="C6" s="78" t="inlineStr">
         <is>
           <t>513818762</t>
         </is>
       </c>
-      <c r="D6" s="76" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="74" t="inlineStr">
+      <c r="D6" s="78" t="n"/>
+      <c r="E6" s="82" t="n"/>
+      <c r="F6" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="74" t="n"/>
-      <c r="H6" s="74" t="inlineStr">
+      <c r="G6" s="76" t="n"/>
+      <c r="H6" s="76" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="I6" s="113" t="inlineStr">
+      <c r="I6" s="115" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="J6" s="123" t="n"/>
-      <c r="K6" s="124" t="n"/>
-      <c r="L6" s="74" t="inlineStr">
+      <c r="J6" s="125" t="n"/>
+      <c r="K6" s="126" t="n"/>
+      <c r="L6" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="75">
-      <c r="A7" s="79" t="n"/>
-      <c r="B7" s="79" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="77">
+      <c r="A7" s="81" t="n"/>
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t>DEIVISON ARAUJO COSTA</t>
         </is>
       </c>
-      <c r="C7" s="76" t="inlineStr">
+      <c r="C7" s="78" t="inlineStr">
         <is>
           <t>513828885</t>
         </is>
       </c>
-      <c r="D7" s="76" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="74" t="inlineStr">
+      <c r="D7" s="78" t="n"/>
+      <c r="E7" s="82" t="n"/>
+      <c r="F7" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="74" t="n"/>
-      <c r="I7" s="113" t="n"/>
-      <c r="J7" s="123" t="n"/>
+      <c r="G7" s="76" t="n"/>
+      <c r="I7" s="115" t="n"/>
+      <c r="J7" s="125" t="n"/>
       <c r="K7" s="55" t="n"/>
-      <c r="L7" s="74" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="75">
-      <c r="A8" s="79" t="n"/>
-      <c r="B8" s="79" t="inlineStr">
+      <c r="L7" s="76" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="77">
+      <c r="A8" s="81" t="n"/>
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t>MARIANNE ESPINDOLA LEFUNDES</t>
         </is>
       </c>
-      <c r="C8" s="76" t="inlineStr">
+      <c r="C8" s="78" t="inlineStr">
         <is>
           <t>513717741</t>
         </is>
       </c>
-      <c r="D8" s="76" t="n"/>
-      <c r="E8" s="80" t="n"/>
-      <c r="F8" s="74" t="inlineStr">
+      <c r="D8" s="78" t="n"/>
+      <c r="E8" s="82" t="n"/>
+      <c r="F8" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="74" t="n"/>
-      <c r="I8" s="113" t="n"/>
-      <c r="J8" s="123" t="n"/>
-      <c r="K8" s="94" t="n"/>
-      <c r="L8" s="74" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="75">
-      <c r="A9" s="79" t="n"/>
-      <c r="B9" s="79" t="n"/>
-      <c r="C9" s="76" t="n"/>
-      <c r="D9" s="76" t="n"/>
-      <c r="E9" s="80" t="n"/>
-      <c r="F9" s="74" t="n"/>
-      <c r="G9" s="74" t="n"/>
-      <c r="I9" s="113" t="n"/>
-      <c r="J9" s="123" t="n"/>
+      <c r="G8" s="76" t="n"/>
+      <c r="I8" s="115" t="n"/>
+      <c r="J8" s="125" t="n"/>
+      <c r="K8" s="96" t="n"/>
+      <c r="L8" s="76" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="77">
+      <c r="A9" s="81" t="n"/>
+      <c r="B9" s="81" t="n"/>
+      <c r="C9" s="78" t="n"/>
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="82" t="n"/>
+      <c r="F9" s="76" t="n"/>
+      <c r="G9" s="76" t="n"/>
+      <c r="I9" s="115" t="n"/>
+      <c r="J9" s="125" t="n"/>
       <c r="K9" s="21" t="n"/>
-      <c r="L9" s="74" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="75">
-      <c r="A10" s="79" t="n"/>
-      <c r="B10" s="79" t="inlineStr">
+      <c r="L9" s="76" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="77">
+      <c r="A10" s="81" t="n"/>
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t>RENATA DE JESUS SALES</t>
         </is>
       </c>
-      <c r="C10" s="76" t="inlineStr">
+      <c r="C10" s="78" t="inlineStr">
         <is>
           <t>513831409</t>
         </is>
       </c>
-      <c r="D10" s="82" t="n"/>
-      <c r="E10" s="84" t="n"/>
-      <c r="F10" s="74" t="inlineStr">
+      <c r="D10" s="84" t="n"/>
+      <c r="E10" s="86" t="n"/>
+      <c r="F10" s="76" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G10" s="74" t="n"/>
-      <c r="I10" s="113" t="n"/>
-      <c r="J10" s="123" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="74" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="75">
-      <c r="A11" s="79" t="n"/>
-      <c r="B11" s="83" t="inlineStr">
+      <c r="G10" s="76" t="n"/>
+      <c r="I10" s="115" t="n"/>
+      <c r="J10" s="125" t="n"/>
+      <c r="K10" s="97" t="n"/>
+      <c r="L10" s="76" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="77">
+      <c r="A11" s="81" t="n"/>
+      <c r="B11" s="85" t="inlineStr">
         <is>
           <t>ARTUR PRUST SALIBA</t>
         </is>
       </c>
-      <c r="C11" s="76" t="inlineStr">
+      <c r="C11" s="78" t="inlineStr">
         <is>
           <t>513753012</t>
         </is>
       </c>
-      <c r="D11" s="82" t="n"/>
-      <c r="E11" s="84" t="n"/>
-      <c r="F11" s="74" t="inlineStr">
+      <c r="D11" s="84" t="n"/>
+      <c r="E11" s="86" t="n"/>
+      <c r="F11" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="74" t="n"/>
-      <c r="I11" s="113" t="n"/>
-      <c r="J11" s="123" t="n"/>
-      <c r="K11" s="95" t="n"/>
-      <c r="L11" s="74" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="75">
-      <c r="A12" s="88" t="n"/>
-      <c r="B12" s="79" t="inlineStr">
+      <c r="G11" s="76" t="n"/>
+      <c r="I11" s="115" t="n"/>
+      <c r="J11" s="125" t="n"/>
+      <c r="K11" s="97" t="n"/>
+      <c r="L11" s="76" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="77">
+      <c r="A12" s="90" t="n"/>
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t>CAROLINA GALVAO BROCHADO DA SILVA</t>
         </is>
       </c>
-      <c r="C12" s="76" t="inlineStr">
+      <c r="C12" s="78" t="inlineStr">
         <is>
           <t>513830449</t>
         </is>
       </c>
-      <c r="D12" s="76" t="n"/>
-      <c r="E12" s="84" t="n"/>
-      <c r="F12" s="74" t="inlineStr">
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="86" t="n"/>
+      <c r="F12" s="76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G12" s="74" t="n"/>
-      <c r="I12" s="113" t="n"/>
-      <c r="J12" s="123" t="n"/>
-      <c r="K12" s="95" t="n"/>
-      <c r="L12" s="74" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="75">
-      <c r="A13" s="88" t="n"/>
-      <c r="B13" s="79" t="inlineStr">
+      <c r="G12" s="76" t="n"/>
+      <c r="I12" s="115" t="n"/>
+      <c r="J12" s="125" t="n"/>
+      <c r="K12" s="97" t="n"/>
+      <c r="L12" s="76" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="77">
+      <c r="A13" s="90" t="n"/>
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t>OCIMAR CONCEICAO LOPES</t>
         </is>
       </c>
-      <c r="C13" s="76" t="inlineStr">
+      <c r="C13" s="78" t="inlineStr">
         <is>
           <t>513811277</t>
         </is>
       </c>
-      <c r="D13" s="82" t="n"/>
-      <c r="E13" s="84" t="n"/>
-      <c r="F13" s="74" t="inlineStr">
+      <c r="D13" s="84" t="n"/>
+      <c r="E13" s="86" t="n"/>
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="113" t="n"/>
-      <c r="J13" s="123" t="n"/>
-      <c r="K13" s="96" t="n"/>
-      <c r="L13" s="74" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="75">
-      <c r="A14" s="88" t="n"/>
-      <c r="B14" s="74" t="inlineStr">
+      <c r="I13" s="115" t="n"/>
+      <c r="J13" s="125" t="n"/>
+      <c r="K13" s="98" t="n"/>
+      <c r="L13" s="76" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="77">
+      <c r="A14" s="90" t="n"/>
+      <c r="B14" s="76" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C14" s="74" t="inlineStr">
+      <c r="C14" s="76" t="inlineStr">
         <is>
           <t>89999</t>
         </is>
       </c>
-      <c r="D14" s="125" t="n"/>
-      <c r="E14" s="126" t="n"/>
-      <c r="F14" s="74" t="inlineStr">
+      <c r="D14" s="127" t="n"/>
+      <c r="E14" s="128" t="n"/>
+      <c r="F14" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G14" s="74" t="n"/>
-      <c r="I14" s="127" t="n"/>
-      <c r="J14" s="123" t="n"/>
-      <c r="K14" s="99" t="n"/>
-      <c r="L14" s="74" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="75">
-      <c r="A15" s="74" t="n"/>
-      <c r="B15" s="74" t="inlineStr">
+      <c r="G14" s="76" t="n"/>
+      <c r="I14" s="129" t="n"/>
+      <c r="J14" s="125" t="n"/>
+      <c r="K14" s="101" t="n"/>
+      <c r="L14" s="76" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="77">
+      <c r="A15" s="76" t="n"/>
+      <c r="B15" s="76" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C15" s="74" t="inlineStr">
+      <c r="C15" s="76" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D15" s="74" t="n"/>
-      <c r="F15" s="74" t="inlineStr">
+      <c r="D15" s="76" t="n"/>
+      <c r="F15" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">D: </t>
         </is>
       </c>
-      <c r="G15" s="74" t="n"/>
-      <c r="I15" s="127" t="n"/>
-      <c r="J15" s="123" t="n"/>
-      <c r="K15" s="99" t="n"/>
-      <c r="L15" s="74" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="75">
-      <c r="A16" s="74" t="n"/>
-      <c r="D16" s="74" t="n"/>
-      <c r="F16" s="74" t="n"/>
-      <c r="G16" s="74" t="n"/>
-      <c r="I16" s="128" t="n"/>
-      <c r="J16" s="123" t="n"/>
-      <c r="K16" s="103" t="n"/>
-      <c r="L16" s="74" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="75">
-      <c r="A17" s="74" t="n"/>
-      <c r="D17" s="74" t="n"/>
-      <c r="F17" s="74" t="n"/>
-      <c r="G17" s="74" t="n"/>
-      <c r="K17" s="89" t="n"/>
-      <c r="L17" s="74" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="75">
-      <c r="A18" s="74" t="n"/>
-      <c r="D18" s="74" t="n"/>
-      <c r="F18" s="74" t="n"/>
-      <c r="G18" s="74" t="n"/>
-      <c r="L18" s="74" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="75">
-      <c r="A19" s="74" t="n"/>
-      <c r="D19" s="74" t="n"/>
-      <c r="F19" s="74" t="n"/>
-      <c r="G19" s="74" t="n"/>
-      <c r="L19" s="74" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="75">
-      <c r="A20" s="74" t="n"/>
-      <c r="D20" s="74" t="n"/>
-      <c r="F20" s="74" t="n"/>
-      <c r="G20" s="74" t="n"/>
-      <c r="L20" s="74" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="75">
-      <c r="A21" s="74" t="n"/>
-      <c r="D21" s="74" t="n"/>
-      <c r="F21" s="74" t="n"/>
-      <c r="G21" s="74" t="n"/>
-      <c r="L21" s="74" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="75">
-      <c r="A22" s="74" t="n"/>
-      <c r="D22" s="74" t="n"/>
-      <c r="F22" s="74" t="n"/>
-      <c r="G22" s="74" t="n"/>
-      <c r="L22" s="74" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="75">
-      <c r="A23" s="74" t="n"/>
-      <c r="D23" s="74" t="n"/>
-      <c r="F23" s="74" t="n"/>
-      <c r="G23" s="74" t="n"/>
-      <c r="L23" s="74" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="75">
-      <c r="A24" s="74" t="n"/>
-      <c r="D24" s="74" t="n"/>
-      <c r="F24" s="74" t="n"/>
-      <c r="G24" s="74" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="75">
-      <c r="A25" s="74" t="n"/>
-      <c r="D25" s="74" t="n"/>
-      <c r="F25" s="74" t="n"/>
-      <c r="G25" s="74" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="75">
-      <c r="A26" s="74" t="n"/>
-      <c r="D26" s="74" t="n"/>
-      <c r="F26" s="74" t="n"/>
-      <c r="G26" s="74" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="75">
-      <c r="A27" s="74" t="n"/>
-      <c r="D27" s="74" t="n"/>
-      <c r="F27" s="74" t="n"/>
-      <c r="G27" s="74" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="75">
-      <c r="A28" s="74" t="n"/>
-      <c r="D28" s="74" t="n"/>
-      <c r="F28" s="74" t="n"/>
-      <c r="G28" s="74" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="75">
-      <c r="A29" s="74" t="n"/>
-      <c r="D29" s="74" t="n"/>
-      <c r="F29" s="74" t="n"/>
-      <c r="G29" s="74" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="75">
-      <c r="A30" s="74" t="n"/>
-      <c r="D30" s="74" t="n"/>
-      <c r="F30" s="74" t="n"/>
-      <c r="G30" s="74" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="75">
-      <c r="A31" s="74" t="n"/>
-      <c r="D31" s="74" t="n"/>
-      <c r="F31" s="74" t="n"/>
-      <c r="G31" s="74" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="75">
-      <c r="A32" s="74" t="n"/>
-      <c r="D32" s="74" t="n"/>
-      <c r="F32" s="74" t="n"/>
-      <c r="G32" s="74" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="75">
-      <c r="A33" s="74" t="n"/>
-      <c r="D33" s="74" t="n"/>
-      <c r="F33" s="74" t="n"/>
-      <c r="G33" s="74" t="n"/>
+      <c r="G15" s="76" t="n"/>
+      <c r="I15" s="129" t="n"/>
+      <c r="J15" s="125" t="n"/>
+      <c r="K15" s="101" t="n"/>
+      <c r="L15" s="76" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="77">
+      <c r="A16" s="76" t="n"/>
+      <c r="D16" s="76" t="n"/>
+      <c r="F16" s="76" t="n"/>
+      <c r="G16" s="76" t="n"/>
+      <c r="I16" s="130" t="n"/>
+      <c r="J16" s="125" t="n"/>
+      <c r="K16" s="105" t="n"/>
+      <c r="L16" s="76" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="77">
+      <c r="A17" s="76" t="n"/>
+      <c r="D17" s="76" t="n"/>
+      <c r="F17" s="76" t="n"/>
+      <c r="G17" s="76" t="n"/>
+      <c r="K17" s="91" t="n"/>
+      <c r="L17" s="76" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="77">
+      <c r="A18" s="76" t="n"/>
+      <c r="D18" s="76" t="n"/>
+      <c r="F18" s="76" t="n"/>
+      <c r="G18" s="76" t="n"/>
+      <c r="L18" s="76" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="77">
+      <c r="A19" s="76" t="n"/>
+      <c r="D19" s="76" t="n"/>
+      <c r="F19" s="76" t="n"/>
+      <c r="G19" s="76" t="n"/>
+      <c r="L19" s="76" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="77">
+      <c r="A20" s="76" t="n"/>
+      <c r="D20" s="76" t="n"/>
+      <c r="F20" s="76" t="n"/>
+      <c r="G20" s="76" t="n"/>
+      <c r="L20" s="76" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="77">
+      <c r="A21" s="76" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="F21" s="76" t="n"/>
+      <c r="G21" s="76" t="n"/>
+      <c r="L21" s="76" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="77">
+      <c r="A22" s="76" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="F22" s="76" t="n"/>
+      <c r="G22" s="76" t="n"/>
+      <c r="L22" s="76" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="77">
+      <c r="A23" s="76" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="F23" s="76" t="n"/>
+      <c r="G23" s="76" t="n"/>
+      <c r="L23" s="76" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="77">
+      <c r="A24" s="76" t="n"/>
+      <c r="D24" s="76" t="n"/>
+      <c r="F24" s="76" t="n"/>
+      <c r="G24" s="76" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="77">
+      <c r="A25" s="76" t="n"/>
+      <c r="D25" s="76" t="n"/>
+      <c r="F25" s="76" t="n"/>
+      <c r="G25" s="76" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="77">
+      <c r="A26" s="76" t="n"/>
+      <c r="D26" s="76" t="n"/>
+      <c r="F26" s="76" t="n"/>
+      <c r="G26" s="76" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="77">
+      <c r="A27" s="76" t="n"/>
+      <c r="D27" s="76" t="n"/>
+      <c r="F27" s="76" t="n"/>
+      <c r="G27" s="76" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="77">
+      <c r="A28" s="76" t="n"/>
+      <c r="D28" s="76" t="n"/>
+      <c r="F28" s="76" t="n"/>
+      <c r="G28" s="76" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="77">
+      <c r="A29" s="76" t="n"/>
+      <c r="D29" s="76" t="n"/>
+      <c r="F29" s="76" t="n"/>
+      <c r="G29" s="76" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="77">
+      <c r="A30" s="76" t="n"/>
+      <c r="D30" s="76" t="n"/>
+      <c r="F30" s="76" t="n"/>
+      <c r="G30" s="76" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="77">
+      <c r="A31" s="76" t="n"/>
+      <c r="D31" s="76" t="n"/>
+      <c r="F31" s="76" t="n"/>
+      <c r="G31" s="76" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="77">
+      <c r="A32" s="76" t="n"/>
+      <c r="D32" s="76" t="n"/>
+      <c r="F32" s="76" t="n"/>
+      <c r="G32" s="76" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="77">
+      <c r="A33" s="76" t="n"/>
+      <c r="D33" s="76" t="n"/>
+      <c r="F33" s="76" t="n"/>
+      <c r="G33" s="76" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -3777,21 +3777,21 @@
           <t>(Usuário) Atendimento Médico 08/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="150" t="n"/>
-      <c r="C1" s="150" t="n"/>
-      <c r="D1" s="150" t="n"/>
-      <c r="E1" s="150" t="n"/>
-      <c r="F1" s="151" t="n"/>
+      <c r="B1" s="80" t="n"/>
+      <c r="C1" s="80" t="n"/>
+      <c r="D1" s="80" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="F1" s="81" t="n"/>
       <c r="G1" s="149" t="inlineStr">
         <is>
           <t>(Usuário) Atendimento Psicológico 08/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="150" t="n"/>
-      <c r="I1" s="150" t="n"/>
-      <c r="J1" s="150" t="n"/>
-      <c r="K1" s="150" t="n"/>
-      <c r="L1" s="151" t="n"/>
+      <c r="H1" s="80" t="n"/>
+      <c r="I1" s="80" t="n"/>
+      <c r="J1" s="80" t="n"/>
+      <c r="K1" s="81" t="n"/>
+      <c r="L1" s="81" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" s="78">
       <c r="A2" s="149" t="inlineStr">
@@ -4555,8 +4555,16 @@
     </row>
     <row r="18" ht="15" customHeight="1" s="78">
       <c r="A18" s="152" t="n"/>
-      <c r="B18" s="152" t="n"/>
-      <c r="C18" s="152" t="n"/>
+      <c r="B18" s="152" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="C18" s="152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D18" s="152" t="inlineStr">
         <is>
           <t>Soma</t>
@@ -4565,7 +4573,11 @@
       <c r="E18" s="154" t="n">
         <v>2229.75</v>
       </c>
-      <c r="F18" s="152" t="n"/>
+      <c r="F18" s="152" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="G18" s="152" t="n">
         <v>16</v>
       </c>
@@ -4587,8 +4599,16 @@
     </row>
     <row r="19" ht="15" customHeight="1" s="78">
       <c r="A19" s="152" t="n"/>
-      <c r="B19" s="152" t="n"/>
-      <c r="C19" s="154" t="n"/>
+      <c r="B19" s="152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C19" s="154" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="D19" s="152" t="inlineStr">
         <is>
           <t>Médico</t>
@@ -4597,7 +4617,11 @@
       <c r="E19" s="154" t="n">
         <v>735</v>
       </c>
-      <c r="F19" s="152" t="n"/>
+      <c r="F19" s="152" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="G19" s="152" t="n">
         <v>17</v>
       </c>
@@ -4639,8 +4663,16 @@
       </c>
       <c r="F20" s="152" t="n"/>
       <c r="G20" s="152" t="n"/>
-      <c r="H20" s="152" t="n"/>
-      <c r="I20" s="154" t="n"/>
+      <c r="H20" s="152" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="I20" s="154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J20" s="152" t="inlineStr">
         <is>
           <t>Soma</t>
@@ -4649,7 +4681,11 @@
       <c r="K20" s="154" t="n">
         <v>3274.37</v>
       </c>
-      <c r="L20" s="152" t="n"/>
+      <c r="L20" s="152" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="78">
       <c r="A21" s="152" t="n"/>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -2003,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.11328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
@@ -3753,139 +3753,759 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B2:L6"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="44.6" customWidth="1" style="74" min="2" max="2"/>
     <col width="19.36" customWidth="1" style="74" min="6" max="6"/>
+    <col width="37.99" customWidth="1" style="74" min="8" max="8"/>
     <col width="15.81" customWidth="1" style="74" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="75"/>
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
+        <is>
+          <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
+        </is>
+      </c>
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
+        <is>
+          <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
     <row r="2" ht="13.5" customHeight="1" s="75">
-      <c r="C2" s="74" t="n"/>
-      <c r="F2" s="74" t="n"/>
+      <c r="A2" s="79" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="B2" s="76" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C2" s="76" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="D2" s="76" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="E2" s="76" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="G2" s="79" t="inlineStr">
+        <is>
+          <t>Ordem</t>
+        </is>
+      </c>
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="I2" s="76" t="inlineStr">
+        <is>
+          <t>Renach</t>
+        </is>
+      </c>
+      <c r="J2" s="76" t="inlineStr">
+        <is>
+          <t>Reexames</t>
+        </is>
+      </c>
+      <c r="K2" s="76" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" s="75">
-      <c r="B3" s="74" t="inlineStr">
-        <is>
-          <t>JOANA</t>
-        </is>
-      </c>
-      <c r="C3" s="74" t="inlineStr">
-        <is>
-          <t>232322</t>
-        </is>
-      </c>
-      <c r="F3" s="74" t="inlineStr">
-        <is>
-          <t>D:300,00 | C:41,26</t>
-        </is>
-      </c>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>JOANA</t>
-        </is>
-      </c>
-      <c r="I3" s="74" t="inlineStr">
-        <is>
-          <t>232322</t>
-        </is>
-      </c>
-      <c r="L3" s="74" t="inlineStr">
-        <is>
-          <t>D:300,00 | C:41,26</t>
+      <c r="A3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="129" t="inlineStr">
+        <is>
+          <t>LEDA MOREIRA PEIXOTO SANTOS</t>
+        </is>
+      </c>
+      <c r="C3" s="76" t="inlineStr">
+        <is>
+          <t>513881861</t>
+        </is>
+      </c>
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="76" t="n"/>
+      <c r="F3" s="89" t="inlineStr">
+        <is>
+          <t>E:148,65</t>
+        </is>
+      </c>
+      <c r="G3" s="79" t="n"/>
+      <c r="H3" s="130" t="inlineStr">
+        <is>
+          <t>HELENA NASCIMENTO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="I3" s="76" t="inlineStr">
+        <is>
+          <t>513870344</t>
+        </is>
+      </c>
+      <c r="J3" s="76" t="n"/>
+      <c r="K3" s="76" t="n"/>
+      <c r="L3" s="89" t="inlineStr">
+        <is>
+          <t>P:341,26</t>
         </is>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" s="75">
-      <c r="B4" s="74" t="inlineStr">
-        <is>
-          <t>PEDROXA</t>
-        </is>
-      </c>
-      <c r="C4" s="74" t="inlineStr">
-        <is>
-          <t>3243343</t>
-        </is>
-      </c>
-      <c r="F4" s="74" t="inlineStr">
-        <is>
-          <t>C:41,26 | P:300,00</t>
-        </is>
-      </c>
-      <c r="H4" s="74" t="inlineStr">
-        <is>
-          <t>PEDROXA</t>
-        </is>
-      </c>
-      <c r="I4" s="74" t="inlineStr">
-        <is>
-          <t>3243343</t>
-        </is>
-      </c>
-      <c r="L4" s="74" t="inlineStr">
-        <is>
-          <t>C:41,26 | P:300,00</t>
+      <c r="A4" s="79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="130" t="inlineStr">
+        <is>
+          <t>ALINE BOMFIM DOS SANTOS CRUZ</t>
+        </is>
+      </c>
+      <c r="C4" s="76" t="inlineStr">
+        <is>
+          <t>513887056</t>
+        </is>
+      </c>
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="76" t="n"/>
+      <c r="F4" s="89" t="inlineStr">
+        <is>
+          <t>P:148,65</t>
+        </is>
+      </c>
+      <c r="G4" s="79" t="n"/>
+      <c r="H4" s="131" t="inlineStr">
+        <is>
+          <t>RAFAEL LEITE GUIMARAES PIRES</t>
+        </is>
+      </c>
+      <c r="I4" s="76" t="inlineStr">
+        <is>
+          <t>513891672</t>
+        </is>
+      </c>
+      <c r="J4" s="76" t="n"/>
+      <c r="K4" s="76" t="n"/>
+      <c r="L4" s="89" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
         </is>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="75">
-      <c r="B5" s="74" t="inlineStr">
-        <is>
-          <t>FFRRG</t>
-        </is>
-      </c>
-      <c r="C5" s="74" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="F5" s="74" t="inlineStr">
-        <is>
-          <t>D:300,00 | E:41,26</t>
-        </is>
-      </c>
-      <c r="H5" s="74" t="inlineStr">
-        <is>
-          <t>FFRRG</t>
-        </is>
-      </c>
-      <c r="I5" s="74" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="L5" s="74" t="inlineStr">
-        <is>
-          <t>D:300,00 | E:41,26</t>
+      <c r="A5" s="79" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="131" t="inlineStr">
+        <is>
+          <t>HELENA NASCIMENTO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="C5" s="76" t="inlineStr">
+        <is>
+          <t>513870344</t>
+        </is>
+      </c>
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="76" t="n"/>
+      <c r="F5" s="89" t="inlineStr">
+        <is>
+          <t>P:341,26</t>
+        </is>
+      </c>
+      <c r="G5" s="79" t="n"/>
+      <c r="H5" s="131" t="inlineStr">
+        <is>
+          <t>ASSSDD</t>
+        </is>
+      </c>
+      <c r="I5" s="76" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="J5" s="76" t="n"/>
+      <c r="K5" s="76" t="n"/>
+      <c r="L5" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,27</t>
         </is>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="75">
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>SSSSS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>E:100,00 | P:92,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="75"/>
+      <c r="A6" s="79" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="132" t="inlineStr">
+        <is>
+          <t>NEUZA DE SOUZA CAVALCANTI ARAUJO</t>
+        </is>
+      </c>
+      <c r="C6" s="76" t="inlineStr">
+        <is>
+          <t>014100697</t>
+        </is>
+      </c>
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="76" t="n"/>
+      <c r="F6" s="89" t="inlineStr">
+        <is>
+          <t>E:148,65</t>
+        </is>
+      </c>
+      <c r="G6" s="79" t="n"/>
+      <c r="H6" s="131" t="inlineStr">
+        <is>
+          <t>ASDD</t>
+        </is>
+      </c>
+      <c r="I6" s="76" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="76" t="n"/>
+      <c r="L6" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="131" t="inlineStr">
+        <is>
+          <t>RAFAEL LEITE GUIMARAES PIRES</t>
+        </is>
+      </c>
+      <c r="C7" s="76" t="inlineStr">
+        <is>
+          <t>513891672</t>
+        </is>
+      </c>
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="76" t="n"/>
+      <c r="F7" s="89" t="inlineStr">
+        <is>
+          <t>D:341,26</t>
+        </is>
+      </c>
+      <c r="G7" s="79" t="n"/>
+      <c r="H7" s="131" t="inlineStr">
+        <is>
+          <t>DWAD</t>
+        </is>
+      </c>
+      <c r="I7" s="76" t="inlineStr">
+        <is>
+          <t>322323</t>
+        </is>
+      </c>
+      <c r="J7" s="76" t="n"/>
+      <c r="K7" s="76" t="n"/>
+      <c r="L7" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="132" t="inlineStr">
+        <is>
+          <t>NACKSON GOMES FONSECA</t>
+        </is>
+      </c>
+      <c r="C8" s="76" t="inlineStr">
+        <is>
+          <t>513874709</t>
+        </is>
+      </c>
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="76" t="n"/>
+      <c r="F8" s="89" t="inlineStr">
+        <is>
+          <t>D:148,65</t>
+        </is>
+      </c>
+      <c r="G8" s="79" t="n"/>
+      <c r="H8" s="131" t="inlineStr">
+        <is>
+          <t>SASAS</t>
+        </is>
+      </c>
+      <c r="I8" s="76" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="76" t="n"/>
+      <c r="L8" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="131" t="inlineStr">
+        <is>
+          <t>PEDRO HENRIQUE CUNHA LEITE</t>
+        </is>
+      </c>
+      <c r="C9" s="76" t="inlineStr">
+        <is>
+          <t>513861471</t>
+        </is>
+      </c>
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="76" t="n"/>
+      <c r="F9" s="89" t="inlineStr">
+        <is>
+          <t>C:148,65</t>
+        </is>
+      </c>
+      <c r="G9" s="79" t="n"/>
+      <c r="H9" s="131" t="n"/>
+      <c r="I9" s="76" t="n"/>
+      <c r="J9" s="76" t="n"/>
+      <c r="K9" s="76" t="n"/>
+      <c r="L9" s="89" t="n"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="131" t="inlineStr">
+        <is>
+          <t>EDUARDA DE PAULA SAMPAIO</t>
+        </is>
+      </c>
+      <c r="C10" s="76" t="inlineStr">
+        <is>
+          <t>513874599</t>
+        </is>
+      </c>
+      <c r="D10" s="76" t="n"/>
+      <c r="E10" s="76" t="n"/>
+      <c r="F10" s="89" t="inlineStr">
+        <is>
+          <t>C:148,65</t>
+        </is>
+      </c>
+      <c r="G10" s="79" t="n"/>
+      <c r="H10" s="81" t="n"/>
+      <c r="I10" s="76" t="n"/>
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="76" t="n"/>
+      <c r="L10" s="89" t="n"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="131" t="inlineStr">
+        <is>
+          <t>LAERTE ALVES SANTOS</t>
+        </is>
+      </c>
+      <c r="C11" s="76" t="inlineStr">
+        <is>
+          <t>513824087</t>
+        </is>
+      </c>
+      <c r="D11" s="76" t="n"/>
+      <c r="E11" s="76" t="n"/>
+      <c r="F11" s="89" t="inlineStr">
+        <is>
+          <t>E:148,65</t>
+        </is>
+      </c>
+      <c r="G11" s="79" t="n"/>
+      <c r="H11" s="81" t="n"/>
+      <c r="I11" s="76" t="n"/>
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="76" t="n"/>
+      <c r="L11" s="89" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="131" t="inlineStr">
+        <is>
+          <t>MARCOS VINICIUS DANTAS CANARIO</t>
+        </is>
+      </c>
+      <c r="C12" s="76" t="inlineStr">
+        <is>
+          <t>513726526</t>
+        </is>
+      </c>
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="76" t="n"/>
+      <c r="F12" s="89" t="inlineStr">
+        <is>
+          <t>P:148,65</t>
+        </is>
+      </c>
+      <c r="G12" s="79" t="n"/>
+      <c r="H12" s="81" t="n"/>
+      <c r="I12" s="76" t="n"/>
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="76" t="n"/>
+      <c r="L12" s="89" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="131" t="inlineStr">
+        <is>
+          <t>MAYRA AUGUSTO MEDEIROS</t>
+        </is>
+      </c>
+      <c r="C13" s="76" t="inlineStr">
+        <is>
+          <t>513875664</t>
+        </is>
+      </c>
+      <c r="D13" s="76" t="n"/>
+      <c r="E13" s="76" t="n"/>
+      <c r="F13" s="89" t="inlineStr">
+        <is>
+          <t>C:148,65</t>
+        </is>
+      </c>
+      <c r="G13" s="89" t="n"/>
+      <c r="H13" s="89" t="n"/>
+      <c r="I13" s="85" t="n"/>
+      <c r="J13" s="86" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="K13" s="87">
+        <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="131" t="inlineStr">
+        <is>
+          <t>MIRIAM CARNEIRO LIMA</t>
+        </is>
+      </c>
+      <c r="C14" s="76" t="inlineStr">
+        <is>
+          <t>513894813</t>
+        </is>
+      </c>
+      <c r="D14" s="76" t="n"/>
+      <c r="E14" s="76" t="n"/>
+      <c r="F14" s="89" t="inlineStr">
+        <is>
+          <t>C:148,65</t>
+        </is>
+      </c>
+      <c r="G14" s="88" t="n"/>
+      <c r="H14" s="85" t="n"/>
+      <c r="I14" s="85" t="n"/>
+      <c r="J14" s="89" t="n"/>
+      <c r="K14" s="14" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="131" t="inlineStr">
+        <is>
+          <t>ALBERTO CESAR DE ARAUJO LEAL</t>
+        </is>
+      </c>
+      <c r="C15" s="76" t="inlineStr">
+        <is>
+          <t>513870271</t>
+        </is>
+      </c>
+      <c r="D15" s="76" t="n"/>
+      <c r="E15" s="76" t="n"/>
+      <c r="F15" s="89" t="inlineStr">
+        <is>
+          <t>D:148,65</t>
+        </is>
+      </c>
+      <c r="H15" s="90" t="n"/>
+      <c r="I15" s="74" t="n"/>
+      <c r="K15" s="74" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="81" t="inlineStr">
+        <is>
+          <t>SORAIA PONDE AVENA</t>
+        </is>
+      </c>
+      <c r="C16" s="76" t="inlineStr">
+        <is>
+          <t>513842138</t>
+        </is>
+      </c>
+      <c r="D16" s="76" t="n"/>
+      <c r="E16" s="76" t="n"/>
+      <c r="F16" s="89" t="inlineStr">
+        <is>
+          <t>E:148,65</t>
+        </is>
+      </c>
+      <c r="I16" s="91" t="n"/>
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="92" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="81" t="inlineStr">
+        <is>
+          <t>ICARO ARON SOUZA BASTOS</t>
+        </is>
+      </c>
+      <c r="C17" s="76" t="inlineStr">
+        <is>
+          <t>513900047</t>
+        </is>
+      </c>
+      <c r="D17" s="76" t="n"/>
+      <c r="E17" s="76" t="n"/>
+      <c r="F17" s="89" t="inlineStr">
+        <is>
+          <t>C:148,65</t>
+        </is>
+      </c>
+      <c r="I17" s="91" t="n"/>
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="92" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="81" t="inlineStr">
+        <is>
+          <t>ELLEN CRISTINA RAMOS PENA</t>
+        </is>
+      </c>
+      <c r="C18" s="76" t="inlineStr">
+        <is>
+          <t>513792494</t>
+        </is>
+      </c>
+      <c r="D18" s="76" t="n"/>
+      <c r="E18" s="76" t="n"/>
+      <c r="F18" s="89" t="inlineStr">
+        <is>
+          <t>C:148,65</t>
+        </is>
+      </c>
+      <c r="I18" s="93" t="n"/>
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="94" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="81" t="inlineStr">
+        <is>
+          <t>ASSSDD</t>
+        </is>
+      </c>
+      <c r="C19" s="76" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="D19" s="76" t="n"/>
+      <c r="E19" s="76" t="n"/>
+      <c r="F19" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,27</t>
+        </is>
+      </c>
+      <c r="I19" s="91" t="n"/>
+      <c r="J19" s="78" t="n"/>
+      <c r="K19" s="21" t="n"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" s="75">
+      <c r="A20" s="79" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="81" t="inlineStr">
+        <is>
+          <t>ASDD</t>
+        </is>
+      </c>
+      <c r="C20" s="76" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="D20" s="76" t="n"/>
+      <c r="E20" s="76" t="n"/>
+      <c r="F20" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,27</t>
+        </is>
+      </c>
+      <c r="I20" s="91" t="n"/>
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="95" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="75">
+      <c r="A21" s="79" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="81" t="inlineStr">
+        <is>
+          <t>DWAD</t>
+        </is>
+      </c>
+      <c r="C21" s="76" t="inlineStr">
+        <is>
+          <t>322323</t>
+        </is>
+      </c>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n"/>
+      <c r="F21" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,27</t>
+        </is>
+      </c>
+      <c r="I21" s="91" t="n"/>
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="96" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="75">
+      <c r="A22" s="79" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="81" t="inlineStr">
+        <is>
+          <t>SASAS</t>
+        </is>
+      </c>
+      <c r="C22" s="76" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n"/>
+      <c r="F22" s="89" t="inlineStr">
+        <is>
+          <t>E:300,00 | P:41,26</t>
+        </is>
+      </c>
+      <c r="I22" s="98" t="n"/>
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="99" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="75">
+      <c r="A23" s="79" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="81" t="n"/>
+      <c r="C23" s="133" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n"/>
+      <c r="F23" s="89" t="n"/>
+      <c r="G23" s="29" t="n"/>
+      <c r="I23" s="98" t="n"/>
+      <c r="J23" s="78" t="n"/>
+      <c r="K23" s="99" t="n"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" s="75">
+      <c r="A24" s="88" t="n"/>
+      <c r="B24" s="89" t="n"/>
+      <c r="C24" s="74" t="n"/>
+      <c r="D24" s="97" t="n"/>
+      <c r="E24" s="84" t="n"/>
+      <c r="I24" s="102" t="n"/>
+      <c r="J24" s="78" t="n"/>
+      <c r="K24" s="103" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="75">
+      <c r="A25" s="88" t="n"/>
+      <c r="C25" s="74" t="n"/>
+      <c r="D25" s="100" t="n"/>
+      <c r="E25" s="101" t="n"/>
+      <c r="I25" s="74" t="n"/>
+      <c r="K25" s="74" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="75">
+      <c r="A26" s="88" t="n"/>
+      <c r="C26" s="74" t="n"/>
+      <c r="D26" s="100" t="n"/>
+      <c r="E26" s="101" t="n"/>
+      <c r="I26" s="74" t="n"/>
+      <c r="K26" s="74" t="n"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4101,11 +4101,23 @@
         </is>
       </c>
       <c r="G9" s="79" t="n"/>
-      <c r="H9" s="131" t="n"/>
-      <c r="I9" s="76" t="n"/>
+      <c r="H9" s="131" t="inlineStr">
+        <is>
+          <t>ASDAASDDAS</t>
+        </is>
+      </c>
+      <c r="I9" s="76" t="inlineStr">
+        <is>
+          <t>32243423</t>
+        </is>
+      </c>
       <c r="J9" s="76" t="n"/>
       <c r="K9" s="76" t="n"/>
-      <c r="L9" s="89" t="n"/>
+      <c r="L9" s="89" t="inlineStr">
+        <is>
+          <t>E:R$ 300,00 | P:R$ 41,27</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="75">
       <c r="A10" s="79" t="n">
@@ -4129,11 +4141,23 @@
         </is>
       </c>
       <c r="G10" s="79" t="n"/>
-      <c r="H10" s="81" t="n"/>
-      <c r="I10" s="76" t="n"/>
+      <c r="H10" s="81" t="inlineStr">
+        <is>
+          <t>SDADDSS</t>
+        </is>
+      </c>
+      <c r="I10" s="76" t="inlineStr">
+        <is>
+          <t>3232323</t>
+        </is>
+      </c>
       <c r="J10" s="76" t="n"/>
       <c r="K10" s="76" t="n"/>
-      <c r="L10" s="89" t="n"/>
+      <c r="L10" s="89" t="inlineStr">
+        <is>
+          <t>E:R$ 300,00 | P:R$ 41,26</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="75">
       <c r="A11" s="79" t="n">
@@ -4456,11 +4480,23 @@
       <c r="A23" s="79" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="133" t="n"/>
+      <c r="B23" s="81" t="inlineStr">
+        <is>
+          <t>ASDAASDDAS</t>
+        </is>
+      </c>
+      <c r="C23" s="133" t="inlineStr">
+        <is>
+          <t>32243423</t>
+        </is>
+      </c>
       <c r="D23" s="76" t="n"/>
       <c r="E23" s="76" t="n"/>
-      <c r="F23" s="89" t="n"/>
+      <c r="F23" s="89" t="inlineStr">
+        <is>
+          <t>E:R$ 300,00 | P:R$ 41,27</t>
+        </is>
+      </c>
       <c r="G23" s="29" t="n"/>
       <c r="I23" s="98" t="n"/>
       <c r="J23" s="78" t="n"/>
@@ -4468,10 +4504,23 @@
     </row>
     <row r="24" ht="13.5" customHeight="1" s="75">
       <c r="A24" s="88" t="n"/>
-      <c r="B24" s="89" t="n"/>
-      <c r="C24" s="74" t="n"/>
+      <c r="B24" s="89" t="inlineStr">
+        <is>
+          <t>SDADDSS</t>
+        </is>
+      </c>
+      <c r="C24" s="74" t="inlineStr">
+        <is>
+          <t>3232323</t>
+        </is>
+      </c>
       <c r="D24" s="97" t="n"/>
       <c r="E24" s="84" t="n"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>E:R$ 300,00 | P:R$ 41,26</t>
+        </is>
+      </c>
       <c r="I24" s="102" t="n"/>
       <c r="J24" s="78" t="n"/>
       <c r="K24" s="103" t="n"/>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -4181,11 +4181,23 @@
         </is>
       </c>
       <c r="G11" s="79" t="n"/>
-      <c r="H11" s="81" t="n"/>
-      <c r="I11" s="76" t="n"/>
+      <c r="H11" s="81" t="inlineStr">
+        <is>
+          <t>DSDDS</t>
+        </is>
+      </c>
+      <c r="I11" s="76" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
       <c r="J11" s="76" t="n"/>
       <c r="K11" s="76" t="n"/>
-      <c r="L11" s="89" t="n"/>
+      <c r="L11" s="89" t="inlineStr">
+        <is>
+          <t>D:R$ 100,00 | E:R$ 92,61</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="75">
       <c r="A12" s="79" t="n">
@@ -4516,7 +4528,7 @@
       </c>
       <c r="D24" s="97" t="n"/>
       <c r="E24" s="84" t="n"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="74" t="inlineStr">
         <is>
           <t>E:R$ 300,00 | P:R$ 41,26</t>
         </is>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -3753,7 +3753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
@@ -4221,11 +4221,23 @@
         </is>
       </c>
       <c r="G12" s="79" t="n"/>
-      <c r="H12" s="81" t="n"/>
-      <c r="I12" s="76" t="n"/>
+      <c r="H12" s="81" t="inlineStr">
+        <is>
+          <t>JOAO PAULETA</t>
+        </is>
+      </c>
+      <c r="I12" s="76" t="inlineStr">
+        <is>
+          <t>122112</t>
+        </is>
+      </c>
       <c r="J12" s="76" t="n"/>
       <c r="K12" s="76" t="n"/>
-      <c r="L12" s="89" t="n"/>
+      <c r="L12" s="89" t="inlineStr">
+        <is>
+          <t>E:R$ 341,26</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="75">
       <c r="A13" s="79" t="n">
@@ -4539,9 +4551,23 @@
     </row>
     <row r="25" ht="13.5" customHeight="1" s="75">
       <c r="A25" s="88" t="n"/>
-      <c r="C25" s="74" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>JOAO PAULETA</t>
+        </is>
+      </c>
+      <c r="C25" s="74" t="inlineStr">
+        <is>
+          <t>122112</t>
+        </is>
+      </c>
       <c r="D25" s="100" t="n"/>
       <c r="E25" s="101" t="n"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>E:R$ 341,26</t>
+        </is>
+      </c>
       <c r="I25" s="74" t="n"/>
       <c r="K25" s="74" t="n"/>
     </row>
@@ -4553,6 +4579,7 @@
       <c r="I26" s="74" t="n"/>
       <c r="K26" s="74" t="n"/>
     </row>
+    <row r="27"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -3841,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
@@ -4844,18 +4844,28 @@
           <t>E:300,00 | P:41,27</t>
         </is>
       </c>
-      <c r="G22" s="156" t="n"/>
-      <c r="H22" s="156" t="n"/>
-      <c r="I22" s="156" t="n"/>
-      <c r="J22" s="156" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
+      <c r="G22" s="156" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="157" t="inlineStr">
+        <is>
+          <t>LUCAS</t>
+        </is>
+      </c>
+      <c r="I22" s="156" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="J22" s="156" t="inlineStr"/>
       <c r="K22" s="158" t="n">
-        <v>3659.59</v>
-      </c>
-      <c r="L22" s="156" t="n"/>
+        <v>192.61</v>
+      </c>
+      <c r="L22" s="156" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" s="85">
       <c r="A23" s="156" t="n">
@@ -4880,18 +4890,28 @@
           <t>E:300,00 | P:41,27</t>
         </is>
       </c>
-      <c r="G23" s="156" t="n"/>
-      <c r="H23" s="156" t="n"/>
-      <c r="I23" s="156" t="n"/>
-      <c r="J23" s="156" t="inlineStr">
-        <is>
-          <t>Psicólogo</t>
-        </is>
-      </c>
+      <c r="G23" s="156" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" s="157" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="I23" s="156" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J23" s="156" t="inlineStr"/>
       <c r="K23" s="158" t="n">
-        <v>1206.5</v>
-      </c>
-      <c r="L23" s="156" t="n"/>
+        <v>192.61</v>
+      </c>
+      <c r="L23" s="156" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" s="85">
       <c r="A24" s="156" t="n">
@@ -4916,18 +4936,28 @@
           <t>E:300,00 | P:41,26</t>
         </is>
       </c>
-      <c r="G24" s="156" t="n"/>
-      <c r="H24" s="156" t="n"/>
-      <c r="I24" s="156" t="n"/>
-      <c r="J24" s="156" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="G24" s="156" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" s="157" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="I24" s="156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J24" s="156" t="inlineStr"/>
       <c r="K24" s="158" t="n">
-        <v>2453.09</v>
-      </c>
-      <c r="L24" s="156" t="n"/>
+        <v>192.61</v>
+      </c>
+      <c r="L24" s="156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" s="85">
       <c r="A25" s="156" t="n">
@@ -4952,12 +4982,28 @@
           <t>E:300,00 | P:41,27</t>
         </is>
       </c>
-      <c r="G25" s="156" t="n"/>
-      <c r="H25" s="156" t="n"/>
-      <c r="I25" s="156" t="n"/>
-      <c r="J25" s="156" t="n"/>
-      <c r="K25" s="159" t="n"/>
-      <c r="L25" s="156" t="n"/>
+      <c r="G25" s="156" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" s="157" t="inlineStr">
+        <is>
+          <t>SSSS</t>
+        </is>
+      </c>
+      <c r="I25" s="156" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J25" s="156" t="inlineStr"/>
+      <c r="K25" s="158" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L25" s="156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" s="85">
       <c r="A26" s="156" t="n">
@@ -4982,12 +5028,28 @@
           <t>E:300,00 | P:41,26</t>
         </is>
       </c>
-      <c r="G26" s="156" t="n"/>
-      <c r="H26" s="156" t="n"/>
-      <c r="I26" s="156" t="n"/>
-      <c r="J26" s="156" t="n"/>
-      <c r="K26" s="160" t="n"/>
-      <c r="L26" s="156" t="n"/>
+      <c r="G26" s="156" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" s="157" t="inlineStr">
+        <is>
+          <t>FFFFFF</t>
+        </is>
+      </c>
+      <c r="I26" s="156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" s="156" t="inlineStr"/>
+      <c r="K26" s="158" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L26" s="156" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" s="85">
       <c r="A27" s="156" t="n">
@@ -5015,8 +5077,14 @@
       <c r="G27" s="156" t="n"/>
       <c r="H27" s="156" t="n"/>
       <c r="I27" s="156" t="n"/>
-      <c r="J27" s="156" t="n"/>
-      <c r="K27" s="159" t="n"/>
+      <c r="J27" s="156" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="K27" s="158" t="n">
+        <v>4622.64</v>
+      </c>
       <c r="L27" s="156" t="n"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" s="85">
@@ -5045,8 +5113,14 @@
       <c r="G28" s="156" t="n"/>
       <c r="H28" s="156" t="n"/>
       <c r="I28" s="156" t="n"/>
-      <c r="J28" s="156" t="n"/>
-      <c r="K28" s="161" t="n"/>
+      <c r="J28" s="156" t="inlineStr">
+        <is>
+          <t>Psicólogo</t>
+        </is>
+      </c>
+      <c r="K28" s="158" t="n">
+        <v>1524</v>
+      </c>
       <c r="L28" s="156" t="n"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" s="85">
@@ -5074,9 +5148,15 @@
       </c>
       <c r="G29" s="156" t="n"/>
       <c r="H29" s="156" t="n"/>
-      <c r="I29" s="162" t="n"/>
-      <c r="J29" s="156" t="n"/>
-      <c r="K29" s="161" t="n"/>
+      <c r="I29" s="156" t="n"/>
+      <c r="J29" s="156" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="K29" s="158" t="n">
+        <v>3098.64</v>
+      </c>
       <c r="L29" s="156" t="n"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="85">
@@ -5102,11 +5182,11 @@
           <t>E</t>
         </is>
       </c>
-      <c r="G30" s="160" t="n"/>
+      <c r="G30" s="156" t="n"/>
       <c r="H30" s="156" t="n"/>
-      <c r="I30" s="162" t="n"/>
+      <c r="I30" s="156" t="n"/>
       <c r="J30" s="156" t="n"/>
-      <c r="K30" s="161" t="n"/>
+      <c r="K30" s="159" t="n"/>
       <c r="L30" s="156" t="n"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" s="85">
@@ -5136,7 +5216,7 @@
       <c r="H31" s="156" t="n"/>
       <c r="I31" s="156" t="n"/>
       <c r="J31" s="156" t="n"/>
-      <c r="K31" s="159" t="n"/>
+      <c r="K31" s="160" t="n"/>
       <c r="L31" s="156" t="n"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" s="85">
@@ -5166,7 +5246,7 @@
       <c r="H32" s="156" t="n"/>
       <c r="I32" s="156" t="n"/>
       <c r="J32" s="156" t="n"/>
-      <c r="K32" s="156" t="n"/>
+      <c r="K32" s="159" t="n"/>
       <c r="L32" s="156" t="n"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="85">
@@ -5196,7 +5276,7 @@
       <c r="H33" s="156" t="n"/>
       <c r="I33" s="156" t="n"/>
       <c r="J33" s="156" t="n"/>
-      <c r="K33" s="156" t="n"/>
+      <c r="K33" s="161" t="n"/>
       <c r="L33" s="156" t="n"/>
     </row>
     <row r="34" ht="13.5" customHeight="1" s="85">
@@ -5224,9 +5304,9 @@
       </c>
       <c r="G34" s="156" t="n"/>
       <c r="H34" s="156" t="n"/>
-      <c r="I34" s="156" t="n"/>
+      <c r="I34" s="162" t="n"/>
       <c r="J34" s="156" t="n"/>
-      <c r="K34" s="156" t="n"/>
+      <c r="K34" s="161" t="n"/>
       <c r="L34" s="156" t="n"/>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="85">
@@ -5252,46 +5332,66 @@
           <t>C</t>
         </is>
       </c>
-      <c r="G35" s="156" t="n"/>
+      <c r="G35" s="160" t="n"/>
       <c r="H35" s="156" t="n"/>
-      <c r="I35" s="156" t="n"/>
+      <c r="I35" s="162" t="n"/>
       <c r="J35" s="156" t="n"/>
-      <c r="K35" s="156" t="n"/>
+      <c r="K35" s="161" t="n"/>
       <c r="L35" s="156" t="n"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" s="85">
-      <c r="A36" s="156" t="n"/>
-      <c r="B36" s="156" t="n"/>
-      <c r="C36" s="156" t="n"/>
-      <c r="D36" s="156" t="inlineStr">
-        <is>
-          <t>Soma</t>
-        </is>
-      </c>
+      <c r="A36" s="156" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="157" t="inlineStr">
+        <is>
+          <t>LUCAS</t>
+        </is>
+      </c>
+      <c r="C36" s="156" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="D36" s="156" t="inlineStr"/>
       <c r="E36" s="158" t="n">
-        <v>4905.45</v>
-      </c>
-      <c r="F36" s="156" t="n"/>
+        <v>148.65</v>
+      </c>
+      <c r="F36" s="156" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="G36" s="156" t="n"/>
       <c r="H36" s="156" t="n"/>
       <c r="I36" s="156" t="n"/>
       <c r="J36" s="156" t="n"/>
-      <c r="K36" s="156" t="n"/>
+      <c r="K36" s="159" t="n"/>
       <c r="L36" s="156" t="n"/>
     </row>
     <row r="37" ht="13.5" customHeight="1" s="85">
-      <c r="A37" s="156" t="n"/>
-      <c r="B37" s="156" t="n"/>
-      <c r="C37" s="156" t="n"/>
-      <c r="D37" s="156" t="inlineStr">
-        <is>
-          <t>Médico</t>
-        </is>
-      </c>
+      <c r="A37" s="156" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="157" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="C37" s="156" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D37" s="156" t="inlineStr"/>
       <c r="E37" s="158" t="n">
-        <v>1617</v>
-      </c>
-      <c r="F37" s="156" t="n"/>
+        <v>148.65</v>
+      </c>
+      <c r="F37" s="156" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="G37" s="156" t="n"/>
       <c r="H37" s="156" t="n"/>
       <c r="I37" s="156" t="n"/>
@@ -5300,18 +5400,28 @@
       <c r="L37" s="156" t="n"/>
     </row>
     <row r="38" ht="13.5" customHeight="1" s="85">
-      <c r="A38" s="156" t="n"/>
-      <c r="B38" s="156" t="n"/>
-      <c r="C38" s="156" t="n"/>
-      <c r="D38" s="156" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A38" s="156" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="157" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="C38" s="156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D38" s="156" t="inlineStr"/>
       <c r="E38" s="158" t="n">
-        <v>3288.45</v>
-      </c>
-      <c r="F38" s="156" t="n"/>
+        <v>148.65</v>
+      </c>
+      <c r="F38" s="156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="G38" s="156" t="n"/>
       <c r="H38" s="156" t="n"/>
       <c r="I38" s="156" t="n"/>
@@ -5320,12 +5430,28 @@
       <c r="L38" s="156" t="n"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" s="85">
-      <c r="A39" s="156" t="n"/>
-      <c r="B39" s="156" t="n"/>
-      <c r="C39" s="156" t="n"/>
-      <c r="D39" s="156" t="n"/>
-      <c r="E39" s="158" t="n"/>
-      <c r="F39" s="156" t="n"/>
+      <c r="A39" s="156" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="157" t="inlineStr">
+        <is>
+          <t>SSSS</t>
+        </is>
+      </c>
+      <c r="C39" s="156" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D39" s="156" t="inlineStr"/>
+      <c r="E39" s="158" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F39" s="156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="G39" s="156" t="n"/>
       <c r="H39" s="156" t="n"/>
       <c r="I39" s="156" t="n"/>
@@ -5334,12 +5460,28 @@
       <c r="L39" s="156" t="n"/>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="85">
-      <c r="A40" s="156" t="n"/>
-      <c r="B40" s="156" t="n"/>
-      <c r="C40" s="156" t="n"/>
-      <c r="D40" s="156" t="n"/>
-      <c r="E40" s="158" t="n"/>
-      <c r="F40" s="156" t="n"/>
+      <c r="A40" s="156" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="157" t="inlineStr">
+        <is>
+          <t>FFFFFF</t>
+        </is>
+      </c>
+      <c r="C40" s="156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" s="156" t="inlineStr"/>
+      <c r="E40" s="158" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F40" s="156" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="G40" s="156" t="n"/>
       <c r="H40" s="156" t="n"/>
       <c r="I40" s="156" t="n"/>
@@ -5351,8 +5493,14 @@
       <c r="A41" s="156" t="n"/>
       <c r="B41" s="156" t="n"/>
       <c r="C41" s="156" t="n"/>
-      <c r="D41" s="156" t="n"/>
-      <c r="E41" s="158" t="n"/>
+      <c r="D41" s="156" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="E41" s="158" t="n">
+        <v>5648.7</v>
+      </c>
       <c r="F41" s="156" t="n"/>
       <c r="G41" s="156" t="n"/>
       <c r="H41" s="156" t="n"/>
@@ -5365,8 +5513,14 @@
       <c r="A42" s="156" t="n"/>
       <c r="B42" s="156" t="n"/>
       <c r="C42" s="156" t="n"/>
-      <c r="D42" s="156" t="n"/>
-      <c r="E42" s="158" t="n"/>
+      <c r="D42" s="156" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="E42" s="158" t="n">
+        <v>1862</v>
+      </c>
       <c r="F42" s="156" t="n"/>
       <c r="G42" s="156" t="n"/>
       <c r="H42" s="156" t="n"/>
@@ -5379,8 +5533,14 @@
       <c r="A43" s="156" t="n"/>
       <c r="B43" s="156" t="n"/>
       <c r="C43" s="156" t="n"/>
-      <c r="D43" s="156" t="n"/>
-      <c r="E43" s="158" t="n"/>
+      <c r="D43" s="156" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E43" s="158" t="n">
+        <v>3786.7</v>
+      </c>
       <c r="F43" s="156" t="n"/>
       <c r="G43" s="156" t="n"/>
       <c r="H43" s="156" t="n"/>
@@ -5422,7 +5582,7 @@
       <c r="B46" s="156" t="n"/>
       <c r="C46" s="156" t="n"/>
       <c r="D46" s="156" t="n"/>
-      <c r="E46" s="156" t="n"/>
+      <c r="E46" s="158" t="n"/>
       <c r="F46" s="156" t="n"/>
       <c r="G46" s="156" t="n"/>
       <c r="H46" s="156" t="n"/>
@@ -5436,7 +5596,7 @@
       <c r="B47" s="156" t="n"/>
       <c r="C47" s="156" t="n"/>
       <c r="D47" s="156" t="n"/>
-      <c r="E47" s="156" t="n"/>
+      <c r="E47" s="158" t="n"/>
       <c r="F47" s="156" t="n"/>
       <c r="G47" s="156" t="n"/>
       <c r="H47" s="156" t="n"/>
@@ -5450,7 +5610,7 @@
       <c r="B48" s="156" t="n"/>
       <c r="C48" s="156" t="n"/>
       <c r="D48" s="156" t="n"/>
-      <c r="E48" s="156" t="n"/>
+      <c r="E48" s="158" t="n"/>
       <c r="F48" s="156" t="n"/>
       <c r="G48" s="156" t="n"/>
       <c r="H48" s="156" t="n"/>
@@ -5464,7 +5624,7 @@
       <c r="B49" s="156" t="n"/>
       <c r="C49" s="156" t="n"/>
       <c r="D49" s="156" t="n"/>
-      <c r="E49" s="156" t="n"/>
+      <c r="E49" s="158" t="n"/>
       <c r="F49" s="156" t="n"/>
       <c r="G49" s="156" t="n"/>
       <c r="H49" s="156" t="n"/>
@@ -5478,7 +5638,7 @@
       <c r="B50" s="156" t="n"/>
       <c r="C50" s="156" t="n"/>
       <c r="D50" s="156" t="n"/>
-      <c r="E50" s="156" t="n"/>
+      <c r="E50" s="158" t="n"/>
       <c r="F50" s="156" t="n"/>
       <c r="G50" s="156" t="n"/>
       <c r="H50" s="156" t="n"/>
@@ -5486,18 +5646,13 @@
       <c r="J50" s="156" t="n"/>
       <c r="K50" s="156" t="n"/>
       <c r="L50" s="156" t="n"/>
-      <c r="N50" s="84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="156" t="n"/>
       <c r="B51" s="156" t="n"/>
       <c r="C51" s="156" t="n"/>
       <c r="D51" s="156" t="n"/>
-      <c r="E51" s="156" t="n"/>
+      <c r="E51" s="158" t="n"/>
       <c r="F51" s="156" t="n"/>
       <c r="G51" s="156" t="n"/>
       <c r="H51" s="156" t="n"/>
@@ -5511,7 +5666,7 @@
       <c r="B52" s="156" t="n"/>
       <c r="C52" s="156" t="n"/>
       <c r="D52" s="156" t="n"/>
-      <c r="E52" s="156" t="n"/>
+      <c r="E52" s="158" t="n"/>
       <c r="F52" s="156" t="n"/>
       <c r="G52" s="156" t="n"/>
       <c r="H52" s="156" t="n"/>
@@ -5525,7 +5680,7 @@
       <c r="B53" s="156" t="n"/>
       <c r="C53" s="156" t="n"/>
       <c r="D53" s="156" t="n"/>
-      <c r="E53" s="156" t="n"/>
+      <c r="E53" s="158" t="n"/>
       <c r="F53" s="156" t="n"/>
       <c r="G53" s="156" t="n"/>
       <c r="H53" s="156" t="n"/>
@@ -5533,6 +5688,151 @@
       <c r="J53" s="156" t="n"/>
       <c r="K53" s="156" t="n"/>
       <c r="L53" s="156" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="156" t="n"/>
+      <c r="B54" s="156" t="n"/>
+      <c r="C54" s="156" t="n"/>
+      <c r="D54" s="156" t="n"/>
+      <c r="E54" s="158" t="n"/>
+      <c r="F54" s="156" t="n"/>
+      <c r="G54" s="156" t="n"/>
+      <c r="H54" s="156" t="n"/>
+      <c r="I54" s="156" t="n"/>
+      <c r="J54" s="156" t="n"/>
+      <c r="K54" s="156" t="n"/>
+      <c r="L54" s="156" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="156" t="n"/>
+      <c r="B55" s="156" t="n"/>
+      <c r="C55" s="156" t="n"/>
+      <c r="D55" s="156" t="n"/>
+      <c r="E55" s="158" t="n"/>
+      <c r="F55" s="156" t="n"/>
+      <c r="G55" s="156" t="n"/>
+      <c r="H55" s="156" t="n"/>
+      <c r="I55" s="156" t="n"/>
+      <c r="J55" s="156" t="n"/>
+      <c r="K55" s="156" t="n"/>
+      <c r="L55" s="156" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="156" t="n"/>
+      <c r="B56" s="156" t="n"/>
+      <c r="C56" s="156" t="n"/>
+      <c r="D56" s="156" t="n"/>
+      <c r="E56" s="156" t="n"/>
+      <c r="F56" s="156" t="n"/>
+      <c r="G56" s="156" t="n"/>
+      <c r="H56" s="156" t="n"/>
+      <c r="I56" s="156" t="n"/>
+      <c r="J56" s="156" t="n"/>
+      <c r="K56" s="156" t="n"/>
+      <c r="L56" s="156" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="156" t="n"/>
+      <c r="B57" s="156" t="n"/>
+      <c r="C57" s="156" t="n"/>
+      <c r="D57" s="156" t="n"/>
+      <c r="E57" s="156" t="n"/>
+      <c r="F57" s="156" t="n"/>
+      <c r="G57" s="156" t="n"/>
+      <c r="H57" s="156" t="n"/>
+      <c r="I57" s="156" t="n"/>
+      <c r="J57" s="156" t="n"/>
+      <c r="K57" s="156" t="n"/>
+      <c r="L57" s="156" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="156" t="n"/>
+      <c r="B58" s="156" t="n"/>
+      <c r="C58" s="156" t="n"/>
+      <c r="D58" s="156" t="n"/>
+      <c r="E58" s="156" t="n"/>
+      <c r="F58" s="156" t="n"/>
+      <c r="G58" s="156" t="n"/>
+      <c r="H58" s="156" t="n"/>
+      <c r="I58" s="156" t="n"/>
+      <c r="J58" s="156" t="n"/>
+      <c r="K58" s="156" t="n"/>
+      <c r="L58" s="156" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="156" t="n"/>
+      <c r="B59" s="156" t="n"/>
+      <c r="C59" s="156" t="n"/>
+      <c r="D59" s="156" t="n"/>
+      <c r="E59" s="156" t="n"/>
+      <c r="F59" s="156" t="n"/>
+      <c r="G59" s="156" t="n"/>
+      <c r="H59" s="156" t="n"/>
+      <c r="I59" s="156" t="n"/>
+      <c r="J59" s="156" t="n"/>
+      <c r="K59" s="156" t="n"/>
+      <c r="L59" s="156" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="156" t="n"/>
+      <c r="B60" s="156" t="n"/>
+      <c r="C60" s="156" t="n"/>
+      <c r="D60" s="156" t="n"/>
+      <c r="E60" s="156" t="n"/>
+      <c r="F60" s="156" t="n"/>
+      <c r="G60" s="156" t="n"/>
+      <c r="H60" s="156" t="n"/>
+      <c r="I60" s="156" t="n"/>
+      <c r="J60" s="156" t="n"/>
+      <c r="K60" s="156" t="n"/>
+      <c r="L60" s="156" t="n"/>
+      <c r="N60" s="84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="156" t="n"/>
+      <c r="B61" s="156" t="n"/>
+      <c r="C61" s="156" t="n"/>
+      <c r="D61" s="156" t="n"/>
+      <c r="E61" s="156" t="n"/>
+      <c r="F61" s="156" t="n"/>
+      <c r="G61" s="156" t="n"/>
+      <c r="H61" s="156" t="n"/>
+      <c r="I61" s="156" t="n"/>
+      <c r="J61" s="156" t="n"/>
+      <c r="K61" s="156" t="n"/>
+      <c r="L61" s="156" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="156" t="n"/>
+      <c r="B62" s="156" t="n"/>
+      <c r="C62" s="156" t="n"/>
+      <c r="D62" s="156" t="n"/>
+      <c r="E62" s="156" t="n"/>
+      <c r="F62" s="156" t="n"/>
+      <c r="G62" s="156" t="n"/>
+      <c r="H62" s="156" t="n"/>
+      <c r="I62" s="156" t="n"/>
+      <c r="J62" s="156" t="n"/>
+      <c r="K62" s="156" t="n"/>
+      <c r="L62" s="156" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="156" t="n"/>
+      <c r="B63" s="156" t="n"/>
+      <c r="C63" s="156" t="n"/>
+      <c r="D63" s="156" t="n"/>
+      <c r="E63" s="156" t="n"/>
+      <c r="F63" s="156" t="n"/>
+      <c r="G63" s="156" t="n"/>
+      <c r="H63" s="156" t="n"/>
+      <c r="I63" s="156" t="n"/>
+      <c r="J63" s="156" t="n"/>
+      <c r="K63" s="156" t="n"/>
+      <c r="L63" s="156" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAMPSSA.xlsx
+++ b/CAMPSSA.xlsx
@@ -36,7 +36,7 @@
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -167,13 +167,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
@@ -282,7 +275,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -504,15 +497,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -715,31 +699,22 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -997,1040 +972,1040 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="6.56" customWidth="1" style="77" min="1" max="1"/>
-    <col width="36.11" customWidth="1" style="77" min="2" max="2"/>
-    <col width="13.11" customWidth="1" style="77" min="3" max="3"/>
-    <col width="11.45" customWidth="1" style="77" min="5" max="5"/>
-    <col width="12.55" customWidth="1" style="77" min="6" max="6"/>
-    <col width="45" customWidth="1" style="77" min="8" max="8"/>
-    <col width="14.44" customWidth="1" style="77" min="9" max="9"/>
-    <col width="11.89" customWidth="1" style="77" min="10" max="10"/>
-    <col width="13.44" customWidth="1" style="77" min="11" max="11"/>
+    <col width="6.56" customWidth="1" style="74" min="1" max="1"/>
+    <col width="36.11" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13.11" customWidth="1" style="74" min="3" max="3"/>
+    <col width="11.45" customWidth="1" style="74" min="5" max="5"/>
+    <col width="12.55" customWidth="1" style="74" min="6" max="6"/>
+    <col width="45" customWidth="1" style="74" min="8" max="8"/>
+    <col width="14.44" customWidth="1" style="74" min="9" max="9"/>
+    <col width="11.89" customWidth="1" style="74" min="10" max="10"/>
+    <col width="13.44" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 01/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="79" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 01/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="78">
-      <c r="A2" s="82" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="78">
-      <c r="A3" s="82" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="C3" s="79" t="n">
+      <c r="C3" s="76" t="n">
         <v>513700004</v>
       </c>
-      <c r="D3" s="79" t="n"/>
-      <c r="E3" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="77" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="82" t="n">
+      <c r="G3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="84" t="inlineStr">
+      <c r="H3" s="81" t="inlineStr">
         <is>
           <t>TAMILE SANTANA RIOS</t>
         </is>
       </c>
-      <c r="I3" s="79" t="n">
+      <c r="I3" s="76" t="n">
         <v>513700004</v>
       </c>
-      <c r="J3" s="85" t="n"/>
-      <c r="K3" s="85" t="n">
+      <c r="J3" s="82" t="n"/>
+      <c r="K3" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="77" t="inlineStr">
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="78">
-      <c r="A4" s="82" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t>MARIA ANGELA REIS COSTA</t>
         </is>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="76" t="n">
         <v>513776719</v>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="77" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="82" t="n">
+      <c r="G4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="84" t="inlineStr">
+      <c r="H4" s="81" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="I4" s="79" t="n">
+      <c r="I4" s="76" t="n">
         <v>513758449</v>
       </c>
-      <c r="J4" s="85" t="n"/>
-      <c r="K4" s="85" t="n">
+      <c r="J4" s="82" t="n"/>
+      <c r="K4" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="77" t="inlineStr">
+      <c r="L4" s="74" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="78">
-      <c r="A5" s="82" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>CAMILA SILVA FRANCA</t>
         </is>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="76" t="n">
         <v>513758449</v>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>E:300/P:41,26</t>
         </is>
       </c>
-      <c r="G5" s="82" t="n">
+      <c r="G5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="84" t="inlineStr">
+      <c r="H5" s="81" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="I5" s="79" t="n">
+      <c r="I5" s="76" t="n">
         <v>513749220</v>
       </c>
-      <c r="J5" s="85" t="n"/>
-      <c r="K5" s="85" t="n">
+      <c r="J5" s="82" t="n"/>
+      <c r="K5" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="L5" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="78">
-      <c r="A6" s="82" t="n">
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>GERSON ARAUJO SANTOS</t>
         </is>
       </c>
-      <c r="C6" s="79" t="n">
+      <c r="C6" s="76" t="n">
         <v>513749220</v>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="77" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="82" t="n">
+      <c r="G6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="84" t="inlineStr">
+      <c r="H6" s="81" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="I6" s="79" t="n">
+      <c r="I6" s="76" t="n">
         <v>513754823</v>
       </c>
-      <c r="J6" s="85" t="n"/>
-      <c r="K6" s="85" t="n">
+      <c r="J6" s="82" t="n"/>
+      <c r="K6" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="77" t="inlineStr">
+      <c r="L6" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="78">
-      <c r="A7" s="82" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="82" t="inlineStr">
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t>FLAVIA ANDREA DE CASTRO ROCHA</t>
         </is>
       </c>
-      <c r="C7" s="79" t="n">
+      <c r="C7" s="76" t="n">
         <v>513756797</v>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="77" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="82" t="n">
+      <c r="G7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="84" t="inlineStr">
+      <c r="H7" s="81" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="I7" s="79" t="n">
+      <c r="I7" s="76" t="n">
         <v>513781493</v>
       </c>
-      <c r="J7" s="85" t="n"/>
-      <c r="K7" s="85" t="n">
+      <c r="J7" s="82" t="n"/>
+      <c r="K7" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="77" t="inlineStr">
+      <c r="L7" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="78">
-      <c r="A8" s="82" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="82" t="inlineStr">
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t>MAILY BORGES NUNEZ</t>
         </is>
       </c>
-      <c r="C8" s="79" t="n">
+      <c r="C8" s="76" t="n">
         <v>513761848</v>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="77" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="82" t="n">
+      <c r="G8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="82" t="inlineStr">
+      <c r="H8" s="79" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="I8" s="79" t="n">
+      <c r="I8" s="76" t="n">
         <v>513701260</v>
       </c>
-      <c r="J8" s="85" t="n"/>
-      <c r="K8" s="85" t="n">
+      <c r="J8" s="82" t="n"/>
+      <c r="K8" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="77" t="inlineStr">
+      <c r="L8" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="78">
-      <c r="A9" s="82" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="82" t="inlineStr">
+      <c r="B9" s="79" t="inlineStr">
         <is>
           <t>MARIA LINDIVANIA CRUZ DIAS PASSOS</t>
         </is>
       </c>
-      <c r="C9" s="79" t="n">
+      <c r="C9" s="76" t="n">
         <v>513778649</v>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="77" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G9" s="82" t="n">
+      <c r="G9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="82" t="inlineStr">
+      <c r="H9" s="79" t="inlineStr">
         <is>
           <t>MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="I9" s="79" t="n">
+      <c r="I9" s="76" t="n">
         <v>513772028</v>
       </c>
-      <c r="J9" s="85" t="n"/>
-      <c r="K9" s="85" t="n">
+      <c r="J9" s="82" t="n"/>
+      <c r="K9" s="82" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="77" t="inlineStr">
+      <c r="L9" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="78">
-      <c r="A10" s="82" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="82" t="inlineStr">
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t>DIEGO CAVALCANTI GONCALVES</t>
         </is>
       </c>
-      <c r="C10" s="79" t="n">
+      <c r="C10" s="76" t="n">
         <v>513720426</v>
       </c>
-      <c r="D10" s="85" t="n"/>
-      <c r="E10" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="77" t="inlineStr">
+      <c r="D10" s="82" t="n"/>
+      <c r="E10" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="82" t="n">
+      <c r="G10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="82" t="inlineStr">
+      <c r="H10" s="79" t="inlineStr">
         <is>
           <t>CLEBER</t>
         </is>
       </c>
-      <c r="I10" s="79" t="inlineStr">
+      <c r="I10" s="76" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J10" s="85" t="inlineStr">
+      <c r="J10" s="82" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="82">
         <f>K3+K4+K5+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L10" s="77" t="inlineStr">
+      <c r="L10" s="74" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="78">
-      <c r="A11" s="82" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="86" t="inlineStr">
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t>GILMAR JOSE SANTOS DA SILVA</t>
         </is>
       </c>
-      <c r="C11" s="79" t="n">
+      <c r="C11" s="76" t="n">
         <v>513754823</v>
       </c>
-      <c r="D11" s="85" t="n"/>
-      <c r="E11" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="77" t="inlineStr">
+      <c r="D11" s="82" t="n"/>
+      <c r="E11" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H11" s="77" t="inlineStr">
+      <c r="H11" s="74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I11" s="88" t="inlineStr">
+      <c r="I11" s="85" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="J11" s="89" t="n"/>
-      <c r="K11" s="90" t="n"/>
-      <c r="L11" s="77" t="inlineStr">
+      <c r="J11" s="86" t="n"/>
+      <c r="K11" s="87" t="n"/>
+      <c r="L11" s="74" t="inlineStr">
         <is>
           <t>D:192,61</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="78">
-      <c r="A12" s="82" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="82" t="inlineStr">
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t>LEANDRO NERY SANTOS BRITO</t>
         </is>
       </c>
-      <c r="C12" s="79" t="n">
+      <c r="C12" s="76" t="n">
         <v>513781493</v>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="77" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="91" t="n"/>
-      <c r="H12" s="88" t="inlineStr">
+      <c r="G12" s="88" t="n"/>
+      <c r="H12" s="85" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I12" s="88" t="inlineStr">
+      <c r="I12" s="85" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="J12" s="92" t="n"/>
+      <c r="J12" s="89" t="n"/>
       <c r="K12" s="14" t="n"/>
-      <c r="L12" s="77" t="inlineStr">
+      <c r="L12" s="74" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="78">
-      <c r="A13" s="82" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="82" t="inlineStr">
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t>JOAO CUSTODIO GONCALVES</t>
         </is>
       </c>
-      <c r="C13" s="79" t="n">
+      <c r="C13" s="76" t="n">
         <v>513766860</v>
       </c>
-      <c r="D13" s="85" t="n"/>
-      <c r="E13" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="77" t="inlineStr">
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H13" s="93" t="inlineStr">
+      <c r="H13" s="90" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I13" s="77" t="inlineStr">
+      <c r="I13" s="74" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K13" s="77" t="n">
+      <c r="K13" s="74" t="n">
         <v>2527.05</v>
       </c>
-      <c r="L13" s="77" t="inlineStr">
+      <c r="L13" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="78">
-      <c r="A14" s="82" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="82" t="inlineStr">
+      <c r="B14" s="79" t="inlineStr">
         <is>
           <t>MARIA CLARA MORAIS DE CARVALHO</t>
         </is>
       </c>
-      <c r="C14" s="79" t="n">
+      <c r="C14" s="76" t="n">
         <v>513701260</v>
       </c>
-      <c r="D14" s="85" t="n"/>
-      <c r="E14" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="77" t="inlineStr">
+      <c r="D14" s="82" t="n"/>
+      <c r="E14" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H14" s="77" t="inlineStr">
+      <c r="H14" s="74" t="inlineStr">
         <is>
           <t>TTTTTT</t>
         </is>
       </c>
-      <c r="I14" s="94" t="inlineStr">
+      <c r="I14" s="91" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="J14" s="81" t="n"/>
-      <c r="K14" s="95" t="n">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="92" t="n">
         <v>1540.88</v>
       </c>
-      <c r="L14" s="77" t="inlineStr">
+      <c r="L14" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="78">
-      <c r="A15" s="82" t="n">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="82" t="inlineStr">
+      <c r="B15" s="79" t="inlineStr">
         <is>
           <t>DANIEL BARBOSA DA SILVA</t>
         </is>
       </c>
-      <c r="C15" s="79" t="inlineStr">
+      <c r="C15" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve">513778201	</t>
         </is>
       </c>
-      <c r="D15" s="85" t="n"/>
-      <c r="E15" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="77" t="inlineStr">
+      <c r="D15" s="82" t="n"/>
+      <c r="E15" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H15" s="77" t="inlineStr">
+      <c r="H15" s="74" t="inlineStr">
         <is>
           <t>SSSSSS</t>
         </is>
       </c>
-      <c r="I15" s="94" t="inlineStr">
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="J15" s="81" t="n"/>
+      <c r="J15" s="78" t="n"/>
       <c r="K15" s="18" t="n">
         <v>2378.4</v>
       </c>
-      <c r="L15" s="77" t="inlineStr">
+      <c r="L15" s="74" t="inlineStr">
         <is>
           <t>C:192,61</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="78">
-      <c r="A16" s="82" t="n">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="82" t="inlineStr">
+      <c r="B16" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	MARIA ZILMA UCHOA DE AZEVEDO</t>
         </is>
       </c>
-      <c r="C16" s="79" t="n">
+      <c r="C16" s="76" t="n">
         <v>513772028</v>
       </c>
-      <c r="D16" s="85" t="n"/>
-      <c r="E16" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="77" t="inlineStr">
+      <c r="D16" s="82" t="n"/>
+      <c r="E16" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H16" s="77" t="inlineStr">
+      <c r="H16" s="74" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="I16" s="96" t="inlineStr">
+      <c r="I16" s="93" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="J16" s="81" t="n"/>
-      <c r="K16" s="97" t="n">
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="94" t="n">
         <v>508</v>
       </c>
-      <c r="L16" s="77" t="inlineStr">
+      <c r="L16" s="74" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="78">
-      <c r="A17" s="82" t="n">
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="82" t="inlineStr">
+      <c r="B17" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	CARLOS ALBERTO KRUSCHEWSKY NETO</t>
         </is>
       </c>
-      <c r="C17" s="79" t="n">
+      <c r="C17" s="76" t="n">
         <v>513753257</v>
       </c>
-      <c r="D17" s="85" t="n"/>
-      <c r="E17" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="77" t="inlineStr">
+      <c r="D17" s="82" t="n"/>
+      <c r="E17" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="H17" s="77" t="inlineStr">
+      <c r="H17" s="74" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="I17" s="94" t="inlineStr">
+      <c r="I17" s="91" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="J17" s="81" t="n"/>
+      <c r="J17" s="78" t="n"/>
       <c r="K17" s="21" t="n">
         <v>833</v>
       </c>
-      <c r="L17" s="77" t="inlineStr">
+      <c r="L17" s="74" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="78">
-      <c r="A18" s="82" t="n">
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="82" t="inlineStr">
+      <c r="B18" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	FLAVIO LEONARDO PATRONI TORO</t>
         </is>
       </c>
-      <c r="C18" s="79" t="n">
+      <c r="C18" s="76" t="n">
         <v>513697796</v>
       </c>
-      <c r="D18" s="85" t="n"/>
-      <c r="E18" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="77" t="inlineStr">
+      <c r="D18" s="82" t="n"/>
+      <c r="E18" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H18" s="77" t="inlineStr">
+      <c r="H18" s="74" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="I18" s="94" t="inlineStr">
+      <c r="I18" s="91" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="J18" s="81" t="n"/>
-      <c r="K18" s="98">
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="95">
         <f>K16-K18-K17</f>
         <v/>
       </c>
-      <c r="L18" s="77" t="inlineStr">
+      <c r="L18" s="74" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="78">
-      <c r="A19" s="82" t="n">
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="82" t="inlineStr">
+      <c r="B19" s="79" t="inlineStr">
         <is>
           <t>CLEBER</t>
         </is>
       </c>
-      <c r="C19" s="79" t="inlineStr">
+      <c r="C19" s="76" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D19" s="85" t="inlineStr">
+      <c r="D19" s="82" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="84">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19</f>
         <v/>
       </c>
-      <c r="F19" s="77" t="inlineStr">
+      <c r="F19" s="74" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
-      <c r="H19" s="77" t="inlineStr">
+      <c r="H19" s="74" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="I19" s="94" t="inlineStr">
+      <c r="I19" s="91" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="J19" s="81" t="n"/>
-      <c r="K19" s="99">
+      <c r="J19" s="78" t="n"/>
+      <c r="K19" s="96">
         <f>E4+E5+E7+E8+E9+E10+E11+E12+E13+E15+E16+E17+E19+K4+K6+K7+K8+K9+K10</f>
         <v/>
       </c>
-      <c r="L19" s="77" t="inlineStr">
+      <c r="L19" s="74" t="inlineStr">
         <is>
           <t>D:192,61</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="78">
-      <c r="A20" s="91" t="n"/>
-      <c r="B20" s="92" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="A20" s="88" t="n"/>
+      <c r="B20" s="89" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="C20" s="77" t="inlineStr">
+      <c r="C20" s="74" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="D20" s="100" t="inlineStr">
+      <c r="D20" s="97" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="84">
         <f>49*17</f>
         <v/>
       </c>
-      <c r="F20" s="77" t="inlineStr">
+      <c r="F20" s="74" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
-      <c r="H20" s="77" t="inlineStr">
+      <c r="H20" s="74" t="inlineStr">
         <is>
           <t>LO</t>
         </is>
       </c>
-      <c r="I20" s="101" t="inlineStr">
+      <c r="I20" s="98" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="J20" s="81" t="n"/>
-      <c r="K20" s="102">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="99">
         <f>300+E14</f>
         <v/>
       </c>
-      <c r="L20" s="77" t="inlineStr">
+      <c r="L20" s="74" t="inlineStr">
         <is>
           <t>D:192,61</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="78">
-      <c r="A21" s="91" t="n"/>
-      <c r="B21" s="77" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="A21" s="88" t="n"/>
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C21" s="77" t="inlineStr">
+      <c r="C21" s="74" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" s="103" t="inlineStr">
+      <c r="D21" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E21" s="104" t="n">
+      <c r="E21" s="101" t="n">
         <v>1444.1</v>
       </c>
-      <c r="F21" s="77" t="inlineStr">
+      <c r="F21" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
       <c r="G21" s="29" t="n"/>
-      <c r="H21" s="77" t="inlineStr">
+      <c r="H21" s="74" t="inlineStr">
         <is>
           <t>RT</t>
         </is>
       </c>
-      <c r="I21" s="101" t="inlineStr">
+      <c r="I21" s="98" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J21" s="81" t="n"/>
-      <c r="K21" s="102">
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="99">
         <f>E3+41.26+E18+K3</f>
         <v/>
       </c>
-      <c r="L21" s="77" t="inlineStr">
+      <c r="L21" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="78">
-      <c r="A22" s="91" t="n"/>
-      <c r="B22" s="77" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="75">
+      <c r="A22" s="88" t="n"/>
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>TTTTTT</t>
         </is>
       </c>
-      <c r="C22" s="77" t="inlineStr">
+      <c r="C22" s="74" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D22" s="103" t="n"/>
-      <c r="E22" s="104" t="n"/>
-      <c r="F22" s="77" t="inlineStr">
+      <c r="D22" s="100" t="n"/>
+      <c r="E22" s="101" t="n"/>
+      <c r="F22" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
-      <c r="H22" s="77" t="inlineStr">
+      <c r="H22" s="74" t="inlineStr">
         <is>
           <t>LORD</t>
         </is>
       </c>
-      <c r="I22" s="105" t="inlineStr">
+      <c r="I22" s="102" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J22" s="81" t="n"/>
-      <c r="K22" s="106" t="n"/>
-      <c r="L22" s="77" t="inlineStr">
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="103" t="n"/>
+      <c r="L22" s="74" t="inlineStr">
         <is>
           <t>C:192,61</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="78">
-      <c r="B23" s="77" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="75">
+      <c r="B23" s="74" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="C23" s="77" t="inlineStr">
+      <c r="C23" s="74" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="F23" s="77" t="inlineStr">
+      <c r="F23" s="74" t="inlineStr">
         <is>
           <t>E:341,26</t>
         </is>
       </c>
-      <c r="H23" s="77" t="inlineStr">
+      <c r="H23" s="74" t="inlineStr">
         <is>
           <t>MARCI</t>
         </is>
       </c>
-      <c r="I23" s="77" t="inlineStr">
+      <c r="I23" s="74" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K23" s="92" t="n"/>
-      <c r="L23" s="77" t="inlineStr">
+      <c r="K23" s="89" t="n"/>
+      <c r="L23" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="78">
-      <c r="B24" s="77" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="75">
+      <c r="B24" s="74" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="C24" s="77" t="inlineStr">
+      <c r="C24" s="74" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="F24" s="77" t="inlineStr">
+      <c r="F24" s="74" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="78">
-      <c r="B25" s="77" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="75">
+      <c r="B25" s="74" t="inlineStr">
         <is>
           <t>LUIS</t>
         </is>
       </c>
-      <c r="C25" s="77" t="inlineStr">
+      <c r="C25" s="74" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="F25" s="77" t="inlineStr">
+      <c r="F25" s="74" t="inlineStr">
         <is>
           <t>D:341,26</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="78">
-      <c r="B26" s="77" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="75">
+      <c r="B26" s="74" t="inlineStr">
         <is>
           <t>RT</t>
         </is>
       </c>
-      <c r="C26" s="77" t="inlineStr">
+      <c r="C26" s="74" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F26" s="77" t="inlineStr">
+      <c r="F26" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="78">
-      <c r="B27" s="77" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="75">
+      <c r="B27" s="74" t="inlineStr">
         <is>
           <t>MARCI</t>
         </is>
       </c>
-      <c r="C27" s="77" t="inlineStr">
+      <c r="C27" s="74" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F27" s="77" t="inlineStr">
+      <c r="F27" s="74" t="inlineStr">
         <is>
           <t>C:341,26</t>
         </is>
@@ -2065,713 +2040,713 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.11328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="48" customWidth="1" style="77" min="2" max="2"/>
-    <col width="12.11" customWidth="1" style="77" min="3" max="3"/>
-    <col width="41.22" customWidth="1" style="77" min="8" max="8"/>
-    <col width="10.56" customWidth="1" style="77" min="9" max="9"/>
-    <col width="13.11" customWidth="1" style="77" min="11" max="11"/>
+    <col width="48" customWidth="1" style="74" min="2" max="2"/>
+    <col width="12.11" customWidth="1" style="74" min="3" max="3"/>
+    <col width="41.22" customWidth="1" style="74" min="8" max="8"/>
+    <col width="10.56" customWidth="1" style="74" min="9" max="9"/>
+    <col width="13.11" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="78">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Terça- feira 08/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="79" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Terça-feira 08/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="78">
-      <c r="A2" s="82" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="78">
-      <c r="A3" s="82" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="132" t="inlineStr">
+      <c r="B3" s="129" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="C3" s="79" t="inlineStr">
+      <c r="C3" s="76" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="D3" s="79" t="n"/>
-      <c r="E3" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="92" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G3" s="82" t="n"/>
-      <c r="H3" s="133" t="inlineStr">
+      <c r="G3" s="79" t="n"/>
+      <c r="H3" s="130" t="inlineStr">
         <is>
           <t>VITOR SANTANA DE SOUZA ASSIS</t>
         </is>
       </c>
-      <c r="I3" s="79" t="inlineStr">
+      <c r="I3" s="76" t="inlineStr">
         <is>
           <t>014098535</t>
         </is>
       </c>
-      <c r="J3" s="79" t="n"/>
-      <c r="K3" s="79" t="n">
+      <c r="J3" s="76" t="n"/>
+      <c r="K3" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L3" s="92" t="inlineStr">
+      <c r="L3" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="78">
-      <c r="A4" s="82" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="133" t="inlineStr">
+      <c r="B4" s="130" t="inlineStr">
         <is>
           <t>FERNANDA MARIA DE CARVALHO MAIA FERREIRA</t>
         </is>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="76" t="n">
         <v>513815305</v>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="92" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="82" t="n"/>
-      <c r="H4" s="134" t="inlineStr">
+      <c r="G4" s="79" t="n"/>
+      <c r="H4" s="131" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I4" s="79" t="n">
+      <c r="I4" s="76" t="n">
         <v>513853600</v>
       </c>
-      <c r="J4" s="79" t="n"/>
-      <c r="K4" s="79" t="n">
+      <c r="J4" s="76" t="n"/>
+      <c r="K4" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L4" s="92" t="inlineStr">
+      <c r="L4" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="78">
-      <c r="A5" s="82" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="134" t="inlineStr">
+      <c r="B5" s="131" t="inlineStr">
         <is>
           <t>ANA CLARA SANTOS LACERDA</t>
         </is>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="76" t="n">
         <v>513846571</v>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="92" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="82" t="n"/>
-      <c r="H5" s="134" t="inlineStr">
+      <c r="G5" s="79" t="n"/>
+      <c r="H5" s="131" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="I5" s="79" t="n">
+      <c r="I5" s="76" t="n">
         <v>513835933</v>
       </c>
-      <c r="J5" s="79" t="n"/>
-      <c r="K5" s="79" t="n">
+      <c r="J5" s="76" t="n"/>
+      <c r="K5" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L5" s="92" t="inlineStr">
+      <c r="L5" s="89" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="78">
-      <c r="A6" s="82" t="n">
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="135" t="inlineStr">
+      <c r="B6" s="132" t="inlineStr">
         <is>
           <t>PAULO ROBERTO RIBEIRO LIMA</t>
         </is>
       </c>
-      <c r="C6" s="79" t="n">
+      <c r="C6" s="76" t="n">
         <v>513834018</v>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="92" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G6" s="82" t="n"/>
-      <c r="H6" s="134" t="inlineStr">
+      <c r="G6" s="79" t="n"/>
+      <c r="H6" s="131" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="I6" s="79" t="n">
+      <c r="I6" s="76" t="n">
         <v>513701607</v>
       </c>
-      <c r="J6" s="79" t="n"/>
-      <c r="K6" s="79" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L6" s="92" t="inlineStr">
+      <c r="L6" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="78">
-      <c r="A7" s="82" t="n">
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="134" t="inlineStr">
+      <c r="B7" s="131" t="inlineStr">
         <is>
           <t>JOAO VITOR DANTAS SANTOS DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C7" s="79" t="n">
+      <c r="C7" s="76" t="n">
         <v>513853600</v>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="92" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G7" s="82" t="n"/>
-      <c r="H7" s="134" t="inlineStr">
+      <c r="G7" s="79" t="n"/>
+      <c r="H7" s="131" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="I7" s="79" t="n">
+      <c r="I7" s="76" t="n">
         <v>513836381</v>
       </c>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="79" t="n">
+      <c r="J7" s="76" t="n"/>
+      <c r="K7" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L7" s="92" t="inlineStr">
+      <c r="L7" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="78">
-      <c r="A8" s="82" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="135" t="inlineStr">
+      <c r="B8" s="132" t="inlineStr">
         <is>
           <t>ERIC DANIEL BARBOSA DA CONCEICAO</t>
         </is>
       </c>
-      <c r="C8" s="79" t="n">
+      <c r="C8" s="76" t="n">
         <v>513835933</v>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="92" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="89" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G8" s="82" t="n"/>
-      <c r="H8" s="134" t="inlineStr">
+      <c r="G8" s="79" t="n"/>
+      <c r="H8" s="131" t="inlineStr">
         <is>
           <t>BRENDA SEIXAS BAROUH AZEVEDO</t>
         </is>
       </c>
-      <c r="I8" s="79" t="n">
+      <c r="I8" s="76" t="n">
         <v>513479195</v>
       </c>
-      <c r="J8" s="79" t="n"/>
-      <c r="K8" s="79" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L8" s="92" t="inlineStr">
+      <c r="L8" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="78">
-      <c r="A9" s="82" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="134" t="inlineStr">
+      <c r="B9" s="131" t="inlineStr">
         <is>
           <t>SAULO TACIO DA SILVA BATISTA</t>
         </is>
       </c>
-      <c r="C9" s="79" t="n">
+      <c r="C9" s="76" t="n">
         <v>513701607</v>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="92" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G9" s="82" t="n"/>
-      <c r="H9" s="134" t="inlineStr">
+      <c r="G9" s="79" t="n"/>
+      <c r="H9" s="131" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="I9" s="79" t="n">
+      <c r="I9" s="76" t="n">
         <v>513854244</v>
       </c>
-      <c r="J9" s="79" t="n"/>
-      <c r="K9" s="79" t="n">
+      <c r="J9" s="76" t="n"/>
+      <c r="K9" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L9" s="92" t="inlineStr">
+      <c r="L9" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="78">
-      <c r="A10" s="82" t="n">
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="134" t="inlineStr">
+      <c r="B10" s="131" t="inlineStr">
         <is>
           <t>BIANCA JOICE MENESES DA SILVA</t>
         </is>
       </c>
-      <c r="C10" s="79" t="n">
+      <c r="C10" s="76" t="n">
         <v>513836381</v>
       </c>
-      <c r="D10" s="79" t="n"/>
-      <c r="E10" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="92" t="inlineStr">
+      <c r="D10" s="76" t="n"/>
+      <c r="E10" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="82" t="n"/>
-      <c r="H10" s="84" t="inlineStr">
+      <c r="G10" s="79" t="n"/>
+      <c r="H10" s="81" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="I10" s="79" t="inlineStr">
+      <c r="I10" s="76" t="inlineStr">
         <is>
           <t>888888</t>
         </is>
       </c>
-      <c r="J10" s="79" t="n"/>
-      <c r="K10" s="79" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L10" s="92" t="inlineStr">
+      <c r="L10" s="89" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="78">
-      <c r="A11" s="82" t="n">
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="134" t="inlineStr">
+      <c r="B11" s="131" t="inlineStr">
         <is>
           <t>ROMILDO CORDEIRO AMADOR PINTO</t>
         </is>
       </c>
-      <c r="C11" s="79" t="n">
+      <c r="C11" s="76" t="n">
         <v>513800187</v>
       </c>
-      <c r="D11" s="79" t="n"/>
-      <c r="E11" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="92" t="inlineStr">
+      <c r="D11" s="76" t="n"/>
+      <c r="E11" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G11" s="82" t="n"/>
-      <c r="H11" s="84" t="inlineStr">
+      <c r="G11" s="79" t="n"/>
+      <c r="H11" s="81" t="inlineStr">
         <is>
           <t>DDD</t>
         </is>
       </c>
-      <c r="I11" s="79" t="inlineStr">
+      <c r="I11" s="76" t="inlineStr">
         <is>
           <t>4444</t>
         </is>
       </c>
-      <c r="J11" s="79" t="n"/>
-      <c r="K11" s="79" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L11" s="92" t="inlineStr">
+      <c r="L11" s="89" t="inlineStr">
         <is>
           <t xml:space="preserve">D:  - , C:  - </t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="78">
-      <c r="A12" s="82" t="n">
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="134" t="inlineStr">
+      <c r="B12" s="131" t="inlineStr">
         <is>
           <t>VICTOR FENTANES GUIMARAES SANTOS</t>
         </is>
       </c>
-      <c r="C12" s="79" t="n">
+      <c r="C12" s="76" t="n">
         <v>513797504</v>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="92" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="82" t="n"/>
-      <c r="H12" s="84" t="n"/>
-      <c r="I12" s="79" t="n"/>
-      <c r="J12" s="79" t="n"/>
-      <c r="K12" s="79" t="n">
+      <c r="G12" s="79" t="n"/>
+      <c r="H12" s="81" t="n"/>
+      <c r="I12" s="76" t="n"/>
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="76" t="n">
         <v>192.65</v>
       </c>
-      <c r="L12" s="92" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="78">
-      <c r="A13" s="82" t="n">
+      <c r="L12" s="89" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="134" t="inlineStr">
+      <c r="B13" s="131" t="inlineStr">
         <is>
           <t>ANTONIA MANOELA NUNES BATISTA</t>
         </is>
       </c>
-      <c r="C13" s="79" t="n">
+      <c r="C13" s="76" t="n">
         <v>513820364</v>
       </c>
-      <c r="D13" s="79" t="n"/>
-      <c r="E13" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="92" t="inlineStr">
+      <c r="D13" s="76" t="n"/>
+      <c r="E13" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G13" s="92" t="n"/>
-      <c r="H13" s="92" t="n"/>
-      <c r="I13" s="88" t="n"/>
-      <c r="J13" s="89" t="inlineStr">
+      <c r="G13" s="89" t="n"/>
+      <c r="H13" s="89" t="n"/>
+      <c r="I13" s="85" t="n"/>
+      <c r="J13" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="87">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="78">
-      <c r="A14" s="82" t="n">
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="134" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>CLEITON ALVES DA SILVA</t>
         </is>
       </c>
-      <c r="C14" s="79" t="n">
+      <c r="C14" s="76" t="n">
         <v>513834713</v>
       </c>
-      <c r="D14" s="79" t="n"/>
-      <c r="E14" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="92" t="inlineStr">
+      <c r="D14" s="76" t="n"/>
+      <c r="E14" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="89" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G14" s="91" t="n"/>
-      <c r="H14" s="88" t="n"/>
-      <c r="I14" s="88" t="n"/>
-      <c r="J14" s="92" t="n"/>
+      <c r="G14" s="88" t="n"/>
+      <c r="H14" s="85" t="n"/>
+      <c r="I14" s="85" t="n"/>
+      <c r="J14" s="89" t="n"/>
       <c r="K14" s="14" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="78">
-      <c r="A15" s="82" t="n">
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="134" t="inlineStr">
+      <c r="B15" s="131" t="inlineStr">
         <is>
           <t>MARIA VERENA MARTINS ALVES LYRA</t>
         </is>
       </c>
-      <c r="C15" s="79" t="n">
+      <c r="C15" s="76" t="n">
         <v>513854244</v>
       </c>
-      <c r="D15" s="79" t="n"/>
-      <c r="E15" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="92" t="inlineStr">
+      <c r="D15" s="76" t="n"/>
+      <c r="E15" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="89" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="93" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="78">
-      <c r="A16" s="82" t="n">
+      <c r="H15" s="90" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="n"/>
-      <c r="C16" s="79" t="n"/>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="92" t="n"/>
-      <c r="I16" s="94" t="n"/>
-      <c r="J16" s="81" t="n"/>
-      <c r="K16" s="95" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="78">
-      <c r="A17" s="82" t="n">
+      <c r="B16" s="81" t="n"/>
+      <c r="C16" s="76" t="n"/>
+      <c r="D16" s="76" t="n"/>
+      <c r="E16" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="89" t="n"/>
+      <c r="I16" s="91" t="n"/>
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="92" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="n"/>
-      <c r="C17" s="79" t="n"/>
-      <c r="D17" s="79" t="n"/>
-      <c r="E17" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="92" t="n"/>
-      <c r="I17" s="94" t="n"/>
-      <c r="J17" s="81" t="n"/>
-      <c r="K17" s="95" t="n"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="78">
-      <c r="A18" s="82" t="n">
+      <c r="B17" s="81" t="n"/>
+      <c r="C17" s="76" t="n"/>
+      <c r="D17" s="76" t="n"/>
+      <c r="E17" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="89" t="n"/>
+      <c r="I17" s="91" t="n"/>
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="92" t="n"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="n"/>
-      <c r="C18" s="79" t="n"/>
-      <c r="D18" s="79" t="n"/>
-      <c r="E18" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="92" t="n"/>
-      <c r="I18" s="96" t="n"/>
-      <c r="J18" s="81" t="n"/>
-      <c r="K18" s="97" t="n"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="78">
-      <c r="A19" s="82" t="n">
+      <c r="B18" s="81" t="n"/>
+      <c r="C18" s="76" t="n"/>
+      <c r="D18" s="76" t="n"/>
+      <c r="E18" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="89" t="n"/>
+      <c r="I18" s="93" t="n"/>
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="94" t="n"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="84" t="n"/>
-      <c r="C19" s="79" t="n"/>
-      <c r="D19" s="79" t="n"/>
-      <c r="E19" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="92" t="n"/>
-      <c r="I19" s="94" t="n"/>
-      <c r="J19" s="81" t="n"/>
+      <c r="B19" s="81" t="n"/>
+      <c r="C19" s="76" t="n"/>
+      <c r="D19" s="76" t="n"/>
+      <c r="E19" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="89" t="n"/>
+      <c r="I19" s="91" t="n"/>
+      <c r="J19" s="78" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="78">
-      <c r="A20" s="82" t="n">
+    <row r="20" ht="13.5" customHeight="1" s="75">
+      <c r="A20" s="79" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="84" t="n"/>
-      <c r="C20" s="79" t="n"/>
-      <c r="D20" s="79" t="n"/>
-      <c r="E20" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="92" t="n"/>
-      <c r="I20" s="94" t="n"/>
-      <c r="J20" s="81" t="n"/>
-      <c r="K20" s="98" t="n"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="78">
-      <c r="A21" s="82" t="n">
+      <c r="B20" s="81" t="n"/>
+      <c r="C20" s="76" t="n"/>
+      <c r="D20" s="76" t="n"/>
+      <c r="E20" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="89" t="n"/>
+      <c r="I20" s="91" t="n"/>
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="95" t="n"/>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="75">
+      <c r="A21" s="79" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="84" t="n"/>
-      <c r="C21" s="79" t="n"/>
-      <c r="D21" s="79" t="n"/>
-      <c r="E21" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="92" t="n"/>
-      <c r="I21" s="94" t="n"/>
-      <c r="J21" s="81" t="n"/>
-      <c r="K21" s="99" t="n"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="78">
-      <c r="A22" s="82" t="n">
+      <c r="B21" s="81" t="n"/>
+      <c r="C21" s="76" t="n"/>
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="89" t="n"/>
+      <c r="I21" s="91" t="n"/>
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="96" t="n"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="75">
+      <c r="A22" s="79" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="84" t="n"/>
-      <c r="C22" s="79" t="n"/>
-      <c r="D22" s="79" t="n"/>
-      <c r="E22" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="92" t="n"/>
-      <c r="I22" s="101" t="n"/>
-      <c r="J22" s="81" t="n"/>
-      <c r="K22" s="102" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="78">
-      <c r="A23" s="82" t="n">
+      <c r="B22" s="81" t="n"/>
+      <c r="C22" s="76" t="n"/>
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="89" t="n"/>
+      <c r="I22" s="98" t="n"/>
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="99" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="75">
+      <c r="A23" s="79" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="84" t="n"/>
-      <c r="C23" s="136" t="n"/>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="92" t="n"/>
+      <c r="B23" s="81" t="n"/>
+      <c r="C23" s="133" t="n"/>
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="89" t="n"/>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="101" t="n"/>
-      <c r="J23" s="81" t="n"/>
-      <c r="K23" s="102" t="n"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" s="78">
-      <c r="A24" s="91" t="n"/>
-      <c r="B24" s="92" t="n"/>
-      <c r="D24" s="100" t="n"/>
-      <c r="E24" s="87" t="n"/>
-      <c r="I24" s="105" t="n"/>
-      <c r="J24" s="81" t="n"/>
-      <c r="K24" s="106" t="n"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="78">
-      <c r="A25" s="91" t="n"/>
-      <c r="D25" s="103" t="n"/>
-      <c r="E25" s="104" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="78">
-      <c r="A26" s="91" t="n"/>
-      <c r="D26" s="103" t="n"/>
-      <c r="E26" s="104" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="78"/>
+      <c r="I23" s="98" t="n"/>
+      <c r="J23" s="78" t="n"/>
+      <c r="K23" s="99" t="n"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="75">
+      <c r="A24" s="88" t="n"/>
+      <c r="B24" s="89" t="n"/>
+      <c r="D24" s="97" t="n"/>
+      <c r="E24" s="84" t="n"/>
+      <c r="I24" s="102" t="n"/>
+      <c r="J24" s="78" t="n"/>
+      <c r="K24" s="103" t="n"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="75">
+      <c r="A25" s="88" t="n"/>
+      <c r="D25" s="100" t="n"/>
+      <c r="E25" s="101" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="75">
+      <c r="A26" s="88" t="n"/>
+      <c r="D26" s="100" t="n"/>
+      <c r="E26" s="101" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I21:J21"/>
@@ -2809,142 +2784,142 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.11328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="77" min="2" max="2"/>
-    <col width="9.890000000000001" customWidth="1" style="77" min="4" max="4"/>
-    <col width="55" customWidth="1" style="77" min="8" max="8"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="9.890000000000001" customWidth="1" style="74" min="4" max="4"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="78">
-      <c r="A1" s="110" t="n"/>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="110" t="n"/>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="78">
-      <c r="A2" s="110" t="n"/>
-      <c r="B2" s="110" t="n"/>
-      <c r="C2" s="110" t="n"/>
-      <c r="D2" s="110" t="n"/>
-      <c r="E2" s="110" t="n"/>
-      <c r="G2" s="110" t="n"/>
-      <c r="H2" s="110" t="n"/>
-      <c r="I2" s="110" t="n"/>
-      <c r="J2" s="110" t="n"/>
-      <c r="K2" s="110" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="78">
-      <c r="A3" s="109" t="n"/>
-      <c r="B3" s="109" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="107" t="n"/>
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="107" t="n"/>
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="75">
+      <c r="A2" s="107" t="n"/>
+      <c r="B2" s="107" t="n"/>
+      <c r="C2" s="107" t="n"/>
+      <c r="D2" s="107" t="n"/>
+      <c r="E2" s="107" t="n"/>
+      <c r="G2" s="107" t="n"/>
+      <c r="H2" s="107" t="n"/>
+      <c r="I2" s="107" t="n"/>
+      <c r="J2" s="107" t="n"/>
+      <c r="K2" s="107" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="E3" s="109" t="n"/>
-      <c r="G3" s="109" t="n"/>
-      <c r="H3" s="109" t="inlineStr">
+      <c r="E3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="109" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="78">
-      <c r="A4" s="109" t="n"/>
-      <c r="B4" s="137" t="inlineStr">
+      <c r="K3" s="106" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="106" t="n"/>
+      <c r="B4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="138" t="n"/>
-      <c r="D4" s="138" t="n"/>
-      <c r="E4" s="137" t="n"/>
-      <c r="G4" s="109" t="n"/>
-      <c r="H4" s="137" t="inlineStr">
+      <c r="C4" s="135" t="n"/>
+      <c r="D4" s="135" t="n"/>
+      <c r="E4" s="134" t="n"/>
+      <c r="G4" s="106" t="n"/>
+      <c r="H4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="109" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="78">
-      <c r="A5" s="109" t="n"/>
-      <c r="B5" s="109" t="inlineStr">
+      <c r="K4" s="106" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="106" t="n"/>
+      <c r="B5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="E5" s="109" t="n"/>
-      <c r="G5" s="109" t="n"/>
-      <c r="H5" s="109" t="inlineStr">
+      <c r="E5" s="106" t="n"/>
+      <c r="G5" s="106" t="n"/>
+      <c r="H5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="109" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="78">
-      <c r="A6" s="109" t="n"/>
-      <c r="B6" s="109" t="inlineStr">
+      <c r="K5" s="106" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="106" t="n"/>
+      <c r="B6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="E6" s="109" t="n"/>
-      <c r="G6" s="109" t="n"/>
-      <c r="H6" s="109" t="inlineStr">
+      <c r="E6" s="106" t="n"/>
+      <c r="G6" s="106" t="n"/>
+      <c r="H6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="109" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="78">
-      <c r="A7" s="109" t="n"/>
-      <c r="B7" s="109" t="inlineStr">
+      <c r="K6" s="106" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="106" t="n"/>
+      <c r="B7" s="106" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="E7" s="109" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="78">
-      <c r="A8" s="109" t="n"/>
-      <c r="B8" s="109" t="inlineStr">
+      <c r="E7" s="106" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="106" t="n"/>
+      <c r="B8" s="106" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="E8" s="109" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="78"/>
-    <row r="10" ht="13.5" customHeight="1" s="78"/>
-    <row r="11" ht="13.5" customHeight="1" s="78">
-      <c r="I11" s="109" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="78">
-      <c r="I12" s="109" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="78">
-      <c r="I13" s="109" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="78">
-      <c r="I14" s="109" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="78">
-      <c r="I15" s="109" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="78"/>
+      <c r="E8" s="106" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="75"/>
+    <row r="10" ht="13.5" customHeight="1" s="75"/>
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="I11" s="106" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="I12" s="106" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="I13" s="106" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="I14" s="106" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="I15" s="106" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -2973,291 +2948,291 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.11328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="77" min="2" max="2"/>
-    <col width="55" customWidth="1" style="77" min="8" max="8"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="78">
-      <c r="A1" s="110" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="75">
+      <c r="A1" s="107" t="inlineStr">
         <is>
           <t>(A) Atendimento Médico 02/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="110" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="107" t="inlineStr">
         <is>
           <t>(A) Atendimento Psicológico 02/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="78">
-      <c r="A2" s="110" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="75">
+      <c r="A2" s="107" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="110" t="inlineStr">
+      <c r="B2" s="107" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="110" t="inlineStr">
+      <c r="C2" s="107" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="110" t="inlineStr">
+      <c r="D2" s="107" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="110" t="inlineStr">
+      <c r="E2" s="107" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="110" t="n"/>
-      <c r="H2" s="110" t="n"/>
-      <c r="I2" s="110" t="n"/>
-      <c r="J2" s="110" t="n"/>
-      <c r="K2" s="110" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="78">
-      <c r="A3" s="109" t="n"/>
-      <c r="B3" s="109" t="inlineStr">
+      <c r="G2" s="107" t="n"/>
+      <c r="H2" s="107" t="n"/>
+      <c r="I2" s="107" t="n"/>
+      <c r="J2" s="107" t="n"/>
+      <c r="K2" s="107" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="109" t="n">
+      <c r="C3" s="106" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="109" t="n"/>
-      <c r="E3" s="139" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="G3" s="109" t="n"/>
-      <c r="H3" s="109" t="inlineStr">
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="106" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="K3" s="139" t="n">
+      <c r="K3" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="78">
-      <c r="A4" s="109" t="n"/>
-      <c r="B4" s="137" t="inlineStr">
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="106" t="n"/>
+      <c r="B4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="137" t="n">
+      <c r="C4" s="134" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="137" t="n"/>
-      <c r="E4" s="140" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="G4" s="109" t="n"/>
-      <c r="H4" s="137" t="inlineStr">
+      <c r="D4" s="134" t="n"/>
+      <c r="E4" s="137" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="G4" s="106" t="n"/>
+      <c r="H4" s="134" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="K4" s="139" t="n">
+      <c r="K4" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="78">
-      <c r="A5" s="109" t="n"/>
-      <c r="B5" s="109" t="inlineStr">
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="106" t="n"/>
+      <c r="B5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="109" t="n">
+      <c r="C5" s="106" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="109" t="n"/>
-      <c r="E5" s="139" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="G5" s="109" t="n"/>
-      <c r="H5" s="109" t="inlineStr">
+      <c r="D5" s="106" t="n"/>
+      <c r="E5" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="G5" s="106" t="n"/>
+      <c r="H5" s="106" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="K5" s="139" t="n">
+      <c r="K5" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="78">
-      <c r="A6" s="109" t="n"/>
-      <c r="B6" s="109" t="inlineStr">
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="106" t="n"/>
+      <c r="B6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="D6" s="109" t="n"/>
-      <c r="E6" s="139" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="G6" s="109" t="n"/>
-      <c r="H6" s="109" t="inlineStr">
+      <c r="D6" s="106" t="n"/>
+      <c r="E6" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="G6" s="106" t="n"/>
+      <c r="H6" s="106" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="K6" s="139" t="n">
+      <c r="K6" s="136" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="78">
-      <c r="A7" s="109" t="n"/>
-      <c r="B7" s="109" t="inlineStr">
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="106" t="n"/>
+      <c r="B7" s="106" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="D7" s="109" t="n"/>
-      <c r="E7" s="139" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H7" s="109" t="inlineStr">
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H7" s="106" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="J7" s="110" t="n"/>
-      <c r="K7" s="110" t="n">
+      <c r="J7" s="107" t="n"/>
+      <c r="K7" s="107" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="78">
-      <c r="A8" s="109" t="n"/>
-      <c r="B8" s="109" t="inlineStr">
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="106" t="n"/>
+      <c r="B8" s="106" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="D8" s="109" t="n"/>
-      <c r="E8" s="139" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="H8" s="109" t="inlineStr">
+      <c r="D8" s="106" t="n"/>
+      <c r="E8" s="136" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="H8" s="106" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="J8" s="110" t="n"/>
-      <c r="K8" s="110" t="n">
+      <c r="J8" s="107" t="n"/>
+      <c r="K8" s="107" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="78">
-      <c r="B9" s="109" t="inlineStr">
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="B9" s="106" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="D9" s="110" t="n"/>
-      <c r="E9" s="110" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J9" s="110" t="inlineStr">
+      <c r="D9" s="107" t="n"/>
+      <c r="E9" s="107" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J9" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K9" s="110" t="n">
+      <c r="K9" s="107" t="n">
         <v>1155.66</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="78">
-      <c r="B10" s="109" t="inlineStr">
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="B10" s="106" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="D10" s="110" t="n"/>
-      <c r="E10" s="110" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="J10" s="110" t="inlineStr">
+      <c r="D10" s="107" t="n"/>
+      <c r="E10" s="107" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="J10" s="107" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K10" s="110" t="n">
+      <c r="K10" s="107" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="78">
-      <c r="D11" s="110" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="D11" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E11" s="110" t="n">
+      <c r="E11" s="107" t="n">
         <v>1189.2</v>
       </c>
-      <c r="I11" s="109" t="n"/>
-      <c r="J11" s="110" t="inlineStr">
+      <c r="I11" s="106" t="n"/>
+      <c r="J11" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K11" s="110" t="n">
+      <c r="K11" s="107" t="n">
         <v>774.66</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="78">
-      <c r="D12" s="110" t="inlineStr">
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="D12" s="107" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E12" s="110" t="n">
+      <c r="E12" s="107" t="n">
         <v>392</v>
       </c>
-      <c r="I12" s="109" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="78">
-      <c r="D13" s="110" t="inlineStr">
+      <c r="I12" s="106" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="D13" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E13" s="110" t="n">
+      <c r="E13" s="107" t="n">
         <v>797.2</v>
       </c>
-      <c r="I13" s="109" t="n"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="78">
-      <c r="I14" s="109" t="n"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="78">
-      <c r="I15" s="109" t="n"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="78">
-      <c r="D16" s="109" t="n"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="78"/>
+      <c r="I13" s="106" t="n"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="75">
+      <c r="I14" s="106" t="n"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="75">
+      <c r="I15" s="106" t="n"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="75">
+      <c r="D16" s="106" t="n"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -3286,342 +3261,342 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="A1:L14 G20"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.11328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="77" min="2" max="2"/>
-    <col width="13" customWidth="1" style="77" min="3" max="3"/>
-    <col width="55" customWidth="1" style="77" min="8" max="8"/>
-    <col width="13" customWidth="1" style="77" min="9" max="9"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13" customWidth="1" style="74" min="3" max="3"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
+    <col width="13" customWidth="1" style="74" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="78">
-      <c r="A1" s="108" t="n"/>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="108" t="n"/>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="78">
-      <c r="A2" s="108" t="n"/>
-      <c r="B2" s="108" t="n"/>
-      <c r="C2" s="108" t="n"/>
-      <c r="D2" s="108" t="n"/>
-      <c r="E2" s="141" t="n"/>
-      <c r="G2" s="108" t="n"/>
-      <c r="H2" s="108" t="n"/>
-      <c r="I2" s="108" t="n"/>
-      <c r="J2" s="108" t="n"/>
-      <c r="K2" s="108" t="n"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="78">
-      <c r="A3" s="139" t="n"/>
-      <c r="B3" s="139" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="75">
+      <c r="A1" s="105" t="n"/>
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="105" t="n"/>
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="75">
+      <c r="A2" s="105" t="n"/>
+      <c r="B2" s="105" t="n"/>
+      <c r="C2" s="105" t="n"/>
+      <c r="D2" s="105" t="n"/>
+      <c r="E2" s="138" t="n"/>
+      <c r="G2" s="105" t="n"/>
+      <c r="H2" s="105" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="105" t="n"/>
+      <c r="K2" s="105" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="75">
+      <c r="A3" s="136" t="n"/>
+      <c r="B3" s="136" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="C3" s="139" t="n">
+      <c r="C3" s="136" t="n">
         <v>88565544</v>
       </c>
-      <c r="D3" s="139" t="n"/>
-      <c r="E3" s="142" t="n"/>
-      <c r="G3" s="139" t="n"/>
-      <c r="H3" s="139" t="inlineStr">
+      <c r="D3" s="136" t="n"/>
+      <c r="E3" s="139" t="n"/>
+      <c r="G3" s="136" t="n"/>
+      <c r="H3" s="136" t="inlineStr">
         <is>
           <t>joao</t>
         </is>
       </c>
-      <c r="I3" s="139" t="n"/>
-      <c r="J3" s="139" t="n"/>
-      <c r="K3" s="142" t="n"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="78">
-      <c r="A4" s="139" t="n"/>
-      <c r="B4" s="140" t="inlineStr">
+      <c r="I3" s="136" t="n"/>
+      <c r="J3" s="136" t="n"/>
+      <c r="K3" s="139" t="n"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="75">
+      <c r="A4" s="136" t="n"/>
+      <c r="B4" s="137" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="C4" s="140" t="n">
+      <c r="C4" s="137" t="n">
         <v>2224158</v>
       </c>
-      <c r="D4" s="139" t="n"/>
-      <c r="E4" s="142" t="n"/>
-      <c r="G4" s="139" t="n"/>
-      <c r="H4" s="140" t="inlineStr">
+      <c r="D4" s="136" t="n"/>
+      <c r="E4" s="139" t="n"/>
+      <c r="G4" s="136" t="n"/>
+      <c r="H4" s="137" t="inlineStr">
         <is>
           <t>pedro</t>
         </is>
       </c>
-      <c r="I4" s="139" t="n"/>
-      <c r="J4" s="139" t="n"/>
-      <c r="K4" s="142" t="n"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="78">
-      <c r="A5" s="139" t="n"/>
-      <c r="B5" s="139" t="inlineStr">
+      <c r="I4" s="136" t="n"/>
+      <c r="J4" s="136" t="n"/>
+      <c r="K4" s="139" t="n"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="75">
+      <c r="A5" s="136" t="n"/>
+      <c r="B5" s="136" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="C5" s="139" t="n">
+      <c r="C5" s="136" t="n">
         <v>585447148</v>
       </c>
-      <c r="D5" s="139" t="n"/>
-      <c r="E5" s="142" t="n"/>
-      <c r="G5" s="139" t="n"/>
-      <c r="H5" s="139" t="inlineStr">
+      <c r="D5" s="136" t="n"/>
+      <c r="E5" s="139" t="n"/>
+      <c r="G5" s="136" t="n"/>
+      <c r="H5" s="136" t="inlineStr">
         <is>
           <t>evandro</t>
         </is>
       </c>
-      <c r="I5" s="139" t="n"/>
-      <c r="J5" s="139" t="n"/>
-      <c r="K5" s="142" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="78">
-      <c r="A6" s="139" t="n"/>
-      <c r="B6" s="139" t="inlineStr">
+      <c r="I5" s="136" t="n"/>
+      <c r="J5" s="136" t="n"/>
+      <c r="K5" s="139" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="75">
+      <c r="A6" s="136" t="n"/>
+      <c r="B6" s="136" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="C6" s="139" t="n"/>
-      <c r="D6" s="139" t="n"/>
-      <c r="E6" s="142" t="n"/>
-      <c r="G6" s="139" t="n"/>
-      <c r="H6" s="139" t="inlineStr">
+      <c r="C6" s="136" t="n"/>
+      <c r="D6" s="136" t="n"/>
+      <c r="E6" s="139" t="n"/>
+      <c r="G6" s="136" t="n"/>
+      <c r="H6" s="136" t="inlineStr">
         <is>
           <t>leonar</t>
         </is>
       </c>
-      <c r="I6" s="139" t="n"/>
-      <c r="J6" s="139" t="n"/>
-      <c r="K6" s="142" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="78">
-      <c r="A7" s="139" t="n"/>
-      <c r="B7" s="139" t="inlineStr">
+      <c r="I6" s="136" t="n"/>
+      <c r="J6" s="136" t="n"/>
+      <c r="K6" s="139" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="75">
+      <c r="A7" s="136" t="n"/>
+      <c r="B7" s="136" t="inlineStr">
         <is>
           <t>gustavo</t>
         </is>
       </c>
-      <c r="C7" s="139" t="n"/>
-      <c r="D7" s="139" t="n"/>
-      <c r="E7" s="142" t="n"/>
-      <c r="G7" s="139" t="n"/>
-      <c r="H7" s="139" t="inlineStr">
+      <c r="C7" s="136" t="n"/>
+      <c r="D7" s="136" t="n"/>
+      <c r="E7" s="139" t="n"/>
+      <c r="G7" s="136" t="n"/>
+      <c r="H7" s="136" t="inlineStr">
         <is>
           <t>emanuelison</t>
         </is>
       </c>
-      <c r="I7" s="139" t="n"/>
-      <c r="J7" s="139" t="n"/>
-      <c r="K7" s="142" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="78">
-      <c r="A8" s="139" t="n"/>
-      <c r="B8" s="139" t="inlineStr">
+      <c r="I7" s="136" t="n"/>
+      <c r="J7" s="136" t="n"/>
+      <c r="K7" s="139" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="75">
+      <c r="A8" s="136" t="n"/>
+      <c r="B8" s="136" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
       </c>
-      <c r="C8" s="139" t="n"/>
-      <c r="D8" s="139" t="n"/>
-      <c r="E8" s="142" t="n"/>
-      <c r="G8" s="139" t="n"/>
-      <c r="H8" s="139" t="inlineStr">
+      <c r="C8" s="136" t="n"/>
+      <c r="D8" s="136" t="n"/>
+      <c r="E8" s="139" t="n"/>
+      <c r="G8" s="136" t="n"/>
+      <c r="H8" s="136" t="inlineStr">
         <is>
           <t>patricio</t>
         </is>
       </c>
-      <c r="I8" s="139" t="n"/>
-      <c r="J8" s="139" t="n"/>
-      <c r="K8" s="142" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="78">
-      <c r="A9" s="139" t="n"/>
-      <c r="B9" s="139" t="inlineStr">
+      <c r="I8" s="136" t="n"/>
+      <c r="J8" s="136" t="n"/>
+      <c r="K8" s="139" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="75">
+      <c r="A9" s="136" t="n"/>
+      <c r="B9" s="136" t="inlineStr">
         <is>
           <t>abigobaldo</t>
         </is>
       </c>
-      <c r="C9" s="139" t="n"/>
-      <c r="D9" s="139" t="n"/>
-      <c r="E9" s="141" t="n"/>
-      <c r="G9" s="139" t="n"/>
-      <c r="H9" s="139" t="inlineStr">
+      <c r="C9" s="136" t="n"/>
+      <c r="D9" s="136" t="n"/>
+      <c r="E9" s="138" t="n"/>
+      <c r="G9" s="136" t="n"/>
+      <c r="H9" s="136" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="I9" s="108" t="inlineStr">
+      <c r="I9" s="105" t="inlineStr">
         <is>
           <t>855555</t>
         </is>
       </c>
-      <c r="J9" s="108" t="n"/>
-      <c r="K9" s="141" t="n"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="78">
-      <c r="A10" s="139" t="n"/>
-      <c r="B10" s="139" t="inlineStr">
+      <c r="J9" s="105" t="n"/>
+      <c r="K9" s="138" t="n"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="75">
+      <c r="A10" s="136" t="n"/>
+      <c r="B10" s="136" t="inlineStr">
         <is>
           <t>joaquin neto</t>
         </is>
       </c>
-      <c r="C10" s="139" t="n"/>
-      <c r="D10" s="139" t="n"/>
-      <c r="E10" s="141" t="n"/>
-      <c r="I10" s="108" t="n"/>
-      <c r="J10" s="108" t="n"/>
-      <c r="K10" s="141" t="n"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="78">
-      <c r="A11" s="139" t="n"/>
-      <c r="B11" s="139" t="inlineStr">
+      <c r="C10" s="136" t="n"/>
+      <c r="D10" s="136" t="n"/>
+      <c r="E10" s="138" t="n"/>
+      <c r="I10" s="105" t="n"/>
+      <c r="J10" s="105" t="n"/>
+      <c r="K10" s="138" t="n"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="75">
+      <c r="A11" s="136" t="n"/>
+      <c r="B11" s="136" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="C11" s="108" t="inlineStr">
+      <c r="C11" s="105" t="inlineStr">
         <is>
           <t>855555</t>
         </is>
       </c>
-      <c r="D11" s="108" t="n"/>
-      <c r="E11" s="141" t="n"/>
-      <c r="I11" s="108" t="n"/>
-      <c r="J11" s="108" t="n"/>
-      <c r="K11" s="141" t="n"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="78">
-      <c r="B12" s="77" t="inlineStr">
+      <c r="D11" s="105" t="n"/>
+      <c r="E11" s="138" t="n"/>
+      <c r="I11" s="105" t="n"/>
+      <c r="J11" s="105" t="n"/>
+      <c r="K11" s="138" t="n"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="75">
+      <c r="B12" s="74" t="inlineStr">
         <is>
           <t>LUCAS</t>
         </is>
       </c>
-      <c r="C12" s="108" t="inlineStr">
+      <c r="C12" s="105" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="D12" s="108" t="n"/>
-      <c r="E12" s="141" t="n"/>
-      <c r="F12" s="77" t="inlineStr">
+      <c r="D12" s="105" t="n"/>
+      <c r="E12" s="138" t="n"/>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I12" s="108" t="n"/>
-      <c r="J12" s="108" t="n"/>
-      <c r="K12" s="141" t="n"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="78">
-      <c r="C13" s="108" t="n"/>
-      <c r="D13" s="108" t="n"/>
-      <c r="E13" s="141" t="n"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" s="78">
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="141" t="n"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" s="78">
-      <c r="G15" s="139" t="n"/>
-      <c r="H15" s="108" t="n"/>
-      <c r="I15" s="81" t="n"/>
-      <c r="J15" s="141" t="n"/>
-      <c r="K15" s="142" t="n"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" s="78">
-      <c r="G16" s="139" t="n"/>
-      <c r="H16" s="108" t="n"/>
-      <c r="I16" s="81" t="n"/>
-      <c r="J16" s="141" t="n"/>
-      <c r="K16" s="142" t="n"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" s="78">
-      <c r="G17" s="139" t="n"/>
-      <c r="H17" s="108" t="n"/>
-      <c r="I17" s="81" t="n"/>
-      <c r="J17" s="141" t="n"/>
-      <c r="K17" s="142" t="n"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" s="78"/>
-    <row r="19" ht="12.75" customHeight="1" s="78">
-      <c r="G19" s="139" t="n"/>
-      <c r="H19" s="108" t="n"/>
-      <c r="I19" s="81" t="n"/>
-      <c r="J19" s="141" t="n"/>
-      <c r="K19" s="142" t="n"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" s="78">
-      <c r="G20" s="139" t="n"/>
-      <c r="H20" s="108" t="n"/>
-      <c r="I20" s="81" t="n"/>
-      <c r="J20" s="141" t="n"/>
-      <c r="K20" s="142" t="n"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" s="78">
-      <c r="G21" s="139" t="n"/>
-      <c r="H21" s="108" t="n"/>
-      <c r="I21" s="81" t="n"/>
-      <c r="J21" s="141" t="n"/>
-      <c r="K21" s="142" t="n"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1" s="78">
-      <c r="I22" s="108" t="n"/>
-      <c r="J22" s="108" t="n"/>
-      <c r="K22" s="141" t="n"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" s="78">
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="108" t="n"/>
-      <c r="K23" s="141" t="n"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1" s="78">
-      <c r="I24" s="108" t="n"/>
-      <c r="J24" s="108" t="n"/>
-      <c r="K24" s="141" t="n"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="78">
-      <c r="H26" s="108" t="n"/>
-      <c r="I26" s="81" t="n"/>
-      <c r="J26" s="141" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="78">
-      <c r="H27" s="108" t="n"/>
-      <c r="I27" s="81" t="n"/>
-      <c r="J27" s="141" t="n"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" s="78">
-      <c r="H28" s="108" t="n"/>
-      <c r="I28" s="81" t="n"/>
-      <c r="J28" s="141" t="n"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" s="78">
-      <c r="H30" s="108" t="n"/>
-      <c r="I30" s="81" t="n"/>
-      <c r="J30" s="141" t="n"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" s="78">
-      <c r="H31" s="108" t="n"/>
-      <c r="I31" s="81" t="n"/>
-      <c r="J31" s="141" t="n"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" s="78">
-      <c r="H32" s="108" t="n"/>
-      <c r="I32" s="81" t="n"/>
-      <c r="J32" s="141" t="n"/>
+      <c r="I12" s="105" t="n"/>
+      <c r="J12" s="105" t="n"/>
+      <c r="K12" s="138" t="n"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="75">
+      <c r="C13" s="105" t="n"/>
+      <c r="D13" s="105" t="n"/>
+      <c r="E13" s="138" t="n"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="75">
+      <c r="C14" s="105" t="n"/>
+      <c r="D14" s="105" t="n"/>
+      <c r="E14" s="138" t="n"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="75">
+      <c r="G15" s="136" t="n"/>
+      <c r="H15" s="105" t="n"/>
+      <c r="I15" s="78" t="n"/>
+      <c r="J15" s="138" t="n"/>
+      <c r="K15" s="139" t="n"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="75">
+      <c r="G16" s="136" t="n"/>
+      <c r="H16" s="105" t="n"/>
+      <c r="I16" s="78" t="n"/>
+      <c r="J16" s="138" t="n"/>
+      <c r="K16" s="139" t="n"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="75">
+      <c r="G17" s="136" t="n"/>
+      <c r="H17" s="105" t="n"/>
+      <c r="I17" s="78" t="n"/>
+      <c r="J17" s="138" t="n"/>
+      <c r="K17" s="139" t="n"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="75"/>
+    <row r="19" ht="12.75" customHeight="1" s="75">
+      <c r="G19" s="136" t="n"/>
+      <c r="H19" s="105" t="n"/>
+      <c r="I19" s="78" t="n"/>
+      <c r="J19" s="138" t="n"/>
+      <c r="K19" s="139" t="n"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="75">
+      <c r="G20" s="136" t="n"/>
+      <c r="H20" s="105" t="n"/>
+      <c r="I20" s="78" t="n"/>
+      <c r="J20" s="138" t="n"/>
+      <c r="K20" s="139" t="n"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" s="75">
+      <c r="G21" s="136" t="n"/>
+      <c r="H21" s="105" t="n"/>
+      <c r="I21" s="78" t="n"/>
+      <c r="J21" s="138" t="n"/>
+      <c r="K21" s="139" t="n"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="75">
+      <c r="I22" s="105" t="n"/>
+      <c r="J22" s="105" t="n"/>
+      <c r="K22" s="138" t="n"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" s="75">
+      <c r="I23" s="105" t="n"/>
+      <c r="J23" s="105" t="n"/>
+      <c r="K23" s="138" t="n"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" s="75">
+      <c r="I24" s="105" t="n"/>
+      <c r="J24" s="105" t="n"/>
+      <c r="K24" s="138" t="n"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="75">
+      <c r="H26" s="105" t="n"/>
+      <c r="I26" s="78" t="n"/>
+      <c r="J26" s="138" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="75">
+      <c r="H27" s="105" t="n"/>
+      <c r="I27" s="78" t="n"/>
+      <c r="J27" s="138" t="n"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" s="75">
+      <c r="H28" s="105" t="n"/>
+      <c r="I28" s="78" t="n"/>
+      <c r="J28" s="138" t="n"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" s="75">
+      <c r="H30" s="105" t="n"/>
+      <c r="I30" s="78" t="n"/>
+      <c r="J30" s="138" t="n"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" s="75">
+      <c r="H31" s="105" t="n"/>
+      <c r="I31" s="78" t="n"/>
+      <c r="J31" s="138" t="n"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" s="75">
+      <c r="H32" s="105" t="n"/>
+      <c r="I32" s="78" t="n"/>
+      <c r="J32" s="138" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3663,139 +3638,139 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12" customWidth="1" style="77" min="1" max="1"/>
-    <col width="13.44" customWidth="1" style="77" min="2" max="2"/>
-    <col width="11" customWidth="1" style="77" min="3" max="3"/>
+    <col width="12" customWidth="1" style="74" min="1" max="1"/>
+    <col width="13.44" customWidth="1" style="74" min="2" max="2"/>
+    <col width="11" customWidth="1" style="74" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="77" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="74" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
-      <c r="B1" s="77" t="inlineStr">
+      <c r="B1" s="74" t="inlineStr">
         <is>
           <t>CONTAS</t>
         </is>
       </c>
-      <c r="C1" s="77" t="inlineStr">
+      <c r="C1" s="74" t="inlineStr">
         <is>
           <t>VALOR</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="57.75" customHeight="1" s="78">
-      <c r="A2" s="143" t="n">
+    <row r="2" ht="57.75" customHeight="1" s="75">
+      <c r="A2" s="140" t="n">
         <v>45602</v>
       </c>
-      <c r="B2" s="144" t="inlineStr">
+      <c r="B2" s="141" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="C2" s="145" t="inlineStr">
+      <c r="C2" s="142" t="inlineStr">
         <is>
           <t>R$ 333.00</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="78">
-      <c r="B3" s="77" t="inlineStr">
+    <row r="3" ht="14.25" customHeight="1" s="75">
+      <c r="B3" s="74" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="C3" s="77" t="inlineStr">
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="F3" s="77" t="inlineStr">
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H3" s="77" t="inlineStr">
+      <c r="H3" s="74" t="inlineStr">
         <is>
           <t>PEDRO</t>
         </is>
       </c>
-      <c r="I3" s="77" t="inlineStr">
+      <c r="I3" s="74" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="L3" s="77" t="inlineStr">
+      <c r="L3" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="78">
-      <c r="B4" s="77" t="inlineStr">
+    <row r="4" ht="14.25" customHeight="1" s="75">
+      <c r="B4" s="74" t="inlineStr">
         <is>
           <t>PEDEROO</t>
         </is>
       </c>
-      <c r="C4" s="77" t="inlineStr">
+      <c r="C4" s="74" t="inlineStr">
         <is>
           <t>41641</t>
         </is>
       </c>
-      <c r="F4" s="77" t="inlineStr">
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H4" s="77" t="inlineStr">
+      <c r="H4" s="74" t="inlineStr">
         <is>
           <t>PEDEROO</t>
         </is>
       </c>
-      <c r="I4" s="77" t="inlineStr">
+      <c r="I4" s="74" t="inlineStr">
         <is>
           <t>41641</t>
         </is>
       </c>
-      <c r="L4" s="77" t="inlineStr">
+      <c r="L4" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="78">
-      <c r="B5" s="77" t="inlineStr">
+    <row r="5" ht="14.25" customHeight="1" s="75">
+      <c r="B5" s="74" t="inlineStr">
         <is>
           <t>POOOO</t>
         </is>
       </c>
-      <c r="C5" s="77" t="inlineStr">
+      <c r="C5" s="74" t="inlineStr">
         <is>
           <t>33333</t>
         </is>
       </c>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H5" s="77" t="inlineStr">
+      <c r="H5" s="74" t="inlineStr">
         <is>
           <t>POOOO</t>
         </is>
       </c>
-      <c r="I5" s="77" t="inlineStr">
+      <c r="I5" s="74" t="inlineStr">
         <is>
           <t>33333</t>
         </is>
       </c>
-      <c r="L5" s="77" t="inlineStr">
+      <c r="L5" s="74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -3814,418 +3789,496 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="8" customWidth="1" style="77" min="1" max="1"/>
-    <col width="40" customWidth="1" style="77" min="2" max="2"/>
-    <col width="12" customWidth="1" style="77" min="3" max="5"/>
-    <col width="12" customWidth="1" style="78" min="4" max="4"/>
-    <col width="12" customWidth="1" style="78" min="5" max="5"/>
-    <col width="15" customWidth="1" style="77" min="6" max="6"/>
-    <col width="8" customWidth="1" style="77" min="7" max="7"/>
-    <col width="40" customWidth="1" style="77" min="8" max="8"/>
-    <col width="12" customWidth="1" style="77" min="9" max="11"/>
-    <col width="12" customWidth="1" style="78" min="10" max="10"/>
-    <col width="12" customWidth="1" style="78" min="11" max="11"/>
-    <col width="15" customWidth="1" style="77" min="12" max="12"/>
+    <col width="8" customWidth="1" style="75" min="1" max="1"/>
+    <col width="40" customWidth="1" style="75" min="2" max="2"/>
+    <col width="12" customWidth="1" style="75" min="3" max="3"/>
+    <col width="12" customWidth="1" style="75" min="4" max="4"/>
+    <col width="12" customWidth="1" style="75" min="5" max="5"/>
+    <col width="15" customWidth="1" style="75" min="6" max="6"/>
+    <col width="8" customWidth="1" style="75" min="7" max="7"/>
+    <col width="40" customWidth="1" style="75" min="8" max="8"/>
+    <col width="12" customWidth="1" style="75" min="9" max="9"/>
+    <col width="12" customWidth="1" style="75" min="10" max="10"/>
+    <col width="12" customWidth="1" style="75" min="11" max="11"/>
+    <col width="15" customWidth="1" style="75" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="78">
-      <c r="A1" s="149" t="inlineStr">
-        <is>
-          <t>(Usuário) Atendimento Médico 17/11/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="150" t="n"/>
-      <c r="C1" s="150" t="n"/>
-      <c r="D1" s="150" t="n"/>
-      <c r="E1" s="150" t="n"/>
-      <c r="F1" s="151" t="n"/>
-      <c r="G1" s="149" t="inlineStr">
-        <is>
-          <t>(Usuário) Atendimento Psicológico 17/11/2024</t>
-        </is>
-      </c>
-      <c r="H1" s="150" t="n"/>
-      <c r="I1" s="150" t="n"/>
-      <c r="J1" s="150" t="n"/>
-      <c r="K1" s="150" t="n"/>
-      <c r="L1" s="151" t="n"/>
-    </row>
-    <row r="2" ht="13.8" customHeight="1" s="78">
-      <c r="A2" s="149" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="143" t="inlineStr">
+        <is>
+          <t>(Usuário) Atendimento Médico 18/11/2024</t>
+        </is>
+      </c>
+      <c r="B1" s="144" t="n"/>
+      <c r="C1" s="144" t="n"/>
+      <c r="D1" s="144" t="n"/>
+      <c r="E1" s="144" t="n"/>
+      <c r="F1" s="145" t="n"/>
+      <c r="G1" s="143" t="inlineStr">
+        <is>
+          <t>(Usuário) Atendimento Psicológico 18/11/2024</t>
+        </is>
+      </c>
+      <c r="H1" s="144" t="n"/>
+      <c r="I1" s="144" t="n"/>
+      <c r="J1" s="144" t="n"/>
+      <c r="K1" s="144" t="n"/>
+      <c r="L1" s="145" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="143" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="149" t="inlineStr">
+      <c r="B2" s="143" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="149" t="inlineStr">
+      <c r="C2" s="143" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="149" t="inlineStr">
+      <c r="D2" s="143" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="149" t="inlineStr">
+      <c r="E2" s="143" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="F2" s="149" t="inlineStr">
+      <c r="F2" s="143" t="inlineStr">
         <is>
           <t>Pagamento</t>
         </is>
       </c>
-      <c r="G2" s="149" t="inlineStr">
+      <c r="G2" s="143" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="149" t="inlineStr">
+      <c r="H2" s="143" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="149" t="inlineStr">
+      <c r="I2" s="143" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="149" t="inlineStr">
+      <c r="J2" s="143" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="149" t="inlineStr">
+      <c r="K2" s="143" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="L2" s="149" t="inlineStr">
+      <c r="L2" s="143" t="inlineStr">
         <is>
           <t>Pagamento</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="78">
-      <c r="A3" s="152" t="n">
+    <row r="3">
+      <c r="A3" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="153" t="inlineStr">
-        <is>
-          <t>AAAA</t>
-        </is>
-      </c>
-      <c r="C3" s="152" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D3" s="152" t="inlineStr"/>
-      <c r="E3" s="154" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="152" t="inlineStr">
+      <c r="B3" s="147" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="C3" s="146" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D3" s="146" t="inlineStr"/>
+      <c r="E3" s="148" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="146" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="152" t="n">
+      <c r="G3" s="146" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="153" t="inlineStr">
-        <is>
-          <t>AAAA</t>
-        </is>
-      </c>
-      <c r="I3" s="152" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J3" s="152" t="inlineStr"/>
-      <c r="K3" s="154" t="n">
+      <c r="H3" s="147" t="inlineStr">
+        <is>
+          <t>FERNANDO</t>
+        </is>
+      </c>
+      <c r="I3" s="146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J3" s="146" t="inlineStr"/>
+      <c r="K3" s="148" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="152" t="inlineStr">
+      <c r="L3" s="146" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="146" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="147" t="inlineStr">
+        <is>
+          <t>FERNANDO</t>
+        </is>
+      </c>
+      <c r="C4" s="146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="146" t="inlineStr"/>
+      <c r="E4" s="148" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="146" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" s="146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="147" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="I4" s="146" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="J4" s="146" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K4" s="148" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L4" s="146" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="78">
-      <c r="A4" s="152" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="153" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="146" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="147" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="C5" s="146" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="D5" s="146" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E5" s="148" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="146" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" s="146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="147" t="inlineStr">
         <is>
           <t>SSSS</t>
         </is>
       </c>
-      <c r="C4" s="152" t="inlineStr">
+      <c r="I5" s="146" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="J5" s="146" t="inlineStr"/>
+      <c r="K5" s="148" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L5" s="146" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="146" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="147" t="inlineStr">
+        <is>
+          <t>SSSS</t>
+        </is>
+      </c>
+      <c r="C6" s="146" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="D6" s="146" t="inlineStr"/>
+      <c r="E6" s="148" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="146" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" s="146" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="147" t="inlineStr">
+        <is>
+          <t>AAFGGG</t>
+        </is>
+      </c>
+      <c r="I6" s="146" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J6" s="146" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K6" s="148" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L6" s="146" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="146" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="147" t="inlineStr">
+        <is>
+          <t>AAFGGG</t>
+        </is>
+      </c>
+      <c r="C7" s="146" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D7" s="146" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" s="148" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="146" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" s="146" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="147" t="inlineStr">
+        <is>
+          <t>WWW</t>
+        </is>
+      </c>
+      <c r="I7" s="146" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" s="152" t="inlineStr"/>
-      <c r="E4" s="154" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="152" t="inlineStr">
+      <c r="J7" s="146" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K7" s="148" t="n">
+        <v>192.61</v>
+      </c>
+      <c r="L7" s="146" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="152" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="153" t="inlineStr">
-        <is>
-          <t>AMANDA</t>
-        </is>
-      </c>
-      <c r="I4" s="152" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J4" s="152" t="inlineStr"/>
-      <c r="K4" s="154" t="n">
-        <v>192.61</v>
-      </c>
-      <c r="L4" s="152" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="13.8" customHeight="1" s="78">
-      <c r="A5" s="152" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="153" t="inlineStr">
-        <is>
-          <t>AMANDA</t>
-        </is>
-      </c>
-      <c r="C5" s="152" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D5" s="152" t="inlineStr"/>
-      <c r="E5" s="154" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="152" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G5" s="152" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="153" t="inlineStr">
-        <is>
-          <t>PEDRO</t>
-        </is>
-      </c>
-      <c r="I5" s="152" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J5" s="152" t="inlineStr"/>
-      <c r="K5" s="154" t="n">
-        <v>192.61</v>
-      </c>
-      <c r="L5" s="152" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="78">
-      <c r="A6" s="152" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="153" t="inlineStr">
-        <is>
-          <t>GABRIEL</t>
-        </is>
-      </c>
-      <c r="C6" s="152" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D6" s="152" t="inlineStr"/>
-      <c r="E6" s="154" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="152" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="G6" s="152" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="153" t="inlineStr">
-        <is>
-          <t>GABRIEL</t>
-        </is>
-      </c>
-      <c r="I6" s="152" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J6" s="152" t="inlineStr"/>
-      <c r="K6" s="154" t="n">
-        <v>192.61</v>
-      </c>
-      <c r="L6" s="152" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="78">
-      <c r="A7" s="152" t="n"/>
-      <c r="B7" s="152" t="n"/>
-      <c r="C7" s="152" t="n"/>
-      <c r="D7" s="152" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="146" t="n"/>
+      <c r="B8" s="146" t="n"/>
+      <c r="C8" s="146" t="n"/>
+      <c r="D8" s="146" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E7" s="154" t="n">
-        <v>594.6</v>
-      </c>
-      <c r="F7" s="152" t="n"/>
-      <c r="G7" s="152" t="n"/>
-      <c r="H7" s="152" t="n"/>
-      <c r="I7" s="152" t="n"/>
-      <c r="J7" s="152" t="inlineStr">
+      <c r="E8" s="148" t="n">
+        <v>743.25</v>
+      </c>
+      <c r="F8" s="146" t="n"/>
+      <c r="G8" s="146" t="n"/>
+      <c r="H8" s="146" t="n"/>
+      <c r="I8" s="146" t="n"/>
+      <c r="J8" s="146" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K7" s="154" t="n">
-        <v>770.4400000000001</v>
-      </c>
-      <c r="L7" s="152" t="n"/>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="78">
-      <c r="A8" s="152" t="n"/>
-      <c r="B8" s="152" t="n"/>
-      <c r="C8" s="152" t="n"/>
-      <c r="D8" s="152" t="inlineStr">
+      <c r="K8" s="148" t="n">
+        <v>963.0500000000001</v>
+      </c>
+      <c r="L8" s="146" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="146" t="n"/>
+      <c r="B9" s="146" t="n"/>
+      <c r="C9" s="146" t="n"/>
+      <c r="D9" s="146" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E8" s="154" t="n">
-        <v>196</v>
-      </c>
-      <c r="F8" s="152" t="n"/>
-      <c r="G8" s="152" t="n"/>
-      <c r="H8" s="152" t="n"/>
-      <c r="I8" s="152" t="n"/>
-      <c r="J8" s="152" t="inlineStr">
+      <c r="E9" s="148" t="n">
+        <v>245</v>
+      </c>
+      <c r="F9" s="146" t="n"/>
+      <c r="G9" s="146" t="n"/>
+      <c r="H9" s="146" t="n"/>
+      <c r="I9" s="146" t="n"/>
+      <c r="J9" s="146" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
       </c>
-      <c r="K8" s="154" t="n">
-        <v>254</v>
-      </c>
-      <c r="L8" s="152" t="n"/>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="78">
-      <c r="A9" s="152" t="n"/>
-      <c r="B9" s="152" t="n"/>
-      <c r="C9" s="152" t="n"/>
-      <c r="D9" s="152" t="inlineStr">
+      <c r="K9" s="148" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="L9" s="146" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="146" t="n"/>
+      <c r="B10" s="146" t="n"/>
+      <c r="C10" s="146" t="n"/>
+      <c r="D10" s="146" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E9" s="154" t="n">
-        <v>398.6</v>
-      </c>
-      <c r="F9" s="152" t="n"/>
-      <c r="G9" s="152" t="n"/>
-      <c r="H9" s="152" t="n"/>
-      <c r="I9" s="152" t="n"/>
-      <c r="J9" s="152" t="inlineStr">
+      <c r="E10" s="148" t="n">
+        <v>498.25</v>
+      </c>
+      <c r="F10" s="146" t="n"/>
+      <c r="G10" s="146" t="n"/>
+      <c r="H10" s="146" t="n"/>
+      <c r="I10" s="146" t="n"/>
+      <c r="J10" s="146" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K9" s="154" t="n">
-        <v>516.4400000000001</v>
-      </c>
-      <c r="L9" s="152" t="n"/>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="78">
-      <c r="A10" s="152" t="n"/>
-      <c r="B10" s="152" t="n"/>
-      <c r="C10" s="152" t="n"/>
-      <c r="D10" s="152" t="n"/>
-      <c r="E10" s="154" t="n"/>
-      <c r="F10" s="152" t="n"/>
-      <c r="G10" s="152" t="n"/>
-      <c r="H10" s="152" t="n"/>
-      <c r="I10" s="152" t="n"/>
-      <c r="J10" s="152" t="n"/>
-      <c r="K10" s="154" t="n"/>
-      <c r="L10" s="152" t="n"/>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="78">
-      <c r="A11" s="152" t="n"/>
-      <c r="B11" s="152" t="n"/>
-      <c r="C11" s="152" t="n"/>
-      <c r="D11" s="152" t="n"/>
-      <c r="E11" s="154" t="n"/>
-      <c r="F11" s="152" t="n"/>
-      <c r="G11" s="152" t="n"/>
-      <c r="H11" s="152" t="n"/>
-      <c r="I11" s="152" t="n"/>
-      <c r="J11" s="152" t="n"/>
-      <c r="K11" s="154" t="n"/>
-      <c r="L11" s="152" t="n"/>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="78">
-      <c r="A12" s="152" t="n"/>
-      <c r="B12" s="152" t="n"/>
-      <c r="C12" s="152" t="n"/>
-      <c r="D12" s="152" t="n"/>
-      <c r="E12" s="154" t="n"/>
-      <c r="F12" s="152" t="n"/>
-      <c r="G12" s="152" t="n"/>
-      <c r="H12" s="152" t="n"/>
-      <c r="I12" s="152" t="n"/>
-      <c r="J12" s="152" t="n"/>
-      <c r="K12" s="152" t="n"/>
-      <c r="L12" s="152" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="78"/>
-    <row r="14" ht="13.8" customHeight="1" s="78"/>
+      <c r="K10" s="148" t="n">
+        <v>645.5500000000001</v>
+      </c>
+      <c r="L10" s="146" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="146" t="n"/>
+      <c r="B11" s="146" t="n"/>
+      <c r="C11" s="146" t="n"/>
+      <c r="D11" s="146" t="n"/>
+      <c r="E11" s="148" t="n"/>
+      <c r="F11" s="146" t="n"/>
+      <c r="G11" s="146" t="n"/>
+      <c r="H11" s="146" t="n"/>
+      <c r="I11" s="146" t="n"/>
+      <c r="J11" s="146" t="n"/>
+      <c r="K11" s="148" t="n"/>
+      <c r="L11" s="146" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="146" t="n"/>
+      <c r="B12" s="146" t="n"/>
+      <c r="C12" s="146" t="n"/>
+      <c r="D12" s="146" t="n"/>
+      <c r="E12" s="148" t="n"/>
+      <c r="F12" s="146" t="n"/>
+      <c r="G12" s="146" t="n"/>
+      <c r="H12" s="146" t="n"/>
+      <c r="I12" s="146" t="n"/>
+      <c r="J12" s="146" t="n"/>
+      <c r="K12" s="148" t="n"/>
+      <c r="L12" s="146" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="146" t="n"/>
+      <c r="B13" s="146" t="n"/>
+      <c r="C13" s="146" t="n"/>
+      <c r="D13" s="146" t="n"/>
+      <c r="E13" s="148" t="n"/>
+      <c r="F13" s="146" t="n"/>
+      <c r="G13" s="146" t="n"/>
+      <c r="H13" s="146" t="n"/>
+      <c r="I13" s="146" t="n"/>
+      <c r="J13" s="146" t="n"/>
+      <c r="K13" s="148" t="n"/>
+      <c r="L13" s="146" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="146" t="n"/>
+      <c r="B14" s="146" t="n"/>
+      <c r="C14" s="146" t="n"/>
+      <c r="D14" s="146" t="n"/>
+      <c r="E14" s="148" t="n"/>
+      <c r="F14" s="146" t="n"/>
+      <c r="G14" s="146" t="n"/>
+      <c r="H14" s="146" t="n"/>
+      <c r="I14" s="146" t="n"/>
+      <c r="J14" s="146" t="n"/>
+      <c r="K14" s="146" t="n"/>
+      <c r="L14" s="146" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:L1"/>
@@ -4254,264 +4307,264 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A1:L14 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="32.67" customWidth="1" style="77" min="2" max="2"/>
-    <col width="16.67" customWidth="1" style="77" min="3" max="3"/>
-    <col width="19.22" customWidth="1" style="77" min="5" max="5"/>
-    <col width="15.89" customWidth="1" style="77" min="10" max="10"/>
-    <col width="16.55" customWidth="1" style="77" min="11" max="11"/>
+    <col width="32.67" customWidth="1" style="74" min="2" max="2"/>
+    <col width="16.67" customWidth="1" style="74" min="3" max="3"/>
+    <col width="19.22" customWidth="1" style="74" min="5" max="5"/>
+    <col width="15.89" customWidth="1" style="74" min="10" max="10"/>
+    <col width="16.55" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quarta- feira 02/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="79" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quarta-feira 02/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="78">
-      <c r="A2" s="82" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="78">
-      <c r="A3" s="91" t="n"/>
-      <c r="B3" s="92" t="n"/>
-      <c r="D3" s="100" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="88" t="n"/>
+      <c r="B3" s="89" t="n"/>
+      <c r="D3" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="84">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="88" t="n"/>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="78">
-      <c r="A4" s="91" t="n"/>
-      <c r="D4" s="103" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="88" t="n"/>
+      <c r="D4" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="101">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="91" t="n"/>
-      <c r="H4" s="88" t="n"/>
-      <c r="I4" s="88" t="n"/>
-      <c r="J4" s="92" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="78">
-      <c r="A5" s="91" t="n"/>
-      <c r="D5" s="103" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="88" t="n"/>
+      <c r="D5" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="101">
         <f>0</f>
         <v/>
       </c>
-      <c r="H5" s="93" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="78">
-      <c r="I6" s="94" t="inlineStr">
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="81" t="n"/>
-      <c r="K6" s="95" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="78">
-      <c r="I7" s="94" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="81" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="78">
-      <c r="I8" s="96" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="81" t="n"/>
-      <c r="K8" s="97" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="78">
-      <c r="I9" s="94" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="81" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="78">
-      <c r="I10" s="94" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="81" t="n"/>
-      <c r="K10" s="98" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="78">
-      <c r="I11" s="94" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J11" s="81" t="n"/>
-      <c r="K11" s="98" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="95" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="78">
-      <c r="I12" s="94" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="I12" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J12" s="81" t="n"/>
-      <c r="K12" s="99">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="96">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="78">
+    <row r="13" ht="15" customHeight="1" s="75">
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="101" t="inlineStr">
+      <c r="I13" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J13" s="81" t="n"/>
-      <c r="K13" s="102">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="78">
-      <c r="I14" s="101" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="I14" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J14" s="81" t="n"/>
-      <c r="K14" s="102">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="78">
-      <c r="I15" s="107" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="I15" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J15" s="81" t="n"/>
-      <c r="K15" s="106">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="103">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="78">
-      <c r="K16" s="92" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="78"/>
-    <row r="18" ht="15" customHeight="1" s="78"/>
-    <row r="19" ht="15" customHeight="1" s="78"/>
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="K16" s="89" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75"/>
+    <row r="18" ht="15" customHeight="1" s="75"/>
+    <row r="19" ht="15" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="I12:J12"/>
@@ -4542,498 +4595,498 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A1:L14 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.56" customWidth="1" style="77" min="2" max="2"/>
-    <col width="18" customWidth="1" style="77" min="3" max="3"/>
-    <col width="10.44" customWidth="1" style="77" min="5" max="5"/>
-    <col width="38.67" customWidth="1" style="77" min="8" max="8"/>
-    <col width="12.55" customWidth="1" style="77" min="10" max="10"/>
-    <col width="17.44" customWidth="1" style="77" min="11" max="11"/>
+    <col width="41.56" customWidth="1" style="74" min="2" max="2"/>
+    <col width="18" customWidth="1" style="74" min="3" max="3"/>
+    <col width="10.44" customWidth="1" style="74" min="5" max="5"/>
+    <col width="38.67" customWidth="1" style="74" min="8" max="8"/>
+    <col width="12.55" customWidth="1" style="74" min="10" max="10"/>
+    <col width="17.44" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 03/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="79" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 03/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="78">
-      <c r="A2" s="82" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="78">
-      <c r="A3" s="82" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>LUDMILLA SANTOS SILVA</t>
         </is>
       </c>
-      <c r="C3" s="79" t="n">
+      <c r="C3" s="76" t="n">
         <v>513398716</v>
       </c>
-      <c r="D3" s="79" t="n"/>
-      <c r="E3" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="77" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="88" t="n"/>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="78">
-      <c r="A4" s="82" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t>MICHELE ELAINE DE FREITAS BORBA</t>
         </is>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="76" t="n">
         <v>513788000</v>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="77" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="91" t="n"/>
-      <c r="H4" s="88" t="n"/>
-      <c r="I4" s="88" t="n"/>
-      <c r="J4" s="92" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="78">
-      <c r="A5" s="82" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">	EDNA MARIA DOS SANTOS HEGOUET</t>
         </is>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="76" t="n">
         <v>513760280</v>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H5" s="93" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="78">
-      <c r="A6" s="82" t="n">
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>PAULO CESAR LORDELO BURY</t>
         </is>
       </c>
-      <c r="C6" s="79" t="n">
+      <c r="C6" s="76" t="n">
         <v>513449033</v>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="77" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I6" s="94" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="81" t="n"/>
-      <c r="K6" s="95" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>1783.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="78">
-      <c r="A7" s="82" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="82" t="inlineStr">
+      <c r="B7" s="79" t="inlineStr">
         <is>
           <t>TAIANE SIRAISI FONSECA</t>
         </is>
       </c>
-      <c r="C7" s="79" t="n">
+      <c r="C7" s="76" t="n">
         <v>513782710</v>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="77" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I7" s="94" t="inlineStr">
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="81" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="78">
-      <c r="A8" s="82" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="82" t="inlineStr">
+      <c r="B8" s="79" t="inlineStr">
         <is>
           <t>GILMAR ALVES ROSA</t>
         </is>
       </c>
-      <c r="C8" s="79" t="n">
+      <c r="C8" s="76" t="n">
         <v>513770763</v>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="77" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I8" s="96" t="inlineStr">
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="81" t="n"/>
-      <c r="K8" s="97">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94">
         <f>K6</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="78">
-      <c r="A9" s="82" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="82" t="inlineStr">
+      <c r="B9" s="79" t="inlineStr">
         <is>
           <t>ARISTON DE JESUS SILVA</t>
         </is>
       </c>
-      <c r="C9" s="79" t="n">
+      <c r="C9" s="76" t="n">
         <v>513785096</v>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="77" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I9" s="94" t="inlineStr">
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="81" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="78">
-      <c r="A10" s="82" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="82" t="inlineStr">
+      <c r="B10" s="79" t="inlineStr">
         <is>
           <t>BRUNO ALVES MENEZES</t>
         </is>
       </c>
-      <c r="C10" s="79" t="n">
+      <c r="C10" s="76" t="n">
         <v>513788557</v>
       </c>
-      <c r="D10" s="85" t="n"/>
-      <c r="E10" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="77" t="inlineStr">
+      <c r="D10" s="82" t="n"/>
+      <c r="E10" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I10" s="94" t="inlineStr">
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="81" t="n"/>
-      <c r="K10" s="98" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>588</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="78">
-      <c r="A11" s="82" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="86" t="inlineStr">
+      <c r="B11" s="83" t="inlineStr">
         <is>
           <t>CLAUDIA OLIVEIRA GUIMARAES</t>
         </is>
       </c>
-      <c r="C11" s="79" t="n">
+      <c r="C11" s="76" t="n">
         <v>513778979</v>
       </c>
-      <c r="D11" s="85" t="n"/>
-      <c r="E11" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="77" t="inlineStr">
+      <c r="D11" s="82" t="n"/>
+      <c r="E11" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="I11" s="94" t="inlineStr">
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J11" s="81" t="n"/>
-      <c r="K11" s="99">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="96">
         <f>K8-K10-K9</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="78">
-      <c r="A12" s="82" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="82" t="inlineStr">
+      <c r="B12" s="79" t="inlineStr">
         <is>
           <t>EDMAR CHRISTOFARI</t>
         </is>
       </c>
-      <c r="C12" s="79" t="n">
+      <c r="C12" s="76" t="n">
         <v>513753690</v>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="77" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I12" s="101" t="inlineStr">
+      <c r="I12" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J12" s="81" t="n"/>
-      <c r="K12" s="102">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="99">
         <f>E3+E4+E5+E6+E8+E9+E10+E12+E14+E13</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="78">
-      <c r="A13" s="82" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="82" t="inlineStr">
+      <c r="B13" s="79" t="inlineStr">
         <is>
           <t>JOSELENA CANDIDA DE SOUZA MACHADO</t>
         </is>
       </c>
-      <c r="C13" s="79" t="n">
+      <c r="C13" s="76" t="n">
         <v>513547983</v>
       </c>
-      <c r="D13" s="85" t="n"/>
-      <c r="E13" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="77" t="inlineStr">
+      <c r="D13" s="82" t="n"/>
+      <c r="E13" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="101" t="inlineStr">
+      <c r="I13" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J13" s="81" t="n"/>
-      <c r="K13" s="102">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="78">
-      <c r="A14" s="82" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="82" t="inlineStr">
+      <c r="B14" s="79" t="inlineStr">
         <is>
           <t>JUCILENE SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C14" s="79" t="n">
+      <c r="C14" s="76" t="n">
         <v>513780077</v>
       </c>
-      <c r="D14" s="85" t="n"/>
-      <c r="E14" s="87" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="77" t="inlineStr">
+      <c r="D14" s="82" t="n"/>
+      <c r="E14" s="84" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I14" s="107" t="inlineStr">
+      <c r="I14" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J14" s="81" t="n"/>
-      <c r="K14" s="106">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="103">
         <f>E7+E11</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="78">
-      <c r="A15" s="91" t="n"/>
-      <c r="B15" s="92" t="n"/>
-      <c r="D15" s="100" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="88" t="n"/>
+      <c r="B15" s="89" t="n"/>
+      <c r="D15" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="84">
         <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
         <v/>
       </c>
-      <c r="K15" s="92" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="78">
-      <c r="A16" s="91" t="n"/>
-      <c r="D16" s="103" t="inlineStr">
+      <c r="K15" s="89" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="88" t="n"/>
+      <c r="D16" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="101">
         <f>49*12</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="78">
-      <c r="A17" s="91" t="n"/>
-      <c r="D17" s="103" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="88" t="n"/>
+      <c r="D17" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E17" s="104" t="n">
+      <c r="E17" s="101" t="n">
         <v>1444.1</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="78"/>
-    <row r="19" ht="15" customHeight="1" s="78"/>
+    <row r="18" ht="15" customHeight="1" s="75"/>
+    <row r="19" ht="15" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I12:J12"/>
@@ -5063,313 +5116,313 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.89" customWidth="1" style="77" min="5" max="5"/>
-    <col width="18.11" customWidth="1" style="77" min="10" max="10"/>
-    <col width="14" customWidth="1" style="77" min="11" max="11"/>
+    <col width="13.89" customWidth="1" style="74" min="5" max="5"/>
+    <col width="18.11" customWidth="1" style="74" min="10" max="10"/>
+    <col width="14" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Sexta- feira 04/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="79" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Sexta-feira 04/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="78">
-      <c r="A2" s="82" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="78">
-      <c r="A3" s="91" t="n"/>
-      <c r="B3" s="92" t="n"/>
-      <c r="D3" s="100" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="88" t="n"/>
+      <c r="B3" s="89" t="n"/>
+      <c r="D3" s="97" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="84">
         <f>0</f>
         <v/>
       </c>
-      <c r="I3" s="88" t="n"/>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="78">
-      <c r="A4" s="91" t="n"/>
-      <c r="D4" s="103" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="88" t="n"/>
+      <c r="D4" s="100" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="101">
         <f>49*0</f>
         <v/>
       </c>
-      <c r="G4" s="91" t="n"/>
-      <c r="H4" s="88" t="n"/>
-      <c r="I4" s="88" t="n"/>
-      <c r="J4" s="92" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="78">
-      <c r="A5" s="91" t="n"/>
-      <c r="D5" s="103" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="88" t="n"/>
+      <c r="D5" s="100" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="101">
         <f>0</f>
         <v/>
       </c>
-      <c r="H5" s="93" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="78">
-      <c r="I6" s="94" t="inlineStr">
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="81" t="n"/>
-      <c r="K6" s="95" t="n">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92" t="n">
         <v>2527.05</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="78">
-      <c r="I7" s="94" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="I7" s="91" t="inlineStr">
         <is>
           <t>ATEND.PSICOLÓGICO</t>
         </is>
       </c>
-      <c r="J7" s="81" t="n"/>
+      <c r="J7" s="78" t="n"/>
       <c r="K7" s="18" t="n">
         <v>1540.88</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="78">
-      <c r="I8" s="96" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="I8" s="93" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="J8" s="81" t="n"/>
-      <c r="K8" s="97" t="n">
+      <c r="J8" s="78" t="n"/>
+      <c r="K8" s="94" t="n">
         <v>2378.4</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="78">
-      <c r="I9" s="94" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="I9" s="91" t="inlineStr">
         <is>
           <t>PAGAM.PSICOLOGA</t>
         </is>
       </c>
-      <c r="J9" s="81" t="n"/>
+      <c r="J9" s="78" t="n"/>
       <c r="K9" s="21" t="n">
         <v>508</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="78">
-      <c r="I10" s="94" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="I10" s="91" t="inlineStr">
         <is>
           <t>PAGAM. MÉDICA</t>
         </is>
       </c>
-      <c r="J10" s="81" t="n"/>
-      <c r="K10" s="98" t="n">
+      <c r="J10" s="78" t="n"/>
+      <c r="K10" s="95" t="n">
         <v>833</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="78">
-      <c r="I11" s="94" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="I11" s="91" t="inlineStr">
         <is>
           <t>PAG.ALUGUEL</t>
         </is>
       </c>
-      <c r="J11" s="81" t="n"/>
-      <c r="K11" s="98" t="n">
+      <c r="J11" s="78" t="n"/>
+      <c r="K11" s="95" t="n">
         <v>3090.17</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="78">
-      <c r="I12" s="94" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="I12" s="91" t="inlineStr">
         <is>
           <t>PAG.CONDOMÍNIO</t>
         </is>
       </c>
-      <c r="J12" s="81" t="n"/>
-      <c r="K12" s="98" t="n">
+      <c r="J12" s="78" t="n"/>
+      <c r="K12" s="95" t="n">
         <v>936.7</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="78">
+    <row r="13" ht="15" customHeight="1" s="75">
       <c r="G13" s="29" t="n"/>
-      <c r="I13" s="94" t="inlineStr">
+      <c r="I13" s="91" t="inlineStr">
         <is>
           <t>PAG.LIMPEZA CLINICA</t>
         </is>
       </c>
-      <c r="J13" s="81" t="n"/>
-      <c r="K13" s="98" t="n">
+      <c r="J13" s="78" t="n"/>
+      <c r="K13" s="95" t="n">
         <v>450</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="78">
-      <c r="I14" s="94" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="I14" s="91" t="inlineStr">
         <is>
           <t>PAG.ZORCOM</t>
         </is>
       </c>
-      <c r="J14" s="81" t="n"/>
-      <c r="K14" s="98" t="n">
+      <c r="J14" s="78" t="n"/>
+      <c r="K14" s="95" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="78">
-      <c r="I15" s="94" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="I15" s="91" t="inlineStr">
         <is>
           <t>PAG.FATURA CLARO</t>
         </is>
       </c>
-      <c r="J15" s="81" t="n"/>
-      <c r="K15" s="98" t="n">
+      <c r="J15" s="78" t="n"/>
+      <c r="K15" s="95" t="n">
         <v>212.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="78">
-      <c r="I16" s="94" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="I16" s="91" t="inlineStr">
         <is>
           <t>TRANSPORTE DETRAN</t>
         </is>
       </c>
-      <c r="J16" s="81" t="n"/>
-      <c r="K16" s="98" t="n">
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="95" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="78">
-      <c r="I17" s="94" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="I17" s="91" t="inlineStr">
         <is>
           <t>SOMA</t>
         </is>
       </c>
-      <c r="J17" s="81" t="n"/>
-      <c r="K17" s="99">
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="96">
         <f>K8-K10-K9-K11-K12-K13-K14-K15-K16</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="78">
-      <c r="I18" s="101" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="I18" s="98" t="inlineStr">
         <is>
           <t>CARTÃO</t>
         </is>
       </c>
-      <c r="J18" s="81" t="n"/>
-      <c r="K18" s="102">
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="78">
-      <c r="I19" s="101" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="I19" s="98" t="inlineStr">
         <is>
           <t>DINHEIRO</t>
         </is>
       </c>
-      <c r="J19" s="81" t="n"/>
-      <c r="K19" s="102">
+      <c r="J19" s="78" t="n"/>
+      <c r="K19" s="99">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="78">
-      <c r="I20" s="107" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="I20" s="104" t="inlineStr">
         <is>
           <t>PIX</t>
         </is>
       </c>
-      <c r="J20" s="81" t="n"/>
-      <c r="K20" s="106">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="103">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="78">
-      <c r="K21" s="92" t="n"/>
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="K21" s="89" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5406,568 +5459,568 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="A1:L14"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="55" customWidth="1" style="77" min="2" max="2"/>
-    <col width="13" customWidth="1" style="77" min="3" max="3"/>
-    <col width="14.56" customWidth="1" style="77" min="5" max="5"/>
-    <col width="12.67" customWidth="1" style="77" min="6" max="6"/>
-    <col width="55" customWidth="1" style="77" min="8" max="8"/>
-    <col width="13" customWidth="1" style="77" min="9" max="9"/>
-    <col width="14.56" customWidth="1" style="77" min="11" max="11"/>
+    <col width="55" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13" customWidth="1" style="74" min="3" max="3"/>
+    <col width="14.56" customWidth="1" style="74" min="5" max="5"/>
+    <col width="12.67" customWidth="1" style="74" min="6" max="6"/>
+    <col width="55" customWidth="1" style="74" min="8" max="8"/>
+    <col width="13" customWidth="1" style="74" min="9" max="9"/>
+    <col width="14.56" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="108" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="105" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Médico 06/11/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="108" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="105" t="inlineStr">
         <is>
           <t>(Nome do Usuário) Atendimento Psicológico 06/11/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="78">
-      <c r="A2" s="108" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="105" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="108" t="inlineStr">
+      <c r="B2" s="105" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="108" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="108" t="inlineStr">
+      <c r="D2" s="105" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="108" t="inlineStr">
+      <c r="E2" s="105" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="108" t="inlineStr">
+      <c r="G2" s="105" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="108" t="inlineStr">
+      <c r="H2" s="105" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="108" t="inlineStr">
+      <c r="I2" s="105" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="108" t="inlineStr">
+      <c r="J2" s="105" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="108" t="inlineStr">
+      <c r="K2" s="105" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="78">
-      <c r="A3" s="82" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="inlineStr">
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR ROCHA LIMA SANTOS	</t>
         </is>
       </c>
-      <c r="C3" s="79" t="n">
+      <c r="C3" s="76" t="n">
         <v>513702080</v>
       </c>
-      <c r="D3" s="79" t="n"/>
-      <c r="E3" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="109" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G3" s="82" t="n">
+      <c r="G3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="84" t="inlineStr">
+      <c r="H3" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="I3" s="79" t="n">
+      <c r="I3" s="76" t="n">
         <v>513768895</v>
       </c>
-      <c r="J3" s="79" t="n"/>
-      <c r="K3" s="79" t="n">
+      <c r="J3" s="76" t="n"/>
+      <c r="K3" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L3" s="109" t="inlineStr">
+      <c r="L3" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="78">
-      <c r="A4" s="82" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="inlineStr">
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JOAO VITOR CONI DE ANDRADE	</t>
         </is>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="76" t="n">
         <v>513768895</v>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="109" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G4" s="82" t="n">
+      <c r="G4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="84" t="inlineStr">
+      <c r="H4" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="I4" s="79" t="n">
+      <c r="I4" s="76" t="n">
         <v>513733841</v>
       </c>
-      <c r="J4" s="79" t="n"/>
-      <c r="K4" s="79" t="n">
+      <c r="J4" s="76" t="n"/>
+      <c r="K4" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L4" s="109" t="inlineStr">
+      <c r="L4" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="78">
-      <c r="A5" s="82" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="inlineStr">
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">GABRIEL CARNEIRO FERNANDES	</t>
         </is>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="76" t="n">
         <v>513733841</v>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="109" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G5" s="82" t="n">
+      <c r="G5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="84" t="inlineStr">
+      <c r="H5" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="I5" s="79" t="n">
+      <c r="I5" s="76" t="n">
         <v>14090930</v>
       </c>
-      <c r="J5" s="79" t="n"/>
-      <c r="K5" s="79" t="n">
+      <c r="J5" s="76" t="n"/>
+      <c r="K5" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L5" s="109" t="inlineStr">
+      <c r="L5" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="78">
-      <c r="A6" s="82" t="n">
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="inlineStr">
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">HAROLDO MASCARENHAS DOS SANTOS	</t>
         </is>
       </c>
-      <c r="C6" s="79" t="n">
+      <c r="C6" s="76" t="n">
         <v>513709344</v>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="109" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="106" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G6" s="82" t="n">
+      <c r="G6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="84" t="inlineStr">
+      <c r="H6" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="I6" s="79" t="n">
+      <c r="I6" s="76" t="n">
         <v>513784410</v>
       </c>
-      <c r="J6" s="79" t="n"/>
-      <c r="K6" s="79" t="n">
+      <c r="J6" s="76" t="n"/>
+      <c r="K6" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L6" s="109" t="inlineStr">
+      <c r="L6" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="78">
-      <c r="A7" s="82" t="n">
+    <row r="7" ht="15" customHeight="1" s="75">
+      <c r="A7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO DE OLIVEIRA MOITINHO SANTOS	</t>
         </is>
       </c>
-      <c r="C7" s="79" t="n">
+      <c r="C7" s="76" t="n">
         <v>513783161</v>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F7" s="109" t="inlineStr">
+      <c r="D7" s="76" t="n"/>
+      <c r="E7" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F7" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G7" s="82" t="n">
+      <c r="G7" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="84" t="inlineStr">
+      <c r="H7" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="I7" s="79" t="n">
+      <c r="I7" s="76" t="n">
         <v>513790094</v>
       </c>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="79" t="n">
+      <c r="J7" s="76" t="n"/>
+      <c r="K7" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L7" s="109" t="inlineStr">
+      <c r="L7" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="78">
-      <c r="A8" s="82" t="n">
+    <row r="8" ht="15" customHeight="1" s="75">
+      <c r="A8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="inlineStr">
+      <c r="B8" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">ALICE DOS SANTOS RODRIGUES	</t>
         </is>
       </c>
-      <c r="C8" s="79" t="n">
+      <c r="C8" s="76" t="n">
         <v>14090930</v>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F8" s="109" t="inlineStr">
+      <c r="D8" s="76" t="n"/>
+      <c r="E8" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F8" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G8" s="82" t="n">
+      <c r="G8" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="84" t="inlineStr">
+      <c r="H8" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="I8" s="79" t="n">
+      <c r="I8" s="76" t="n">
         <v>513608124</v>
       </c>
-      <c r="J8" s="79" t="n"/>
-      <c r="K8" s="79" t="n">
+      <c r="J8" s="76" t="n"/>
+      <c r="K8" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L8" s="109" t="inlineStr">
+      <c r="L8" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="78">
-      <c r="A9" s="82" t="n">
+    <row r="9" ht="15" customHeight="1" s="75">
+      <c r="A9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="inlineStr">
+      <c r="B9" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">NEUVANIA GONCALVES FERNANDES	</t>
         </is>
       </c>
-      <c r="C9" s="79" t="n">
+      <c r="C9" s="76" t="n">
         <v>513784410</v>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F9" s="109" t="inlineStr">
+      <c r="D9" s="76" t="n"/>
+      <c r="E9" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F9" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G9" s="82" t="n">
+      <c r="G9" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="84" t="inlineStr">
+      <c r="H9" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="I9" s="79" t="n">
+      <c r="I9" s="76" t="n">
         <v>513762567</v>
       </c>
-      <c r="J9" s="79" t="n"/>
-      <c r="K9" s="79" t="n">
+      <c r="J9" s="76" t="n"/>
+      <c r="K9" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L9" s="109" t="inlineStr">
+      <c r="L9" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="78">
-      <c r="A10" s="82" t="n">
+    <row r="10" ht="15" customHeight="1" s="75">
+      <c r="A10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="inlineStr">
+      <c r="B10" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">ANTONIO JOSE PAMPONET BITTENCOURT	</t>
         </is>
       </c>
-      <c r="C10" s="79" t="n">
+      <c r="C10" s="76" t="n">
         <v>513793384</v>
       </c>
-      <c r="D10" s="79" t="n"/>
-      <c r="E10" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F10" s="109" t="inlineStr">
+      <c r="D10" s="76" t="n"/>
+      <c r="E10" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F10" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G10" s="82" t="n">
+      <c r="G10" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="84" t="inlineStr">
+      <c r="H10" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="I10" s="79" t="n">
+      <c r="I10" s="76" t="n">
         <v>513760379</v>
       </c>
-      <c r="J10" s="79" t="n"/>
-      <c r="K10" s="79" t="n">
+      <c r="J10" s="76" t="n"/>
+      <c r="K10" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L10" s="109" t="inlineStr">
+      <c r="L10" s="106" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="78">
-      <c r="A11" s="82" t="n">
+    <row r="11" ht="15" customHeight="1" s="75">
+      <c r="A11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="84" t="inlineStr">
+      <c r="B11" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RODRIGO SANTOS SILVA	</t>
         </is>
       </c>
-      <c r="C11" s="79" t="n">
+      <c r="C11" s="76" t="n">
         <v>513790094</v>
       </c>
-      <c r="D11" s="79" t="n"/>
-      <c r="E11" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F11" s="109" t="inlineStr">
+      <c r="D11" s="76" t="n"/>
+      <c r="E11" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F11" s="106" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G11" s="82" t="n">
+      <c r="G11" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="84" t="inlineStr">
+      <c r="H11" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="I11" s="79" t="n">
+      <c r="I11" s="76" t="n">
         <v>513782331</v>
       </c>
-      <c r="J11" s="79" t="n"/>
-      <c r="K11" s="79" t="n">
+      <c r="J11" s="76" t="n"/>
+      <c r="K11" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L11" s="109" t="inlineStr">
+      <c r="L11" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="78">
-      <c r="A12" s="82" t="n">
+    <row r="12" ht="15" customHeight="1" s="75">
+      <c r="A12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="inlineStr">
+      <c r="B12" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">RAIANE DE SOUZA DANTAS	</t>
         </is>
       </c>
-      <c r="C12" s="79" t="n">
+      <c r="C12" s="76" t="n">
         <v>513608124</v>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F12" s="109" t="inlineStr">
+      <c r="D12" s="76" t="n"/>
+      <c r="E12" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F12" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G12" s="82" t="n">
+      <c r="G12" s="79" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="84" t="inlineStr">
+      <c r="H12" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="I12" s="79" t="n">
+      <c r="I12" s="76" t="n">
         <v>513775191</v>
       </c>
-      <c r="J12" s="79" t="n"/>
-      <c r="K12" s="79" t="n">
+      <c r="J12" s="76" t="n"/>
+      <c r="K12" s="76" t="n">
         <v>192.61</v>
       </c>
-      <c r="L12" s="109" t="inlineStr">
+      <c r="L12" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="78">
-      <c r="A13" s="82" t="n">
+    <row r="13" ht="15" customHeight="1" s="75">
+      <c r="A13" s="79" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="84" t="inlineStr">
+      <c r="B13" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">JURGEN WILLI LUDWIG VONNEILICH	</t>
         </is>
       </c>
-      <c r="C13" s="79" t="n">
+      <c r="C13" s="76" t="n">
         <v>513762567</v>
       </c>
-      <c r="D13" s="79" t="n"/>
-      <c r="E13" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F13" s="109" t="inlineStr">
+      <c r="D13" s="76" t="n"/>
+      <c r="E13" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F13" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I13" s="88" t="n"/>
-      <c r="J13" s="110" t="inlineStr">
+      <c r="I13" s="85" t="n"/>
+      <c r="J13" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="K13" s="111" t="n">
+      <c r="K13" s="108" t="n">
         <v>1926.1</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="78">
-      <c r="A14" s="82" t="n">
+    <row r="14" ht="15" customHeight="1" s="75">
+      <c r="A14" s="79" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="inlineStr">
+      <c r="B14" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MOISES SANTOS DA SILVA	</t>
         </is>
       </c>
-      <c r="C14" s="79" t="n">
+      <c r="C14" s="76" t="n">
         <v>513760379</v>
       </c>
-      <c r="D14" s="79" t="n"/>
-      <c r="E14" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F14" s="109" t="inlineStr">
+      <c r="D14" s="76" t="n"/>
+      <c r="E14" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F14" s="106" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G14" s="91" t="n"/>
-      <c r="H14" s="88" t="n"/>
-      <c r="I14" s="88" t="n"/>
-      <c r="J14" s="110" t="inlineStr">
+      <c r="G14" s="88" t="n"/>
+      <c r="H14" s="85" t="n"/>
+      <c r="I14" s="85" t="n"/>
+      <c r="J14" s="107" t="inlineStr">
         <is>
           <t>Psicólogo</t>
         </is>
@@ -5976,343 +6029,343 @@
         <v>635</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="78">
-      <c r="A15" s="82" t="n">
+    <row r="15" ht="15" customHeight="1" s="75">
+      <c r="A15" s="79" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="84" t="inlineStr">
+      <c r="B15" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">LUCAS CERQUEIRA BATISTA	</t>
         </is>
       </c>
-      <c r="C15" s="79" t="n">
+      <c r="C15" s="76" t="n">
         <v>513782331</v>
       </c>
-      <c r="D15" s="79" t="n"/>
-      <c r="E15" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F15" s="109" t="inlineStr">
+      <c r="D15" s="76" t="n"/>
+      <c r="E15" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F15" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H15" s="93" t="n"/>
-      <c r="J15" s="110" t="inlineStr">
+      <c r="H15" s="90" t="n"/>
+      <c r="J15" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K15" s="110" t="n">
+      <c r="K15" s="107" t="n">
         <v>1291.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="78">
-      <c r="A16" s="82" t="n">
+    <row r="16" ht="15" customHeight="1" s="75">
+      <c r="A16" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="inlineStr">
+      <c r="B16" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">MARIVALDO ARAGAO FERREIRA	</t>
         </is>
       </c>
-      <c r="C16" s="79" t="n">
+      <c r="C16" s="76" t="n">
         <v>513775191</v>
       </c>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F16" s="109" t="inlineStr">
+      <c r="D16" s="76" t="n"/>
+      <c r="E16" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F16" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I16" s="94" t="n"/>
-      <c r="J16" s="81" t="n"/>
-      <c r="K16" s="95" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="78">
-      <c r="A17" s="82" t="n">
+      <c r="I16" s="91" t="n"/>
+      <c r="J16" s="78" t="n"/>
+      <c r="K16" s="92" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="75">
+      <c r="A17" s="79" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="inlineStr">
+      <c r="B17" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">KARINA LA FARINA NOGUEIRA BISPO	</t>
         </is>
       </c>
-      <c r="C17" s="79" t="n">
+      <c r="C17" s="76" t="n">
         <v>513790578</v>
       </c>
-      <c r="D17" s="79" t="n"/>
-      <c r="E17" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F17" s="109" t="inlineStr">
+      <c r="D17" s="76" t="n"/>
+      <c r="E17" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F17" s="106" t="inlineStr">
         <is>
           <t>100E / 48,65D</t>
         </is>
       </c>
-      <c r="I17" s="94" t="n"/>
-      <c r="J17" s="81" t="n"/>
-      <c r="K17" s="95" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="78">
-      <c r="A18" s="82" t="n">
+      <c r="I17" s="91" t="n"/>
+      <c r="J17" s="78" t="n"/>
+      <c r="K17" s="92" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="75">
+      <c r="A18" s="79" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="inlineStr">
+      <c r="B18" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">DIOGENES FREDERICO CONCEICAO SILVA	</t>
         </is>
       </c>
-      <c r="C18" s="79" t="n">
+      <c r="C18" s="76" t="n">
         <v>513721847</v>
       </c>
-      <c r="D18" s="79" t="n"/>
-      <c r="E18" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F18" s="109" t="inlineStr">
+      <c r="D18" s="76" t="n"/>
+      <c r="E18" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F18" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I18" s="96" t="n"/>
-      <c r="J18" s="81" t="n"/>
-      <c r="K18" s="97" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="78">
-      <c r="A19" s="82" t="n">
+      <c r="I18" s="93" t="n"/>
+      <c r="J18" s="78" t="n"/>
+      <c r="K18" s="94" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="75">
+      <c r="A19" s="79" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="84" t="inlineStr">
+      <c r="B19" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">EVANILDES ALVES DE FIGUEREDO	</t>
         </is>
       </c>
-      <c r="C19" s="79" t="n">
+      <c r="C19" s="76" t="n">
         <v>513782693</v>
       </c>
-      <c r="D19" s="79" t="n"/>
-      <c r="E19" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F19" s="109" t="inlineStr">
+      <c r="D19" s="76" t="n"/>
+      <c r="E19" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F19" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I19" s="94" t="n"/>
-      <c r="J19" s="81" t="n"/>
+      <c r="I19" s="91" t="n"/>
+      <c r="J19" s="78" t="n"/>
       <c r="K19" s="21" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="78">
-      <c r="A20" s="82" t="n">
+    <row r="20" ht="15" customHeight="1" s="75">
+      <c r="A20" s="79" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="84" t="inlineStr">
+      <c r="B20" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">VICTOR RAFAEL ANDRADE O P DE GUIMARAES SOUZA	</t>
         </is>
       </c>
-      <c r="C20" s="79" t="n">
+      <c r="C20" s="76" t="n">
         <v>513773401</v>
       </c>
-      <c r="D20" s="79" t="n"/>
-      <c r="E20" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F20" s="109" t="inlineStr">
+      <c r="D20" s="76" t="n"/>
+      <c r="E20" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F20" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I20" s="108" t="inlineStr">
+      <c r="I20" s="105" t="inlineStr">
         <is>
           <t>Atendimento Médico</t>
         </is>
       </c>
-      <c r="J20" s="81" t="n"/>
-      <c r="K20" s="112" t="n">
+      <c r="J20" s="78" t="n"/>
+      <c r="K20" s="109" t="n">
         <v>3270.3</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="78">
-      <c r="A21" s="82" t="n">
+    <row r="21" ht="15" customHeight="1" s="75">
+      <c r="A21" s="79" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="84" t="inlineStr">
+      <c r="B21" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">VERA LUCIA SILVA TAVARES	</t>
         </is>
       </c>
-      <c r="C21" s="79" t="n">
+      <c r="C21" s="76" t="n">
         <v>513797287</v>
       </c>
-      <c r="D21" s="79" t="n"/>
-      <c r="E21" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F21" s="109" t="inlineStr">
+      <c r="D21" s="76" t="n"/>
+      <c r="E21" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F21" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I21" s="108" t="inlineStr">
+      <c r="I21" s="105" t="inlineStr">
         <is>
           <t>Atendimento Psicológico</t>
         </is>
       </c>
-      <c r="J21" s="81" t="n"/>
-      <c r="K21" s="113" t="n">
+      <c r="J21" s="78" t="n"/>
+      <c r="K21" s="110" t="n">
         <v>1926.1</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="78">
-      <c r="A22" s="82" t="n">
+    <row r="22" ht="15" customHeight="1" s="75">
+      <c r="A22" s="79" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="84" t="inlineStr">
+      <c r="B22" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">BRISA CARVALHO ROCHA HITA	</t>
         </is>
       </c>
-      <c r="C22" s="79" t="n">
+      <c r="C22" s="76" t="n">
         <v>14091389</v>
       </c>
-      <c r="D22" s="79" t="n"/>
-      <c r="E22" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F22" s="109" t="inlineStr">
+      <c r="D22" s="76" t="n"/>
+      <c r="E22" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F22" s="106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="I22" s="114" t="inlineStr">
+      <c r="I22" s="111" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J22" s="81" t="n"/>
-      <c r="K22" s="113" t="n">
+      <c r="J22" s="78" t="n"/>
+      <c r="K22" s="110" t="n">
         <v>5196.4</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="78">
-      <c r="A23" s="82" t="n">
+    <row r="23" ht="15" customHeight="1" s="75">
+      <c r="A23" s="79" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="84" t="inlineStr">
+      <c r="B23" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">FERNANDA MIGUEZ SENA DE JESUS	</t>
         </is>
       </c>
-      <c r="C23" s="115" t="n">
+      <c r="C23" s="112" t="n">
         <v>513791549</v>
       </c>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="79" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F23" s="109" t="inlineStr">
+      <c r="D23" s="76" t="n"/>
+      <c r="E23" s="76" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F23" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
       <c r="G23" s="29" t="n"/>
-      <c r="I23" s="101" t="n"/>
-      <c r="J23" s="81" t="n"/>
-      <c r="K23" s="102" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="78">
-      <c r="A24" s="91" t="n"/>
-      <c r="B24" s="116" t="inlineStr">
+      <c r="I23" s="98" t="n"/>
+      <c r="J23" s="78" t="n"/>
+      <c r="K23" s="99" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="75">
+      <c r="A24" s="88" t="n"/>
+      <c r="B24" s="113" t="inlineStr">
         <is>
           <t>LUCIANO</t>
         </is>
       </c>
-      <c r="C24" s="109" t="inlineStr">
+      <c r="C24" s="106" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="D24" s="103" t="inlineStr">
+      <c r="D24" s="100" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E24" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F24" s="109" t="inlineStr">
+      <c r="E24" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F24" s="106" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I24" s="108" t="inlineStr">
+      <c r="I24" s="105" t="inlineStr">
         <is>
           <t>Pagamento Médico</t>
         </is>
       </c>
-      <c r="J24" s="81" t="n"/>
-      <c r="K24" s="112" t="n">
+      <c r="J24" s="78" t="n"/>
+      <c r="K24" s="109" t="n">
         <v>1078</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="78">
-      <c r="A25" s="91" t="n"/>
-      <c r="D25" s="110" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="75">
+      <c r="A25" s="88" t="n"/>
+      <c r="D25" s="107" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="E25" s="111" t="n">
+      <c r="E25" s="108" t="n">
         <v>3270.3</v>
       </c>
-      <c r="I25" s="108" t="inlineStr">
+      <c r="I25" s="105" t="inlineStr">
         <is>
           <t>Pagamento Psicológico</t>
         </is>
       </c>
-      <c r="J25" s="81" t="n"/>
-      <c r="K25" s="108" t="n">
+      <c r="J25" s="78" t="n"/>
+      <c r="K25" s="105" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="78">
-      <c r="A26" s="91" t="n"/>
-      <c r="D26" s="110" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="75">
+      <c r="A26" s="88" t="n"/>
+      <c r="D26" s="107" t="inlineStr">
         <is>
           <t>Médico</t>
         </is>
       </c>
-      <c r="E26" s="111" t="n">
+      <c r="E26" s="108" t="n">
         <v>1078</v>
       </c>
-      <c r="I26" s="108" t="inlineStr">
+      <c r="I26" s="105" t="inlineStr">
         <is>
           <t>Soma</t>
         </is>
       </c>
-      <c r="J26" s="81" t="n"/>
-      <c r="K26" s="108" t="n">
+      <c r="J26" s="78" t="n"/>
+      <c r="K26" s="105" t="n">
         <v>3483.4</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="78">
-      <c r="D27" s="110" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="75">
+      <c r="D27" s="107" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="E27" s="110" t="n">
+      <c r="E27" s="107" t="n">
         <v>2192.3</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="78"/>
-    <row r="29" ht="15" customHeight="1" s="78"/>
+    <row r="28" ht="15" customHeight="1" s="75"/>
+    <row r="29" ht="15" customHeight="1" s="75"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="I21:J21"/>
@@ -6344,488 +6397,488 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="1" sqref="A1:L14 M7"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.89" customWidth="1" style="77" min="2" max="2"/>
-    <col width="13.44" customWidth="1" style="77" min="3" max="3"/>
-    <col width="11.11" customWidth="1" style="77" min="5" max="5"/>
-    <col width="13.89" customWidth="1" style="77" min="10" max="10"/>
-    <col width="13.66" customWidth="1" style="77" min="11" max="11"/>
+    <col width="35.89" customWidth="1" style="74" min="2" max="2"/>
+    <col width="13.44" customWidth="1" style="74" min="3" max="3"/>
+    <col width="11.11" customWidth="1" style="74" min="5" max="5"/>
+    <col width="13.89" customWidth="1" style="74" min="10" max="10"/>
+    <col width="13.66" customWidth="1" style="74" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="78">
-      <c r="A1" s="79" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="75">
+      <c r="A1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Médico Quinta- feira 10/10/2024</t>
         </is>
       </c>
-      <c r="B1" s="80" t="n"/>
-      <c r="C1" s="80" t="n"/>
-      <c r="D1" s="80" t="n"/>
-      <c r="E1" s="81" t="n"/>
-      <c r="G1" s="79" t="inlineStr">
+      <c r="B1" s="77" t="n"/>
+      <c r="C1" s="77" t="n"/>
+      <c r="D1" s="77" t="n"/>
+      <c r="E1" s="78" t="n"/>
+      <c r="G1" s="76" t="inlineStr">
         <is>
           <t>(CAMPSSA) Atendimento Psicológico Quinta-feira 10/10/2024</t>
         </is>
       </c>
-      <c r="H1" s="80" t="n"/>
-      <c r="I1" s="80" t="n"/>
-      <c r="J1" s="80" t="n"/>
-      <c r="K1" s="81" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="78">
-      <c r="A2" s="82" t="inlineStr">
+      <c r="H1" s="77" t="n"/>
+      <c r="I1" s="77" t="n"/>
+      <c r="J1" s="77" t="n"/>
+      <c r="K1" s="78" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="75">
+      <c r="A2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="B2" s="79" t="inlineStr">
+      <c r="B2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C2" s="79" t="inlineStr">
+      <c r="C2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="D2" s="79" t="inlineStr">
+      <c r="D2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="E2" s="79" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="79" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H2" s="79" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="I2" s="79" t="inlineStr">
+      <c r="I2" s="76" t="inlineStr">
         <is>
           <t>Renach</t>
         </is>
       </c>
-      <c r="J2" s="79" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>Reexames</t>
         </is>
       </c>
-      <c r="K2" s="79" t="inlineStr">
+      <c r="K2" s="76" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="78">
-      <c r="A3" s="82" t="n">
+    <row r="3" ht="15" customHeight="1" s="75">
+      <c r="A3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="inlineStr">
+      <c r="B3" s="79" t="inlineStr">
         <is>
           <t>FLAVIO GALVAO CALHAU</t>
         </is>
       </c>
-      <c r="C3" s="79" t="n">
+      <c r="C3" s="76" t="n">
         <v>513777546</v>
       </c>
-      <c r="D3" s="79" t="n"/>
-      <c r="E3" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F3" s="77" t="inlineStr">
+      <c r="D3" s="76" t="n"/>
+      <c r="E3" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I3" s="88" t="n"/>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="I3" s="85" t="n"/>
+      <c r="J3" s="86" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="87">
         <f>0</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="78">
-      <c r="A4" s="82" t="n">
+    <row r="4" ht="15" customHeight="1" s="75">
+      <c r="A4" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="inlineStr">
+      <c r="B4" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">	JAMILLE TAVARES BARBOSA</t>
         </is>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="76" t="n">
         <v>513803164</v>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F4" s="77" t="inlineStr">
+      <c r="D4" s="76" t="n"/>
+      <c r="E4" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F4" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="G4" s="91" t="n"/>
-      <c r="H4" s="88" t="n"/>
-      <c r="I4" s="88" t="n"/>
-      <c r="J4" s="92" t="n"/>
+      <c r="G4" s="88" t="n"/>
+      <c r="H4" s="85" t="n"/>
+      <c r="I4" s="85" t="n"/>
+      <c r="J4" s="89" t="n"/>
       <c r="K4" s="14" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="78">
-      <c r="A5" s="82" t="n">
+    <row r="5" ht="15" customHeight="1" s="75">
+      <c r="A5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="inlineStr">
+      <c r="B5" s="83" t="inlineStr">
         <is>
           <t>VERONICA DO ESPIRITO SANTO SOUSA</t>
         </is>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="76" t="n">
         <v>513774514</v>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F5" s="77" t="inlineStr">
+      <c r="D5" s="76" t="n"/>
+      <c r="E5" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F5" s="74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H5" s="93" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="78">
-      <c r="A6" s="82" t="n">
+      <c r="H5" s="90" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="75">
+      <c r="A6" s="79" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="inlineStr">
+      <c r="B6" s="79" t="inlineStr">
         <is>
           <t>LAZARO JERONIMO FERREIRA</t>
         </is>
       </c>
-      <c r="C6" s="79" t="n">
+      <c r="C6" s="76" t="n">
         <v>513789726</v>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="83" t="n">
-        <v>148.65</v>
-      </c>
-      <c r="F6" s="77" t="inlineStr">
+      <c r="D6" s="76" t="n"/>
+      <c r="E6" s="80" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="F6" s="74" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I6" s="94" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>ATEND.MÉDICO</t>
         </is>
       </c>
-      <c r="J6" s="81" t="n"/>
-      <c r="K6" s="95">
+      <c r="J6" s="78" t="n"/>
+      <c r="K6" s="92">
         <f>E14</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht=